--- a/0_DOC/Femto Project schedule V1.0.xlsx
+++ b/0_DOC/Femto Project schedule V1.0.xlsx
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'20180207'!$A$1:$EH$49</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>◇PCB설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,10 @@
     <t>예정 사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>◇ 회로도 입수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -273,7 +277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +302,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="42">
     <border>
@@ -802,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -846,35 +856,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -917,9 +903,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -941,12 +924,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -957,10 +934,62 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -969,6 +998,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF66FF"/>
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
@@ -1140,14 +1170,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>10769</xdr:colOff>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>1244</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>94060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>157370</xdr:colOff>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>147845</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>94060</xdr:rowOff>
     </xdr:to>
@@ -1158,8 +1188,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14753812" y="2628538"/>
-          <a:ext cx="1339297" cy="0"/>
+          <a:off x="16031819" y="2951560"/>
+          <a:ext cx="1346751" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1191,14 +1221,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>24848</xdr:colOff>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>15323</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>89090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>149087</xdr:colOff>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>139562</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>89090</xdr:rowOff>
     </xdr:to>
@@ -1209,8 +1239,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14767891" y="2797503"/>
-          <a:ext cx="1316935" cy="0"/>
+          <a:off x="16045898" y="3118040"/>
+          <a:ext cx="1324389" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1242,14 +1272,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>41413</xdr:colOff>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>31888</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>89091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>82</xdr:col>
-      <xdr:colOff>165653</xdr:colOff>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>156128</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>89091</xdr:rowOff>
     </xdr:to>
@@ -1260,8 +1290,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14386891" y="2971439"/>
-          <a:ext cx="3105979" cy="0"/>
+          <a:off x="15662413" y="3289491"/>
+          <a:ext cx="3124615" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1299,8 +1329,8 @@
       <xdr:rowOff>132522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>182216</xdr:colOff>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>57979</xdr:rowOff>
     </xdr:to>
@@ -1311,8 +1341,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8812695" y="2319131"/>
-          <a:ext cx="4323521" cy="447261"/>
+          <a:off x="8662780" y="2647122"/>
+          <a:ext cx="4691270" cy="439807"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightArrow">
           <a:avLst/>
@@ -1428,13 +1458,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>86554</xdr:colOff>
+      <xdr:colOff>48454</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>94059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>98</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>94059</xdr:rowOff>
     </xdr:to>
@@ -1445,7 +1475,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10516429" y="6561534"/>
+          <a:off x="10478329" y="6904434"/>
           <a:ext cx="10105196" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1631,13 +1661,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>76</xdr:col>
+      <xdr:col>83</xdr:col>
       <xdr:colOff>18637</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>104413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>82</xdr:col>
+      <xdr:col>89</xdr:col>
       <xdr:colOff>165238</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>104413</xdr:rowOff>
@@ -1649,7 +1679,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16049212" y="5200288"/>
+          <a:off x="17449387" y="5543188"/>
           <a:ext cx="1346751" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1682,13 +1712,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>76</xdr:col>
+      <xdr:col>83</xdr:col>
       <xdr:colOff>18637</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>94888</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>82</xdr:col>
+      <xdr:col>89</xdr:col>
       <xdr:colOff>165238</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>94888</xdr:rowOff>
@@ -1700,7 +1730,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16049212" y="5362213"/>
+          <a:off x="17449387" y="5705113"/>
           <a:ext cx="1346751" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1835,13 +1865,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>81</xdr:col>
+      <xdr:col>88</xdr:col>
       <xdr:colOff>51766</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>85364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>96</xdr:col>
+      <xdr:col>103</xdr:col>
       <xdr:colOff>176006</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>85364</xdr:rowOff>
@@ -1853,7 +1883,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17082466" y="5524139"/>
+          <a:off x="18482641" y="5867039"/>
           <a:ext cx="3124615" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2431,9 +2461,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EV66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CZ37" sqref="CZ37"/>
+      <selection pane="topRight" activeCell="BX46" sqref="BX46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2458,178 +2488,178 @@
       </c>
     </row>
     <row r="4" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="105" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:152" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="104" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:152" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="29">
+      <c r="B6" s="113">
         <v>1</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="29">
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="110"/>
+      <c r="Q6" s="110"/>
+      <c r="R6" s="110"/>
+      <c r="S6" s="110"/>
+      <c r="T6" s="110"/>
+      <c r="U6" s="110"/>
+      <c r="V6" s="110"/>
+      <c r="W6" s="110"/>
+      <c r="X6" s="110"/>
+      <c r="Y6" s="110"/>
+      <c r="Z6" s="110"/>
+      <c r="AA6" s="110"/>
+      <c r="AB6" s="110"/>
+      <c r="AC6" s="110"/>
+      <c r="AD6" s="110"/>
+      <c r="AE6" s="110"/>
+      <c r="AF6" s="110"/>
+      <c r="AG6" s="113">
         <v>2</v>
       </c>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="30"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="30"/>
-      <c r="AL6" s="30"/>
-      <c r="AM6" s="30"/>
-      <c r="AN6" s="30"/>
-      <c r="AO6" s="30"/>
-      <c r="AP6" s="30"/>
-      <c r="AQ6" s="30"/>
-      <c r="AR6" s="30"/>
-      <c r="AS6" s="30"/>
-      <c r="AT6" s="30"/>
-      <c r="AU6" s="30"/>
-      <c r="AV6" s="30"/>
-      <c r="AW6" s="30"/>
-      <c r="AX6" s="30"/>
-      <c r="AY6" s="30"/>
-      <c r="AZ6" s="30"/>
-      <c r="BA6" s="30"/>
-      <c r="BB6" s="30"/>
-      <c r="BC6" s="30"/>
-      <c r="BD6" s="30"/>
-      <c r="BE6" s="30"/>
-      <c r="BF6" s="30"/>
-      <c r="BG6" s="30"/>
-      <c r="BH6" s="34"/>
-      <c r="BI6" s="30">
+      <c r="AH6" s="110"/>
+      <c r="AI6" s="110"/>
+      <c r="AJ6" s="110"/>
+      <c r="AK6" s="110"/>
+      <c r="AL6" s="110"/>
+      <c r="AM6" s="110"/>
+      <c r="AN6" s="110"/>
+      <c r="AO6" s="110"/>
+      <c r="AP6" s="110"/>
+      <c r="AQ6" s="110"/>
+      <c r="AR6" s="110"/>
+      <c r="AS6" s="110"/>
+      <c r="AT6" s="110"/>
+      <c r="AU6" s="110"/>
+      <c r="AV6" s="110"/>
+      <c r="AW6" s="110"/>
+      <c r="AX6" s="110"/>
+      <c r="AY6" s="110"/>
+      <c r="AZ6" s="110"/>
+      <c r="BA6" s="110"/>
+      <c r="BB6" s="110"/>
+      <c r="BC6" s="110"/>
+      <c r="BD6" s="110"/>
+      <c r="BE6" s="110"/>
+      <c r="BF6" s="110"/>
+      <c r="BG6" s="110"/>
+      <c r="BH6" s="111"/>
+      <c r="BI6" s="110">
         <v>3</v>
       </c>
-      <c r="BJ6" s="30"/>
-      <c r="BK6" s="30"/>
-      <c r="BL6" s="30"/>
-      <c r="BM6" s="30"/>
-      <c r="BN6" s="30"/>
-      <c r="BO6" s="30"/>
-      <c r="BP6" s="30"/>
-      <c r="BQ6" s="30"/>
-      <c r="BR6" s="30"/>
-      <c r="BS6" s="30"/>
-      <c r="BT6" s="30"/>
-      <c r="BU6" s="30"/>
-      <c r="BV6" s="30"/>
-      <c r="BW6" s="30"/>
-      <c r="BX6" s="30"/>
-      <c r="BY6" s="30"/>
-      <c r="BZ6" s="30"/>
-      <c r="CA6" s="30"/>
-      <c r="CB6" s="30"/>
-      <c r="CC6" s="30"/>
-      <c r="CD6" s="30"/>
-      <c r="CE6" s="30"/>
-      <c r="CF6" s="30"/>
-      <c r="CG6" s="30"/>
-      <c r="CH6" s="30"/>
-      <c r="CI6" s="30"/>
-      <c r="CJ6" s="30"/>
-      <c r="CK6" s="30"/>
-      <c r="CL6" s="30"/>
-      <c r="CM6" s="30"/>
-      <c r="CN6" s="106">
+      <c r="BJ6" s="110"/>
+      <c r="BK6" s="110"/>
+      <c r="BL6" s="110"/>
+      <c r="BM6" s="110"/>
+      <c r="BN6" s="110"/>
+      <c r="BO6" s="110"/>
+      <c r="BP6" s="110"/>
+      <c r="BQ6" s="110"/>
+      <c r="BR6" s="110"/>
+      <c r="BS6" s="110"/>
+      <c r="BT6" s="110"/>
+      <c r="BU6" s="110"/>
+      <c r="BV6" s="110"/>
+      <c r="BW6" s="110"/>
+      <c r="BX6" s="110"/>
+      <c r="BY6" s="110"/>
+      <c r="BZ6" s="110"/>
+      <c r="CA6" s="110"/>
+      <c r="CB6" s="110"/>
+      <c r="CC6" s="110"/>
+      <c r="CD6" s="110"/>
+      <c r="CE6" s="110"/>
+      <c r="CF6" s="110"/>
+      <c r="CG6" s="110"/>
+      <c r="CH6" s="110"/>
+      <c r="CI6" s="110"/>
+      <c r="CJ6" s="110"/>
+      <c r="CK6" s="110"/>
+      <c r="CL6" s="110"/>
+      <c r="CM6" s="110"/>
+      <c r="CN6" s="114">
         <v>4</v>
       </c>
-      <c r="CO6" s="35"/>
-      <c r="CP6" s="35"/>
-      <c r="CQ6" s="35"/>
-      <c r="CR6" s="35"/>
-      <c r="CS6" s="35"/>
-      <c r="CT6" s="35"/>
-      <c r="CU6" s="35"/>
-      <c r="CV6" s="35"/>
-      <c r="CW6" s="35"/>
-      <c r="CX6" s="35"/>
-      <c r="CY6" s="35"/>
-      <c r="CZ6" s="35"/>
-      <c r="DA6" s="35"/>
-      <c r="DB6" s="35"/>
-      <c r="DC6" s="35"/>
-      <c r="DD6" s="35"/>
-      <c r="DE6" s="35"/>
-      <c r="DF6" s="35"/>
-      <c r="DG6" s="35"/>
-      <c r="DH6" s="35"/>
-      <c r="DI6" s="35"/>
-      <c r="DJ6" s="35"/>
-      <c r="DK6" s="35"/>
-      <c r="DL6" s="35"/>
-      <c r="DM6" s="35"/>
-      <c r="DN6" s="35"/>
-      <c r="DO6" s="35"/>
-      <c r="DP6" s="35"/>
-      <c r="DQ6" s="107"/>
-      <c r="DR6" s="30">
+      <c r="CO6" s="115"/>
+      <c r="CP6" s="115"/>
+      <c r="CQ6" s="115"/>
+      <c r="CR6" s="115"/>
+      <c r="CS6" s="115"/>
+      <c r="CT6" s="115"/>
+      <c r="CU6" s="115"/>
+      <c r="CV6" s="115"/>
+      <c r="CW6" s="115"/>
+      <c r="CX6" s="115"/>
+      <c r="CY6" s="115"/>
+      <c r="CZ6" s="115"/>
+      <c r="DA6" s="115"/>
+      <c r="DB6" s="115"/>
+      <c r="DC6" s="115"/>
+      <c r="DD6" s="115"/>
+      <c r="DE6" s="115"/>
+      <c r="DF6" s="115"/>
+      <c r="DG6" s="115"/>
+      <c r="DH6" s="115"/>
+      <c r="DI6" s="115"/>
+      <c r="DJ6" s="115"/>
+      <c r="DK6" s="115"/>
+      <c r="DL6" s="115"/>
+      <c r="DM6" s="115"/>
+      <c r="DN6" s="115"/>
+      <c r="DO6" s="115"/>
+      <c r="DP6" s="115"/>
+      <c r="DQ6" s="116"/>
+      <c r="DR6" s="110">
         <v>5</v>
       </c>
-      <c r="DS6" s="30"/>
-      <c r="DT6" s="30"/>
-      <c r="DU6" s="30"/>
-      <c r="DV6" s="30"/>
-      <c r="DW6" s="30"/>
-      <c r="DX6" s="30"/>
-      <c r="DY6" s="30"/>
-      <c r="DZ6" s="30"/>
-      <c r="EA6" s="30"/>
-      <c r="EB6" s="30"/>
-      <c r="EC6" s="30"/>
-      <c r="ED6" s="30"/>
-      <c r="EE6" s="30"/>
-      <c r="EF6" s="30"/>
-      <c r="EG6" s="30"/>
-      <c r="EH6" s="30"/>
-      <c r="EI6" s="30"/>
-      <c r="EJ6" s="30"/>
-      <c r="EK6" s="30"/>
-      <c r="EL6" s="30"/>
-      <c r="EM6" s="30"/>
-      <c r="EN6" s="30"/>
-      <c r="EO6" s="30"/>
-      <c r="EP6" s="30"/>
-      <c r="EQ6" s="30"/>
-      <c r="ER6" s="30"/>
-      <c r="ES6" s="30"/>
-      <c r="ET6" s="30"/>
-      <c r="EU6" s="30"/>
-      <c r="EV6" s="34"/>
+      <c r="DS6" s="110"/>
+      <c r="DT6" s="110"/>
+      <c r="DU6" s="110"/>
+      <c r="DV6" s="110"/>
+      <c r="DW6" s="110"/>
+      <c r="DX6" s="110"/>
+      <c r="DY6" s="110"/>
+      <c r="DZ6" s="110"/>
+      <c r="EA6" s="110"/>
+      <c r="EB6" s="110"/>
+      <c r="EC6" s="110"/>
+      <c r="ED6" s="110"/>
+      <c r="EE6" s="110"/>
+      <c r="EF6" s="110"/>
+      <c r="EG6" s="110"/>
+      <c r="EH6" s="110"/>
+      <c r="EI6" s="110"/>
+      <c r="EJ6" s="110"/>
+      <c r="EK6" s="110"/>
+      <c r="EL6" s="110"/>
+      <c r="EM6" s="110"/>
+      <c r="EN6" s="110"/>
+      <c r="EO6" s="110"/>
+      <c r="EP6" s="110"/>
+      <c r="EQ6" s="110"/>
+      <c r="ER6" s="110"/>
+      <c r="ES6" s="110"/>
+      <c r="ET6" s="110"/>
+      <c r="EU6" s="110"/>
+      <c r="EV6" s="111"/>
     </row>
     <row r="7" spans="1:152" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
@@ -2819,19 +2849,19 @@
       <c r="BK7" s="10">
         <v>3</v>
       </c>
-      <c r="BL7" s="10">
+      <c r="BL7" s="117">
         <v>4</v>
       </c>
-      <c r="BM7" s="8">
+      <c r="BM7" s="118">
         <v>5</v>
       </c>
-      <c r="BN7" s="8">
+      <c r="BN7" s="118">
         <v>6</v>
       </c>
-      <c r="BO7" s="8">
+      <c r="BO7" s="118">
         <v>7</v>
       </c>
-      <c r="BP7" s="8">
+      <c r="BP7" s="118">
         <v>8</v>
       </c>
       <c r="BQ7" s="8">
@@ -2903,7 +2933,7 @@
       <c r="CM7" s="10">
         <v>31</v>
       </c>
-      <c r="CN7" s="108">
+      <c r="CN7" s="97">
         <v>1</v>
       </c>
       <c r="CO7" s="6">
@@ -2990,7 +3020,7 @@
       <c r="DP7" s="1">
         <v>29</v>
       </c>
-      <c r="DQ7" s="109">
+      <c r="DQ7" s="98">
         <v>30</v>
       </c>
       <c r="DR7" s="8">
@@ -3088,1273 +3118,1273 @@
       </c>
     </row>
     <row r="8" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="50" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="58"/>
-      <c r="AE8" s="43"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="70" t="s">
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="AH8" s="43"/>
-      <c r="AI8" s="46"/>
-      <c r="AJ8" s="46"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="50" t="s">
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="38"/>
+      <c r="AJ8" s="38"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="AM8" s="66"/>
-      <c r="AN8" s="43"/>
-      <c r="AO8" s="43"/>
-      <c r="AP8" s="46"/>
-      <c r="AQ8" s="46"/>
-      <c r="AR8" s="58"/>
-      <c r="AS8" s="43"/>
-      <c r="AT8" s="44"/>
-      <c r="AU8" s="46"/>
-      <c r="AV8" s="46"/>
-      <c r="AW8" s="46"/>
-      <c r="AX8" s="46"/>
-      <c r="AY8" s="58"/>
-      <c r="AZ8" s="43"/>
-      <c r="BA8" s="44"/>
-      <c r="BB8" s="43"/>
-      <c r="BC8" s="43"/>
-      <c r="BD8" s="46"/>
-      <c r="BE8" s="46"/>
-      <c r="BF8" s="58"/>
-      <c r="BG8" s="43"/>
-      <c r="BH8" s="71"/>
-      <c r="BI8" s="46"/>
-      <c r="BJ8" s="43"/>
-      <c r="BK8" s="46"/>
-      <c r="BL8" s="46"/>
-      <c r="BM8" s="45"/>
-      <c r="BN8" s="43"/>
-      <c r="BO8" s="44"/>
-      <c r="BP8" s="43"/>
-      <c r="BQ8" s="43"/>
-      <c r="BR8" s="46"/>
-      <c r="BS8" s="46"/>
-      <c r="BT8" s="58"/>
-      <c r="BU8" s="43"/>
-      <c r="BV8" s="44"/>
-      <c r="BW8" s="43"/>
-      <c r="BX8" s="43"/>
-      <c r="BY8" s="46"/>
-      <c r="BZ8" s="46"/>
-      <c r="CA8" s="58"/>
-      <c r="CB8" s="43"/>
-      <c r="CC8" s="44"/>
-      <c r="CD8" s="43"/>
-      <c r="CE8" s="43"/>
-      <c r="CF8" s="46"/>
-      <c r="CG8" s="46"/>
-      <c r="CH8" s="58"/>
-      <c r="CI8" s="43"/>
-      <c r="CJ8" s="44"/>
-      <c r="CK8" s="43"/>
-      <c r="CL8" s="43"/>
-      <c r="CM8" s="46"/>
-      <c r="CN8" s="42"/>
-      <c r="CO8" s="58"/>
-      <c r="CP8" s="43"/>
-      <c r="CQ8" s="44"/>
-      <c r="CR8" s="43"/>
-      <c r="CS8" s="43"/>
-      <c r="CT8" s="46"/>
-      <c r="CU8" s="46"/>
-      <c r="CV8" s="58"/>
-      <c r="CW8" s="43"/>
-      <c r="CX8" s="44"/>
-      <c r="CY8" s="43"/>
-      <c r="CZ8" s="43"/>
-      <c r="DA8" s="46"/>
-      <c r="DB8" s="46"/>
-      <c r="DC8" s="58"/>
-      <c r="DD8" s="43"/>
-      <c r="DE8" s="44"/>
-      <c r="DF8" s="43"/>
-      <c r="DG8" s="43"/>
-      <c r="DH8" s="46"/>
-      <c r="DI8" s="46"/>
-      <c r="DJ8" s="58"/>
-      <c r="DK8" s="43"/>
-      <c r="DL8" s="44"/>
-      <c r="DM8" s="43"/>
-      <c r="DN8" s="43"/>
-      <c r="DO8" s="46"/>
-      <c r="DP8" s="46"/>
-      <c r="DQ8" s="111"/>
-      <c r="DR8" s="78"/>
-      <c r="DS8" s="44"/>
-      <c r="DT8" s="43"/>
-      <c r="DU8" s="43"/>
-      <c r="DV8" s="46"/>
-      <c r="DW8" s="46"/>
-      <c r="DX8" s="46"/>
-      <c r="DY8" s="43"/>
-      <c r="DZ8" s="44"/>
-      <c r="EA8" s="43"/>
-      <c r="EB8" s="43"/>
-      <c r="EC8" s="46"/>
-      <c r="ED8" s="46"/>
-      <c r="EE8" s="58"/>
-      <c r="EF8" s="43"/>
-      <c r="EG8" s="44"/>
-      <c r="EH8" s="43"/>
-      <c r="EI8" s="43"/>
-      <c r="EJ8" s="46"/>
-      <c r="EK8" s="46"/>
-      <c r="EL8" s="58"/>
-      <c r="EM8" s="46"/>
-      <c r="EN8" s="44"/>
-      <c r="EO8" s="43"/>
-      <c r="EP8" s="43"/>
-      <c r="EQ8" s="46"/>
-      <c r="ER8" s="46"/>
-      <c r="ES8" s="58"/>
-      <c r="ET8" s="58"/>
-      <c r="EU8" s="58"/>
-      <c r="EV8" s="111"/>
+      <c r="AM8" s="58"/>
+      <c r="AN8" s="35"/>
+      <c r="AO8" s="35"/>
+      <c r="AP8" s="38"/>
+      <c r="AQ8" s="38"/>
+      <c r="AR8" s="50"/>
+      <c r="AS8" s="35"/>
+      <c r="AT8" s="36"/>
+      <c r="AU8" s="38"/>
+      <c r="AV8" s="38"/>
+      <c r="AW8" s="38"/>
+      <c r="AX8" s="38"/>
+      <c r="AY8" s="50"/>
+      <c r="AZ8" s="35"/>
+      <c r="BA8" s="36"/>
+      <c r="BB8" s="35"/>
+      <c r="BC8" s="35"/>
+      <c r="BD8" s="38"/>
+      <c r="BE8" s="38"/>
+      <c r="BF8" s="50"/>
+      <c r="BG8" s="35"/>
+      <c r="BH8" s="63"/>
+      <c r="BI8" s="38"/>
+      <c r="BJ8" s="35"/>
+      <c r="BK8" s="38"/>
+      <c r="BL8" s="119"/>
+      <c r="BM8" s="120"/>
+      <c r="BN8" s="119"/>
+      <c r="BO8" s="121"/>
+      <c r="BP8" s="119"/>
+      <c r="BQ8" s="35"/>
+      <c r="BR8" s="38"/>
+      <c r="BS8" s="38"/>
+      <c r="BT8" s="50"/>
+      <c r="BU8" s="35"/>
+      <c r="BV8" s="36"/>
+      <c r="BW8" s="35"/>
+      <c r="BX8" s="35"/>
+      <c r="BY8" s="38"/>
+      <c r="BZ8" s="38"/>
+      <c r="CA8" s="50"/>
+      <c r="CB8" s="35"/>
+      <c r="CC8" s="36"/>
+      <c r="CD8" s="35"/>
+      <c r="CE8" s="35"/>
+      <c r="CF8" s="38"/>
+      <c r="CG8" s="38"/>
+      <c r="CH8" s="50"/>
+      <c r="CI8" s="35"/>
+      <c r="CJ8" s="36"/>
+      <c r="CK8" s="35"/>
+      <c r="CL8" s="35"/>
+      <c r="CM8" s="38"/>
+      <c r="CN8" s="34"/>
+      <c r="CO8" s="50"/>
+      <c r="CP8" s="35"/>
+      <c r="CQ8" s="36"/>
+      <c r="CR8" s="35"/>
+      <c r="CS8" s="35"/>
+      <c r="CT8" s="38"/>
+      <c r="CU8" s="38"/>
+      <c r="CV8" s="50"/>
+      <c r="CW8" s="35"/>
+      <c r="CX8" s="36"/>
+      <c r="CY8" s="35"/>
+      <c r="CZ8" s="35"/>
+      <c r="DA8" s="38"/>
+      <c r="DB8" s="38"/>
+      <c r="DC8" s="50"/>
+      <c r="DD8" s="35"/>
+      <c r="DE8" s="36"/>
+      <c r="DF8" s="35"/>
+      <c r="DG8" s="35"/>
+      <c r="DH8" s="38"/>
+      <c r="DI8" s="38"/>
+      <c r="DJ8" s="50"/>
+      <c r="DK8" s="35"/>
+      <c r="DL8" s="36"/>
+      <c r="DM8" s="35"/>
+      <c r="DN8" s="35"/>
+      <c r="DO8" s="38"/>
+      <c r="DP8" s="38"/>
+      <c r="DQ8" s="100"/>
+      <c r="DR8" s="70"/>
+      <c r="DS8" s="36"/>
+      <c r="DT8" s="35"/>
+      <c r="DU8" s="35"/>
+      <c r="DV8" s="38"/>
+      <c r="DW8" s="38"/>
+      <c r="DX8" s="38"/>
+      <c r="DY8" s="35"/>
+      <c r="DZ8" s="36"/>
+      <c r="EA8" s="35"/>
+      <c r="EB8" s="35"/>
+      <c r="EC8" s="38"/>
+      <c r="ED8" s="38"/>
+      <c r="EE8" s="50"/>
+      <c r="EF8" s="35"/>
+      <c r="EG8" s="36"/>
+      <c r="EH8" s="35"/>
+      <c r="EI8" s="35"/>
+      <c r="EJ8" s="38"/>
+      <c r="EK8" s="38"/>
+      <c r="EL8" s="50"/>
+      <c r="EM8" s="38"/>
+      <c r="EN8" s="36"/>
+      <c r="EO8" s="35"/>
+      <c r="EP8" s="35"/>
+      <c r="EQ8" s="38"/>
+      <c r="ER8" s="38"/>
+      <c r="ES8" s="50"/>
+      <c r="ET8" s="50"/>
+      <c r="EU8" s="50"/>
+      <c r="EV8" s="100"/>
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="38" t="s">
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="38"/>
+      <c r="O9" s="31"/>
       <c r="P9" s="28"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
       <c r="W9" s="28"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="38"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="31"/>
       <c r="AD9" s="28"/>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="72"/>
-      <c r="AH9" s="37" t="s">
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="64"/>
+      <c r="AH9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="AI9" s="38"/>
-      <c r="AJ9" s="38"/>
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="31"/>
       <c r="AK9" s="28"/>
-      <c r="AL9" s="37"/>
-      <c r="AM9" s="37"/>
-      <c r="AN9" s="37"/>
-      <c r="AO9" s="37"/>
-      <c r="AP9" s="38"/>
-      <c r="AQ9" s="38"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="31"/>
+      <c r="AQ9" s="31"/>
       <c r="AR9" s="28"/>
-      <c r="AS9" s="37"/>
-      <c r="AT9" s="37"/>
-      <c r="AU9" s="38"/>
-      <c r="AV9" s="38"/>
-      <c r="AW9" s="38"/>
-      <c r="AX9" s="38"/>
+      <c r="AS9" s="30"/>
+      <c r="AT9" s="30"/>
+      <c r="AU9" s="31"/>
+      <c r="AV9" s="31"/>
+      <c r="AW9" s="31"/>
+      <c r="AX9" s="31"/>
       <c r="AY9" s="28"/>
-      <c r="AZ9" s="37"/>
-      <c r="BA9" s="37"/>
-      <c r="BB9" s="37"/>
-      <c r="BC9" s="37"/>
-      <c r="BD9" s="38"/>
-      <c r="BE9" s="38"/>
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="30"/>
+      <c r="BB9" s="30"/>
+      <c r="BC9" s="30"/>
+      <c r="BD9" s="31"/>
+      <c r="BE9" s="31"/>
       <c r="BF9" s="28"/>
-      <c r="BG9" s="37"/>
-      <c r="BH9" s="39"/>
-      <c r="BI9" s="38"/>
-      <c r="BJ9" s="37"/>
-      <c r="BK9" s="38"/>
-      <c r="BL9" s="38"/>
-      <c r="BM9" s="28"/>
-      <c r="BN9" s="37"/>
-      <c r="BO9" s="37"/>
-      <c r="BP9" s="37"/>
-      <c r="BQ9" s="37"/>
-      <c r="BR9" s="38"/>
-      <c r="BS9" s="38"/>
+      <c r="BG9" s="30"/>
+      <c r="BH9" s="32"/>
+      <c r="BI9" s="31"/>
+      <c r="BJ9" s="30"/>
+      <c r="BK9" s="31"/>
+      <c r="BL9" s="122"/>
+      <c r="BM9" s="122"/>
+      <c r="BN9" s="122"/>
+      <c r="BO9" s="122"/>
+      <c r="BP9" s="122"/>
+      <c r="BQ9" s="30"/>
+      <c r="BR9" s="31"/>
+      <c r="BS9" s="31"/>
       <c r="BT9" s="28"/>
-      <c r="BU9" s="37"/>
-      <c r="BV9" s="37"/>
-      <c r="BW9" s="37"/>
-      <c r="BX9" s="37"/>
-      <c r="BY9" s="38"/>
-      <c r="BZ9" s="38"/>
+      <c r="BU9" s="30"/>
+      <c r="BV9" s="30"/>
+      <c r="BW9" s="30"/>
+      <c r="BX9" s="30"/>
+      <c r="BY9" s="31"/>
+      <c r="BZ9" s="31"/>
       <c r="CA9" s="28"/>
-      <c r="CB9" s="37"/>
-      <c r="CC9" s="37"/>
-      <c r="CD9" s="37"/>
-      <c r="CE9" s="37"/>
-      <c r="CF9" s="38"/>
-      <c r="CG9" s="38"/>
+      <c r="CB9" s="30"/>
+      <c r="CC9" s="30"/>
+      <c r="CD9" s="30"/>
+      <c r="CE9" s="30"/>
+      <c r="CF9" s="31"/>
+      <c r="CG9" s="31"/>
       <c r="CH9" s="28"/>
-      <c r="CI9" s="37"/>
-      <c r="CJ9" s="37"/>
-      <c r="CK9" s="37"/>
-      <c r="CL9" s="37"/>
-      <c r="CM9" s="38"/>
-      <c r="CN9" s="36"/>
+      <c r="CI9" s="30"/>
+      <c r="CJ9" s="30"/>
+      <c r="CK9" s="30"/>
+      <c r="CL9" s="30"/>
+      <c r="CM9" s="31"/>
+      <c r="CN9" s="29"/>
       <c r="CO9" s="28"/>
-      <c r="CP9" s="37"/>
-      <c r="CQ9" s="37"/>
-      <c r="CR9" s="37"/>
-      <c r="CS9" s="37"/>
-      <c r="CT9" s="38"/>
-      <c r="CU9" s="38"/>
+      <c r="CP9" s="30"/>
+      <c r="CQ9" s="30"/>
+      <c r="CR9" s="30"/>
+      <c r="CS9" s="30"/>
+      <c r="CT9" s="31"/>
+      <c r="CU9" s="31"/>
       <c r="CV9" s="28"/>
-      <c r="CW9" s="37"/>
-      <c r="CX9" s="37"/>
-      <c r="CY9" s="37"/>
-      <c r="CZ9" s="37"/>
-      <c r="DA9" s="38"/>
-      <c r="DB9" s="38"/>
+      <c r="CW9" s="30"/>
+      <c r="CX9" s="30"/>
+      <c r="CY9" s="30"/>
+      <c r="CZ9" s="30"/>
+      <c r="DA9" s="31"/>
+      <c r="DB9" s="31"/>
       <c r="DC9" s="28"/>
-      <c r="DD9" s="37"/>
-      <c r="DE9" s="37"/>
-      <c r="DF9" s="37"/>
-      <c r="DG9" s="37"/>
-      <c r="DH9" s="38"/>
-      <c r="DI9" s="38"/>
+      <c r="DD9" s="30"/>
+      <c r="DE9" s="30"/>
+      <c r="DF9" s="30"/>
+      <c r="DG9" s="30"/>
+      <c r="DH9" s="31"/>
+      <c r="DI9" s="31"/>
       <c r="DJ9" s="28"/>
-      <c r="DK9" s="37"/>
-      <c r="DL9" s="37"/>
-      <c r="DM9" s="37"/>
-      <c r="DN9" s="37"/>
-      <c r="DO9" s="38"/>
-      <c r="DP9" s="38"/>
-      <c r="DQ9" s="40"/>
-      <c r="DR9" s="72"/>
-      <c r="DS9" s="37"/>
-      <c r="DT9" s="37"/>
-      <c r="DU9" s="37"/>
-      <c r="DV9" s="38"/>
-      <c r="DW9" s="38"/>
-      <c r="DX9" s="38"/>
-      <c r="DY9" s="37"/>
-      <c r="DZ9" s="37"/>
-      <c r="EA9" s="37"/>
-      <c r="EB9" s="37"/>
-      <c r="EC9" s="38"/>
-      <c r="ED9" s="38"/>
+      <c r="DK9" s="30"/>
+      <c r="DL9" s="30"/>
+      <c r="DM9" s="30"/>
+      <c r="DN9" s="30"/>
+      <c r="DO9" s="31"/>
+      <c r="DP9" s="31"/>
+      <c r="DQ9" s="33"/>
+      <c r="DR9" s="64"/>
+      <c r="DS9" s="30"/>
+      <c r="DT9" s="30"/>
+      <c r="DU9" s="30"/>
+      <c r="DV9" s="31"/>
+      <c r="DW9" s="31"/>
+      <c r="DX9" s="31"/>
+      <c r="DY9" s="30"/>
+      <c r="DZ9" s="30"/>
+      <c r="EA9" s="30"/>
+      <c r="EB9" s="30"/>
+      <c r="EC9" s="31"/>
+      <c r="ED9" s="31"/>
       <c r="EE9" s="28"/>
-      <c r="EF9" s="37"/>
-      <c r="EG9" s="37"/>
-      <c r="EH9" s="37"/>
-      <c r="EI9" s="37"/>
-      <c r="EJ9" s="38"/>
-      <c r="EK9" s="38"/>
+      <c r="EF9" s="30"/>
+      <c r="EG9" s="30"/>
+      <c r="EH9" s="30"/>
+      <c r="EI9" s="30"/>
+      <c r="EJ9" s="31"/>
+      <c r="EK9" s="31"/>
       <c r="EL9" s="28"/>
-      <c r="EM9" s="38"/>
-      <c r="EN9" s="37"/>
-      <c r="EO9" s="37"/>
-      <c r="EP9" s="37"/>
-      <c r="EQ9" s="38"/>
-      <c r="ER9" s="38"/>
+      <c r="EM9" s="31"/>
+      <c r="EN9" s="30"/>
+      <c r="EO9" s="30"/>
+      <c r="EP9" s="30"/>
+      <c r="EQ9" s="31"/>
+      <c r="ER9" s="31"/>
       <c r="ES9" s="28"/>
       <c r="ET9" s="28"/>
       <c r="EU9" s="28"/>
-      <c r="EV9" s="40"/>
+      <c r="EV9" s="33"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="38" t="s">
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="38"/>
+      <c r="O10" s="31"/>
       <c r="P10" s="28"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
       <c r="W10" s="28"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="38"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
       <c r="AD10" s="28"/>
-      <c r="AE10" s="37"/>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="72"/>
-      <c r="AH10" s="37" t="s">
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="AI10" s="38"/>
-      <c r="AJ10" s="38"/>
+      <c r="AI10" s="31"/>
+      <c r="AJ10" s="31"/>
       <c r="AK10" s="28"/>
-      <c r="AL10" s="37"/>
-      <c r="AM10" s="37"/>
-      <c r="AN10" s="37"/>
-      <c r="AO10" s="37"/>
-      <c r="AP10" s="38"/>
-      <c r="AQ10" s="38"/>
+      <c r="AL10" s="30"/>
+      <c r="AM10" s="30"/>
+      <c r="AN10" s="30"/>
+      <c r="AO10" s="30"/>
+      <c r="AP10" s="31"/>
+      <c r="AQ10" s="31"/>
       <c r="AR10" s="28"/>
-      <c r="AS10" s="37"/>
-      <c r="AT10" s="37"/>
-      <c r="AU10" s="38"/>
-      <c r="AV10" s="38"/>
-      <c r="AW10" s="38"/>
-      <c r="AX10" s="38"/>
+      <c r="AS10" s="30"/>
+      <c r="AT10" s="30"/>
+      <c r="AU10" s="31"/>
+      <c r="AV10" s="31"/>
+      <c r="AW10" s="31"/>
+      <c r="AX10" s="31"/>
       <c r="AY10" s="28"/>
-      <c r="AZ10" s="37"/>
-      <c r="BA10" s="37"/>
-      <c r="BB10" s="37"/>
-      <c r="BC10" s="37"/>
-      <c r="BD10" s="38"/>
-      <c r="BE10" s="38"/>
+      <c r="AZ10" s="30"/>
+      <c r="BA10" s="30"/>
+      <c r="BB10" s="30"/>
+      <c r="BC10" s="30"/>
+      <c r="BD10" s="31"/>
+      <c r="BE10" s="31"/>
       <c r="BF10" s="28"/>
-      <c r="BG10" s="37"/>
-      <c r="BH10" s="39"/>
-      <c r="BI10" s="38"/>
-      <c r="BJ10" s="37"/>
-      <c r="BK10" s="38"/>
-      <c r="BL10" s="38"/>
-      <c r="BM10" s="28"/>
-      <c r="BN10" s="37"/>
-      <c r="BO10" s="37"/>
-      <c r="BP10" s="37"/>
-      <c r="BQ10" s="37"/>
-      <c r="BR10" s="38"/>
-      <c r="BS10" s="38"/>
+      <c r="BG10" s="30"/>
+      <c r="BH10" s="32"/>
+      <c r="BI10" s="31"/>
+      <c r="BJ10" s="30"/>
+      <c r="BK10" s="31"/>
+      <c r="BL10" s="122"/>
+      <c r="BM10" s="122"/>
+      <c r="BN10" s="122"/>
+      <c r="BO10" s="122"/>
+      <c r="BP10" s="122"/>
+      <c r="BQ10" s="30"/>
+      <c r="BR10" s="31"/>
+      <c r="BS10" s="31"/>
       <c r="BT10" s="28"/>
-      <c r="BU10" s="37"/>
-      <c r="BV10" s="37"/>
-      <c r="BW10" s="37"/>
-      <c r="BX10" s="37"/>
-      <c r="BY10" s="38"/>
-      <c r="BZ10" s="38"/>
+      <c r="BU10" s="30"/>
+      <c r="BV10" s="30"/>
+      <c r="BW10" s="30"/>
+      <c r="BX10" s="30"/>
+      <c r="BY10" s="31"/>
+      <c r="BZ10" s="31"/>
       <c r="CA10" s="28"/>
-      <c r="CB10" s="37"/>
-      <c r="CC10" s="37"/>
-      <c r="CD10" s="37"/>
-      <c r="CE10" s="37"/>
-      <c r="CF10" s="38"/>
-      <c r="CG10" s="38"/>
+      <c r="CB10" s="30"/>
+      <c r="CC10" s="30"/>
+      <c r="CD10" s="30"/>
+      <c r="CE10" s="30"/>
+      <c r="CF10" s="31"/>
+      <c r="CG10" s="31"/>
       <c r="CH10" s="28"/>
-      <c r="CI10" s="37"/>
-      <c r="CJ10" s="37"/>
-      <c r="CK10" s="37"/>
-      <c r="CL10" s="37"/>
-      <c r="CM10" s="38"/>
-      <c r="CN10" s="36"/>
+      <c r="CI10" s="30"/>
+      <c r="CJ10" s="30"/>
+      <c r="CK10" s="30"/>
+      <c r="CL10" s="30"/>
+      <c r="CM10" s="31"/>
+      <c r="CN10" s="29"/>
       <c r="CO10" s="28"/>
-      <c r="CP10" s="37"/>
-      <c r="CQ10" s="37"/>
-      <c r="CR10" s="37"/>
-      <c r="CS10" s="37"/>
-      <c r="CT10" s="38"/>
-      <c r="CU10" s="38"/>
+      <c r="CP10" s="30"/>
+      <c r="CQ10" s="30"/>
+      <c r="CR10" s="30"/>
+      <c r="CS10" s="30"/>
+      <c r="CT10" s="31"/>
+      <c r="CU10" s="31"/>
       <c r="CV10" s="28"/>
-      <c r="CW10" s="37"/>
-      <c r="CX10" s="37"/>
-      <c r="CY10" s="37"/>
-      <c r="CZ10" s="37"/>
-      <c r="DA10" s="38"/>
-      <c r="DB10" s="38"/>
+      <c r="CW10" s="30"/>
+      <c r="CX10" s="30"/>
+      <c r="CY10" s="30"/>
+      <c r="CZ10" s="30"/>
+      <c r="DA10" s="31"/>
+      <c r="DB10" s="31"/>
       <c r="DC10" s="28"/>
-      <c r="DD10" s="37"/>
-      <c r="DE10" s="37"/>
-      <c r="DF10" s="37"/>
-      <c r="DG10" s="37"/>
-      <c r="DH10" s="38"/>
-      <c r="DI10" s="38"/>
+      <c r="DD10" s="30"/>
+      <c r="DE10" s="30"/>
+      <c r="DF10" s="30"/>
+      <c r="DG10" s="30"/>
+      <c r="DH10" s="31"/>
+      <c r="DI10" s="31"/>
       <c r="DJ10" s="28"/>
-      <c r="DK10" s="37"/>
-      <c r="DL10" s="37"/>
-      <c r="DM10" s="37"/>
-      <c r="DN10" s="37"/>
-      <c r="DO10" s="38"/>
-      <c r="DP10" s="38"/>
-      <c r="DQ10" s="40"/>
-      <c r="DR10" s="72"/>
-      <c r="DS10" s="37"/>
-      <c r="DT10" s="37"/>
-      <c r="DU10" s="37"/>
-      <c r="DV10" s="38"/>
-      <c r="DW10" s="38"/>
-      <c r="DX10" s="38"/>
-      <c r="DY10" s="37"/>
-      <c r="DZ10" s="37"/>
-      <c r="EA10" s="37"/>
-      <c r="EB10" s="37"/>
-      <c r="EC10" s="38"/>
-      <c r="ED10" s="38"/>
+      <c r="DK10" s="30"/>
+      <c r="DL10" s="30"/>
+      <c r="DM10" s="30"/>
+      <c r="DN10" s="30"/>
+      <c r="DO10" s="31"/>
+      <c r="DP10" s="31"/>
+      <c r="DQ10" s="33"/>
+      <c r="DR10" s="64"/>
+      <c r="DS10" s="30"/>
+      <c r="DT10" s="30"/>
+      <c r="DU10" s="30"/>
+      <c r="DV10" s="31"/>
+      <c r="DW10" s="31"/>
+      <c r="DX10" s="31"/>
+      <c r="DY10" s="30"/>
+      <c r="DZ10" s="30"/>
+      <c r="EA10" s="30"/>
+      <c r="EB10" s="30"/>
+      <c r="EC10" s="31"/>
+      <c r="ED10" s="31"/>
       <c r="EE10" s="28"/>
-      <c r="EF10" s="37"/>
-      <c r="EG10" s="37"/>
-      <c r="EH10" s="37"/>
-      <c r="EI10" s="37"/>
-      <c r="EJ10" s="38"/>
-      <c r="EK10" s="38"/>
+      <c r="EF10" s="30"/>
+      <c r="EG10" s="30"/>
+      <c r="EH10" s="30"/>
+      <c r="EI10" s="30"/>
+      <c r="EJ10" s="31"/>
+      <c r="EK10" s="31"/>
       <c r="EL10" s="28"/>
-      <c r="EM10" s="38"/>
-      <c r="EN10" s="37"/>
-      <c r="EO10" s="37"/>
-      <c r="EP10" s="37"/>
-      <c r="EQ10" s="38"/>
-      <c r="ER10" s="38"/>
+      <c r="EM10" s="31"/>
+      <c r="EN10" s="30"/>
+      <c r="EO10" s="30"/>
+      <c r="EP10" s="30"/>
+      <c r="EQ10" s="31"/>
+      <c r="ER10" s="31"/>
       <c r="ES10" s="28"/>
       <c r="ET10" s="28"/>
       <c r="EU10" s="28"/>
-      <c r="EV10" s="40"/>
+      <c r="EV10" s="33"/>
     </row>
     <row r="11" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="38" t="s">
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="O11" s="38"/>
+      <c r="O11" s="31"/>
       <c r="P11" s="28"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
       <c r="W11" s="28"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="38"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
       <c r="AD11" s="28"/>
-      <c r="AE11" s="37"/>
-      <c r="AF11" s="37"/>
-      <c r="AG11" s="72"/>
-      <c r="AH11" s="37" t="s">
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="64"/>
+      <c r="AH11" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="AI11" s="38"/>
-      <c r="AJ11" s="38"/>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="31"/>
       <c r="AK11" s="28"/>
-      <c r="AL11" s="37"/>
-      <c r="AM11" s="37"/>
-      <c r="AN11" s="37"/>
-      <c r="AO11" s="37"/>
-      <c r="AP11" s="38"/>
-      <c r="AQ11" s="38"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="30"/>
+      <c r="AO11" s="30"/>
+      <c r="AP11" s="31"/>
+      <c r="AQ11" s="31"/>
       <c r="AR11" s="28"/>
-      <c r="AS11" s="37"/>
-      <c r="AT11" s="37"/>
-      <c r="AU11" s="38"/>
-      <c r="AV11" s="38"/>
-      <c r="AW11" s="38"/>
-      <c r="AX11" s="38"/>
+      <c r="AS11" s="30"/>
+      <c r="AT11" s="30"/>
+      <c r="AU11" s="31"/>
+      <c r="AV11" s="31"/>
+      <c r="AW11" s="31"/>
+      <c r="AX11" s="31"/>
       <c r="AY11" s="28"/>
-      <c r="AZ11" s="37"/>
-      <c r="BA11" s="37"/>
-      <c r="BB11" s="37"/>
-      <c r="BC11" s="37"/>
-      <c r="BD11" s="38"/>
-      <c r="BE11" s="38"/>
+      <c r="AZ11" s="30"/>
+      <c r="BA11" s="30"/>
+      <c r="BB11" s="30"/>
+      <c r="BC11" s="30"/>
+      <c r="BD11" s="31"/>
+      <c r="BE11" s="31"/>
       <c r="BF11" s="28"/>
-      <c r="BG11" s="37"/>
-      <c r="BH11" s="39"/>
-      <c r="BI11" s="38"/>
-      <c r="BJ11" s="37"/>
-      <c r="BK11" s="38"/>
-      <c r="BL11" s="38"/>
-      <c r="BM11" s="28"/>
-      <c r="BN11" s="37"/>
-      <c r="BO11" s="37"/>
-      <c r="BP11" s="37"/>
-      <c r="BQ11" s="37"/>
-      <c r="BR11" s="38"/>
-      <c r="BS11" s="38"/>
+      <c r="BG11" s="30"/>
+      <c r="BH11" s="32"/>
+      <c r="BI11" s="31"/>
+      <c r="BJ11" s="30"/>
+      <c r="BK11" s="31"/>
+      <c r="BL11" s="122"/>
+      <c r="BM11" s="122"/>
+      <c r="BN11" s="122"/>
+      <c r="BO11" s="122"/>
+      <c r="BP11" s="122"/>
+      <c r="BQ11" s="30"/>
+      <c r="BR11" s="31"/>
+      <c r="BS11" s="31"/>
       <c r="BT11" s="28"/>
-      <c r="BU11" s="37"/>
-      <c r="BV11" s="37"/>
-      <c r="BW11" s="37"/>
-      <c r="BX11" s="37"/>
-      <c r="BY11" s="38"/>
-      <c r="BZ11" s="38"/>
+      <c r="BU11" s="30"/>
+      <c r="BV11" s="30"/>
+      <c r="BW11" s="30"/>
+      <c r="BX11" s="30"/>
+      <c r="BY11" s="31"/>
+      <c r="BZ11" s="31"/>
       <c r="CA11" s="28"/>
-      <c r="CB11" s="37"/>
-      <c r="CC11" s="37"/>
-      <c r="CD11" s="37"/>
-      <c r="CE11" s="37"/>
-      <c r="CF11" s="38"/>
-      <c r="CG11" s="38"/>
+      <c r="CB11" s="30"/>
+      <c r="CC11" s="30"/>
+      <c r="CD11" s="30"/>
+      <c r="CE11" s="30"/>
+      <c r="CF11" s="31"/>
+      <c r="CG11" s="31"/>
       <c r="CH11" s="28"/>
-      <c r="CI11" s="37"/>
-      <c r="CJ11" s="37"/>
-      <c r="CK11" s="37"/>
-      <c r="CL11" s="37"/>
-      <c r="CM11" s="38"/>
-      <c r="CN11" s="36"/>
+      <c r="CI11" s="30"/>
+      <c r="CJ11" s="30"/>
+      <c r="CK11" s="30"/>
+      <c r="CL11" s="30"/>
+      <c r="CM11" s="31"/>
+      <c r="CN11" s="29"/>
       <c r="CO11" s="28"/>
-      <c r="CP11" s="37"/>
-      <c r="CQ11" s="37"/>
-      <c r="CR11" s="37"/>
-      <c r="CS11" s="37"/>
-      <c r="CT11" s="38"/>
-      <c r="CU11" s="38"/>
+      <c r="CP11" s="30"/>
+      <c r="CQ11" s="30"/>
+      <c r="CR11" s="30"/>
+      <c r="CS11" s="30"/>
+      <c r="CT11" s="31"/>
+      <c r="CU11" s="31"/>
       <c r="CV11" s="28"/>
-      <c r="CW11" s="37"/>
-      <c r="CX11" s="37"/>
-      <c r="CY11" s="37"/>
-      <c r="CZ11" s="37"/>
-      <c r="DA11" s="38"/>
-      <c r="DB11" s="38"/>
+      <c r="CW11" s="30"/>
+      <c r="CX11" s="30"/>
+      <c r="CY11" s="30"/>
+      <c r="CZ11" s="30"/>
+      <c r="DA11" s="31"/>
+      <c r="DB11" s="31"/>
       <c r="DC11" s="28"/>
-      <c r="DD11" s="37"/>
-      <c r="DE11" s="37"/>
-      <c r="DF11" s="37"/>
-      <c r="DG11" s="37"/>
-      <c r="DH11" s="38"/>
-      <c r="DI11" s="38"/>
+      <c r="DD11" s="30"/>
+      <c r="DE11" s="30"/>
+      <c r="DF11" s="30"/>
+      <c r="DG11" s="30"/>
+      <c r="DH11" s="31"/>
+      <c r="DI11" s="31"/>
       <c r="DJ11" s="28"/>
-      <c r="DK11" s="37"/>
-      <c r="DL11" s="37"/>
-      <c r="DM11" s="37"/>
-      <c r="DN11" s="37"/>
-      <c r="DO11" s="38"/>
-      <c r="DP11" s="38"/>
-      <c r="DQ11" s="40"/>
-      <c r="DR11" s="72"/>
-      <c r="DS11" s="37"/>
-      <c r="DT11" s="37"/>
-      <c r="DU11" s="37"/>
-      <c r="DV11" s="38"/>
-      <c r="DW11" s="38"/>
-      <c r="DX11" s="38"/>
-      <c r="DY11" s="37"/>
-      <c r="DZ11" s="37"/>
-      <c r="EA11" s="37"/>
-      <c r="EB11" s="37"/>
-      <c r="EC11" s="38"/>
-      <c r="ED11" s="38"/>
+      <c r="DK11" s="30"/>
+      <c r="DL11" s="30"/>
+      <c r="DM11" s="30"/>
+      <c r="DN11" s="30"/>
+      <c r="DO11" s="31"/>
+      <c r="DP11" s="31"/>
+      <c r="DQ11" s="33"/>
+      <c r="DR11" s="64"/>
+      <c r="DS11" s="30"/>
+      <c r="DT11" s="30"/>
+      <c r="DU11" s="30"/>
+      <c r="DV11" s="31"/>
+      <c r="DW11" s="31"/>
+      <c r="DX11" s="31"/>
+      <c r="DY11" s="30"/>
+      <c r="DZ11" s="30"/>
+      <c r="EA11" s="30"/>
+      <c r="EB11" s="30"/>
+      <c r="EC11" s="31"/>
+      <c r="ED11" s="31"/>
       <c r="EE11" s="28"/>
-      <c r="EF11" s="37"/>
-      <c r="EG11" s="37"/>
-      <c r="EH11" s="37"/>
-      <c r="EI11" s="37"/>
-      <c r="EJ11" s="38"/>
-      <c r="EK11" s="38"/>
+      <c r="EF11" s="30"/>
+      <c r="EG11" s="30"/>
+      <c r="EH11" s="30"/>
+      <c r="EI11" s="30"/>
+      <c r="EJ11" s="31"/>
+      <c r="EK11" s="31"/>
       <c r="EL11" s="28"/>
-      <c r="EM11" s="38"/>
-      <c r="EN11" s="37"/>
-      <c r="EO11" s="37"/>
-      <c r="EP11" s="37"/>
-      <c r="EQ11" s="38"/>
-      <c r="ER11" s="38"/>
+      <c r="EM11" s="31"/>
+      <c r="EN11" s="30"/>
+      <c r="EO11" s="30"/>
+      <c r="EP11" s="30"/>
+      <c r="EQ11" s="31"/>
+      <c r="ER11" s="31"/>
       <c r="ES11" s="28"/>
       <c r="ET11" s="28"/>
       <c r="EU11" s="28"/>
-      <c r="EV11" s="40"/>
+      <c r="EV11" s="33"/>
     </row>
     <row r="12" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="38" t="s">
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="O12" s="38"/>
+      <c r="O12" s="31"/>
       <c r="P12" s="28"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
       <c r="W12" s="28"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="38"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="31"/>
       <c r="AD12" s="28"/>
-      <c r="AE12" s="37"/>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="72"/>
-      <c r="AH12" s="37" t="s">
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="64"/>
+      <c r="AH12" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="AI12" s="38"/>
-      <c r="AJ12" s="38"/>
+      <c r="AI12" s="31"/>
+      <c r="AJ12" s="31"/>
       <c r="AK12" s="28"/>
-      <c r="AL12" s="37"/>
-      <c r="AM12" s="37"/>
-      <c r="AN12" s="37"/>
-      <c r="AO12" s="37"/>
-      <c r="AP12" s="38"/>
-      <c r="AQ12" s="38"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="30"/>
+      <c r="AN12" s="30"/>
+      <c r="AO12" s="30"/>
+      <c r="AP12" s="31"/>
+      <c r="AQ12" s="31"/>
       <c r="AR12" s="28"/>
-      <c r="AS12" s="37"/>
-      <c r="AT12" s="37"/>
-      <c r="AU12" s="38"/>
-      <c r="AV12" s="38"/>
-      <c r="AW12" s="38"/>
-      <c r="AX12" s="38"/>
+      <c r="AS12" s="30"/>
+      <c r="AT12" s="30"/>
+      <c r="AU12" s="31"/>
+      <c r="AV12" s="31"/>
+      <c r="AW12" s="31"/>
+      <c r="AX12" s="31"/>
       <c r="AY12" s="28"/>
-      <c r="AZ12" s="37"/>
-      <c r="BA12" s="37"/>
-      <c r="BB12" s="37"/>
-      <c r="BC12" s="37"/>
-      <c r="BD12" s="38"/>
-      <c r="BE12" s="38"/>
+      <c r="AZ12" s="30"/>
+      <c r="BA12" s="30"/>
+      <c r="BB12" s="30"/>
+      <c r="BC12" s="30"/>
+      <c r="BD12" s="31"/>
+      <c r="BE12" s="31"/>
       <c r="BF12" s="28"/>
-      <c r="BG12" s="37"/>
-      <c r="BH12" s="39"/>
-      <c r="BI12" s="38"/>
-      <c r="BJ12" s="37"/>
-      <c r="BK12" s="38"/>
-      <c r="BL12" s="38"/>
-      <c r="BM12" s="28"/>
-      <c r="BN12" s="37"/>
-      <c r="BO12" s="37"/>
-      <c r="BP12" s="37"/>
-      <c r="BQ12" s="37"/>
-      <c r="BR12" s="38"/>
-      <c r="BS12" s="38"/>
+      <c r="BG12" s="30"/>
+      <c r="BH12" s="32"/>
+      <c r="BI12" s="31"/>
+      <c r="BJ12" s="30"/>
+      <c r="BK12" s="31"/>
+      <c r="BL12" s="122"/>
+      <c r="BM12" s="122"/>
+      <c r="BN12" s="122"/>
+      <c r="BO12" s="122"/>
+      <c r="BP12" s="122"/>
+      <c r="BQ12" s="30"/>
+      <c r="BR12" s="31"/>
+      <c r="BS12" s="31"/>
       <c r="BT12" s="28"/>
-      <c r="BU12" s="37"/>
-      <c r="BV12" s="37"/>
-      <c r="BW12" s="37"/>
-      <c r="BX12" s="37"/>
-      <c r="BY12" s="38"/>
-      <c r="BZ12" s="38"/>
+      <c r="BU12" s="30"/>
+      <c r="BV12" s="30"/>
+      <c r="BW12" s="30"/>
+      <c r="BX12" s="30"/>
+      <c r="BY12" s="31"/>
+      <c r="BZ12" s="31"/>
       <c r="CA12" s="28"/>
-      <c r="CB12" s="37"/>
-      <c r="CC12" s="37"/>
-      <c r="CD12" s="37"/>
-      <c r="CE12" s="37"/>
-      <c r="CF12" s="38"/>
-      <c r="CG12" s="38"/>
+      <c r="CB12" s="30"/>
+      <c r="CC12" s="30"/>
+      <c r="CD12" s="30"/>
+      <c r="CE12" s="30"/>
+      <c r="CF12" s="31"/>
+      <c r="CG12" s="31"/>
       <c r="CH12" s="28"/>
-      <c r="CI12" s="37"/>
-      <c r="CJ12" s="37"/>
-      <c r="CK12" s="37"/>
-      <c r="CL12" s="37"/>
-      <c r="CM12" s="38"/>
-      <c r="CN12" s="36"/>
+      <c r="CI12" s="30"/>
+      <c r="CJ12" s="30"/>
+      <c r="CK12" s="30"/>
+      <c r="CL12" s="30"/>
+      <c r="CM12" s="31"/>
+      <c r="CN12" s="29"/>
       <c r="CO12" s="28"/>
-      <c r="CP12" s="37"/>
-      <c r="CQ12" s="37"/>
-      <c r="CR12" s="37"/>
-      <c r="CS12" s="37"/>
-      <c r="CT12" s="38"/>
-      <c r="CU12" s="38"/>
+      <c r="CP12" s="30"/>
+      <c r="CQ12" s="30"/>
+      <c r="CR12" s="30"/>
+      <c r="CS12" s="30"/>
+      <c r="CT12" s="31"/>
+      <c r="CU12" s="31"/>
       <c r="CV12" s="28"/>
-      <c r="CW12" s="37"/>
-      <c r="CX12" s="37"/>
-      <c r="CY12" s="37"/>
-      <c r="CZ12" s="37"/>
-      <c r="DA12" s="38"/>
-      <c r="DB12" s="38"/>
+      <c r="CW12" s="30"/>
+      <c r="CX12" s="30"/>
+      <c r="CY12" s="30"/>
+      <c r="CZ12" s="30"/>
+      <c r="DA12" s="31"/>
+      <c r="DB12" s="31"/>
       <c r="DC12" s="28"/>
-      <c r="DD12" s="37"/>
-      <c r="DE12" s="37"/>
-      <c r="DF12" s="37"/>
-      <c r="DG12" s="37"/>
-      <c r="DH12" s="38"/>
-      <c r="DI12" s="38"/>
+      <c r="DD12" s="30"/>
+      <c r="DE12" s="30"/>
+      <c r="DF12" s="30"/>
+      <c r="DG12" s="30"/>
+      <c r="DH12" s="31"/>
+      <c r="DI12" s="31"/>
       <c r="DJ12" s="28"/>
-      <c r="DK12" s="37"/>
-      <c r="DL12" s="37"/>
-      <c r="DM12" s="37"/>
-      <c r="DN12" s="37"/>
-      <c r="DO12" s="38"/>
-      <c r="DP12" s="38"/>
-      <c r="DQ12" s="40"/>
-      <c r="DR12" s="72"/>
-      <c r="DS12" s="37"/>
-      <c r="DT12" s="37"/>
-      <c r="DU12" s="37"/>
-      <c r="DV12" s="38"/>
-      <c r="DW12" s="38"/>
-      <c r="DX12" s="38"/>
-      <c r="DY12" s="37"/>
-      <c r="DZ12" s="37"/>
-      <c r="EA12" s="37"/>
-      <c r="EB12" s="37"/>
-      <c r="EC12" s="38"/>
-      <c r="ED12" s="38"/>
+      <c r="DK12" s="30"/>
+      <c r="DL12" s="30"/>
+      <c r="DM12" s="30"/>
+      <c r="DN12" s="30"/>
+      <c r="DO12" s="31"/>
+      <c r="DP12" s="31"/>
+      <c r="DQ12" s="33"/>
+      <c r="DR12" s="64"/>
+      <c r="DS12" s="30"/>
+      <c r="DT12" s="30"/>
+      <c r="DU12" s="30"/>
+      <c r="DV12" s="31"/>
+      <c r="DW12" s="31"/>
+      <c r="DX12" s="31"/>
+      <c r="DY12" s="30"/>
+      <c r="DZ12" s="30"/>
+      <c r="EA12" s="30"/>
+      <c r="EB12" s="30"/>
+      <c r="EC12" s="31"/>
+      <c r="ED12" s="31"/>
       <c r="EE12" s="28"/>
-      <c r="EF12" s="37"/>
-      <c r="EG12" s="37"/>
-      <c r="EH12" s="37"/>
-      <c r="EI12" s="37"/>
-      <c r="EJ12" s="38"/>
-      <c r="EK12" s="38"/>
+      <c r="EF12" s="30"/>
+      <c r="EG12" s="30"/>
+      <c r="EH12" s="30"/>
+      <c r="EI12" s="30"/>
+      <c r="EJ12" s="31"/>
+      <c r="EK12" s="31"/>
       <c r="EL12" s="28"/>
-      <c r="EM12" s="38"/>
-      <c r="EN12" s="37"/>
-      <c r="EO12" s="37"/>
-      <c r="EP12" s="37"/>
-      <c r="EQ12" s="38"/>
-      <c r="ER12" s="38"/>
+      <c r="EM12" s="31"/>
+      <c r="EN12" s="30"/>
+      <c r="EO12" s="30"/>
+      <c r="EP12" s="30"/>
+      <c r="EQ12" s="31"/>
+      <c r="ER12" s="31"/>
       <c r="ES12" s="28"/>
       <c r="ET12" s="28"/>
       <c r="EU12" s="28"/>
-      <c r="EV12" s="40"/>
+      <c r="EV12" s="33"/>
     </row>
     <row r="13" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
       <c r="P13" s="28"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
       <c r="W13" s="28"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
       <c r="AD13" s="28"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="72"/>
-      <c r="AH13" s="37" t="s">
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="64"/>
+      <c r="AH13" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="AI13" s="38"/>
-      <c r="AJ13" s="38"/>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="31"/>
       <c r="AK13" s="28"/>
-      <c r="AL13" s="37"/>
-      <c r="AM13" s="37"/>
-      <c r="AN13" s="37"/>
-      <c r="AO13" s="37"/>
-      <c r="AP13" s="38"/>
-      <c r="AQ13" s="38"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="30"/>
+      <c r="AN13" s="30"/>
+      <c r="AO13" s="30"/>
+      <c r="AP13" s="31"/>
+      <c r="AQ13" s="31"/>
       <c r="AR13" s="28"/>
-      <c r="AS13" s="37"/>
-      <c r="AT13" s="37"/>
-      <c r="AU13" s="38"/>
-      <c r="AV13" s="38"/>
-      <c r="AW13" s="38"/>
-      <c r="AX13" s="38"/>
+      <c r="AS13" s="30"/>
+      <c r="AT13" s="30"/>
+      <c r="AU13" s="31"/>
+      <c r="AV13" s="31"/>
+      <c r="AW13" s="31"/>
+      <c r="AX13" s="31"/>
       <c r="AY13" s="28"/>
-      <c r="AZ13" s="37"/>
-      <c r="BA13" s="37"/>
-      <c r="BB13" s="37"/>
-      <c r="BC13" s="37"/>
-      <c r="BD13" s="38"/>
-      <c r="BE13" s="38"/>
+      <c r="AZ13" s="30"/>
+      <c r="BA13" s="30"/>
+      <c r="BB13" s="30"/>
+      <c r="BC13" s="30"/>
+      <c r="BD13" s="31"/>
+      <c r="BE13" s="31"/>
       <c r="BF13" s="28"/>
-      <c r="BG13" s="37"/>
-      <c r="BH13" s="39"/>
-      <c r="BI13" s="38"/>
-      <c r="BJ13" s="37"/>
-      <c r="BK13" s="38"/>
-      <c r="BL13" s="38"/>
-      <c r="BM13" s="28"/>
-      <c r="BN13" s="37"/>
-      <c r="BO13" s="37"/>
-      <c r="BP13" s="37"/>
-      <c r="BQ13" s="37"/>
-      <c r="BR13" s="38"/>
-      <c r="BS13" s="38"/>
+      <c r="BG13" s="30"/>
+      <c r="BH13" s="32"/>
+      <c r="BI13" s="31"/>
+      <c r="BJ13" s="30"/>
+      <c r="BK13" s="31"/>
+      <c r="BL13" s="122"/>
+      <c r="BM13" s="122"/>
+      <c r="BN13" s="122"/>
+      <c r="BO13" s="122"/>
+      <c r="BP13" s="122"/>
+      <c r="BQ13" s="30"/>
+      <c r="BR13" s="31"/>
+      <c r="BS13" s="31"/>
       <c r="BT13" s="28"/>
-      <c r="BU13" s="37"/>
-      <c r="BV13" s="37"/>
-      <c r="BW13" s="37"/>
-      <c r="BX13" s="37"/>
-      <c r="BY13" s="38"/>
-      <c r="BZ13" s="38"/>
+      <c r="BU13" s="30"/>
+      <c r="BV13" s="30"/>
+      <c r="BW13" s="30"/>
+      <c r="BX13" s="30"/>
+      <c r="BY13" s="31"/>
+      <c r="BZ13" s="31"/>
       <c r="CA13" s="28"/>
-      <c r="CB13" s="37"/>
-      <c r="CC13" s="37"/>
-      <c r="CD13" s="37"/>
-      <c r="CE13" s="37"/>
-      <c r="CF13" s="38"/>
-      <c r="CG13" s="38"/>
+      <c r="CB13" s="30"/>
+      <c r="CC13" s="30"/>
+      <c r="CD13" s="30"/>
+      <c r="CE13" s="30"/>
+      <c r="CF13" s="31"/>
+      <c r="CG13" s="31"/>
       <c r="CH13" s="28"/>
-      <c r="CI13" s="37"/>
-      <c r="CJ13" s="37"/>
-      <c r="CK13" s="37"/>
-      <c r="CL13" s="37"/>
-      <c r="CM13" s="38"/>
-      <c r="CN13" s="36"/>
+      <c r="CI13" s="30"/>
+      <c r="CJ13" s="30"/>
+      <c r="CK13" s="30"/>
+      <c r="CL13" s="30"/>
+      <c r="CM13" s="31"/>
+      <c r="CN13" s="29"/>
       <c r="CO13" s="28"/>
-      <c r="CP13" s="37"/>
-      <c r="CQ13" s="37"/>
-      <c r="CR13" s="37"/>
-      <c r="CS13" s="37"/>
-      <c r="CT13" s="38"/>
-      <c r="CU13" s="38"/>
+      <c r="CP13" s="30"/>
+      <c r="CQ13" s="30"/>
+      <c r="CR13" s="30"/>
+      <c r="CS13" s="30"/>
+      <c r="CT13" s="31"/>
+      <c r="CU13" s="31"/>
       <c r="CV13" s="28"/>
-      <c r="CW13" s="37"/>
-      <c r="CX13" s="37"/>
-      <c r="CY13" s="37"/>
-      <c r="CZ13" s="37"/>
-      <c r="DA13" s="38"/>
-      <c r="DB13" s="38"/>
+      <c r="CW13" s="30"/>
+      <c r="CX13" s="30"/>
+      <c r="CY13" s="30"/>
+      <c r="CZ13" s="30"/>
+      <c r="DA13" s="31"/>
+      <c r="DB13" s="31"/>
       <c r="DC13" s="28"/>
-      <c r="DD13" s="37"/>
-      <c r="DE13" s="37"/>
-      <c r="DF13" s="37"/>
-      <c r="DG13" s="37"/>
-      <c r="DH13" s="38"/>
-      <c r="DI13" s="38"/>
+      <c r="DD13" s="30"/>
+      <c r="DE13" s="30"/>
+      <c r="DF13" s="30"/>
+      <c r="DG13" s="30"/>
+      <c r="DH13" s="31"/>
+      <c r="DI13" s="31"/>
       <c r="DJ13" s="28"/>
-      <c r="DK13" s="37"/>
-      <c r="DL13" s="37"/>
-      <c r="DM13" s="37"/>
-      <c r="DN13" s="37"/>
-      <c r="DO13" s="38"/>
-      <c r="DP13" s="38"/>
-      <c r="DQ13" s="40"/>
-      <c r="DR13" s="72"/>
-      <c r="DS13" s="37"/>
-      <c r="DT13" s="37"/>
-      <c r="DU13" s="37"/>
-      <c r="DV13" s="38"/>
-      <c r="DW13" s="38"/>
-      <c r="DX13" s="38"/>
-      <c r="DY13" s="37"/>
-      <c r="DZ13" s="37"/>
-      <c r="EA13" s="37"/>
-      <c r="EB13" s="37"/>
-      <c r="EC13" s="38"/>
-      <c r="ED13" s="38"/>
+      <c r="DK13" s="30"/>
+      <c r="DL13" s="30"/>
+      <c r="DM13" s="30"/>
+      <c r="DN13" s="30"/>
+      <c r="DO13" s="31"/>
+      <c r="DP13" s="31"/>
+      <c r="DQ13" s="33"/>
+      <c r="DR13" s="64"/>
+      <c r="DS13" s="30"/>
+      <c r="DT13" s="30"/>
+      <c r="DU13" s="30"/>
+      <c r="DV13" s="31"/>
+      <c r="DW13" s="31"/>
+      <c r="DX13" s="31"/>
+      <c r="DY13" s="30"/>
+      <c r="DZ13" s="30"/>
+      <c r="EA13" s="30"/>
+      <c r="EB13" s="30"/>
+      <c r="EC13" s="31"/>
+      <c r="ED13" s="31"/>
       <c r="EE13" s="28"/>
-      <c r="EF13" s="37"/>
-      <c r="EG13" s="37"/>
-      <c r="EH13" s="37"/>
-      <c r="EI13" s="37"/>
-      <c r="EJ13" s="38"/>
-      <c r="EK13" s="38"/>
+      <c r="EF13" s="30"/>
+      <c r="EG13" s="30"/>
+      <c r="EH13" s="30"/>
+      <c r="EI13" s="30"/>
+      <c r="EJ13" s="31"/>
+      <c r="EK13" s="31"/>
       <c r="EL13" s="28"/>
-      <c r="EM13" s="38"/>
-      <c r="EN13" s="37"/>
-      <c r="EO13" s="37"/>
-      <c r="EP13" s="37"/>
-      <c r="EQ13" s="38"/>
-      <c r="ER13" s="38"/>
+      <c r="EM13" s="31"/>
+      <c r="EN13" s="30"/>
+      <c r="EO13" s="30"/>
+      <c r="EP13" s="30"/>
+      <c r="EQ13" s="31"/>
+      <c r="ER13" s="31"/>
       <c r="ES13" s="28"/>
       <c r="ET13" s="28"/>
       <c r="EU13" s="28"/>
-      <c r="EV13" s="40"/>
+      <c r="EV13" s="33"/>
     </row>
     <row r="14" spans="1:152" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="60"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="60"/>
-      <c r="AB14" s="61"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="62"/>
-      <c r="AE14" s="60"/>
-      <c r="AF14" s="60"/>
-      <c r="AG14" s="73"/>
-      <c r="AH14" s="60"/>
-      <c r="AI14" s="61"/>
-      <c r="AJ14" s="61"/>
-      <c r="AK14" s="62"/>
-      <c r="AL14" s="60"/>
-      <c r="AM14" s="60"/>
-      <c r="AN14" s="60"/>
-      <c r="AO14" s="60"/>
-      <c r="AP14" s="61"/>
-      <c r="AQ14" s="61"/>
-      <c r="AR14" s="62"/>
-      <c r="AS14" s="60"/>
-      <c r="AT14" s="60"/>
-      <c r="AU14" s="61"/>
-      <c r="AV14" s="61"/>
-      <c r="AW14" s="61"/>
-      <c r="AX14" s="61"/>
-      <c r="AY14" s="62"/>
-      <c r="AZ14" s="60"/>
-      <c r="BA14" s="60"/>
-      <c r="BB14" s="60"/>
-      <c r="BC14" s="60"/>
-      <c r="BD14" s="61"/>
-      <c r="BE14" s="61"/>
-      <c r="BF14" s="62"/>
-      <c r="BG14" s="60"/>
-      <c r="BH14" s="74"/>
-      <c r="BI14" s="61"/>
-      <c r="BJ14" s="60"/>
-      <c r="BK14" s="61"/>
-      <c r="BL14" s="61"/>
-      <c r="BM14" s="62"/>
-      <c r="BN14" s="60"/>
-      <c r="BO14" s="60"/>
-      <c r="BP14" s="60"/>
-      <c r="BQ14" s="60"/>
-      <c r="BR14" s="61"/>
-      <c r="BS14" s="61"/>
-      <c r="BT14" s="62"/>
-      <c r="BU14" s="60"/>
-      <c r="BV14" s="60"/>
-      <c r="BW14" s="60"/>
-      <c r="BX14" s="60"/>
-      <c r="BY14" s="61"/>
-      <c r="BZ14" s="61"/>
-      <c r="CA14" s="62"/>
-      <c r="CB14" s="60"/>
-      <c r="CC14" s="60"/>
-      <c r="CD14" s="60"/>
-      <c r="CE14" s="60"/>
-      <c r="CF14" s="61"/>
-      <c r="CG14" s="61"/>
-      <c r="CH14" s="62"/>
-      <c r="CI14" s="60"/>
-      <c r="CJ14" s="60"/>
-      <c r="CK14" s="60"/>
-      <c r="CL14" s="60"/>
-      <c r="CM14" s="61"/>
-      <c r="CN14" s="59"/>
-      <c r="CO14" s="62"/>
-      <c r="CP14" s="60"/>
-      <c r="CQ14" s="60"/>
-      <c r="CR14" s="60"/>
-      <c r="CS14" s="60"/>
-      <c r="CT14" s="61"/>
-      <c r="CU14" s="61"/>
-      <c r="CV14" s="62"/>
-      <c r="CW14" s="60"/>
-      <c r="CX14" s="60"/>
-      <c r="CY14" s="60"/>
-      <c r="CZ14" s="60"/>
-      <c r="DA14" s="61"/>
-      <c r="DB14" s="61"/>
-      <c r="DC14" s="62"/>
-      <c r="DD14" s="60"/>
-      <c r="DE14" s="60"/>
-      <c r="DF14" s="60"/>
-      <c r="DG14" s="60"/>
-      <c r="DH14" s="61"/>
-      <c r="DI14" s="61"/>
-      <c r="DJ14" s="62"/>
-      <c r="DK14" s="60"/>
-      <c r="DL14" s="60"/>
-      <c r="DM14" s="60"/>
-      <c r="DN14" s="60"/>
-      <c r="DO14" s="61"/>
-      <c r="DP14" s="61"/>
-      <c r="DQ14" s="112"/>
-      <c r="DR14" s="73"/>
-      <c r="DS14" s="60"/>
-      <c r="DT14" s="60"/>
-      <c r="DU14" s="60"/>
-      <c r="DV14" s="61"/>
-      <c r="DW14" s="61"/>
-      <c r="DX14" s="61"/>
-      <c r="DY14" s="60"/>
-      <c r="DZ14" s="60"/>
-      <c r="EA14" s="60"/>
-      <c r="EB14" s="60"/>
-      <c r="EC14" s="61"/>
-      <c r="ED14" s="61"/>
-      <c r="EE14" s="62"/>
-      <c r="EF14" s="60"/>
-      <c r="EG14" s="60"/>
-      <c r="EH14" s="60"/>
-      <c r="EI14" s="60"/>
-      <c r="EJ14" s="61"/>
-      <c r="EK14" s="61"/>
-      <c r="EL14" s="62"/>
-      <c r="EM14" s="61"/>
-      <c r="EN14" s="60"/>
-      <c r="EO14" s="60"/>
-      <c r="EP14" s="60"/>
-      <c r="EQ14" s="61"/>
-      <c r="ER14" s="61"/>
-      <c r="ES14" s="62"/>
-      <c r="ET14" s="62"/>
-      <c r="EU14" s="62"/>
-      <c r="EV14" s="112"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="52"/>
+      <c r="AG14" s="65"/>
+      <c r="AH14" s="52"/>
+      <c r="AI14" s="53"/>
+      <c r="AJ14" s="53"/>
+      <c r="AK14" s="54"/>
+      <c r="AL14" s="52"/>
+      <c r="AM14" s="52"/>
+      <c r="AN14" s="52"/>
+      <c r="AO14" s="52"/>
+      <c r="AP14" s="53"/>
+      <c r="AQ14" s="53"/>
+      <c r="AR14" s="54"/>
+      <c r="AS14" s="52"/>
+      <c r="AT14" s="52"/>
+      <c r="AU14" s="53"/>
+      <c r="AV14" s="53"/>
+      <c r="AW14" s="53"/>
+      <c r="AX14" s="53"/>
+      <c r="AY14" s="54"/>
+      <c r="AZ14" s="52"/>
+      <c r="BA14" s="52"/>
+      <c r="BB14" s="52"/>
+      <c r="BC14" s="52"/>
+      <c r="BD14" s="53"/>
+      <c r="BE14" s="53"/>
+      <c r="BF14" s="54"/>
+      <c r="BG14" s="52"/>
+      <c r="BH14" s="66"/>
+      <c r="BI14" s="53"/>
+      <c r="BJ14" s="52"/>
+      <c r="BK14" s="53"/>
+      <c r="BL14" s="123"/>
+      <c r="BM14" s="123"/>
+      <c r="BN14" s="123"/>
+      <c r="BO14" s="123"/>
+      <c r="BP14" s="123"/>
+      <c r="BQ14" s="52"/>
+      <c r="BR14" s="53"/>
+      <c r="BS14" s="53"/>
+      <c r="BT14" s="54"/>
+      <c r="BU14" s="52"/>
+      <c r="BV14" s="52"/>
+      <c r="BW14" s="52"/>
+      <c r="BX14" s="52"/>
+      <c r="BY14" s="53"/>
+      <c r="BZ14" s="53"/>
+      <c r="CA14" s="54"/>
+      <c r="CB14" s="52"/>
+      <c r="CC14" s="52"/>
+      <c r="CD14" s="52"/>
+      <c r="CE14" s="52"/>
+      <c r="CF14" s="53"/>
+      <c r="CG14" s="53"/>
+      <c r="CH14" s="54"/>
+      <c r="CI14" s="52"/>
+      <c r="CJ14" s="52"/>
+      <c r="CK14" s="52"/>
+      <c r="CL14" s="52"/>
+      <c r="CM14" s="53"/>
+      <c r="CN14" s="51"/>
+      <c r="CO14" s="54"/>
+      <c r="CP14" s="52"/>
+      <c r="CQ14" s="52"/>
+      <c r="CR14" s="52"/>
+      <c r="CS14" s="52"/>
+      <c r="CT14" s="53"/>
+      <c r="CU14" s="53"/>
+      <c r="CV14" s="54"/>
+      <c r="CW14" s="52"/>
+      <c r="CX14" s="52"/>
+      <c r="CY14" s="52"/>
+      <c r="CZ14" s="52"/>
+      <c r="DA14" s="53"/>
+      <c r="DB14" s="53"/>
+      <c r="DC14" s="54"/>
+      <c r="DD14" s="52"/>
+      <c r="DE14" s="52"/>
+      <c r="DF14" s="52"/>
+      <c r="DG14" s="52"/>
+      <c r="DH14" s="53"/>
+      <c r="DI14" s="53"/>
+      <c r="DJ14" s="54"/>
+      <c r="DK14" s="52"/>
+      <c r="DL14" s="52"/>
+      <c r="DM14" s="52"/>
+      <c r="DN14" s="52"/>
+      <c r="DO14" s="53"/>
+      <c r="DP14" s="53"/>
+      <c r="DQ14" s="101"/>
+      <c r="DR14" s="65"/>
+      <c r="DS14" s="52"/>
+      <c r="DT14" s="52"/>
+      <c r="DU14" s="52"/>
+      <c r="DV14" s="53"/>
+      <c r="DW14" s="53"/>
+      <c r="DX14" s="53"/>
+      <c r="DY14" s="52"/>
+      <c r="DZ14" s="52"/>
+      <c r="EA14" s="52"/>
+      <c r="EB14" s="52"/>
+      <c r="EC14" s="53"/>
+      <c r="ED14" s="53"/>
+      <c r="EE14" s="54"/>
+      <c r="EF14" s="52"/>
+      <c r="EG14" s="52"/>
+      <c r="EH14" s="52"/>
+      <c r="EI14" s="52"/>
+      <c r="EJ14" s="53"/>
+      <c r="EK14" s="53"/>
+      <c r="EL14" s="54"/>
+      <c r="EM14" s="53"/>
+      <c r="EN14" s="52"/>
+      <c r="EO14" s="52"/>
+      <c r="EP14" s="52"/>
+      <c r="EQ14" s="53"/>
+      <c r="ER14" s="53"/>
+      <c r="ES14" s="54"/>
+      <c r="ET14" s="54"/>
+      <c r="EU14" s="54"/>
+      <c r="EV14" s="101"/>
     </row>
     <row r="15" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="53"/>
-      <c r="AD15" s="54"/>
-      <c r="AE15" s="52"/>
-      <c r="AF15" s="52"/>
-      <c r="AG15" s="75"/>
-      <c r="AH15" s="52"/>
-      <c r="AI15" s="53"/>
-      <c r="AJ15" s="53"/>
-      <c r="AK15" s="64" t="s">
+      <c r="B15" s="43"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="67"/>
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="45"/>
+      <c r="AJ15" s="45"/>
+      <c r="AK15" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="AL15" s="63"/>
-      <c r="AM15" s="63"/>
-      <c r="AN15" s="67"/>
-      <c r="AO15" s="52"/>
-      <c r="AP15" s="53"/>
-      <c r="AQ15" s="53"/>
-      <c r="AR15" s="55"/>
-      <c r="AS15" s="52"/>
-      <c r="AT15" s="52"/>
-      <c r="AU15" s="53"/>
-      <c r="AV15" s="53"/>
-      <c r="AW15" s="53"/>
-      <c r="AX15" s="53"/>
-      <c r="AY15" s="55"/>
-      <c r="AZ15" s="52"/>
-      <c r="BA15" s="55"/>
-      <c r="BB15" s="52"/>
-      <c r="BC15" s="55"/>
-      <c r="BD15" s="53"/>
-      <c r="BE15" s="53"/>
-      <c r="BF15" s="55"/>
-      <c r="BG15" s="52"/>
-      <c r="BH15" s="56"/>
-      <c r="BI15" s="53"/>
-      <c r="BJ15" s="55" t="s">
+      <c r="AL15" s="55"/>
+      <c r="AM15" s="55"/>
+      <c r="AN15" s="59"/>
+      <c r="AO15" s="44"/>
+      <c r="AP15" s="45"/>
+      <c r="AQ15" s="45"/>
+      <c r="AR15" s="47"/>
+      <c r="AS15" s="44"/>
+      <c r="AT15" s="44"/>
+      <c r="AU15" s="45"/>
+      <c r="AV15" s="45"/>
+      <c r="AW15" s="45"/>
+      <c r="AX15" s="45"/>
+      <c r="AY15" s="47"/>
+      <c r="AZ15" s="44"/>
+      <c r="BA15" s="47"/>
+      <c r="BB15" s="44"/>
+      <c r="BC15" s="47"/>
+      <c r="BD15" s="45"/>
+      <c r="BE15" s="45"/>
+      <c r="BF15" s="47"/>
+      <c r="BG15" s="44"/>
+      <c r="BH15" s="48"/>
+      <c r="BI15" s="45"/>
+      <c r="BJ15" s="47"/>
+      <c r="BK15" s="45"/>
+      <c r="BL15" s="124"/>
+      <c r="BM15" s="124"/>
+      <c r="BN15" s="124"/>
+      <c r="BO15" s="124"/>
+      <c r="BP15" s="124"/>
+      <c r="BQ15" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="BK15" s="53"/>
-      <c r="BL15" s="53"/>
-      <c r="BM15" s="54"/>
-      <c r="BN15" s="52"/>
-      <c r="BO15" s="52"/>
-      <c r="BP15" s="52"/>
-      <c r="BQ15" s="52"/>
-      <c r="BR15" s="53"/>
-      <c r="BS15" s="53"/>
-      <c r="BT15" s="54"/>
-      <c r="BU15" s="52"/>
-      <c r="BV15" s="52"/>
-      <c r="BW15" s="52"/>
-      <c r="BX15" s="52"/>
-      <c r="BY15" s="47" t="s">
+      <c r="BR15" s="45"/>
+      <c r="BS15" s="45"/>
+      <c r="BT15" s="46"/>
+      <c r="BU15" s="44"/>
+      <c r="BV15" s="44"/>
+      <c r="BW15" s="44"/>
+      <c r="BX15" s="44"/>
+      <c r="BY15" s="45"/>
+      <c r="BZ15" s="45"/>
+      <c r="CA15" s="44"/>
+      <c r="CB15" s="44"/>
+      <c r="CC15" s="44"/>
+      <c r="CD15" s="44"/>
+      <c r="CE15" s="44"/>
+      <c r="CF15" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="BZ15" s="47"/>
-      <c r="CA15" s="69"/>
-      <c r="CB15" s="69"/>
-      <c r="CC15" s="69"/>
-      <c r="CD15" s="69"/>
-      <c r="CE15" s="69"/>
-      <c r="CF15" s="53"/>
-      <c r="CG15" s="53"/>
-      <c r="CH15" s="54"/>
-      <c r="CI15" s="52"/>
-      <c r="CJ15" s="52"/>
-      <c r="CK15" s="52"/>
-      <c r="CL15" s="52"/>
-      <c r="CM15" s="53"/>
-      <c r="CN15" s="51"/>
-      <c r="CO15" s="54"/>
-      <c r="CP15" s="52"/>
-      <c r="CQ15" s="52"/>
-      <c r="CR15" s="52"/>
-      <c r="CS15" s="52"/>
-      <c r="CT15" s="53"/>
-      <c r="CU15" s="53"/>
-      <c r="CV15" s="54"/>
-      <c r="CW15" s="52"/>
-      <c r="CX15" s="52"/>
-      <c r="CY15" s="52"/>
-      <c r="CZ15" s="52"/>
-      <c r="DA15" s="53"/>
-      <c r="DB15" s="53"/>
-      <c r="DC15" s="54"/>
-      <c r="DD15" s="52"/>
-      <c r="DE15" s="52"/>
-      <c r="DF15" s="52"/>
-      <c r="DG15" s="52"/>
-      <c r="DH15" s="53"/>
-      <c r="DI15" s="53"/>
-      <c r="DJ15" s="54"/>
-      <c r="DK15" s="52"/>
-      <c r="DL15" s="52"/>
-      <c r="DM15" s="52"/>
-      <c r="DN15" s="52"/>
-      <c r="DO15" s="53"/>
-      <c r="DP15" s="53"/>
-      <c r="DQ15" s="57"/>
-      <c r="DR15" s="92"/>
-      <c r="DS15" s="86"/>
-      <c r="DT15" s="86"/>
-      <c r="DU15" s="86"/>
-      <c r="DV15" s="87"/>
-      <c r="DW15" s="87"/>
-      <c r="DX15" s="87"/>
-      <c r="DY15" s="86"/>
-      <c r="DZ15" s="86"/>
-      <c r="EA15" s="86"/>
-      <c r="EB15" s="86"/>
-      <c r="EC15" s="87"/>
-      <c r="ED15" s="87"/>
-      <c r="EE15" s="88"/>
-      <c r="EF15" s="86"/>
-      <c r="EG15" s="86"/>
-      <c r="EH15" s="86"/>
-      <c r="EI15" s="86"/>
-      <c r="EJ15" s="87"/>
-      <c r="EK15" s="87"/>
-      <c r="EL15" s="88"/>
-      <c r="EM15" s="87"/>
-      <c r="EN15" s="86"/>
-      <c r="EO15" s="86"/>
-      <c r="EP15" s="86"/>
-      <c r="EQ15" s="87"/>
-      <c r="ER15" s="87"/>
-      <c r="ES15" s="88"/>
-      <c r="ET15" s="88"/>
-      <c r="EU15" s="88"/>
-      <c r="EV15" s="115"/>
+      <c r="CG15" s="39"/>
+      <c r="CH15" s="61"/>
+      <c r="CI15" s="61"/>
+      <c r="CJ15" s="61"/>
+      <c r="CK15" s="61"/>
+      <c r="CL15" s="61"/>
+      <c r="CM15" s="45"/>
+      <c r="CN15" s="43"/>
+      <c r="CO15" s="46"/>
+      <c r="CP15" s="44"/>
+      <c r="CQ15" s="44"/>
+      <c r="CR15" s="44"/>
+      <c r="CS15" s="44"/>
+      <c r="CT15" s="45"/>
+      <c r="CU15" s="45"/>
+      <c r="CV15" s="46"/>
+      <c r="CW15" s="44"/>
+      <c r="CX15" s="44"/>
+      <c r="CY15" s="44"/>
+      <c r="CZ15" s="44"/>
+      <c r="DA15" s="45"/>
+      <c r="DB15" s="45"/>
+      <c r="DC15" s="46"/>
+      <c r="DD15" s="44"/>
+      <c r="DE15" s="44"/>
+      <c r="DF15" s="44"/>
+      <c r="DG15" s="44"/>
+      <c r="DH15" s="45"/>
+      <c r="DI15" s="45"/>
+      <c r="DJ15" s="46"/>
+      <c r="DK15" s="44"/>
+      <c r="DL15" s="44"/>
+      <c r="DM15" s="44"/>
+      <c r="DN15" s="44"/>
+      <c r="DO15" s="45"/>
+      <c r="DP15" s="45"/>
+      <c r="DQ15" s="49"/>
+      <c r="DR15" s="83"/>
+      <c r="DS15" s="77"/>
+      <c r="DT15" s="77"/>
+      <c r="DU15" s="77"/>
+      <c r="DV15" s="78"/>
+      <c r="DW15" s="78"/>
+      <c r="DX15" s="78"/>
+      <c r="DY15" s="77"/>
+      <c r="DZ15" s="77"/>
+      <c r="EA15" s="77"/>
+      <c r="EB15" s="77"/>
+      <c r="EC15" s="78"/>
+      <c r="ED15" s="78"/>
+      <c r="EE15" s="79"/>
+      <c r="EF15" s="77"/>
+      <c r="EG15" s="77"/>
+      <c r="EH15" s="77"/>
+      <c r="EI15" s="77"/>
+      <c r="EJ15" s="78"/>
+      <c r="EK15" s="78"/>
+      <c r="EL15" s="79"/>
+      <c r="EM15" s="78"/>
+      <c r="EN15" s="77"/>
+      <c r="EO15" s="77"/>
+      <c r="EP15" s="77"/>
+      <c r="EQ15" s="78"/>
+      <c r="ER15" s="78"/>
+      <c r="ES15" s="79"/>
+      <c r="ET15" s="79"/>
+      <c r="EU15" s="79"/>
+      <c r="EV15" s="103"/>
     </row>
     <row r="16" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="24"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -4386,15 +4416,15 @@
       <c r="AD16" s="13"/>
       <c r="AE16" s="16"/>
       <c r="AF16" s="16"/>
-      <c r="AG16" s="76"/>
+      <c r="AG16" s="68"/>
       <c r="AH16" s="16"/>
       <c r="AI16" s="14"/>
       <c r="AJ16" s="14"/>
-      <c r="AK16" s="65" t="s">
+      <c r="AK16" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="AL16" s="65"/>
-      <c r="AM16" s="65"/>
+      <c r="AL16" s="57"/>
+      <c r="AM16" s="57"/>
       <c r="AN16" s="16"/>
       <c r="AO16" s="16"/>
       <c r="AP16" s="14"/>
@@ -4417,16 +4447,16 @@
       <c r="BG16" s="16"/>
       <c r="BH16" s="25"/>
       <c r="BI16" s="14"/>
-      <c r="BJ16" s="16" t="s">
+      <c r="BJ16" s="16"/>
+      <c r="BK16" s="14"/>
+      <c r="BL16" s="125"/>
+      <c r="BM16" s="125"/>
+      <c r="BN16" s="125"/>
+      <c r="BO16" s="125"/>
+      <c r="BP16" s="125"/>
+      <c r="BQ16" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="BK16" s="14"/>
-      <c r="BL16" s="14"/>
-      <c r="BM16" s="16"/>
-      <c r="BN16" s="16"/>
-      <c r="BO16" s="16"/>
-      <c r="BP16" s="16"/>
-      <c r="BQ16" s="16"/>
       <c r="BR16" s="14"/>
       <c r="BS16" s="14"/>
       <c r="BT16" s="13"/>
@@ -4479,7 +4509,7 @@
       <c r="DO16" s="14"/>
       <c r="DP16" s="14"/>
       <c r="DQ16" s="17"/>
-      <c r="DR16" s="76"/>
+      <c r="DR16" s="68"/>
       <c r="DS16" s="16"/>
       <c r="DT16" s="16"/>
       <c r="DU16" s="16"/>
@@ -4512,7 +4542,7 @@
       <c r="EV16" s="17"/>
     </row>
     <row r="17" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
+      <c r="A17" s="107"/>
       <c r="B17" s="24"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -4544,14 +4574,14 @@
       <c r="AD17" s="13"/>
       <c r="AE17" s="16"/>
       <c r="AF17" s="16"/>
-      <c r="AG17" s="76"/>
+      <c r="AG17" s="68"/>
       <c r="AH17" s="16"/>
       <c r="AI17" s="14"/>
       <c r="AJ17" s="14"/>
       <c r="AK17" s="16"/>
       <c r="AL17" s="16"/>
       <c r="AM17" s="16"/>
-      <c r="AN17" s="67"/>
+      <c r="AN17" s="59"/>
       <c r="AO17" s="16"/>
       <c r="AP17" s="14"/>
       <c r="AQ17" s="14"/>
@@ -4575,41 +4605,41 @@
       <c r="BI17" s="14"/>
       <c r="BJ17" s="16"/>
       <c r="BK17" s="14"/>
-      <c r="BL17" s="14"/>
-      <c r="BM17" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="BN17" s="16"/>
-      <c r="BO17" s="16"/>
-      <c r="BP17" s="16"/>
+      <c r="BL17" s="125"/>
+      <c r="BM17" s="125"/>
+      <c r="BN17" s="125"/>
+      <c r="BO17" s="125"/>
+      <c r="BP17" s="125"/>
       <c r="BQ17" s="16"/>
       <c r="BR17" s="14"/>
       <c r="BS17" s="14"/>
-      <c r="BT17" s="13"/>
+      <c r="BT17" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="BU17" s="16"/>
       <c r="BV17" s="16"/>
       <c r="BW17" s="16"/>
       <c r="BX17" s="16"/>
-      <c r="BY17" s="68" t="s">
-        <v>18</v>
-      </c>
+      <c r="BY17" s="14"/>
       <c r="BZ17" s="14"/>
       <c r="CA17" s="13"/>
       <c r="CB17" s="16"/>
       <c r="CC17" s="16"/>
       <c r="CD17" s="16"/>
       <c r="CE17" s="16"/>
-      <c r="CF17" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="CG17" s="68"/>
+      <c r="CF17" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="CG17" s="14"/>
       <c r="CH17" s="13"/>
       <c r="CI17" s="16"/>
       <c r="CJ17" s="16"/>
       <c r="CK17" s="16"/>
       <c r="CL17" s="16"/>
-      <c r="CM17" s="14"/>
-      <c r="CN17" s="24"/>
+      <c r="CM17" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="CN17" s="60"/>
       <c r="CO17" s="13"/>
       <c r="CP17" s="16"/>
       <c r="CQ17" s="16"/>
@@ -4639,7 +4669,7 @@
       <c r="DO17" s="14"/>
       <c r="DP17" s="14"/>
       <c r="DQ17" s="17"/>
-      <c r="DR17" s="76"/>
+      <c r="DR17" s="68"/>
       <c r="DS17" s="16"/>
       <c r="DT17" s="16"/>
       <c r="DU17" s="16"/>
@@ -4672,7 +4702,7 @@
       <c r="EV17" s="17"/>
     </row>
     <row r="18" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
+      <c r="A18" s="107"/>
       <c r="B18" s="24"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -4704,7 +4734,7 @@
       <c r="AD18" s="13"/>
       <c r="AE18" s="16"/>
       <c r="AF18" s="16"/>
-      <c r="AG18" s="76"/>
+      <c r="AG18" s="68"/>
       <c r="AH18" s="16"/>
       <c r="AI18" s="14"/>
       <c r="AJ18" s="14"/>
@@ -4735,17 +4765,17 @@
       <c r="BI18" s="14"/>
       <c r="BJ18" s="16"/>
       <c r="BK18" s="14"/>
-      <c r="BL18" s="14"/>
-      <c r="BM18" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="BN18" s="16"/>
-      <c r="BO18" s="16"/>
-      <c r="BP18" s="16"/>
+      <c r="BL18" s="125"/>
+      <c r="BM18" s="126"/>
+      <c r="BN18" s="125"/>
+      <c r="BO18" s="125"/>
+      <c r="BP18" s="125"/>
       <c r="BQ18" s="16"/>
       <c r="BR18" s="14"/>
       <c r="BS18" s="14"/>
-      <c r="BT18" s="13"/>
+      <c r="BT18" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="BU18" s="16"/>
       <c r="BV18" s="16"/>
       <c r="BW18" s="16"/>
@@ -4795,7 +4825,7 @@
       <c r="DO18" s="14"/>
       <c r="DP18" s="14"/>
       <c r="DQ18" s="17"/>
-      <c r="DR18" s="76"/>
+      <c r="DR18" s="68"/>
       <c r="DS18" s="16"/>
       <c r="DT18" s="16"/>
       <c r="DU18" s="16"/>
@@ -4828,7 +4858,7 @@
       <c r="EV18" s="17"/>
     </row>
     <row r="19" spans="1:152" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
+      <c r="A19" s="107"/>
       <c r="B19" s="26"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -4860,7 +4890,7 @@
       <c r="AD19" s="19"/>
       <c r="AE19" s="21"/>
       <c r="AF19" s="21"/>
-      <c r="AG19" s="77"/>
+      <c r="AG19" s="69"/>
       <c r="AH19" s="21"/>
       <c r="AI19" s="20"/>
       <c r="AJ19" s="20"/>
@@ -4891,17 +4921,17 @@
       <c r="BI19" s="20"/>
       <c r="BJ19" s="21"/>
       <c r="BK19" s="20"/>
-      <c r="BL19" s="20"/>
-      <c r="BM19" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="BN19" s="21"/>
-      <c r="BO19" s="21"/>
-      <c r="BP19" s="21"/>
+      <c r="BL19" s="127"/>
+      <c r="BM19" s="125"/>
+      <c r="BN19" s="127"/>
+      <c r="BO19" s="127"/>
+      <c r="BP19" s="127"/>
       <c r="BQ19" s="21"/>
       <c r="BR19" s="20"/>
       <c r="BS19" s="20"/>
-      <c r="BT19" s="19"/>
+      <c r="BT19" s="16" t="s">
+        <v>1</v>
+      </c>
       <c r="BU19" s="21"/>
       <c r="BV19" s="21"/>
       <c r="BW19" s="21"/>
@@ -4951,202 +4981,202 @@
       <c r="DO19" s="20"/>
       <c r="DP19" s="20"/>
       <c r="DQ19" s="22"/>
-      <c r="DR19" s="79"/>
-      <c r="DS19" s="80"/>
-      <c r="DT19" s="80"/>
-      <c r="DU19" s="80"/>
-      <c r="DV19" s="81"/>
-      <c r="DW19" s="81"/>
-      <c r="DX19" s="81"/>
-      <c r="DY19" s="80"/>
-      <c r="DZ19" s="80"/>
-      <c r="EA19" s="80"/>
-      <c r="EB19" s="80"/>
-      <c r="EC19" s="81"/>
-      <c r="ED19" s="81"/>
-      <c r="EE19" s="82"/>
-      <c r="EF19" s="80"/>
-      <c r="EG19" s="80"/>
-      <c r="EH19" s="80"/>
-      <c r="EI19" s="80"/>
-      <c r="EJ19" s="81"/>
-      <c r="EK19" s="81"/>
-      <c r="EL19" s="82"/>
-      <c r="EM19" s="81"/>
-      <c r="EN19" s="80"/>
-      <c r="EO19" s="80"/>
-      <c r="EP19" s="80"/>
-      <c r="EQ19" s="81"/>
-      <c r="ER19" s="81"/>
-      <c r="ES19" s="82"/>
-      <c r="ET19" s="82"/>
-      <c r="EU19" s="82"/>
-      <c r="EV19" s="110"/>
+      <c r="DR19" s="71"/>
+      <c r="DS19" s="72"/>
+      <c r="DT19" s="72"/>
+      <c r="DU19" s="72"/>
+      <c r="DV19" s="73"/>
+      <c r="DW19" s="73"/>
+      <c r="DX19" s="73"/>
+      <c r="DY19" s="72"/>
+      <c r="DZ19" s="72"/>
+      <c r="EA19" s="72"/>
+      <c r="EB19" s="72"/>
+      <c r="EC19" s="73"/>
+      <c r="ED19" s="73"/>
+      <c r="EE19" s="74"/>
+      <c r="EF19" s="72"/>
+      <c r="EG19" s="72"/>
+      <c r="EH19" s="72"/>
+      <c r="EI19" s="72"/>
+      <c r="EJ19" s="73"/>
+      <c r="EK19" s="73"/>
+      <c r="EL19" s="74"/>
+      <c r="EM19" s="73"/>
+      <c r="EN19" s="72"/>
+      <c r="EO19" s="72"/>
+      <c r="EP19" s="72"/>
+      <c r="EQ19" s="73"/>
+      <c r="ER19" s="73"/>
+      <c r="ES19" s="74"/>
+      <c r="ET19" s="74"/>
+      <c r="EU19" s="74"/>
+      <c r="EV19" s="99"/>
     </row>
     <row r="20" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="87"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="86"/>
-      <c r="U20" s="87"/>
-      <c r="V20" s="87"/>
-      <c r="W20" s="86"/>
-      <c r="X20" s="86"/>
-      <c r="Y20" s="96"/>
-      <c r="Z20" s="86"/>
-      <c r="AA20" s="86"/>
-      <c r="AB20" s="87"/>
-      <c r="AC20" s="87"/>
-      <c r="AD20" s="86"/>
-      <c r="AE20" s="86"/>
-      <c r="AF20" s="96"/>
-      <c r="AG20" s="92"/>
-      <c r="AH20" s="49" t="s">
+      <c r="B20" s="76"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="87"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="77"/>
+      <c r="Y20" s="87"/>
+      <c r="Z20" s="77"/>
+      <c r="AA20" s="77"/>
+      <c r="AB20" s="78"/>
+      <c r="AC20" s="78"/>
+      <c r="AD20" s="77"/>
+      <c r="AE20" s="77"/>
+      <c r="AF20" s="87"/>
+      <c r="AG20" s="83"/>
+      <c r="AH20" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AI20" s="90"/>
-      <c r="AJ20" s="90"/>
-      <c r="AK20" s="86"/>
-      <c r="AL20" s="86"/>
-      <c r="AM20" s="96"/>
-      <c r="AN20" s="86"/>
-      <c r="AO20" s="86"/>
-      <c r="AP20" s="87"/>
-      <c r="AQ20" s="87"/>
-      <c r="AR20" s="86"/>
-      <c r="AS20" s="86"/>
-      <c r="AT20" s="96"/>
-      <c r="AU20" s="87"/>
-      <c r="AV20" s="87"/>
-      <c r="AW20" s="87"/>
-      <c r="AX20" s="48" t="s">
+      <c r="AI20" s="81"/>
+      <c r="AJ20" s="81"/>
+      <c r="AK20" s="77"/>
+      <c r="AL20" s="77"/>
+      <c r="AM20" s="87"/>
+      <c r="AN20" s="77"/>
+      <c r="AO20" s="77"/>
+      <c r="AP20" s="78"/>
+      <c r="AQ20" s="78"/>
+      <c r="AR20" s="77"/>
+      <c r="AS20" s="77"/>
+      <c r="AT20" s="87"/>
+      <c r="AU20" s="78"/>
+      <c r="AV20" s="78"/>
+      <c r="AW20" s="78"/>
+      <c r="AX20" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="AY20" s="86"/>
-      <c r="AZ20" s="86"/>
-      <c r="BA20" s="96"/>
-      <c r="BB20" s="86"/>
-      <c r="BC20" s="86"/>
-      <c r="BD20" s="48" t="s">
+      <c r="AY20" s="77"/>
+      <c r="AZ20" s="77"/>
+      <c r="BA20" s="87"/>
+      <c r="BB20" s="77"/>
+      <c r="BC20" s="77"/>
+      <c r="BD20" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="BE20" s="98"/>
-      <c r="BF20" s="86"/>
-      <c r="BG20" s="86"/>
-      <c r="BH20" s="99"/>
-      <c r="BI20" s="87"/>
-      <c r="BJ20" s="86"/>
-      <c r="BK20" s="87"/>
-      <c r="BL20" s="87"/>
-      <c r="BM20" s="86"/>
-      <c r="BN20" s="86"/>
-      <c r="BO20" s="96"/>
-      <c r="BP20" s="86"/>
-      <c r="BQ20" s="86"/>
-      <c r="BR20" s="87"/>
-      <c r="BS20" s="87"/>
-      <c r="BT20" s="86"/>
-      <c r="BU20" s="86"/>
-      <c r="BV20" s="96"/>
-      <c r="BW20" s="86"/>
-      <c r="BX20" s="86"/>
-      <c r="BY20" s="87"/>
-      <c r="BZ20" s="87"/>
-      <c r="CA20" s="86"/>
-      <c r="CB20" s="86"/>
-      <c r="CC20" s="96"/>
-      <c r="CD20" s="86"/>
-      <c r="CE20" s="86"/>
-      <c r="CF20" s="87"/>
-      <c r="CG20" s="87"/>
-      <c r="CH20" s="86"/>
-      <c r="CI20" s="86"/>
-      <c r="CJ20" s="96"/>
-      <c r="CK20" s="86"/>
-      <c r="CL20" s="86"/>
-      <c r="CM20" s="87"/>
-      <c r="CN20" s="85"/>
-      <c r="CO20" s="86"/>
-      <c r="CP20" s="86"/>
-      <c r="CQ20" s="96"/>
-      <c r="CR20" s="86"/>
-      <c r="CS20" s="86"/>
-      <c r="CT20" s="87"/>
-      <c r="CU20" s="87"/>
-      <c r="CV20" s="86"/>
-      <c r="CW20" s="86"/>
-      <c r="CX20" s="96"/>
-      <c r="CY20" s="86"/>
-      <c r="CZ20" s="86"/>
-      <c r="DA20" s="87"/>
-      <c r="DB20" s="87"/>
-      <c r="DC20" s="86"/>
-      <c r="DD20" s="86"/>
-      <c r="DE20" s="96"/>
-      <c r="DF20" s="86"/>
-      <c r="DG20" s="86"/>
-      <c r="DH20" s="87"/>
-      <c r="DI20" s="87"/>
-      <c r="DJ20" s="86"/>
-      <c r="DK20" s="86"/>
-      <c r="DL20" s="96"/>
-      <c r="DM20" s="86"/>
-      <c r="DN20" s="86"/>
-      <c r="DO20" s="87"/>
-      <c r="DP20" s="87"/>
-      <c r="DQ20" s="94"/>
-      <c r="DR20" s="92"/>
-      <c r="DS20" s="86"/>
-      <c r="DT20" s="86"/>
-      <c r="DU20" s="86"/>
-      <c r="DV20" s="87"/>
-      <c r="DW20" s="87"/>
-      <c r="DX20" s="87"/>
-      <c r="DY20" s="86"/>
-      <c r="DZ20" s="86"/>
-      <c r="EA20" s="86"/>
-      <c r="EB20" s="86"/>
-      <c r="EC20" s="87"/>
-      <c r="ED20" s="87"/>
-      <c r="EE20" s="88"/>
-      <c r="EF20" s="86"/>
-      <c r="EG20" s="86"/>
-      <c r="EH20" s="86"/>
-      <c r="EI20" s="86"/>
-      <c r="EJ20" s="87"/>
-      <c r="EK20" s="87"/>
-      <c r="EL20" s="88"/>
-      <c r="EM20" s="87"/>
-      <c r="EN20" s="86"/>
-      <c r="EO20" s="86"/>
-      <c r="EP20" s="86"/>
-      <c r="EQ20" s="87"/>
-      <c r="ER20" s="87"/>
-      <c r="ES20" s="88"/>
-      <c r="ET20" s="88"/>
-      <c r="EU20" s="88"/>
-      <c r="EV20" s="115"/>
+      <c r="BE20" s="89"/>
+      <c r="BF20" s="77"/>
+      <c r="BG20" s="77"/>
+      <c r="BH20" s="90"/>
+      <c r="BI20" s="78"/>
+      <c r="BJ20" s="77"/>
+      <c r="BK20" s="78"/>
+      <c r="BL20" s="128"/>
+      <c r="BM20" s="128"/>
+      <c r="BN20" s="128"/>
+      <c r="BO20" s="129"/>
+      <c r="BP20" s="128"/>
+      <c r="BQ20" s="77"/>
+      <c r="BR20" s="78"/>
+      <c r="BS20" s="78"/>
+      <c r="BT20" s="77"/>
+      <c r="BU20" s="77"/>
+      <c r="BV20" s="87"/>
+      <c r="BW20" s="77"/>
+      <c r="BX20" s="77"/>
+      <c r="BY20" s="78"/>
+      <c r="BZ20" s="78"/>
+      <c r="CA20" s="77"/>
+      <c r="CB20" s="77"/>
+      <c r="CC20" s="87"/>
+      <c r="CD20" s="77"/>
+      <c r="CE20" s="77"/>
+      <c r="CF20" s="78"/>
+      <c r="CG20" s="78"/>
+      <c r="CH20" s="77"/>
+      <c r="CI20" s="77"/>
+      <c r="CJ20" s="87"/>
+      <c r="CK20" s="77"/>
+      <c r="CL20" s="77"/>
+      <c r="CM20" s="78"/>
+      <c r="CN20" s="76"/>
+      <c r="CO20" s="77"/>
+      <c r="CP20" s="77"/>
+      <c r="CQ20" s="87"/>
+      <c r="CR20" s="77"/>
+      <c r="CS20" s="77"/>
+      <c r="CT20" s="78"/>
+      <c r="CU20" s="78"/>
+      <c r="CV20" s="77"/>
+      <c r="CW20" s="77"/>
+      <c r="CX20" s="87"/>
+      <c r="CY20" s="77"/>
+      <c r="CZ20" s="77"/>
+      <c r="DA20" s="78"/>
+      <c r="DB20" s="78"/>
+      <c r="DC20" s="77"/>
+      <c r="DD20" s="77"/>
+      <c r="DE20" s="87"/>
+      <c r="DF20" s="77"/>
+      <c r="DG20" s="77"/>
+      <c r="DH20" s="78"/>
+      <c r="DI20" s="78"/>
+      <c r="DJ20" s="77"/>
+      <c r="DK20" s="77"/>
+      <c r="DL20" s="87"/>
+      <c r="DM20" s="77"/>
+      <c r="DN20" s="77"/>
+      <c r="DO20" s="78"/>
+      <c r="DP20" s="78"/>
+      <c r="DQ20" s="85"/>
+      <c r="DR20" s="83"/>
+      <c r="DS20" s="77"/>
+      <c r="DT20" s="77"/>
+      <c r="DU20" s="77"/>
+      <c r="DV20" s="78"/>
+      <c r="DW20" s="78"/>
+      <c r="DX20" s="78"/>
+      <c r="DY20" s="77"/>
+      <c r="DZ20" s="77"/>
+      <c r="EA20" s="77"/>
+      <c r="EB20" s="77"/>
+      <c r="EC20" s="78"/>
+      <c r="ED20" s="78"/>
+      <c r="EE20" s="79"/>
+      <c r="EF20" s="77"/>
+      <c r="EG20" s="77"/>
+      <c r="EH20" s="77"/>
+      <c r="EI20" s="77"/>
+      <c r="EJ20" s="78"/>
+      <c r="EK20" s="78"/>
+      <c r="EL20" s="79"/>
+      <c r="EM20" s="78"/>
+      <c r="EN20" s="77"/>
+      <c r="EO20" s="77"/>
+      <c r="EP20" s="77"/>
+      <c r="EQ20" s="78"/>
+      <c r="ER20" s="78"/>
+      <c r="ES20" s="79"/>
+      <c r="ET20" s="79"/>
+      <c r="EU20" s="79"/>
+      <c r="EV20" s="103"/>
     </row>
     <row r="21" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
+      <c r="A21" s="107"/>
       <c r="B21" s="24"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -5178,12 +5208,12 @@
       <c r="AD21" s="16"/>
       <c r="AE21" s="16"/>
       <c r="AF21" s="16"/>
-      <c r="AG21" s="76"/>
-      <c r="AH21" s="65" t="s">
+      <c r="AG21" s="68"/>
+      <c r="AH21" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="AI21" s="65"/>
-      <c r="AJ21" s="65"/>
+      <c r="AI21" s="57"/>
+      <c r="AJ21" s="57"/>
       <c r="AK21" s="16"/>
       <c r="AL21" s="16"/>
       <c r="AM21" s="16"/>
@@ -5213,11 +5243,11 @@
       <c r="BI21" s="14"/>
       <c r="BJ21" s="16"/>
       <c r="BK21" s="14"/>
-      <c r="BL21" s="14"/>
-      <c r="BM21" s="16"/>
-      <c r="BN21" s="16"/>
-      <c r="BO21" s="16"/>
-      <c r="BP21" s="16"/>
+      <c r="BL21" s="125"/>
+      <c r="BM21" s="125"/>
+      <c r="BN21" s="125"/>
+      <c r="BO21" s="125"/>
+      <c r="BP21" s="125"/>
       <c r="BQ21" s="16"/>
       <c r="BR21" s="14"/>
       <c r="BS21" s="14"/>
@@ -5271,7 +5301,7 @@
       <c r="DO21" s="14"/>
       <c r="DP21" s="14"/>
       <c r="DQ21" s="25"/>
-      <c r="DR21" s="76"/>
+      <c r="DR21" s="68"/>
       <c r="DS21" s="16"/>
       <c r="DT21" s="16"/>
       <c r="DU21" s="16"/>
@@ -5304,7 +5334,7 @@
       <c r="EV21" s="17"/>
     </row>
     <row r="22" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
+      <c r="A22" s="107"/>
       <c r="B22" s="24"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -5336,11 +5366,11 @@
       <c r="AD22" s="16"/>
       <c r="AE22" s="16"/>
       <c r="AF22" s="16"/>
-      <c r="AG22" s="76"/>
+      <c r="AG22" s="68"/>
       <c r="AH22" s="16"/>
       <c r="AI22" s="14"/>
       <c r="AJ22" s="14"/>
-      <c r="AK22" s="65" t="s">
+      <c r="AK22" s="57" t="s">
         <v>10</v>
       </c>
       <c r="AL22" s="16"/>
@@ -5369,11 +5399,11 @@
       <c r="BI22" s="14"/>
       <c r="BJ22" s="16"/>
       <c r="BK22" s="14"/>
-      <c r="BL22" s="14"/>
-      <c r="BM22" s="16"/>
-      <c r="BN22" s="16"/>
-      <c r="BO22" s="16"/>
-      <c r="BP22" s="16"/>
+      <c r="BL22" s="125"/>
+      <c r="BM22" s="125"/>
+      <c r="BN22" s="125"/>
+      <c r="BO22" s="125"/>
+      <c r="BP22" s="125"/>
       <c r="BQ22" s="16"/>
       <c r="BR22" s="14"/>
       <c r="BS22" s="14"/>
@@ -5427,7 +5457,7 @@
       <c r="DO22" s="14"/>
       <c r="DP22" s="14"/>
       <c r="DQ22" s="25"/>
-      <c r="DR22" s="76"/>
+      <c r="DR22" s="68"/>
       <c r="DS22" s="16"/>
       <c r="DT22" s="16"/>
       <c r="DU22" s="16"/>
@@ -5460,7 +5490,7 @@
       <c r="EV22" s="17"/>
     </row>
     <row r="23" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
+      <c r="A23" s="107"/>
       <c r="B23" s="24"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -5497,7 +5527,7 @@
       <c r="AI23" s="14"/>
       <c r="AJ23" s="14"/>
       <c r="AK23" s="13"/>
-      <c r="AL23" s="100" t="s">
+      <c r="AL23" s="91" t="s">
         <v>28</v>
       </c>
       <c r="AM23" s="13"/>
@@ -5525,11 +5555,11 @@
       <c r="BI23" s="14"/>
       <c r="BJ23" s="13"/>
       <c r="BK23" s="14"/>
-      <c r="BL23" s="14"/>
-      <c r="BM23" s="13"/>
-      <c r="BN23" s="13"/>
-      <c r="BO23" s="13"/>
-      <c r="BP23" s="13"/>
+      <c r="BL23" s="125"/>
+      <c r="BM23" s="125"/>
+      <c r="BN23" s="125"/>
+      <c r="BO23" s="125"/>
+      <c r="BP23" s="125"/>
       <c r="BQ23" s="13"/>
       <c r="BR23" s="14"/>
       <c r="BS23" s="14"/>
@@ -5583,7 +5613,7 @@
       <c r="DO23" s="14"/>
       <c r="DP23" s="14"/>
       <c r="DQ23" s="17"/>
-      <c r="DR23" s="76"/>
+      <c r="DR23" s="68"/>
       <c r="DS23" s="16"/>
       <c r="DT23" s="16"/>
       <c r="DU23" s="16"/>
@@ -5616,317 +5646,317 @@
       <c r="EV23" s="17"/>
     </row>
     <row r="24" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="102"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="103"/>
-      <c r="O24" s="103"/>
-      <c r="P24" s="102"/>
-      <c r="Q24" s="102"/>
-      <c r="R24" s="102"/>
-      <c r="S24" s="102"/>
-      <c r="T24" s="102"/>
-      <c r="U24" s="103"/>
-      <c r="V24" s="103"/>
-      <c r="W24" s="102"/>
-      <c r="X24" s="102"/>
-      <c r="Y24" s="102"/>
-      <c r="Z24" s="102"/>
-      <c r="AA24" s="102"/>
-      <c r="AB24" s="103"/>
-      <c r="AC24" s="103"/>
-      <c r="AD24" s="102"/>
-      <c r="AE24" s="102"/>
-      <c r="AF24" s="102"/>
-      <c r="AG24" s="104"/>
-      <c r="AH24" s="102"/>
-      <c r="AI24" s="103"/>
-      <c r="AJ24" s="103"/>
-      <c r="AK24" s="102"/>
-      <c r="AL24" s="102"/>
-      <c r="AM24" s="102"/>
-      <c r="AN24" s="102"/>
-      <c r="AO24" s="102"/>
-      <c r="AP24" s="103"/>
-      <c r="AQ24" s="103"/>
-      <c r="AR24" s="102"/>
-      <c r="AS24" s="102"/>
-      <c r="AT24" s="102"/>
-      <c r="AU24" s="103"/>
-      <c r="AV24" s="103"/>
-      <c r="AW24" s="103"/>
-      <c r="AX24" s="103"/>
-      <c r="AY24" s="102"/>
-      <c r="AZ24" s="102"/>
-      <c r="BA24" s="102"/>
-      <c r="BB24" s="102"/>
-      <c r="BC24" s="102"/>
-      <c r="BD24" s="103"/>
-      <c r="BE24" s="103"/>
-      <c r="BF24" s="102"/>
-      <c r="BG24" s="102"/>
-      <c r="BH24" s="105"/>
-      <c r="BI24" s="103"/>
-      <c r="BJ24" s="102"/>
-      <c r="BK24" s="103"/>
-      <c r="BL24" s="103"/>
-      <c r="BM24" s="102"/>
-      <c r="BN24" s="102"/>
-      <c r="BO24" s="102"/>
-      <c r="BP24" s="102"/>
-      <c r="BQ24" s="102"/>
-      <c r="BR24" s="103"/>
-      <c r="BS24" s="103"/>
-      <c r="BT24" s="102"/>
-      <c r="BU24" s="102"/>
-      <c r="BV24" s="102"/>
-      <c r="BW24" s="102"/>
-      <c r="BX24" s="102"/>
-      <c r="BY24" s="103"/>
-      <c r="BZ24" s="103"/>
-      <c r="CA24" s="102"/>
-      <c r="CB24" s="102"/>
-      <c r="CC24" s="102"/>
-      <c r="CD24" s="102"/>
-      <c r="CE24" s="102"/>
-      <c r="CF24" s="103"/>
-      <c r="CG24" s="103"/>
-      <c r="CH24" s="102"/>
-      <c r="CI24" s="102"/>
-      <c r="CJ24" s="102"/>
-      <c r="CK24" s="102"/>
-      <c r="CL24" s="102"/>
-      <c r="CM24" s="103"/>
-      <c r="CN24" s="101"/>
-      <c r="CO24" s="102"/>
-      <c r="CP24" s="102"/>
-      <c r="CQ24" s="102"/>
-      <c r="CR24" s="102"/>
-      <c r="CS24" s="102"/>
-      <c r="CT24" s="103"/>
-      <c r="CU24" s="103"/>
-      <c r="CV24" s="102"/>
-      <c r="CW24" s="102"/>
-      <c r="CX24" s="102"/>
-      <c r="CY24" s="102"/>
-      <c r="CZ24" s="102"/>
-      <c r="DA24" s="103"/>
-      <c r="DB24" s="103"/>
-      <c r="DC24" s="102"/>
-      <c r="DD24" s="102"/>
-      <c r="DE24" s="102"/>
-      <c r="DF24" s="102"/>
-      <c r="DG24" s="102"/>
-      <c r="DH24" s="103"/>
-      <c r="DI24" s="103"/>
-      <c r="DJ24" s="102"/>
-      <c r="DK24" s="102"/>
-      <c r="DL24" s="102"/>
-      <c r="DM24" s="102"/>
-      <c r="DN24" s="102"/>
-      <c r="DO24" s="103"/>
-      <c r="DP24" s="103"/>
-      <c r="DQ24" s="105"/>
-      <c r="DR24" s="79"/>
-      <c r="DS24" s="80"/>
-      <c r="DT24" s="80"/>
-      <c r="DU24" s="80"/>
-      <c r="DV24" s="81"/>
-      <c r="DW24" s="81"/>
-      <c r="DX24" s="81"/>
-      <c r="DY24" s="80"/>
-      <c r="DZ24" s="80"/>
-      <c r="EA24" s="80"/>
-      <c r="EB24" s="80"/>
-      <c r="EC24" s="81"/>
-      <c r="ED24" s="81"/>
-      <c r="EE24" s="82"/>
-      <c r="EF24" s="80"/>
-      <c r="EG24" s="80"/>
-      <c r="EH24" s="80"/>
-      <c r="EI24" s="80"/>
-      <c r="EJ24" s="81"/>
-      <c r="EK24" s="81"/>
-      <c r="EL24" s="82"/>
-      <c r="EM24" s="81"/>
-      <c r="EN24" s="80"/>
-      <c r="EO24" s="80"/>
-      <c r="EP24" s="80"/>
-      <c r="EQ24" s="81"/>
-      <c r="ER24" s="81"/>
-      <c r="ES24" s="82"/>
-      <c r="ET24" s="82"/>
-      <c r="EU24" s="82"/>
-      <c r="EV24" s="110"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="93"/>
+      <c r="R24" s="93"/>
+      <c r="S24" s="93"/>
+      <c r="T24" s="93"/>
+      <c r="U24" s="94"/>
+      <c r="V24" s="94"/>
+      <c r="W24" s="93"/>
+      <c r="X24" s="93"/>
+      <c r="Y24" s="93"/>
+      <c r="Z24" s="93"/>
+      <c r="AA24" s="93"/>
+      <c r="AB24" s="94"/>
+      <c r="AC24" s="94"/>
+      <c r="AD24" s="93"/>
+      <c r="AE24" s="93"/>
+      <c r="AF24" s="93"/>
+      <c r="AG24" s="95"/>
+      <c r="AH24" s="93"/>
+      <c r="AI24" s="94"/>
+      <c r="AJ24" s="94"/>
+      <c r="AK24" s="93"/>
+      <c r="AL24" s="93"/>
+      <c r="AM24" s="93"/>
+      <c r="AN24" s="93"/>
+      <c r="AO24" s="93"/>
+      <c r="AP24" s="94"/>
+      <c r="AQ24" s="94"/>
+      <c r="AR24" s="93"/>
+      <c r="AS24" s="93"/>
+      <c r="AT24" s="93"/>
+      <c r="AU24" s="94"/>
+      <c r="AV24" s="94"/>
+      <c r="AW24" s="94"/>
+      <c r="AX24" s="94"/>
+      <c r="AY24" s="93"/>
+      <c r="AZ24" s="93"/>
+      <c r="BA24" s="93"/>
+      <c r="BB24" s="93"/>
+      <c r="BC24" s="93"/>
+      <c r="BD24" s="94"/>
+      <c r="BE24" s="94"/>
+      <c r="BF24" s="93"/>
+      <c r="BG24" s="93"/>
+      <c r="BH24" s="96"/>
+      <c r="BI24" s="94"/>
+      <c r="BJ24" s="93"/>
+      <c r="BK24" s="94"/>
+      <c r="BL24" s="130"/>
+      <c r="BM24" s="130"/>
+      <c r="BN24" s="130"/>
+      <c r="BO24" s="130"/>
+      <c r="BP24" s="130"/>
+      <c r="BQ24" s="93"/>
+      <c r="BR24" s="94"/>
+      <c r="BS24" s="94"/>
+      <c r="BT24" s="93"/>
+      <c r="BU24" s="93"/>
+      <c r="BV24" s="93"/>
+      <c r="BW24" s="93"/>
+      <c r="BX24" s="93"/>
+      <c r="BY24" s="94"/>
+      <c r="BZ24" s="94"/>
+      <c r="CA24" s="93"/>
+      <c r="CB24" s="93"/>
+      <c r="CC24" s="93"/>
+      <c r="CD24" s="93"/>
+      <c r="CE24" s="93"/>
+      <c r="CF24" s="94"/>
+      <c r="CG24" s="94"/>
+      <c r="CH24" s="93"/>
+      <c r="CI24" s="93"/>
+      <c r="CJ24" s="93"/>
+      <c r="CK24" s="93"/>
+      <c r="CL24" s="93"/>
+      <c r="CM24" s="94"/>
+      <c r="CN24" s="92"/>
+      <c r="CO24" s="93"/>
+      <c r="CP24" s="93"/>
+      <c r="CQ24" s="93"/>
+      <c r="CR24" s="93"/>
+      <c r="CS24" s="93"/>
+      <c r="CT24" s="94"/>
+      <c r="CU24" s="94"/>
+      <c r="CV24" s="93"/>
+      <c r="CW24" s="93"/>
+      <c r="CX24" s="93"/>
+      <c r="CY24" s="93"/>
+      <c r="CZ24" s="93"/>
+      <c r="DA24" s="94"/>
+      <c r="DB24" s="94"/>
+      <c r="DC24" s="93"/>
+      <c r="DD24" s="93"/>
+      <c r="DE24" s="93"/>
+      <c r="DF24" s="93"/>
+      <c r="DG24" s="93"/>
+      <c r="DH24" s="94"/>
+      <c r="DI24" s="94"/>
+      <c r="DJ24" s="93"/>
+      <c r="DK24" s="93"/>
+      <c r="DL24" s="93"/>
+      <c r="DM24" s="93"/>
+      <c r="DN24" s="93"/>
+      <c r="DO24" s="94"/>
+      <c r="DP24" s="94"/>
+      <c r="DQ24" s="96"/>
+      <c r="DR24" s="71"/>
+      <c r="DS24" s="72"/>
+      <c r="DT24" s="72"/>
+      <c r="DU24" s="72"/>
+      <c r="DV24" s="73"/>
+      <c r="DW24" s="73"/>
+      <c r="DX24" s="73"/>
+      <c r="DY24" s="72"/>
+      <c r="DZ24" s="72"/>
+      <c r="EA24" s="72"/>
+      <c r="EB24" s="72"/>
+      <c r="EC24" s="73"/>
+      <c r="ED24" s="73"/>
+      <c r="EE24" s="74"/>
+      <c r="EF24" s="72"/>
+      <c r="EG24" s="72"/>
+      <c r="EH24" s="72"/>
+      <c r="EI24" s="72"/>
+      <c r="EJ24" s="73"/>
+      <c r="EK24" s="73"/>
+      <c r="EL24" s="74"/>
+      <c r="EM24" s="73"/>
+      <c r="EN24" s="72"/>
+      <c r="EO24" s="72"/>
+      <c r="EP24" s="72"/>
+      <c r="EQ24" s="73"/>
+      <c r="ER24" s="73"/>
+      <c r="ES24" s="74"/>
+      <c r="ET24" s="74"/>
+      <c r="EU24" s="74"/>
+      <c r="EV24" s="99"/>
     </row>
     <row r="25" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="85"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="87"/>
-      <c r="O25" s="87"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="87"/>
-      <c r="V25" s="87"/>
-      <c r="W25" s="93"/>
-      <c r="X25" s="86"/>
-      <c r="Y25" s="86"/>
-      <c r="Z25" s="86"/>
-      <c r="AA25" s="88"/>
-      <c r="AB25" s="87"/>
-      <c r="AC25" s="87"/>
-      <c r="AD25" s="88"/>
-      <c r="AE25" s="86"/>
-      <c r="AF25" s="86"/>
-      <c r="AG25" s="92"/>
-      <c r="AH25" s="93"/>
-      <c r="AI25" s="87"/>
-      <c r="AJ25" s="87"/>
-      <c r="AK25" s="88"/>
-      <c r="AL25" s="86"/>
-      <c r="AM25" s="86"/>
-      <c r="AN25" s="86"/>
-      <c r="AO25" s="93"/>
-      <c r="AP25" s="87"/>
-      <c r="AQ25" s="87"/>
-      <c r="AR25" s="88"/>
-      <c r="AS25" s="86"/>
-      <c r="AT25" s="93"/>
-      <c r="AU25" s="87"/>
-      <c r="AV25" s="87"/>
-      <c r="AW25" s="87"/>
-      <c r="AX25" s="87"/>
-      <c r="AY25" s="88"/>
-      <c r="AZ25" s="86"/>
-      <c r="BA25" s="86"/>
-      <c r="BB25" s="86"/>
-      <c r="BC25" s="86"/>
-      <c r="BD25" s="87"/>
-      <c r="BE25" s="87"/>
-      <c r="BF25" s="88"/>
-      <c r="BG25" s="86"/>
-      <c r="BH25" s="94"/>
-      <c r="BI25" s="87"/>
-      <c r="BJ25" s="86"/>
-      <c r="BK25" s="87"/>
-      <c r="BL25" s="87"/>
-      <c r="BM25" s="88"/>
-      <c r="BN25" s="86"/>
-      <c r="BO25" s="86"/>
-      <c r="BP25" s="86"/>
-      <c r="BQ25" s="86"/>
-      <c r="BR25" s="87"/>
-      <c r="BS25" s="87"/>
-      <c r="BT25" s="88"/>
-      <c r="BU25" s="86"/>
-      <c r="BV25" s="86"/>
-      <c r="BW25" s="86"/>
-      <c r="BX25" s="86"/>
-      <c r="BY25" s="87"/>
-      <c r="BZ25" s="87"/>
-      <c r="CA25" s="88"/>
-      <c r="CB25" s="86"/>
-      <c r="CC25" s="86"/>
-      <c r="CD25" s="86"/>
-      <c r="CE25" s="86"/>
-      <c r="CF25" s="87"/>
-      <c r="CG25" s="87"/>
-      <c r="CH25" s="88"/>
-      <c r="CI25" s="86"/>
-      <c r="CJ25" s="86"/>
-      <c r="CK25" s="86"/>
-      <c r="CL25" s="86"/>
-      <c r="CM25" s="87"/>
-      <c r="CN25" s="85"/>
-      <c r="CO25" s="88"/>
-      <c r="CP25" s="86"/>
-      <c r="CQ25" s="86"/>
-      <c r="CR25" s="86"/>
-      <c r="CS25" s="86"/>
-      <c r="CT25" s="87"/>
-      <c r="CU25" s="87"/>
-      <c r="CV25" s="88"/>
-      <c r="CW25" s="86"/>
-      <c r="CX25" s="86"/>
-      <c r="CY25" s="86"/>
-      <c r="CZ25" s="86"/>
-      <c r="DA25" s="87"/>
-      <c r="DB25" s="87"/>
-      <c r="DC25" s="88"/>
-      <c r="DD25" s="86"/>
-      <c r="DE25" s="86"/>
-      <c r="DF25" s="86"/>
-      <c r="DG25" s="86"/>
-      <c r="DH25" s="87"/>
-      <c r="DI25" s="87"/>
-      <c r="DJ25" s="88"/>
-      <c r="DK25" s="86"/>
-      <c r="DL25" s="86"/>
-      <c r="DM25" s="86"/>
-      <c r="DN25" s="86"/>
-      <c r="DO25" s="87"/>
-      <c r="DP25" s="87"/>
-      <c r="DQ25" s="94"/>
-      <c r="DR25" s="92"/>
-      <c r="DS25" s="86"/>
-      <c r="DT25" s="86"/>
-      <c r="DU25" s="86"/>
-      <c r="DV25" s="87"/>
-      <c r="DW25" s="87"/>
-      <c r="DX25" s="87"/>
-      <c r="DY25" s="86"/>
-      <c r="DZ25" s="86"/>
-      <c r="EA25" s="86"/>
-      <c r="EB25" s="86"/>
-      <c r="EC25" s="87"/>
-      <c r="ED25" s="87"/>
-      <c r="EE25" s="88"/>
-      <c r="EF25" s="86"/>
-      <c r="EG25" s="86"/>
-      <c r="EH25" s="86"/>
-      <c r="EI25" s="86"/>
-      <c r="EJ25" s="87"/>
-      <c r="EK25" s="87"/>
-      <c r="EL25" s="88"/>
-      <c r="EM25" s="87"/>
-      <c r="EN25" s="86"/>
-      <c r="EO25" s="86"/>
-      <c r="EP25" s="86"/>
-      <c r="EQ25" s="87"/>
-      <c r="ER25" s="87"/>
-      <c r="ES25" s="88"/>
-      <c r="ET25" s="88"/>
-      <c r="EU25" s="88"/>
-      <c r="EV25" s="115"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="77"/>
+      <c r="S25" s="77"/>
+      <c r="T25" s="77"/>
+      <c r="U25" s="78"/>
+      <c r="V25" s="78"/>
+      <c r="W25" s="84"/>
+      <c r="X25" s="77"/>
+      <c r="Y25" s="77"/>
+      <c r="Z25" s="77"/>
+      <c r="AA25" s="79"/>
+      <c r="AB25" s="78"/>
+      <c r="AC25" s="78"/>
+      <c r="AD25" s="79"/>
+      <c r="AE25" s="77"/>
+      <c r="AF25" s="77"/>
+      <c r="AG25" s="83"/>
+      <c r="AH25" s="84"/>
+      <c r="AI25" s="78"/>
+      <c r="AJ25" s="78"/>
+      <c r="AK25" s="79"/>
+      <c r="AL25" s="77"/>
+      <c r="AM25" s="77"/>
+      <c r="AN25" s="77"/>
+      <c r="AO25" s="84"/>
+      <c r="AP25" s="78"/>
+      <c r="AQ25" s="78"/>
+      <c r="AR25" s="79"/>
+      <c r="AS25" s="77"/>
+      <c r="AT25" s="84"/>
+      <c r="AU25" s="78"/>
+      <c r="AV25" s="78"/>
+      <c r="AW25" s="78"/>
+      <c r="AX25" s="78"/>
+      <c r="AY25" s="79"/>
+      <c r="AZ25" s="77"/>
+      <c r="BA25" s="77"/>
+      <c r="BB25" s="77"/>
+      <c r="BC25" s="77"/>
+      <c r="BD25" s="78"/>
+      <c r="BE25" s="78"/>
+      <c r="BF25" s="79"/>
+      <c r="BG25" s="77"/>
+      <c r="BH25" s="85"/>
+      <c r="BI25" s="78"/>
+      <c r="BJ25" s="77"/>
+      <c r="BK25" s="78"/>
+      <c r="BL25" s="128"/>
+      <c r="BM25" s="128"/>
+      <c r="BN25" s="128"/>
+      <c r="BO25" s="128"/>
+      <c r="BP25" s="128"/>
+      <c r="BQ25" s="77"/>
+      <c r="BR25" s="78"/>
+      <c r="BS25" s="78"/>
+      <c r="BT25" s="79"/>
+      <c r="BU25" s="77"/>
+      <c r="BV25" s="77"/>
+      <c r="BW25" s="77"/>
+      <c r="BX25" s="77"/>
+      <c r="BY25" s="78"/>
+      <c r="BZ25" s="78"/>
+      <c r="CA25" s="79"/>
+      <c r="CB25" s="77"/>
+      <c r="CC25" s="77"/>
+      <c r="CD25" s="77"/>
+      <c r="CE25" s="77"/>
+      <c r="CF25" s="78"/>
+      <c r="CG25" s="78"/>
+      <c r="CH25" s="79"/>
+      <c r="CI25" s="77"/>
+      <c r="CJ25" s="77"/>
+      <c r="CK25" s="77"/>
+      <c r="CL25" s="77"/>
+      <c r="CM25" s="78"/>
+      <c r="CN25" s="76"/>
+      <c r="CO25" s="79"/>
+      <c r="CP25" s="77"/>
+      <c r="CQ25" s="77"/>
+      <c r="CR25" s="77"/>
+      <c r="CS25" s="77"/>
+      <c r="CT25" s="78"/>
+      <c r="CU25" s="78"/>
+      <c r="CV25" s="79"/>
+      <c r="CW25" s="77"/>
+      <c r="CX25" s="77"/>
+      <c r="CY25" s="77"/>
+      <c r="CZ25" s="77"/>
+      <c r="DA25" s="78"/>
+      <c r="DB25" s="78"/>
+      <c r="DC25" s="79"/>
+      <c r="DD25" s="77"/>
+      <c r="DE25" s="77"/>
+      <c r="DF25" s="77"/>
+      <c r="DG25" s="77"/>
+      <c r="DH25" s="78"/>
+      <c r="DI25" s="78"/>
+      <c r="DJ25" s="79"/>
+      <c r="DK25" s="77"/>
+      <c r="DL25" s="77"/>
+      <c r="DM25" s="77"/>
+      <c r="DN25" s="77"/>
+      <c r="DO25" s="78"/>
+      <c r="DP25" s="78"/>
+      <c r="DQ25" s="85"/>
+      <c r="DR25" s="83"/>
+      <c r="DS25" s="77"/>
+      <c r="DT25" s="77"/>
+      <c r="DU25" s="77"/>
+      <c r="DV25" s="78"/>
+      <c r="DW25" s="78"/>
+      <c r="DX25" s="78"/>
+      <c r="DY25" s="77"/>
+      <c r="DZ25" s="77"/>
+      <c r="EA25" s="77"/>
+      <c r="EB25" s="77"/>
+      <c r="EC25" s="78"/>
+      <c r="ED25" s="78"/>
+      <c r="EE25" s="79"/>
+      <c r="EF25" s="77"/>
+      <c r="EG25" s="77"/>
+      <c r="EH25" s="77"/>
+      <c r="EI25" s="77"/>
+      <c r="EJ25" s="78"/>
+      <c r="EK25" s="78"/>
+      <c r="EL25" s="79"/>
+      <c r="EM25" s="78"/>
+      <c r="EN25" s="77"/>
+      <c r="EO25" s="77"/>
+      <c r="EP25" s="77"/>
+      <c r="EQ25" s="78"/>
+      <c r="ER25" s="78"/>
+      <c r="ES25" s="79"/>
+      <c r="ET25" s="79"/>
+      <c r="EU25" s="79"/>
+      <c r="EV25" s="103"/>
     </row>
     <row r="26" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
+      <c r="A26" s="107"/>
       <c r="B26" s="24"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -5958,7 +5988,7 @@
       <c r="AD26" s="13"/>
       <c r="AE26" s="16"/>
       <c r="AF26" s="16"/>
-      <c r="AG26" s="76"/>
+      <c r="AG26" s="68"/>
       <c r="AH26" s="23"/>
       <c r="AI26" s="14"/>
       <c r="AJ26" s="14"/>
@@ -5989,11 +6019,11 @@
       <c r="BI26" s="14"/>
       <c r="BJ26" s="16"/>
       <c r="BK26" s="14"/>
-      <c r="BL26" s="14"/>
-      <c r="BM26" s="13"/>
-      <c r="BN26" s="16"/>
-      <c r="BO26" s="16"/>
-      <c r="BP26" s="16"/>
+      <c r="BL26" s="125"/>
+      <c r="BM26" s="125"/>
+      <c r="BN26" s="125"/>
+      <c r="BO26" s="125"/>
+      <c r="BP26" s="125"/>
       <c r="BQ26" s="16"/>
       <c r="BR26" s="14"/>
       <c r="BS26" s="14"/>
@@ -6047,7 +6077,7 @@
       <c r="DO26" s="14"/>
       <c r="DP26" s="14"/>
       <c r="DQ26" s="25"/>
-      <c r="DR26" s="76"/>
+      <c r="DR26" s="68"/>
       <c r="DS26" s="16"/>
       <c r="DT26" s="16"/>
       <c r="DU26" s="16"/>
@@ -6080,7 +6110,7 @@
       <c r="EV26" s="17"/>
     </row>
     <row r="27" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
+      <c r="A27" s="107"/>
       <c r="B27" s="24"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -6112,7 +6142,7 @@
       <c r="AD27" s="13"/>
       <c r="AE27" s="16"/>
       <c r="AF27" s="16"/>
-      <c r="AG27" s="76"/>
+      <c r="AG27" s="68"/>
       <c r="AH27" s="16"/>
       <c r="AI27" s="14"/>
       <c r="AJ27" s="14"/>
@@ -6143,11 +6173,11 @@
       <c r="BI27" s="14"/>
       <c r="BJ27" s="16"/>
       <c r="BK27" s="14"/>
-      <c r="BL27" s="14"/>
-      <c r="BM27" s="13"/>
-      <c r="BN27" s="16"/>
-      <c r="BO27" s="16"/>
-      <c r="BP27" s="16"/>
+      <c r="BL27" s="125"/>
+      <c r="BM27" s="125"/>
+      <c r="BN27" s="125"/>
+      <c r="BO27" s="125"/>
+      <c r="BP27" s="125"/>
       <c r="BQ27" s="16"/>
       <c r="BR27" s="14"/>
       <c r="BS27" s="14"/>
@@ -6201,7 +6231,7 @@
       <c r="DO27" s="14"/>
       <c r="DP27" s="14"/>
       <c r="DQ27" s="25"/>
-      <c r="DR27" s="76"/>
+      <c r="DR27" s="68"/>
       <c r="DS27" s="16"/>
       <c r="DT27" s="16"/>
       <c r="DU27" s="16"/>
@@ -6234,7 +6264,7 @@
       <c r="EV27" s="17"/>
     </row>
     <row r="28" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="24"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -6266,7 +6296,7 @@
       <c r="AD28" s="13"/>
       <c r="AE28" s="16"/>
       <c r="AF28" s="16"/>
-      <c r="AG28" s="76"/>
+      <c r="AG28" s="68"/>
       <c r="AH28" s="16"/>
       <c r="AI28" s="14"/>
       <c r="AJ28" s="14"/>
@@ -6297,11 +6327,11 @@
       <c r="BI28" s="14"/>
       <c r="BJ28" s="16"/>
       <c r="BK28" s="14"/>
-      <c r="BL28" s="14"/>
-      <c r="BM28" s="13"/>
-      <c r="BN28" s="16"/>
-      <c r="BO28" s="16"/>
-      <c r="BP28" s="16"/>
+      <c r="BL28" s="125"/>
+      <c r="BM28" s="125"/>
+      <c r="BN28" s="125"/>
+      <c r="BO28" s="125"/>
+      <c r="BP28" s="125"/>
       <c r="BQ28" s="16"/>
       <c r="BR28" s="14"/>
       <c r="BS28" s="14"/>
@@ -6355,7 +6385,7 @@
       <c r="DO28" s="14"/>
       <c r="DP28" s="14"/>
       <c r="DQ28" s="17"/>
-      <c r="DR28" s="76"/>
+      <c r="DR28" s="68"/>
       <c r="DS28" s="16"/>
       <c r="DT28" s="16"/>
       <c r="DU28" s="16"/>
@@ -6388,327 +6418,327 @@
       <c r="EV28" s="17"/>
     </row>
     <row r="29" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="80"/>
-      <c r="R29" s="80"/>
-      <c r="S29" s="80"/>
-      <c r="T29" s="80"/>
-      <c r="U29" s="81"/>
-      <c r="V29" s="81"/>
-      <c r="W29" s="82"/>
-      <c r="X29" s="80"/>
-      <c r="Y29" s="80"/>
-      <c r="Z29" s="80"/>
-      <c r="AA29" s="80"/>
-      <c r="AB29" s="81"/>
-      <c r="AC29" s="81"/>
-      <c r="AD29" s="82"/>
-      <c r="AE29" s="80"/>
-      <c r="AF29" s="80"/>
-      <c r="AG29" s="79"/>
-      <c r="AH29" s="80"/>
-      <c r="AI29" s="81"/>
-      <c r="AJ29" s="81"/>
-      <c r="AK29" s="82"/>
-      <c r="AL29" s="80"/>
-      <c r="AM29" s="80"/>
-      <c r="AN29" s="80"/>
-      <c r="AO29" s="80"/>
-      <c r="AP29" s="81"/>
-      <c r="AQ29" s="81"/>
-      <c r="AR29" s="82"/>
-      <c r="AS29" s="80"/>
-      <c r="AT29" s="80"/>
-      <c r="AU29" s="81"/>
-      <c r="AV29" s="81"/>
-      <c r="AW29" s="81"/>
-      <c r="AX29" s="81"/>
-      <c r="AY29" s="82"/>
-      <c r="AZ29" s="80"/>
-      <c r="BA29" s="80"/>
-      <c r="BB29" s="80"/>
-      <c r="BC29" s="80"/>
-      <c r="BD29" s="81"/>
-      <c r="BE29" s="81"/>
-      <c r="BF29" s="82"/>
-      <c r="BG29" s="80"/>
-      <c r="BH29" s="83"/>
-      <c r="BI29" s="81"/>
-      <c r="BJ29" s="80"/>
-      <c r="BK29" s="81"/>
-      <c r="BL29" s="81"/>
-      <c r="BM29" s="82"/>
-      <c r="BN29" s="80"/>
-      <c r="BO29" s="80"/>
-      <c r="BP29" s="80"/>
-      <c r="BQ29" s="80"/>
-      <c r="BR29" s="81"/>
-      <c r="BS29" s="81"/>
-      <c r="BT29" s="82"/>
-      <c r="BU29" s="80"/>
-      <c r="BV29" s="80"/>
-      <c r="BW29" s="80"/>
-      <c r="BX29" s="80"/>
-      <c r="BY29" s="81"/>
-      <c r="BZ29" s="81"/>
-      <c r="CA29" s="82"/>
-      <c r="CB29" s="80"/>
-      <c r="CC29" s="80"/>
-      <c r="CD29" s="80"/>
-      <c r="CE29" s="80"/>
-      <c r="CF29" s="81"/>
-      <c r="CG29" s="81"/>
-      <c r="CH29" s="82"/>
-      <c r="CI29" s="80"/>
-      <c r="CJ29" s="80"/>
-      <c r="CK29" s="80"/>
-      <c r="CL29" s="80"/>
-      <c r="CM29" s="81"/>
-      <c r="CN29" s="95"/>
-      <c r="CO29" s="82"/>
-      <c r="CP29" s="80"/>
-      <c r="CQ29" s="80"/>
-      <c r="CR29" s="80"/>
-      <c r="CS29" s="80"/>
-      <c r="CT29" s="81"/>
-      <c r="CU29" s="81"/>
-      <c r="CV29" s="82"/>
-      <c r="CW29" s="80"/>
-      <c r="CX29" s="80"/>
-      <c r="CY29" s="80"/>
-      <c r="CZ29" s="80"/>
-      <c r="DA29" s="81"/>
-      <c r="DB29" s="81"/>
-      <c r="DC29" s="82"/>
-      <c r="DD29" s="80"/>
-      <c r="DE29" s="80"/>
-      <c r="DF29" s="80"/>
-      <c r="DG29" s="80"/>
-      <c r="DH29" s="81"/>
-      <c r="DI29" s="81"/>
-      <c r="DJ29" s="82"/>
-      <c r="DK29" s="80"/>
-      <c r="DL29" s="80"/>
-      <c r="DM29" s="80"/>
-      <c r="DN29" s="80"/>
-      <c r="DO29" s="81"/>
-      <c r="DP29" s="81"/>
-      <c r="DQ29" s="105"/>
-      <c r="DR29" s="79"/>
-      <c r="DS29" s="80"/>
-      <c r="DT29" s="80"/>
-      <c r="DU29" s="80"/>
-      <c r="DV29" s="81"/>
-      <c r="DW29" s="81"/>
-      <c r="DX29" s="81"/>
-      <c r="DY29" s="80"/>
-      <c r="DZ29" s="80"/>
-      <c r="EA29" s="80"/>
-      <c r="EB29" s="80"/>
-      <c r="EC29" s="81"/>
-      <c r="ED29" s="81"/>
-      <c r="EE29" s="82"/>
-      <c r="EF29" s="80"/>
-      <c r="EG29" s="80"/>
-      <c r="EH29" s="80"/>
-      <c r="EI29" s="80"/>
-      <c r="EJ29" s="81"/>
-      <c r="EK29" s="81"/>
-      <c r="EL29" s="82"/>
-      <c r="EM29" s="81"/>
-      <c r="EN29" s="80"/>
-      <c r="EO29" s="80"/>
-      <c r="EP29" s="80"/>
-      <c r="EQ29" s="81"/>
-      <c r="ER29" s="81"/>
-      <c r="ES29" s="82"/>
-      <c r="ET29" s="82"/>
-      <c r="EU29" s="82"/>
-      <c r="EV29" s="110"/>
+      <c r="A29" s="107"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="73"/>
+      <c r="W29" s="74"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="73"/>
+      <c r="AC29" s="73"/>
+      <c r="AD29" s="74"/>
+      <c r="AE29" s="72"/>
+      <c r="AF29" s="72"/>
+      <c r="AG29" s="71"/>
+      <c r="AH29" s="72"/>
+      <c r="AI29" s="73"/>
+      <c r="AJ29" s="73"/>
+      <c r="AK29" s="74"/>
+      <c r="AL29" s="72"/>
+      <c r="AM29" s="72"/>
+      <c r="AN29" s="72"/>
+      <c r="AO29" s="72"/>
+      <c r="AP29" s="73"/>
+      <c r="AQ29" s="73"/>
+      <c r="AR29" s="74"/>
+      <c r="AS29" s="72"/>
+      <c r="AT29" s="72"/>
+      <c r="AU29" s="73"/>
+      <c r="AV29" s="73"/>
+      <c r="AW29" s="73"/>
+      <c r="AX29" s="73"/>
+      <c r="AY29" s="74"/>
+      <c r="AZ29" s="72"/>
+      <c r="BA29" s="72"/>
+      <c r="BB29" s="72"/>
+      <c r="BC29" s="72"/>
+      <c r="BD29" s="73"/>
+      <c r="BE29" s="73"/>
+      <c r="BF29" s="74"/>
+      <c r="BG29" s="72"/>
+      <c r="BH29" s="75"/>
+      <c r="BI29" s="73"/>
+      <c r="BJ29" s="72"/>
+      <c r="BK29" s="73"/>
+      <c r="BL29" s="131"/>
+      <c r="BM29" s="131"/>
+      <c r="BN29" s="131"/>
+      <c r="BO29" s="131"/>
+      <c r="BP29" s="131"/>
+      <c r="BQ29" s="72"/>
+      <c r="BR29" s="73"/>
+      <c r="BS29" s="73"/>
+      <c r="BT29" s="74"/>
+      <c r="BU29" s="72"/>
+      <c r="BV29" s="72"/>
+      <c r="BW29" s="72"/>
+      <c r="BX29" s="72"/>
+      <c r="BY29" s="73"/>
+      <c r="BZ29" s="73"/>
+      <c r="CA29" s="74"/>
+      <c r="CB29" s="72"/>
+      <c r="CC29" s="72"/>
+      <c r="CD29" s="72"/>
+      <c r="CE29" s="72"/>
+      <c r="CF29" s="73"/>
+      <c r="CG29" s="73"/>
+      <c r="CH29" s="74"/>
+      <c r="CI29" s="72"/>
+      <c r="CJ29" s="72"/>
+      <c r="CK29" s="72"/>
+      <c r="CL29" s="72"/>
+      <c r="CM29" s="73"/>
+      <c r="CN29" s="86"/>
+      <c r="CO29" s="74"/>
+      <c r="CP29" s="72"/>
+      <c r="CQ29" s="72"/>
+      <c r="CR29" s="72"/>
+      <c r="CS29" s="72"/>
+      <c r="CT29" s="73"/>
+      <c r="CU29" s="73"/>
+      <c r="CV29" s="74"/>
+      <c r="CW29" s="72"/>
+      <c r="CX29" s="72"/>
+      <c r="CY29" s="72"/>
+      <c r="CZ29" s="72"/>
+      <c r="DA29" s="73"/>
+      <c r="DB29" s="73"/>
+      <c r="DC29" s="74"/>
+      <c r="DD29" s="72"/>
+      <c r="DE29" s="72"/>
+      <c r="DF29" s="72"/>
+      <c r="DG29" s="72"/>
+      <c r="DH29" s="73"/>
+      <c r="DI29" s="73"/>
+      <c r="DJ29" s="74"/>
+      <c r="DK29" s="72"/>
+      <c r="DL29" s="72"/>
+      <c r="DM29" s="72"/>
+      <c r="DN29" s="72"/>
+      <c r="DO29" s="73"/>
+      <c r="DP29" s="73"/>
+      <c r="DQ29" s="96"/>
+      <c r="DR29" s="71"/>
+      <c r="DS29" s="72"/>
+      <c r="DT29" s="72"/>
+      <c r="DU29" s="72"/>
+      <c r="DV29" s="73"/>
+      <c r="DW29" s="73"/>
+      <c r="DX29" s="73"/>
+      <c r="DY29" s="72"/>
+      <c r="DZ29" s="72"/>
+      <c r="EA29" s="72"/>
+      <c r="EB29" s="72"/>
+      <c r="EC29" s="73"/>
+      <c r="ED29" s="73"/>
+      <c r="EE29" s="74"/>
+      <c r="EF29" s="72"/>
+      <c r="EG29" s="72"/>
+      <c r="EH29" s="72"/>
+      <c r="EI29" s="72"/>
+      <c r="EJ29" s="73"/>
+      <c r="EK29" s="73"/>
+      <c r="EL29" s="74"/>
+      <c r="EM29" s="73"/>
+      <c r="EN29" s="72"/>
+      <c r="EO29" s="72"/>
+      <c r="EP29" s="72"/>
+      <c r="EQ29" s="73"/>
+      <c r="ER29" s="73"/>
+      <c r="ES29" s="74"/>
+      <c r="ET29" s="74"/>
+      <c r="EU29" s="74"/>
+      <c r="EV29" s="99"/>
     </row>
     <row r="30" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="85"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="87"/>
-      <c r="P30" s="89" t="s">
+      <c r="B30" s="76"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="Q30" s="90"/>
-      <c r="R30" s="90"/>
-      <c r="S30" s="90"/>
-      <c r="T30" s="90"/>
-      <c r="U30" s="90"/>
-      <c r="V30" s="90"/>
-      <c r="W30" s="89"/>
-      <c r="X30" s="90"/>
-      <c r="Y30" s="90"/>
-      <c r="Z30" s="90"/>
-      <c r="AA30" s="91"/>
-      <c r="AB30" s="87"/>
-      <c r="AC30" s="87"/>
-      <c r="AD30" s="88"/>
-      <c r="AE30" s="86"/>
-      <c r="AF30" s="86"/>
-      <c r="AG30" s="92"/>
-      <c r="AH30" s="93"/>
-      <c r="AI30" s="87"/>
-      <c r="AJ30" s="87"/>
-      <c r="AK30" s="88"/>
-      <c r="AL30" s="86"/>
-      <c r="AM30" s="89" t="s">
+      <c r="Q30" s="81"/>
+      <c r="R30" s="81"/>
+      <c r="S30" s="81"/>
+      <c r="T30" s="81"/>
+      <c r="U30" s="81"/>
+      <c r="V30" s="81"/>
+      <c r="W30" s="80"/>
+      <c r="X30" s="81"/>
+      <c r="Y30" s="81"/>
+      <c r="Z30" s="81"/>
+      <c r="AA30" s="82"/>
+      <c r="AB30" s="78"/>
+      <c r="AC30" s="78"/>
+      <c r="AD30" s="79"/>
+      <c r="AE30" s="77"/>
+      <c r="AF30" s="77"/>
+      <c r="AG30" s="83"/>
+      <c r="AH30" s="84"/>
+      <c r="AI30" s="78"/>
+      <c r="AJ30" s="78"/>
+      <c r="AK30" s="79"/>
+      <c r="AL30" s="77"/>
+      <c r="AM30" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="AN30" s="86"/>
-      <c r="AO30" s="93"/>
-      <c r="AP30" s="87"/>
-      <c r="AQ30" s="87"/>
-      <c r="AR30" s="88"/>
-      <c r="AS30" s="86"/>
+      <c r="AN30" s="77"/>
+      <c r="AO30" s="84"/>
+      <c r="AP30" s="78"/>
+      <c r="AQ30" s="78"/>
+      <c r="AR30" s="79"/>
+      <c r="AS30" s="77"/>
       <c r="AT30" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AU30" s="87"/>
-      <c r="AV30" s="87"/>
-      <c r="AW30" s="87"/>
-      <c r="AX30" s="87"/>
-      <c r="AY30" s="88"/>
-      <c r="AZ30" s="86"/>
-      <c r="BA30" s="86"/>
-      <c r="BB30" s="86"/>
-      <c r="BC30" s="86"/>
-      <c r="BD30" s="87"/>
-      <c r="BE30" s="87"/>
-      <c r="BF30" s="88"/>
-      <c r="BG30" s="86"/>
-      <c r="BH30" s="94"/>
-      <c r="BI30" s="87"/>
-      <c r="BJ30" s="86"/>
-      <c r="BK30" s="87"/>
-      <c r="BL30" s="87"/>
-      <c r="BM30" s="55" t="s">
+      <c r="AU30" s="78"/>
+      <c r="AV30" s="78"/>
+      <c r="AW30" s="78"/>
+      <c r="AX30" s="78"/>
+      <c r="AY30" s="79"/>
+      <c r="AZ30" s="77"/>
+      <c r="BA30" s="77"/>
+      <c r="BB30" s="77"/>
+      <c r="BC30" s="77"/>
+      <c r="BD30" s="78"/>
+      <c r="BE30" s="78"/>
+      <c r="BF30" s="79"/>
+      <c r="BG30" s="77"/>
+      <c r="BH30" s="85"/>
+      <c r="BI30" s="78"/>
+      <c r="BJ30" s="77"/>
+      <c r="BK30" s="78"/>
+      <c r="BL30" s="128"/>
+      <c r="BM30" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="BN30" s="86"/>
-      <c r="BO30" s="86"/>
-      <c r="BP30" s="86"/>
-      <c r="BQ30" s="86"/>
-      <c r="BR30" s="87"/>
-      <c r="BS30" s="87"/>
-      <c r="BT30" s="88"/>
-      <c r="BU30" s="86"/>
-      <c r="BV30" s="86"/>
-      <c r="BW30" s="86"/>
-      <c r="BX30" s="86"/>
-      <c r="BY30" s="87"/>
-      <c r="BZ30" s="87"/>
-      <c r="CA30" s="88"/>
-      <c r="CB30" s="86"/>
-      <c r="CC30" s="86"/>
-      <c r="CD30" s="86"/>
-      <c r="CE30" s="86"/>
-      <c r="CF30" s="87"/>
-      <c r="CG30" s="87"/>
-      <c r="CH30" s="88"/>
-      <c r="CI30" s="86"/>
-      <c r="CJ30" s="86"/>
-      <c r="CK30" s="86"/>
-      <c r="CL30" s="86"/>
-      <c r="CM30" s="47" t="s">
+      <c r="BN30" s="128"/>
+      <c r="BO30" s="128"/>
+      <c r="BP30" s="128"/>
+      <c r="BQ30" s="77"/>
+      <c r="BR30" s="78"/>
+      <c r="BS30" s="78"/>
+      <c r="BT30" s="79"/>
+      <c r="BU30" s="77"/>
+      <c r="BV30" s="77"/>
+      <c r="BW30" s="77"/>
+      <c r="BX30" s="77"/>
+      <c r="BY30" s="78"/>
+      <c r="BZ30" s="78"/>
+      <c r="CA30" s="79"/>
+      <c r="CB30" s="77"/>
+      <c r="CC30" s="77"/>
+      <c r="CD30" s="77"/>
+      <c r="CE30" s="77"/>
+      <c r="CF30" s="78"/>
+      <c r="CG30" s="78"/>
+      <c r="CH30" s="79"/>
+      <c r="CI30" s="77"/>
+      <c r="CJ30" s="77"/>
+      <c r="CK30" s="77"/>
+      <c r="CL30" s="77"/>
+      <c r="CM30" s="78"/>
+      <c r="CN30" s="76"/>
+      <c r="CO30" s="77"/>
+      <c r="CP30" s="77"/>
+      <c r="CQ30" s="77"/>
+      <c r="CR30" s="77"/>
+      <c r="CS30" s="77"/>
+      <c r="CT30" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="CN30" s="114"/>
-      <c r="CO30" s="98"/>
-      <c r="CP30" s="98"/>
-      <c r="CQ30" s="98"/>
-      <c r="CR30" s="98"/>
-      <c r="CS30" s="98"/>
-      <c r="CT30" s="98"/>
-      <c r="CU30" s="98"/>
-      <c r="CV30" s="88"/>
-      <c r="CW30" s="86"/>
-      <c r="CX30" s="86"/>
-      <c r="CY30" s="86"/>
-      <c r="CZ30" s="86"/>
-      <c r="DA30" s="87"/>
-      <c r="DB30" s="87"/>
-      <c r="DC30" s="88"/>
-      <c r="DD30" s="86"/>
-      <c r="DE30" s="86"/>
-      <c r="DF30" s="86"/>
-      <c r="DG30" s="86"/>
-      <c r="DH30" s="87"/>
-      <c r="DI30" s="87"/>
-      <c r="DJ30" s="88"/>
-      <c r="DK30" s="86"/>
-      <c r="DL30" s="86"/>
-      <c r="DM30" s="86"/>
-      <c r="DN30" s="86"/>
-      <c r="DO30" s="87"/>
-      <c r="DP30" s="87"/>
-      <c r="DQ30" s="94"/>
-      <c r="DR30" s="92"/>
-      <c r="DS30" s="86"/>
-      <c r="DT30" s="86"/>
-      <c r="DU30" s="86"/>
-      <c r="DV30" s="87"/>
-      <c r="DW30" s="87"/>
-      <c r="DX30" s="87"/>
-      <c r="DY30" s="86"/>
-      <c r="DZ30" s="86"/>
-      <c r="EA30" s="86"/>
-      <c r="EB30" s="86"/>
-      <c r="EC30" s="87"/>
-      <c r="ED30" s="87"/>
-      <c r="EE30" s="88"/>
-      <c r="EF30" s="86"/>
-      <c r="EG30" s="86"/>
-      <c r="EH30" s="86"/>
-      <c r="EI30" s="86"/>
-      <c r="EJ30" s="87"/>
-      <c r="EK30" s="87"/>
-      <c r="EL30" s="88"/>
-      <c r="EM30" s="87"/>
-      <c r="EN30" s="86"/>
-      <c r="EO30" s="86"/>
-      <c r="EP30" s="86"/>
-      <c r="EQ30" s="87"/>
-      <c r="ER30" s="87"/>
-      <c r="ES30" s="88"/>
-      <c r="ET30" s="88"/>
-      <c r="EU30" s="88"/>
-      <c r="EV30" s="115"/>
+      <c r="CU30" s="89"/>
+      <c r="CV30" s="89"/>
+      <c r="CW30" s="89"/>
+      <c r="CX30" s="89"/>
+      <c r="CY30" s="89"/>
+      <c r="CZ30" s="89"/>
+      <c r="DA30" s="78"/>
+      <c r="DB30" s="78"/>
+      <c r="DC30" s="79"/>
+      <c r="DD30" s="77"/>
+      <c r="DE30" s="77"/>
+      <c r="DF30" s="77"/>
+      <c r="DG30" s="77"/>
+      <c r="DH30" s="78"/>
+      <c r="DI30" s="78"/>
+      <c r="DJ30" s="79"/>
+      <c r="DK30" s="77"/>
+      <c r="DL30" s="77"/>
+      <c r="DM30" s="77"/>
+      <c r="DN30" s="77"/>
+      <c r="DO30" s="78"/>
+      <c r="DP30" s="78"/>
+      <c r="DQ30" s="85"/>
+      <c r="DR30" s="83"/>
+      <c r="DS30" s="77"/>
+      <c r="DT30" s="77"/>
+      <c r="DU30" s="77"/>
+      <c r="DV30" s="78"/>
+      <c r="DW30" s="78"/>
+      <c r="DX30" s="78"/>
+      <c r="DY30" s="77"/>
+      <c r="DZ30" s="77"/>
+      <c r="EA30" s="77"/>
+      <c r="EB30" s="77"/>
+      <c r="EC30" s="78"/>
+      <c r="ED30" s="78"/>
+      <c r="EE30" s="79"/>
+      <c r="EF30" s="77"/>
+      <c r="EG30" s="77"/>
+      <c r="EH30" s="77"/>
+      <c r="EI30" s="77"/>
+      <c r="EJ30" s="78"/>
+      <c r="EK30" s="78"/>
+      <c r="EL30" s="79"/>
+      <c r="EM30" s="78"/>
+      <c r="EN30" s="77"/>
+      <c r="EO30" s="77"/>
+      <c r="EP30" s="77"/>
+      <c r="EQ30" s="78"/>
+      <c r="ER30" s="78"/>
+      <c r="ES30" s="79"/>
+      <c r="ET30" s="79"/>
+      <c r="EU30" s="79"/>
+      <c r="EV30" s="103"/>
     </row>
     <row r="31" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
+      <c r="A31" s="107"/>
       <c r="B31" s="24"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -6730,19 +6760,19 @@
       <c r="T31" s="16"/>
       <c r="U31" s="14"/>
       <c r="V31" s="14"/>
-      <c r="W31" s="65" t="s">
+      <c r="W31" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="X31" s="65"/>
-      <c r="Y31" s="65"/>
-      <c r="Z31" s="65"/>
+      <c r="X31" s="57"/>
+      <c r="Y31" s="57"/>
+      <c r="Z31" s="57"/>
       <c r="AA31" s="13"/>
       <c r="AB31" s="14"/>
       <c r="AC31" s="14"/>
       <c r="AD31" s="13"/>
       <c r="AE31" s="16"/>
       <c r="AF31" s="16"/>
-      <c r="AG31" s="76"/>
+      <c r="AG31" s="68"/>
       <c r="AH31" s="23"/>
       <c r="AI31" s="14"/>
       <c r="AJ31" s="14"/>
@@ -6773,23 +6803,23 @@
       <c r="BI31" s="14"/>
       <c r="BJ31" s="16"/>
       <c r="BK31" s="14"/>
-      <c r="BL31" s="14"/>
-      <c r="BM31" s="13"/>
-      <c r="BN31" s="16"/>
-      <c r="BO31" s="16"/>
-      <c r="BP31" s="16"/>
-      <c r="BQ31" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="BR31" s="68"/>
-      <c r="BS31" s="68"/>
+      <c r="BL31" s="125"/>
+      <c r="BM31" s="125"/>
+      <c r="BN31" s="125"/>
+      <c r="BO31" s="125"/>
+      <c r="BP31" s="125"/>
+      <c r="BQ31" s="16"/>
+      <c r="BR31" s="14"/>
+      <c r="BS31" s="14"/>
       <c r="BT31" s="13"/>
       <c r="BU31" s="16"/>
       <c r="BV31" s="16"/>
       <c r="BW31" s="16"/>
-      <c r="BX31" s="16"/>
-      <c r="BY31" s="14"/>
-      <c r="BZ31" s="14"/>
+      <c r="BX31" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="BY31" s="60"/>
+      <c r="BZ31" s="60"/>
       <c r="CA31" s="13"/>
       <c r="CB31" s="16"/>
       <c r="CC31" s="16"/>
@@ -6833,7 +6863,7 @@
       <c r="DO31" s="14"/>
       <c r="DP31" s="14"/>
       <c r="DQ31" s="25"/>
-      <c r="DR31" s="76"/>
+      <c r="DR31" s="68"/>
       <c r="DS31" s="16"/>
       <c r="DT31" s="16"/>
       <c r="DU31" s="16"/>
@@ -6866,7 +6896,7 @@
       <c r="EV31" s="17"/>
     </row>
     <row r="32" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
+      <c r="A32" s="107"/>
       <c r="B32" s="24"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -6898,7 +6928,7 @@
       <c r="AD32" s="13"/>
       <c r="AE32" s="16"/>
       <c r="AF32" s="16"/>
-      <c r="AG32" s="76"/>
+      <c r="AG32" s="68"/>
       <c r="AH32" s="16"/>
       <c r="AI32" s="14"/>
       <c r="AJ32" s="14"/>
@@ -6929,24 +6959,24 @@
       <c r="BI32" s="14"/>
       <c r="BJ32" s="16"/>
       <c r="BK32" s="14"/>
-      <c r="BL32" s="14"/>
-      <c r="BM32" s="13"/>
-      <c r="BN32" s="16"/>
-      <c r="BO32" s="16"/>
-      <c r="BP32" s="16"/>
+      <c r="BL32" s="125"/>
+      <c r="BM32" s="125"/>
+      <c r="BN32" s="125"/>
+      <c r="BO32" s="125"/>
+      <c r="BP32" s="125"/>
       <c r="BQ32" s="16"/>
       <c r="BR32" s="14"/>
       <c r="BS32" s="14"/>
-      <c r="BT32" s="16" t="s">
-        <v>10</v>
-      </c>
+      <c r="BT32" s="16"/>
       <c r="BU32" s="16"/>
       <c r="BV32" s="16"/>
       <c r="BW32" s="16"/>
       <c r="BX32" s="16"/>
       <c r="BY32" s="14"/>
       <c r="BZ32" s="14"/>
-      <c r="CA32" s="13"/>
+      <c r="CA32" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="CB32" s="16"/>
       <c r="CC32" s="16"/>
       <c r="CD32" s="16"/>
@@ -6958,17 +6988,17 @@
       <c r="CJ32" s="16"/>
       <c r="CK32" s="16"/>
       <c r="CL32" s="16"/>
-      <c r="CM32" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="CN32" s="113"/>
+      <c r="CM32" s="14"/>
+      <c r="CN32" s="24"/>
       <c r="CO32" s="13"/>
       <c r="CP32" s="16"/>
       <c r="CQ32" s="16"/>
       <c r="CR32" s="16"/>
       <c r="CS32" s="16"/>
-      <c r="CT32" s="14"/>
-      <c r="CU32" s="14"/>
+      <c r="CT32" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="CU32" s="102"/>
       <c r="CV32" s="13"/>
       <c r="CW32" s="16"/>
       <c r="CX32" s="16"/>
@@ -6991,7 +7021,7 @@
       <c r="DO32" s="14"/>
       <c r="DP32" s="14"/>
       <c r="DQ32" s="25"/>
-      <c r="DR32" s="76"/>
+      <c r="DR32" s="68"/>
       <c r="DS32" s="16"/>
       <c r="DT32" s="16"/>
       <c r="DU32" s="16"/>
@@ -7024,7 +7054,7 @@
       <c r="EV32" s="17"/>
     </row>
     <row r="33" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
+      <c r="A33" s="107"/>
       <c r="B33" s="24"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -7056,7 +7086,7 @@
       <c r="AD33" s="13"/>
       <c r="AE33" s="16"/>
       <c r="AF33" s="16"/>
-      <c r="AG33" s="76"/>
+      <c r="AG33" s="68"/>
       <c r="AH33" s="16"/>
       <c r="AI33" s="14"/>
       <c r="AJ33" s="14"/>
@@ -7087,24 +7117,24 @@
       <c r="BI33" s="14"/>
       <c r="BJ33" s="16"/>
       <c r="BK33" s="14"/>
-      <c r="BL33" s="14"/>
-      <c r="BM33" s="13"/>
-      <c r="BN33" s="16"/>
-      <c r="BO33" s="16"/>
-      <c r="BP33" s="16"/>
+      <c r="BL33" s="125"/>
+      <c r="BM33" s="125"/>
+      <c r="BN33" s="125"/>
+      <c r="BO33" s="125"/>
+      <c r="BP33" s="125"/>
       <c r="BQ33" s="16"/>
       <c r="BR33" s="14"/>
       <c r="BS33" s="14"/>
-      <c r="BT33" s="23" t="s">
-        <v>35</v>
-      </c>
+      <c r="BT33" s="23"/>
       <c r="BU33" s="16"/>
       <c r="BV33" s="16"/>
       <c r="BW33" s="16"/>
       <c r="BX33" s="16"/>
       <c r="BY33" s="14"/>
       <c r="BZ33" s="14"/>
-      <c r="CA33" s="13"/>
+      <c r="CA33" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="CB33" s="16"/>
       <c r="CC33" s="16"/>
       <c r="CD33" s="16"/>
@@ -7147,7 +7177,7 @@
       <c r="DO33" s="14"/>
       <c r="DP33" s="14"/>
       <c r="DQ33" s="17"/>
-      <c r="DR33" s="76"/>
+      <c r="DR33" s="68"/>
       <c r="DS33" s="16"/>
       <c r="DT33" s="16"/>
       <c r="DU33" s="16"/>
@@ -7180,319 +7210,321 @@
       <c r="EV33" s="17"/>
     </row>
     <row r="34" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="41"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="81"/>
-      <c r="P34" s="82"/>
-      <c r="Q34" s="80"/>
-      <c r="R34" s="80"/>
-      <c r="S34" s="80"/>
-      <c r="T34" s="80"/>
-      <c r="U34" s="81"/>
-      <c r="V34" s="81"/>
-      <c r="W34" s="82"/>
-      <c r="X34" s="80"/>
-      <c r="Y34" s="80"/>
-      <c r="Z34" s="80"/>
-      <c r="AA34" s="80"/>
-      <c r="AB34" s="81"/>
-      <c r="AC34" s="81"/>
-      <c r="AD34" s="82"/>
-      <c r="AE34" s="80"/>
-      <c r="AF34" s="80"/>
-      <c r="AG34" s="79"/>
-      <c r="AH34" s="80"/>
-      <c r="AI34" s="81"/>
-      <c r="AJ34" s="81"/>
-      <c r="AK34" s="82"/>
-      <c r="AL34" s="80"/>
-      <c r="AM34" s="80"/>
-      <c r="AN34" s="80"/>
-      <c r="AO34" s="80"/>
-      <c r="AP34" s="81"/>
-      <c r="AQ34" s="81"/>
-      <c r="AR34" s="82"/>
-      <c r="AS34" s="80"/>
-      <c r="AT34" s="80"/>
-      <c r="AU34" s="81"/>
-      <c r="AV34" s="81"/>
-      <c r="AW34" s="81"/>
-      <c r="AX34" s="81"/>
-      <c r="AY34" s="82"/>
-      <c r="AZ34" s="80"/>
-      <c r="BA34" s="80"/>
-      <c r="BB34" s="80"/>
-      <c r="BC34" s="80"/>
-      <c r="BD34" s="81"/>
-      <c r="BE34" s="81"/>
-      <c r="BF34" s="82"/>
-      <c r="BG34" s="80"/>
-      <c r="BH34" s="83"/>
-      <c r="BI34" s="81"/>
-      <c r="BJ34" s="80"/>
-      <c r="BK34" s="81"/>
-      <c r="BL34" s="81"/>
-      <c r="BM34" s="82"/>
-      <c r="BN34" s="80"/>
-      <c r="BO34" s="80"/>
-      <c r="BP34" s="80"/>
-      <c r="BQ34" s="80"/>
-      <c r="BR34" s="81"/>
-      <c r="BS34" s="81"/>
-      <c r="BT34" s="82"/>
-      <c r="BU34" s="80"/>
-      <c r="BV34" s="80"/>
-      <c r="BW34" s="80"/>
-      <c r="BX34" s="80"/>
-      <c r="BY34" s="81"/>
-      <c r="BZ34" s="81"/>
-      <c r="CA34" s="16" t="s">
+      <c r="A34" s="108"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="73"/>
+      <c r="V34" s="73"/>
+      <c r="W34" s="74"/>
+      <c r="X34" s="72"/>
+      <c r="Y34" s="72"/>
+      <c r="Z34" s="72"/>
+      <c r="AA34" s="72"/>
+      <c r="AB34" s="73"/>
+      <c r="AC34" s="73"/>
+      <c r="AD34" s="74"/>
+      <c r="AE34" s="72"/>
+      <c r="AF34" s="72"/>
+      <c r="AG34" s="71"/>
+      <c r="AH34" s="72"/>
+      <c r="AI34" s="73"/>
+      <c r="AJ34" s="73"/>
+      <c r="AK34" s="74"/>
+      <c r="AL34" s="72"/>
+      <c r="AM34" s="72"/>
+      <c r="AN34" s="72"/>
+      <c r="AO34" s="72"/>
+      <c r="AP34" s="73"/>
+      <c r="AQ34" s="73"/>
+      <c r="AR34" s="74"/>
+      <c r="AS34" s="72"/>
+      <c r="AT34" s="72"/>
+      <c r="AU34" s="73"/>
+      <c r="AV34" s="73"/>
+      <c r="AW34" s="73"/>
+      <c r="AX34" s="73"/>
+      <c r="AY34" s="74"/>
+      <c r="AZ34" s="72"/>
+      <c r="BA34" s="72"/>
+      <c r="BB34" s="72"/>
+      <c r="BC34" s="72"/>
+      <c r="BD34" s="73"/>
+      <c r="BE34" s="73"/>
+      <c r="BF34" s="74"/>
+      <c r="BG34" s="72"/>
+      <c r="BH34" s="75"/>
+      <c r="BI34" s="73"/>
+      <c r="BJ34" s="72"/>
+      <c r="BK34" s="73"/>
+      <c r="BL34" s="131"/>
+      <c r="BM34" s="131"/>
+      <c r="BN34" s="131"/>
+      <c r="BO34" s="131"/>
+      <c r="BP34" s="131"/>
+      <c r="BQ34" s="72"/>
+      <c r="BR34" s="73"/>
+      <c r="BS34" s="73"/>
+      <c r="BT34" s="74"/>
+      <c r="BU34" s="72"/>
+      <c r="BV34" s="72"/>
+      <c r="BW34" s="72"/>
+      <c r="BX34" s="72"/>
+      <c r="BY34" s="73"/>
+      <c r="BZ34" s="73"/>
+      <c r="CA34" s="16"/>
+      <c r="CB34" s="72"/>
+      <c r="CC34" s="72"/>
+      <c r="CD34" s="72"/>
+      <c r="CE34" s="72"/>
+      <c r="CF34" s="73"/>
+      <c r="CG34" s="73"/>
+      <c r="CH34" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="CB34" s="80"/>
-      <c r="CC34" s="80"/>
-      <c r="CD34" s="80"/>
-      <c r="CE34" s="80"/>
-      <c r="CF34" s="81"/>
-      <c r="CG34" s="81"/>
-      <c r="CH34" s="82"/>
-      <c r="CI34" s="80"/>
-      <c r="CJ34" s="80"/>
-      <c r="CK34" s="80"/>
-      <c r="CL34" s="80"/>
-      <c r="CM34" s="81"/>
-      <c r="CN34" s="95"/>
-      <c r="CO34" s="82"/>
-      <c r="CP34" s="80"/>
-      <c r="CQ34" s="80"/>
-      <c r="CR34" s="80"/>
-      <c r="CS34" s="80"/>
-      <c r="CT34" s="81"/>
-      <c r="CU34" s="81"/>
-      <c r="CV34" s="82"/>
-      <c r="CW34" s="80"/>
-      <c r="CX34" s="80"/>
-      <c r="CY34" s="80"/>
-      <c r="CZ34" s="80"/>
-      <c r="DA34" s="81"/>
-      <c r="DB34" s="81"/>
-      <c r="DC34" s="82"/>
-      <c r="DD34" s="80"/>
-      <c r="DE34" s="80"/>
-      <c r="DF34" s="80"/>
-      <c r="DG34" s="80"/>
-      <c r="DH34" s="81"/>
-      <c r="DI34" s="81"/>
-      <c r="DJ34" s="82"/>
-      <c r="DK34" s="80"/>
-      <c r="DL34" s="80"/>
-      <c r="DM34" s="80"/>
-      <c r="DN34" s="80"/>
-      <c r="DO34" s="81"/>
-      <c r="DP34" s="81"/>
-      <c r="DQ34" s="105"/>
-      <c r="DR34" s="79"/>
-      <c r="DS34" s="80"/>
-      <c r="DT34" s="80"/>
-      <c r="DU34" s="80"/>
-      <c r="DV34" s="81"/>
-      <c r="DW34" s="81"/>
-      <c r="DX34" s="81"/>
-      <c r="DY34" s="80"/>
-      <c r="DZ34" s="80"/>
-      <c r="EA34" s="80"/>
-      <c r="EB34" s="80"/>
-      <c r="EC34" s="81"/>
-      <c r="ED34" s="81"/>
-      <c r="EE34" s="82"/>
-      <c r="EF34" s="80"/>
-      <c r="EG34" s="80"/>
-      <c r="EH34" s="80"/>
-      <c r="EI34" s="80"/>
-      <c r="EJ34" s="81"/>
-      <c r="EK34" s="81"/>
-      <c r="EL34" s="82"/>
-      <c r="EM34" s="81"/>
-      <c r="EN34" s="80"/>
-      <c r="EO34" s="80"/>
-      <c r="EP34" s="80"/>
-      <c r="EQ34" s="81"/>
-      <c r="ER34" s="81"/>
-      <c r="ES34" s="82"/>
-      <c r="ET34" s="82"/>
-      <c r="EU34" s="82"/>
-      <c r="EV34" s="110"/>
+      <c r="CI34" s="72"/>
+      <c r="CJ34" s="72"/>
+      <c r="CK34" s="72"/>
+      <c r="CL34" s="72"/>
+      <c r="CM34" s="73"/>
+      <c r="CN34" s="86"/>
+      <c r="CO34" s="74"/>
+      <c r="CP34" s="72"/>
+      <c r="CQ34" s="72"/>
+      <c r="CR34" s="72"/>
+      <c r="CS34" s="72"/>
+      <c r="CT34" s="73"/>
+      <c r="CU34" s="73"/>
+      <c r="CV34" s="74"/>
+      <c r="CW34" s="72"/>
+      <c r="CX34" s="72"/>
+      <c r="CY34" s="72"/>
+      <c r="CZ34" s="72"/>
+      <c r="DA34" s="73"/>
+      <c r="DB34" s="73"/>
+      <c r="DC34" s="74"/>
+      <c r="DD34" s="72"/>
+      <c r="DE34" s="72"/>
+      <c r="DF34" s="72"/>
+      <c r="DG34" s="72"/>
+      <c r="DH34" s="73"/>
+      <c r="DI34" s="73"/>
+      <c r="DJ34" s="74"/>
+      <c r="DK34" s="72"/>
+      <c r="DL34" s="72"/>
+      <c r="DM34" s="72"/>
+      <c r="DN34" s="72"/>
+      <c r="DO34" s="73"/>
+      <c r="DP34" s="73"/>
+      <c r="DQ34" s="96"/>
+      <c r="DR34" s="71"/>
+      <c r="DS34" s="72"/>
+      <c r="DT34" s="72"/>
+      <c r="DU34" s="72"/>
+      <c r="DV34" s="73"/>
+      <c r="DW34" s="73"/>
+      <c r="DX34" s="73"/>
+      <c r="DY34" s="72"/>
+      <c r="DZ34" s="72"/>
+      <c r="EA34" s="72"/>
+      <c r="EB34" s="72"/>
+      <c r="EC34" s="73"/>
+      <c r="ED34" s="73"/>
+      <c r="EE34" s="74"/>
+      <c r="EF34" s="72"/>
+      <c r="EG34" s="72"/>
+      <c r="EH34" s="72"/>
+      <c r="EI34" s="72"/>
+      <c r="EJ34" s="73"/>
+      <c r="EK34" s="73"/>
+      <c r="EL34" s="74"/>
+      <c r="EM34" s="73"/>
+      <c r="EN34" s="72"/>
+      <c r="EO34" s="72"/>
+      <c r="EP34" s="72"/>
+      <c r="EQ34" s="73"/>
+      <c r="ER34" s="73"/>
+      <c r="ES34" s="74"/>
+      <c r="ET34" s="74"/>
+      <c r="EU34" s="74"/>
+      <c r="EV34" s="99"/>
     </row>
     <row r="35" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="93"/>
-      <c r="Q35" s="86"/>
-      <c r="R35" s="86"/>
-      <c r="S35" s="86"/>
-      <c r="T35" s="86"/>
-      <c r="U35" s="87"/>
-      <c r="V35" s="87"/>
-      <c r="W35" s="93"/>
-      <c r="X35" s="86"/>
-      <c r="Y35" s="86"/>
-      <c r="Z35" s="86"/>
-      <c r="AA35" s="86"/>
-      <c r="AB35" s="87"/>
-      <c r="AC35" s="87"/>
-      <c r="AD35" s="88"/>
-      <c r="AE35" s="86"/>
-      <c r="AF35" s="86"/>
-      <c r="AG35" s="92"/>
-      <c r="AH35" s="93"/>
-      <c r="AI35" s="87"/>
-      <c r="AJ35" s="87"/>
-      <c r="AK35" s="88"/>
-      <c r="AL35" s="86"/>
-      <c r="AM35" s="86"/>
-      <c r="AN35" s="86"/>
-      <c r="AO35" s="93"/>
-      <c r="AP35" s="87"/>
-      <c r="AQ35" s="87"/>
-      <c r="AR35" s="93"/>
-      <c r="AS35" s="86"/>
-      <c r="AT35" s="86"/>
-      <c r="AU35" s="87"/>
-      <c r="AV35" s="87"/>
-      <c r="AW35" s="87"/>
-      <c r="AX35" s="87"/>
-      <c r="AY35" s="93"/>
-      <c r="AZ35" s="86"/>
-      <c r="BA35" s="93"/>
-      <c r="BB35" s="86"/>
-      <c r="BC35" s="93"/>
-      <c r="BD35" s="87"/>
-      <c r="BE35" s="87"/>
-      <c r="BF35" s="93"/>
-      <c r="BG35" s="86"/>
-      <c r="BH35" s="94"/>
-      <c r="BI35" s="87"/>
-      <c r="BJ35" s="86"/>
-      <c r="BK35" s="87"/>
-      <c r="BL35" s="87"/>
-      <c r="BM35" s="88"/>
-      <c r="BN35" s="86"/>
-      <c r="BO35" s="86"/>
-      <c r="BP35" s="86"/>
-      <c r="BQ35" s="86"/>
-      <c r="BR35" s="87"/>
-      <c r="BS35" s="87"/>
-      <c r="BT35" s="88"/>
-      <c r="BU35" s="86"/>
-      <c r="BV35" s="86"/>
-      <c r="BW35" s="86"/>
-      <c r="BX35" s="86"/>
-      <c r="BY35" s="87"/>
-      <c r="BZ35" s="87"/>
-      <c r="CA35" s="88"/>
-      <c r="CB35" s="86"/>
-      <c r="CC35" s="86"/>
-      <c r="CD35" s="86"/>
-      <c r="CE35" s="86"/>
-      <c r="CF35" s="87"/>
-      <c r="CG35" s="87"/>
-      <c r="CH35" s="88"/>
-      <c r="CI35" s="86"/>
-      <c r="CJ35" s="86"/>
-      <c r="CK35" s="86"/>
-      <c r="CL35" s="86"/>
-      <c r="CM35" s="87"/>
-      <c r="CN35" s="85"/>
-      <c r="CO35" s="88"/>
-      <c r="CP35" s="86"/>
-      <c r="CQ35" s="86"/>
-      <c r="CR35" s="86"/>
-      <c r="CS35" s="86"/>
-      <c r="CT35" s="87"/>
-      <c r="CU35" s="87"/>
-      <c r="CV35" s="88"/>
-      <c r="CW35" s="86"/>
-      <c r="CX35" s="86"/>
-      <c r="CY35" s="86"/>
-      <c r="CZ35" s="86"/>
-      <c r="DA35" s="87"/>
-      <c r="DB35" s="87"/>
-      <c r="DC35" s="88"/>
-      <c r="DD35" s="86"/>
-      <c r="DE35" s="86"/>
-      <c r="DF35" s="86"/>
-      <c r="DG35" s="86"/>
-      <c r="DH35" s="87"/>
-      <c r="DI35" s="87"/>
-      <c r="DJ35" s="88"/>
-      <c r="DK35" s="86"/>
-      <c r="DL35" s="86"/>
-      <c r="DM35" s="86"/>
-      <c r="DN35" s="86"/>
-      <c r="DO35" s="87"/>
-      <c r="DP35" s="87"/>
-      <c r="DQ35" s="94"/>
-      <c r="DR35" s="92"/>
-      <c r="DS35" s="86"/>
-      <c r="DT35" s="86"/>
-      <c r="DU35" s="86"/>
-      <c r="DV35" s="87"/>
-      <c r="DW35" s="87"/>
-      <c r="DX35" s="87"/>
-      <c r="DY35" s="86"/>
-      <c r="DZ35" s="86"/>
-      <c r="EA35" s="86"/>
-      <c r="EB35" s="86"/>
-      <c r="EC35" s="87"/>
-      <c r="ED35" s="87"/>
-      <c r="EE35" s="88"/>
-      <c r="EF35" s="86"/>
-      <c r="EG35" s="86"/>
-      <c r="EH35" s="86"/>
-      <c r="EI35" s="86"/>
-      <c r="EJ35" s="87"/>
-      <c r="EK35" s="87"/>
-      <c r="EL35" s="88"/>
-      <c r="EM35" s="87"/>
-      <c r="EN35" s="86"/>
-      <c r="EO35" s="86"/>
-      <c r="EP35" s="86"/>
-      <c r="EQ35" s="87"/>
-      <c r="ER35" s="87"/>
-      <c r="ES35" s="88"/>
-      <c r="ET35" s="88"/>
-      <c r="EU35" s="88"/>
-      <c r="EV35" s="115"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="78"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="77"/>
+      <c r="R35" s="77"/>
+      <c r="S35" s="77"/>
+      <c r="T35" s="77"/>
+      <c r="U35" s="78"/>
+      <c r="V35" s="78"/>
+      <c r="W35" s="84"/>
+      <c r="X35" s="77"/>
+      <c r="Y35" s="77"/>
+      <c r="Z35" s="77"/>
+      <c r="AA35" s="77"/>
+      <c r="AB35" s="78"/>
+      <c r="AC35" s="78"/>
+      <c r="AD35" s="79"/>
+      <c r="AE35" s="77"/>
+      <c r="AF35" s="77"/>
+      <c r="AG35" s="83"/>
+      <c r="AH35" s="84"/>
+      <c r="AI35" s="78"/>
+      <c r="AJ35" s="78"/>
+      <c r="AK35" s="79"/>
+      <c r="AL35" s="77"/>
+      <c r="AM35" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN35" s="77"/>
+      <c r="AO35" s="84"/>
+      <c r="AP35" s="78"/>
+      <c r="AQ35" s="78"/>
+      <c r="AR35" s="84"/>
+      <c r="AS35" s="77"/>
+      <c r="AT35" s="77"/>
+      <c r="AU35" s="78"/>
+      <c r="AV35" s="78"/>
+      <c r="AW35" s="78"/>
+      <c r="AX35" s="78"/>
+      <c r="AY35" s="84"/>
+      <c r="AZ35" s="77"/>
+      <c r="BA35" s="84"/>
+      <c r="BB35" s="77"/>
+      <c r="BC35" s="84"/>
+      <c r="BD35" s="78"/>
+      <c r="BE35" s="78"/>
+      <c r="BF35" s="84"/>
+      <c r="BG35" s="77"/>
+      <c r="BH35" s="85"/>
+      <c r="BI35" s="78"/>
+      <c r="BJ35" s="77"/>
+      <c r="BK35" s="78"/>
+      <c r="BL35" s="128"/>
+      <c r="BM35" s="128"/>
+      <c r="BN35" s="128"/>
+      <c r="BO35" s="128"/>
+      <c r="BP35" s="128"/>
+      <c r="BQ35" s="77"/>
+      <c r="BR35" s="78"/>
+      <c r="BS35" s="78"/>
+      <c r="BT35" s="79"/>
+      <c r="BU35" s="77"/>
+      <c r="BV35" s="77"/>
+      <c r="BW35" s="77"/>
+      <c r="BX35" s="77"/>
+      <c r="BY35" s="78"/>
+      <c r="BZ35" s="78"/>
+      <c r="CA35" s="79"/>
+      <c r="CB35" s="77"/>
+      <c r="CC35" s="77"/>
+      <c r="CD35" s="77"/>
+      <c r="CE35" s="77"/>
+      <c r="CF35" s="78"/>
+      <c r="CG35" s="78"/>
+      <c r="CH35" s="79"/>
+      <c r="CI35" s="77"/>
+      <c r="CJ35" s="77"/>
+      <c r="CK35" s="77"/>
+      <c r="CL35" s="77"/>
+      <c r="CM35" s="78"/>
+      <c r="CN35" s="76"/>
+      <c r="CO35" s="79"/>
+      <c r="CP35" s="77"/>
+      <c r="CQ35" s="77"/>
+      <c r="CR35" s="77"/>
+      <c r="CS35" s="77"/>
+      <c r="CT35" s="78"/>
+      <c r="CU35" s="78"/>
+      <c r="CV35" s="79"/>
+      <c r="CW35" s="77"/>
+      <c r="CX35" s="77"/>
+      <c r="CY35" s="77"/>
+      <c r="CZ35" s="77"/>
+      <c r="DA35" s="78"/>
+      <c r="DB35" s="78"/>
+      <c r="DC35" s="79"/>
+      <c r="DD35" s="77"/>
+      <c r="DE35" s="77"/>
+      <c r="DF35" s="77"/>
+      <c r="DG35" s="77"/>
+      <c r="DH35" s="78"/>
+      <c r="DI35" s="78"/>
+      <c r="DJ35" s="79"/>
+      <c r="DK35" s="77"/>
+      <c r="DL35" s="77"/>
+      <c r="DM35" s="77"/>
+      <c r="DN35" s="77"/>
+      <c r="DO35" s="78"/>
+      <c r="DP35" s="78"/>
+      <c r="DQ35" s="85"/>
+      <c r="DR35" s="83"/>
+      <c r="DS35" s="77"/>
+      <c r="DT35" s="77"/>
+      <c r="DU35" s="77"/>
+      <c r="DV35" s="78"/>
+      <c r="DW35" s="78"/>
+      <c r="DX35" s="78"/>
+      <c r="DY35" s="77"/>
+      <c r="DZ35" s="77"/>
+      <c r="EA35" s="77"/>
+      <c r="EB35" s="77"/>
+      <c r="EC35" s="78"/>
+      <c r="ED35" s="78"/>
+      <c r="EE35" s="79"/>
+      <c r="EF35" s="77"/>
+      <c r="EG35" s="77"/>
+      <c r="EH35" s="77"/>
+      <c r="EI35" s="77"/>
+      <c r="EJ35" s="78"/>
+      <c r="EK35" s="78"/>
+      <c r="EL35" s="79"/>
+      <c r="EM35" s="78"/>
+      <c r="EN35" s="77"/>
+      <c r="EO35" s="77"/>
+      <c r="EP35" s="77"/>
+      <c r="EQ35" s="78"/>
+      <c r="ER35" s="78"/>
+      <c r="ES35" s="79"/>
+      <c r="ET35" s="79"/>
+      <c r="EU35" s="79"/>
+      <c r="EV35" s="103"/>
     </row>
     <row r="36" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
+      <c r="A36" s="107"/>
       <c r="B36" s="24"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -7524,14 +7556,16 @@
       <c r="AD36" s="13"/>
       <c r="AE36" s="16"/>
       <c r="AF36" s="16"/>
-      <c r="AG36" s="76"/>
+      <c r="AG36" s="68"/>
       <c r="AH36" s="23"/>
       <c r="AI36" s="14"/>
       <c r="AJ36" s="14"/>
       <c r="AK36" s="13"/>
       <c r="AL36" s="16"/>
       <c r="AM36" s="16"/>
-      <c r="AN36" s="16"/>
+      <c r="AN36" s="57" t="s">
+        <v>42</v>
+      </c>
       <c r="AO36" s="23"/>
       <c r="AP36" s="14"/>
       <c r="AQ36" s="14"/>
@@ -7555,11 +7589,11 @@
       <c r="BI36" s="14"/>
       <c r="BJ36" s="16"/>
       <c r="BK36" s="14"/>
-      <c r="BL36" s="14"/>
-      <c r="BM36" s="16"/>
-      <c r="BN36" s="16"/>
-      <c r="BO36" s="16"/>
-      <c r="BP36" s="16"/>
+      <c r="BL36" s="125"/>
+      <c r="BM36" s="125"/>
+      <c r="BN36" s="125"/>
+      <c r="BO36" s="125"/>
+      <c r="BP36" s="125"/>
       <c r="BQ36" s="16"/>
       <c r="BR36" s="14"/>
       <c r="BS36" s="14"/>
@@ -7613,7 +7647,7 @@
       <c r="DO36" s="14"/>
       <c r="DP36" s="14"/>
       <c r="DQ36" s="25"/>
-      <c r="DR36" s="76"/>
+      <c r="DR36" s="68"/>
       <c r="DS36" s="16"/>
       <c r="DT36" s="16"/>
       <c r="DU36" s="16"/>
@@ -7646,7 +7680,7 @@
       <c r="EV36" s="17"/>
     </row>
     <row r="37" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
+      <c r="A37" s="107"/>
       <c r="B37" s="24"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -7678,7 +7712,7 @@
       <c r="AD37" s="13"/>
       <c r="AE37" s="16"/>
       <c r="AF37" s="16"/>
-      <c r="AG37" s="76"/>
+      <c r="AG37" s="68"/>
       <c r="AH37" s="16"/>
       <c r="AI37" s="14"/>
       <c r="AJ37" s="14"/>
@@ -7709,11 +7743,11 @@
       <c r="BI37" s="14"/>
       <c r="BJ37" s="16"/>
       <c r="BK37" s="14"/>
-      <c r="BL37" s="14"/>
-      <c r="BM37" s="13"/>
-      <c r="BN37" s="16"/>
-      <c r="BO37" s="16"/>
-      <c r="BP37" s="16"/>
+      <c r="BL37" s="125"/>
+      <c r="BM37" s="125"/>
+      <c r="BN37" s="125"/>
+      <c r="BO37" s="125"/>
+      <c r="BP37" s="125"/>
       <c r="BQ37" s="16"/>
       <c r="BR37" s="14"/>
       <c r="BS37" s="14"/>
@@ -7767,7 +7801,7 @@
       <c r="DO37" s="14"/>
       <c r="DP37" s="14"/>
       <c r="DQ37" s="25"/>
-      <c r="DR37" s="76"/>
+      <c r="DR37" s="68"/>
       <c r="DS37" s="16"/>
       <c r="DT37" s="16"/>
       <c r="DU37" s="16"/>
@@ -7800,7 +7834,7 @@
       <c r="EV37" s="17"/>
     </row>
     <row r="38" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
+      <c r="A38" s="107"/>
       <c r="B38" s="24"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -7832,7 +7866,7 @@
       <c r="AD38" s="13"/>
       <c r="AE38" s="16"/>
       <c r="AF38" s="16"/>
-      <c r="AG38" s="76"/>
+      <c r="AG38" s="68"/>
       <c r="AH38" s="16"/>
       <c r="AI38" s="14"/>
       <c r="AJ38" s="14"/>
@@ -7863,11 +7897,11 @@
       <c r="BI38" s="14"/>
       <c r="BJ38" s="16"/>
       <c r="BK38" s="14"/>
-      <c r="BL38" s="14"/>
-      <c r="BM38" s="13"/>
-      <c r="BN38" s="16"/>
-      <c r="BO38" s="16"/>
-      <c r="BP38" s="16"/>
+      <c r="BL38" s="125"/>
+      <c r="BM38" s="125"/>
+      <c r="BN38" s="125"/>
+      <c r="BO38" s="125"/>
+      <c r="BP38" s="125"/>
       <c r="BQ38" s="16"/>
       <c r="BR38" s="14"/>
       <c r="BS38" s="14"/>
@@ -7921,7 +7955,7 @@
       <c r="DO38" s="14"/>
       <c r="DP38" s="14"/>
       <c r="DQ38" s="17"/>
-      <c r="DR38" s="76"/>
+      <c r="DR38" s="68"/>
       <c r="DS38" s="16"/>
       <c r="DT38" s="16"/>
       <c r="DU38" s="16"/>
@@ -7954,323 +7988,323 @@
       <c r="EV38" s="17"/>
     </row>
     <row r="39" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="31"/>
-      <c r="B39" s="95"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="80"/>
-      <c r="L39" s="80"/>
-      <c r="M39" s="80"/>
-      <c r="N39" s="81"/>
-      <c r="O39" s="81"/>
-      <c r="P39" s="82"/>
-      <c r="Q39" s="80"/>
-      <c r="R39" s="80"/>
-      <c r="S39" s="80"/>
-      <c r="T39" s="80"/>
-      <c r="U39" s="81"/>
-      <c r="V39" s="81"/>
-      <c r="W39" s="82"/>
-      <c r="X39" s="80"/>
-      <c r="Y39" s="80"/>
-      <c r="Z39" s="80"/>
-      <c r="AA39" s="80"/>
-      <c r="AB39" s="81"/>
-      <c r="AC39" s="81"/>
-      <c r="AD39" s="82"/>
-      <c r="AE39" s="80"/>
-      <c r="AF39" s="80"/>
-      <c r="AG39" s="79"/>
-      <c r="AH39" s="80"/>
-      <c r="AI39" s="81"/>
-      <c r="AJ39" s="81"/>
-      <c r="AK39" s="82"/>
-      <c r="AL39" s="80"/>
-      <c r="AM39" s="80"/>
-      <c r="AN39" s="80"/>
-      <c r="AO39" s="80"/>
-      <c r="AP39" s="81"/>
-      <c r="AQ39" s="81"/>
-      <c r="AR39" s="82"/>
-      <c r="AS39" s="80"/>
-      <c r="AT39" s="80"/>
-      <c r="AU39" s="81"/>
-      <c r="AV39" s="81"/>
-      <c r="AW39" s="81"/>
-      <c r="AX39" s="81"/>
-      <c r="AY39" s="82"/>
-      <c r="AZ39" s="80"/>
-      <c r="BA39" s="80"/>
-      <c r="BB39" s="80"/>
-      <c r="BC39" s="80"/>
-      <c r="BD39" s="81"/>
-      <c r="BE39" s="81"/>
-      <c r="BF39" s="82"/>
-      <c r="BG39" s="80"/>
-      <c r="BH39" s="83"/>
-      <c r="BI39" s="81"/>
-      <c r="BJ39" s="80"/>
-      <c r="BK39" s="81"/>
-      <c r="BL39" s="81"/>
-      <c r="BM39" s="82"/>
-      <c r="BN39" s="80"/>
-      <c r="BO39" s="80"/>
-      <c r="BP39" s="80"/>
-      <c r="BQ39" s="80"/>
-      <c r="BR39" s="81"/>
-      <c r="BS39" s="81"/>
-      <c r="BT39" s="82"/>
-      <c r="BU39" s="80"/>
-      <c r="BV39" s="80"/>
-      <c r="BW39" s="80"/>
-      <c r="BX39" s="80"/>
-      <c r="BY39" s="81"/>
-      <c r="BZ39" s="81"/>
-      <c r="CA39" s="82"/>
-      <c r="CB39" s="80"/>
-      <c r="CC39" s="80"/>
-      <c r="CD39" s="80"/>
-      <c r="CE39" s="80"/>
-      <c r="CF39" s="81"/>
-      <c r="CG39" s="81"/>
-      <c r="CH39" s="82"/>
-      <c r="CI39" s="80"/>
-      <c r="CJ39" s="80"/>
-      <c r="CK39" s="80"/>
-      <c r="CL39" s="80"/>
-      <c r="CM39" s="81"/>
-      <c r="CN39" s="95"/>
-      <c r="CO39" s="82"/>
-      <c r="CP39" s="80"/>
-      <c r="CQ39" s="80"/>
-      <c r="CR39" s="80"/>
-      <c r="CS39" s="80"/>
-      <c r="CT39" s="81"/>
-      <c r="CU39" s="81"/>
-      <c r="CV39" s="82"/>
-      <c r="CW39" s="80"/>
-      <c r="CX39" s="80"/>
-      <c r="CY39" s="80"/>
-      <c r="CZ39" s="80"/>
-      <c r="DA39" s="81"/>
-      <c r="DB39" s="81"/>
-      <c r="DC39" s="82"/>
-      <c r="DD39" s="80"/>
-      <c r="DE39" s="80"/>
-      <c r="DF39" s="80"/>
-      <c r="DG39" s="80"/>
-      <c r="DH39" s="81"/>
-      <c r="DI39" s="81"/>
-      <c r="DJ39" s="82"/>
-      <c r="DK39" s="80"/>
-      <c r="DL39" s="80"/>
-      <c r="DM39" s="80"/>
-      <c r="DN39" s="80"/>
-      <c r="DO39" s="81"/>
-      <c r="DP39" s="81"/>
-      <c r="DQ39" s="105"/>
-      <c r="DR39" s="79"/>
-      <c r="DS39" s="80"/>
-      <c r="DT39" s="80"/>
-      <c r="DU39" s="80"/>
-      <c r="DV39" s="81"/>
-      <c r="DW39" s="81"/>
-      <c r="DX39" s="81"/>
-      <c r="DY39" s="80"/>
-      <c r="DZ39" s="80"/>
-      <c r="EA39" s="80"/>
-      <c r="EB39" s="80"/>
-      <c r="EC39" s="81"/>
-      <c r="ED39" s="81"/>
-      <c r="EE39" s="82"/>
-      <c r="EF39" s="80"/>
-      <c r="EG39" s="80"/>
-      <c r="EH39" s="80"/>
-      <c r="EI39" s="80"/>
-      <c r="EJ39" s="81"/>
-      <c r="EK39" s="81"/>
-      <c r="EL39" s="82"/>
-      <c r="EM39" s="81"/>
-      <c r="EN39" s="80"/>
-      <c r="EO39" s="80"/>
-      <c r="EP39" s="80"/>
-      <c r="EQ39" s="81"/>
-      <c r="ER39" s="81"/>
-      <c r="ES39" s="82"/>
-      <c r="ET39" s="82"/>
-      <c r="EU39" s="82"/>
-      <c r="EV39" s="110"/>
+      <c r="A39" s="107"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="72"/>
+      <c r="S39" s="72"/>
+      <c r="T39" s="72"/>
+      <c r="U39" s="73"/>
+      <c r="V39" s="73"/>
+      <c r="W39" s="74"/>
+      <c r="X39" s="72"/>
+      <c r="Y39" s="72"/>
+      <c r="Z39" s="72"/>
+      <c r="AA39" s="72"/>
+      <c r="AB39" s="73"/>
+      <c r="AC39" s="73"/>
+      <c r="AD39" s="74"/>
+      <c r="AE39" s="72"/>
+      <c r="AF39" s="72"/>
+      <c r="AG39" s="71"/>
+      <c r="AH39" s="72"/>
+      <c r="AI39" s="73"/>
+      <c r="AJ39" s="73"/>
+      <c r="AK39" s="74"/>
+      <c r="AL39" s="72"/>
+      <c r="AM39" s="72"/>
+      <c r="AN39" s="72"/>
+      <c r="AO39" s="72"/>
+      <c r="AP39" s="73"/>
+      <c r="AQ39" s="73"/>
+      <c r="AR39" s="74"/>
+      <c r="AS39" s="72"/>
+      <c r="AT39" s="72"/>
+      <c r="AU39" s="73"/>
+      <c r="AV39" s="73"/>
+      <c r="AW39" s="73"/>
+      <c r="AX39" s="73"/>
+      <c r="AY39" s="74"/>
+      <c r="AZ39" s="72"/>
+      <c r="BA39" s="72"/>
+      <c r="BB39" s="72"/>
+      <c r="BC39" s="72"/>
+      <c r="BD39" s="73"/>
+      <c r="BE39" s="73"/>
+      <c r="BF39" s="74"/>
+      <c r="BG39" s="72"/>
+      <c r="BH39" s="75"/>
+      <c r="BI39" s="73"/>
+      <c r="BJ39" s="72"/>
+      <c r="BK39" s="73"/>
+      <c r="BL39" s="131"/>
+      <c r="BM39" s="131"/>
+      <c r="BN39" s="131"/>
+      <c r="BO39" s="131"/>
+      <c r="BP39" s="131"/>
+      <c r="BQ39" s="72"/>
+      <c r="BR39" s="73"/>
+      <c r="BS39" s="73"/>
+      <c r="BT39" s="74"/>
+      <c r="BU39" s="72"/>
+      <c r="BV39" s="72"/>
+      <c r="BW39" s="72"/>
+      <c r="BX39" s="72"/>
+      <c r="BY39" s="73"/>
+      <c r="BZ39" s="73"/>
+      <c r="CA39" s="74"/>
+      <c r="CB39" s="72"/>
+      <c r="CC39" s="72"/>
+      <c r="CD39" s="72"/>
+      <c r="CE39" s="72"/>
+      <c r="CF39" s="73"/>
+      <c r="CG39" s="73"/>
+      <c r="CH39" s="74"/>
+      <c r="CI39" s="72"/>
+      <c r="CJ39" s="72"/>
+      <c r="CK39" s="72"/>
+      <c r="CL39" s="72"/>
+      <c r="CM39" s="73"/>
+      <c r="CN39" s="86"/>
+      <c r="CO39" s="74"/>
+      <c r="CP39" s="72"/>
+      <c r="CQ39" s="72"/>
+      <c r="CR39" s="72"/>
+      <c r="CS39" s="72"/>
+      <c r="CT39" s="73"/>
+      <c r="CU39" s="73"/>
+      <c r="CV39" s="74"/>
+      <c r="CW39" s="72"/>
+      <c r="CX39" s="72"/>
+      <c r="CY39" s="72"/>
+      <c r="CZ39" s="72"/>
+      <c r="DA39" s="73"/>
+      <c r="DB39" s="73"/>
+      <c r="DC39" s="74"/>
+      <c r="DD39" s="72"/>
+      <c r="DE39" s="72"/>
+      <c r="DF39" s="72"/>
+      <c r="DG39" s="72"/>
+      <c r="DH39" s="73"/>
+      <c r="DI39" s="73"/>
+      <c r="DJ39" s="74"/>
+      <c r="DK39" s="72"/>
+      <c r="DL39" s="72"/>
+      <c r="DM39" s="72"/>
+      <c r="DN39" s="72"/>
+      <c r="DO39" s="73"/>
+      <c r="DP39" s="73"/>
+      <c r="DQ39" s="96"/>
+      <c r="DR39" s="71"/>
+      <c r="DS39" s="72"/>
+      <c r="DT39" s="72"/>
+      <c r="DU39" s="72"/>
+      <c r="DV39" s="73"/>
+      <c r="DW39" s="73"/>
+      <c r="DX39" s="73"/>
+      <c r="DY39" s="72"/>
+      <c r="DZ39" s="72"/>
+      <c r="EA39" s="72"/>
+      <c r="EB39" s="72"/>
+      <c r="EC39" s="73"/>
+      <c r="ED39" s="73"/>
+      <c r="EE39" s="74"/>
+      <c r="EF39" s="72"/>
+      <c r="EG39" s="72"/>
+      <c r="EH39" s="72"/>
+      <c r="EI39" s="72"/>
+      <c r="EJ39" s="73"/>
+      <c r="EK39" s="73"/>
+      <c r="EL39" s="74"/>
+      <c r="EM39" s="73"/>
+      <c r="EN39" s="72"/>
+      <c r="EO39" s="72"/>
+      <c r="EP39" s="72"/>
+      <c r="EQ39" s="73"/>
+      <c r="ER39" s="73"/>
+      <c r="ES39" s="74"/>
+      <c r="ET39" s="74"/>
+      <c r="EU39" s="74"/>
+      <c r="EV39" s="99"/>
     </row>
     <row r="40" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="84" t="s">
+      <c r="A40" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="85"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="86"/>
-      <c r="L40" s="86"/>
-      <c r="M40" s="86"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="93"/>
-      <c r="Q40" s="86"/>
-      <c r="R40" s="86"/>
-      <c r="S40" s="86"/>
-      <c r="T40" s="86"/>
-      <c r="U40" s="87"/>
-      <c r="V40" s="87"/>
-      <c r="W40" s="93"/>
-      <c r="X40" s="86"/>
-      <c r="Y40" s="86"/>
-      <c r="Z40" s="86"/>
-      <c r="AA40" s="86"/>
-      <c r="AB40" s="87"/>
-      <c r="AC40" s="87"/>
-      <c r="AD40" s="88"/>
-      <c r="AE40" s="86"/>
-      <c r="AF40" s="86"/>
-      <c r="AG40" s="92"/>
-      <c r="AH40" s="93"/>
-      <c r="AI40" s="87"/>
-      <c r="AJ40" s="87"/>
-      <c r="AK40" s="88"/>
-      <c r="AL40" s="86"/>
-      <c r="AM40" s="89" t="s">
+      <c r="B40" s="76"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="78"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="84"/>
+      <c r="Q40" s="77"/>
+      <c r="R40" s="77"/>
+      <c r="S40" s="77"/>
+      <c r="T40" s="77"/>
+      <c r="U40" s="78"/>
+      <c r="V40" s="78"/>
+      <c r="W40" s="84"/>
+      <c r="X40" s="77"/>
+      <c r="Y40" s="77"/>
+      <c r="Z40" s="77"/>
+      <c r="AA40" s="77"/>
+      <c r="AB40" s="78"/>
+      <c r="AC40" s="78"/>
+      <c r="AD40" s="79"/>
+      <c r="AE40" s="77"/>
+      <c r="AF40" s="77"/>
+      <c r="AG40" s="83"/>
+      <c r="AH40" s="84"/>
+      <c r="AI40" s="78"/>
+      <c r="AJ40" s="78"/>
+      <c r="AK40" s="79"/>
+      <c r="AL40" s="77"/>
+      <c r="AM40" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="AN40" s="86"/>
-      <c r="AO40" s="93"/>
-      <c r="AP40" s="87"/>
-      <c r="AQ40" s="87"/>
-      <c r="AR40" s="88"/>
-      <c r="AS40" s="86"/>
+      <c r="AN40" s="77"/>
+      <c r="AO40" s="84"/>
+      <c r="AP40" s="78"/>
+      <c r="AQ40" s="78"/>
+      <c r="AR40" s="79"/>
+      <c r="AS40" s="77"/>
       <c r="AT40" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AU40" s="87"/>
-      <c r="AV40" s="87"/>
-      <c r="AW40" s="87"/>
-      <c r="AX40" s="87"/>
-      <c r="AY40" s="88"/>
-      <c r="AZ40" s="86"/>
-      <c r="BA40" s="86"/>
-      <c r="BB40" s="86"/>
-      <c r="BC40" s="86"/>
-      <c r="BD40" s="87"/>
-      <c r="BE40" s="87"/>
-      <c r="BF40" s="88"/>
-      <c r="BG40" s="86"/>
-      <c r="BH40" s="94"/>
-      <c r="BI40" s="87"/>
-      <c r="BJ40" s="86"/>
-      <c r="BK40" s="87"/>
-      <c r="BL40" s="87"/>
-      <c r="BM40" s="55"/>
-      <c r="BN40" s="86"/>
-      <c r="BO40" s="86"/>
-      <c r="BP40" s="86"/>
-      <c r="BQ40" s="86"/>
-      <c r="BR40" s="87"/>
-      <c r="BS40" s="87"/>
-      <c r="BT40" s="55"/>
-      <c r="BU40" s="86"/>
-      <c r="BV40" s="86"/>
-      <c r="BW40" s="86"/>
-      <c r="BX40" s="86"/>
-      <c r="BY40" s="87"/>
-      <c r="BZ40" s="87"/>
-      <c r="CA40" s="88"/>
-      <c r="CB40" s="86"/>
-      <c r="CC40" s="86"/>
-      <c r="CD40" s="86"/>
-      <c r="CE40" s="86"/>
-      <c r="CF40" s="87"/>
-      <c r="CG40" s="87"/>
-      <c r="CH40" s="88"/>
-      <c r="CI40" s="86"/>
-      <c r="CJ40" s="86"/>
-      <c r="CK40" s="86"/>
-      <c r="CL40" s="86"/>
-      <c r="CM40" s="87"/>
-      <c r="CN40" s="85"/>
-      <c r="CO40" s="88"/>
-      <c r="CP40" s="86"/>
-      <c r="CQ40" s="86"/>
-      <c r="CR40" s="86"/>
-      <c r="CS40" s="86"/>
-      <c r="CT40" s="87"/>
-      <c r="CU40" s="87"/>
-      <c r="CV40" s="55" t="s">
+      <c r="AU40" s="78"/>
+      <c r="AV40" s="78"/>
+      <c r="AW40" s="78"/>
+      <c r="AX40" s="78"/>
+      <c r="AY40" s="79"/>
+      <c r="AZ40" s="77"/>
+      <c r="BA40" s="77"/>
+      <c r="BB40" s="77"/>
+      <c r="BC40" s="77"/>
+      <c r="BD40" s="78"/>
+      <c r="BE40" s="78"/>
+      <c r="BF40" s="79"/>
+      <c r="BG40" s="77"/>
+      <c r="BH40" s="85"/>
+      <c r="BI40" s="78"/>
+      <c r="BJ40" s="77"/>
+      <c r="BK40" s="78"/>
+      <c r="BL40" s="128"/>
+      <c r="BM40" s="132"/>
+      <c r="BN40" s="128"/>
+      <c r="BO40" s="128"/>
+      <c r="BP40" s="128"/>
+      <c r="BQ40" s="77"/>
+      <c r="BR40" s="78"/>
+      <c r="BS40" s="78"/>
+      <c r="BT40" s="47"/>
+      <c r="BU40" s="77"/>
+      <c r="BV40" s="77"/>
+      <c r="BW40" s="77"/>
+      <c r="BX40" s="77"/>
+      <c r="BY40" s="78"/>
+      <c r="BZ40" s="78"/>
+      <c r="CA40" s="79"/>
+      <c r="CB40" s="77"/>
+      <c r="CC40" s="77"/>
+      <c r="CD40" s="77"/>
+      <c r="CE40" s="77"/>
+      <c r="CF40" s="78"/>
+      <c r="CG40" s="78"/>
+      <c r="CH40" s="79"/>
+      <c r="CI40" s="77"/>
+      <c r="CJ40" s="77"/>
+      <c r="CK40" s="77"/>
+      <c r="CL40" s="77"/>
+      <c r="CM40" s="78"/>
+      <c r="CN40" s="76"/>
+      <c r="CO40" s="79"/>
+      <c r="CP40" s="77"/>
+      <c r="CQ40" s="77"/>
+      <c r="CR40" s="77"/>
+      <c r="CS40" s="77"/>
+      <c r="CT40" s="78"/>
+      <c r="CU40" s="78"/>
+      <c r="CV40" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="CW40" s="86"/>
-      <c r="CX40" s="86"/>
-      <c r="CY40" s="86"/>
-      <c r="CZ40" s="86"/>
-      <c r="DA40" s="87"/>
-      <c r="DB40" s="87"/>
-      <c r="DC40" s="88"/>
-      <c r="DD40" s="86"/>
-      <c r="DE40" s="86"/>
-      <c r="DF40" s="86"/>
-      <c r="DG40" s="86"/>
-      <c r="DH40" s="87"/>
-      <c r="DI40" s="87"/>
-      <c r="DJ40" s="88"/>
-      <c r="DK40" s="86"/>
-      <c r="DL40" s="86"/>
-      <c r="DM40" s="86"/>
-      <c r="DN40" s="86"/>
-      <c r="DO40" s="87"/>
-      <c r="DP40" s="87"/>
-      <c r="DQ40" s="94"/>
-      <c r="DR40" s="92"/>
-      <c r="DS40" s="86"/>
-      <c r="DT40" s="86"/>
-      <c r="DU40" s="86"/>
-      <c r="DV40" s="87"/>
-      <c r="DW40" s="87"/>
-      <c r="DX40" s="87"/>
-      <c r="DY40" s="86"/>
-      <c r="DZ40" s="86"/>
-      <c r="EA40" s="86"/>
-      <c r="EB40" s="86"/>
-      <c r="EC40" s="87"/>
-      <c r="ED40" s="87"/>
-      <c r="EE40" s="88"/>
-      <c r="EF40" s="86"/>
-      <c r="EG40" s="86"/>
-      <c r="EH40" s="86"/>
-      <c r="EI40" s="86"/>
-      <c r="EJ40" s="87"/>
-      <c r="EK40" s="87"/>
-      <c r="EL40" s="88"/>
-      <c r="EM40" s="87"/>
-      <c r="EN40" s="86"/>
-      <c r="EO40" s="86"/>
-      <c r="EP40" s="86"/>
-      <c r="EQ40" s="87"/>
-      <c r="ER40" s="87"/>
-      <c r="ES40" s="88"/>
-      <c r="ET40" s="88"/>
-      <c r="EU40" s="88"/>
-      <c r="EV40" s="115"/>
+      <c r="CW40" s="77"/>
+      <c r="CX40" s="77"/>
+      <c r="CY40" s="77"/>
+      <c r="CZ40" s="77"/>
+      <c r="DA40" s="78"/>
+      <c r="DB40" s="78"/>
+      <c r="DC40" s="79"/>
+      <c r="DD40" s="77"/>
+      <c r="DE40" s="77"/>
+      <c r="DF40" s="77"/>
+      <c r="DG40" s="77"/>
+      <c r="DH40" s="78"/>
+      <c r="DI40" s="78"/>
+      <c r="DJ40" s="79"/>
+      <c r="DK40" s="77"/>
+      <c r="DL40" s="77"/>
+      <c r="DM40" s="77"/>
+      <c r="DN40" s="77"/>
+      <c r="DO40" s="78"/>
+      <c r="DP40" s="78"/>
+      <c r="DQ40" s="85"/>
+      <c r="DR40" s="83"/>
+      <c r="DS40" s="77"/>
+      <c r="DT40" s="77"/>
+      <c r="DU40" s="77"/>
+      <c r="DV40" s="78"/>
+      <c r="DW40" s="78"/>
+      <c r="DX40" s="78"/>
+      <c r="DY40" s="77"/>
+      <c r="DZ40" s="77"/>
+      <c r="EA40" s="77"/>
+      <c r="EB40" s="77"/>
+      <c r="EC40" s="78"/>
+      <c r="ED40" s="78"/>
+      <c r="EE40" s="79"/>
+      <c r="EF40" s="77"/>
+      <c r="EG40" s="77"/>
+      <c r="EH40" s="77"/>
+      <c r="EI40" s="77"/>
+      <c r="EJ40" s="78"/>
+      <c r="EK40" s="78"/>
+      <c r="EL40" s="79"/>
+      <c r="EM40" s="78"/>
+      <c r="EN40" s="77"/>
+      <c r="EO40" s="77"/>
+      <c r="EP40" s="77"/>
+      <c r="EQ40" s="78"/>
+      <c r="ER40" s="78"/>
+      <c r="ES40" s="79"/>
+      <c r="ET40" s="79"/>
+      <c r="EU40" s="79"/>
+      <c r="EV40" s="103"/>
     </row>
     <row r="41" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
+      <c r="A41" s="107"/>
       <c r="B41" s="24"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -8302,7 +8336,7 @@
       <c r="AD41" s="13"/>
       <c r="AE41" s="16"/>
       <c r="AF41" s="16"/>
-      <c r="AG41" s="76"/>
+      <c r="AG41" s="68"/>
       <c r="AH41" s="23"/>
       <c r="AI41" s="14"/>
       <c r="AJ41" s="14"/>
@@ -8333,11 +8367,11 @@
       <c r="BI41" s="14"/>
       <c r="BJ41" s="16"/>
       <c r="BK41" s="14"/>
-      <c r="BL41" s="14"/>
-      <c r="BM41" s="13"/>
-      <c r="BN41" s="16"/>
-      <c r="BO41" s="16"/>
-      <c r="BP41" s="16"/>
+      <c r="BL41" s="125"/>
+      <c r="BM41" s="125"/>
+      <c r="BN41" s="125"/>
+      <c r="BO41" s="125"/>
+      <c r="BP41" s="125"/>
       <c r="BQ41" s="16"/>
       <c r="BR41" s="14"/>
       <c r="BS41" s="14"/>
@@ -8374,13 +8408,13 @@
       <c r="CX41" s="16"/>
       <c r="CY41" s="16"/>
       <c r="CZ41" s="16"/>
-      <c r="DA41" s="65" t="s">
+      <c r="DA41" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="DB41" s="65"/>
-      <c r="DC41" s="65"/>
-      <c r="DD41" s="65"/>
-      <c r="DE41" s="65"/>
+      <c r="DB41" s="57"/>
+      <c r="DC41" s="57"/>
+      <c r="DD41" s="57"/>
+      <c r="DE41" s="57"/>
       <c r="DF41" s="16"/>
       <c r="DG41" s="16"/>
       <c r="DH41" s="14"/>
@@ -8393,7 +8427,7 @@
       <c r="DO41" s="14"/>
       <c r="DP41" s="14"/>
       <c r="DQ41" s="25"/>
-      <c r="DR41" s="76"/>
+      <c r="DR41" s="68"/>
       <c r="DS41" s="16"/>
       <c r="DT41" s="16"/>
       <c r="DU41" s="16"/>
@@ -8426,7 +8460,7 @@
       <c r="EV41" s="17"/>
     </row>
     <row r="42" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
+      <c r="A42" s="107"/>
       <c r="B42" s="24"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
@@ -8458,7 +8492,7 @@
       <c r="AD42" s="13"/>
       <c r="AE42" s="16"/>
       <c r="AF42" s="16"/>
-      <c r="AG42" s="76"/>
+      <c r="AG42" s="68"/>
       <c r="AH42" s="16"/>
       <c r="AI42" s="14"/>
       <c r="AJ42" s="14"/>
@@ -8489,11 +8523,11 @@
       <c r="BI42" s="14"/>
       <c r="BJ42" s="16"/>
       <c r="BK42" s="14"/>
-      <c r="BL42" s="14"/>
-      <c r="BM42" s="13"/>
-      <c r="BN42" s="16"/>
-      <c r="BO42" s="16"/>
-      <c r="BP42" s="16"/>
+      <c r="BL42" s="125"/>
+      <c r="BM42" s="125"/>
+      <c r="BN42" s="125"/>
+      <c r="BO42" s="125"/>
+      <c r="BP42" s="125"/>
       <c r="BQ42" s="16"/>
       <c r="BR42" s="14"/>
       <c r="BS42" s="14"/>
@@ -8549,14 +8583,14 @@
       <c r="DO42" s="14"/>
       <c r="DP42" s="14"/>
       <c r="DQ42" s="25"/>
-      <c r="DR42" s="76"/>
+      <c r="DR42" s="68"/>
       <c r="DS42" s="16"/>
       <c r="DT42" s="16"/>
       <c r="DU42" s="16"/>
-      <c r="DV42" s="68" t="s">
+      <c r="DV42" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="DW42" s="113"/>
+      <c r="DW42" s="102"/>
       <c r="DX42" s="14"/>
       <c r="DY42" s="16"/>
       <c r="DZ42" s="16"/>
@@ -8584,7 +8618,7 @@
       <c r="EV42" s="17"/>
     </row>
     <row r="43" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
+      <c r="A43" s="107"/>
       <c r="B43" s="24"/>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -8616,7 +8650,7 @@
       <c r="AD43" s="13"/>
       <c r="AE43" s="16"/>
       <c r="AF43" s="16"/>
-      <c r="AG43" s="76"/>
+      <c r="AG43" s="68"/>
       <c r="AH43" s="16"/>
       <c r="AI43" s="14"/>
       <c r="AJ43" s="14"/>
@@ -8647,11 +8681,11 @@
       <c r="BI43" s="14"/>
       <c r="BJ43" s="16"/>
       <c r="BK43" s="14"/>
-      <c r="BL43" s="14"/>
-      <c r="BM43" s="13"/>
-      <c r="BN43" s="16"/>
-      <c r="BO43" s="16"/>
-      <c r="BP43" s="16"/>
+      <c r="BL43" s="125"/>
+      <c r="BM43" s="125"/>
+      <c r="BN43" s="125"/>
+      <c r="BO43" s="125"/>
+      <c r="BP43" s="125"/>
       <c r="BQ43" s="16"/>
       <c r="BR43" s="14"/>
       <c r="BS43" s="14"/>
@@ -8707,7 +8741,7 @@
       <c r="DO43" s="14"/>
       <c r="DP43" s="14"/>
       <c r="DQ43" s="17"/>
-      <c r="DR43" s="76"/>
+      <c r="DR43" s="68"/>
       <c r="DS43" s="16"/>
       <c r="DT43" s="16"/>
       <c r="DU43" s="16"/>
@@ -8740,325 +8774,325 @@
       <c r="EV43" s="17"/>
     </row>
     <row r="44" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="41"/>
-      <c r="B44" s="95"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="82"/>
-      <c r="J44" s="80"/>
-      <c r="K44" s="80"/>
-      <c r="L44" s="80"/>
-      <c r="M44" s="80"/>
-      <c r="N44" s="81"/>
-      <c r="O44" s="81"/>
-      <c r="P44" s="82"/>
-      <c r="Q44" s="80"/>
-      <c r="R44" s="80"/>
-      <c r="S44" s="80"/>
-      <c r="T44" s="80"/>
-      <c r="U44" s="81"/>
-      <c r="V44" s="81"/>
-      <c r="W44" s="82"/>
-      <c r="X44" s="80"/>
-      <c r="Y44" s="80"/>
-      <c r="Z44" s="80"/>
-      <c r="AA44" s="80"/>
-      <c r="AB44" s="81"/>
-      <c r="AC44" s="81"/>
-      <c r="AD44" s="82"/>
-      <c r="AE44" s="80"/>
-      <c r="AF44" s="80"/>
-      <c r="AG44" s="79"/>
-      <c r="AH44" s="80"/>
-      <c r="AI44" s="81"/>
-      <c r="AJ44" s="81"/>
-      <c r="AK44" s="82"/>
-      <c r="AL44" s="80"/>
-      <c r="AM44" s="80"/>
-      <c r="AN44" s="80"/>
-      <c r="AO44" s="80"/>
-      <c r="AP44" s="81"/>
-      <c r="AQ44" s="81"/>
-      <c r="AR44" s="82"/>
-      <c r="AS44" s="80"/>
-      <c r="AT44" s="80"/>
-      <c r="AU44" s="81"/>
-      <c r="AV44" s="81"/>
-      <c r="AW44" s="81"/>
-      <c r="AX44" s="81"/>
-      <c r="AY44" s="82"/>
-      <c r="AZ44" s="80"/>
-      <c r="BA44" s="80"/>
-      <c r="BB44" s="80"/>
-      <c r="BC44" s="80"/>
-      <c r="BD44" s="81"/>
-      <c r="BE44" s="81"/>
-      <c r="BF44" s="82"/>
-      <c r="BG44" s="80"/>
-      <c r="BH44" s="83"/>
-      <c r="BI44" s="81"/>
-      <c r="BJ44" s="80"/>
-      <c r="BK44" s="81"/>
-      <c r="BL44" s="81"/>
-      <c r="BM44" s="82"/>
-      <c r="BN44" s="80"/>
-      <c r="BO44" s="80"/>
-      <c r="BP44" s="80"/>
-      <c r="BQ44" s="80"/>
-      <c r="BR44" s="81"/>
-      <c r="BS44" s="81"/>
-      <c r="BT44" s="82"/>
-      <c r="BU44" s="80"/>
-      <c r="BV44" s="80"/>
-      <c r="BW44" s="80"/>
-      <c r="BX44" s="80"/>
-      <c r="BY44" s="81"/>
-      <c r="BZ44" s="81"/>
-      <c r="CA44" s="82"/>
-      <c r="CB44" s="80"/>
-      <c r="CC44" s="80"/>
-      <c r="CD44" s="80"/>
-      <c r="CE44" s="80"/>
-      <c r="CF44" s="81"/>
-      <c r="CG44" s="81"/>
-      <c r="CH44" s="82"/>
-      <c r="CI44" s="80"/>
-      <c r="CJ44" s="80"/>
-      <c r="CK44" s="80"/>
-      <c r="CL44" s="80"/>
-      <c r="CM44" s="81"/>
-      <c r="CN44" s="95"/>
-      <c r="CO44" s="82"/>
-      <c r="CP44" s="80"/>
-      <c r="CQ44" s="80"/>
-      <c r="CR44" s="80"/>
-      <c r="CS44" s="80"/>
-      <c r="CT44" s="81"/>
-      <c r="CU44" s="81"/>
+      <c r="A44" s="108"/>
+      <c r="B44" s="86"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="72"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="74"/>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="72"/>
+      <c r="S44" s="72"/>
+      <c r="T44" s="72"/>
+      <c r="U44" s="73"/>
+      <c r="V44" s="73"/>
+      <c r="W44" s="74"/>
+      <c r="X44" s="72"/>
+      <c r="Y44" s="72"/>
+      <c r="Z44" s="72"/>
+      <c r="AA44" s="72"/>
+      <c r="AB44" s="73"/>
+      <c r="AC44" s="73"/>
+      <c r="AD44" s="74"/>
+      <c r="AE44" s="72"/>
+      <c r="AF44" s="72"/>
+      <c r="AG44" s="71"/>
+      <c r="AH44" s="72"/>
+      <c r="AI44" s="73"/>
+      <c r="AJ44" s="73"/>
+      <c r="AK44" s="74"/>
+      <c r="AL44" s="72"/>
+      <c r="AM44" s="72"/>
+      <c r="AN44" s="72"/>
+      <c r="AO44" s="72"/>
+      <c r="AP44" s="73"/>
+      <c r="AQ44" s="73"/>
+      <c r="AR44" s="74"/>
+      <c r="AS44" s="72"/>
+      <c r="AT44" s="72"/>
+      <c r="AU44" s="73"/>
+      <c r="AV44" s="73"/>
+      <c r="AW44" s="73"/>
+      <c r="AX44" s="73"/>
+      <c r="AY44" s="74"/>
+      <c r="AZ44" s="72"/>
+      <c r="BA44" s="72"/>
+      <c r="BB44" s="72"/>
+      <c r="BC44" s="72"/>
+      <c r="BD44" s="73"/>
+      <c r="BE44" s="73"/>
+      <c r="BF44" s="74"/>
+      <c r="BG44" s="72"/>
+      <c r="BH44" s="75"/>
+      <c r="BI44" s="73"/>
+      <c r="BJ44" s="72"/>
+      <c r="BK44" s="73"/>
+      <c r="BL44" s="131"/>
+      <c r="BM44" s="131"/>
+      <c r="BN44" s="131"/>
+      <c r="BO44" s="131"/>
+      <c r="BP44" s="131"/>
+      <c r="BQ44" s="72"/>
+      <c r="BR44" s="73"/>
+      <c r="BS44" s="73"/>
+      <c r="BT44" s="74"/>
+      <c r="BU44" s="72"/>
+      <c r="BV44" s="72"/>
+      <c r="BW44" s="72"/>
+      <c r="BX44" s="72"/>
+      <c r="BY44" s="73"/>
+      <c r="BZ44" s="73"/>
+      <c r="CA44" s="74"/>
+      <c r="CB44" s="72"/>
+      <c r="CC44" s="72"/>
+      <c r="CD44" s="72"/>
+      <c r="CE44" s="72"/>
+      <c r="CF44" s="73"/>
+      <c r="CG44" s="73"/>
+      <c r="CH44" s="74"/>
+      <c r="CI44" s="72"/>
+      <c r="CJ44" s="72"/>
+      <c r="CK44" s="72"/>
+      <c r="CL44" s="72"/>
+      <c r="CM44" s="73"/>
+      <c r="CN44" s="86"/>
+      <c r="CO44" s="74"/>
+      <c r="CP44" s="72"/>
+      <c r="CQ44" s="72"/>
+      <c r="CR44" s="72"/>
+      <c r="CS44" s="72"/>
+      <c r="CT44" s="73"/>
+      <c r="CU44" s="73"/>
       <c r="CV44" s="16"/>
-      <c r="CW44" s="80"/>
-      <c r="CX44" s="80"/>
-      <c r="CY44" s="80"/>
-      <c r="CZ44" s="80"/>
-      <c r="DA44" s="81"/>
-      <c r="DB44" s="81"/>
-      <c r="DC44" s="80"/>
-      <c r="DD44" s="80"/>
-      <c r="DE44" s="80"/>
-      <c r="DF44" s="80"/>
-      <c r="DG44" s="80"/>
-      <c r="DH44" s="81"/>
-      <c r="DI44" s="81"/>
-      <c r="DJ44" s="80" t="s">
+      <c r="CW44" s="72"/>
+      <c r="CX44" s="72"/>
+      <c r="CY44" s="72"/>
+      <c r="CZ44" s="72"/>
+      <c r="DA44" s="73"/>
+      <c r="DB44" s="73"/>
+      <c r="DC44" s="72"/>
+      <c r="DD44" s="72"/>
+      <c r="DE44" s="72"/>
+      <c r="DF44" s="72"/>
+      <c r="DG44" s="72"/>
+      <c r="DH44" s="73"/>
+      <c r="DI44" s="73"/>
+      <c r="DJ44" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="DK44" s="80"/>
-      <c r="DL44" s="80"/>
-      <c r="DM44" s="80"/>
-      <c r="DN44" s="80"/>
-      <c r="DO44" s="81"/>
-      <c r="DP44" s="81"/>
-      <c r="DQ44" s="105"/>
-      <c r="DR44" s="79"/>
-      <c r="DS44" s="80"/>
-      <c r="DT44" s="80"/>
-      <c r="DU44" s="80"/>
-      <c r="DV44" s="81"/>
-      <c r="DW44" s="81"/>
-      <c r="DX44" s="81"/>
-      <c r="DY44" s="80"/>
-      <c r="DZ44" s="80"/>
-      <c r="EA44" s="80"/>
-      <c r="EB44" s="80"/>
-      <c r="EC44" s="81"/>
-      <c r="ED44" s="81"/>
-      <c r="EE44" s="82"/>
-      <c r="EF44" s="80"/>
-      <c r="EG44" s="80"/>
-      <c r="EH44" s="80"/>
-      <c r="EI44" s="80"/>
-      <c r="EJ44" s="81"/>
-      <c r="EK44" s="81"/>
-      <c r="EL44" s="82"/>
-      <c r="EM44" s="81"/>
-      <c r="EN44" s="80"/>
-      <c r="EO44" s="80"/>
-      <c r="EP44" s="80"/>
-      <c r="EQ44" s="81"/>
-      <c r="ER44" s="81"/>
-      <c r="ES44" s="82"/>
-      <c r="ET44" s="82"/>
-      <c r="EU44" s="82"/>
-      <c r="EV44" s="110"/>
+      <c r="DK44" s="72"/>
+      <c r="DL44" s="72"/>
+      <c r="DM44" s="72"/>
+      <c r="DN44" s="72"/>
+      <c r="DO44" s="73"/>
+      <c r="DP44" s="73"/>
+      <c r="DQ44" s="96"/>
+      <c r="DR44" s="71"/>
+      <c r="DS44" s="72"/>
+      <c r="DT44" s="72"/>
+      <c r="DU44" s="72"/>
+      <c r="DV44" s="73"/>
+      <c r="DW44" s="73"/>
+      <c r="DX44" s="73"/>
+      <c r="DY44" s="72"/>
+      <c r="DZ44" s="72"/>
+      <c r="EA44" s="72"/>
+      <c r="EB44" s="72"/>
+      <c r="EC44" s="73"/>
+      <c r="ED44" s="73"/>
+      <c r="EE44" s="74"/>
+      <c r="EF44" s="72"/>
+      <c r="EG44" s="72"/>
+      <c r="EH44" s="72"/>
+      <c r="EI44" s="72"/>
+      <c r="EJ44" s="73"/>
+      <c r="EK44" s="73"/>
+      <c r="EL44" s="74"/>
+      <c r="EM44" s="73"/>
+      <c r="EN44" s="72"/>
+      <c r="EO44" s="72"/>
+      <c r="EP44" s="72"/>
+      <c r="EQ44" s="73"/>
+      <c r="ER44" s="73"/>
+      <c r="ES44" s="74"/>
+      <c r="ET44" s="74"/>
+      <c r="EU44" s="74"/>
+      <c r="EV44" s="99"/>
     </row>
     <row r="45" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="85"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="86"/>
-      <c r="M45" s="86"/>
-      <c r="N45" s="87"/>
-      <c r="O45" s="87"/>
-      <c r="P45" s="93"/>
-      <c r="Q45" s="86"/>
-      <c r="R45" s="86"/>
-      <c r="S45" s="86"/>
-      <c r="T45" s="86"/>
-      <c r="U45" s="87"/>
-      <c r="V45" s="87"/>
-      <c r="W45" s="93"/>
-      <c r="X45" s="86"/>
-      <c r="Y45" s="86"/>
-      <c r="Z45" s="86"/>
-      <c r="AA45" s="86"/>
-      <c r="AB45" s="87"/>
-      <c r="AC45" s="87"/>
-      <c r="AD45" s="88"/>
-      <c r="AE45" s="86"/>
-      <c r="AF45" s="86"/>
-      <c r="AG45" s="92"/>
-      <c r="AH45" s="93"/>
-      <c r="AI45" s="87"/>
-      <c r="AJ45" s="87"/>
-      <c r="AK45" s="88"/>
-      <c r="AL45" s="86"/>
-      <c r="AM45" s="89" t="s">
+      <c r="B45" s="76"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="78"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="77"/>
+      <c r="L45" s="77"/>
+      <c r="M45" s="77"/>
+      <c r="N45" s="78"/>
+      <c r="O45" s="78"/>
+      <c r="P45" s="84"/>
+      <c r="Q45" s="77"/>
+      <c r="R45" s="77"/>
+      <c r="S45" s="77"/>
+      <c r="T45" s="77"/>
+      <c r="U45" s="78"/>
+      <c r="V45" s="78"/>
+      <c r="W45" s="84"/>
+      <c r="X45" s="77"/>
+      <c r="Y45" s="77"/>
+      <c r="Z45" s="77"/>
+      <c r="AA45" s="77"/>
+      <c r="AB45" s="78"/>
+      <c r="AC45" s="78"/>
+      <c r="AD45" s="79"/>
+      <c r="AE45" s="77"/>
+      <c r="AF45" s="77"/>
+      <c r="AG45" s="83"/>
+      <c r="AH45" s="84"/>
+      <c r="AI45" s="78"/>
+      <c r="AJ45" s="78"/>
+      <c r="AK45" s="79"/>
+      <c r="AL45" s="77"/>
+      <c r="AM45" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="AN45" s="86"/>
-      <c r="AO45" s="93"/>
-      <c r="AP45" s="87"/>
-      <c r="AQ45" s="87"/>
-      <c r="AR45" s="88"/>
-      <c r="AS45" s="86"/>
+      <c r="AN45" s="77"/>
+      <c r="AO45" s="84"/>
+      <c r="AP45" s="78"/>
+      <c r="AQ45" s="78"/>
+      <c r="AR45" s="79"/>
+      <c r="AS45" s="77"/>
       <c r="AT45" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AU45" s="87"/>
-      <c r="AV45" s="87"/>
-      <c r="AW45" s="87"/>
-      <c r="AX45" s="87"/>
-      <c r="AY45" s="88"/>
-      <c r="AZ45" s="86"/>
-      <c r="BA45" s="86"/>
-      <c r="BB45" s="86"/>
-      <c r="BC45" s="86"/>
-      <c r="BD45" s="87"/>
-      <c r="BE45" s="87"/>
-      <c r="BF45" s="88"/>
-      <c r="BG45" s="86"/>
-      <c r="BH45" s="94"/>
-      <c r="BI45" s="87"/>
-      <c r="BJ45" s="86"/>
-      <c r="BK45" s="87"/>
-      <c r="BL45" s="87"/>
-      <c r="BM45" s="88"/>
-      <c r="BN45" s="86"/>
-      <c r="BO45" s="86"/>
-      <c r="BP45" s="86"/>
-      <c r="BQ45" s="86"/>
-      <c r="BR45" s="87"/>
-      <c r="BS45" s="87"/>
-      <c r="BT45" s="88"/>
-      <c r="BU45" s="86"/>
-      <c r="BV45" s="86"/>
-      <c r="BW45" s="86"/>
-      <c r="BX45" s="86"/>
-      <c r="BY45" s="87"/>
-      <c r="BZ45" s="87"/>
-      <c r="CA45" s="88"/>
-      <c r="CB45" s="86"/>
-      <c r="CC45" s="86"/>
-      <c r="CD45" s="86"/>
-      <c r="CE45" s="86"/>
-      <c r="CF45" s="87"/>
-      <c r="CG45" s="87"/>
-      <c r="CH45" s="88"/>
-      <c r="CI45" s="86"/>
-      <c r="CJ45" s="86"/>
-      <c r="CK45" s="86"/>
-      <c r="CL45" s="86"/>
-      <c r="CM45" s="87"/>
-      <c r="CN45" s="85"/>
-      <c r="CO45" s="88"/>
-      <c r="CP45" s="86"/>
-      <c r="CQ45" s="86"/>
-      <c r="CR45" s="86"/>
-      <c r="CS45" s="86"/>
-      <c r="CT45" s="87"/>
-      <c r="CU45" s="87"/>
-      <c r="CV45" s="88"/>
-      <c r="CW45" s="86"/>
-      <c r="CX45" s="86"/>
-      <c r="CY45" s="86"/>
-      <c r="CZ45" s="86"/>
-      <c r="DA45" s="87"/>
-      <c r="DB45" s="87"/>
-      <c r="DC45" s="93" t="s">
+      <c r="AU45" s="78"/>
+      <c r="AV45" s="78"/>
+      <c r="AW45" s="78"/>
+      <c r="AX45" s="78"/>
+      <c r="AY45" s="79"/>
+      <c r="AZ45" s="77"/>
+      <c r="BA45" s="77"/>
+      <c r="BB45" s="77"/>
+      <c r="BC45" s="77"/>
+      <c r="BD45" s="78"/>
+      <c r="BE45" s="78"/>
+      <c r="BF45" s="79"/>
+      <c r="BG45" s="77"/>
+      <c r="BH45" s="85"/>
+      <c r="BI45" s="78"/>
+      <c r="BJ45" s="77"/>
+      <c r="BK45" s="78"/>
+      <c r="BL45" s="128"/>
+      <c r="BM45" s="128"/>
+      <c r="BN45" s="128"/>
+      <c r="BO45" s="128"/>
+      <c r="BP45" s="128"/>
+      <c r="BQ45" s="77"/>
+      <c r="BR45" s="78"/>
+      <c r="BS45" s="78"/>
+      <c r="BT45" s="79"/>
+      <c r="BU45" s="77"/>
+      <c r="BV45" s="77"/>
+      <c r="BW45" s="77"/>
+      <c r="BX45" s="77"/>
+      <c r="BY45" s="78"/>
+      <c r="BZ45" s="78"/>
+      <c r="CA45" s="79"/>
+      <c r="CB45" s="77"/>
+      <c r="CC45" s="77"/>
+      <c r="CD45" s="77"/>
+      <c r="CE45" s="77"/>
+      <c r="CF45" s="78"/>
+      <c r="CG45" s="78"/>
+      <c r="CH45" s="79"/>
+      <c r="CI45" s="77"/>
+      <c r="CJ45" s="77"/>
+      <c r="CK45" s="77"/>
+      <c r="CL45" s="77"/>
+      <c r="CM45" s="78"/>
+      <c r="CN45" s="76"/>
+      <c r="CO45" s="79"/>
+      <c r="CP45" s="77"/>
+      <c r="CQ45" s="77"/>
+      <c r="CR45" s="77"/>
+      <c r="CS45" s="77"/>
+      <c r="CT45" s="78"/>
+      <c r="CU45" s="78"/>
+      <c r="CV45" s="79"/>
+      <c r="CW45" s="77"/>
+      <c r="CX45" s="77"/>
+      <c r="CY45" s="77"/>
+      <c r="CZ45" s="77"/>
+      <c r="DA45" s="78"/>
+      <c r="DB45" s="78"/>
+      <c r="DC45" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="DD45" s="86"/>
-      <c r="DE45" s="86"/>
-      <c r="DF45" s="86"/>
-      <c r="DG45" s="86"/>
-      <c r="DH45" s="87"/>
-      <c r="DI45" s="87"/>
-      <c r="DJ45" s="88"/>
-      <c r="DK45" s="86"/>
-      <c r="DL45" s="86"/>
-      <c r="DM45" s="86"/>
-      <c r="DN45" s="86"/>
-      <c r="DO45" s="87"/>
-      <c r="DP45" s="87"/>
-      <c r="DQ45" s="94"/>
-      <c r="DR45" s="92"/>
-      <c r="DS45" s="86"/>
-      <c r="DT45" s="86"/>
-      <c r="DU45" s="86"/>
-      <c r="DV45" s="87"/>
-      <c r="DW45" s="87"/>
-      <c r="DX45" s="87"/>
-      <c r="DY45" s="86"/>
-      <c r="DZ45" s="86"/>
-      <c r="EA45" s="86"/>
-      <c r="EB45" s="86"/>
-      <c r="EC45" s="87"/>
-      <c r="ED45" s="87"/>
-      <c r="EE45" s="88"/>
-      <c r="EF45" s="86"/>
-      <c r="EG45" s="86"/>
-      <c r="EH45" s="86"/>
-      <c r="EI45" s="86"/>
-      <c r="EJ45" s="87"/>
-      <c r="EK45" s="87"/>
-      <c r="EL45" s="88"/>
-      <c r="EM45" s="87"/>
-      <c r="EN45" s="86"/>
-      <c r="EO45" s="86"/>
-      <c r="EP45" s="86"/>
-      <c r="EQ45" s="87"/>
-      <c r="ER45" s="87"/>
-      <c r="ES45" s="88"/>
-      <c r="ET45" s="88"/>
-      <c r="EU45" s="88"/>
-      <c r="EV45" s="115"/>
+      <c r="DD45" s="77"/>
+      <c r="DE45" s="77"/>
+      <c r="DF45" s="77"/>
+      <c r="DG45" s="77"/>
+      <c r="DH45" s="78"/>
+      <c r="DI45" s="78"/>
+      <c r="DJ45" s="79"/>
+      <c r="DK45" s="77"/>
+      <c r="DL45" s="77"/>
+      <c r="DM45" s="77"/>
+      <c r="DN45" s="77"/>
+      <c r="DO45" s="78"/>
+      <c r="DP45" s="78"/>
+      <c r="DQ45" s="85"/>
+      <c r="DR45" s="83"/>
+      <c r="DS45" s="77"/>
+      <c r="DT45" s="77"/>
+      <c r="DU45" s="77"/>
+      <c r="DV45" s="78"/>
+      <c r="DW45" s="78"/>
+      <c r="DX45" s="78"/>
+      <c r="DY45" s="77"/>
+      <c r="DZ45" s="77"/>
+      <c r="EA45" s="77"/>
+      <c r="EB45" s="77"/>
+      <c r="EC45" s="78"/>
+      <c r="ED45" s="78"/>
+      <c r="EE45" s="79"/>
+      <c r="EF45" s="77"/>
+      <c r="EG45" s="77"/>
+      <c r="EH45" s="77"/>
+      <c r="EI45" s="77"/>
+      <c r="EJ45" s="78"/>
+      <c r="EK45" s="78"/>
+      <c r="EL45" s="79"/>
+      <c r="EM45" s="78"/>
+      <c r="EN45" s="77"/>
+      <c r="EO45" s="77"/>
+      <c r="EP45" s="77"/>
+      <c r="EQ45" s="78"/>
+      <c r="ER45" s="78"/>
+      <c r="ES45" s="79"/>
+      <c r="ET45" s="79"/>
+      <c r="EU45" s="79"/>
+      <c r="EV45" s="103"/>
     </row>
     <row r="46" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
+      <c r="A46" s="107"/>
       <c r="B46" s="24"/>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
@@ -9090,7 +9124,7 @@
       <c r="AD46" s="13"/>
       <c r="AE46" s="16"/>
       <c r="AF46" s="16"/>
-      <c r="AG46" s="76"/>
+      <c r="AG46" s="68"/>
       <c r="AH46" s="23"/>
       <c r="AI46" s="14"/>
       <c r="AJ46" s="14"/>
@@ -9121,11 +9155,11 @@
       <c r="BI46" s="14"/>
       <c r="BJ46" s="16"/>
       <c r="BK46" s="14"/>
-      <c r="BL46" s="14"/>
-      <c r="BM46" s="13"/>
-      <c r="BN46" s="16"/>
-      <c r="BO46" s="16"/>
-      <c r="BP46" s="16"/>
+      <c r="BL46" s="125"/>
+      <c r="BM46" s="125"/>
+      <c r="BN46" s="125"/>
+      <c r="BO46" s="125"/>
+      <c r="BP46" s="125"/>
       <c r="BQ46" s="16"/>
       <c r="BR46" s="14"/>
       <c r="BS46" s="14"/>
@@ -9169,19 +9203,19 @@
       <c r="DE46" s="16"/>
       <c r="DF46" s="16"/>
       <c r="DG46" s="16"/>
-      <c r="DH46" s="65" t="s">
+      <c r="DH46" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="DI46" s="65"/>
-      <c r="DJ46" s="65"/>
-      <c r="DK46" s="65"/>
-      <c r="DL46" s="65"/>
+      <c r="DI46" s="57"/>
+      <c r="DJ46" s="57"/>
+      <c r="DK46" s="57"/>
+      <c r="DL46" s="57"/>
       <c r="DM46" s="16"/>
       <c r="DN46" s="16"/>
       <c r="DO46" s="14"/>
       <c r="DP46" s="14"/>
       <c r="DQ46" s="25"/>
-      <c r="DR46" s="76"/>
+      <c r="DR46" s="68"/>
       <c r="DS46" s="16"/>
       <c r="DT46" s="16"/>
       <c r="DU46" s="16"/>
@@ -9214,7 +9248,7 @@
       <c r="EV46" s="17"/>
     </row>
     <row r="47" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
+      <c r="A47" s="107"/>
       <c r="B47" s="24"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
@@ -9246,7 +9280,7 @@
       <c r="AD47" s="13"/>
       <c r="AE47" s="16"/>
       <c r="AF47" s="16"/>
-      <c r="AG47" s="76"/>
+      <c r="AG47" s="68"/>
       <c r="AH47" s="16"/>
       <c r="AI47" s="14"/>
       <c r="AJ47" s="14"/>
@@ -9277,11 +9311,11 @@
       <c r="BI47" s="14"/>
       <c r="BJ47" s="16"/>
       <c r="BK47" s="14"/>
-      <c r="BL47" s="14"/>
-      <c r="BM47" s="13"/>
-      <c r="BN47" s="16"/>
-      <c r="BO47" s="16"/>
-      <c r="BP47" s="16"/>
+      <c r="BL47" s="125"/>
+      <c r="BM47" s="125"/>
+      <c r="BN47" s="125"/>
+      <c r="BO47" s="125"/>
+      <c r="BP47" s="125"/>
       <c r="BQ47" s="16"/>
       <c r="BR47" s="14"/>
       <c r="BS47" s="14"/>
@@ -9337,7 +9371,7 @@
       <c r="DO47" s="14"/>
       <c r="DP47" s="14"/>
       <c r="DQ47" s="16"/>
-      <c r="DR47" s="76"/>
+      <c r="DR47" s="68"/>
       <c r="DS47" s="16"/>
       <c r="DT47" s="16"/>
       <c r="DU47" s="16"/>
@@ -9348,10 +9382,10 @@
       <c r="DZ47" s="16"/>
       <c r="EA47" s="16"/>
       <c r="EB47" s="16"/>
-      <c r="EC47" s="68" t="s">
+      <c r="EC47" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="ED47" s="113"/>
+      <c r="ED47" s="102"/>
       <c r="EE47" s="13"/>
       <c r="EF47" s="16"/>
       <c r="EG47" s="16"/>
@@ -9372,7 +9406,7 @@
       <c r="EV47" s="17"/>
     </row>
     <row r="48" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
+      <c r="A48" s="107"/>
       <c r="B48" s="24"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
@@ -9404,7 +9438,7 @@
       <c r="AD48" s="13"/>
       <c r="AE48" s="16"/>
       <c r="AF48" s="16"/>
-      <c r="AG48" s="76"/>
+      <c r="AG48" s="68"/>
       <c r="AH48" s="16"/>
       <c r="AI48" s="14"/>
       <c r="AJ48" s="14"/>
@@ -9435,11 +9469,11 @@
       <c r="BI48" s="14"/>
       <c r="BJ48" s="16"/>
       <c r="BK48" s="14"/>
-      <c r="BL48" s="14"/>
-      <c r="BM48" s="13"/>
-      <c r="BN48" s="16"/>
-      <c r="BO48" s="16"/>
-      <c r="BP48" s="16"/>
+      <c r="BL48" s="125"/>
+      <c r="BM48" s="125"/>
+      <c r="BN48" s="125"/>
+      <c r="BO48" s="125"/>
+      <c r="BP48" s="125"/>
       <c r="BQ48" s="16"/>
       <c r="BR48" s="14"/>
       <c r="BS48" s="14"/>
@@ -9495,7 +9529,7 @@
       <c r="DO48" s="14"/>
       <c r="DP48" s="14"/>
       <c r="DQ48" s="23"/>
-      <c r="DR48" s="76"/>
+      <c r="DR48" s="68"/>
       <c r="DS48" s="16"/>
       <c r="DT48" s="16"/>
       <c r="DU48" s="16"/>
@@ -9528,158 +9562,158 @@
       <c r="EV48" s="17"/>
     </row>
     <row r="49" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="41"/>
-      <c r="B49" s="95"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="81"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="80"/>
-      <c r="N49" s="81"/>
-      <c r="O49" s="81"/>
-      <c r="P49" s="82"/>
-      <c r="Q49" s="80"/>
-      <c r="R49" s="80"/>
-      <c r="S49" s="80"/>
-      <c r="T49" s="80"/>
-      <c r="U49" s="81"/>
-      <c r="V49" s="81"/>
-      <c r="W49" s="82"/>
-      <c r="X49" s="80"/>
-      <c r="Y49" s="80"/>
-      <c r="Z49" s="80"/>
-      <c r="AA49" s="80"/>
-      <c r="AB49" s="81"/>
-      <c r="AC49" s="81"/>
-      <c r="AD49" s="82"/>
-      <c r="AE49" s="80"/>
-      <c r="AF49" s="80"/>
-      <c r="AG49" s="79"/>
-      <c r="AH49" s="80"/>
-      <c r="AI49" s="81"/>
-      <c r="AJ49" s="81"/>
-      <c r="AK49" s="82"/>
-      <c r="AL49" s="80"/>
-      <c r="AM49" s="80"/>
-      <c r="AN49" s="80"/>
-      <c r="AO49" s="80"/>
-      <c r="AP49" s="81"/>
-      <c r="AQ49" s="81"/>
-      <c r="AR49" s="82"/>
-      <c r="AS49" s="80"/>
-      <c r="AT49" s="80"/>
-      <c r="AU49" s="81"/>
-      <c r="AV49" s="81"/>
-      <c r="AW49" s="81"/>
-      <c r="AX49" s="81"/>
-      <c r="AY49" s="82"/>
-      <c r="AZ49" s="80"/>
-      <c r="BA49" s="80"/>
-      <c r="BB49" s="80"/>
-      <c r="BC49" s="80"/>
-      <c r="BD49" s="81"/>
-      <c r="BE49" s="81"/>
-      <c r="BF49" s="82"/>
-      <c r="BG49" s="80"/>
-      <c r="BH49" s="83"/>
-      <c r="BI49" s="81"/>
-      <c r="BJ49" s="80"/>
-      <c r="BK49" s="81"/>
-      <c r="BL49" s="81"/>
-      <c r="BM49" s="82"/>
-      <c r="BN49" s="80"/>
-      <c r="BO49" s="80"/>
-      <c r="BP49" s="80"/>
-      <c r="BQ49" s="80"/>
-      <c r="BR49" s="81"/>
-      <c r="BS49" s="81"/>
-      <c r="BT49" s="82"/>
-      <c r="BU49" s="80"/>
-      <c r="BV49" s="80"/>
-      <c r="BW49" s="80"/>
-      <c r="BX49" s="80"/>
-      <c r="BY49" s="81"/>
-      <c r="BZ49" s="81"/>
-      <c r="CA49" s="82"/>
-      <c r="CB49" s="80"/>
-      <c r="CC49" s="80"/>
-      <c r="CD49" s="80"/>
-      <c r="CE49" s="80"/>
-      <c r="CF49" s="81"/>
-      <c r="CG49" s="81"/>
-      <c r="CH49" s="82"/>
-      <c r="CI49" s="80"/>
-      <c r="CJ49" s="80"/>
-      <c r="CK49" s="80"/>
-      <c r="CL49" s="80"/>
-      <c r="CM49" s="81"/>
-      <c r="CN49" s="95"/>
-      <c r="CO49" s="82"/>
-      <c r="CP49" s="80"/>
-      <c r="CQ49" s="80"/>
-      <c r="CR49" s="80"/>
-      <c r="CS49" s="80"/>
-      <c r="CT49" s="81"/>
-      <c r="CU49" s="81"/>
-      <c r="CV49" s="82"/>
-      <c r="CW49" s="80"/>
-      <c r="CX49" s="80"/>
-      <c r="CY49" s="80"/>
-      <c r="CZ49" s="80"/>
-      <c r="DA49" s="81"/>
-      <c r="DB49" s="81"/>
-      <c r="DC49" s="82"/>
-      <c r="DD49" s="80"/>
-      <c r="DE49" s="80"/>
-      <c r="DF49" s="80"/>
-      <c r="DG49" s="80"/>
-      <c r="DH49" s="81"/>
-      <c r="DI49" s="81"/>
-      <c r="DJ49" s="82"/>
-      <c r="DK49" s="80"/>
-      <c r="DL49" s="80"/>
-      <c r="DM49" s="80"/>
-      <c r="DN49" s="80"/>
-      <c r="DO49" s="81"/>
-      <c r="DP49" s="81"/>
-      <c r="DQ49" s="105"/>
-      <c r="DR49" s="79"/>
-      <c r="DS49" s="80"/>
-      <c r="DT49" s="80"/>
-      <c r="DU49" s="80"/>
-      <c r="DV49" s="81"/>
-      <c r="DW49" s="81"/>
-      <c r="DX49" s="81"/>
-      <c r="DY49" s="80"/>
-      <c r="DZ49" s="80"/>
-      <c r="EA49" s="80"/>
-      <c r="EB49" s="80"/>
-      <c r="EC49" s="81"/>
-      <c r="ED49" s="81"/>
-      <c r="EE49" s="82"/>
-      <c r="EF49" s="80"/>
-      <c r="EG49" s="80"/>
-      <c r="EH49" s="80"/>
-      <c r="EI49" s="80"/>
-      <c r="EJ49" s="81"/>
-      <c r="EK49" s="81"/>
-      <c r="EL49" s="82"/>
-      <c r="EM49" s="81"/>
-      <c r="EN49" s="80"/>
-      <c r="EO49" s="80"/>
-      <c r="EP49" s="80"/>
-      <c r="EQ49" s="81"/>
-      <c r="ER49" s="81"/>
-      <c r="ES49" s="82"/>
-      <c r="ET49" s="82"/>
-      <c r="EU49" s="82"/>
-      <c r="EV49" s="110"/>
+      <c r="A49" s="108"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="72"/>
+      <c r="K49" s="72"/>
+      <c r="L49" s="72"/>
+      <c r="M49" s="72"/>
+      <c r="N49" s="73"/>
+      <c r="O49" s="73"/>
+      <c r="P49" s="74"/>
+      <c r="Q49" s="72"/>
+      <c r="R49" s="72"/>
+      <c r="S49" s="72"/>
+      <c r="T49" s="72"/>
+      <c r="U49" s="73"/>
+      <c r="V49" s="73"/>
+      <c r="W49" s="74"/>
+      <c r="X49" s="72"/>
+      <c r="Y49" s="72"/>
+      <c r="Z49" s="72"/>
+      <c r="AA49" s="72"/>
+      <c r="AB49" s="73"/>
+      <c r="AC49" s="73"/>
+      <c r="AD49" s="74"/>
+      <c r="AE49" s="72"/>
+      <c r="AF49" s="72"/>
+      <c r="AG49" s="71"/>
+      <c r="AH49" s="72"/>
+      <c r="AI49" s="73"/>
+      <c r="AJ49" s="73"/>
+      <c r="AK49" s="74"/>
+      <c r="AL49" s="72"/>
+      <c r="AM49" s="72"/>
+      <c r="AN49" s="72"/>
+      <c r="AO49" s="72"/>
+      <c r="AP49" s="73"/>
+      <c r="AQ49" s="73"/>
+      <c r="AR49" s="74"/>
+      <c r="AS49" s="72"/>
+      <c r="AT49" s="72"/>
+      <c r="AU49" s="73"/>
+      <c r="AV49" s="73"/>
+      <c r="AW49" s="73"/>
+      <c r="AX49" s="73"/>
+      <c r="AY49" s="74"/>
+      <c r="AZ49" s="72"/>
+      <c r="BA49" s="72"/>
+      <c r="BB49" s="72"/>
+      <c r="BC49" s="72"/>
+      <c r="BD49" s="73"/>
+      <c r="BE49" s="73"/>
+      <c r="BF49" s="74"/>
+      <c r="BG49" s="72"/>
+      <c r="BH49" s="75"/>
+      <c r="BI49" s="73"/>
+      <c r="BJ49" s="72"/>
+      <c r="BK49" s="73"/>
+      <c r="BL49" s="131"/>
+      <c r="BM49" s="131"/>
+      <c r="BN49" s="131"/>
+      <c r="BO49" s="131"/>
+      <c r="BP49" s="131"/>
+      <c r="BQ49" s="72"/>
+      <c r="BR49" s="73"/>
+      <c r="BS49" s="73"/>
+      <c r="BT49" s="74"/>
+      <c r="BU49" s="72"/>
+      <c r="BV49" s="72"/>
+      <c r="BW49" s="72"/>
+      <c r="BX49" s="72"/>
+      <c r="BY49" s="73"/>
+      <c r="BZ49" s="73"/>
+      <c r="CA49" s="74"/>
+      <c r="CB49" s="72"/>
+      <c r="CC49" s="72"/>
+      <c r="CD49" s="72"/>
+      <c r="CE49" s="72"/>
+      <c r="CF49" s="73"/>
+      <c r="CG49" s="73"/>
+      <c r="CH49" s="74"/>
+      <c r="CI49" s="72"/>
+      <c r="CJ49" s="72"/>
+      <c r="CK49" s="72"/>
+      <c r="CL49" s="72"/>
+      <c r="CM49" s="73"/>
+      <c r="CN49" s="86"/>
+      <c r="CO49" s="74"/>
+      <c r="CP49" s="72"/>
+      <c r="CQ49" s="72"/>
+      <c r="CR49" s="72"/>
+      <c r="CS49" s="72"/>
+      <c r="CT49" s="73"/>
+      <c r="CU49" s="73"/>
+      <c r="CV49" s="74"/>
+      <c r="CW49" s="72"/>
+      <c r="CX49" s="72"/>
+      <c r="CY49" s="72"/>
+      <c r="CZ49" s="72"/>
+      <c r="DA49" s="73"/>
+      <c r="DB49" s="73"/>
+      <c r="DC49" s="74"/>
+      <c r="DD49" s="72"/>
+      <c r="DE49" s="72"/>
+      <c r="DF49" s="72"/>
+      <c r="DG49" s="72"/>
+      <c r="DH49" s="73"/>
+      <c r="DI49" s="73"/>
+      <c r="DJ49" s="74"/>
+      <c r="DK49" s="72"/>
+      <c r="DL49" s="72"/>
+      <c r="DM49" s="72"/>
+      <c r="DN49" s="72"/>
+      <c r="DO49" s="73"/>
+      <c r="DP49" s="73"/>
+      <c r="DQ49" s="96"/>
+      <c r="DR49" s="71"/>
+      <c r="DS49" s="72"/>
+      <c r="DT49" s="72"/>
+      <c r="DU49" s="72"/>
+      <c r="DV49" s="73"/>
+      <c r="DW49" s="73"/>
+      <c r="DX49" s="73"/>
+      <c r="DY49" s="72"/>
+      <c r="DZ49" s="72"/>
+      <c r="EA49" s="72"/>
+      <c r="EB49" s="72"/>
+      <c r="EC49" s="73"/>
+      <c r="ED49" s="73"/>
+      <c r="EE49" s="74"/>
+      <c r="EF49" s="72"/>
+      <c r="EG49" s="72"/>
+      <c r="EH49" s="72"/>
+      <c r="EI49" s="72"/>
+      <c r="EJ49" s="73"/>
+      <c r="EK49" s="73"/>
+      <c r="EL49" s="74"/>
+      <c r="EM49" s="73"/>
+      <c r="EN49" s="72"/>
+      <c r="EO49" s="72"/>
+      <c r="EP49" s="72"/>
+      <c r="EQ49" s="73"/>
+      <c r="ER49" s="73"/>
+      <c r="ES49" s="74"/>
+      <c r="ET49" s="74"/>
+      <c r="EU49" s="74"/>
+      <c r="EV49" s="99"/>
     </row>
     <row r="50" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/0_DOC/Femto Project schedule V1.0.xlsx
+++ b/0_DOC/Femto Project schedule V1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'20180207'!$A$1:$EH$49</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>◇PCB설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +190,10 @@
     <t>◇ 회로도 입수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>◇PCB 입고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -937,6 +941,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -970,26 +994,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1125,8 +1129,8 @@
       <xdr:rowOff>80806</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>157370</xdr:colOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>80806</xdr:rowOff>
     </xdr:to>
@@ -1137,8 +1141,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9315451" y="3493241"/>
-          <a:ext cx="847310" cy="0"/>
+          <a:off x="9134890" y="3976531"/>
+          <a:ext cx="685385" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2215,7 +2219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2250,7 +2254,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2461,9 +2465,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EV66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BX46" sqref="BX46"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BB27" sqref="BB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2499,167 +2503,167 @@
     </row>
     <row r="6" spans="1:152" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="113">
+      <c r="B6" s="129">
         <v>1</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="110"/>
-      <c r="R6" s="110"/>
-      <c r="S6" s="110"/>
-      <c r="T6" s="110"/>
-      <c r="U6" s="110"/>
-      <c r="V6" s="110"/>
-      <c r="W6" s="110"/>
-      <c r="X6" s="110"/>
-      <c r="Y6" s="110"/>
-      <c r="Z6" s="110"/>
-      <c r="AA6" s="110"/>
-      <c r="AB6" s="110"/>
-      <c r="AC6" s="110"/>
-      <c r="AD6" s="110"/>
-      <c r="AE6" s="110"/>
-      <c r="AF6" s="110"/>
-      <c r="AG6" s="113">
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="126"/>
+      <c r="AB6" s="126"/>
+      <c r="AC6" s="126"/>
+      <c r="AD6" s="126"/>
+      <c r="AE6" s="126"/>
+      <c r="AF6" s="126"/>
+      <c r="AG6" s="129">
         <v>2</v>
       </c>
-      <c r="AH6" s="110"/>
-      <c r="AI6" s="110"/>
-      <c r="AJ6" s="110"/>
-      <c r="AK6" s="110"/>
-      <c r="AL6" s="110"/>
-      <c r="AM6" s="110"/>
-      <c r="AN6" s="110"/>
-      <c r="AO6" s="110"/>
-      <c r="AP6" s="110"/>
-      <c r="AQ6" s="110"/>
-      <c r="AR6" s="110"/>
-      <c r="AS6" s="110"/>
-      <c r="AT6" s="110"/>
-      <c r="AU6" s="110"/>
-      <c r="AV6" s="110"/>
-      <c r="AW6" s="110"/>
-      <c r="AX6" s="110"/>
-      <c r="AY6" s="110"/>
-      <c r="AZ6" s="110"/>
-      <c r="BA6" s="110"/>
-      <c r="BB6" s="110"/>
-      <c r="BC6" s="110"/>
-      <c r="BD6" s="110"/>
-      <c r="BE6" s="110"/>
-      <c r="BF6" s="110"/>
-      <c r="BG6" s="110"/>
-      <c r="BH6" s="111"/>
-      <c r="BI6" s="110">
+      <c r="AH6" s="126"/>
+      <c r="AI6" s="126"/>
+      <c r="AJ6" s="126"/>
+      <c r="AK6" s="126"/>
+      <c r="AL6" s="126"/>
+      <c r="AM6" s="126"/>
+      <c r="AN6" s="126"/>
+      <c r="AO6" s="126"/>
+      <c r="AP6" s="126"/>
+      <c r="AQ6" s="126"/>
+      <c r="AR6" s="126"/>
+      <c r="AS6" s="126"/>
+      <c r="AT6" s="126"/>
+      <c r="AU6" s="126"/>
+      <c r="AV6" s="126"/>
+      <c r="AW6" s="126"/>
+      <c r="AX6" s="126"/>
+      <c r="AY6" s="126"/>
+      <c r="AZ6" s="126"/>
+      <c r="BA6" s="126"/>
+      <c r="BB6" s="126"/>
+      <c r="BC6" s="126"/>
+      <c r="BD6" s="126"/>
+      <c r="BE6" s="126"/>
+      <c r="BF6" s="126"/>
+      <c r="BG6" s="126"/>
+      <c r="BH6" s="127"/>
+      <c r="BI6" s="126">
         <v>3</v>
       </c>
-      <c r="BJ6" s="110"/>
-      <c r="BK6" s="110"/>
-      <c r="BL6" s="110"/>
-      <c r="BM6" s="110"/>
-      <c r="BN6" s="110"/>
-      <c r="BO6" s="110"/>
-      <c r="BP6" s="110"/>
-      <c r="BQ6" s="110"/>
-      <c r="BR6" s="110"/>
-      <c r="BS6" s="110"/>
-      <c r="BT6" s="110"/>
-      <c r="BU6" s="110"/>
-      <c r="BV6" s="110"/>
-      <c r="BW6" s="110"/>
-      <c r="BX6" s="110"/>
-      <c r="BY6" s="110"/>
-      <c r="BZ6" s="110"/>
-      <c r="CA6" s="110"/>
-      <c r="CB6" s="110"/>
-      <c r="CC6" s="110"/>
-      <c r="CD6" s="110"/>
-      <c r="CE6" s="110"/>
-      <c r="CF6" s="110"/>
-      <c r="CG6" s="110"/>
-      <c r="CH6" s="110"/>
-      <c r="CI6" s="110"/>
-      <c r="CJ6" s="110"/>
-      <c r="CK6" s="110"/>
-      <c r="CL6" s="110"/>
-      <c r="CM6" s="110"/>
-      <c r="CN6" s="114">
+      <c r="BJ6" s="126"/>
+      <c r="BK6" s="126"/>
+      <c r="BL6" s="126"/>
+      <c r="BM6" s="126"/>
+      <c r="BN6" s="126"/>
+      <c r="BO6" s="126"/>
+      <c r="BP6" s="126"/>
+      <c r="BQ6" s="126"/>
+      <c r="BR6" s="126"/>
+      <c r="BS6" s="126"/>
+      <c r="BT6" s="126"/>
+      <c r="BU6" s="126"/>
+      <c r="BV6" s="126"/>
+      <c r="BW6" s="126"/>
+      <c r="BX6" s="126"/>
+      <c r="BY6" s="126"/>
+      <c r="BZ6" s="126"/>
+      <c r="CA6" s="126"/>
+      <c r="CB6" s="126"/>
+      <c r="CC6" s="126"/>
+      <c r="CD6" s="126"/>
+      <c r="CE6" s="126"/>
+      <c r="CF6" s="126"/>
+      <c r="CG6" s="126"/>
+      <c r="CH6" s="126"/>
+      <c r="CI6" s="126"/>
+      <c r="CJ6" s="126"/>
+      <c r="CK6" s="126"/>
+      <c r="CL6" s="126"/>
+      <c r="CM6" s="126"/>
+      <c r="CN6" s="130">
         <v>4</v>
       </c>
-      <c r="CO6" s="115"/>
-      <c r="CP6" s="115"/>
-      <c r="CQ6" s="115"/>
-      <c r="CR6" s="115"/>
-      <c r="CS6" s="115"/>
-      <c r="CT6" s="115"/>
-      <c r="CU6" s="115"/>
-      <c r="CV6" s="115"/>
-      <c r="CW6" s="115"/>
-      <c r="CX6" s="115"/>
-      <c r="CY6" s="115"/>
-      <c r="CZ6" s="115"/>
-      <c r="DA6" s="115"/>
-      <c r="DB6" s="115"/>
-      <c r="DC6" s="115"/>
-      <c r="DD6" s="115"/>
-      <c r="DE6" s="115"/>
-      <c r="DF6" s="115"/>
-      <c r="DG6" s="115"/>
-      <c r="DH6" s="115"/>
-      <c r="DI6" s="115"/>
-      <c r="DJ6" s="115"/>
-      <c r="DK6" s="115"/>
-      <c r="DL6" s="115"/>
-      <c r="DM6" s="115"/>
-      <c r="DN6" s="115"/>
-      <c r="DO6" s="115"/>
-      <c r="DP6" s="115"/>
-      <c r="DQ6" s="116"/>
-      <c r="DR6" s="110">
+      <c r="CO6" s="131"/>
+      <c r="CP6" s="131"/>
+      <c r="CQ6" s="131"/>
+      <c r="CR6" s="131"/>
+      <c r="CS6" s="131"/>
+      <c r="CT6" s="131"/>
+      <c r="CU6" s="131"/>
+      <c r="CV6" s="131"/>
+      <c r="CW6" s="131"/>
+      <c r="CX6" s="131"/>
+      <c r="CY6" s="131"/>
+      <c r="CZ6" s="131"/>
+      <c r="DA6" s="131"/>
+      <c r="DB6" s="131"/>
+      <c r="DC6" s="131"/>
+      <c r="DD6" s="131"/>
+      <c r="DE6" s="131"/>
+      <c r="DF6" s="131"/>
+      <c r="DG6" s="131"/>
+      <c r="DH6" s="131"/>
+      <c r="DI6" s="131"/>
+      <c r="DJ6" s="131"/>
+      <c r="DK6" s="131"/>
+      <c r="DL6" s="131"/>
+      <c r="DM6" s="131"/>
+      <c r="DN6" s="131"/>
+      <c r="DO6" s="131"/>
+      <c r="DP6" s="131"/>
+      <c r="DQ6" s="132"/>
+      <c r="DR6" s="126">
         <v>5</v>
       </c>
-      <c r="DS6" s="110"/>
-      <c r="DT6" s="110"/>
-      <c r="DU6" s="110"/>
-      <c r="DV6" s="110"/>
-      <c r="DW6" s="110"/>
-      <c r="DX6" s="110"/>
-      <c r="DY6" s="110"/>
-      <c r="DZ6" s="110"/>
-      <c r="EA6" s="110"/>
-      <c r="EB6" s="110"/>
-      <c r="EC6" s="110"/>
-      <c r="ED6" s="110"/>
-      <c r="EE6" s="110"/>
-      <c r="EF6" s="110"/>
-      <c r="EG6" s="110"/>
-      <c r="EH6" s="110"/>
-      <c r="EI6" s="110"/>
-      <c r="EJ6" s="110"/>
-      <c r="EK6" s="110"/>
-      <c r="EL6" s="110"/>
-      <c r="EM6" s="110"/>
-      <c r="EN6" s="110"/>
-      <c r="EO6" s="110"/>
-      <c r="EP6" s="110"/>
-      <c r="EQ6" s="110"/>
-      <c r="ER6" s="110"/>
-      <c r="ES6" s="110"/>
-      <c r="ET6" s="110"/>
-      <c r="EU6" s="110"/>
-      <c r="EV6" s="111"/>
+      <c r="DS6" s="126"/>
+      <c r="DT6" s="126"/>
+      <c r="DU6" s="126"/>
+      <c r="DV6" s="126"/>
+      <c r="DW6" s="126"/>
+      <c r="DX6" s="126"/>
+      <c r="DY6" s="126"/>
+      <c r="DZ6" s="126"/>
+      <c r="EA6" s="126"/>
+      <c r="EB6" s="126"/>
+      <c r="EC6" s="126"/>
+      <c r="ED6" s="126"/>
+      <c r="EE6" s="126"/>
+      <c r="EF6" s="126"/>
+      <c r="EG6" s="126"/>
+      <c r="EH6" s="126"/>
+      <c r="EI6" s="126"/>
+      <c r="EJ6" s="126"/>
+      <c r="EK6" s="126"/>
+      <c r="EL6" s="126"/>
+      <c r="EM6" s="126"/>
+      <c r="EN6" s="126"/>
+      <c r="EO6" s="126"/>
+      <c r="EP6" s="126"/>
+      <c r="EQ6" s="126"/>
+      <c r="ER6" s="126"/>
+      <c r="ES6" s="126"/>
+      <c r="ET6" s="126"/>
+      <c r="EU6" s="126"/>
+      <c r="EV6" s="127"/>
     </row>
     <row r="7" spans="1:152" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
@@ -2849,19 +2853,19 @@
       <c r="BK7" s="10">
         <v>3</v>
       </c>
-      <c r="BL7" s="117">
+      <c r="BL7" s="106">
         <v>4</v>
       </c>
-      <c r="BM7" s="118">
+      <c r="BM7" s="107">
         <v>5</v>
       </c>
-      <c r="BN7" s="118">
+      <c r="BN7" s="107">
         <v>6</v>
       </c>
-      <c r="BO7" s="118">
+      <c r="BO7" s="107">
         <v>7</v>
       </c>
-      <c r="BP7" s="118">
+      <c r="BP7" s="107">
         <v>8</v>
       </c>
       <c r="BQ7" s="8">
@@ -3118,7 +3122,7 @@
       </c>
     </row>
     <row r="8" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="123" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="34"/>
@@ -3189,11 +3193,11 @@
       <c r="BI8" s="38"/>
       <c r="BJ8" s="35"/>
       <c r="BK8" s="38"/>
-      <c r="BL8" s="119"/>
-      <c r="BM8" s="120"/>
-      <c r="BN8" s="119"/>
-      <c r="BO8" s="121"/>
-      <c r="BP8" s="119"/>
+      <c r="BL8" s="108"/>
+      <c r="BM8" s="109"/>
+      <c r="BN8" s="108"/>
+      <c r="BO8" s="110"/>
+      <c r="BP8" s="108"/>
       <c r="BQ8" s="35"/>
       <c r="BR8" s="38"/>
       <c r="BS8" s="38"/>
@@ -3280,7 +3284,7 @@
       <c r="EV8" s="100"/>
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A9" s="107"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="29"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
@@ -3347,11 +3351,11 @@
       <c r="BI9" s="31"/>
       <c r="BJ9" s="30"/>
       <c r="BK9" s="31"/>
-      <c r="BL9" s="122"/>
-      <c r="BM9" s="122"/>
-      <c r="BN9" s="122"/>
-      <c r="BO9" s="122"/>
-      <c r="BP9" s="122"/>
+      <c r="BL9" s="111"/>
+      <c r="BM9" s="111"/>
+      <c r="BN9" s="111"/>
+      <c r="BO9" s="111"/>
+      <c r="BP9" s="111"/>
       <c r="BQ9" s="30"/>
       <c r="BR9" s="31"/>
       <c r="BS9" s="31"/>
@@ -3438,7 +3442,7 @@
       <c r="EV9" s="33"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A10" s="107"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="29"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -3505,11 +3509,11 @@
       <c r="BI10" s="31"/>
       <c r="BJ10" s="30"/>
       <c r="BK10" s="31"/>
-      <c r="BL10" s="122"/>
-      <c r="BM10" s="122"/>
-      <c r="BN10" s="122"/>
-      <c r="BO10" s="122"/>
-      <c r="BP10" s="122"/>
+      <c r="BL10" s="111"/>
+      <c r="BM10" s="111"/>
+      <c r="BN10" s="111"/>
+      <c r="BO10" s="111"/>
+      <c r="BP10" s="111"/>
       <c r="BQ10" s="30"/>
       <c r="BR10" s="31"/>
       <c r="BS10" s="31"/>
@@ -3596,7 +3600,7 @@
       <c r="EV10" s="33"/>
     </row>
     <row r="11" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A11" s="107"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="29"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
@@ -3663,11 +3667,11 @@
       <c r="BI11" s="31"/>
       <c r="BJ11" s="30"/>
       <c r="BK11" s="31"/>
-      <c r="BL11" s="122"/>
-      <c r="BM11" s="122"/>
-      <c r="BN11" s="122"/>
-      <c r="BO11" s="122"/>
-      <c r="BP11" s="122"/>
+      <c r="BL11" s="111"/>
+      <c r="BM11" s="111"/>
+      <c r="BN11" s="111"/>
+      <c r="BO11" s="111"/>
+      <c r="BP11" s="111"/>
       <c r="BQ11" s="30"/>
       <c r="BR11" s="31"/>
       <c r="BS11" s="31"/>
@@ -3754,7 +3758,7 @@
       <c r="EV11" s="33"/>
     </row>
     <row r="12" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A12" s="107"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="29"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -3821,11 +3825,11 @@
       <c r="BI12" s="31"/>
       <c r="BJ12" s="30"/>
       <c r="BK12" s="31"/>
-      <c r="BL12" s="122"/>
-      <c r="BM12" s="122"/>
-      <c r="BN12" s="122"/>
-      <c r="BO12" s="122"/>
-      <c r="BP12" s="122"/>
+      <c r="BL12" s="111"/>
+      <c r="BM12" s="111"/>
+      <c r="BN12" s="111"/>
+      <c r="BO12" s="111"/>
+      <c r="BP12" s="111"/>
       <c r="BQ12" s="30"/>
       <c r="BR12" s="31"/>
       <c r="BS12" s="31"/>
@@ -3912,7 +3916,7 @@
       <c r="EV12" s="33"/>
     </row>
     <row r="13" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A13" s="107"/>
+      <c r="A13" s="123"/>
       <c r="B13" s="29"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -3977,11 +3981,11 @@
       <c r="BI13" s="31"/>
       <c r="BJ13" s="30"/>
       <c r="BK13" s="31"/>
-      <c r="BL13" s="122"/>
-      <c r="BM13" s="122"/>
-      <c r="BN13" s="122"/>
-      <c r="BO13" s="122"/>
-      <c r="BP13" s="122"/>
+      <c r="BL13" s="111"/>
+      <c r="BM13" s="111"/>
+      <c r="BN13" s="111"/>
+      <c r="BO13" s="111"/>
+      <c r="BP13" s="111"/>
       <c r="BQ13" s="30"/>
       <c r="BR13" s="31"/>
       <c r="BS13" s="31"/>
@@ -4068,7 +4072,7 @@
       <c r="EV13" s="33"/>
     </row>
     <row r="14" spans="1:152" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="112"/>
+      <c r="A14" s="128"/>
       <c r="B14" s="51"/>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -4131,11 +4135,11 @@
       <c r="BI14" s="53"/>
       <c r="BJ14" s="52"/>
       <c r="BK14" s="53"/>
-      <c r="BL14" s="123"/>
-      <c r="BM14" s="123"/>
-      <c r="BN14" s="123"/>
-      <c r="BO14" s="123"/>
-      <c r="BP14" s="123"/>
+      <c r="BL14" s="112"/>
+      <c r="BM14" s="112"/>
+      <c r="BN14" s="112"/>
+      <c r="BO14" s="112"/>
+      <c r="BP14" s="112"/>
       <c r="BQ14" s="52"/>
       <c r="BR14" s="53"/>
       <c r="BS14" s="53"/>
@@ -4222,7 +4226,7 @@
       <c r="EV14" s="101"/>
     </row>
     <row r="15" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="125" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="43"/>
@@ -4289,11 +4293,11 @@
       <c r="BI15" s="45"/>
       <c r="BJ15" s="47"/>
       <c r="BK15" s="45"/>
-      <c r="BL15" s="124"/>
-      <c r="BM15" s="124"/>
-      <c r="BN15" s="124"/>
-      <c r="BO15" s="124"/>
-      <c r="BP15" s="124"/>
+      <c r="BL15" s="113"/>
+      <c r="BM15" s="113"/>
+      <c r="BN15" s="113"/>
+      <c r="BO15" s="113"/>
+      <c r="BP15" s="113"/>
       <c r="BQ15" s="47" t="s">
         <v>9</v>
       </c>
@@ -4384,7 +4388,7 @@
       <c r="EV15" s="103"/>
     </row>
     <row r="16" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A16" s="107"/>
+      <c r="A16" s="123"/>
       <c r="B16" s="24"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -4449,11 +4453,11 @@
       <c r="BI16" s="14"/>
       <c r="BJ16" s="16"/>
       <c r="BK16" s="14"/>
-      <c r="BL16" s="125"/>
-      <c r="BM16" s="125"/>
-      <c r="BN16" s="125"/>
-      <c r="BO16" s="125"/>
-      <c r="BP16" s="125"/>
+      <c r="BL16" s="114"/>
+      <c r="BM16" s="114"/>
+      <c r="BN16" s="114"/>
+      <c r="BO16" s="114"/>
+      <c r="BP16" s="114"/>
       <c r="BQ16" s="16" t="s">
         <v>0</v>
       </c>
@@ -4542,7 +4546,7 @@
       <c r="EV16" s="17"/>
     </row>
     <row r="17" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A17" s="107"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="24"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -4605,11 +4609,11 @@
       <c r="BI17" s="14"/>
       <c r="BJ17" s="16"/>
       <c r="BK17" s="14"/>
-      <c r="BL17" s="125"/>
-      <c r="BM17" s="125"/>
-      <c r="BN17" s="125"/>
-      <c r="BO17" s="125"/>
-      <c r="BP17" s="125"/>
+      <c r="BL17" s="114"/>
+      <c r="BM17" s="114"/>
+      <c r="BN17" s="114"/>
+      <c r="BO17" s="114"/>
+      <c r="BP17" s="114"/>
       <c r="BQ17" s="16"/>
       <c r="BR17" s="14"/>
       <c r="BS17" s="14"/>
@@ -4702,7 +4706,7 @@
       <c r="EV17" s="17"/>
     </row>
     <row r="18" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A18" s="107"/>
+      <c r="A18" s="123"/>
       <c r="B18" s="24"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -4765,11 +4769,11 @@
       <c r="BI18" s="14"/>
       <c r="BJ18" s="16"/>
       <c r="BK18" s="14"/>
-      <c r="BL18" s="125"/>
-      <c r="BM18" s="126"/>
-      <c r="BN18" s="125"/>
-      <c r="BO18" s="125"/>
-      <c r="BP18" s="125"/>
+      <c r="BL18" s="114"/>
+      <c r="BM18" s="115"/>
+      <c r="BN18" s="114"/>
+      <c r="BO18" s="114"/>
+      <c r="BP18" s="114"/>
       <c r="BQ18" s="16"/>
       <c r="BR18" s="14"/>
       <c r="BS18" s="14"/>
@@ -4858,7 +4862,7 @@
       <c r="EV18" s="17"/>
     </row>
     <row r="19" spans="1:152" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="107"/>
+      <c r="A19" s="123"/>
       <c r="B19" s="26"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -4921,11 +4925,11 @@
       <c r="BI19" s="20"/>
       <c r="BJ19" s="21"/>
       <c r="BK19" s="20"/>
-      <c r="BL19" s="127"/>
-      <c r="BM19" s="125"/>
-      <c r="BN19" s="127"/>
-      <c r="BO19" s="127"/>
-      <c r="BP19" s="127"/>
+      <c r="BL19" s="116"/>
+      <c r="BM19" s="114"/>
+      <c r="BN19" s="116"/>
+      <c r="BO19" s="116"/>
+      <c r="BP19" s="116"/>
       <c r="BQ19" s="21"/>
       <c r="BR19" s="20"/>
       <c r="BS19" s="20"/>
@@ -5014,7 +5018,7 @@
       <c r="EV19" s="99"/>
     </row>
     <row r="20" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="109" t="s">
+      <c r="A20" s="125" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="76"/>
@@ -5085,11 +5089,11 @@
       <c r="BI20" s="78"/>
       <c r="BJ20" s="77"/>
       <c r="BK20" s="78"/>
-      <c r="BL20" s="128"/>
-      <c r="BM20" s="128"/>
-      <c r="BN20" s="128"/>
-      <c r="BO20" s="129"/>
-      <c r="BP20" s="128"/>
+      <c r="BL20" s="117"/>
+      <c r="BM20" s="117"/>
+      <c r="BN20" s="117"/>
+      <c r="BO20" s="118"/>
+      <c r="BP20" s="117"/>
       <c r="BQ20" s="77"/>
       <c r="BR20" s="78"/>
       <c r="BS20" s="78"/>
@@ -5176,7 +5180,7 @@
       <c r="EV20" s="103"/>
     </row>
     <row r="21" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="107"/>
+      <c r="A21" s="123"/>
       <c r="B21" s="24"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -5243,11 +5247,11 @@
       <c r="BI21" s="14"/>
       <c r="BJ21" s="16"/>
       <c r="BK21" s="14"/>
-      <c r="BL21" s="125"/>
-      <c r="BM21" s="125"/>
-      <c r="BN21" s="125"/>
-      <c r="BO21" s="125"/>
-      <c r="BP21" s="125"/>
+      <c r="BL21" s="114"/>
+      <c r="BM21" s="114"/>
+      <c r="BN21" s="114"/>
+      <c r="BO21" s="114"/>
+      <c r="BP21" s="114"/>
       <c r="BQ21" s="16"/>
       <c r="BR21" s="14"/>
       <c r="BS21" s="14"/>
@@ -5334,7 +5338,7 @@
       <c r="EV21" s="17"/>
     </row>
     <row r="22" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="107"/>
+      <c r="A22" s="123"/>
       <c r="B22" s="24"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -5399,11 +5403,11 @@
       <c r="BI22" s="14"/>
       <c r="BJ22" s="16"/>
       <c r="BK22" s="14"/>
-      <c r="BL22" s="125"/>
-      <c r="BM22" s="125"/>
-      <c r="BN22" s="125"/>
-      <c r="BO22" s="125"/>
-      <c r="BP22" s="125"/>
+      <c r="BL22" s="114"/>
+      <c r="BM22" s="114"/>
+      <c r="BN22" s="114"/>
+      <c r="BO22" s="114"/>
+      <c r="BP22" s="114"/>
       <c r="BQ22" s="16"/>
       <c r="BR22" s="14"/>
       <c r="BS22" s="14"/>
@@ -5490,7 +5494,7 @@
       <c r="EV22" s="17"/>
     </row>
     <row r="23" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="107"/>
+      <c r="A23" s="123"/>
       <c r="B23" s="24"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -5537,7 +5541,9 @@
       <c r="AQ23" s="14"/>
       <c r="AR23" s="13"/>
       <c r="AS23" s="13"/>
-      <c r="AT23" s="13"/>
+      <c r="AT23" s="91" t="s">
+        <v>43</v>
+      </c>
       <c r="AU23" s="14"/>
       <c r="AV23" s="14"/>
       <c r="AW23" s="14"/>
@@ -5555,11 +5561,11 @@
       <c r="BI23" s="14"/>
       <c r="BJ23" s="13"/>
       <c r="BK23" s="14"/>
-      <c r="BL23" s="125"/>
-      <c r="BM23" s="125"/>
-      <c r="BN23" s="125"/>
-      <c r="BO23" s="125"/>
-      <c r="BP23" s="125"/>
+      <c r="BL23" s="114"/>
+      <c r="BM23" s="114"/>
+      <c r="BN23" s="114"/>
+      <c r="BO23" s="114"/>
+      <c r="BP23" s="114"/>
       <c r="BQ23" s="13"/>
       <c r="BR23" s="14"/>
       <c r="BS23" s="14"/>
@@ -5646,7 +5652,7 @@
       <c r="EV23" s="17"/>
     </row>
     <row r="24" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="108"/>
+      <c r="A24" s="124"/>
       <c r="B24" s="92"/>
       <c r="C24" s="93"/>
       <c r="D24" s="93"/>
@@ -5709,11 +5715,11 @@
       <c r="BI24" s="94"/>
       <c r="BJ24" s="93"/>
       <c r="BK24" s="94"/>
-      <c r="BL24" s="130"/>
-      <c r="BM24" s="130"/>
-      <c r="BN24" s="130"/>
-      <c r="BO24" s="130"/>
-      <c r="BP24" s="130"/>
+      <c r="BL24" s="119"/>
+      <c r="BM24" s="119"/>
+      <c r="BN24" s="119"/>
+      <c r="BO24" s="119"/>
+      <c r="BP24" s="119"/>
       <c r="BQ24" s="93"/>
       <c r="BR24" s="94"/>
       <c r="BS24" s="94"/>
@@ -5800,7 +5806,7 @@
       <c r="EV24" s="99"/>
     </row>
     <row r="25" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="109" t="s">
+      <c r="A25" s="125" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="76"/>
@@ -5865,11 +5871,11 @@
       <c r="BI25" s="78"/>
       <c r="BJ25" s="77"/>
       <c r="BK25" s="78"/>
-      <c r="BL25" s="128"/>
-      <c r="BM25" s="128"/>
-      <c r="BN25" s="128"/>
-      <c r="BO25" s="128"/>
-      <c r="BP25" s="128"/>
+      <c r="BL25" s="117"/>
+      <c r="BM25" s="117"/>
+      <c r="BN25" s="117"/>
+      <c r="BO25" s="117"/>
+      <c r="BP25" s="117"/>
       <c r="BQ25" s="77"/>
       <c r="BR25" s="78"/>
       <c r="BS25" s="78"/>
@@ -5956,7 +5962,7 @@
       <c r="EV25" s="103"/>
     </row>
     <row r="26" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="107"/>
+      <c r="A26" s="123"/>
       <c r="B26" s="24"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -6019,11 +6025,11 @@
       <c r="BI26" s="14"/>
       <c r="BJ26" s="16"/>
       <c r="BK26" s="14"/>
-      <c r="BL26" s="125"/>
-      <c r="BM26" s="125"/>
-      <c r="BN26" s="125"/>
-      <c r="BO26" s="125"/>
-      <c r="BP26" s="125"/>
+      <c r="BL26" s="114"/>
+      <c r="BM26" s="114"/>
+      <c r="BN26" s="114"/>
+      <c r="BO26" s="114"/>
+      <c r="BP26" s="114"/>
       <c r="BQ26" s="16"/>
       <c r="BR26" s="14"/>
       <c r="BS26" s="14"/>
@@ -6110,7 +6116,7 @@
       <c r="EV26" s="17"/>
     </row>
     <row r="27" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="107"/>
+      <c r="A27" s="123"/>
       <c r="B27" s="24"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -6173,11 +6179,11 @@
       <c r="BI27" s="14"/>
       <c r="BJ27" s="16"/>
       <c r="BK27" s="14"/>
-      <c r="BL27" s="125"/>
-      <c r="BM27" s="125"/>
-      <c r="BN27" s="125"/>
-      <c r="BO27" s="125"/>
-      <c r="BP27" s="125"/>
+      <c r="BL27" s="114"/>
+      <c r="BM27" s="114"/>
+      <c r="BN27" s="114"/>
+      <c r="BO27" s="114"/>
+      <c r="BP27" s="114"/>
       <c r="BQ27" s="16"/>
       <c r="BR27" s="14"/>
       <c r="BS27" s="14"/>
@@ -6264,7 +6270,7 @@
       <c r="EV27" s="17"/>
     </row>
     <row r="28" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="107"/>
+      <c r="A28" s="123"/>
       <c r="B28" s="24"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -6327,11 +6333,11 @@
       <c r="BI28" s="14"/>
       <c r="BJ28" s="16"/>
       <c r="BK28" s="14"/>
-      <c r="BL28" s="125"/>
-      <c r="BM28" s="125"/>
-      <c r="BN28" s="125"/>
-      <c r="BO28" s="125"/>
-      <c r="BP28" s="125"/>
+      <c r="BL28" s="114"/>
+      <c r="BM28" s="114"/>
+      <c r="BN28" s="114"/>
+      <c r="BO28" s="114"/>
+      <c r="BP28" s="114"/>
       <c r="BQ28" s="16"/>
       <c r="BR28" s="14"/>
       <c r="BS28" s="14"/>
@@ -6418,7 +6424,7 @@
       <c r="EV28" s="17"/>
     </row>
     <row r="29" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="107"/>
+      <c r="A29" s="123"/>
       <c r="B29" s="86"/>
       <c r="C29" s="72"/>
       <c r="D29" s="72"/>
@@ -6481,11 +6487,11 @@
       <c r="BI29" s="73"/>
       <c r="BJ29" s="72"/>
       <c r="BK29" s="73"/>
-      <c r="BL29" s="131"/>
-      <c r="BM29" s="131"/>
-      <c r="BN29" s="131"/>
-      <c r="BO29" s="131"/>
-      <c r="BP29" s="131"/>
+      <c r="BL29" s="120"/>
+      <c r="BM29" s="120"/>
+      <c r="BN29" s="120"/>
+      <c r="BO29" s="120"/>
+      <c r="BP29" s="120"/>
       <c r="BQ29" s="72"/>
       <c r="BR29" s="73"/>
       <c r="BS29" s="73"/>
@@ -6572,7 +6578,7 @@
       <c r="EV29" s="99"/>
     </row>
     <row r="30" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="106" t="s">
+      <c r="A30" s="122" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="76"/>
@@ -6643,13 +6649,13 @@
       <c r="BI30" s="78"/>
       <c r="BJ30" s="77"/>
       <c r="BK30" s="78"/>
-      <c r="BL30" s="128"/>
-      <c r="BM30" s="132" t="s">
+      <c r="BL30" s="117"/>
+      <c r="BM30" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="BN30" s="128"/>
-      <c r="BO30" s="128"/>
-      <c r="BP30" s="128"/>
+      <c r="BN30" s="117"/>
+      <c r="BO30" s="117"/>
+      <c r="BP30" s="117"/>
       <c r="BQ30" s="77"/>
       <c r="BR30" s="78"/>
       <c r="BS30" s="78"/>
@@ -6738,7 +6744,7 @@
       <c r="EV30" s="103"/>
     </row>
     <row r="31" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="107"/>
+      <c r="A31" s="123"/>
       <c r="B31" s="24"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -6803,11 +6809,11 @@
       <c r="BI31" s="14"/>
       <c r="BJ31" s="16"/>
       <c r="BK31" s="14"/>
-      <c r="BL31" s="125"/>
-      <c r="BM31" s="125"/>
-      <c r="BN31" s="125"/>
-      <c r="BO31" s="125"/>
-      <c r="BP31" s="125"/>
+      <c r="BL31" s="114"/>
+      <c r="BM31" s="114"/>
+      <c r="BN31" s="114"/>
+      <c r="BO31" s="114"/>
+      <c r="BP31" s="114"/>
       <c r="BQ31" s="16"/>
       <c r="BR31" s="14"/>
       <c r="BS31" s="14"/>
@@ -6896,7 +6902,7 @@
       <c r="EV31" s="17"/>
     </row>
     <row r="32" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="107"/>
+      <c r="A32" s="123"/>
       <c r="B32" s="24"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -6959,11 +6965,11 @@
       <c r="BI32" s="14"/>
       <c r="BJ32" s="16"/>
       <c r="BK32" s="14"/>
-      <c r="BL32" s="125"/>
-      <c r="BM32" s="125"/>
-      <c r="BN32" s="125"/>
-      <c r="BO32" s="125"/>
-      <c r="BP32" s="125"/>
+      <c r="BL32" s="114"/>
+      <c r="BM32" s="114"/>
+      <c r="BN32" s="114"/>
+      <c r="BO32" s="114"/>
+      <c r="BP32" s="114"/>
       <c r="BQ32" s="16"/>
       <c r="BR32" s="14"/>
       <c r="BS32" s="14"/>
@@ -7054,7 +7060,7 @@
       <c r="EV32" s="17"/>
     </row>
     <row r="33" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="107"/>
+      <c r="A33" s="123"/>
       <c r="B33" s="24"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -7117,11 +7123,11 @@
       <c r="BI33" s="14"/>
       <c r="BJ33" s="16"/>
       <c r="BK33" s="14"/>
-      <c r="BL33" s="125"/>
-      <c r="BM33" s="125"/>
-      <c r="BN33" s="125"/>
-      <c r="BO33" s="125"/>
-      <c r="BP33" s="125"/>
+      <c r="BL33" s="114"/>
+      <c r="BM33" s="114"/>
+      <c r="BN33" s="114"/>
+      <c r="BO33" s="114"/>
+      <c r="BP33" s="114"/>
       <c r="BQ33" s="16"/>
       <c r="BR33" s="14"/>
       <c r="BS33" s="14"/>
@@ -7210,7 +7216,7 @@
       <c r="EV33" s="17"/>
     </row>
     <row r="34" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="108"/>
+      <c r="A34" s="124"/>
       <c r="B34" s="86"/>
       <c r="C34" s="72"/>
       <c r="D34" s="72"/>
@@ -7273,11 +7279,11 @@
       <c r="BI34" s="73"/>
       <c r="BJ34" s="72"/>
       <c r="BK34" s="73"/>
-      <c r="BL34" s="131"/>
-      <c r="BM34" s="131"/>
-      <c r="BN34" s="131"/>
-      <c r="BO34" s="131"/>
-      <c r="BP34" s="131"/>
+      <c r="BL34" s="120"/>
+      <c r="BM34" s="120"/>
+      <c r="BN34" s="120"/>
+      <c r="BO34" s="120"/>
+      <c r="BP34" s="120"/>
       <c r="BQ34" s="72"/>
       <c r="BR34" s="73"/>
       <c r="BS34" s="73"/>
@@ -7366,7 +7372,7 @@
       <c r="EV34" s="99"/>
     </row>
     <row r="35" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="107" t="s">
+      <c r="A35" s="123" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="76"/>
@@ -7433,11 +7439,11 @@
       <c r="BI35" s="78"/>
       <c r="BJ35" s="77"/>
       <c r="BK35" s="78"/>
-      <c r="BL35" s="128"/>
-      <c r="BM35" s="128"/>
-      <c r="BN35" s="128"/>
-      <c r="BO35" s="128"/>
-      <c r="BP35" s="128"/>
+      <c r="BL35" s="117"/>
+      <c r="BM35" s="117"/>
+      <c r="BN35" s="117"/>
+      <c r="BO35" s="117"/>
+      <c r="BP35" s="117"/>
       <c r="BQ35" s="77"/>
       <c r="BR35" s="78"/>
       <c r="BS35" s="78"/>
@@ -7524,7 +7530,7 @@
       <c r="EV35" s="103"/>
     </row>
     <row r="36" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="107"/>
+      <c r="A36" s="123"/>
       <c r="B36" s="24"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -7589,11 +7595,11 @@
       <c r="BI36" s="14"/>
       <c r="BJ36" s="16"/>
       <c r="BK36" s="14"/>
-      <c r="BL36" s="125"/>
-      <c r="BM36" s="125"/>
-      <c r="BN36" s="125"/>
-      <c r="BO36" s="125"/>
-      <c r="BP36" s="125"/>
+      <c r="BL36" s="114"/>
+      <c r="BM36" s="114"/>
+      <c r="BN36" s="114"/>
+      <c r="BO36" s="114"/>
+      <c r="BP36" s="114"/>
       <c r="BQ36" s="16"/>
       <c r="BR36" s="14"/>
       <c r="BS36" s="14"/>
@@ -7680,7 +7686,7 @@
       <c r="EV36" s="17"/>
     </row>
     <row r="37" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="107"/>
+      <c r="A37" s="123"/>
       <c r="B37" s="24"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -7743,11 +7749,11 @@
       <c r="BI37" s="14"/>
       <c r="BJ37" s="16"/>
       <c r="BK37" s="14"/>
-      <c r="BL37" s="125"/>
-      <c r="BM37" s="125"/>
-      <c r="BN37" s="125"/>
-      <c r="BO37" s="125"/>
-      <c r="BP37" s="125"/>
+      <c r="BL37" s="114"/>
+      <c r="BM37" s="114"/>
+      <c r="BN37" s="114"/>
+      <c r="BO37" s="114"/>
+      <c r="BP37" s="114"/>
       <c r="BQ37" s="16"/>
       <c r="BR37" s="14"/>
       <c r="BS37" s="14"/>
@@ -7834,7 +7840,7 @@
       <c r="EV37" s="17"/>
     </row>
     <row r="38" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="107"/>
+      <c r="A38" s="123"/>
       <c r="B38" s="24"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -7897,11 +7903,11 @@
       <c r="BI38" s="14"/>
       <c r="BJ38" s="16"/>
       <c r="BK38" s="14"/>
-      <c r="BL38" s="125"/>
-      <c r="BM38" s="125"/>
-      <c r="BN38" s="125"/>
-      <c r="BO38" s="125"/>
-      <c r="BP38" s="125"/>
+      <c r="BL38" s="114"/>
+      <c r="BM38" s="114"/>
+      <c r="BN38" s="114"/>
+      <c r="BO38" s="114"/>
+      <c r="BP38" s="114"/>
       <c r="BQ38" s="16"/>
       <c r="BR38" s="14"/>
       <c r="BS38" s="14"/>
@@ -7988,7 +7994,7 @@
       <c r="EV38" s="17"/>
     </row>
     <row r="39" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="107"/>
+      <c r="A39" s="123"/>
       <c r="B39" s="86"/>
       <c r="C39" s="72"/>
       <c r="D39" s="72"/>
@@ -8051,11 +8057,11 @@
       <c r="BI39" s="73"/>
       <c r="BJ39" s="72"/>
       <c r="BK39" s="73"/>
-      <c r="BL39" s="131"/>
-      <c r="BM39" s="131"/>
-      <c r="BN39" s="131"/>
-      <c r="BO39" s="131"/>
-      <c r="BP39" s="131"/>
+      <c r="BL39" s="120"/>
+      <c r="BM39" s="120"/>
+      <c r="BN39" s="120"/>
+      <c r="BO39" s="120"/>
+      <c r="BP39" s="120"/>
       <c r="BQ39" s="72"/>
       <c r="BR39" s="73"/>
       <c r="BS39" s="73"/>
@@ -8142,7 +8148,7 @@
       <c r="EV39" s="99"/>
     </row>
     <row r="40" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="106" t="s">
+      <c r="A40" s="122" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="76"/>
@@ -8211,11 +8217,11 @@
       <c r="BI40" s="78"/>
       <c r="BJ40" s="77"/>
       <c r="BK40" s="78"/>
-      <c r="BL40" s="128"/>
-      <c r="BM40" s="132"/>
-      <c r="BN40" s="128"/>
-      <c r="BO40" s="128"/>
-      <c r="BP40" s="128"/>
+      <c r="BL40" s="117"/>
+      <c r="BM40" s="121"/>
+      <c r="BN40" s="117"/>
+      <c r="BO40" s="117"/>
+      <c r="BP40" s="117"/>
       <c r="BQ40" s="77"/>
       <c r="BR40" s="78"/>
       <c r="BS40" s="78"/>
@@ -8304,7 +8310,7 @@
       <c r="EV40" s="103"/>
     </row>
     <row r="41" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="107"/>
+      <c r="A41" s="123"/>
       <c r="B41" s="24"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -8367,11 +8373,11 @@
       <c r="BI41" s="14"/>
       <c r="BJ41" s="16"/>
       <c r="BK41" s="14"/>
-      <c r="BL41" s="125"/>
-      <c r="BM41" s="125"/>
-      <c r="BN41" s="125"/>
-      <c r="BO41" s="125"/>
-      <c r="BP41" s="125"/>
+      <c r="BL41" s="114"/>
+      <c r="BM41" s="114"/>
+      <c r="BN41" s="114"/>
+      <c r="BO41" s="114"/>
+      <c r="BP41" s="114"/>
       <c r="BQ41" s="16"/>
       <c r="BR41" s="14"/>
       <c r="BS41" s="14"/>
@@ -8460,7 +8466,7 @@
       <c r="EV41" s="17"/>
     </row>
     <row r="42" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="107"/>
+      <c r="A42" s="123"/>
       <c r="B42" s="24"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
@@ -8523,11 +8529,11 @@
       <c r="BI42" s="14"/>
       <c r="BJ42" s="16"/>
       <c r="BK42" s="14"/>
-      <c r="BL42" s="125"/>
-      <c r="BM42" s="125"/>
-      <c r="BN42" s="125"/>
-      <c r="BO42" s="125"/>
-      <c r="BP42" s="125"/>
+      <c r="BL42" s="114"/>
+      <c r="BM42" s="114"/>
+      <c r="BN42" s="114"/>
+      <c r="BO42" s="114"/>
+      <c r="BP42" s="114"/>
       <c r="BQ42" s="16"/>
       <c r="BR42" s="14"/>
       <c r="BS42" s="14"/>
@@ -8618,7 +8624,7 @@
       <c r="EV42" s="17"/>
     </row>
     <row r="43" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="107"/>
+      <c r="A43" s="123"/>
       <c r="B43" s="24"/>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -8681,11 +8687,11 @@
       <c r="BI43" s="14"/>
       <c r="BJ43" s="16"/>
       <c r="BK43" s="14"/>
-      <c r="BL43" s="125"/>
-      <c r="BM43" s="125"/>
-      <c r="BN43" s="125"/>
-      <c r="BO43" s="125"/>
-      <c r="BP43" s="125"/>
+      <c r="BL43" s="114"/>
+      <c r="BM43" s="114"/>
+      <c r="BN43" s="114"/>
+      <c r="BO43" s="114"/>
+      <c r="BP43" s="114"/>
       <c r="BQ43" s="16"/>
       <c r="BR43" s="14"/>
       <c r="BS43" s="14"/>
@@ -8774,7 +8780,7 @@
       <c r="EV43" s="17"/>
     </row>
     <row r="44" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="108"/>
+      <c r="A44" s="124"/>
       <c r="B44" s="86"/>
       <c r="C44" s="72"/>
       <c r="D44" s="72"/>
@@ -8837,11 +8843,11 @@
       <c r="BI44" s="73"/>
       <c r="BJ44" s="72"/>
       <c r="BK44" s="73"/>
-      <c r="BL44" s="131"/>
-      <c r="BM44" s="131"/>
-      <c r="BN44" s="131"/>
-      <c r="BO44" s="131"/>
-      <c r="BP44" s="131"/>
+      <c r="BL44" s="120"/>
+      <c r="BM44" s="120"/>
+      <c r="BN44" s="120"/>
+      <c r="BO44" s="120"/>
+      <c r="BP44" s="120"/>
       <c r="BQ44" s="72"/>
       <c r="BR44" s="73"/>
       <c r="BS44" s="73"/>
@@ -8930,7 +8936,7 @@
       <c r="EV44" s="99"/>
     </row>
     <row r="45" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="107" t="s">
+      <c r="A45" s="123" t="s">
         <v>24</v>
       </c>
       <c r="B45" s="76"/>
@@ -8999,11 +9005,11 @@
       <c r="BI45" s="78"/>
       <c r="BJ45" s="77"/>
       <c r="BK45" s="78"/>
-      <c r="BL45" s="128"/>
-      <c r="BM45" s="128"/>
-      <c r="BN45" s="128"/>
-      <c r="BO45" s="128"/>
-      <c r="BP45" s="128"/>
+      <c r="BL45" s="117"/>
+      <c r="BM45" s="117"/>
+      <c r="BN45" s="117"/>
+      <c r="BO45" s="117"/>
+      <c r="BP45" s="117"/>
       <c r="BQ45" s="77"/>
       <c r="BR45" s="78"/>
       <c r="BS45" s="78"/>
@@ -9092,7 +9098,7 @@
       <c r="EV45" s="103"/>
     </row>
     <row r="46" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="107"/>
+      <c r="A46" s="123"/>
       <c r="B46" s="24"/>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
@@ -9155,11 +9161,11 @@
       <c r="BI46" s="14"/>
       <c r="BJ46" s="16"/>
       <c r="BK46" s="14"/>
-      <c r="BL46" s="125"/>
-      <c r="BM46" s="125"/>
-      <c r="BN46" s="125"/>
-      <c r="BO46" s="125"/>
-      <c r="BP46" s="125"/>
+      <c r="BL46" s="114"/>
+      <c r="BM46" s="114"/>
+      <c r="BN46" s="114"/>
+      <c r="BO46" s="114"/>
+      <c r="BP46" s="114"/>
       <c r="BQ46" s="16"/>
       <c r="BR46" s="14"/>
       <c r="BS46" s="14"/>
@@ -9248,7 +9254,7 @@
       <c r="EV46" s="17"/>
     </row>
     <row r="47" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="107"/>
+      <c r="A47" s="123"/>
       <c r="B47" s="24"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
@@ -9311,11 +9317,11 @@
       <c r="BI47" s="14"/>
       <c r="BJ47" s="16"/>
       <c r="BK47" s="14"/>
-      <c r="BL47" s="125"/>
-      <c r="BM47" s="125"/>
-      <c r="BN47" s="125"/>
-      <c r="BO47" s="125"/>
-      <c r="BP47" s="125"/>
+      <c r="BL47" s="114"/>
+      <c r="BM47" s="114"/>
+      <c r="BN47" s="114"/>
+      <c r="BO47" s="114"/>
+      <c r="BP47" s="114"/>
       <c r="BQ47" s="16"/>
       <c r="BR47" s="14"/>
       <c r="BS47" s="14"/>
@@ -9406,7 +9412,7 @@
       <c r="EV47" s="17"/>
     </row>
     <row r="48" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="107"/>
+      <c r="A48" s="123"/>
       <c r="B48" s="24"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
@@ -9469,11 +9475,11 @@
       <c r="BI48" s="14"/>
       <c r="BJ48" s="16"/>
       <c r="BK48" s="14"/>
-      <c r="BL48" s="125"/>
-      <c r="BM48" s="125"/>
-      <c r="BN48" s="125"/>
-      <c r="BO48" s="125"/>
-      <c r="BP48" s="125"/>
+      <c r="BL48" s="114"/>
+      <c r="BM48" s="114"/>
+      <c r="BN48" s="114"/>
+      <c r="BO48" s="114"/>
+      <c r="BP48" s="114"/>
       <c r="BQ48" s="16"/>
       <c r="BR48" s="14"/>
       <c r="BS48" s="14"/>
@@ -9562,7 +9568,7 @@
       <c r="EV48" s="17"/>
     </row>
     <row r="49" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="108"/>
+      <c r="A49" s="124"/>
       <c r="B49" s="86"/>
       <c r="C49" s="72"/>
       <c r="D49" s="72"/>
@@ -9625,11 +9631,11 @@
       <c r="BI49" s="73"/>
       <c r="BJ49" s="72"/>
       <c r="BK49" s="73"/>
-      <c r="BL49" s="131"/>
-      <c r="BM49" s="131"/>
-      <c r="BN49" s="131"/>
-      <c r="BO49" s="131"/>
-      <c r="BP49" s="131"/>
+      <c r="BL49" s="120"/>
+      <c r="BM49" s="120"/>
+      <c r="BN49" s="120"/>
+      <c r="BO49" s="120"/>
+      <c r="BP49" s="120"/>
       <c r="BQ49" s="72"/>
       <c r="BR49" s="73"/>
       <c r="BS49" s="73"/>

--- a/0_DOC/Femto Project schedule V1.0.xlsx
+++ b/0_DOC/Femto Project schedule V1.0.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>◇PCB설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,22 @@
   </si>
   <si>
     <t>◇PCB 입고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇1,2차 부품 입고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶업체 방문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF 불량보드 입수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LF 운용 설명 및 시연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1021,16 +1037,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>148258</xdr:colOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>186358</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>107311</xdr:rowOff>
+      <xdr:rowOff>97786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>107311</xdr:rowOff>
+      <xdr:rowOff>97786</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1039,8 +1055,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12539041" y="3503181"/>
-          <a:ext cx="448090" cy="0"/>
+          <a:off x="13816633" y="3650611"/>
+          <a:ext cx="823292" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1078,8 +1094,8 @@
       <xdr:rowOff>94059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>165652</xdr:colOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>94059</xdr:rowOff>
     </xdr:to>
@@ -1090,8 +1106,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9237594" y="3332559"/>
-          <a:ext cx="933449" cy="0"/>
+          <a:off x="9057033" y="3818334"/>
+          <a:ext cx="2315817" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2466,8 +2482,8 @@
   <dimension ref="A1:EV66"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB27" sqref="BB27"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BV27" sqref="BV27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3188,7 +3204,9 @@
       <c r="BD8" s="38"/>
       <c r="BE8" s="38"/>
       <c r="BF8" s="50"/>
-      <c r="BG8" s="35"/>
+      <c r="BG8" s="42" t="s">
+        <v>45</v>
+      </c>
       <c r="BH8" s="63"/>
       <c r="BI8" s="38"/>
       <c r="BJ8" s="35"/>
@@ -3347,7 +3365,9 @@
       <c r="BE9" s="31"/>
       <c r="BF9" s="28"/>
       <c r="BG9" s="30"/>
-      <c r="BH9" s="32"/>
+      <c r="BH9" s="32" t="s">
+        <v>46</v>
+      </c>
       <c r="BI9" s="31"/>
       <c r="BJ9" s="30"/>
       <c r="BK9" s="31"/>
@@ -3505,7 +3525,9 @@
       <c r="BE10" s="31"/>
       <c r="BF10" s="28"/>
       <c r="BG10" s="30"/>
-      <c r="BH10" s="32"/>
+      <c r="BH10" s="32" t="s">
+        <v>47</v>
+      </c>
       <c r="BI10" s="31"/>
       <c r="BJ10" s="30"/>
       <c r="BK10" s="31"/>
@@ -5071,22 +5093,22 @@
       <c r="AU20" s="78"/>
       <c r="AV20" s="78"/>
       <c r="AW20" s="78"/>
-      <c r="AX20" s="40" t="s">
-        <v>18</v>
-      </c>
+      <c r="AX20" s="78"/>
       <c r="AY20" s="77"/>
       <c r="AZ20" s="77"/>
       <c r="BA20" s="87"/>
       <c r="BB20" s="77"/>
-      <c r="BC20" s="77"/>
-      <c r="BD20" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="BE20" s="89"/>
+      <c r="BC20" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD20" s="78"/>
+      <c r="BE20" s="78"/>
       <c r="BF20" s="77"/>
       <c r="BG20" s="77"/>
       <c r="BH20" s="90"/>
-      <c r="BI20" s="78"/>
+      <c r="BI20" s="89" t="s">
+        <v>19</v>
+      </c>
       <c r="BJ20" s="77"/>
       <c r="BK20" s="78"/>
       <c r="BL20" s="117"/>
@@ -5232,16 +5254,16 @@
       <c r="AV21" s="14"/>
       <c r="AW21" s="14"/>
       <c r="AX21" s="14"/>
-      <c r="AY21" s="23" t="s">
-        <v>2</v>
-      </c>
+      <c r="AY21" s="23"/>
       <c r="AZ21" s="16"/>
       <c r="BA21" s="16"/>
       <c r="BB21" s="16"/>
       <c r="BC21" s="16"/>
       <c r="BD21" s="14"/>
       <c r="BE21" s="14"/>
-      <c r="BF21" s="16"/>
+      <c r="BF21" s="23" t="s">
+        <v>2</v>
+      </c>
       <c r="BG21" s="16"/>
       <c r="BH21" s="25"/>
       <c r="BI21" s="14"/>
@@ -5393,7 +5415,9 @@
       <c r="AY22" s="16"/>
       <c r="AZ22" s="16"/>
       <c r="BA22" s="16"/>
-      <c r="BB22" s="16"/>
+      <c r="BB22" s="91" t="s">
+        <v>44</v>
+      </c>
       <c r="BC22" s="16"/>
       <c r="BD22" s="14"/>
       <c r="BE22" s="14"/>

--- a/0_DOC/Femto Project schedule V1.0.xlsx
+++ b/0_DOC/Femto Project schedule V1.0.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>◇PCB설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,10 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>◇1,2차 부품 입고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>▶업체 방문</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,6 +204,14 @@
   </si>
   <si>
     <t>LF 운용 설명 및 시연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇1,2,3차 부품 입고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇PCB제작(4ea)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1094,8 +1098,8 @@
       <xdr:rowOff>94059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>94059</xdr:rowOff>
     </xdr:to>
@@ -1107,7 +1111,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9057033" y="3818334"/>
-          <a:ext cx="2315817" cy="0"/>
+          <a:ext cx="2144367" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2483,7 +2487,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BV27" sqref="BV27"/>
+      <selection pane="topRight" activeCell="BC23" sqref="BC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3205,7 +3209,7 @@
       <c r="BE8" s="38"/>
       <c r="BF8" s="50"/>
       <c r="BG8" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BH8" s="63"/>
       <c r="BI8" s="38"/>
@@ -3366,7 +3370,7 @@
       <c r="BF9" s="28"/>
       <c r="BG9" s="30"/>
       <c r="BH9" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BI9" s="31"/>
       <c r="BJ9" s="30"/>
@@ -3526,7 +3530,7 @@
       <c r="BF10" s="28"/>
       <c r="BG10" s="30"/>
       <c r="BH10" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI10" s="31"/>
       <c r="BJ10" s="30"/>
@@ -5099,7 +5103,7 @@
       <c r="BA20" s="87"/>
       <c r="BB20" s="77"/>
       <c r="BC20" s="40" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="BD20" s="78"/>
       <c r="BE20" s="78"/>
@@ -5414,10 +5418,10 @@
       <c r="AX22" s="14"/>
       <c r="AY22" s="16"/>
       <c r="AZ22" s="16"/>
-      <c r="BA22" s="16"/>
-      <c r="BB22" s="91" t="s">
-        <v>44</v>
-      </c>
+      <c r="BA22" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB22" s="91"/>
       <c r="BC22" s="16"/>
       <c r="BD22" s="14"/>
       <c r="BE22" s="14"/>

--- a/0_DOC/Femto Project schedule V1.0.xlsx
+++ b/0_DOC/Femto Project schedule V1.0.xlsx
@@ -891,7 +891,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1014,6 +1013,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1048,7 +1048,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>69</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>97786</xdr:rowOff>
     </xdr:to>
@@ -1060,7 +1060,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13816633" y="3650611"/>
-          <a:ext cx="823292" cy="0"/>
+          <a:ext cx="994742" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2486,8 +2486,8 @@
   <dimension ref="A1:EV66"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BC23" sqref="BC23"/>
+      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CC27" sqref="CC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2512,178 +2512,178 @@
       </c>
     </row>
     <row r="4" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="104" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:152" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="103" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:152" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="129">
+      <c r="B6" s="128">
         <v>1</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="126"/>
-      <c r="U6" s="126"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="126"/>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="126"/>
-      <c r="AC6" s="126"/>
-      <c r="AD6" s="126"/>
-      <c r="AE6" s="126"/>
-      <c r="AF6" s="126"/>
-      <c r="AG6" s="129">
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="125"/>
+      <c r="V6" s="125"/>
+      <c r="W6" s="125"/>
+      <c r="X6" s="125"/>
+      <c r="Y6" s="125"/>
+      <c r="Z6" s="125"/>
+      <c r="AA6" s="125"/>
+      <c r="AB6" s="125"/>
+      <c r="AC6" s="125"/>
+      <c r="AD6" s="125"/>
+      <c r="AE6" s="125"/>
+      <c r="AF6" s="125"/>
+      <c r="AG6" s="128">
         <v>2</v>
       </c>
-      <c r="AH6" s="126"/>
-      <c r="AI6" s="126"/>
-      <c r="AJ6" s="126"/>
-      <c r="AK6" s="126"/>
-      <c r="AL6" s="126"/>
-      <c r="AM6" s="126"/>
-      <c r="AN6" s="126"/>
-      <c r="AO6" s="126"/>
-      <c r="AP6" s="126"/>
-      <c r="AQ6" s="126"/>
-      <c r="AR6" s="126"/>
-      <c r="AS6" s="126"/>
-      <c r="AT6" s="126"/>
-      <c r="AU6" s="126"/>
-      <c r="AV6" s="126"/>
-      <c r="AW6" s="126"/>
-      <c r="AX6" s="126"/>
-      <c r="AY6" s="126"/>
-      <c r="AZ6" s="126"/>
-      <c r="BA6" s="126"/>
-      <c r="BB6" s="126"/>
-      <c r="BC6" s="126"/>
-      <c r="BD6" s="126"/>
-      <c r="BE6" s="126"/>
-      <c r="BF6" s="126"/>
-      <c r="BG6" s="126"/>
-      <c r="BH6" s="127"/>
-      <c r="BI6" s="126">
+      <c r="AH6" s="125"/>
+      <c r="AI6" s="125"/>
+      <c r="AJ6" s="125"/>
+      <c r="AK6" s="125"/>
+      <c r="AL6" s="125"/>
+      <c r="AM6" s="125"/>
+      <c r="AN6" s="125"/>
+      <c r="AO6" s="125"/>
+      <c r="AP6" s="125"/>
+      <c r="AQ6" s="125"/>
+      <c r="AR6" s="125"/>
+      <c r="AS6" s="125"/>
+      <c r="AT6" s="125"/>
+      <c r="AU6" s="125"/>
+      <c r="AV6" s="125"/>
+      <c r="AW6" s="125"/>
+      <c r="AX6" s="125"/>
+      <c r="AY6" s="125"/>
+      <c r="AZ6" s="125"/>
+      <c r="BA6" s="125"/>
+      <c r="BB6" s="125"/>
+      <c r="BC6" s="125"/>
+      <c r="BD6" s="125"/>
+      <c r="BE6" s="125"/>
+      <c r="BF6" s="125"/>
+      <c r="BG6" s="125"/>
+      <c r="BH6" s="126"/>
+      <c r="BI6" s="125">
         <v>3</v>
       </c>
-      <c r="BJ6" s="126"/>
-      <c r="BK6" s="126"/>
-      <c r="BL6" s="126"/>
-      <c r="BM6" s="126"/>
-      <c r="BN6" s="126"/>
-      <c r="BO6" s="126"/>
-      <c r="BP6" s="126"/>
-      <c r="BQ6" s="126"/>
-      <c r="BR6" s="126"/>
-      <c r="BS6" s="126"/>
-      <c r="BT6" s="126"/>
-      <c r="BU6" s="126"/>
-      <c r="BV6" s="126"/>
-      <c r="BW6" s="126"/>
-      <c r="BX6" s="126"/>
-      <c r="BY6" s="126"/>
-      <c r="BZ6" s="126"/>
-      <c r="CA6" s="126"/>
-      <c r="CB6" s="126"/>
-      <c r="CC6" s="126"/>
-      <c r="CD6" s="126"/>
-      <c r="CE6" s="126"/>
-      <c r="CF6" s="126"/>
-      <c r="CG6" s="126"/>
-      <c r="CH6" s="126"/>
-      <c r="CI6" s="126"/>
-      <c r="CJ6" s="126"/>
-      <c r="CK6" s="126"/>
-      <c r="CL6" s="126"/>
-      <c r="CM6" s="126"/>
-      <c r="CN6" s="130">
+      <c r="BJ6" s="125"/>
+      <c r="BK6" s="125"/>
+      <c r="BL6" s="125"/>
+      <c r="BM6" s="125"/>
+      <c r="BN6" s="125"/>
+      <c r="BO6" s="125"/>
+      <c r="BP6" s="125"/>
+      <c r="BQ6" s="125"/>
+      <c r="BR6" s="125"/>
+      <c r="BS6" s="125"/>
+      <c r="BT6" s="125"/>
+      <c r="BU6" s="125"/>
+      <c r="BV6" s="125"/>
+      <c r="BW6" s="125"/>
+      <c r="BX6" s="125"/>
+      <c r="BY6" s="125"/>
+      <c r="BZ6" s="125"/>
+      <c r="CA6" s="125"/>
+      <c r="CB6" s="125"/>
+      <c r="CC6" s="125"/>
+      <c r="CD6" s="125"/>
+      <c r="CE6" s="125"/>
+      <c r="CF6" s="125"/>
+      <c r="CG6" s="125"/>
+      <c r="CH6" s="125"/>
+      <c r="CI6" s="125"/>
+      <c r="CJ6" s="125"/>
+      <c r="CK6" s="125"/>
+      <c r="CL6" s="125"/>
+      <c r="CM6" s="125"/>
+      <c r="CN6" s="129">
         <v>4</v>
       </c>
-      <c r="CO6" s="131"/>
-      <c r="CP6" s="131"/>
-      <c r="CQ6" s="131"/>
-      <c r="CR6" s="131"/>
-      <c r="CS6" s="131"/>
-      <c r="CT6" s="131"/>
-      <c r="CU6" s="131"/>
-      <c r="CV6" s="131"/>
-      <c r="CW6" s="131"/>
-      <c r="CX6" s="131"/>
-      <c r="CY6" s="131"/>
-      <c r="CZ6" s="131"/>
-      <c r="DA6" s="131"/>
-      <c r="DB6" s="131"/>
-      <c r="DC6" s="131"/>
-      <c r="DD6" s="131"/>
-      <c r="DE6" s="131"/>
-      <c r="DF6" s="131"/>
-      <c r="DG6" s="131"/>
-      <c r="DH6" s="131"/>
-      <c r="DI6" s="131"/>
-      <c r="DJ6" s="131"/>
-      <c r="DK6" s="131"/>
-      <c r="DL6" s="131"/>
-      <c r="DM6" s="131"/>
-      <c r="DN6" s="131"/>
-      <c r="DO6" s="131"/>
-      <c r="DP6" s="131"/>
-      <c r="DQ6" s="132"/>
-      <c r="DR6" s="126">
+      <c r="CO6" s="130"/>
+      <c r="CP6" s="130"/>
+      <c r="CQ6" s="130"/>
+      <c r="CR6" s="130"/>
+      <c r="CS6" s="130"/>
+      <c r="CT6" s="130"/>
+      <c r="CU6" s="130"/>
+      <c r="CV6" s="130"/>
+      <c r="CW6" s="130"/>
+      <c r="CX6" s="130"/>
+      <c r="CY6" s="130"/>
+      <c r="CZ6" s="130"/>
+      <c r="DA6" s="130"/>
+      <c r="DB6" s="130"/>
+      <c r="DC6" s="130"/>
+      <c r="DD6" s="130"/>
+      <c r="DE6" s="130"/>
+      <c r="DF6" s="130"/>
+      <c r="DG6" s="130"/>
+      <c r="DH6" s="130"/>
+      <c r="DI6" s="130"/>
+      <c r="DJ6" s="130"/>
+      <c r="DK6" s="130"/>
+      <c r="DL6" s="130"/>
+      <c r="DM6" s="130"/>
+      <c r="DN6" s="130"/>
+      <c r="DO6" s="130"/>
+      <c r="DP6" s="130"/>
+      <c r="DQ6" s="131"/>
+      <c r="DR6" s="125">
         <v>5</v>
       </c>
-      <c r="DS6" s="126"/>
-      <c r="DT6" s="126"/>
-      <c r="DU6" s="126"/>
-      <c r="DV6" s="126"/>
-      <c r="DW6" s="126"/>
-      <c r="DX6" s="126"/>
-      <c r="DY6" s="126"/>
-      <c r="DZ6" s="126"/>
-      <c r="EA6" s="126"/>
-      <c r="EB6" s="126"/>
-      <c r="EC6" s="126"/>
-      <c r="ED6" s="126"/>
-      <c r="EE6" s="126"/>
-      <c r="EF6" s="126"/>
-      <c r="EG6" s="126"/>
-      <c r="EH6" s="126"/>
-      <c r="EI6" s="126"/>
-      <c r="EJ6" s="126"/>
-      <c r="EK6" s="126"/>
-      <c r="EL6" s="126"/>
-      <c r="EM6" s="126"/>
-      <c r="EN6" s="126"/>
-      <c r="EO6" s="126"/>
-      <c r="EP6" s="126"/>
-      <c r="EQ6" s="126"/>
-      <c r="ER6" s="126"/>
-      <c r="ES6" s="126"/>
-      <c r="ET6" s="126"/>
-      <c r="EU6" s="126"/>
-      <c r="EV6" s="127"/>
+      <c r="DS6" s="125"/>
+      <c r="DT6" s="125"/>
+      <c r="DU6" s="125"/>
+      <c r="DV6" s="125"/>
+      <c r="DW6" s="125"/>
+      <c r="DX6" s="125"/>
+      <c r="DY6" s="125"/>
+      <c r="DZ6" s="125"/>
+      <c r="EA6" s="125"/>
+      <c r="EB6" s="125"/>
+      <c r="EC6" s="125"/>
+      <c r="ED6" s="125"/>
+      <c r="EE6" s="125"/>
+      <c r="EF6" s="125"/>
+      <c r="EG6" s="125"/>
+      <c r="EH6" s="125"/>
+      <c r="EI6" s="125"/>
+      <c r="EJ6" s="125"/>
+      <c r="EK6" s="125"/>
+      <c r="EL6" s="125"/>
+      <c r="EM6" s="125"/>
+      <c r="EN6" s="125"/>
+      <c r="EO6" s="125"/>
+      <c r="EP6" s="125"/>
+      <c r="EQ6" s="125"/>
+      <c r="ER6" s="125"/>
+      <c r="ES6" s="125"/>
+      <c r="ET6" s="125"/>
+      <c r="EU6" s="125"/>
+      <c r="EV6" s="126"/>
     </row>
     <row r="7" spans="1:152" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
@@ -2873,19 +2873,19 @@
       <c r="BK7" s="10">
         <v>3</v>
       </c>
-      <c r="BL7" s="106">
+      <c r="BL7" s="105">
         <v>4</v>
       </c>
-      <c r="BM7" s="107">
+      <c r="BM7" s="106">
         <v>5</v>
       </c>
-      <c r="BN7" s="107">
+      <c r="BN7" s="106">
         <v>6</v>
       </c>
-      <c r="BO7" s="107">
+      <c r="BO7" s="106">
         <v>7</v>
       </c>
-      <c r="BP7" s="107">
+      <c r="BP7" s="106">
         <v>8</v>
       </c>
       <c r="BQ7" s="8">
@@ -2957,7 +2957,7 @@
       <c r="CM7" s="10">
         <v>31</v>
       </c>
-      <c r="CN7" s="97">
+      <c r="CN7" s="96">
         <v>1</v>
       </c>
       <c r="CO7" s="6">
@@ -3044,7 +3044,7 @@
       <c r="DP7" s="1">
         <v>29</v>
       </c>
-      <c r="DQ7" s="98">
+      <c r="DQ7" s="97">
         <v>30</v>
       </c>
       <c r="DR7" s="8">
@@ -3142,7 +3142,7 @@
       </c>
     </row>
     <row r="8" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="122" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="34"/>
@@ -3152,11 +3152,11 @@
       <c r="F8" s="35"/>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
-      <c r="I8" s="50"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="35"/>
       <c r="K8" s="36"/>
       <c r="L8" s="35"/>
-      <c r="M8" s="42" t="s">
+      <c r="M8" s="41" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="38"/>
@@ -3168,112 +3168,112 @@
       <c r="T8" s="35"/>
       <c r="U8" s="38"/>
       <c r="V8" s="38"/>
-      <c r="W8" s="50"/>
+      <c r="W8" s="49"/>
       <c r="X8" s="35"/>
       <c r="Y8" s="36"/>
       <c r="Z8" s="35"/>
       <c r="AA8" s="35"/>
       <c r="AB8" s="38"/>
       <c r="AC8" s="38"/>
-      <c r="AD8" s="50"/>
+      <c r="AD8" s="49"/>
       <c r="AE8" s="35"/>
       <c r="AF8" s="36"/>
-      <c r="AG8" s="62" t="s">
+      <c r="AG8" s="61" t="s">
         <v>12</v>
       </c>
       <c r="AH8" s="35"/>
       <c r="AI8" s="38"/>
       <c r="AJ8" s="38"/>
       <c r="AK8" s="37"/>
-      <c r="AL8" s="42" t="s">
+      <c r="AL8" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="AM8" s="58"/>
+      <c r="AM8" s="57"/>
       <c r="AN8" s="35"/>
       <c r="AO8" s="35"/>
       <c r="AP8" s="38"/>
       <c r="AQ8" s="38"/>
-      <c r="AR8" s="50"/>
+      <c r="AR8" s="49"/>
       <c r="AS8" s="35"/>
       <c r="AT8" s="36"/>
       <c r="AU8" s="38"/>
       <c r="AV8" s="38"/>
       <c r="AW8" s="38"/>
       <c r="AX8" s="38"/>
-      <c r="AY8" s="50"/>
+      <c r="AY8" s="49"/>
       <c r="AZ8" s="35"/>
       <c r="BA8" s="36"/>
       <c r="BB8" s="35"/>
       <c r="BC8" s="35"/>
       <c r="BD8" s="38"/>
       <c r="BE8" s="38"/>
-      <c r="BF8" s="50"/>
-      <c r="BG8" s="42" t="s">
+      <c r="BF8" s="49"/>
+      <c r="BG8" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="BH8" s="63"/>
+      <c r="BH8" s="62"/>
       <c r="BI8" s="38"/>
       <c r="BJ8" s="35"/>
       <c r="BK8" s="38"/>
-      <c r="BL8" s="108"/>
-      <c r="BM8" s="109"/>
-      <c r="BN8" s="108"/>
-      <c r="BO8" s="110"/>
-      <c r="BP8" s="108"/>
+      <c r="BL8" s="107"/>
+      <c r="BM8" s="108"/>
+      <c r="BN8" s="107"/>
+      <c r="BO8" s="109"/>
+      <c r="BP8" s="107"/>
       <c r="BQ8" s="35"/>
       <c r="BR8" s="38"/>
       <c r="BS8" s="38"/>
-      <c r="BT8" s="50"/>
+      <c r="BT8" s="49"/>
       <c r="BU8" s="35"/>
       <c r="BV8" s="36"/>
       <c r="BW8" s="35"/>
       <c r="BX8" s="35"/>
       <c r="BY8" s="38"/>
       <c r="BZ8" s="38"/>
-      <c r="CA8" s="50"/>
+      <c r="CA8" s="49"/>
       <c r="CB8" s="35"/>
       <c r="CC8" s="36"/>
       <c r="CD8" s="35"/>
       <c r="CE8" s="35"/>
       <c r="CF8" s="38"/>
       <c r="CG8" s="38"/>
-      <c r="CH8" s="50"/>
+      <c r="CH8" s="49"/>
       <c r="CI8" s="35"/>
       <c r="CJ8" s="36"/>
       <c r="CK8" s="35"/>
       <c r="CL8" s="35"/>
       <c r="CM8" s="38"/>
       <c r="CN8" s="34"/>
-      <c r="CO8" s="50"/>
+      <c r="CO8" s="49"/>
       <c r="CP8" s="35"/>
       <c r="CQ8" s="36"/>
       <c r="CR8" s="35"/>
       <c r="CS8" s="35"/>
       <c r="CT8" s="38"/>
       <c r="CU8" s="38"/>
-      <c r="CV8" s="50"/>
+      <c r="CV8" s="49"/>
       <c r="CW8" s="35"/>
       <c r="CX8" s="36"/>
       <c r="CY8" s="35"/>
       <c r="CZ8" s="35"/>
       <c r="DA8" s="38"/>
       <c r="DB8" s="38"/>
-      <c r="DC8" s="50"/>
+      <c r="DC8" s="49"/>
       <c r="DD8" s="35"/>
       <c r="DE8" s="36"/>
       <c r="DF8" s="35"/>
       <c r="DG8" s="35"/>
       <c r="DH8" s="38"/>
       <c r="DI8" s="38"/>
-      <c r="DJ8" s="50"/>
+      <c r="DJ8" s="49"/>
       <c r="DK8" s="35"/>
       <c r="DL8" s="36"/>
       <c r="DM8" s="35"/>
       <c r="DN8" s="35"/>
       <c r="DO8" s="38"/>
       <c r="DP8" s="38"/>
-      <c r="DQ8" s="100"/>
-      <c r="DR8" s="70"/>
+      <c r="DQ8" s="99"/>
+      <c r="DR8" s="69"/>
       <c r="DS8" s="36"/>
       <c r="DT8" s="35"/>
       <c r="DU8" s="35"/>
@@ -3286,27 +3286,27 @@
       <c r="EB8" s="35"/>
       <c r="EC8" s="38"/>
       <c r="ED8" s="38"/>
-      <c r="EE8" s="50"/>
+      <c r="EE8" s="49"/>
       <c r="EF8" s="35"/>
       <c r="EG8" s="36"/>
       <c r="EH8" s="35"/>
       <c r="EI8" s="35"/>
       <c r="EJ8" s="38"/>
       <c r="EK8" s="38"/>
-      <c r="EL8" s="50"/>
+      <c r="EL8" s="49"/>
       <c r="EM8" s="38"/>
       <c r="EN8" s="36"/>
       <c r="EO8" s="35"/>
       <c r="EP8" s="35"/>
       <c r="EQ8" s="38"/>
       <c r="ER8" s="38"/>
-      <c r="ES8" s="50"/>
-      <c r="ET8" s="50"/>
-      <c r="EU8" s="50"/>
-      <c r="EV8" s="100"/>
+      <c r="ES8" s="49"/>
+      <c r="ET8" s="49"/>
+      <c r="EU8" s="49"/>
+      <c r="EV8" s="99"/>
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A9" s="123"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="29"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
@@ -3340,7 +3340,7 @@
       <c r="AD9" s="28"/>
       <c r="AE9" s="30"/>
       <c r="AF9" s="30"/>
-      <c r="AG9" s="64"/>
+      <c r="AG9" s="63"/>
       <c r="AH9" s="30" t="s">
         <v>13</v>
       </c>
@@ -3375,11 +3375,11 @@
       <c r="BI9" s="31"/>
       <c r="BJ9" s="30"/>
       <c r="BK9" s="31"/>
-      <c r="BL9" s="111"/>
-      <c r="BM9" s="111"/>
-      <c r="BN9" s="111"/>
-      <c r="BO9" s="111"/>
-      <c r="BP9" s="111"/>
+      <c r="BL9" s="110"/>
+      <c r="BM9" s="110"/>
+      <c r="BN9" s="110"/>
+      <c r="BO9" s="110"/>
+      <c r="BP9" s="110"/>
       <c r="BQ9" s="30"/>
       <c r="BR9" s="31"/>
       <c r="BS9" s="31"/>
@@ -3433,7 +3433,7 @@
       <c r="DO9" s="31"/>
       <c r="DP9" s="31"/>
       <c r="DQ9" s="33"/>
-      <c r="DR9" s="64"/>
+      <c r="DR9" s="63"/>
       <c r="DS9" s="30"/>
       <c r="DT9" s="30"/>
       <c r="DU9" s="30"/>
@@ -3466,7 +3466,7 @@
       <c r="EV9" s="33"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A10" s="123"/>
+      <c r="A10" s="122"/>
       <c r="B10" s="29"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -3500,7 +3500,7 @@
       <c r="AD10" s="28"/>
       <c r="AE10" s="30"/>
       <c r="AF10" s="30"/>
-      <c r="AG10" s="64"/>
+      <c r="AG10" s="63"/>
       <c r="AH10" s="30" t="s">
         <v>14</v>
       </c>
@@ -3535,11 +3535,11 @@
       <c r="BI10" s="31"/>
       <c r="BJ10" s="30"/>
       <c r="BK10" s="31"/>
-      <c r="BL10" s="111"/>
-      <c r="BM10" s="111"/>
-      <c r="BN10" s="111"/>
-      <c r="BO10" s="111"/>
-      <c r="BP10" s="111"/>
+      <c r="BL10" s="110"/>
+      <c r="BM10" s="110"/>
+      <c r="BN10" s="110"/>
+      <c r="BO10" s="110"/>
+      <c r="BP10" s="110"/>
       <c r="BQ10" s="30"/>
       <c r="BR10" s="31"/>
       <c r="BS10" s="31"/>
@@ -3593,7 +3593,7 @@
       <c r="DO10" s="31"/>
       <c r="DP10" s="31"/>
       <c r="DQ10" s="33"/>
-      <c r="DR10" s="64"/>
+      <c r="DR10" s="63"/>
       <c r="DS10" s="30"/>
       <c r="DT10" s="30"/>
       <c r="DU10" s="30"/>
@@ -3626,7 +3626,7 @@
       <c r="EV10" s="33"/>
     </row>
     <row r="11" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A11" s="123"/>
+      <c r="A11" s="122"/>
       <c r="B11" s="29"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
@@ -3660,7 +3660,7 @@
       <c r="AD11" s="28"/>
       <c r="AE11" s="30"/>
       <c r="AF11" s="30"/>
-      <c r="AG11" s="64"/>
+      <c r="AG11" s="63"/>
       <c r="AH11" s="30" t="s">
         <v>15</v>
       </c>
@@ -3693,11 +3693,11 @@
       <c r="BI11" s="31"/>
       <c r="BJ11" s="30"/>
       <c r="BK11" s="31"/>
-      <c r="BL11" s="111"/>
-      <c r="BM11" s="111"/>
-      <c r="BN11" s="111"/>
-      <c r="BO11" s="111"/>
-      <c r="BP11" s="111"/>
+      <c r="BL11" s="110"/>
+      <c r="BM11" s="110"/>
+      <c r="BN11" s="110"/>
+      <c r="BO11" s="110"/>
+      <c r="BP11" s="110"/>
       <c r="BQ11" s="30"/>
       <c r="BR11" s="31"/>
       <c r="BS11" s="31"/>
@@ -3751,7 +3751,7 @@
       <c r="DO11" s="31"/>
       <c r="DP11" s="31"/>
       <c r="DQ11" s="33"/>
-      <c r="DR11" s="64"/>
+      <c r="DR11" s="63"/>
       <c r="DS11" s="30"/>
       <c r="DT11" s="30"/>
       <c r="DU11" s="30"/>
@@ -3784,7 +3784,7 @@
       <c r="EV11" s="33"/>
     </row>
     <row r="12" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A12" s="123"/>
+      <c r="A12" s="122"/>
       <c r="B12" s="29"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -3818,7 +3818,7 @@
       <c r="AD12" s="28"/>
       <c r="AE12" s="30"/>
       <c r="AF12" s="30"/>
-      <c r="AG12" s="64"/>
+      <c r="AG12" s="63"/>
       <c r="AH12" s="30" t="s">
         <v>16</v>
       </c>
@@ -3851,11 +3851,11 @@
       <c r="BI12" s="31"/>
       <c r="BJ12" s="30"/>
       <c r="BK12" s="31"/>
-      <c r="BL12" s="111"/>
-      <c r="BM12" s="111"/>
-      <c r="BN12" s="111"/>
-      <c r="BO12" s="111"/>
-      <c r="BP12" s="111"/>
+      <c r="BL12" s="110"/>
+      <c r="BM12" s="110"/>
+      <c r="BN12" s="110"/>
+      <c r="BO12" s="110"/>
+      <c r="BP12" s="110"/>
       <c r="BQ12" s="30"/>
       <c r="BR12" s="31"/>
       <c r="BS12" s="31"/>
@@ -3909,7 +3909,7 @@
       <c r="DO12" s="31"/>
       <c r="DP12" s="31"/>
       <c r="DQ12" s="33"/>
-      <c r="DR12" s="64"/>
+      <c r="DR12" s="63"/>
       <c r="DS12" s="30"/>
       <c r="DT12" s="30"/>
       <c r="DU12" s="30"/>
@@ -3942,7 +3942,7 @@
       <c r="EV12" s="33"/>
     </row>
     <row r="13" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A13" s="123"/>
+      <c r="A13" s="122"/>
       <c r="B13" s="29"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -3974,7 +3974,7 @@
       <c r="AD13" s="28"/>
       <c r="AE13" s="30"/>
       <c r="AF13" s="30"/>
-      <c r="AG13" s="64"/>
+      <c r="AG13" s="63"/>
       <c r="AH13" s="30" t="s">
         <v>21</v>
       </c>
@@ -4007,11 +4007,11 @@
       <c r="BI13" s="31"/>
       <c r="BJ13" s="30"/>
       <c r="BK13" s="31"/>
-      <c r="BL13" s="111"/>
-      <c r="BM13" s="111"/>
-      <c r="BN13" s="111"/>
-      <c r="BO13" s="111"/>
-      <c r="BP13" s="111"/>
+      <c r="BL13" s="110"/>
+      <c r="BM13" s="110"/>
+      <c r="BN13" s="110"/>
+      <c r="BO13" s="110"/>
+      <c r="BP13" s="110"/>
       <c r="BQ13" s="30"/>
       <c r="BR13" s="31"/>
       <c r="BS13" s="31"/>
@@ -4065,7 +4065,7 @@
       <c r="DO13" s="31"/>
       <c r="DP13" s="31"/>
       <c r="DQ13" s="33"/>
-      <c r="DR13" s="64"/>
+      <c r="DR13" s="63"/>
       <c r="DS13" s="30"/>
       <c r="DT13" s="30"/>
       <c r="DU13" s="30"/>
@@ -4098,323 +4098,323 @@
       <c r="EV13" s="33"/>
     </row>
     <row r="14" spans="1:152" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="128"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="52"/>
-      <c r="AA14" s="52"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="53"/>
-      <c r="AD14" s="54"/>
-      <c r="AE14" s="52"/>
-      <c r="AF14" s="52"/>
-      <c r="AG14" s="65"/>
-      <c r="AH14" s="52"/>
-      <c r="AI14" s="53"/>
-      <c r="AJ14" s="53"/>
-      <c r="AK14" s="54"/>
-      <c r="AL14" s="52"/>
-      <c r="AM14" s="52"/>
-      <c r="AN14" s="52"/>
-      <c r="AO14" s="52"/>
-      <c r="AP14" s="53"/>
-      <c r="AQ14" s="53"/>
-      <c r="AR14" s="54"/>
-      <c r="AS14" s="52"/>
-      <c r="AT14" s="52"/>
-      <c r="AU14" s="53"/>
-      <c r="AV14" s="53"/>
-      <c r="AW14" s="53"/>
-      <c r="AX14" s="53"/>
-      <c r="AY14" s="54"/>
-      <c r="AZ14" s="52"/>
-      <c r="BA14" s="52"/>
-      <c r="BB14" s="52"/>
-      <c r="BC14" s="52"/>
-      <c r="BD14" s="53"/>
-      <c r="BE14" s="53"/>
-      <c r="BF14" s="54"/>
-      <c r="BG14" s="52"/>
-      <c r="BH14" s="66"/>
-      <c r="BI14" s="53"/>
-      <c r="BJ14" s="52"/>
-      <c r="BK14" s="53"/>
-      <c r="BL14" s="112"/>
-      <c r="BM14" s="112"/>
-      <c r="BN14" s="112"/>
-      <c r="BO14" s="112"/>
-      <c r="BP14" s="112"/>
-      <c r="BQ14" s="52"/>
-      <c r="BR14" s="53"/>
-      <c r="BS14" s="53"/>
-      <c r="BT14" s="54"/>
-      <c r="BU14" s="52"/>
-      <c r="BV14" s="52"/>
-      <c r="BW14" s="52"/>
-      <c r="BX14" s="52"/>
-      <c r="BY14" s="53"/>
-      <c r="BZ14" s="53"/>
-      <c r="CA14" s="54"/>
-      <c r="CB14" s="52"/>
-      <c r="CC14" s="52"/>
-      <c r="CD14" s="52"/>
-      <c r="CE14" s="52"/>
-      <c r="CF14" s="53"/>
-      <c r="CG14" s="53"/>
-      <c r="CH14" s="54"/>
-      <c r="CI14" s="52"/>
-      <c r="CJ14" s="52"/>
-      <c r="CK14" s="52"/>
-      <c r="CL14" s="52"/>
-      <c r="CM14" s="53"/>
-      <c r="CN14" s="51"/>
-      <c r="CO14" s="54"/>
-      <c r="CP14" s="52"/>
-      <c r="CQ14" s="52"/>
-      <c r="CR14" s="52"/>
-      <c r="CS14" s="52"/>
-      <c r="CT14" s="53"/>
-      <c r="CU14" s="53"/>
-      <c r="CV14" s="54"/>
-      <c r="CW14" s="52"/>
-      <c r="CX14" s="52"/>
-      <c r="CY14" s="52"/>
-      <c r="CZ14" s="52"/>
-      <c r="DA14" s="53"/>
-      <c r="DB14" s="53"/>
-      <c r="DC14" s="54"/>
-      <c r="DD14" s="52"/>
-      <c r="DE14" s="52"/>
-      <c r="DF14" s="52"/>
-      <c r="DG14" s="52"/>
-      <c r="DH14" s="53"/>
-      <c r="DI14" s="53"/>
-      <c r="DJ14" s="54"/>
-      <c r="DK14" s="52"/>
-      <c r="DL14" s="52"/>
-      <c r="DM14" s="52"/>
-      <c r="DN14" s="52"/>
-      <c r="DO14" s="53"/>
-      <c r="DP14" s="53"/>
-      <c r="DQ14" s="101"/>
-      <c r="DR14" s="65"/>
-      <c r="DS14" s="52"/>
-      <c r="DT14" s="52"/>
-      <c r="DU14" s="52"/>
-      <c r="DV14" s="53"/>
-      <c r="DW14" s="53"/>
-      <c r="DX14" s="53"/>
-      <c r="DY14" s="52"/>
-      <c r="DZ14" s="52"/>
-      <c r="EA14" s="52"/>
-      <c r="EB14" s="52"/>
-      <c r="EC14" s="53"/>
-      <c r="ED14" s="53"/>
-      <c r="EE14" s="54"/>
-      <c r="EF14" s="52"/>
-      <c r="EG14" s="52"/>
-      <c r="EH14" s="52"/>
-      <c r="EI14" s="52"/>
-      <c r="EJ14" s="53"/>
-      <c r="EK14" s="53"/>
-      <c r="EL14" s="54"/>
-      <c r="EM14" s="53"/>
-      <c r="EN14" s="52"/>
-      <c r="EO14" s="52"/>
-      <c r="EP14" s="52"/>
-      <c r="EQ14" s="53"/>
-      <c r="ER14" s="53"/>
-      <c r="ES14" s="54"/>
-      <c r="ET14" s="54"/>
-      <c r="EU14" s="54"/>
-      <c r="EV14" s="101"/>
+      <c r="A14" s="127"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="52"/>
+      <c r="AD14" s="53"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="64"/>
+      <c r="AH14" s="51"/>
+      <c r="AI14" s="52"/>
+      <c r="AJ14" s="52"/>
+      <c r="AK14" s="53"/>
+      <c r="AL14" s="51"/>
+      <c r="AM14" s="51"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="52"/>
+      <c r="AQ14" s="52"/>
+      <c r="AR14" s="53"/>
+      <c r="AS14" s="51"/>
+      <c r="AT14" s="51"/>
+      <c r="AU14" s="52"/>
+      <c r="AV14" s="52"/>
+      <c r="AW14" s="52"/>
+      <c r="AX14" s="52"/>
+      <c r="AY14" s="53"/>
+      <c r="AZ14" s="51"/>
+      <c r="BA14" s="51"/>
+      <c r="BB14" s="51"/>
+      <c r="BC14" s="51"/>
+      <c r="BD14" s="52"/>
+      <c r="BE14" s="52"/>
+      <c r="BF14" s="53"/>
+      <c r="BG14" s="51"/>
+      <c r="BH14" s="65"/>
+      <c r="BI14" s="52"/>
+      <c r="BJ14" s="51"/>
+      <c r="BK14" s="52"/>
+      <c r="BL14" s="111"/>
+      <c r="BM14" s="111"/>
+      <c r="BN14" s="111"/>
+      <c r="BO14" s="111"/>
+      <c r="BP14" s="111"/>
+      <c r="BQ14" s="51"/>
+      <c r="BR14" s="52"/>
+      <c r="BS14" s="52"/>
+      <c r="BT14" s="53"/>
+      <c r="BU14" s="51"/>
+      <c r="BV14" s="51"/>
+      <c r="BW14" s="51"/>
+      <c r="BX14" s="51"/>
+      <c r="BY14" s="52"/>
+      <c r="BZ14" s="52"/>
+      <c r="CA14" s="53"/>
+      <c r="CB14" s="51"/>
+      <c r="CC14" s="51"/>
+      <c r="CD14" s="51"/>
+      <c r="CE14" s="51"/>
+      <c r="CF14" s="52"/>
+      <c r="CG14" s="52"/>
+      <c r="CH14" s="53"/>
+      <c r="CI14" s="51"/>
+      <c r="CJ14" s="51"/>
+      <c r="CK14" s="51"/>
+      <c r="CL14" s="51"/>
+      <c r="CM14" s="52"/>
+      <c r="CN14" s="50"/>
+      <c r="CO14" s="53"/>
+      <c r="CP14" s="51"/>
+      <c r="CQ14" s="51"/>
+      <c r="CR14" s="51"/>
+      <c r="CS14" s="51"/>
+      <c r="CT14" s="52"/>
+      <c r="CU14" s="52"/>
+      <c r="CV14" s="53"/>
+      <c r="CW14" s="51"/>
+      <c r="CX14" s="51"/>
+      <c r="CY14" s="51"/>
+      <c r="CZ14" s="51"/>
+      <c r="DA14" s="52"/>
+      <c r="DB14" s="52"/>
+      <c r="DC14" s="53"/>
+      <c r="DD14" s="51"/>
+      <c r="DE14" s="51"/>
+      <c r="DF14" s="51"/>
+      <c r="DG14" s="51"/>
+      <c r="DH14" s="52"/>
+      <c r="DI14" s="52"/>
+      <c r="DJ14" s="53"/>
+      <c r="DK14" s="51"/>
+      <c r="DL14" s="51"/>
+      <c r="DM14" s="51"/>
+      <c r="DN14" s="51"/>
+      <c r="DO14" s="52"/>
+      <c r="DP14" s="52"/>
+      <c r="DQ14" s="100"/>
+      <c r="DR14" s="64"/>
+      <c r="DS14" s="51"/>
+      <c r="DT14" s="51"/>
+      <c r="DU14" s="51"/>
+      <c r="DV14" s="52"/>
+      <c r="DW14" s="52"/>
+      <c r="DX14" s="52"/>
+      <c r="DY14" s="51"/>
+      <c r="DZ14" s="51"/>
+      <c r="EA14" s="51"/>
+      <c r="EB14" s="51"/>
+      <c r="EC14" s="52"/>
+      <c r="ED14" s="52"/>
+      <c r="EE14" s="53"/>
+      <c r="EF14" s="51"/>
+      <c r="EG14" s="51"/>
+      <c r="EH14" s="51"/>
+      <c r="EI14" s="51"/>
+      <c r="EJ14" s="52"/>
+      <c r="EK14" s="52"/>
+      <c r="EL14" s="53"/>
+      <c r="EM14" s="52"/>
+      <c r="EN14" s="51"/>
+      <c r="EO14" s="51"/>
+      <c r="EP14" s="51"/>
+      <c r="EQ14" s="52"/>
+      <c r="ER14" s="52"/>
+      <c r="ES14" s="53"/>
+      <c r="ET14" s="53"/>
+      <c r="EU14" s="53"/>
+      <c r="EV14" s="100"/>
     </row>
     <row r="15" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A15" s="125" t="s">
+      <c r="A15" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="45"/>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="44"/>
-      <c r="AF15" s="44"/>
-      <c r="AG15" s="67"/>
-      <c r="AH15" s="44"/>
-      <c r="AI15" s="45"/>
-      <c r="AJ15" s="45"/>
-      <c r="AK15" s="56" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="45"/>
+      <c r="AE15" s="43"/>
+      <c r="AF15" s="43"/>
+      <c r="AG15" s="66"/>
+      <c r="AH15" s="43"/>
+      <c r="AI15" s="44"/>
+      <c r="AJ15" s="44"/>
+      <c r="AK15" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AL15" s="55"/>
-      <c r="AM15" s="55"/>
-      <c r="AN15" s="59"/>
-      <c r="AO15" s="44"/>
-      <c r="AP15" s="45"/>
-      <c r="AQ15" s="45"/>
-      <c r="AR15" s="47"/>
-      <c r="AS15" s="44"/>
-      <c r="AT15" s="44"/>
-      <c r="AU15" s="45"/>
-      <c r="AV15" s="45"/>
-      <c r="AW15" s="45"/>
-      <c r="AX15" s="45"/>
-      <c r="AY15" s="47"/>
-      <c r="AZ15" s="44"/>
-      <c r="BA15" s="47"/>
-      <c r="BB15" s="44"/>
-      <c r="BC15" s="47"/>
-      <c r="BD15" s="45"/>
-      <c r="BE15" s="45"/>
-      <c r="BF15" s="47"/>
-      <c r="BG15" s="44"/>
-      <c r="BH15" s="48"/>
-      <c r="BI15" s="45"/>
-      <c r="BJ15" s="47"/>
-      <c r="BK15" s="45"/>
-      <c r="BL15" s="113"/>
-      <c r="BM15" s="113"/>
-      <c r="BN15" s="113"/>
-      <c r="BO15" s="113"/>
-      <c r="BP15" s="113"/>
-      <c r="BQ15" s="47" t="s">
+      <c r="AL15" s="54"/>
+      <c r="AM15" s="54"/>
+      <c r="AN15" s="58"/>
+      <c r="AO15" s="43"/>
+      <c r="AP15" s="44"/>
+      <c r="AQ15" s="44"/>
+      <c r="AR15" s="46"/>
+      <c r="AS15" s="43"/>
+      <c r="AT15" s="43"/>
+      <c r="AU15" s="44"/>
+      <c r="AV15" s="44"/>
+      <c r="AW15" s="44"/>
+      <c r="AX15" s="44"/>
+      <c r="AY15" s="46"/>
+      <c r="AZ15" s="43"/>
+      <c r="BA15" s="46"/>
+      <c r="BB15" s="43"/>
+      <c r="BC15" s="46"/>
+      <c r="BD15" s="44"/>
+      <c r="BE15" s="44"/>
+      <c r="BF15" s="46"/>
+      <c r="BG15" s="43"/>
+      <c r="BH15" s="47"/>
+      <c r="BI15" s="44"/>
+      <c r="BJ15" s="46"/>
+      <c r="BK15" s="44"/>
+      <c r="BL15" s="112"/>
+      <c r="BM15" s="112"/>
+      <c r="BN15" s="112"/>
+      <c r="BO15" s="112"/>
+      <c r="BP15" s="112"/>
+      <c r="BQ15" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="BR15" s="45"/>
-      <c r="BS15" s="45"/>
-      <c r="BT15" s="46"/>
-      <c r="BU15" s="44"/>
-      <c r="BV15" s="44"/>
-      <c r="BW15" s="44"/>
-      <c r="BX15" s="44"/>
-      <c r="BY15" s="45"/>
-      <c r="BZ15" s="45"/>
-      <c r="CA15" s="44"/>
-      <c r="CB15" s="44"/>
-      <c r="CC15" s="44"/>
-      <c r="CD15" s="44"/>
-      <c r="CE15" s="44"/>
+      <c r="BR15" s="44"/>
+      <c r="BS15" s="44"/>
+      <c r="BT15" s="45"/>
+      <c r="BU15" s="43"/>
+      <c r="BV15" s="43"/>
+      <c r="BW15" s="43"/>
+      <c r="BX15" s="43"/>
+      <c r="BY15" s="44"/>
+      <c r="BZ15" s="44"/>
+      <c r="CA15" s="43"/>
+      <c r="CB15" s="43"/>
+      <c r="CC15" s="43"/>
+      <c r="CD15" s="43"/>
+      <c r="CE15" s="43"/>
       <c r="CF15" s="39" t="s">
         <v>2</v>
       </c>
       <c r="CG15" s="39"/>
-      <c r="CH15" s="61"/>
-      <c r="CI15" s="61"/>
-      <c r="CJ15" s="61"/>
-      <c r="CK15" s="61"/>
-      <c r="CL15" s="61"/>
-      <c r="CM15" s="45"/>
-      <c r="CN15" s="43"/>
-      <c r="CO15" s="46"/>
-      <c r="CP15" s="44"/>
-      <c r="CQ15" s="44"/>
-      <c r="CR15" s="44"/>
-      <c r="CS15" s="44"/>
-      <c r="CT15" s="45"/>
-      <c r="CU15" s="45"/>
-      <c r="CV15" s="46"/>
-      <c r="CW15" s="44"/>
-      <c r="CX15" s="44"/>
-      <c r="CY15" s="44"/>
-      <c r="CZ15" s="44"/>
-      <c r="DA15" s="45"/>
-      <c r="DB15" s="45"/>
-      <c r="DC15" s="46"/>
-      <c r="DD15" s="44"/>
-      <c r="DE15" s="44"/>
-      <c r="DF15" s="44"/>
-      <c r="DG15" s="44"/>
-      <c r="DH15" s="45"/>
-      <c r="DI15" s="45"/>
-      <c r="DJ15" s="46"/>
-      <c r="DK15" s="44"/>
-      <c r="DL15" s="44"/>
-      <c r="DM15" s="44"/>
-      <c r="DN15" s="44"/>
-      <c r="DO15" s="45"/>
-      <c r="DP15" s="45"/>
-      <c r="DQ15" s="49"/>
-      <c r="DR15" s="83"/>
-      <c r="DS15" s="77"/>
-      <c r="DT15" s="77"/>
-      <c r="DU15" s="77"/>
-      <c r="DV15" s="78"/>
-      <c r="DW15" s="78"/>
-      <c r="DX15" s="78"/>
-      <c r="DY15" s="77"/>
-      <c r="DZ15" s="77"/>
-      <c r="EA15" s="77"/>
-      <c r="EB15" s="77"/>
-      <c r="EC15" s="78"/>
-      <c r="ED15" s="78"/>
-      <c r="EE15" s="79"/>
-      <c r="EF15" s="77"/>
-      <c r="EG15" s="77"/>
-      <c r="EH15" s="77"/>
-      <c r="EI15" s="77"/>
-      <c r="EJ15" s="78"/>
-      <c r="EK15" s="78"/>
-      <c r="EL15" s="79"/>
-      <c r="EM15" s="78"/>
-      <c r="EN15" s="77"/>
-      <c r="EO15" s="77"/>
-      <c r="EP15" s="77"/>
-      <c r="EQ15" s="78"/>
-      <c r="ER15" s="78"/>
-      <c r="ES15" s="79"/>
-      <c r="ET15" s="79"/>
-      <c r="EU15" s="79"/>
-      <c r="EV15" s="103"/>
+      <c r="CH15" s="60"/>
+      <c r="CI15" s="60"/>
+      <c r="CJ15" s="60"/>
+      <c r="CK15" s="60"/>
+      <c r="CL15" s="60"/>
+      <c r="CM15" s="44"/>
+      <c r="CN15" s="42"/>
+      <c r="CO15" s="45"/>
+      <c r="CP15" s="43"/>
+      <c r="CQ15" s="43"/>
+      <c r="CR15" s="43"/>
+      <c r="CS15" s="43"/>
+      <c r="CT15" s="44"/>
+      <c r="CU15" s="44"/>
+      <c r="CV15" s="45"/>
+      <c r="CW15" s="43"/>
+      <c r="CX15" s="43"/>
+      <c r="CY15" s="43"/>
+      <c r="CZ15" s="43"/>
+      <c r="DA15" s="44"/>
+      <c r="DB15" s="44"/>
+      <c r="DC15" s="45"/>
+      <c r="DD15" s="43"/>
+      <c r="DE15" s="43"/>
+      <c r="DF15" s="43"/>
+      <c r="DG15" s="43"/>
+      <c r="DH15" s="44"/>
+      <c r="DI15" s="44"/>
+      <c r="DJ15" s="45"/>
+      <c r="DK15" s="43"/>
+      <c r="DL15" s="43"/>
+      <c r="DM15" s="43"/>
+      <c r="DN15" s="43"/>
+      <c r="DO15" s="44"/>
+      <c r="DP15" s="44"/>
+      <c r="DQ15" s="48"/>
+      <c r="DR15" s="82"/>
+      <c r="DS15" s="76"/>
+      <c r="DT15" s="76"/>
+      <c r="DU15" s="76"/>
+      <c r="DV15" s="77"/>
+      <c r="DW15" s="77"/>
+      <c r="DX15" s="77"/>
+      <c r="DY15" s="76"/>
+      <c r="DZ15" s="76"/>
+      <c r="EA15" s="76"/>
+      <c r="EB15" s="76"/>
+      <c r="EC15" s="77"/>
+      <c r="ED15" s="77"/>
+      <c r="EE15" s="78"/>
+      <c r="EF15" s="76"/>
+      <c r="EG15" s="76"/>
+      <c r="EH15" s="76"/>
+      <c r="EI15" s="76"/>
+      <c r="EJ15" s="77"/>
+      <c r="EK15" s="77"/>
+      <c r="EL15" s="78"/>
+      <c r="EM15" s="77"/>
+      <c r="EN15" s="76"/>
+      <c r="EO15" s="76"/>
+      <c r="EP15" s="76"/>
+      <c r="EQ15" s="77"/>
+      <c r="ER15" s="77"/>
+      <c r="ES15" s="78"/>
+      <c r="ET15" s="78"/>
+      <c r="EU15" s="78"/>
+      <c r="EV15" s="102"/>
     </row>
     <row r="16" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A16" s="123"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="24"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -4446,15 +4446,15 @@
       <c r="AD16" s="13"/>
       <c r="AE16" s="16"/>
       <c r="AF16" s="16"/>
-      <c r="AG16" s="68"/>
+      <c r="AG16" s="67"/>
       <c r="AH16" s="16"/>
       <c r="AI16" s="14"/>
       <c r="AJ16" s="14"/>
-      <c r="AK16" s="57" t="s">
+      <c r="AK16" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="AL16" s="57"/>
-      <c r="AM16" s="57"/>
+      <c r="AL16" s="56"/>
+      <c r="AM16" s="56"/>
       <c r="AN16" s="16"/>
       <c r="AO16" s="16"/>
       <c r="AP16" s="14"/>
@@ -4479,11 +4479,11 @@
       <c r="BI16" s="14"/>
       <c r="BJ16" s="16"/>
       <c r="BK16" s="14"/>
-      <c r="BL16" s="114"/>
-      <c r="BM16" s="114"/>
-      <c r="BN16" s="114"/>
-      <c r="BO16" s="114"/>
-      <c r="BP16" s="114"/>
+      <c r="BL16" s="113"/>
+      <c r="BM16" s="113"/>
+      <c r="BN16" s="113"/>
+      <c r="BO16" s="113"/>
+      <c r="BP16" s="113"/>
       <c r="BQ16" s="16" t="s">
         <v>0</v>
       </c>
@@ -4539,7 +4539,7 @@
       <c r="DO16" s="14"/>
       <c r="DP16" s="14"/>
       <c r="DQ16" s="17"/>
-      <c r="DR16" s="68"/>
+      <c r="DR16" s="67"/>
       <c r="DS16" s="16"/>
       <c r="DT16" s="16"/>
       <c r="DU16" s="16"/>
@@ -4572,7 +4572,7 @@
       <c r="EV16" s="17"/>
     </row>
     <row r="17" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A17" s="123"/>
+      <c r="A17" s="122"/>
       <c r="B17" s="24"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -4604,14 +4604,14 @@
       <c r="AD17" s="13"/>
       <c r="AE17" s="16"/>
       <c r="AF17" s="16"/>
-      <c r="AG17" s="68"/>
+      <c r="AG17" s="67"/>
       <c r="AH17" s="16"/>
       <c r="AI17" s="14"/>
       <c r="AJ17" s="14"/>
       <c r="AK17" s="16"/>
       <c r="AL17" s="16"/>
       <c r="AM17" s="16"/>
-      <c r="AN17" s="59"/>
+      <c r="AN17" s="58"/>
       <c r="AO17" s="16"/>
       <c r="AP17" s="14"/>
       <c r="AQ17" s="14"/>
@@ -4635,11 +4635,11 @@
       <c r="BI17" s="14"/>
       <c r="BJ17" s="16"/>
       <c r="BK17" s="14"/>
-      <c r="BL17" s="114"/>
-      <c r="BM17" s="114"/>
-      <c r="BN17" s="114"/>
-      <c r="BO17" s="114"/>
-      <c r="BP17" s="114"/>
+      <c r="BL17" s="113"/>
+      <c r="BM17" s="113"/>
+      <c r="BN17" s="113"/>
+      <c r="BO17" s="113"/>
+      <c r="BP17" s="113"/>
       <c r="BQ17" s="16"/>
       <c r="BR17" s="14"/>
       <c r="BS17" s="14"/>
@@ -4657,7 +4657,7 @@
       <c r="CC17" s="16"/>
       <c r="CD17" s="16"/>
       <c r="CE17" s="16"/>
-      <c r="CF17" s="60" t="s">
+      <c r="CF17" s="59" t="s">
         <v>18</v>
       </c>
       <c r="CG17" s="14"/>
@@ -4666,10 +4666,10 @@
       <c r="CJ17" s="16"/>
       <c r="CK17" s="16"/>
       <c r="CL17" s="16"/>
-      <c r="CM17" s="60" t="s">
+      <c r="CM17" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="CN17" s="60"/>
+      <c r="CN17" s="59"/>
       <c r="CO17" s="13"/>
       <c r="CP17" s="16"/>
       <c r="CQ17" s="16"/>
@@ -4699,7 +4699,7 @@
       <c r="DO17" s="14"/>
       <c r="DP17" s="14"/>
       <c r="DQ17" s="17"/>
-      <c r="DR17" s="68"/>
+      <c r="DR17" s="67"/>
       <c r="DS17" s="16"/>
       <c r="DT17" s="16"/>
       <c r="DU17" s="16"/>
@@ -4732,7 +4732,7 @@
       <c r="EV17" s="17"/>
     </row>
     <row r="18" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A18" s="123"/>
+      <c r="A18" s="122"/>
       <c r="B18" s="24"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -4764,7 +4764,7 @@
       <c r="AD18" s="13"/>
       <c r="AE18" s="16"/>
       <c r="AF18" s="16"/>
-      <c r="AG18" s="68"/>
+      <c r="AG18" s="67"/>
       <c r="AH18" s="16"/>
       <c r="AI18" s="14"/>
       <c r="AJ18" s="14"/>
@@ -4795,11 +4795,11 @@
       <c r="BI18" s="14"/>
       <c r="BJ18" s="16"/>
       <c r="BK18" s="14"/>
-      <c r="BL18" s="114"/>
-      <c r="BM18" s="115"/>
-      <c r="BN18" s="114"/>
-      <c r="BO18" s="114"/>
-      <c r="BP18" s="114"/>
+      <c r="BL18" s="113"/>
+      <c r="BM18" s="114"/>
+      <c r="BN18" s="113"/>
+      <c r="BO18" s="113"/>
+      <c r="BP18" s="113"/>
       <c r="BQ18" s="16"/>
       <c r="BR18" s="14"/>
       <c r="BS18" s="14"/>
@@ -4855,7 +4855,7 @@
       <c r="DO18" s="14"/>
       <c r="DP18" s="14"/>
       <c r="DQ18" s="17"/>
-      <c r="DR18" s="68"/>
+      <c r="DR18" s="67"/>
       <c r="DS18" s="16"/>
       <c r="DT18" s="16"/>
       <c r="DU18" s="16"/>
@@ -4888,7 +4888,7 @@
       <c r="EV18" s="17"/>
     </row>
     <row r="19" spans="1:152" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="123"/>
+      <c r="A19" s="122"/>
       <c r="B19" s="26"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -4920,7 +4920,7 @@
       <c r="AD19" s="19"/>
       <c r="AE19" s="21"/>
       <c r="AF19" s="21"/>
-      <c r="AG19" s="69"/>
+      <c r="AG19" s="68"/>
       <c r="AH19" s="21"/>
       <c r="AI19" s="20"/>
       <c r="AJ19" s="20"/>
@@ -4951,11 +4951,11 @@
       <c r="BI19" s="20"/>
       <c r="BJ19" s="21"/>
       <c r="BK19" s="20"/>
-      <c r="BL19" s="116"/>
-      <c r="BM19" s="114"/>
-      <c r="BN19" s="116"/>
-      <c r="BO19" s="116"/>
-      <c r="BP19" s="116"/>
+      <c r="BL19" s="115"/>
+      <c r="BM19" s="113"/>
+      <c r="BN19" s="115"/>
+      <c r="BO19" s="115"/>
+      <c r="BP19" s="115"/>
       <c r="BQ19" s="21"/>
       <c r="BR19" s="20"/>
       <c r="BS19" s="20"/>
@@ -5011,202 +5011,202 @@
       <c r="DO19" s="20"/>
       <c r="DP19" s="20"/>
       <c r="DQ19" s="22"/>
-      <c r="DR19" s="71"/>
-      <c r="DS19" s="72"/>
-      <c r="DT19" s="72"/>
-      <c r="DU19" s="72"/>
-      <c r="DV19" s="73"/>
-      <c r="DW19" s="73"/>
-      <c r="DX19" s="73"/>
-      <c r="DY19" s="72"/>
-      <c r="DZ19" s="72"/>
-      <c r="EA19" s="72"/>
-      <c r="EB19" s="72"/>
-      <c r="EC19" s="73"/>
-      <c r="ED19" s="73"/>
-      <c r="EE19" s="74"/>
-      <c r="EF19" s="72"/>
-      <c r="EG19" s="72"/>
-      <c r="EH19" s="72"/>
-      <c r="EI19" s="72"/>
-      <c r="EJ19" s="73"/>
-      <c r="EK19" s="73"/>
-      <c r="EL19" s="74"/>
-      <c r="EM19" s="73"/>
-      <c r="EN19" s="72"/>
-      <c r="EO19" s="72"/>
-      <c r="EP19" s="72"/>
-      <c r="EQ19" s="73"/>
-      <c r="ER19" s="73"/>
-      <c r="ES19" s="74"/>
-      <c r="ET19" s="74"/>
-      <c r="EU19" s="74"/>
-      <c r="EV19" s="99"/>
+      <c r="DR19" s="70"/>
+      <c r="DS19" s="71"/>
+      <c r="DT19" s="71"/>
+      <c r="DU19" s="71"/>
+      <c r="DV19" s="72"/>
+      <c r="DW19" s="72"/>
+      <c r="DX19" s="72"/>
+      <c r="DY19" s="71"/>
+      <c r="DZ19" s="71"/>
+      <c r="EA19" s="71"/>
+      <c r="EB19" s="71"/>
+      <c r="EC19" s="72"/>
+      <c r="ED19" s="72"/>
+      <c r="EE19" s="73"/>
+      <c r="EF19" s="71"/>
+      <c r="EG19" s="71"/>
+      <c r="EH19" s="71"/>
+      <c r="EI19" s="71"/>
+      <c r="EJ19" s="72"/>
+      <c r="EK19" s="72"/>
+      <c r="EL19" s="73"/>
+      <c r="EM19" s="72"/>
+      <c r="EN19" s="71"/>
+      <c r="EO19" s="71"/>
+      <c r="EP19" s="71"/>
+      <c r="EQ19" s="72"/>
+      <c r="ER19" s="72"/>
+      <c r="ES19" s="73"/>
+      <c r="ET19" s="73"/>
+      <c r="EU19" s="73"/>
+      <c r="EV19" s="98"/>
     </row>
     <row r="20" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="125" t="s">
+      <c r="A20" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="87"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="77"/>
-      <c r="X20" s="77"/>
-      <c r="Y20" s="87"/>
-      <c r="Z20" s="77"/>
-      <c r="AA20" s="77"/>
-      <c r="AB20" s="78"/>
-      <c r="AC20" s="78"/>
-      <c r="AD20" s="77"/>
-      <c r="AE20" s="77"/>
-      <c r="AF20" s="87"/>
-      <c r="AG20" s="83"/>
-      <c r="AH20" s="41" t="s">
+      <c r="B20" s="75"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="76"/>
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="76"/>
+      <c r="AA20" s="76"/>
+      <c r="AB20" s="77"/>
+      <c r="AC20" s="77"/>
+      <c r="AD20" s="76"/>
+      <c r="AE20" s="76"/>
+      <c r="AF20" s="86"/>
+      <c r="AG20" s="82"/>
+      <c r="AH20" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AI20" s="81"/>
-      <c r="AJ20" s="81"/>
-      <c r="AK20" s="77"/>
-      <c r="AL20" s="77"/>
-      <c r="AM20" s="87"/>
-      <c r="AN20" s="77"/>
-      <c r="AO20" s="77"/>
-      <c r="AP20" s="78"/>
-      <c r="AQ20" s="78"/>
-      <c r="AR20" s="77"/>
-      <c r="AS20" s="77"/>
-      <c r="AT20" s="87"/>
-      <c r="AU20" s="78"/>
-      <c r="AV20" s="78"/>
-      <c r="AW20" s="78"/>
-      <c r="AX20" s="78"/>
-      <c r="AY20" s="77"/>
-      <c r="AZ20" s="77"/>
-      <c r="BA20" s="87"/>
-      <c r="BB20" s="77"/>
-      <c r="BC20" s="40" t="s">
+      <c r="AI20" s="80"/>
+      <c r="AJ20" s="80"/>
+      <c r="AK20" s="76"/>
+      <c r="AL20" s="76"/>
+      <c r="AM20" s="86"/>
+      <c r="AN20" s="76"/>
+      <c r="AO20" s="76"/>
+      <c r="AP20" s="77"/>
+      <c r="AQ20" s="77"/>
+      <c r="AR20" s="76"/>
+      <c r="AS20" s="76"/>
+      <c r="AT20" s="86"/>
+      <c r="AU20" s="77"/>
+      <c r="AV20" s="77"/>
+      <c r="AW20" s="77"/>
+      <c r="AX20" s="77"/>
+      <c r="AY20" s="76"/>
+      <c r="AZ20" s="76"/>
+      <c r="BA20" s="86"/>
+      <c r="BB20" s="76"/>
+      <c r="BC20" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="BD20" s="78"/>
-      <c r="BE20" s="78"/>
-      <c r="BF20" s="77"/>
-      <c r="BG20" s="77"/>
-      <c r="BH20" s="90"/>
-      <c r="BI20" s="89" t="s">
+      <c r="BD20" s="77"/>
+      <c r="BE20" s="77"/>
+      <c r="BF20" s="76"/>
+      <c r="BG20" s="76"/>
+      <c r="BH20" s="89"/>
+      <c r="BI20" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="BJ20" s="77"/>
-      <c r="BK20" s="78"/>
-      <c r="BL20" s="117"/>
-      <c r="BM20" s="117"/>
-      <c r="BN20" s="117"/>
-      <c r="BO20" s="118"/>
-      <c r="BP20" s="117"/>
-      <c r="BQ20" s="77"/>
-      <c r="BR20" s="78"/>
-      <c r="BS20" s="78"/>
-      <c r="BT20" s="77"/>
-      <c r="BU20" s="77"/>
-      <c r="BV20" s="87"/>
-      <c r="BW20" s="77"/>
-      <c r="BX20" s="77"/>
-      <c r="BY20" s="78"/>
-      <c r="BZ20" s="78"/>
-      <c r="CA20" s="77"/>
-      <c r="CB20" s="77"/>
-      <c r="CC20" s="87"/>
-      <c r="CD20" s="77"/>
-      <c r="CE20" s="77"/>
-      <c r="CF20" s="78"/>
-      <c r="CG20" s="78"/>
-      <c r="CH20" s="77"/>
-      <c r="CI20" s="77"/>
-      <c r="CJ20" s="87"/>
-      <c r="CK20" s="77"/>
-      <c r="CL20" s="77"/>
-      <c r="CM20" s="78"/>
-      <c r="CN20" s="76"/>
-      <c r="CO20" s="77"/>
-      <c r="CP20" s="77"/>
-      <c r="CQ20" s="87"/>
-      <c r="CR20" s="77"/>
-      <c r="CS20" s="77"/>
-      <c r="CT20" s="78"/>
-      <c r="CU20" s="78"/>
-      <c r="CV20" s="77"/>
-      <c r="CW20" s="77"/>
-      <c r="CX20" s="87"/>
-      <c r="CY20" s="77"/>
-      <c r="CZ20" s="77"/>
-      <c r="DA20" s="78"/>
-      <c r="DB20" s="78"/>
-      <c r="DC20" s="77"/>
-      <c r="DD20" s="77"/>
-      <c r="DE20" s="87"/>
-      <c r="DF20" s="77"/>
-      <c r="DG20" s="77"/>
-      <c r="DH20" s="78"/>
-      <c r="DI20" s="78"/>
-      <c r="DJ20" s="77"/>
-      <c r="DK20" s="77"/>
-      <c r="DL20" s="87"/>
-      <c r="DM20" s="77"/>
-      <c r="DN20" s="77"/>
-      <c r="DO20" s="78"/>
-      <c r="DP20" s="78"/>
-      <c r="DQ20" s="85"/>
-      <c r="DR20" s="83"/>
-      <c r="DS20" s="77"/>
-      <c r="DT20" s="77"/>
-      <c r="DU20" s="77"/>
-      <c r="DV20" s="78"/>
-      <c r="DW20" s="78"/>
-      <c r="DX20" s="78"/>
-      <c r="DY20" s="77"/>
-      <c r="DZ20" s="77"/>
-      <c r="EA20" s="77"/>
-      <c r="EB20" s="77"/>
-      <c r="EC20" s="78"/>
-      <c r="ED20" s="78"/>
-      <c r="EE20" s="79"/>
-      <c r="EF20" s="77"/>
-      <c r="EG20" s="77"/>
-      <c r="EH20" s="77"/>
-      <c r="EI20" s="77"/>
-      <c r="EJ20" s="78"/>
-      <c r="EK20" s="78"/>
-      <c r="EL20" s="79"/>
-      <c r="EM20" s="78"/>
-      <c r="EN20" s="77"/>
-      <c r="EO20" s="77"/>
-      <c r="EP20" s="77"/>
-      <c r="EQ20" s="78"/>
-      <c r="ER20" s="78"/>
-      <c r="ES20" s="79"/>
-      <c r="ET20" s="79"/>
-      <c r="EU20" s="79"/>
-      <c r="EV20" s="103"/>
+      <c r="BJ20" s="76"/>
+      <c r="BK20" s="77"/>
+      <c r="BL20" s="116"/>
+      <c r="BM20" s="116"/>
+      <c r="BN20" s="116"/>
+      <c r="BO20" s="117"/>
+      <c r="BP20" s="116"/>
+      <c r="BQ20" s="76"/>
+      <c r="BR20" s="77"/>
+      <c r="BS20" s="77"/>
+      <c r="BT20" s="76"/>
+      <c r="BU20" s="76"/>
+      <c r="BV20" s="86"/>
+      <c r="BW20" s="76"/>
+      <c r="BX20" s="76"/>
+      <c r="BY20" s="77"/>
+      <c r="BZ20" s="77"/>
+      <c r="CA20" s="76"/>
+      <c r="CB20" s="76"/>
+      <c r="CC20" s="86"/>
+      <c r="CD20" s="76"/>
+      <c r="CE20" s="76"/>
+      <c r="CF20" s="77"/>
+      <c r="CG20" s="77"/>
+      <c r="CH20" s="76"/>
+      <c r="CI20" s="76"/>
+      <c r="CJ20" s="86"/>
+      <c r="CK20" s="76"/>
+      <c r="CL20" s="76"/>
+      <c r="CM20" s="77"/>
+      <c r="CN20" s="75"/>
+      <c r="CO20" s="76"/>
+      <c r="CP20" s="76"/>
+      <c r="CQ20" s="86"/>
+      <c r="CR20" s="76"/>
+      <c r="CS20" s="76"/>
+      <c r="CT20" s="77"/>
+      <c r="CU20" s="77"/>
+      <c r="CV20" s="76"/>
+      <c r="CW20" s="76"/>
+      <c r="CX20" s="86"/>
+      <c r="CY20" s="76"/>
+      <c r="CZ20" s="76"/>
+      <c r="DA20" s="77"/>
+      <c r="DB20" s="77"/>
+      <c r="DC20" s="76"/>
+      <c r="DD20" s="76"/>
+      <c r="DE20" s="86"/>
+      <c r="DF20" s="76"/>
+      <c r="DG20" s="76"/>
+      <c r="DH20" s="77"/>
+      <c r="DI20" s="77"/>
+      <c r="DJ20" s="76"/>
+      <c r="DK20" s="76"/>
+      <c r="DL20" s="86"/>
+      <c r="DM20" s="76"/>
+      <c r="DN20" s="76"/>
+      <c r="DO20" s="77"/>
+      <c r="DP20" s="77"/>
+      <c r="DQ20" s="84"/>
+      <c r="DR20" s="82"/>
+      <c r="DS20" s="76"/>
+      <c r="DT20" s="76"/>
+      <c r="DU20" s="76"/>
+      <c r="DV20" s="77"/>
+      <c r="DW20" s="77"/>
+      <c r="DX20" s="77"/>
+      <c r="DY20" s="76"/>
+      <c r="DZ20" s="76"/>
+      <c r="EA20" s="76"/>
+      <c r="EB20" s="76"/>
+      <c r="EC20" s="77"/>
+      <c r="ED20" s="77"/>
+      <c r="EE20" s="78"/>
+      <c r="EF20" s="76"/>
+      <c r="EG20" s="76"/>
+      <c r="EH20" s="76"/>
+      <c r="EI20" s="76"/>
+      <c r="EJ20" s="77"/>
+      <c r="EK20" s="77"/>
+      <c r="EL20" s="78"/>
+      <c r="EM20" s="77"/>
+      <c r="EN20" s="76"/>
+      <c r="EO20" s="76"/>
+      <c r="EP20" s="76"/>
+      <c r="EQ20" s="77"/>
+      <c r="ER20" s="77"/>
+      <c r="ES20" s="78"/>
+      <c r="ET20" s="78"/>
+      <c r="EU20" s="78"/>
+      <c r="EV20" s="102"/>
     </row>
     <row r="21" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="123"/>
+      <c r="A21" s="122"/>
       <c r="B21" s="24"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -5238,12 +5238,12 @@
       <c r="AD21" s="16"/>
       <c r="AE21" s="16"/>
       <c r="AF21" s="16"/>
-      <c r="AG21" s="68"/>
-      <c r="AH21" s="57" t="s">
+      <c r="AG21" s="67"/>
+      <c r="AH21" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="AI21" s="57"/>
-      <c r="AJ21" s="57"/>
+      <c r="AI21" s="56"/>
+      <c r="AJ21" s="56"/>
       <c r="AK21" s="16"/>
       <c r="AL21" s="16"/>
       <c r="AM21" s="16"/>
@@ -5265,7 +5265,7 @@
       <c r="BC21" s="16"/>
       <c r="BD21" s="14"/>
       <c r="BE21" s="14"/>
-      <c r="BF21" s="23" t="s">
+      <c r="BF21" s="90" t="s">
         <v>2</v>
       </c>
       <c r="BG21" s="16"/>
@@ -5273,11 +5273,11 @@
       <c r="BI21" s="14"/>
       <c r="BJ21" s="16"/>
       <c r="BK21" s="14"/>
-      <c r="BL21" s="114"/>
-      <c r="BM21" s="114"/>
-      <c r="BN21" s="114"/>
-      <c r="BO21" s="114"/>
-      <c r="BP21" s="114"/>
+      <c r="BL21" s="113"/>
+      <c r="BM21" s="113"/>
+      <c r="BN21" s="113"/>
+      <c r="BO21" s="113"/>
+      <c r="BP21" s="113"/>
       <c r="BQ21" s="16"/>
       <c r="BR21" s="14"/>
       <c r="BS21" s="14"/>
@@ -5331,7 +5331,7 @@
       <c r="DO21" s="14"/>
       <c r="DP21" s="14"/>
       <c r="DQ21" s="25"/>
-      <c r="DR21" s="68"/>
+      <c r="DR21" s="67"/>
       <c r="DS21" s="16"/>
       <c r="DT21" s="16"/>
       <c r="DU21" s="16"/>
@@ -5364,7 +5364,7 @@
       <c r="EV21" s="17"/>
     </row>
     <row r="22" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="123"/>
+      <c r="A22" s="122"/>
       <c r="B22" s="24"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -5396,11 +5396,11 @@
       <c r="AD22" s="16"/>
       <c r="AE22" s="16"/>
       <c r="AF22" s="16"/>
-      <c r="AG22" s="68"/>
+      <c r="AG22" s="67"/>
       <c r="AH22" s="16"/>
       <c r="AI22" s="14"/>
       <c r="AJ22" s="14"/>
-      <c r="AK22" s="57" t="s">
+      <c r="AK22" s="56" t="s">
         <v>10</v>
       </c>
       <c r="AL22" s="16"/>
@@ -5418,10 +5418,10 @@
       <c r="AX22" s="14"/>
       <c r="AY22" s="16"/>
       <c r="AZ22" s="16"/>
-      <c r="BA22" s="91" t="s">
+      <c r="BA22" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="BB22" s="91"/>
+      <c r="BB22" s="90"/>
       <c r="BC22" s="16"/>
       <c r="BD22" s="14"/>
       <c r="BE22" s="14"/>
@@ -5431,11 +5431,11 @@
       <c r="BI22" s="14"/>
       <c r="BJ22" s="16"/>
       <c r="BK22" s="14"/>
-      <c r="BL22" s="114"/>
-      <c r="BM22" s="114"/>
-      <c r="BN22" s="114"/>
-      <c r="BO22" s="114"/>
-      <c r="BP22" s="114"/>
+      <c r="BL22" s="113"/>
+      <c r="BM22" s="113"/>
+      <c r="BN22" s="113"/>
+      <c r="BO22" s="113"/>
+      <c r="BP22" s="113"/>
       <c r="BQ22" s="16"/>
       <c r="BR22" s="14"/>
       <c r="BS22" s="14"/>
@@ -5489,7 +5489,7 @@
       <c r="DO22" s="14"/>
       <c r="DP22" s="14"/>
       <c r="DQ22" s="25"/>
-      <c r="DR22" s="68"/>
+      <c r="DR22" s="67"/>
       <c r="DS22" s="16"/>
       <c r="DT22" s="16"/>
       <c r="DU22" s="16"/>
@@ -5522,7 +5522,7 @@
       <c r="EV22" s="17"/>
     </row>
     <row r="23" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="123"/>
+      <c r="A23" s="122"/>
       <c r="B23" s="24"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -5559,7 +5559,7 @@
       <c r="AI23" s="14"/>
       <c r="AJ23" s="14"/>
       <c r="AK23" s="13"/>
-      <c r="AL23" s="91" t="s">
+      <c r="AL23" s="90" t="s">
         <v>28</v>
       </c>
       <c r="AM23" s="13"/>
@@ -5569,7 +5569,7 @@
       <c r="AQ23" s="14"/>
       <c r="AR23" s="13"/>
       <c r="AS23" s="13"/>
-      <c r="AT23" s="91" t="s">
+      <c r="AT23" s="90" t="s">
         <v>43</v>
       </c>
       <c r="AU23" s="14"/>
@@ -5589,11 +5589,11 @@
       <c r="BI23" s="14"/>
       <c r="BJ23" s="13"/>
       <c r="BK23" s="14"/>
-      <c r="BL23" s="114"/>
-      <c r="BM23" s="114"/>
-      <c r="BN23" s="114"/>
-      <c r="BO23" s="114"/>
-      <c r="BP23" s="114"/>
+      <c r="BL23" s="113"/>
+      <c r="BM23" s="113"/>
+      <c r="BN23" s="113"/>
+      <c r="BO23" s="113"/>
+      <c r="BP23" s="113"/>
       <c r="BQ23" s="13"/>
       <c r="BR23" s="14"/>
       <c r="BS23" s="14"/>
@@ -5647,7 +5647,7 @@
       <c r="DO23" s="14"/>
       <c r="DP23" s="14"/>
       <c r="DQ23" s="17"/>
-      <c r="DR23" s="68"/>
+      <c r="DR23" s="67"/>
       <c r="DS23" s="16"/>
       <c r="DT23" s="16"/>
       <c r="DU23" s="16"/>
@@ -5680,317 +5680,317 @@
       <c r="EV23" s="17"/>
     </row>
     <row r="24" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="124"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="93"/>
-      <c r="S24" s="93"/>
-      <c r="T24" s="93"/>
-      <c r="U24" s="94"/>
-      <c r="V24" s="94"/>
-      <c r="W24" s="93"/>
-      <c r="X24" s="93"/>
-      <c r="Y24" s="93"/>
-      <c r="Z24" s="93"/>
-      <c r="AA24" s="93"/>
-      <c r="AB24" s="94"/>
-      <c r="AC24" s="94"/>
-      <c r="AD24" s="93"/>
-      <c r="AE24" s="93"/>
-      <c r="AF24" s="93"/>
-      <c r="AG24" s="95"/>
-      <c r="AH24" s="93"/>
-      <c r="AI24" s="94"/>
-      <c r="AJ24" s="94"/>
-      <c r="AK24" s="93"/>
-      <c r="AL24" s="93"/>
-      <c r="AM24" s="93"/>
-      <c r="AN24" s="93"/>
-      <c r="AO24" s="93"/>
-      <c r="AP24" s="94"/>
-      <c r="AQ24" s="94"/>
-      <c r="AR24" s="93"/>
-      <c r="AS24" s="93"/>
-      <c r="AT24" s="93"/>
-      <c r="AU24" s="94"/>
-      <c r="AV24" s="94"/>
-      <c r="AW24" s="94"/>
-      <c r="AX24" s="94"/>
-      <c r="AY24" s="93"/>
-      <c r="AZ24" s="93"/>
-      <c r="BA24" s="93"/>
-      <c r="BB24" s="93"/>
-      <c r="BC24" s="93"/>
-      <c r="BD24" s="94"/>
-      <c r="BE24" s="94"/>
-      <c r="BF24" s="93"/>
-      <c r="BG24" s="93"/>
-      <c r="BH24" s="96"/>
-      <c r="BI24" s="94"/>
-      <c r="BJ24" s="93"/>
-      <c r="BK24" s="94"/>
-      <c r="BL24" s="119"/>
-      <c r="BM24" s="119"/>
-      <c r="BN24" s="119"/>
-      <c r="BO24" s="119"/>
-      <c r="BP24" s="119"/>
-      <c r="BQ24" s="93"/>
-      <c r="BR24" s="94"/>
-      <c r="BS24" s="94"/>
-      <c r="BT24" s="93"/>
-      <c r="BU24" s="93"/>
-      <c r="BV24" s="93"/>
-      <c r="BW24" s="93"/>
-      <c r="BX24" s="93"/>
-      <c r="BY24" s="94"/>
-      <c r="BZ24" s="94"/>
-      <c r="CA24" s="93"/>
-      <c r="CB24" s="93"/>
-      <c r="CC24" s="93"/>
-      <c r="CD24" s="93"/>
-      <c r="CE24" s="93"/>
-      <c r="CF24" s="94"/>
-      <c r="CG24" s="94"/>
-      <c r="CH24" s="93"/>
-      <c r="CI24" s="93"/>
-      <c r="CJ24" s="93"/>
-      <c r="CK24" s="93"/>
-      <c r="CL24" s="93"/>
-      <c r="CM24" s="94"/>
-      <c r="CN24" s="92"/>
-      <c r="CO24" s="93"/>
-      <c r="CP24" s="93"/>
-      <c r="CQ24" s="93"/>
-      <c r="CR24" s="93"/>
-      <c r="CS24" s="93"/>
-      <c r="CT24" s="94"/>
-      <c r="CU24" s="94"/>
-      <c r="CV24" s="93"/>
-      <c r="CW24" s="93"/>
-      <c r="CX24" s="93"/>
-      <c r="CY24" s="93"/>
-      <c r="CZ24" s="93"/>
-      <c r="DA24" s="94"/>
-      <c r="DB24" s="94"/>
-      <c r="DC24" s="93"/>
-      <c r="DD24" s="93"/>
-      <c r="DE24" s="93"/>
-      <c r="DF24" s="93"/>
-      <c r="DG24" s="93"/>
-      <c r="DH24" s="94"/>
-      <c r="DI24" s="94"/>
-      <c r="DJ24" s="93"/>
-      <c r="DK24" s="93"/>
-      <c r="DL24" s="93"/>
-      <c r="DM24" s="93"/>
-      <c r="DN24" s="93"/>
-      <c r="DO24" s="94"/>
-      <c r="DP24" s="94"/>
-      <c r="DQ24" s="96"/>
-      <c r="DR24" s="71"/>
-      <c r="DS24" s="72"/>
-      <c r="DT24" s="72"/>
-      <c r="DU24" s="72"/>
-      <c r="DV24" s="73"/>
-      <c r="DW24" s="73"/>
-      <c r="DX24" s="73"/>
-      <c r="DY24" s="72"/>
-      <c r="DZ24" s="72"/>
-      <c r="EA24" s="72"/>
-      <c r="EB24" s="72"/>
-      <c r="EC24" s="73"/>
-      <c r="ED24" s="73"/>
-      <c r="EE24" s="74"/>
-      <c r="EF24" s="72"/>
-      <c r="EG24" s="72"/>
-      <c r="EH24" s="72"/>
-      <c r="EI24" s="72"/>
-      <c r="EJ24" s="73"/>
-      <c r="EK24" s="73"/>
-      <c r="EL24" s="74"/>
-      <c r="EM24" s="73"/>
-      <c r="EN24" s="72"/>
-      <c r="EO24" s="72"/>
-      <c r="EP24" s="72"/>
-      <c r="EQ24" s="73"/>
-      <c r="ER24" s="73"/>
-      <c r="ES24" s="74"/>
-      <c r="ET24" s="74"/>
-      <c r="EU24" s="74"/>
-      <c r="EV24" s="99"/>
+      <c r="A24" s="123"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="92"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="92"/>
+      <c r="T24" s="92"/>
+      <c r="U24" s="93"/>
+      <c r="V24" s="93"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="92"/>
+      <c r="Y24" s="92"/>
+      <c r="Z24" s="92"/>
+      <c r="AA24" s="92"/>
+      <c r="AB24" s="93"/>
+      <c r="AC24" s="93"/>
+      <c r="AD24" s="92"/>
+      <c r="AE24" s="92"/>
+      <c r="AF24" s="92"/>
+      <c r="AG24" s="94"/>
+      <c r="AH24" s="92"/>
+      <c r="AI24" s="93"/>
+      <c r="AJ24" s="93"/>
+      <c r="AK24" s="92"/>
+      <c r="AL24" s="92"/>
+      <c r="AM24" s="92"/>
+      <c r="AN24" s="92"/>
+      <c r="AO24" s="92"/>
+      <c r="AP24" s="93"/>
+      <c r="AQ24" s="93"/>
+      <c r="AR24" s="92"/>
+      <c r="AS24" s="92"/>
+      <c r="AT24" s="92"/>
+      <c r="AU24" s="93"/>
+      <c r="AV24" s="93"/>
+      <c r="AW24" s="93"/>
+      <c r="AX24" s="93"/>
+      <c r="AY24" s="92"/>
+      <c r="AZ24" s="92"/>
+      <c r="BA24" s="92"/>
+      <c r="BB24" s="92"/>
+      <c r="BC24" s="92"/>
+      <c r="BD24" s="93"/>
+      <c r="BE24" s="93"/>
+      <c r="BF24" s="92"/>
+      <c r="BG24" s="92"/>
+      <c r="BH24" s="95"/>
+      <c r="BI24" s="93"/>
+      <c r="BJ24" s="92"/>
+      <c r="BK24" s="93"/>
+      <c r="BL24" s="118"/>
+      <c r="BM24" s="118"/>
+      <c r="BN24" s="118"/>
+      <c r="BO24" s="118"/>
+      <c r="BP24" s="118"/>
+      <c r="BQ24" s="92"/>
+      <c r="BR24" s="93"/>
+      <c r="BS24" s="93"/>
+      <c r="BT24" s="92"/>
+      <c r="BU24" s="92"/>
+      <c r="BV24" s="92"/>
+      <c r="BW24" s="92"/>
+      <c r="BX24" s="92"/>
+      <c r="BY24" s="93"/>
+      <c r="BZ24" s="93"/>
+      <c r="CA24" s="92"/>
+      <c r="CB24" s="92"/>
+      <c r="CC24" s="92"/>
+      <c r="CD24" s="92"/>
+      <c r="CE24" s="92"/>
+      <c r="CF24" s="93"/>
+      <c r="CG24" s="93"/>
+      <c r="CH24" s="92"/>
+      <c r="CI24" s="92"/>
+      <c r="CJ24" s="92"/>
+      <c r="CK24" s="92"/>
+      <c r="CL24" s="92"/>
+      <c r="CM24" s="93"/>
+      <c r="CN24" s="91"/>
+      <c r="CO24" s="92"/>
+      <c r="CP24" s="92"/>
+      <c r="CQ24" s="92"/>
+      <c r="CR24" s="92"/>
+      <c r="CS24" s="92"/>
+      <c r="CT24" s="93"/>
+      <c r="CU24" s="93"/>
+      <c r="CV24" s="92"/>
+      <c r="CW24" s="92"/>
+      <c r="CX24" s="92"/>
+      <c r="CY24" s="92"/>
+      <c r="CZ24" s="92"/>
+      <c r="DA24" s="93"/>
+      <c r="DB24" s="93"/>
+      <c r="DC24" s="92"/>
+      <c r="DD24" s="92"/>
+      <c r="DE24" s="92"/>
+      <c r="DF24" s="92"/>
+      <c r="DG24" s="92"/>
+      <c r="DH24" s="93"/>
+      <c r="DI24" s="93"/>
+      <c r="DJ24" s="92"/>
+      <c r="DK24" s="92"/>
+      <c r="DL24" s="92"/>
+      <c r="DM24" s="92"/>
+      <c r="DN24" s="92"/>
+      <c r="DO24" s="93"/>
+      <c r="DP24" s="93"/>
+      <c r="DQ24" s="95"/>
+      <c r="DR24" s="70"/>
+      <c r="DS24" s="71"/>
+      <c r="DT24" s="71"/>
+      <c r="DU24" s="71"/>
+      <c r="DV24" s="72"/>
+      <c r="DW24" s="72"/>
+      <c r="DX24" s="72"/>
+      <c r="DY24" s="71"/>
+      <c r="DZ24" s="71"/>
+      <c r="EA24" s="71"/>
+      <c r="EB24" s="71"/>
+      <c r="EC24" s="72"/>
+      <c r="ED24" s="72"/>
+      <c r="EE24" s="73"/>
+      <c r="EF24" s="71"/>
+      <c r="EG24" s="71"/>
+      <c r="EH24" s="71"/>
+      <c r="EI24" s="71"/>
+      <c r="EJ24" s="72"/>
+      <c r="EK24" s="72"/>
+      <c r="EL24" s="73"/>
+      <c r="EM24" s="72"/>
+      <c r="EN24" s="71"/>
+      <c r="EO24" s="71"/>
+      <c r="EP24" s="71"/>
+      <c r="EQ24" s="72"/>
+      <c r="ER24" s="72"/>
+      <c r="ES24" s="73"/>
+      <c r="ET24" s="73"/>
+      <c r="EU24" s="73"/>
+      <c r="EV24" s="98"/>
     </row>
     <row r="25" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="125" t="s">
+      <c r="A25" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="76"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="78"/>
-      <c r="O25" s="78"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="77"/>
-      <c r="S25" s="77"/>
-      <c r="T25" s="77"/>
-      <c r="U25" s="78"/>
-      <c r="V25" s="78"/>
-      <c r="W25" s="84"/>
-      <c r="X25" s="77"/>
-      <c r="Y25" s="77"/>
-      <c r="Z25" s="77"/>
-      <c r="AA25" s="79"/>
-      <c r="AB25" s="78"/>
-      <c r="AC25" s="78"/>
-      <c r="AD25" s="79"/>
-      <c r="AE25" s="77"/>
-      <c r="AF25" s="77"/>
-      <c r="AG25" s="83"/>
-      <c r="AH25" s="84"/>
-      <c r="AI25" s="78"/>
-      <c r="AJ25" s="78"/>
-      <c r="AK25" s="79"/>
-      <c r="AL25" s="77"/>
-      <c r="AM25" s="77"/>
-      <c r="AN25" s="77"/>
-      <c r="AO25" s="84"/>
-      <c r="AP25" s="78"/>
-      <c r="AQ25" s="78"/>
-      <c r="AR25" s="79"/>
-      <c r="AS25" s="77"/>
-      <c r="AT25" s="84"/>
-      <c r="AU25" s="78"/>
-      <c r="AV25" s="78"/>
-      <c r="AW25" s="78"/>
-      <c r="AX25" s="78"/>
-      <c r="AY25" s="79"/>
-      <c r="AZ25" s="77"/>
-      <c r="BA25" s="77"/>
-      <c r="BB25" s="77"/>
-      <c r="BC25" s="77"/>
-      <c r="BD25" s="78"/>
-      <c r="BE25" s="78"/>
-      <c r="BF25" s="79"/>
-      <c r="BG25" s="77"/>
-      <c r="BH25" s="85"/>
-      <c r="BI25" s="78"/>
-      <c r="BJ25" s="77"/>
-      <c r="BK25" s="78"/>
-      <c r="BL25" s="117"/>
-      <c r="BM25" s="117"/>
-      <c r="BN25" s="117"/>
-      <c r="BO25" s="117"/>
-      <c r="BP25" s="117"/>
-      <c r="BQ25" s="77"/>
-      <c r="BR25" s="78"/>
-      <c r="BS25" s="78"/>
-      <c r="BT25" s="79"/>
-      <c r="BU25" s="77"/>
-      <c r="BV25" s="77"/>
-      <c r="BW25" s="77"/>
-      <c r="BX25" s="77"/>
-      <c r="BY25" s="78"/>
-      <c r="BZ25" s="78"/>
-      <c r="CA25" s="79"/>
-      <c r="CB25" s="77"/>
-      <c r="CC25" s="77"/>
-      <c r="CD25" s="77"/>
-      <c r="CE25" s="77"/>
-      <c r="CF25" s="78"/>
-      <c r="CG25" s="78"/>
-      <c r="CH25" s="79"/>
-      <c r="CI25" s="77"/>
-      <c r="CJ25" s="77"/>
-      <c r="CK25" s="77"/>
-      <c r="CL25" s="77"/>
-      <c r="CM25" s="78"/>
-      <c r="CN25" s="76"/>
-      <c r="CO25" s="79"/>
-      <c r="CP25" s="77"/>
-      <c r="CQ25" s="77"/>
-      <c r="CR25" s="77"/>
-      <c r="CS25" s="77"/>
-      <c r="CT25" s="78"/>
-      <c r="CU25" s="78"/>
-      <c r="CV25" s="79"/>
-      <c r="CW25" s="77"/>
-      <c r="CX25" s="77"/>
-      <c r="CY25" s="77"/>
-      <c r="CZ25" s="77"/>
-      <c r="DA25" s="78"/>
-      <c r="DB25" s="78"/>
-      <c r="DC25" s="79"/>
-      <c r="DD25" s="77"/>
-      <c r="DE25" s="77"/>
-      <c r="DF25" s="77"/>
-      <c r="DG25" s="77"/>
-      <c r="DH25" s="78"/>
-      <c r="DI25" s="78"/>
-      <c r="DJ25" s="79"/>
-      <c r="DK25" s="77"/>
-      <c r="DL25" s="77"/>
-      <c r="DM25" s="77"/>
-      <c r="DN25" s="77"/>
-      <c r="DO25" s="78"/>
-      <c r="DP25" s="78"/>
-      <c r="DQ25" s="85"/>
-      <c r="DR25" s="83"/>
-      <c r="DS25" s="77"/>
-      <c r="DT25" s="77"/>
-      <c r="DU25" s="77"/>
-      <c r="DV25" s="78"/>
-      <c r="DW25" s="78"/>
-      <c r="DX25" s="78"/>
-      <c r="DY25" s="77"/>
-      <c r="DZ25" s="77"/>
-      <c r="EA25" s="77"/>
-      <c r="EB25" s="77"/>
-      <c r="EC25" s="78"/>
-      <c r="ED25" s="78"/>
-      <c r="EE25" s="79"/>
-      <c r="EF25" s="77"/>
-      <c r="EG25" s="77"/>
-      <c r="EH25" s="77"/>
-      <c r="EI25" s="77"/>
-      <c r="EJ25" s="78"/>
-      <c r="EK25" s="78"/>
-      <c r="EL25" s="79"/>
-      <c r="EM25" s="78"/>
-      <c r="EN25" s="77"/>
-      <c r="EO25" s="77"/>
-      <c r="EP25" s="77"/>
-      <c r="EQ25" s="78"/>
-      <c r="ER25" s="78"/>
-      <c r="ES25" s="79"/>
-      <c r="ET25" s="79"/>
-      <c r="EU25" s="79"/>
-      <c r="EV25" s="103"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="76"/>
+      <c r="S25" s="76"/>
+      <c r="T25" s="76"/>
+      <c r="U25" s="77"/>
+      <c r="V25" s="77"/>
+      <c r="W25" s="83"/>
+      <c r="X25" s="76"/>
+      <c r="Y25" s="76"/>
+      <c r="Z25" s="76"/>
+      <c r="AA25" s="78"/>
+      <c r="AB25" s="77"/>
+      <c r="AC25" s="77"/>
+      <c r="AD25" s="78"/>
+      <c r="AE25" s="76"/>
+      <c r="AF25" s="76"/>
+      <c r="AG25" s="82"/>
+      <c r="AH25" s="83"/>
+      <c r="AI25" s="77"/>
+      <c r="AJ25" s="77"/>
+      <c r="AK25" s="78"/>
+      <c r="AL25" s="76"/>
+      <c r="AM25" s="76"/>
+      <c r="AN25" s="76"/>
+      <c r="AO25" s="83"/>
+      <c r="AP25" s="77"/>
+      <c r="AQ25" s="77"/>
+      <c r="AR25" s="78"/>
+      <c r="AS25" s="76"/>
+      <c r="AT25" s="83"/>
+      <c r="AU25" s="77"/>
+      <c r="AV25" s="77"/>
+      <c r="AW25" s="77"/>
+      <c r="AX25" s="77"/>
+      <c r="AY25" s="78"/>
+      <c r="AZ25" s="76"/>
+      <c r="BA25" s="76"/>
+      <c r="BB25" s="76"/>
+      <c r="BC25" s="76"/>
+      <c r="BD25" s="77"/>
+      <c r="BE25" s="77"/>
+      <c r="BF25" s="78"/>
+      <c r="BG25" s="76"/>
+      <c r="BH25" s="84"/>
+      <c r="BI25" s="77"/>
+      <c r="BJ25" s="76"/>
+      <c r="BK25" s="77"/>
+      <c r="BL25" s="116"/>
+      <c r="BM25" s="116"/>
+      <c r="BN25" s="116"/>
+      <c r="BO25" s="116"/>
+      <c r="BP25" s="116"/>
+      <c r="BQ25" s="76"/>
+      <c r="BR25" s="77"/>
+      <c r="BS25" s="77"/>
+      <c r="BT25" s="78"/>
+      <c r="BU25" s="76"/>
+      <c r="BV25" s="76"/>
+      <c r="BW25" s="76"/>
+      <c r="BX25" s="76"/>
+      <c r="BY25" s="77"/>
+      <c r="BZ25" s="77"/>
+      <c r="CA25" s="78"/>
+      <c r="CB25" s="76"/>
+      <c r="CC25" s="76"/>
+      <c r="CD25" s="76"/>
+      <c r="CE25" s="76"/>
+      <c r="CF25" s="77"/>
+      <c r="CG25" s="77"/>
+      <c r="CH25" s="78"/>
+      <c r="CI25" s="76"/>
+      <c r="CJ25" s="76"/>
+      <c r="CK25" s="76"/>
+      <c r="CL25" s="76"/>
+      <c r="CM25" s="77"/>
+      <c r="CN25" s="75"/>
+      <c r="CO25" s="78"/>
+      <c r="CP25" s="76"/>
+      <c r="CQ25" s="76"/>
+      <c r="CR25" s="76"/>
+      <c r="CS25" s="76"/>
+      <c r="CT25" s="77"/>
+      <c r="CU25" s="77"/>
+      <c r="CV25" s="78"/>
+      <c r="CW25" s="76"/>
+      <c r="CX25" s="76"/>
+      <c r="CY25" s="76"/>
+      <c r="CZ25" s="76"/>
+      <c r="DA25" s="77"/>
+      <c r="DB25" s="77"/>
+      <c r="DC25" s="78"/>
+      <c r="DD25" s="76"/>
+      <c r="DE25" s="76"/>
+      <c r="DF25" s="76"/>
+      <c r="DG25" s="76"/>
+      <c r="DH25" s="77"/>
+      <c r="DI25" s="77"/>
+      <c r="DJ25" s="78"/>
+      <c r="DK25" s="76"/>
+      <c r="DL25" s="76"/>
+      <c r="DM25" s="76"/>
+      <c r="DN25" s="76"/>
+      <c r="DO25" s="77"/>
+      <c r="DP25" s="77"/>
+      <c r="DQ25" s="84"/>
+      <c r="DR25" s="82"/>
+      <c r="DS25" s="76"/>
+      <c r="DT25" s="76"/>
+      <c r="DU25" s="76"/>
+      <c r="DV25" s="77"/>
+      <c r="DW25" s="77"/>
+      <c r="DX25" s="77"/>
+      <c r="DY25" s="76"/>
+      <c r="DZ25" s="76"/>
+      <c r="EA25" s="76"/>
+      <c r="EB25" s="76"/>
+      <c r="EC25" s="77"/>
+      <c r="ED25" s="77"/>
+      <c r="EE25" s="78"/>
+      <c r="EF25" s="76"/>
+      <c r="EG25" s="76"/>
+      <c r="EH25" s="76"/>
+      <c r="EI25" s="76"/>
+      <c r="EJ25" s="77"/>
+      <c r="EK25" s="77"/>
+      <c r="EL25" s="78"/>
+      <c r="EM25" s="77"/>
+      <c r="EN25" s="76"/>
+      <c r="EO25" s="76"/>
+      <c r="EP25" s="76"/>
+      <c r="EQ25" s="77"/>
+      <c r="ER25" s="77"/>
+      <c r="ES25" s="78"/>
+      <c r="ET25" s="78"/>
+      <c r="EU25" s="78"/>
+      <c r="EV25" s="102"/>
     </row>
     <row r="26" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="123"/>
+      <c r="A26" s="122"/>
       <c r="B26" s="24"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -6022,7 +6022,7 @@
       <c r="AD26" s="13"/>
       <c r="AE26" s="16"/>
       <c r="AF26" s="16"/>
-      <c r="AG26" s="68"/>
+      <c r="AG26" s="67"/>
       <c r="AH26" s="23"/>
       <c r="AI26" s="14"/>
       <c r="AJ26" s="14"/>
@@ -6053,11 +6053,11 @@
       <c r="BI26" s="14"/>
       <c r="BJ26" s="16"/>
       <c r="BK26" s="14"/>
-      <c r="BL26" s="114"/>
-      <c r="BM26" s="114"/>
-      <c r="BN26" s="114"/>
-      <c r="BO26" s="114"/>
-      <c r="BP26" s="114"/>
+      <c r="BL26" s="113"/>
+      <c r="BM26" s="113"/>
+      <c r="BN26" s="113"/>
+      <c r="BO26" s="113"/>
+      <c r="BP26" s="113"/>
       <c r="BQ26" s="16"/>
       <c r="BR26" s="14"/>
       <c r="BS26" s="14"/>
@@ -6111,7 +6111,7 @@
       <c r="DO26" s="14"/>
       <c r="DP26" s="14"/>
       <c r="DQ26" s="25"/>
-      <c r="DR26" s="68"/>
+      <c r="DR26" s="67"/>
       <c r="DS26" s="16"/>
       <c r="DT26" s="16"/>
       <c r="DU26" s="16"/>
@@ -6144,7 +6144,7 @@
       <c r="EV26" s="17"/>
     </row>
     <row r="27" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="123"/>
+      <c r="A27" s="122"/>
       <c r="B27" s="24"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -6176,7 +6176,7 @@
       <c r="AD27" s="13"/>
       <c r="AE27" s="16"/>
       <c r="AF27" s="16"/>
-      <c r="AG27" s="68"/>
+      <c r="AG27" s="67"/>
       <c r="AH27" s="16"/>
       <c r="AI27" s="14"/>
       <c r="AJ27" s="14"/>
@@ -6207,11 +6207,11 @@
       <c r="BI27" s="14"/>
       <c r="BJ27" s="16"/>
       <c r="BK27" s="14"/>
-      <c r="BL27" s="114"/>
-      <c r="BM27" s="114"/>
-      <c r="BN27" s="114"/>
-      <c r="BO27" s="114"/>
-      <c r="BP27" s="114"/>
+      <c r="BL27" s="113"/>
+      <c r="BM27" s="113"/>
+      <c r="BN27" s="113"/>
+      <c r="BO27" s="113"/>
+      <c r="BP27" s="113"/>
       <c r="BQ27" s="16"/>
       <c r="BR27" s="14"/>
       <c r="BS27" s="14"/>
@@ -6265,7 +6265,7 @@
       <c r="DO27" s="14"/>
       <c r="DP27" s="14"/>
       <c r="DQ27" s="25"/>
-      <c r="DR27" s="68"/>
+      <c r="DR27" s="67"/>
       <c r="DS27" s="16"/>
       <c r="DT27" s="16"/>
       <c r="DU27" s="16"/>
@@ -6298,7 +6298,7 @@
       <c r="EV27" s="17"/>
     </row>
     <row r="28" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="123"/>
+      <c r="A28" s="122"/>
       <c r="B28" s="24"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -6330,7 +6330,7 @@
       <c r="AD28" s="13"/>
       <c r="AE28" s="16"/>
       <c r="AF28" s="16"/>
-      <c r="AG28" s="68"/>
+      <c r="AG28" s="67"/>
       <c r="AH28" s="16"/>
       <c r="AI28" s="14"/>
       <c r="AJ28" s="14"/>
@@ -6361,11 +6361,11 @@
       <c r="BI28" s="14"/>
       <c r="BJ28" s="16"/>
       <c r="BK28" s="14"/>
-      <c r="BL28" s="114"/>
-      <c r="BM28" s="114"/>
-      <c r="BN28" s="114"/>
-      <c r="BO28" s="114"/>
-      <c r="BP28" s="114"/>
+      <c r="BL28" s="113"/>
+      <c r="BM28" s="113"/>
+      <c r="BN28" s="113"/>
+      <c r="BO28" s="113"/>
+      <c r="BP28" s="113"/>
       <c r="BQ28" s="16"/>
       <c r="BR28" s="14"/>
       <c r="BS28" s="14"/>
@@ -6419,7 +6419,7 @@
       <c r="DO28" s="14"/>
       <c r="DP28" s="14"/>
       <c r="DQ28" s="17"/>
-      <c r="DR28" s="68"/>
+      <c r="DR28" s="67"/>
       <c r="DS28" s="16"/>
       <c r="DT28" s="16"/>
       <c r="DU28" s="16"/>
@@ -6452,327 +6452,327 @@
       <c r="EV28" s="17"/>
     </row>
     <row r="29" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="123"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="72"/>
-      <c r="U29" s="73"/>
-      <c r="V29" s="73"/>
-      <c r="W29" s="74"/>
-      <c r="X29" s="72"/>
-      <c r="Y29" s="72"/>
-      <c r="Z29" s="72"/>
-      <c r="AA29" s="72"/>
-      <c r="AB29" s="73"/>
-      <c r="AC29" s="73"/>
-      <c r="AD29" s="74"/>
-      <c r="AE29" s="72"/>
-      <c r="AF29" s="72"/>
-      <c r="AG29" s="71"/>
-      <c r="AH29" s="72"/>
-      <c r="AI29" s="73"/>
-      <c r="AJ29" s="73"/>
-      <c r="AK29" s="74"/>
-      <c r="AL29" s="72"/>
-      <c r="AM29" s="72"/>
-      <c r="AN29" s="72"/>
-      <c r="AO29" s="72"/>
-      <c r="AP29" s="73"/>
-      <c r="AQ29" s="73"/>
-      <c r="AR29" s="74"/>
-      <c r="AS29" s="72"/>
-      <c r="AT29" s="72"/>
-      <c r="AU29" s="73"/>
-      <c r="AV29" s="73"/>
-      <c r="AW29" s="73"/>
-      <c r="AX29" s="73"/>
-      <c r="AY29" s="74"/>
-      <c r="AZ29" s="72"/>
-      <c r="BA29" s="72"/>
-      <c r="BB29" s="72"/>
-      <c r="BC29" s="72"/>
-      <c r="BD29" s="73"/>
-      <c r="BE29" s="73"/>
-      <c r="BF29" s="74"/>
-      <c r="BG29" s="72"/>
-      <c r="BH29" s="75"/>
-      <c r="BI29" s="73"/>
-      <c r="BJ29" s="72"/>
-      <c r="BK29" s="73"/>
-      <c r="BL29" s="120"/>
-      <c r="BM29" s="120"/>
-      <c r="BN29" s="120"/>
-      <c r="BO29" s="120"/>
-      <c r="BP29" s="120"/>
-      <c r="BQ29" s="72"/>
-      <c r="BR29" s="73"/>
-      <c r="BS29" s="73"/>
-      <c r="BT29" s="74"/>
-      <c r="BU29" s="72"/>
-      <c r="BV29" s="72"/>
-      <c r="BW29" s="72"/>
-      <c r="BX29" s="72"/>
-      <c r="BY29" s="73"/>
-      <c r="BZ29" s="73"/>
-      <c r="CA29" s="74"/>
-      <c r="CB29" s="72"/>
-      <c r="CC29" s="72"/>
-      <c r="CD29" s="72"/>
-      <c r="CE29" s="72"/>
-      <c r="CF29" s="73"/>
-      <c r="CG29" s="73"/>
-      <c r="CH29" s="74"/>
-      <c r="CI29" s="72"/>
-      <c r="CJ29" s="72"/>
-      <c r="CK29" s="72"/>
-      <c r="CL29" s="72"/>
-      <c r="CM29" s="73"/>
-      <c r="CN29" s="86"/>
-      <c r="CO29" s="74"/>
-      <c r="CP29" s="72"/>
-      <c r="CQ29" s="72"/>
-      <c r="CR29" s="72"/>
-      <c r="CS29" s="72"/>
-      <c r="CT29" s="73"/>
-      <c r="CU29" s="73"/>
-      <c r="CV29" s="74"/>
-      <c r="CW29" s="72"/>
-      <c r="CX29" s="72"/>
-      <c r="CY29" s="72"/>
-      <c r="CZ29" s="72"/>
-      <c r="DA29" s="73"/>
-      <c r="DB29" s="73"/>
-      <c r="DC29" s="74"/>
-      <c r="DD29" s="72"/>
-      <c r="DE29" s="72"/>
-      <c r="DF29" s="72"/>
-      <c r="DG29" s="72"/>
-      <c r="DH29" s="73"/>
-      <c r="DI29" s="73"/>
-      <c r="DJ29" s="74"/>
-      <c r="DK29" s="72"/>
-      <c r="DL29" s="72"/>
-      <c r="DM29" s="72"/>
-      <c r="DN29" s="72"/>
-      <c r="DO29" s="73"/>
-      <c r="DP29" s="73"/>
-      <c r="DQ29" s="96"/>
-      <c r="DR29" s="71"/>
-      <c r="DS29" s="72"/>
-      <c r="DT29" s="72"/>
-      <c r="DU29" s="72"/>
-      <c r="DV29" s="73"/>
-      <c r="DW29" s="73"/>
-      <c r="DX29" s="73"/>
-      <c r="DY29" s="72"/>
-      <c r="DZ29" s="72"/>
-      <c r="EA29" s="72"/>
-      <c r="EB29" s="72"/>
-      <c r="EC29" s="73"/>
-      <c r="ED29" s="73"/>
-      <c r="EE29" s="74"/>
-      <c r="EF29" s="72"/>
-      <c r="EG29" s="72"/>
-      <c r="EH29" s="72"/>
-      <c r="EI29" s="72"/>
-      <c r="EJ29" s="73"/>
-      <c r="EK29" s="73"/>
-      <c r="EL29" s="74"/>
-      <c r="EM29" s="73"/>
-      <c r="EN29" s="72"/>
-      <c r="EO29" s="72"/>
-      <c r="EP29" s="72"/>
-      <c r="EQ29" s="73"/>
-      <c r="ER29" s="73"/>
-      <c r="ES29" s="74"/>
-      <c r="ET29" s="74"/>
-      <c r="EU29" s="74"/>
-      <c r="EV29" s="99"/>
+      <c r="A29" s="122"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="73"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="71"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="71"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="73"/>
+      <c r="AE29" s="71"/>
+      <c r="AF29" s="71"/>
+      <c r="AG29" s="70"/>
+      <c r="AH29" s="71"/>
+      <c r="AI29" s="72"/>
+      <c r="AJ29" s="72"/>
+      <c r="AK29" s="73"/>
+      <c r="AL29" s="71"/>
+      <c r="AM29" s="71"/>
+      <c r="AN29" s="71"/>
+      <c r="AO29" s="71"/>
+      <c r="AP29" s="72"/>
+      <c r="AQ29" s="72"/>
+      <c r="AR29" s="73"/>
+      <c r="AS29" s="71"/>
+      <c r="AT29" s="71"/>
+      <c r="AU29" s="72"/>
+      <c r="AV29" s="72"/>
+      <c r="AW29" s="72"/>
+      <c r="AX29" s="72"/>
+      <c r="AY29" s="73"/>
+      <c r="AZ29" s="71"/>
+      <c r="BA29" s="71"/>
+      <c r="BB29" s="71"/>
+      <c r="BC29" s="71"/>
+      <c r="BD29" s="72"/>
+      <c r="BE29" s="72"/>
+      <c r="BF29" s="73"/>
+      <c r="BG29" s="71"/>
+      <c r="BH29" s="74"/>
+      <c r="BI29" s="72"/>
+      <c r="BJ29" s="71"/>
+      <c r="BK29" s="72"/>
+      <c r="BL29" s="119"/>
+      <c r="BM29" s="119"/>
+      <c r="BN29" s="119"/>
+      <c r="BO29" s="119"/>
+      <c r="BP29" s="119"/>
+      <c r="BQ29" s="71"/>
+      <c r="BR29" s="72"/>
+      <c r="BS29" s="72"/>
+      <c r="BT29" s="73"/>
+      <c r="BU29" s="71"/>
+      <c r="BV29" s="71"/>
+      <c r="BW29" s="71"/>
+      <c r="BX29" s="71"/>
+      <c r="BY29" s="72"/>
+      <c r="BZ29" s="72"/>
+      <c r="CA29" s="73"/>
+      <c r="CB29" s="71"/>
+      <c r="CC29" s="71"/>
+      <c r="CD29" s="71"/>
+      <c r="CE29" s="71"/>
+      <c r="CF29" s="72"/>
+      <c r="CG29" s="72"/>
+      <c r="CH29" s="73"/>
+      <c r="CI29" s="71"/>
+      <c r="CJ29" s="71"/>
+      <c r="CK29" s="71"/>
+      <c r="CL29" s="71"/>
+      <c r="CM29" s="72"/>
+      <c r="CN29" s="85"/>
+      <c r="CO29" s="73"/>
+      <c r="CP29" s="71"/>
+      <c r="CQ29" s="71"/>
+      <c r="CR29" s="71"/>
+      <c r="CS29" s="71"/>
+      <c r="CT29" s="72"/>
+      <c r="CU29" s="72"/>
+      <c r="CV29" s="73"/>
+      <c r="CW29" s="71"/>
+      <c r="CX29" s="71"/>
+      <c r="CY29" s="71"/>
+      <c r="CZ29" s="71"/>
+      <c r="DA29" s="72"/>
+      <c r="DB29" s="72"/>
+      <c r="DC29" s="73"/>
+      <c r="DD29" s="71"/>
+      <c r="DE29" s="71"/>
+      <c r="DF29" s="71"/>
+      <c r="DG29" s="71"/>
+      <c r="DH29" s="72"/>
+      <c r="DI29" s="72"/>
+      <c r="DJ29" s="73"/>
+      <c r="DK29" s="71"/>
+      <c r="DL29" s="71"/>
+      <c r="DM29" s="71"/>
+      <c r="DN29" s="71"/>
+      <c r="DO29" s="72"/>
+      <c r="DP29" s="72"/>
+      <c r="DQ29" s="95"/>
+      <c r="DR29" s="70"/>
+      <c r="DS29" s="71"/>
+      <c r="DT29" s="71"/>
+      <c r="DU29" s="71"/>
+      <c r="DV29" s="72"/>
+      <c r="DW29" s="72"/>
+      <c r="DX29" s="72"/>
+      <c r="DY29" s="71"/>
+      <c r="DZ29" s="71"/>
+      <c r="EA29" s="71"/>
+      <c r="EB29" s="71"/>
+      <c r="EC29" s="72"/>
+      <c r="ED29" s="72"/>
+      <c r="EE29" s="73"/>
+      <c r="EF29" s="71"/>
+      <c r="EG29" s="71"/>
+      <c r="EH29" s="71"/>
+      <c r="EI29" s="71"/>
+      <c r="EJ29" s="72"/>
+      <c r="EK29" s="72"/>
+      <c r="EL29" s="73"/>
+      <c r="EM29" s="72"/>
+      <c r="EN29" s="71"/>
+      <c r="EO29" s="71"/>
+      <c r="EP29" s="71"/>
+      <c r="EQ29" s="72"/>
+      <c r="ER29" s="72"/>
+      <c r="ES29" s="73"/>
+      <c r="ET29" s="73"/>
+      <c r="EU29" s="73"/>
+      <c r="EV29" s="98"/>
     </row>
     <row r="30" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="122" t="s">
+      <c r="A30" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="76"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="80" t="s">
+      <c r="B30" s="75"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="Q30" s="81"/>
-      <c r="R30" s="81"/>
-      <c r="S30" s="81"/>
-      <c r="T30" s="81"/>
-      <c r="U30" s="81"/>
-      <c r="V30" s="81"/>
-      <c r="W30" s="80"/>
-      <c r="X30" s="81"/>
-      <c r="Y30" s="81"/>
-      <c r="Z30" s="81"/>
-      <c r="AA30" s="82"/>
-      <c r="AB30" s="78"/>
-      <c r="AC30" s="78"/>
-      <c r="AD30" s="79"/>
-      <c r="AE30" s="77"/>
-      <c r="AF30" s="77"/>
-      <c r="AG30" s="83"/>
-      <c r="AH30" s="84"/>
-      <c r="AI30" s="78"/>
-      <c r="AJ30" s="78"/>
-      <c r="AK30" s="79"/>
-      <c r="AL30" s="77"/>
-      <c r="AM30" s="80" t="s">
+      <c r="Q30" s="80"/>
+      <c r="R30" s="80"/>
+      <c r="S30" s="80"/>
+      <c r="T30" s="80"/>
+      <c r="U30" s="80"/>
+      <c r="V30" s="80"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="80"/>
+      <c r="Y30" s="80"/>
+      <c r="Z30" s="80"/>
+      <c r="AA30" s="81"/>
+      <c r="AB30" s="77"/>
+      <c r="AC30" s="77"/>
+      <c r="AD30" s="78"/>
+      <c r="AE30" s="76"/>
+      <c r="AF30" s="76"/>
+      <c r="AG30" s="82"/>
+      <c r="AH30" s="83"/>
+      <c r="AI30" s="77"/>
+      <c r="AJ30" s="77"/>
+      <c r="AK30" s="78"/>
+      <c r="AL30" s="76"/>
+      <c r="AM30" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="AN30" s="77"/>
-      <c r="AO30" s="84"/>
-      <c r="AP30" s="78"/>
-      <c r="AQ30" s="78"/>
-      <c r="AR30" s="79"/>
-      <c r="AS30" s="77"/>
+      <c r="AN30" s="76"/>
+      <c r="AO30" s="83"/>
+      <c r="AP30" s="77"/>
+      <c r="AQ30" s="77"/>
+      <c r="AR30" s="78"/>
+      <c r="AS30" s="76"/>
       <c r="AT30" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AU30" s="78"/>
-      <c r="AV30" s="78"/>
-      <c r="AW30" s="78"/>
-      <c r="AX30" s="78"/>
-      <c r="AY30" s="79"/>
-      <c r="AZ30" s="77"/>
-      <c r="BA30" s="77"/>
-      <c r="BB30" s="77"/>
-      <c r="BC30" s="77"/>
-      <c r="BD30" s="78"/>
-      <c r="BE30" s="78"/>
-      <c r="BF30" s="79"/>
-      <c r="BG30" s="77"/>
-      <c r="BH30" s="85"/>
-      <c r="BI30" s="78"/>
-      <c r="BJ30" s="77"/>
-      <c r="BK30" s="78"/>
-      <c r="BL30" s="117"/>
-      <c r="BM30" s="121" t="s">
+      <c r="AU30" s="77"/>
+      <c r="AV30" s="77"/>
+      <c r="AW30" s="77"/>
+      <c r="AX30" s="77"/>
+      <c r="AY30" s="78"/>
+      <c r="AZ30" s="76"/>
+      <c r="BA30" s="76"/>
+      <c r="BB30" s="76"/>
+      <c r="BC30" s="76"/>
+      <c r="BD30" s="77"/>
+      <c r="BE30" s="77"/>
+      <c r="BF30" s="78"/>
+      <c r="BG30" s="76"/>
+      <c r="BH30" s="84"/>
+      <c r="BI30" s="77"/>
+      <c r="BJ30" s="76"/>
+      <c r="BK30" s="77"/>
+      <c r="BL30" s="116"/>
+      <c r="BM30" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="BN30" s="117"/>
-      <c r="BO30" s="117"/>
-      <c r="BP30" s="117"/>
-      <c r="BQ30" s="77"/>
-      <c r="BR30" s="78"/>
-      <c r="BS30" s="78"/>
-      <c r="BT30" s="79"/>
-      <c r="BU30" s="77"/>
-      <c r="BV30" s="77"/>
-      <c r="BW30" s="77"/>
-      <c r="BX30" s="77"/>
-      <c r="BY30" s="78"/>
-      <c r="BZ30" s="78"/>
-      <c r="CA30" s="79"/>
-      <c r="CB30" s="77"/>
-      <c r="CC30" s="77"/>
-      <c r="CD30" s="77"/>
-      <c r="CE30" s="77"/>
-      <c r="CF30" s="78"/>
-      <c r="CG30" s="78"/>
-      <c r="CH30" s="79"/>
-      <c r="CI30" s="77"/>
-      <c r="CJ30" s="77"/>
-      <c r="CK30" s="77"/>
-      <c r="CL30" s="77"/>
-      <c r="CM30" s="78"/>
-      <c r="CN30" s="76"/>
-      <c r="CO30" s="77"/>
-      <c r="CP30" s="77"/>
-      <c r="CQ30" s="77"/>
-      <c r="CR30" s="77"/>
-      <c r="CS30" s="77"/>
+      <c r="BN30" s="116"/>
+      <c r="BO30" s="116"/>
+      <c r="BP30" s="116"/>
+      <c r="BQ30" s="76"/>
+      <c r="BR30" s="77"/>
+      <c r="BS30" s="77"/>
+      <c r="BT30" s="78"/>
+      <c r="BU30" s="76"/>
+      <c r="BV30" s="76"/>
+      <c r="BW30" s="76"/>
+      <c r="BX30" s="76"/>
+      <c r="BY30" s="77"/>
+      <c r="BZ30" s="77"/>
+      <c r="CA30" s="78"/>
+      <c r="CB30" s="76"/>
+      <c r="CC30" s="76"/>
+      <c r="CD30" s="76"/>
+      <c r="CE30" s="76"/>
+      <c r="CF30" s="77"/>
+      <c r="CG30" s="77"/>
+      <c r="CH30" s="78"/>
+      <c r="CI30" s="76"/>
+      <c r="CJ30" s="76"/>
+      <c r="CK30" s="76"/>
+      <c r="CL30" s="76"/>
+      <c r="CM30" s="77"/>
+      <c r="CN30" s="75"/>
+      <c r="CO30" s="76"/>
+      <c r="CP30" s="76"/>
+      <c r="CQ30" s="76"/>
+      <c r="CR30" s="76"/>
+      <c r="CS30" s="76"/>
       <c r="CT30" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="CU30" s="89"/>
-      <c r="CV30" s="89"/>
-      <c r="CW30" s="89"/>
-      <c r="CX30" s="89"/>
-      <c r="CY30" s="89"/>
-      <c r="CZ30" s="89"/>
-      <c r="DA30" s="78"/>
-      <c r="DB30" s="78"/>
-      <c r="DC30" s="79"/>
-      <c r="DD30" s="77"/>
-      <c r="DE30" s="77"/>
-      <c r="DF30" s="77"/>
-      <c r="DG30" s="77"/>
-      <c r="DH30" s="78"/>
-      <c r="DI30" s="78"/>
-      <c r="DJ30" s="79"/>
-      <c r="DK30" s="77"/>
-      <c r="DL30" s="77"/>
-      <c r="DM30" s="77"/>
-      <c r="DN30" s="77"/>
-      <c r="DO30" s="78"/>
-      <c r="DP30" s="78"/>
-      <c r="DQ30" s="85"/>
-      <c r="DR30" s="83"/>
-      <c r="DS30" s="77"/>
-      <c r="DT30" s="77"/>
-      <c r="DU30" s="77"/>
-      <c r="DV30" s="78"/>
-      <c r="DW30" s="78"/>
-      <c r="DX30" s="78"/>
-      <c r="DY30" s="77"/>
-      <c r="DZ30" s="77"/>
-      <c r="EA30" s="77"/>
-      <c r="EB30" s="77"/>
-      <c r="EC30" s="78"/>
-      <c r="ED30" s="78"/>
-      <c r="EE30" s="79"/>
-      <c r="EF30" s="77"/>
-      <c r="EG30" s="77"/>
-      <c r="EH30" s="77"/>
-      <c r="EI30" s="77"/>
-      <c r="EJ30" s="78"/>
-      <c r="EK30" s="78"/>
-      <c r="EL30" s="79"/>
-      <c r="EM30" s="78"/>
-      <c r="EN30" s="77"/>
-      <c r="EO30" s="77"/>
-      <c r="EP30" s="77"/>
-      <c r="EQ30" s="78"/>
-      <c r="ER30" s="78"/>
-      <c r="ES30" s="79"/>
-      <c r="ET30" s="79"/>
-      <c r="EU30" s="79"/>
-      <c r="EV30" s="103"/>
+      <c r="CU30" s="88"/>
+      <c r="CV30" s="88"/>
+      <c r="CW30" s="88"/>
+      <c r="CX30" s="88"/>
+      <c r="CY30" s="88"/>
+      <c r="CZ30" s="88"/>
+      <c r="DA30" s="77"/>
+      <c r="DB30" s="77"/>
+      <c r="DC30" s="78"/>
+      <c r="DD30" s="76"/>
+      <c r="DE30" s="76"/>
+      <c r="DF30" s="76"/>
+      <c r="DG30" s="76"/>
+      <c r="DH30" s="77"/>
+      <c r="DI30" s="77"/>
+      <c r="DJ30" s="78"/>
+      <c r="DK30" s="76"/>
+      <c r="DL30" s="76"/>
+      <c r="DM30" s="76"/>
+      <c r="DN30" s="76"/>
+      <c r="DO30" s="77"/>
+      <c r="DP30" s="77"/>
+      <c r="DQ30" s="84"/>
+      <c r="DR30" s="82"/>
+      <c r="DS30" s="76"/>
+      <c r="DT30" s="76"/>
+      <c r="DU30" s="76"/>
+      <c r="DV30" s="77"/>
+      <c r="DW30" s="77"/>
+      <c r="DX30" s="77"/>
+      <c r="DY30" s="76"/>
+      <c r="DZ30" s="76"/>
+      <c r="EA30" s="76"/>
+      <c r="EB30" s="76"/>
+      <c r="EC30" s="77"/>
+      <c r="ED30" s="77"/>
+      <c r="EE30" s="78"/>
+      <c r="EF30" s="76"/>
+      <c r="EG30" s="76"/>
+      <c r="EH30" s="76"/>
+      <c r="EI30" s="76"/>
+      <c r="EJ30" s="77"/>
+      <c r="EK30" s="77"/>
+      <c r="EL30" s="78"/>
+      <c r="EM30" s="77"/>
+      <c r="EN30" s="76"/>
+      <c r="EO30" s="76"/>
+      <c r="EP30" s="76"/>
+      <c r="EQ30" s="77"/>
+      <c r="ER30" s="77"/>
+      <c r="ES30" s="78"/>
+      <c r="ET30" s="78"/>
+      <c r="EU30" s="78"/>
+      <c r="EV30" s="102"/>
     </row>
     <row r="31" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="123"/>
+      <c r="A31" s="122"/>
       <c r="B31" s="24"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -6794,19 +6794,19 @@
       <c r="T31" s="16"/>
       <c r="U31" s="14"/>
       <c r="V31" s="14"/>
-      <c r="W31" s="57" t="s">
+      <c r="W31" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="X31" s="57"/>
-      <c r="Y31" s="57"/>
-      <c r="Z31" s="57"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="56"/>
+      <c r="Z31" s="56"/>
       <c r="AA31" s="13"/>
       <c r="AB31" s="14"/>
       <c r="AC31" s="14"/>
       <c r="AD31" s="13"/>
       <c r="AE31" s="16"/>
       <c r="AF31" s="16"/>
-      <c r="AG31" s="68"/>
+      <c r="AG31" s="67"/>
       <c r="AH31" s="23"/>
       <c r="AI31" s="14"/>
       <c r="AJ31" s="14"/>
@@ -6837,11 +6837,11 @@
       <c r="BI31" s="14"/>
       <c r="BJ31" s="16"/>
       <c r="BK31" s="14"/>
-      <c r="BL31" s="114"/>
-      <c r="BM31" s="114"/>
-      <c r="BN31" s="114"/>
-      <c r="BO31" s="114"/>
-      <c r="BP31" s="114"/>
+      <c r="BL31" s="113"/>
+      <c r="BM31" s="113"/>
+      <c r="BN31" s="113"/>
+      <c r="BO31" s="113"/>
+      <c r="BP31" s="113"/>
       <c r="BQ31" s="16"/>
       <c r="BR31" s="14"/>
       <c r="BS31" s="14"/>
@@ -6849,11 +6849,11 @@
       <c r="BU31" s="16"/>
       <c r="BV31" s="16"/>
       <c r="BW31" s="16"/>
-      <c r="BX31" s="60" t="s">
+      <c r="BX31" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="BY31" s="60"/>
-      <c r="BZ31" s="60"/>
+      <c r="BY31" s="59"/>
+      <c r="BZ31" s="59"/>
       <c r="CA31" s="13"/>
       <c r="CB31" s="16"/>
       <c r="CC31" s="16"/>
@@ -6897,7 +6897,7 @@
       <c r="DO31" s="14"/>
       <c r="DP31" s="14"/>
       <c r="DQ31" s="25"/>
-      <c r="DR31" s="68"/>
+      <c r="DR31" s="67"/>
       <c r="DS31" s="16"/>
       <c r="DT31" s="16"/>
       <c r="DU31" s="16"/>
@@ -6930,7 +6930,7 @@
       <c r="EV31" s="17"/>
     </row>
     <row r="32" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="123"/>
+      <c r="A32" s="122"/>
       <c r="B32" s="24"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -6962,7 +6962,7 @@
       <c r="AD32" s="13"/>
       <c r="AE32" s="16"/>
       <c r="AF32" s="16"/>
-      <c r="AG32" s="68"/>
+      <c r="AG32" s="67"/>
       <c r="AH32" s="16"/>
       <c r="AI32" s="14"/>
       <c r="AJ32" s="14"/>
@@ -6993,11 +6993,11 @@
       <c r="BI32" s="14"/>
       <c r="BJ32" s="16"/>
       <c r="BK32" s="14"/>
-      <c r="BL32" s="114"/>
-      <c r="BM32" s="114"/>
-      <c r="BN32" s="114"/>
-      <c r="BO32" s="114"/>
-      <c r="BP32" s="114"/>
+      <c r="BL32" s="113"/>
+      <c r="BM32" s="113"/>
+      <c r="BN32" s="113"/>
+      <c r="BO32" s="113"/>
+      <c r="BP32" s="113"/>
       <c r="BQ32" s="16"/>
       <c r="BR32" s="14"/>
       <c r="BS32" s="14"/>
@@ -7029,10 +7029,10 @@
       <c r="CQ32" s="16"/>
       <c r="CR32" s="16"/>
       <c r="CS32" s="16"/>
-      <c r="CT32" s="60" t="s">
+      <c r="CT32" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="CU32" s="102"/>
+      <c r="CU32" s="101"/>
       <c r="CV32" s="13"/>
       <c r="CW32" s="16"/>
       <c r="CX32" s="16"/>
@@ -7055,7 +7055,7 @@
       <c r="DO32" s="14"/>
       <c r="DP32" s="14"/>
       <c r="DQ32" s="25"/>
-      <c r="DR32" s="68"/>
+      <c r="DR32" s="67"/>
       <c r="DS32" s="16"/>
       <c r="DT32" s="16"/>
       <c r="DU32" s="16"/>
@@ -7088,7 +7088,7 @@
       <c r="EV32" s="17"/>
     </row>
     <row r="33" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="123"/>
+      <c r="A33" s="122"/>
       <c r="B33" s="24"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -7120,7 +7120,7 @@
       <c r="AD33" s="13"/>
       <c r="AE33" s="16"/>
       <c r="AF33" s="16"/>
-      <c r="AG33" s="68"/>
+      <c r="AG33" s="67"/>
       <c r="AH33" s="16"/>
       <c r="AI33" s="14"/>
       <c r="AJ33" s="14"/>
@@ -7151,11 +7151,11 @@
       <c r="BI33" s="14"/>
       <c r="BJ33" s="16"/>
       <c r="BK33" s="14"/>
-      <c r="BL33" s="114"/>
-      <c r="BM33" s="114"/>
-      <c r="BN33" s="114"/>
-      <c r="BO33" s="114"/>
-      <c r="BP33" s="114"/>
+      <c r="BL33" s="113"/>
+      <c r="BM33" s="113"/>
+      <c r="BN33" s="113"/>
+      <c r="BO33" s="113"/>
+      <c r="BP33" s="113"/>
       <c r="BQ33" s="16"/>
       <c r="BR33" s="14"/>
       <c r="BS33" s="14"/>
@@ -7211,7 +7211,7 @@
       <c r="DO33" s="14"/>
       <c r="DP33" s="14"/>
       <c r="DQ33" s="17"/>
-      <c r="DR33" s="68"/>
+      <c r="DR33" s="67"/>
       <c r="DS33" s="16"/>
       <c r="DT33" s="16"/>
       <c r="DU33" s="16"/>
@@ -7244,321 +7244,321 @@
       <c r="EV33" s="17"/>
     </row>
     <row r="34" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="124"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
-      <c r="S34" s="72"/>
-      <c r="T34" s="72"/>
-      <c r="U34" s="73"/>
-      <c r="V34" s="73"/>
-      <c r="W34" s="74"/>
-      <c r="X34" s="72"/>
-      <c r="Y34" s="72"/>
-      <c r="Z34" s="72"/>
-      <c r="AA34" s="72"/>
-      <c r="AB34" s="73"/>
-      <c r="AC34" s="73"/>
-      <c r="AD34" s="74"/>
-      <c r="AE34" s="72"/>
-      <c r="AF34" s="72"/>
-      <c r="AG34" s="71"/>
-      <c r="AH34" s="72"/>
-      <c r="AI34" s="73"/>
-      <c r="AJ34" s="73"/>
-      <c r="AK34" s="74"/>
-      <c r="AL34" s="72"/>
-      <c r="AM34" s="72"/>
-      <c r="AN34" s="72"/>
-      <c r="AO34" s="72"/>
-      <c r="AP34" s="73"/>
-      <c r="AQ34" s="73"/>
-      <c r="AR34" s="74"/>
-      <c r="AS34" s="72"/>
-      <c r="AT34" s="72"/>
-      <c r="AU34" s="73"/>
-      <c r="AV34" s="73"/>
-      <c r="AW34" s="73"/>
-      <c r="AX34" s="73"/>
-      <c r="AY34" s="74"/>
-      <c r="AZ34" s="72"/>
-      <c r="BA34" s="72"/>
-      <c r="BB34" s="72"/>
-      <c r="BC34" s="72"/>
-      <c r="BD34" s="73"/>
-      <c r="BE34" s="73"/>
-      <c r="BF34" s="74"/>
-      <c r="BG34" s="72"/>
-      <c r="BH34" s="75"/>
-      <c r="BI34" s="73"/>
-      <c r="BJ34" s="72"/>
-      <c r="BK34" s="73"/>
-      <c r="BL34" s="120"/>
-      <c r="BM34" s="120"/>
-      <c r="BN34" s="120"/>
-      <c r="BO34" s="120"/>
-      <c r="BP34" s="120"/>
-      <c r="BQ34" s="72"/>
-      <c r="BR34" s="73"/>
-      <c r="BS34" s="73"/>
-      <c r="BT34" s="74"/>
-      <c r="BU34" s="72"/>
-      <c r="BV34" s="72"/>
-      <c r="BW34" s="72"/>
-      <c r="BX34" s="72"/>
-      <c r="BY34" s="73"/>
-      <c r="BZ34" s="73"/>
+      <c r="A34" s="123"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="72"/>
+      <c r="V34" s="72"/>
+      <c r="W34" s="73"/>
+      <c r="X34" s="71"/>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="71"/>
+      <c r="AA34" s="71"/>
+      <c r="AB34" s="72"/>
+      <c r="AC34" s="72"/>
+      <c r="AD34" s="73"/>
+      <c r="AE34" s="71"/>
+      <c r="AF34" s="71"/>
+      <c r="AG34" s="70"/>
+      <c r="AH34" s="71"/>
+      <c r="AI34" s="72"/>
+      <c r="AJ34" s="72"/>
+      <c r="AK34" s="73"/>
+      <c r="AL34" s="71"/>
+      <c r="AM34" s="71"/>
+      <c r="AN34" s="71"/>
+      <c r="AO34" s="71"/>
+      <c r="AP34" s="72"/>
+      <c r="AQ34" s="72"/>
+      <c r="AR34" s="73"/>
+      <c r="AS34" s="71"/>
+      <c r="AT34" s="71"/>
+      <c r="AU34" s="72"/>
+      <c r="AV34" s="72"/>
+      <c r="AW34" s="72"/>
+      <c r="AX34" s="72"/>
+      <c r="AY34" s="73"/>
+      <c r="AZ34" s="71"/>
+      <c r="BA34" s="71"/>
+      <c r="BB34" s="71"/>
+      <c r="BC34" s="71"/>
+      <c r="BD34" s="72"/>
+      <c r="BE34" s="72"/>
+      <c r="BF34" s="73"/>
+      <c r="BG34" s="71"/>
+      <c r="BH34" s="74"/>
+      <c r="BI34" s="72"/>
+      <c r="BJ34" s="71"/>
+      <c r="BK34" s="72"/>
+      <c r="BL34" s="119"/>
+      <c r="BM34" s="119"/>
+      <c r="BN34" s="119"/>
+      <c r="BO34" s="119"/>
+      <c r="BP34" s="119"/>
+      <c r="BQ34" s="71"/>
+      <c r="BR34" s="72"/>
+      <c r="BS34" s="72"/>
+      <c r="BT34" s="73"/>
+      <c r="BU34" s="71"/>
+      <c r="BV34" s="71"/>
+      <c r="BW34" s="71"/>
+      <c r="BX34" s="71"/>
+      <c r="BY34" s="72"/>
+      <c r="BZ34" s="72"/>
       <c r="CA34" s="16"/>
-      <c r="CB34" s="72"/>
-      <c r="CC34" s="72"/>
-      <c r="CD34" s="72"/>
-      <c r="CE34" s="72"/>
-      <c r="CF34" s="73"/>
-      <c r="CG34" s="73"/>
+      <c r="CB34" s="71"/>
+      <c r="CC34" s="71"/>
+      <c r="CD34" s="71"/>
+      <c r="CE34" s="71"/>
+      <c r="CF34" s="72"/>
+      <c r="CG34" s="72"/>
       <c r="CH34" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="CI34" s="72"/>
-      <c r="CJ34" s="72"/>
-      <c r="CK34" s="72"/>
-      <c r="CL34" s="72"/>
-      <c r="CM34" s="73"/>
-      <c r="CN34" s="86"/>
-      <c r="CO34" s="74"/>
-      <c r="CP34" s="72"/>
-      <c r="CQ34" s="72"/>
-      <c r="CR34" s="72"/>
-      <c r="CS34" s="72"/>
-      <c r="CT34" s="73"/>
-      <c r="CU34" s="73"/>
-      <c r="CV34" s="74"/>
-      <c r="CW34" s="72"/>
-      <c r="CX34" s="72"/>
-      <c r="CY34" s="72"/>
-      <c r="CZ34" s="72"/>
-      <c r="DA34" s="73"/>
-      <c r="DB34" s="73"/>
-      <c r="DC34" s="74"/>
-      <c r="DD34" s="72"/>
-      <c r="DE34" s="72"/>
-      <c r="DF34" s="72"/>
-      <c r="DG34" s="72"/>
-      <c r="DH34" s="73"/>
-      <c r="DI34" s="73"/>
-      <c r="DJ34" s="74"/>
-      <c r="DK34" s="72"/>
-      <c r="DL34" s="72"/>
-      <c r="DM34" s="72"/>
-      <c r="DN34" s="72"/>
-      <c r="DO34" s="73"/>
-      <c r="DP34" s="73"/>
-      <c r="DQ34" s="96"/>
-      <c r="DR34" s="71"/>
-      <c r="DS34" s="72"/>
-      <c r="DT34" s="72"/>
-      <c r="DU34" s="72"/>
-      <c r="DV34" s="73"/>
-      <c r="DW34" s="73"/>
-      <c r="DX34" s="73"/>
-      <c r="DY34" s="72"/>
-      <c r="DZ34" s="72"/>
-      <c r="EA34" s="72"/>
-      <c r="EB34" s="72"/>
-      <c r="EC34" s="73"/>
-      <c r="ED34" s="73"/>
-      <c r="EE34" s="74"/>
-      <c r="EF34" s="72"/>
-      <c r="EG34" s="72"/>
-      <c r="EH34" s="72"/>
-      <c r="EI34" s="72"/>
-      <c r="EJ34" s="73"/>
-      <c r="EK34" s="73"/>
-      <c r="EL34" s="74"/>
-      <c r="EM34" s="73"/>
-      <c r="EN34" s="72"/>
-      <c r="EO34" s="72"/>
-      <c r="EP34" s="72"/>
-      <c r="EQ34" s="73"/>
-      <c r="ER34" s="73"/>
-      <c r="ES34" s="74"/>
-      <c r="ET34" s="74"/>
-      <c r="EU34" s="74"/>
-      <c r="EV34" s="99"/>
+      <c r="CI34" s="71"/>
+      <c r="CJ34" s="71"/>
+      <c r="CK34" s="71"/>
+      <c r="CL34" s="71"/>
+      <c r="CM34" s="72"/>
+      <c r="CN34" s="85"/>
+      <c r="CO34" s="73"/>
+      <c r="CP34" s="71"/>
+      <c r="CQ34" s="71"/>
+      <c r="CR34" s="71"/>
+      <c r="CS34" s="71"/>
+      <c r="CT34" s="72"/>
+      <c r="CU34" s="72"/>
+      <c r="CV34" s="73"/>
+      <c r="CW34" s="71"/>
+      <c r="CX34" s="71"/>
+      <c r="CY34" s="71"/>
+      <c r="CZ34" s="71"/>
+      <c r="DA34" s="72"/>
+      <c r="DB34" s="72"/>
+      <c r="DC34" s="73"/>
+      <c r="DD34" s="71"/>
+      <c r="DE34" s="71"/>
+      <c r="DF34" s="71"/>
+      <c r="DG34" s="71"/>
+      <c r="DH34" s="72"/>
+      <c r="DI34" s="72"/>
+      <c r="DJ34" s="73"/>
+      <c r="DK34" s="71"/>
+      <c r="DL34" s="71"/>
+      <c r="DM34" s="71"/>
+      <c r="DN34" s="71"/>
+      <c r="DO34" s="72"/>
+      <c r="DP34" s="72"/>
+      <c r="DQ34" s="95"/>
+      <c r="DR34" s="70"/>
+      <c r="DS34" s="71"/>
+      <c r="DT34" s="71"/>
+      <c r="DU34" s="71"/>
+      <c r="DV34" s="72"/>
+      <c r="DW34" s="72"/>
+      <c r="DX34" s="72"/>
+      <c r="DY34" s="71"/>
+      <c r="DZ34" s="71"/>
+      <c r="EA34" s="71"/>
+      <c r="EB34" s="71"/>
+      <c r="EC34" s="72"/>
+      <c r="ED34" s="72"/>
+      <c r="EE34" s="73"/>
+      <c r="EF34" s="71"/>
+      <c r="EG34" s="71"/>
+      <c r="EH34" s="71"/>
+      <c r="EI34" s="71"/>
+      <c r="EJ34" s="72"/>
+      <c r="EK34" s="72"/>
+      <c r="EL34" s="73"/>
+      <c r="EM34" s="72"/>
+      <c r="EN34" s="71"/>
+      <c r="EO34" s="71"/>
+      <c r="EP34" s="71"/>
+      <c r="EQ34" s="72"/>
+      <c r="ER34" s="72"/>
+      <c r="ES34" s="73"/>
+      <c r="ET34" s="73"/>
+      <c r="EU34" s="73"/>
+      <c r="EV34" s="98"/>
     </row>
     <row r="35" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="123" t="s">
+      <c r="A35" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="76"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="78"/>
-      <c r="O35" s="78"/>
-      <c r="P35" s="84"/>
-      <c r="Q35" s="77"/>
-      <c r="R35" s="77"/>
-      <c r="S35" s="77"/>
-      <c r="T35" s="77"/>
-      <c r="U35" s="78"/>
-      <c r="V35" s="78"/>
-      <c r="W35" s="84"/>
-      <c r="X35" s="77"/>
-      <c r="Y35" s="77"/>
-      <c r="Z35" s="77"/>
-      <c r="AA35" s="77"/>
-      <c r="AB35" s="78"/>
-      <c r="AC35" s="78"/>
-      <c r="AD35" s="79"/>
-      <c r="AE35" s="77"/>
-      <c r="AF35" s="77"/>
-      <c r="AG35" s="83"/>
-      <c r="AH35" s="84"/>
-      <c r="AI35" s="78"/>
-      <c r="AJ35" s="78"/>
-      <c r="AK35" s="79"/>
-      <c r="AL35" s="77"/>
-      <c r="AM35" s="80" t="s">
+      <c r="B35" s="75"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="83"/>
+      <c r="Q35" s="76"/>
+      <c r="R35" s="76"/>
+      <c r="S35" s="76"/>
+      <c r="T35" s="76"/>
+      <c r="U35" s="77"/>
+      <c r="V35" s="77"/>
+      <c r="W35" s="83"/>
+      <c r="X35" s="76"/>
+      <c r="Y35" s="76"/>
+      <c r="Z35" s="76"/>
+      <c r="AA35" s="76"/>
+      <c r="AB35" s="77"/>
+      <c r="AC35" s="77"/>
+      <c r="AD35" s="78"/>
+      <c r="AE35" s="76"/>
+      <c r="AF35" s="76"/>
+      <c r="AG35" s="82"/>
+      <c r="AH35" s="83"/>
+      <c r="AI35" s="77"/>
+      <c r="AJ35" s="77"/>
+      <c r="AK35" s="78"/>
+      <c r="AL35" s="76"/>
+      <c r="AM35" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="AN35" s="77"/>
-      <c r="AO35" s="84"/>
-      <c r="AP35" s="78"/>
-      <c r="AQ35" s="78"/>
-      <c r="AR35" s="84"/>
-      <c r="AS35" s="77"/>
-      <c r="AT35" s="77"/>
-      <c r="AU35" s="78"/>
-      <c r="AV35" s="78"/>
-      <c r="AW35" s="78"/>
-      <c r="AX35" s="78"/>
-      <c r="AY35" s="84"/>
-      <c r="AZ35" s="77"/>
-      <c r="BA35" s="84"/>
-      <c r="BB35" s="77"/>
-      <c r="BC35" s="84"/>
-      <c r="BD35" s="78"/>
-      <c r="BE35" s="78"/>
-      <c r="BF35" s="84"/>
-      <c r="BG35" s="77"/>
-      <c r="BH35" s="85"/>
-      <c r="BI35" s="78"/>
-      <c r="BJ35" s="77"/>
-      <c r="BK35" s="78"/>
-      <c r="BL35" s="117"/>
-      <c r="BM35" s="117"/>
-      <c r="BN35" s="117"/>
-      <c r="BO35" s="117"/>
-      <c r="BP35" s="117"/>
-      <c r="BQ35" s="77"/>
-      <c r="BR35" s="78"/>
-      <c r="BS35" s="78"/>
-      <c r="BT35" s="79"/>
-      <c r="BU35" s="77"/>
-      <c r="BV35" s="77"/>
-      <c r="BW35" s="77"/>
-      <c r="BX35" s="77"/>
-      <c r="BY35" s="78"/>
-      <c r="BZ35" s="78"/>
-      <c r="CA35" s="79"/>
-      <c r="CB35" s="77"/>
-      <c r="CC35" s="77"/>
-      <c r="CD35" s="77"/>
-      <c r="CE35" s="77"/>
-      <c r="CF35" s="78"/>
-      <c r="CG35" s="78"/>
-      <c r="CH35" s="79"/>
-      <c r="CI35" s="77"/>
-      <c r="CJ35" s="77"/>
-      <c r="CK35" s="77"/>
-      <c r="CL35" s="77"/>
-      <c r="CM35" s="78"/>
-      <c r="CN35" s="76"/>
-      <c r="CO35" s="79"/>
-      <c r="CP35" s="77"/>
-      <c r="CQ35" s="77"/>
-      <c r="CR35" s="77"/>
-      <c r="CS35" s="77"/>
-      <c r="CT35" s="78"/>
-      <c r="CU35" s="78"/>
-      <c r="CV35" s="79"/>
-      <c r="CW35" s="77"/>
-      <c r="CX35" s="77"/>
-      <c r="CY35" s="77"/>
-      <c r="CZ35" s="77"/>
-      <c r="DA35" s="78"/>
-      <c r="DB35" s="78"/>
-      <c r="DC35" s="79"/>
-      <c r="DD35" s="77"/>
-      <c r="DE35" s="77"/>
-      <c r="DF35" s="77"/>
-      <c r="DG35" s="77"/>
-      <c r="DH35" s="78"/>
-      <c r="DI35" s="78"/>
-      <c r="DJ35" s="79"/>
-      <c r="DK35" s="77"/>
-      <c r="DL35" s="77"/>
-      <c r="DM35" s="77"/>
-      <c r="DN35" s="77"/>
-      <c r="DO35" s="78"/>
-      <c r="DP35" s="78"/>
-      <c r="DQ35" s="85"/>
-      <c r="DR35" s="83"/>
-      <c r="DS35" s="77"/>
-      <c r="DT35" s="77"/>
-      <c r="DU35" s="77"/>
-      <c r="DV35" s="78"/>
-      <c r="DW35" s="78"/>
-      <c r="DX35" s="78"/>
-      <c r="DY35" s="77"/>
-      <c r="DZ35" s="77"/>
-      <c r="EA35" s="77"/>
-      <c r="EB35" s="77"/>
-      <c r="EC35" s="78"/>
-      <c r="ED35" s="78"/>
-      <c r="EE35" s="79"/>
-      <c r="EF35" s="77"/>
-      <c r="EG35" s="77"/>
-      <c r="EH35" s="77"/>
-      <c r="EI35" s="77"/>
-      <c r="EJ35" s="78"/>
-      <c r="EK35" s="78"/>
-      <c r="EL35" s="79"/>
-      <c r="EM35" s="78"/>
-      <c r="EN35" s="77"/>
-      <c r="EO35" s="77"/>
-      <c r="EP35" s="77"/>
-      <c r="EQ35" s="78"/>
-      <c r="ER35" s="78"/>
-      <c r="ES35" s="79"/>
-      <c r="ET35" s="79"/>
-      <c r="EU35" s="79"/>
-      <c r="EV35" s="103"/>
+      <c r="AN35" s="76"/>
+      <c r="AO35" s="83"/>
+      <c r="AP35" s="77"/>
+      <c r="AQ35" s="77"/>
+      <c r="AR35" s="83"/>
+      <c r="AS35" s="76"/>
+      <c r="AT35" s="76"/>
+      <c r="AU35" s="77"/>
+      <c r="AV35" s="77"/>
+      <c r="AW35" s="77"/>
+      <c r="AX35" s="77"/>
+      <c r="AY35" s="83"/>
+      <c r="AZ35" s="76"/>
+      <c r="BA35" s="83"/>
+      <c r="BB35" s="76"/>
+      <c r="BC35" s="83"/>
+      <c r="BD35" s="77"/>
+      <c r="BE35" s="77"/>
+      <c r="BF35" s="83"/>
+      <c r="BG35" s="76"/>
+      <c r="BH35" s="84"/>
+      <c r="BI35" s="77"/>
+      <c r="BJ35" s="76"/>
+      <c r="BK35" s="77"/>
+      <c r="BL35" s="116"/>
+      <c r="BM35" s="116"/>
+      <c r="BN35" s="116"/>
+      <c r="BO35" s="116"/>
+      <c r="BP35" s="116"/>
+      <c r="BQ35" s="76"/>
+      <c r="BR35" s="77"/>
+      <c r="BS35" s="77"/>
+      <c r="BT35" s="78"/>
+      <c r="BU35" s="76"/>
+      <c r="BV35" s="76"/>
+      <c r="BW35" s="76"/>
+      <c r="BX35" s="76"/>
+      <c r="BY35" s="77"/>
+      <c r="BZ35" s="77"/>
+      <c r="CA35" s="78"/>
+      <c r="CB35" s="76"/>
+      <c r="CC35" s="76"/>
+      <c r="CD35" s="76"/>
+      <c r="CE35" s="76"/>
+      <c r="CF35" s="77"/>
+      <c r="CG35" s="77"/>
+      <c r="CH35" s="78"/>
+      <c r="CI35" s="76"/>
+      <c r="CJ35" s="76"/>
+      <c r="CK35" s="76"/>
+      <c r="CL35" s="76"/>
+      <c r="CM35" s="77"/>
+      <c r="CN35" s="75"/>
+      <c r="CO35" s="78"/>
+      <c r="CP35" s="76"/>
+      <c r="CQ35" s="76"/>
+      <c r="CR35" s="76"/>
+      <c r="CS35" s="76"/>
+      <c r="CT35" s="77"/>
+      <c r="CU35" s="77"/>
+      <c r="CV35" s="78"/>
+      <c r="CW35" s="76"/>
+      <c r="CX35" s="76"/>
+      <c r="CY35" s="76"/>
+      <c r="CZ35" s="76"/>
+      <c r="DA35" s="77"/>
+      <c r="DB35" s="77"/>
+      <c r="DC35" s="78"/>
+      <c r="DD35" s="76"/>
+      <c r="DE35" s="76"/>
+      <c r="DF35" s="76"/>
+      <c r="DG35" s="76"/>
+      <c r="DH35" s="77"/>
+      <c r="DI35" s="77"/>
+      <c r="DJ35" s="78"/>
+      <c r="DK35" s="76"/>
+      <c r="DL35" s="76"/>
+      <c r="DM35" s="76"/>
+      <c r="DN35" s="76"/>
+      <c r="DO35" s="77"/>
+      <c r="DP35" s="77"/>
+      <c r="DQ35" s="84"/>
+      <c r="DR35" s="82"/>
+      <c r="DS35" s="76"/>
+      <c r="DT35" s="76"/>
+      <c r="DU35" s="76"/>
+      <c r="DV35" s="77"/>
+      <c r="DW35" s="77"/>
+      <c r="DX35" s="77"/>
+      <c r="DY35" s="76"/>
+      <c r="DZ35" s="76"/>
+      <c r="EA35" s="76"/>
+      <c r="EB35" s="76"/>
+      <c r="EC35" s="77"/>
+      <c r="ED35" s="77"/>
+      <c r="EE35" s="78"/>
+      <c r="EF35" s="76"/>
+      <c r="EG35" s="76"/>
+      <c r="EH35" s="76"/>
+      <c r="EI35" s="76"/>
+      <c r="EJ35" s="77"/>
+      <c r="EK35" s="77"/>
+      <c r="EL35" s="78"/>
+      <c r="EM35" s="77"/>
+      <c r="EN35" s="76"/>
+      <c r="EO35" s="76"/>
+      <c r="EP35" s="76"/>
+      <c r="EQ35" s="77"/>
+      <c r="ER35" s="77"/>
+      <c r="ES35" s="78"/>
+      <c r="ET35" s="78"/>
+      <c r="EU35" s="78"/>
+      <c r="EV35" s="102"/>
     </row>
     <row r="36" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="123"/>
+      <c r="A36" s="122"/>
       <c r="B36" s="24"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -7590,14 +7590,14 @@
       <c r="AD36" s="13"/>
       <c r="AE36" s="16"/>
       <c r="AF36" s="16"/>
-      <c r="AG36" s="68"/>
+      <c r="AG36" s="67"/>
       <c r="AH36" s="23"/>
       <c r="AI36" s="14"/>
       <c r="AJ36" s="14"/>
       <c r="AK36" s="13"/>
       <c r="AL36" s="16"/>
       <c r="AM36" s="16"/>
-      <c r="AN36" s="57" t="s">
+      <c r="AN36" s="56" t="s">
         <v>42</v>
       </c>
       <c r="AO36" s="23"/>
@@ -7623,11 +7623,11 @@
       <c r="BI36" s="14"/>
       <c r="BJ36" s="16"/>
       <c r="BK36" s="14"/>
-      <c r="BL36" s="114"/>
-      <c r="BM36" s="114"/>
-      <c r="BN36" s="114"/>
-      <c r="BO36" s="114"/>
-      <c r="BP36" s="114"/>
+      <c r="BL36" s="113"/>
+      <c r="BM36" s="113"/>
+      <c r="BN36" s="113"/>
+      <c r="BO36" s="113"/>
+      <c r="BP36" s="113"/>
       <c r="BQ36" s="16"/>
       <c r="BR36" s="14"/>
       <c r="BS36" s="14"/>
@@ -7681,7 +7681,7 @@
       <c r="DO36" s="14"/>
       <c r="DP36" s="14"/>
       <c r="DQ36" s="25"/>
-      <c r="DR36" s="68"/>
+      <c r="DR36" s="67"/>
       <c r="DS36" s="16"/>
       <c r="DT36" s="16"/>
       <c r="DU36" s="16"/>
@@ -7714,7 +7714,7 @@
       <c r="EV36" s="17"/>
     </row>
     <row r="37" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="123"/>
+      <c r="A37" s="122"/>
       <c r="B37" s="24"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -7746,7 +7746,7 @@
       <c r="AD37" s="13"/>
       <c r="AE37" s="16"/>
       <c r="AF37" s="16"/>
-      <c r="AG37" s="68"/>
+      <c r="AG37" s="67"/>
       <c r="AH37" s="16"/>
       <c r="AI37" s="14"/>
       <c r="AJ37" s="14"/>
@@ -7777,11 +7777,11 @@
       <c r="BI37" s="14"/>
       <c r="BJ37" s="16"/>
       <c r="BK37" s="14"/>
-      <c r="BL37" s="114"/>
-      <c r="BM37" s="114"/>
-      <c r="BN37" s="114"/>
-      <c r="BO37" s="114"/>
-      <c r="BP37" s="114"/>
+      <c r="BL37" s="113"/>
+      <c r="BM37" s="113"/>
+      <c r="BN37" s="113"/>
+      <c r="BO37" s="113"/>
+      <c r="BP37" s="113"/>
       <c r="BQ37" s="16"/>
       <c r="BR37" s="14"/>
       <c r="BS37" s="14"/>
@@ -7835,7 +7835,7 @@
       <c r="DO37" s="14"/>
       <c r="DP37" s="14"/>
       <c r="DQ37" s="25"/>
-      <c r="DR37" s="68"/>
+      <c r="DR37" s="67"/>
       <c r="DS37" s="16"/>
       <c r="DT37" s="16"/>
       <c r="DU37" s="16"/>
@@ -7868,7 +7868,7 @@
       <c r="EV37" s="17"/>
     </row>
     <row r="38" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="123"/>
+      <c r="A38" s="122"/>
       <c r="B38" s="24"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -7900,7 +7900,7 @@
       <c r="AD38" s="13"/>
       <c r="AE38" s="16"/>
       <c r="AF38" s="16"/>
-      <c r="AG38" s="68"/>
+      <c r="AG38" s="67"/>
       <c r="AH38" s="16"/>
       <c r="AI38" s="14"/>
       <c r="AJ38" s="14"/>
@@ -7931,11 +7931,11 @@
       <c r="BI38" s="14"/>
       <c r="BJ38" s="16"/>
       <c r="BK38" s="14"/>
-      <c r="BL38" s="114"/>
-      <c r="BM38" s="114"/>
-      <c r="BN38" s="114"/>
-      <c r="BO38" s="114"/>
-      <c r="BP38" s="114"/>
+      <c r="BL38" s="113"/>
+      <c r="BM38" s="113"/>
+      <c r="BN38" s="113"/>
+      <c r="BO38" s="113"/>
+      <c r="BP38" s="113"/>
       <c r="BQ38" s="16"/>
       <c r="BR38" s="14"/>
       <c r="BS38" s="14"/>
@@ -7989,7 +7989,7 @@
       <c r="DO38" s="14"/>
       <c r="DP38" s="14"/>
       <c r="DQ38" s="17"/>
-      <c r="DR38" s="68"/>
+      <c r="DR38" s="67"/>
       <c r="DS38" s="16"/>
       <c r="DT38" s="16"/>
       <c r="DU38" s="16"/>
@@ -8022,323 +8022,323 @@
       <c r="EV38" s="17"/>
     </row>
     <row r="39" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="123"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="73"/>
-      <c r="O39" s="73"/>
-      <c r="P39" s="74"/>
-      <c r="Q39" s="72"/>
-      <c r="R39" s="72"/>
-      <c r="S39" s="72"/>
-      <c r="T39" s="72"/>
-      <c r="U39" s="73"/>
-      <c r="V39" s="73"/>
-      <c r="W39" s="74"/>
-      <c r="X39" s="72"/>
-      <c r="Y39" s="72"/>
-      <c r="Z39" s="72"/>
-      <c r="AA39" s="72"/>
-      <c r="AB39" s="73"/>
-      <c r="AC39" s="73"/>
-      <c r="AD39" s="74"/>
-      <c r="AE39" s="72"/>
-      <c r="AF39" s="72"/>
-      <c r="AG39" s="71"/>
-      <c r="AH39" s="72"/>
-      <c r="AI39" s="73"/>
-      <c r="AJ39" s="73"/>
-      <c r="AK39" s="74"/>
-      <c r="AL39" s="72"/>
-      <c r="AM39" s="72"/>
-      <c r="AN39" s="72"/>
-      <c r="AO39" s="72"/>
-      <c r="AP39" s="73"/>
-      <c r="AQ39" s="73"/>
-      <c r="AR39" s="74"/>
-      <c r="AS39" s="72"/>
-      <c r="AT39" s="72"/>
-      <c r="AU39" s="73"/>
-      <c r="AV39" s="73"/>
-      <c r="AW39" s="73"/>
-      <c r="AX39" s="73"/>
-      <c r="AY39" s="74"/>
-      <c r="AZ39" s="72"/>
-      <c r="BA39" s="72"/>
-      <c r="BB39" s="72"/>
-      <c r="BC39" s="72"/>
-      <c r="BD39" s="73"/>
-      <c r="BE39" s="73"/>
-      <c r="BF39" s="74"/>
-      <c r="BG39" s="72"/>
-      <c r="BH39" s="75"/>
-      <c r="BI39" s="73"/>
-      <c r="BJ39" s="72"/>
-      <c r="BK39" s="73"/>
-      <c r="BL39" s="120"/>
-      <c r="BM39" s="120"/>
-      <c r="BN39" s="120"/>
-      <c r="BO39" s="120"/>
-      <c r="BP39" s="120"/>
-      <c r="BQ39" s="72"/>
-      <c r="BR39" s="73"/>
-      <c r="BS39" s="73"/>
-      <c r="BT39" s="74"/>
-      <c r="BU39" s="72"/>
-      <c r="BV39" s="72"/>
-      <c r="BW39" s="72"/>
-      <c r="BX39" s="72"/>
-      <c r="BY39" s="73"/>
-      <c r="BZ39" s="73"/>
-      <c r="CA39" s="74"/>
-      <c r="CB39" s="72"/>
-      <c r="CC39" s="72"/>
-      <c r="CD39" s="72"/>
-      <c r="CE39" s="72"/>
-      <c r="CF39" s="73"/>
-      <c r="CG39" s="73"/>
-      <c r="CH39" s="74"/>
-      <c r="CI39" s="72"/>
-      <c r="CJ39" s="72"/>
-      <c r="CK39" s="72"/>
-      <c r="CL39" s="72"/>
-      <c r="CM39" s="73"/>
-      <c r="CN39" s="86"/>
-      <c r="CO39" s="74"/>
-      <c r="CP39" s="72"/>
-      <c r="CQ39" s="72"/>
-      <c r="CR39" s="72"/>
-      <c r="CS39" s="72"/>
-      <c r="CT39" s="73"/>
-      <c r="CU39" s="73"/>
-      <c r="CV39" s="74"/>
-      <c r="CW39" s="72"/>
-      <c r="CX39" s="72"/>
-      <c r="CY39" s="72"/>
-      <c r="CZ39" s="72"/>
-      <c r="DA39" s="73"/>
-      <c r="DB39" s="73"/>
-      <c r="DC39" s="74"/>
-      <c r="DD39" s="72"/>
-      <c r="DE39" s="72"/>
-      <c r="DF39" s="72"/>
-      <c r="DG39" s="72"/>
-      <c r="DH39" s="73"/>
-      <c r="DI39" s="73"/>
-      <c r="DJ39" s="74"/>
-      <c r="DK39" s="72"/>
-      <c r="DL39" s="72"/>
-      <c r="DM39" s="72"/>
-      <c r="DN39" s="72"/>
-      <c r="DO39" s="73"/>
-      <c r="DP39" s="73"/>
-      <c r="DQ39" s="96"/>
-      <c r="DR39" s="71"/>
-      <c r="DS39" s="72"/>
-      <c r="DT39" s="72"/>
-      <c r="DU39" s="72"/>
-      <c r="DV39" s="73"/>
-      <c r="DW39" s="73"/>
-      <c r="DX39" s="73"/>
-      <c r="DY39" s="72"/>
-      <c r="DZ39" s="72"/>
-      <c r="EA39" s="72"/>
-      <c r="EB39" s="72"/>
-      <c r="EC39" s="73"/>
-      <c r="ED39" s="73"/>
-      <c r="EE39" s="74"/>
-      <c r="EF39" s="72"/>
-      <c r="EG39" s="72"/>
-      <c r="EH39" s="72"/>
-      <c r="EI39" s="72"/>
-      <c r="EJ39" s="73"/>
-      <c r="EK39" s="73"/>
-      <c r="EL39" s="74"/>
-      <c r="EM39" s="73"/>
-      <c r="EN39" s="72"/>
-      <c r="EO39" s="72"/>
-      <c r="EP39" s="72"/>
-      <c r="EQ39" s="73"/>
-      <c r="ER39" s="73"/>
-      <c r="ES39" s="74"/>
-      <c r="ET39" s="74"/>
-      <c r="EU39" s="74"/>
-      <c r="EV39" s="99"/>
+      <c r="A39" s="122"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="71"/>
+      <c r="R39" s="71"/>
+      <c r="S39" s="71"/>
+      <c r="T39" s="71"/>
+      <c r="U39" s="72"/>
+      <c r="V39" s="72"/>
+      <c r="W39" s="73"/>
+      <c r="X39" s="71"/>
+      <c r="Y39" s="71"/>
+      <c r="Z39" s="71"/>
+      <c r="AA39" s="71"/>
+      <c r="AB39" s="72"/>
+      <c r="AC39" s="72"/>
+      <c r="AD39" s="73"/>
+      <c r="AE39" s="71"/>
+      <c r="AF39" s="71"/>
+      <c r="AG39" s="70"/>
+      <c r="AH39" s="71"/>
+      <c r="AI39" s="72"/>
+      <c r="AJ39" s="72"/>
+      <c r="AK39" s="73"/>
+      <c r="AL39" s="71"/>
+      <c r="AM39" s="71"/>
+      <c r="AN39" s="71"/>
+      <c r="AO39" s="71"/>
+      <c r="AP39" s="72"/>
+      <c r="AQ39" s="72"/>
+      <c r="AR39" s="73"/>
+      <c r="AS39" s="71"/>
+      <c r="AT39" s="71"/>
+      <c r="AU39" s="72"/>
+      <c r="AV39" s="72"/>
+      <c r="AW39" s="72"/>
+      <c r="AX39" s="72"/>
+      <c r="AY39" s="73"/>
+      <c r="AZ39" s="71"/>
+      <c r="BA39" s="71"/>
+      <c r="BB39" s="71"/>
+      <c r="BC39" s="71"/>
+      <c r="BD39" s="72"/>
+      <c r="BE39" s="72"/>
+      <c r="BF39" s="73"/>
+      <c r="BG39" s="71"/>
+      <c r="BH39" s="74"/>
+      <c r="BI39" s="72"/>
+      <c r="BJ39" s="71"/>
+      <c r="BK39" s="72"/>
+      <c r="BL39" s="119"/>
+      <c r="BM39" s="119"/>
+      <c r="BN39" s="119"/>
+      <c r="BO39" s="119"/>
+      <c r="BP39" s="119"/>
+      <c r="BQ39" s="71"/>
+      <c r="BR39" s="72"/>
+      <c r="BS39" s="72"/>
+      <c r="BT39" s="73"/>
+      <c r="BU39" s="71"/>
+      <c r="BV39" s="71"/>
+      <c r="BW39" s="71"/>
+      <c r="BX39" s="71"/>
+      <c r="BY39" s="72"/>
+      <c r="BZ39" s="72"/>
+      <c r="CA39" s="73"/>
+      <c r="CB39" s="71"/>
+      <c r="CC39" s="71"/>
+      <c r="CD39" s="71"/>
+      <c r="CE39" s="71"/>
+      <c r="CF39" s="72"/>
+      <c r="CG39" s="72"/>
+      <c r="CH39" s="73"/>
+      <c r="CI39" s="71"/>
+      <c r="CJ39" s="71"/>
+      <c r="CK39" s="71"/>
+      <c r="CL39" s="71"/>
+      <c r="CM39" s="72"/>
+      <c r="CN39" s="85"/>
+      <c r="CO39" s="73"/>
+      <c r="CP39" s="71"/>
+      <c r="CQ39" s="71"/>
+      <c r="CR39" s="71"/>
+      <c r="CS39" s="71"/>
+      <c r="CT39" s="72"/>
+      <c r="CU39" s="72"/>
+      <c r="CV39" s="73"/>
+      <c r="CW39" s="71"/>
+      <c r="CX39" s="71"/>
+      <c r="CY39" s="71"/>
+      <c r="CZ39" s="71"/>
+      <c r="DA39" s="72"/>
+      <c r="DB39" s="72"/>
+      <c r="DC39" s="73"/>
+      <c r="DD39" s="71"/>
+      <c r="DE39" s="71"/>
+      <c r="DF39" s="71"/>
+      <c r="DG39" s="71"/>
+      <c r="DH39" s="72"/>
+      <c r="DI39" s="72"/>
+      <c r="DJ39" s="73"/>
+      <c r="DK39" s="71"/>
+      <c r="DL39" s="71"/>
+      <c r="DM39" s="71"/>
+      <c r="DN39" s="71"/>
+      <c r="DO39" s="72"/>
+      <c r="DP39" s="72"/>
+      <c r="DQ39" s="95"/>
+      <c r="DR39" s="70"/>
+      <c r="DS39" s="71"/>
+      <c r="DT39" s="71"/>
+      <c r="DU39" s="71"/>
+      <c r="DV39" s="72"/>
+      <c r="DW39" s="72"/>
+      <c r="DX39" s="72"/>
+      <c r="DY39" s="71"/>
+      <c r="DZ39" s="71"/>
+      <c r="EA39" s="71"/>
+      <c r="EB39" s="71"/>
+      <c r="EC39" s="72"/>
+      <c r="ED39" s="72"/>
+      <c r="EE39" s="73"/>
+      <c r="EF39" s="71"/>
+      <c r="EG39" s="71"/>
+      <c r="EH39" s="71"/>
+      <c r="EI39" s="71"/>
+      <c r="EJ39" s="72"/>
+      <c r="EK39" s="72"/>
+      <c r="EL39" s="73"/>
+      <c r="EM39" s="72"/>
+      <c r="EN39" s="71"/>
+      <c r="EO39" s="71"/>
+      <c r="EP39" s="71"/>
+      <c r="EQ39" s="72"/>
+      <c r="ER39" s="72"/>
+      <c r="ES39" s="73"/>
+      <c r="ET39" s="73"/>
+      <c r="EU39" s="73"/>
+      <c r="EV39" s="98"/>
     </row>
     <row r="40" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="122" t="s">
+      <c r="A40" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="78"/>
-      <c r="O40" s="78"/>
-      <c r="P40" s="84"/>
-      <c r="Q40" s="77"/>
-      <c r="R40" s="77"/>
-      <c r="S40" s="77"/>
-      <c r="T40" s="77"/>
-      <c r="U40" s="78"/>
-      <c r="V40" s="78"/>
-      <c r="W40" s="84"/>
-      <c r="X40" s="77"/>
-      <c r="Y40" s="77"/>
-      <c r="Z40" s="77"/>
-      <c r="AA40" s="77"/>
-      <c r="AB40" s="78"/>
-      <c r="AC40" s="78"/>
-      <c r="AD40" s="79"/>
-      <c r="AE40" s="77"/>
-      <c r="AF40" s="77"/>
-      <c r="AG40" s="83"/>
-      <c r="AH40" s="84"/>
-      <c r="AI40" s="78"/>
-      <c r="AJ40" s="78"/>
-      <c r="AK40" s="79"/>
-      <c r="AL40" s="77"/>
-      <c r="AM40" s="80" t="s">
+      <c r="B40" s="75"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="76"/>
+      <c r="N40" s="77"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="83"/>
+      <c r="Q40" s="76"/>
+      <c r="R40" s="76"/>
+      <c r="S40" s="76"/>
+      <c r="T40" s="76"/>
+      <c r="U40" s="77"/>
+      <c r="V40" s="77"/>
+      <c r="W40" s="83"/>
+      <c r="X40" s="76"/>
+      <c r="Y40" s="76"/>
+      <c r="Z40" s="76"/>
+      <c r="AA40" s="76"/>
+      <c r="AB40" s="77"/>
+      <c r="AC40" s="77"/>
+      <c r="AD40" s="78"/>
+      <c r="AE40" s="76"/>
+      <c r="AF40" s="76"/>
+      <c r="AG40" s="82"/>
+      <c r="AH40" s="83"/>
+      <c r="AI40" s="77"/>
+      <c r="AJ40" s="77"/>
+      <c r="AK40" s="78"/>
+      <c r="AL40" s="76"/>
+      <c r="AM40" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="AN40" s="77"/>
-      <c r="AO40" s="84"/>
-      <c r="AP40" s="78"/>
-      <c r="AQ40" s="78"/>
-      <c r="AR40" s="79"/>
-      <c r="AS40" s="77"/>
+      <c r="AN40" s="76"/>
+      <c r="AO40" s="83"/>
+      <c r="AP40" s="77"/>
+      <c r="AQ40" s="77"/>
+      <c r="AR40" s="78"/>
+      <c r="AS40" s="76"/>
       <c r="AT40" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AU40" s="78"/>
-      <c r="AV40" s="78"/>
-      <c r="AW40" s="78"/>
-      <c r="AX40" s="78"/>
-      <c r="AY40" s="79"/>
-      <c r="AZ40" s="77"/>
-      <c r="BA40" s="77"/>
-      <c r="BB40" s="77"/>
-      <c r="BC40" s="77"/>
-      <c r="BD40" s="78"/>
-      <c r="BE40" s="78"/>
-      <c r="BF40" s="79"/>
-      <c r="BG40" s="77"/>
-      <c r="BH40" s="85"/>
-      <c r="BI40" s="78"/>
-      <c r="BJ40" s="77"/>
-      <c r="BK40" s="78"/>
-      <c r="BL40" s="117"/>
-      <c r="BM40" s="121"/>
-      <c r="BN40" s="117"/>
-      <c r="BO40" s="117"/>
-      <c r="BP40" s="117"/>
-      <c r="BQ40" s="77"/>
-      <c r="BR40" s="78"/>
-      <c r="BS40" s="78"/>
-      <c r="BT40" s="47"/>
-      <c r="BU40" s="77"/>
-      <c r="BV40" s="77"/>
-      <c r="BW40" s="77"/>
-      <c r="BX40" s="77"/>
-      <c r="BY40" s="78"/>
-      <c r="BZ40" s="78"/>
-      <c r="CA40" s="79"/>
-      <c r="CB40" s="77"/>
-      <c r="CC40" s="77"/>
-      <c r="CD40" s="77"/>
-      <c r="CE40" s="77"/>
-      <c r="CF40" s="78"/>
-      <c r="CG40" s="78"/>
-      <c r="CH40" s="79"/>
-      <c r="CI40" s="77"/>
-      <c r="CJ40" s="77"/>
-      <c r="CK40" s="77"/>
-      <c r="CL40" s="77"/>
-      <c r="CM40" s="78"/>
-      <c r="CN40" s="76"/>
-      <c r="CO40" s="79"/>
-      <c r="CP40" s="77"/>
-      <c r="CQ40" s="77"/>
-      <c r="CR40" s="77"/>
-      <c r="CS40" s="77"/>
-      <c r="CT40" s="78"/>
-      <c r="CU40" s="78"/>
-      <c r="CV40" s="47" t="s">
+      <c r="AU40" s="77"/>
+      <c r="AV40" s="77"/>
+      <c r="AW40" s="77"/>
+      <c r="AX40" s="77"/>
+      <c r="AY40" s="78"/>
+      <c r="AZ40" s="76"/>
+      <c r="BA40" s="76"/>
+      <c r="BB40" s="76"/>
+      <c r="BC40" s="76"/>
+      <c r="BD40" s="77"/>
+      <c r="BE40" s="77"/>
+      <c r="BF40" s="78"/>
+      <c r="BG40" s="76"/>
+      <c r="BH40" s="84"/>
+      <c r="BI40" s="77"/>
+      <c r="BJ40" s="76"/>
+      <c r="BK40" s="77"/>
+      <c r="BL40" s="116"/>
+      <c r="BM40" s="120"/>
+      <c r="BN40" s="116"/>
+      <c r="BO40" s="116"/>
+      <c r="BP40" s="116"/>
+      <c r="BQ40" s="76"/>
+      <c r="BR40" s="77"/>
+      <c r="BS40" s="77"/>
+      <c r="BT40" s="46"/>
+      <c r="BU40" s="76"/>
+      <c r="BV40" s="76"/>
+      <c r="BW40" s="76"/>
+      <c r="BX40" s="76"/>
+      <c r="BY40" s="77"/>
+      <c r="BZ40" s="77"/>
+      <c r="CA40" s="78"/>
+      <c r="CB40" s="76"/>
+      <c r="CC40" s="76"/>
+      <c r="CD40" s="76"/>
+      <c r="CE40" s="76"/>
+      <c r="CF40" s="77"/>
+      <c r="CG40" s="77"/>
+      <c r="CH40" s="78"/>
+      <c r="CI40" s="76"/>
+      <c r="CJ40" s="76"/>
+      <c r="CK40" s="76"/>
+      <c r="CL40" s="76"/>
+      <c r="CM40" s="77"/>
+      <c r="CN40" s="75"/>
+      <c r="CO40" s="78"/>
+      <c r="CP40" s="76"/>
+      <c r="CQ40" s="76"/>
+      <c r="CR40" s="76"/>
+      <c r="CS40" s="76"/>
+      <c r="CT40" s="77"/>
+      <c r="CU40" s="77"/>
+      <c r="CV40" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="CW40" s="77"/>
-      <c r="CX40" s="77"/>
-      <c r="CY40" s="77"/>
-      <c r="CZ40" s="77"/>
-      <c r="DA40" s="78"/>
-      <c r="DB40" s="78"/>
-      <c r="DC40" s="79"/>
-      <c r="DD40" s="77"/>
-      <c r="DE40" s="77"/>
-      <c r="DF40" s="77"/>
-      <c r="DG40" s="77"/>
-      <c r="DH40" s="78"/>
-      <c r="DI40" s="78"/>
-      <c r="DJ40" s="79"/>
-      <c r="DK40" s="77"/>
-      <c r="DL40" s="77"/>
-      <c r="DM40" s="77"/>
-      <c r="DN40" s="77"/>
-      <c r="DO40" s="78"/>
-      <c r="DP40" s="78"/>
-      <c r="DQ40" s="85"/>
-      <c r="DR40" s="83"/>
-      <c r="DS40" s="77"/>
-      <c r="DT40" s="77"/>
-      <c r="DU40" s="77"/>
-      <c r="DV40" s="78"/>
-      <c r="DW40" s="78"/>
-      <c r="DX40" s="78"/>
-      <c r="DY40" s="77"/>
-      <c r="DZ40" s="77"/>
-      <c r="EA40" s="77"/>
-      <c r="EB40" s="77"/>
-      <c r="EC40" s="78"/>
-      <c r="ED40" s="78"/>
-      <c r="EE40" s="79"/>
-      <c r="EF40" s="77"/>
-      <c r="EG40" s="77"/>
-      <c r="EH40" s="77"/>
-      <c r="EI40" s="77"/>
-      <c r="EJ40" s="78"/>
-      <c r="EK40" s="78"/>
-      <c r="EL40" s="79"/>
-      <c r="EM40" s="78"/>
-      <c r="EN40" s="77"/>
-      <c r="EO40" s="77"/>
-      <c r="EP40" s="77"/>
-      <c r="EQ40" s="78"/>
-      <c r="ER40" s="78"/>
-      <c r="ES40" s="79"/>
-      <c r="ET40" s="79"/>
-      <c r="EU40" s="79"/>
-      <c r="EV40" s="103"/>
+      <c r="CW40" s="76"/>
+      <c r="CX40" s="76"/>
+      <c r="CY40" s="76"/>
+      <c r="CZ40" s="76"/>
+      <c r="DA40" s="77"/>
+      <c r="DB40" s="77"/>
+      <c r="DC40" s="78"/>
+      <c r="DD40" s="76"/>
+      <c r="DE40" s="76"/>
+      <c r="DF40" s="76"/>
+      <c r="DG40" s="76"/>
+      <c r="DH40" s="77"/>
+      <c r="DI40" s="77"/>
+      <c r="DJ40" s="78"/>
+      <c r="DK40" s="76"/>
+      <c r="DL40" s="76"/>
+      <c r="DM40" s="76"/>
+      <c r="DN40" s="76"/>
+      <c r="DO40" s="77"/>
+      <c r="DP40" s="77"/>
+      <c r="DQ40" s="84"/>
+      <c r="DR40" s="82"/>
+      <c r="DS40" s="76"/>
+      <c r="DT40" s="76"/>
+      <c r="DU40" s="76"/>
+      <c r="DV40" s="77"/>
+      <c r="DW40" s="77"/>
+      <c r="DX40" s="77"/>
+      <c r="DY40" s="76"/>
+      <c r="DZ40" s="76"/>
+      <c r="EA40" s="76"/>
+      <c r="EB40" s="76"/>
+      <c r="EC40" s="77"/>
+      <c r="ED40" s="77"/>
+      <c r="EE40" s="78"/>
+      <c r="EF40" s="76"/>
+      <c r="EG40" s="76"/>
+      <c r="EH40" s="76"/>
+      <c r="EI40" s="76"/>
+      <c r="EJ40" s="77"/>
+      <c r="EK40" s="77"/>
+      <c r="EL40" s="78"/>
+      <c r="EM40" s="77"/>
+      <c r="EN40" s="76"/>
+      <c r="EO40" s="76"/>
+      <c r="EP40" s="76"/>
+      <c r="EQ40" s="77"/>
+      <c r="ER40" s="77"/>
+      <c r="ES40" s="78"/>
+      <c r="ET40" s="78"/>
+      <c r="EU40" s="78"/>
+      <c r="EV40" s="102"/>
     </row>
     <row r="41" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="123"/>
+      <c r="A41" s="122"/>
       <c r="B41" s="24"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -8370,7 +8370,7 @@
       <c r="AD41" s="13"/>
       <c r="AE41" s="16"/>
       <c r="AF41" s="16"/>
-      <c r="AG41" s="68"/>
+      <c r="AG41" s="67"/>
       <c r="AH41" s="23"/>
       <c r="AI41" s="14"/>
       <c r="AJ41" s="14"/>
@@ -8401,11 +8401,11 @@
       <c r="BI41" s="14"/>
       <c r="BJ41" s="16"/>
       <c r="BK41" s="14"/>
-      <c r="BL41" s="114"/>
-      <c r="BM41" s="114"/>
-      <c r="BN41" s="114"/>
-      <c r="BO41" s="114"/>
-      <c r="BP41" s="114"/>
+      <c r="BL41" s="113"/>
+      <c r="BM41" s="113"/>
+      <c r="BN41" s="113"/>
+      <c r="BO41" s="113"/>
+      <c r="BP41" s="113"/>
       <c r="BQ41" s="16"/>
       <c r="BR41" s="14"/>
       <c r="BS41" s="14"/>
@@ -8442,13 +8442,13 @@
       <c r="CX41" s="16"/>
       <c r="CY41" s="16"/>
       <c r="CZ41" s="16"/>
-      <c r="DA41" s="57" t="s">
+      <c r="DA41" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="DB41" s="57"/>
-      <c r="DC41" s="57"/>
-      <c r="DD41" s="57"/>
-      <c r="DE41" s="57"/>
+      <c r="DB41" s="56"/>
+      <c r="DC41" s="56"/>
+      <c r="DD41" s="56"/>
+      <c r="DE41" s="56"/>
       <c r="DF41" s="16"/>
       <c r="DG41" s="16"/>
       <c r="DH41" s="14"/>
@@ -8461,7 +8461,7 @@
       <c r="DO41" s="14"/>
       <c r="DP41" s="14"/>
       <c r="DQ41" s="25"/>
-      <c r="DR41" s="68"/>
+      <c r="DR41" s="67"/>
       <c r="DS41" s="16"/>
       <c r="DT41" s="16"/>
       <c r="DU41" s="16"/>
@@ -8494,7 +8494,7 @@
       <c r="EV41" s="17"/>
     </row>
     <row r="42" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="123"/>
+      <c r="A42" s="122"/>
       <c r="B42" s="24"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
@@ -8526,7 +8526,7 @@
       <c r="AD42" s="13"/>
       <c r="AE42" s="16"/>
       <c r="AF42" s="16"/>
-      <c r="AG42" s="68"/>
+      <c r="AG42" s="67"/>
       <c r="AH42" s="16"/>
       <c r="AI42" s="14"/>
       <c r="AJ42" s="14"/>
@@ -8557,11 +8557,11 @@
       <c r="BI42" s="14"/>
       <c r="BJ42" s="16"/>
       <c r="BK42" s="14"/>
-      <c r="BL42" s="114"/>
-      <c r="BM42" s="114"/>
-      <c r="BN42" s="114"/>
-      <c r="BO42" s="114"/>
-      <c r="BP42" s="114"/>
+      <c r="BL42" s="113"/>
+      <c r="BM42" s="113"/>
+      <c r="BN42" s="113"/>
+      <c r="BO42" s="113"/>
+      <c r="BP42" s="113"/>
       <c r="BQ42" s="16"/>
       <c r="BR42" s="14"/>
       <c r="BS42" s="14"/>
@@ -8617,14 +8617,14 @@
       <c r="DO42" s="14"/>
       <c r="DP42" s="14"/>
       <c r="DQ42" s="25"/>
-      <c r="DR42" s="68"/>
+      <c r="DR42" s="67"/>
       <c r="DS42" s="16"/>
       <c r="DT42" s="16"/>
       <c r="DU42" s="16"/>
-      <c r="DV42" s="60" t="s">
+      <c r="DV42" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="DW42" s="102"/>
+      <c r="DW42" s="101"/>
       <c r="DX42" s="14"/>
       <c r="DY42" s="16"/>
       <c r="DZ42" s="16"/>
@@ -8652,7 +8652,7 @@
       <c r="EV42" s="17"/>
     </row>
     <row r="43" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="123"/>
+      <c r="A43" s="122"/>
       <c r="B43" s="24"/>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -8684,7 +8684,7 @@
       <c r="AD43" s="13"/>
       <c r="AE43" s="16"/>
       <c r="AF43" s="16"/>
-      <c r="AG43" s="68"/>
+      <c r="AG43" s="67"/>
       <c r="AH43" s="16"/>
       <c r="AI43" s="14"/>
       <c r="AJ43" s="14"/>
@@ -8715,11 +8715,11 @@
       <c r="BI43" s="14"/>
       <c r="BJ43" s="16"/>
       <c r="BK43" s="14"/>
-      <c r="BL43" s="114"/>
-      <c r="BM43" s="114"/>
-      <c r="BN43" s="114"/>
-      <c r="BO43" s="114"/>
-      <c r="BP43" s="114"/>
+      <c r="BL43" s="113"/>
+      <c r="BM43" s="113"/>
+      <c r="BN43" s="113"/>
+      <c r="BO43" s="113"/>
+      <c r="BP43" s="113"/>
       <c r="BQ43" s="16"/>
       <c r="BR43" s="14"/>
       <c r="BS43" s="14"/>
@@ -8775,7 +8775,7 @@
       <c r="DO43" s="14"/>
       <c r="DP43" s="14"/>
       <c r="DQ43" s="17"/>
-      <c r="DR43" s="68"/>
+      <c r="DR43" s="67"/>
       <c r="DS43" s="16"/>
       <c r="DT43" s="16"/>
       <c r="DU43" s="16"/>
@@ -8808,325 +8808,325 @@
       <c r="EV43" s="17"/>
     </row>
     <row r="44" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="124"/>
-      <c r="B44" s="86"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="72"/>
-      <c r="N44" s="73"/>
-      <c r="O44" s="73"/>
-      <c r="P44" s="74"/>
-      <c r="Q44" s="72"/>
-      <c r="R44" s="72"/>
-      <c r="S44" s="72"/>
-      <c r="T44" s="72"/>
-      <c r="U44" s="73"/>
-      <c r="V44" s="73"/>
-      <c r="W44" s="74"/>
-      <c r="X44" s="72"/>
-      <c r="Y44" s="72"/>
-      <c r="Z44" s="72"/>
-      <c r="AA44" s="72"/>
-      <c r="AB44" s="73"/>
-      <c r="AC44" s="73"/>
-      <c r="AD44" s="74"/>
-      <c r="AE44" s="72"/>
-      <c r="AF44" s="72"/>
-      <c r="AG44" s="71"/>
-      <c r="AH44" s="72"/>
-      <c r="AI44" s="73"/>
-      <c r="AJ44" s="73"/>
-      <c r="AK44" s="74"/>
-      <c r="AL44" s="72"/>
-      <c r="AM44" s="72"/>
-      <c r="AN44" s="72"/>
-      <c r="AO44" s="72"/>
-      <c r="AP44" s="73"/>
-      <c r="AQ44" s="73"/>
-      <c r="AR44" s="74"/>
-      <c r="AS44" s="72"/>
-      <c r="AT44" s="72"/>
-      <c r="AU44" s="73"/>
-      <c r="AV44" s="73"/>
-      <c r="AW44" s="73"/>
-      <c r="AX44" s="73"/>
-      <c r="AY44" s="74"/>
-      <c r="AZ44" s="72"/>
-      <c r="BA44" s="72"/>
-      <c r="BB44" s="72"/>
-      <c r="BC44" s="72"/>
-      <c r="BD44" s="73"/>
-      <c r="BE44" s="73"/>
-      <c r="BF44" s="74"/>
-      <c r="BG44" s="72"/>
-      <c r="BH44" s="75"/>
-      <c r="BI44" s="73"/>
-      <c r="BJ44" s="72"/>
-      <c r="BK44" s="73"/>
-      <c r="BL44" s="120"/>
-      <c r="BM44" s="120"/>
-      <c r="BN44" s="120"/>
-      <c r="BO44" s="120"/>
-      <c r="BP44" s="120"/>
-      <c r="BQ44" s="72"/>
-      <c r="BR44" s="73"/>
-      <c r="BS44" s="73"/>
-      <c r="BT44" s="74"/>
-      <c r="BU44" s="72"/>
-      <c r="BV44" s="72"/>
-      <c r="BW44" s="72"/>
-      <c r="BX44" s="72"/>
-      <c r="BY44" s="73"/>
-      <c r="BZ44" s="73"/>
-      <c r="CA44" s="74"/>
-      <c r="CB44" s="72"/>
-      <c r="CC44" s="72"/>
-      <c r="CD44" s="72"/>
-      <c r="CE44" s="72"/>
-      <c r="CF44" s="73"/>
-      <c r="CG44" s="73"/>
-      <c r="CH44" s="74"/>
-      <c r="CI44" s="72"/>
-      <c r="CJ44" s="72"/>
-      <c r="CK44" s="72"/>
-      <c r="CL44" s="72"/>
-      <c r="CM44" s="73"/>
-      <c r="CN44" s="86"/>
-      <c r="CO44" s="74"/>
-      <c r="CP44" s="72"/>
-      <c r="CQ44" s="72"/>
-      <c r="CR44" s="72"/>
-      <c r="CS44" s="72"/>
-      <c r="CT44" s="73"/>
-      <c r="CU44" s="73"/>
+      <c r="A44" s="123"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="71"/>
+      <c r="R44" s="71"/>
+      <c r="S44" s="71"/>
+      <c r="T44" s="71"/>
+      <c r="U44" s="72"/>
+      <c r="V44" s="72"/>
+      <c r="W44" s="73"/>
+      <c r="X44" s="71"/>
+      <c r="Y44" s="71"/>
+      <c r="Z44" s="71"/>
+      <c r="AA44" s="71"/>
+      <c r="AB44" s="72"/>
+      <c r="AC44" s="72"/>
+      <c r="AD44" s="73"/>
+      <c r="AE44" s="71"/>
+      <c r="AF44" s="71"/>
+      <c r="AG44" s="70"/>
+      <c r="AH44" s="71"/>
+      <c r="AI44" s="72"/>
+      <c r="AJ44" s="72"/>
+      <c r="AK44" s="73"/>
+      <c r="AL44" s="71"/>
+      <c r="AM44" s="71"/>
+      <c r="AN44" s="71"/>
+      <c r="AO44" s="71"/>
+      <c r="AP44" s="72"/>
+      <c r="AQ44" s="72"/>
+      <c r="AR44" s="73"/>
+      <c r="AS44" s="71"/>
+      <c r="AT44" s="71"/>
+      <c r="AU44" s="72"/>
+      <c r="AV44" s="72"/>
+      <c r="AW44" s="72"/>
+      <c r="AX44" s="72"/>
+      <c r="AY44" s="73"/>
+      <c r="AZ44" s="71"/>
+      <c r="BA44" s="71"/>
+      <c r="BB44" s="71"/>
+      <c r="BC44" s="71"/>
+      <c r="BD44" s="72"/>
+      <c r="BE44" s="72"/>
+      <c r="BF44" s="73"/>
+      <c r="BG44" s="71"/>
+      <c r="BH44" s="74"/>
+      <c r="BI44" s="72"/>
+      <c r="BJ44" s="71"/>
+      <c r="BK44" s="72"/>
+      <c r="BL44" s="119"/>
+      <c r="BM44" s="119"/>
+      <c r="BN44" s="119"/>
+      <c r="BO44" s="119"/>
+      <c r="BP44" s="119"/>
+      <c r="BQ44" s="71"/>
+      <c r="BR44" s="72"/>
+      <c r="BS44" s="72"/>
+      <c r="BT44" s="73"/>
+      <c r="BU44" s="71"/>
+      <c r="BV44" s="71"/>
+      <c r="BW44" s="71"/>
+      <c r="BX44" s="71"/>
+      <c r="BY44" s="72"/>
+      <c r="BZ44" s="72"/>
+      <c r="CA44" s="73"/>
+      <c r="CB44" s="71"/>
+      <c r="CC44" s="71"/>
+      <c r="CD44" s="71"/>
+      <c r="CE44" s="71"/>
+      <c r="CF44" s="72"/>
+      <c r="CG44" s="72"/>
+      <c r="CH44" s="73"/>
+      <c r="CI44" s="71"/>
+      <c r="CJ44" s="71"/>
+      <c r="CK44" s="71"/>
+      <c r="CL44" s="71"/>
+      <c r="CM44" s="72"/>
+      <c r="CN44" s="85"/>
+      <c r="CO44" s="73"/>
+      <c r="CP44" s="71"/>
+      <c r="CQ44" s="71"/>
+      <c r="CR44" s="71"/>
+      <c r="CS44" s="71"/>
+      <c r="CT44" s="72"/>
+      <c r="CU44" s="72"/>
       <c r="CV44" s="16"/>
-      <c r="CW44" s="72"/>
-      <c r="CX44" s="72"/>
-      <c r="CY44" s="72"/>
-      <c r="CZ44" s="72"/>
-      <c r="DA44" s="73"/>
-      <c r="DB44" s="73"/>
-      <c r="DC44" s="72"/>
-      <c r="DD44" s="72"/>
-      <c r="DE44" s="72"/>
-      <c r="DF44" s="72"/>
-      <c r="DG44" s="72"/>
-      <c r="DH44" s="73"/>
-      <c r="DI44" s="73"/>
-      <c r="DJ44" s="72" t="s">
+      <c r="CW44" s="71"/>
+      <c r="CX44" s="71"/>
+      <c r="CY44" s="71"/>
+      <c r="CZ44" s="71"/>
+      <c r="DA44" s="72"/>
+      <c r="DB44" s="72"/>
+      <c r="DC44" s="71"/>
+      <c r="DD44" s="71"/>
+      <c r="DE44" s="71"/>
+      <c r="DF44" s="71"/>
+      <c r="DG44" s="71"/>
+      <c r="DH44" s="72"/>
+      <c r="DI44" s="72"/>
+      <c r="DJ44" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="DK44" s="72"/>
-      <c r="DL44" s="72"/>
-      <c r="DM44" s="72"/>
-      <c r="DN44" s="72"/>
-      <c r="DO44" s="73"/>
-      <c r="DP44" s="73"/>
-      <c r="DQ44" s="96"/>
-      <c r="DR44" s="71"/>
-      <c r="DS44" s="72"/>
-      <c r="DT44" s="72"/>
-      <c r="DU44" s="72"/>
-      <c r="DV44" s="73"/>
-      <c r="DW44" s="73"/>
-      <c r="DX44" s="73"/>
-      <c r="DY44" s="72"/>
-      <c r="DZ44" s="72"/>
-      <c r="EA44" s="72"/>
-      <c r="EB44" s="72"/>
-      <c r="EC44" s="73"/>
-      <c r="ED44" s="73"/>
-      <c r="EE44" s="74"/>
-      <c r="EF44" s="72"/>
-      <c r="EG44" s="72"/>
-      <c r="EH44" s="72"/>
-      <c r="EI44" s="72"/>
-      <c r="EJ44" s="73"/>
-      <c r="EK44" s="73"/>
-      <c r="EL44" s="74"/>
-      <c r="EM44" s="73"/>
-      <c r="EN44" s="72"/>
-      <c r="EO44" s="72"/>
-      <c r="EP44" s="72"/>
-      <c r="EQ44" s="73"/>
-      <c r="ER44" s="73"/>
-      <c r="ES44" s="74"/>
-      <c r="ET44" s="74"/>
-      <c r="EU44" s="74"/>
-      <c r="EV44" s="99"/>
+      <c r="DK44" s="71"/>
+      <c r="DL44" s="71"/>
+      <c r="DM44" s="71"/>
+      <c r="DN44" s="71"/>
+      <c r="DO44" s="72"/>
+      <c r="DP44" s="72"/>
+      <c r="DQ44" s="95"/>
+      <c r="DR44" s="70"/>
+      <c r="DS44" s="71"/>
+      <c r="DT44" s="71"/>
+      <c r="DU44" s="71"/>
+      <c r="DV44" s="72"/>
+      <c r="DW44" s="72"/>
+      <c r="DX44" s="72"/>
+      <c r="DY44" s="71"/>
+      <c r="DZ44" s="71"/>
+      <c r="EA44" s="71"/>
+      <c r="EB44" s="71"/>
+      <c r="EC44" s="72"/>
+      <c r="ED44" s="72"/>
+      <c r="EE44" s="73"/>
+      <c r="EF44" s="71"/>
+      <c r="EG44" s="71"/>
+      <c r="EH44" s="71"/>
+      <c r="EI44" s="71"/>
+      <c r="EJ44" s="72"/>
+      <c r="EK44" s="72"/>
+      <c r="EL44" s="73"/>
+      <c r="EM44" s="72"/>
+      <c r="EN44" s="71"/>
+      <c r="EO44" s="71"/>
+      <c r="EP44" s="71"/>
+      <c r="EQ44" s="72"/>
+      <c r="ER44" s="72"/>
+      <c r="ES44" s="73"/>
+      <c r="ET44" s="73"/>
+      <c r="EU44" s="73"/>
+      <c r="EV44" s="98"/>
     </row>
     <row r="45" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="123" t="s">
+      <c r="A45" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="76"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="79"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="77"/>
-      <c r="N45" s="78"/>
-      <c r="O45" s="78"/>
-      <c r="P45" s="84"/>
-      <c r="Q45" s="77"/>
-      <c r="R45" s="77"/>
-      <c r="S45" s="77"/>
-      <c r="T45" s="77"/>
-      <c r="U45" s="78"/>
-      <c r="V45" s="78"/>
-      <c r="W45" s="84"/>
-      <c r="X45" s="77"/>
-      <c r="Y45" s="77"/>
-      <c r="Z45" s="77"/>
-      <c r="AA45" s="77"/>
-      <c r="AB45" s="78"/>
-      <c r="AC45" s="78"/>
-      <c r="AD45" s="79"/>
-      <c r="AE45" s="77"/>
-      <c r="AF45" s="77"/>
-      <c r="AG45" s="83"/>
-      <c r="AH45" s="84"/>
-      <c r="AI45" s="78"/>
-      <c r="AJ45" s="78"/>
-      <c r="AK45" s="79"/>
-      <c r="AL45" s="77"/>
-      <c r="AM45" s="80" t="s">
+      <c r="B45" s="75"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="78"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="76"/>
+      <c r="N45" s="77"/>
+      <c r="O45" s="77"/>
+      <c r="P45" s="83"/>
+      <c r="Q45" s="76"/>
+      <c r="R45" s="76"/>
+      <c r="S45" s="76"/>
+      <c r="T45" s="76"/>
+      <c r="U45" s="77"/>
+      <c r="V45" s="77"/>
+      <c r="W45" s="83"/>
+      <c r="X45" s="76"/>
+      <c r="Y45" s="76"/>
+      <c r="Z45" s="76"/>
+      <c r="AA45" s="76"/>
+      <c r="AB45" s="77"/>
+      <c r="AC45" s="77"/>
+      <c r="AD45" s="78"/>
+      <c r="AE45" s="76"/>
+      <c r="AF45" s="76"/>
+      <c r="AG45" s="82"/>
+      <c r="AH45" s="83"/>
+      <c r="AI45" s="77"/>
+      <c r="AJ45" s="77"/>
+      <c r="AK45" s="78"/>
+      <c r="AL45" s="76"/>
+      <c r="AM45" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="AN45" s="77"/>
-      <c r="AO45" s="84"/>
-      <c r="AP45" s="78"/>
-      <c r="AQ45" s="78"/>
-      <c r="AR45" s="79"/>
-      <c r="AS45" s="77"/>
+      <c r="AN45" s="76"/>
+      <c r="AO45" s="83"/>
+      <c r="AP45" s="77"/>
+      <c r="AQ45" s="77"/>
+      <c r="AR45" s="78"/>
+      <c r="AS45" s="76"/>
       <c r="AT45" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AU45" s="78"/>
-      <c r="AV45" s="78"/>
-      <c r="AW45" s="78"/>
-      <c r="AX45" s="78"/>
-      <c r="AY45" s="79"/>
-      <c r="AZ45" s="77"/>
-      <c r="BA45" s="77"/>
-      <c r="BB45" s="77"/>
-      <c r="BC45" s="77"/>
-      <c r="BD45" s="78"/>
-      <c r="BE45" s="78"/>
-      <c r="BF45" s="79"/>
-      <c r="BG45" s="77"/>
-      <c r="BH45" s="85"/>
-      <c r="BI45" s="78"/>
-      <c r="BJ45" s="77"/>
-      <c r="BK45" s="78"/>
-      <c r="BL45" s="117"/>
-      <c r="BM45" s="117"/>
-      <c r="BN45" s="117"/>
-      <c r="BO45" s="117"/>
-      <c r="BP45" s="117"/>
-      <c r="BQ45" s="77"/>
-      <c r="BR45" s="78"/>
-      <c r="BS45" s="78"/>
-      <c r="BT45" s="79"/>
-      <c r="BU45" s="77"/>
-      <c r="BV45" s="77"/>
-      <c r="BW45" s="77"/>
-      <c r="BX45" s="77"/>
-      <c r="BY45" s="78"/>
-      <c r="BZ45" s="78"/>
-      <c r="CA45" s="79"/>
-      <c r="CB45" s="77"/>
-      <c r="CC45" s="77"/>
-      <c r="CD45" s="77"/>
-      <c r="CE45" s="77"/>
-      <c r="CF45" s="78"/>
-      <c r="CG45" s="78"/>
-      <c r="CH45" s="79"/>
-      <c r="CI45" s="77"/>
-      <c r="CJ45" s="77"/>
-      <c r="CK45" s="77"/>
-      <c r="CL45" s="77"/>
-      <c r="CM45" s="78"/>
-      <c r="CN45" s="76"/>
-      <c r="CO45" s="79"/>
-      <c r="CP45" s="77"/>
-      <c r="CQ45" s="77"/>
-      <c r="CR45" s="77"/>
-      <c r="CS45" s="77"/>
-      <c r="CT45" s="78"/>
-      <c r="CU45" s="78"/>
-      <c r="CV45" s="79"/>
-      <c r="CW45" s="77"/>
-      <c r="CX45" s="77"/>
-      <c r="CY45" s="77"/>
-      <c r="CZ45" s="77"/>
-      <c r="DA45" s="78"/>
-      <c r="DB45" s="78"/>
-      <c r="DC45" s="84" t="s">
+      <c r="AU45" s="77"/>
+      <c r="AV45" s="77"/>
+      <c r="AW45" s="77"/>
+      <c r="AX45" s="77"/>
+      <c r="AY45" s="78"/>
+      <c r="AZ45" s="76"/>
+      <c r="BA45" s="76"/>
+      <c r="BB45" s="76"/>
+      <c r="BC45" s="76"/>
+      <c r="BD45" s="77"/>
+      <c r="BE45" s="77"/>
+      <c r="BF45" s="78"/>
+      <c r="BG45" s="76"/>
+      <c r="BH45" s="84"/>
+      <c r="BI45" s="77"/>
+      <c r="BJ45" s="76"/>
+      <c r="BK45" s="77"/>
+      <c r="BL45" s="116"/>
+      <c r="BM45" s="116"/>
+      <c r="BN45" s="116"/>
+      <c r="BO45" s="116"/>
+      <c r="BP45" s="116"/>
+      <c r="BQ45" s="76"/>
+      <c r="BR45" s="77"/>
+      <c r="BS45" s="77"/>
+      <c r="BT45" s="78"/>
+      <c r="BU45" s="76"/>
+      <c r="BV45" s="76"/>
+      <c r="BW45" s="76"/>
+      <c r="BX45" s="76"/>
+      <c r="BY45" s="77"/>
+      <c r="BZ45" s="77"/>
+      <c r="CA45" s="78"/>
+      <c r="CB45" s="76"/>
+      <c r="CC45" s="76"/>
+      <c r="CD45" s="76"/>
+      <c r="CE45" s="76"/>
+      <c r="CF45" s="77"/>
+      <c r="CG45" s="77"/>
+      <c r="CH45" s="78"/>
+      <c r="CI45" s="76"/>
+      <c r="CJ45" s="76"/>
+      <c r="CK45" s="76"/>
+      <c r="CL45" s="76"/>
+      <c r="CM45" s="77"/>
+      <c r="CN45" s="75"/>
+      <c r="CO45" s="78"/>
+      <c r="CP45" s="76"/>
+      <c r="CQ45" s="76"/>
+      <c r="CR45" s="76"/>
+      <c r="CS45" s="76"/>
+      <c r="CT45" s="77"/>
+      <c r="CU45" s="77"/>
+      <c r="CV45" s="78"/>
+      <c r="CW45" s="76"/>
+      <c r="CX45" s="76"/>
+      <c r="CY45" s="76"/>
+      <c r="CZ45" s="76"/>
+      <c r="DA45" s="77"/>
+      <c r="DB45" s="77"/>
+      <c r="DC45" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="DD45" s="77"/>
-      <c r="DE45" s="77"/>
-      <c r="DF45" s="77"/>
-      <c r="DG45" s="77"/>
-      <c r="DH45" s="78"/>
-      <c r="DI45" s="78"/>
-      <c r="DJ45" s="79"/>
-      <c r="DK45" s="77"/>
-      <c r="DL45" s="77"/>
-      <c r="DM45" s="77"/>
-      <c r="DN45" s="77"/>
-      <c r="DO45" s="78"/>
-      <c r="DP45" s="78"/>
-      <c r="DQ45" s="85"/>
-      <c r="DR45" s="83"/>
-      <c r="DS45" s="77"/>
-      <c r="DT45" s="77"/>
-      <c r="DU45" s="77"/>
-      <c r="DV45" s="78"/>
-      <c r="DW45" s="78"/>
-      <c r="DX45" s="78"/>
-      <c r="DY45" s="77"/>
-      <c r="DZ45" s="77"/>
-      <c r="EA45" s="77"/>
-      <c r="EB45" s="77"/>
-      <c r="EC45" s="78"/>
-      <c r="ED45" s="78"/>
-      <c r="EE45" s="79"/>
-      <c r="EF45" s="77"/>
-      <c r="EG45" s="77"/>
-      <c r="EH45" s="77"/>
-      <c r="EI45" s="77"/>
-      <c r="EJ45" s="78"/>
-      <c r="EK45" s="78"/>
-      <c r="EL45" s="79"/>
-      <c r="EM45" s="78"/>
-      <c r="EN45" s="77"/>
-      <c r="EO45" s="77"/>
-      <c r="EP45" s="77"/>
-      <c r="EQ45" s="78"/>
-      <c r="ER45" s="78"/>
-      <c r="ES45" s="79"/>
-      <c r="ET45" s="79"/>
-      <c r="EU45" s="79"/>
-      <c r="EV45" s="103"/>
+      <c r="DD45" s="76"/>
+      <c r="DE45" s="76"/>
+      <c r="DF45" s="76"/>
+      <c r="DG45" s="76"/>
+      <c r="DH45" s="77"/>
+      <c r="DI45" s="77"/>
+      <c r="DJ45" s="78"/>
+      <c r="DK45" s="76"/>
+      <c r="DL45" s="76"/>
+      <c r="DM45" s="76"/>
+      <c r="DN45" s="76"/>
+      <c r="DO45" s="77"/>
+      <c r="DP45" s="77"/>
+      <c r="DQ45" s="84"/>
+      <c r="DR45" s="82"/>
+      <c r="DS45" s="76"/>
+      <c r="DT45" s="76"/>
+      <c r="DU45" s="76"/>
+      <c r="DV45" s="77"/>
+      <c r="DW45" s="77"/>
+      <c r="DX45" s="77"/>
+      <c r="DY45" s="76"/>
+      <c r="DZ45" s="76"/>
+      <c r="EA45" s="76"/>
+      <c r="EB45" s="76"/>
+      <c r="EC45" s="77"/>
+      <c r="ED45" s="77"/>
+      <c r="EE45" s="78"/>
+      <c r="EF45" s="76"/>
+      <c r="EG45" s="76"/>
+      <c r="EH45" s="76"/>
+      <c r="EI45" s="76"/>
+      <c r="EJ45" s="77"/>
+      <c r="EK45" s="77"/>
+      <c r="EL45" s="78"/>
+      <c r="EM45" s="77"/>
+      <c r="EN45" s="76"/>
+      <c r="EO45" s="76"/>
+      <c r="EP45" s="76"/>
+      <c r="EQ45" s="77"/>
+      <c r="ER45" s="77"/>
+      <c r="ES45" s="78"/>
+      <c r="ET45" s="78"/>
+      <c r="EU45" s="78"/>
+      <c r="EV45" s="102"/>
     </row>
     <row r="46" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="123"/>
+      <c r="A46" s="122"/>
       <c r="B46" s="24"/>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
@@ -9158,7 +9158,7 @@
       <c r="AD46" s="13"/>
       <c r="AE46" s="16"/>
       <c r="AF46" s="16"/>
-      <c r="AG46" s="68"/>
+      <c r="AG46" s="67"/>
       <c r="AH46" s="23"/>
       <c r="AI46" s="14"/>
       <c r="AJ46" s="14"/>
@@ -9189,11 +9189,11 @@
       <c r="BI46" s="14"/>
       <c r="BJ46" s="16"/>
       <c r="BK46" s="14"/>
-      <c r="BL46" s="114"/>
-      <c r="BM46" s="114"/>
-      <c r="BN46" s="114"/>
-      <c r="BO46" s="114"/>
-      <c r="BP46" s="114"/>
+      <c r="BL46" s="113"/>
+      <c r="BM46" s="113"/>
+      <c r="BN46" s="113"/>
+      <c r="BO46" s="113"/>
+      <c r="BP46" s="113"/>
       <c r="BQ46" s="16"/>
       <c r="BR46" s="14"/>
       <c r="BS46" s="14"/>
@@ -9237,19 +9237,19 @@
       <c r="DE46" s="16"/>
       <c r="DF46" s="16"/>
       <c r="DG46" s="16"/>
-      <c r="DH46" s="57" t="s">
+      <c r="DH46" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="DI46" s="57"/>
-      <c r="DJ46" s="57"/>
-      <c r="DK46" s="57"/>
-      <c r="DL46" s="57"/>
+      <c r="DI46" s="56"/>
+      <c r="DJ46" s="56"/>
+      <c r="DK46" s="56"/>
+      <c r="DL46" s="56"/>
       <c r="DM46" s="16"/>
       <c r="DN46" s="16"/>
       <c r="DO46" s="14"/>
       <c r="DP46" s="14"/>
       <c r="DQ46" s="25"/>
-      <c r="DR46" s="68"/>
+      <c r="DR46" s="67"/>
       <c r="DS46" s="16"/>
       <c r="DT46" s="16"/>
       <c r="DU46" s="16"/>
@@ -9282,7 +9282,7 @@
       <c r="EV46" s="17"/>
     </row>
     <row r="47" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="123"/>
+      <c r="A47" s="122"/>
       <c r="B47" s="24"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
@@ -9314,7 +9314,7 @@
       <c r="AD47" s="13"/>
       <c r="AE47" s="16"/>
       <c r="AF47" s="16"/>
-      <c r="AG47" s="68"/>
+      <c r="AG47" s="67"/>
       <c r="AH47" s="16"/>
       <c r="AI47" s="14"/>
       <c r="AJ47" s="14"/>
@@ -9345,11 +9345,11 @@
       <c r="BI47" s="14"/>
       <c r="BJ47" s="16"/>
       <c r="BK47" s="14"/>
-      <c r="BL47" s="114"/>
-      <c r="BM47" s="114"/>
-      <c r="BN47" s="114"/>
-      <c r="BO47" s="114"/>
-      <c r="BP47" s="114"/>
+      <c r="BL47" s="113"/>
+      <c r="BM47" s="113"/>
+      <c r="BN47" s="113"/>
+      <c r="BO47" s="113"/>
+      <c r="BP47" s="113"/>
       <c r="BQ47" s="16"/>
       <c r="BR47" s="14"/>
       <c r="BS47" s="14"/>
@@ -9405,7 +9405,7 @@
       <c r="DO47" s="14"/>
       <c r="DP47" s="14"/>
       <c r="DQ47" s="16"/>
-      <c r="DR47" s="68"/>
+      <c r="DR47" s="67"/>
       <c r="DS47" s="16"/>
       <c r="DT47" s="16"/>
       <c r="DU47" s="16"/>
@@ -9416,10 +9416,10 @@
       <c r="DZ47" s="16"/>
       <c r="EA47" s="16"/>
       <c r="EB47" s="16"/>
-      <c r="EC47" s="60" t="s">
+      <c r="EC47" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="ED47" s="102"/>
+      <c r="ED47" s="101"/>
       <c r="EE47" s="13"/>
       <c r="EF47" s="16"/>
       <c r="EG47" s="16"/>
@@ -9440,7 +9440,7 @@
       <c r="EV47" s="17"/>
     </row>
     <row r="48" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="123"/>
+      <c r="A48" s="122"/>
       <c r="B48" s="24"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
@@ -9472,7 +9472,7 @@
       <c r="AD48" s="13"/>
       <c r="AE48" s="16"/>
       <c r="AF48" s="16"/>
-      <c r="AG48" s="68"/>
+      <c r="AG48" s="67"/>
       <c r="AH48" s="16"/>
       <c r="AI48" s="14"/>
       <c r="AJ48" s="14"/>
@@ -9503,11 +9503,11 @@
       <c r="BI48" s="14"/>
       <c r="BJ48" s="16"/>
       <c r="BK48" s="14"/>
-      <c r="BL48" s="114"/>
-      <c r="BM48" s="114"/>
-      <c r="BN48" s="114"/>
-      <c r="BO48" s="114"/>
-      <c r="BP48" s="114"/>
+      <c r="BL48" s="113"/>
+      <c r="BM48" s="113"/>
+      <c r="BN48" s="113"/>
+      <c r="BO48" s="113"/>
+      <c r="BP48" s="113"/>
       <c r="BQ48" s="16"/>
       <c r="BR48" s="14"/>
       <c r="BS48" s="14"/>
@@ -9563,7 +9563,7 @@
       <c r="DO48" s="14"/>
       <c r="DP48" s="14"/>
       <c r="DQ48" s="23"/>
-      <c r="DR48" s="68"/>
+      <c r="DR48" s="67"/>
       <c r="DS48" s="16"/>
       <c r="DT48" s="16"/>
       <c r="DU48" s="16"/>
@@ -9596,158 +9596,158 @@
       <c r="EV48" s="17"/>
     </row>
     <row r="49" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="124"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73"/>
-      <c r="I49" s="74"/>
-      <c r="J49" s="72"/>
-      <c r="K49" s="72"/>
-      <c r="L49" s="72"/>
-      <c r="M49" s="72"/>
-      <c r="N49" s="73"/>
-      <c r="O49" s="73"/>
-      <c r="P49" s="74"/>
-      <c r="Q49" s="72"/>
-      <c r="R49" s="72"/>
-      <c r="S49" s="72"/>
-      <c r="T49" s="72"/>
-      <c r="U49" s="73"/>
-      <c r="V49" s="73"/>
-      <c r="W49" s="74"/>
-      <c r="X49" s="72"/>
-      <c r="Y49" s="72"/>
-      <c r="Z49" s="72"/>
-      <c r="AA49" s="72"/>
-      <c r="AB49" s="73"/>
-      <c r="AC49" s="73"/>
-      <c r="AD49" s="74"/>
-      <c r="AE49" s="72"/>
-      <c r="AF49" s="72"/>
-      <c r="AG49" s="71"/>
-      <c r="AH49" s="72"/>
-      <c r="AI49" s="73"/>
-      <c r="AJ49" s="73"/>
-      <c r="AK49" s="74"/>
-      <c r="AL49" s="72"/>
-      <c r="AM49" s="72"/>
-      <c r="AN49" s="72"/>
-      <c r="AO49" s="72"/>
-      <c r="AP49" s="73"/>
-      <c r="AQ49" s="73"/>
-      <c r="AR49" s="74"/>
-      <c r="AS49" s="72"/>
-      <c r="AT49" s="72"/>
-      <c r="AU49" s="73"/>
-      <c r="AV49" s="73"/>
-      <c r="AW49" s="73"/>
-      <c r="AX49" s="73"/>
-      <c r="AY49" s="74"/>
-      <c r="AZ49" s="72"/>
-      <c r="BA49" s="72"/>
-      <c r="BB49" s="72"/>
-      <c r="BC49" s="72"/>
-      <c r="BD49" s="73"/>
-      <c r="BE49" s="73"/>
-      <c r="BF49" s="74"/>
-      <c r="BG49" s="72"/>
-      <c r="BH49" s="75"/>
-      <c r="BI49" s="73"/>
-      <c r="BJ49" s="72"/>
-      <c r="BK49" s="73"/>
-      <c r="BL49" s="120"/>
-      <c r="BM49" s="120"/>
-      <c r="BN49" s="120"/>
-      <c r="BO49" s="120"/>
-      <c r="BP49" s="120"/>
-      <c r="BQ49" s="72"/>
-      <c r="BR49" s="73"/>
-      <c r="BS49" s="73"/>
-      <c r="BT49" s="74"/>
-      <c r="BU49" s="72"/>
-      <c r="BV49" s="72"/>
-      <c r="BW49" s="72"/>
-      <c r="BX49" s="72"/>
-      <c r="BY49" s="73"/>
-      <c r="BZ49" s="73"/>
-      <c r="CA49" s="74"/>
-      <c r="CB49" s="72"/>
-      <c r="CC49" s="72"/>
-      <c r="CD49" s="72"/>
-      <c r="CE49" s="72"/>
-      <c r="CF49" s="73"/>
-      <c r="CG49" s="73"/>
-      <c r="CH49" s="74"/>
-      <c r="CI49" s="72"/>
-      <c r="CJ49" s="72"/>
-      <c r="CK49" s="72"/>
-      <c r="CL49" s="72"/>
-      <c r="CM49" s="73"/>
-      <c r="CN49" s="86"/>
-      <c r="CO49" s="74"/>
-      <c r="CP49" s="72"/>
-      <c r="CQ49" s="72"/>
-      <c r="CR49" s="72"/>
-      <c r="CS49" s="72"/>
-      <c r="CT49" s="73"/>
-      <c r="CU49" s="73"/>
-      <c r="CV49" s="74"/>
-      <c r="CW49" s="72"/>
-      <c r="CX49" s="72"/>
-      <c r="CY49" s="72"/>
-      <c r="CZ49" s="72"/>
-      <c r="DA49" s="73"/>
-      <c r="DB49" s="73"/>
-      <c r="DC49" s="74"/>
-      <c r="DD49" s="72"/>
-      <c r="DE49" s="72"/>
-      <c r="DF49" s="72"/>
-      <c r="DG49" s="72"/>
-      <c r="DH49" s="73"/>
-      <c r="DI49" s="73"/>
-      <c r="DJ49" s="74"/>
-      <c r="DK49" s="72"/>
-      <c r="DL49" s="72"/>
-      <c r="DM49" s="72"/>
-      <c r="DN49" s="72"/>
-      <c r="DO49" s="73"/>
-      <c r="DP49" s="73"/>
-      <c r="DQ49" s="96"/>
-      <c r="DR49" s="71"/>
-      <c r="DS49" s="72"/>
-      <c r="DT49" s="72"/>
-      <c r="DU49" s="72"/>
-      <c r="DV49" s="73"/>
-      <c r="DW49" s="73"/>
-      <c r="DX49" s="73"/>
-      <c r="DY49" s="72"/>
-      <c r="DZ49" s="72"/>
-      <c r="EA49" s="72"/>
-      <c r="EB49" s="72"/>
-      <c r="EC49" s="73"/>
-      <c r="ED49" s="73"/>
-      <c r="EE49" s="74"/>
-      <c r="EF49" s="72"/>
-      <c r="EG49" s="72"/>
-      <c r="EH49" s="72"/>
-      <c r="EI49" s="72"/>
-      <c r="EJ49" s="73"/>
-      <c r="EK49" s="73"/>
-      <c r="EL49" s="74"/>
-      <c r="EM49" s="73"/>
-      <c r="EN49" s="72"/>
-      <c r="EO49" s="72"/>
-      <c r="EP49" s="72"/>
-      <c r="EQ49" s="73"/>
-      <c r="ER49" s="73"/>
-      <c r="ES49" s="74"/>
-      <c r="ET49" s="74"/>
-      <c r="EU49" s="74"/>
-      <c r="EV49" s="99"/>
+      <c r="A49" s="123"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="71"/>
+      <c r="N49" s="72"/>
+      <c r="O49" s="72"/>
+      <c r="P49" s="73"/>
+      <c r="Q49" s="71"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="71"/>
+      <c r="T49" s="71"/>
+      <c r="U49" s="72"/>
+      <c r="V49" s="72"/>
+      <c r="W49" s="73"/>
+      <c r="X49" s="71"/>
+      <c r="Y49" s="71"/>
+      <c r="Z49" s="71"/>
+      <c r="AA49" s="71"/>
+      <c r="AB49" s="72"/>
+      <c r="AC49" s="72"/>
+      <c r="AD49" s="73"/>
+      <c r="AE49" s="71"/>
+      <c r="AF49" s="71"/>
+      <c r="AG49" s="70"/>
+      <c r="AH49" s="71"/>
+      <c r="AI49" s="72"/>
+      <c r="AJ49" s="72"/>
+      <c r="AK49" s="73"/>
+      <c r="AL49" s="71"/>
+      <c r="AM49" s="71"/>
+      <c r="AN49" s="71"/>
+      <c r="AO49" s="71"/>
+      <c r="AP49" s="72"/>
+      <c r="AQ49" s="72"/>
+      <c r="AR49" s="73"/>
+      <c r="AS49" s="71"/>
+      <c r="AT49" s="71"/>
+      <c r="AU49" s="72"/>
+      <c r="AV49" s="72"/>
+      <c r="AW49" s="72"/>
+      <c r="AX49" s="72"/>
+      <c r="AY49" s="73"/>
+      <c r="AZ49" s="71"/>
+      <c r="BA49" s="71"/>
+      <c r="BB49" s="71"/>
+      <c r="BC49" s="71"/>
+      <c r="BD49" s="72"/>
+      <c r="BE49" s="72"/>
+      <c r="BF49" s="73"/>
+      <c r="BG49" s="71"/>
+      <c r="BH49" s="74"/>
+      <c r="BI49" s="72"/>
+      <c r="BJ49" s="71"/>
+      <c r="BK49" s="72"/>
+      <c r="BL49" s="119"/>
+      <c r="BM49" s="119"/>
+      <c r="BN49" s="119"/>
+      <c r="BO49" s="119"/>
+      <c r="BP49" s="119"/>
+      <c r="BQ49" s="71"/>
+      <c r="BR49" s="72"/>
+      <c r="BS49" s="72"/>
+      <c r="BT49" s="73"/>
+      <c r="BU49" s="71"/>
+      <c r="BV49" s="71"/>
+      <c r="BW49" s="71"/>
+      <c r="BX49" s="71"/>
+      <c r="BY49" s="72"/>
+      <c r="BZ49" s="72"/>
+      <c r="CA49" s="73"/>
+      <c r="CB49" s="71"/>
+      <c r="CC49" s="71"/>
+      <c r="CD49" s="71"/>
+      <c r="CE49" s="71"/>
+      <c r="CF49" s="72"/>
+      <c r="CG49" s="72"/>
+      <c r="CH49" s="73"/>
+      <c r="CI49" s="71"/>
+      <c r="CJ49" s="71"/>
+      <c r="CK49" s="71"/>
+      <c r="CL49" s="71"/>
+      <c r="CM49" s="72"/>
+      <c r="CN49" s="85"/>
+      <c r="CO49" s="73"/>
+      <c r="CP49" s="71"/>
+      <c r="CQ49" s="71"/>
+      <c r="CR49" s="71"/>
+      <c r="CS49" s="71"/>
+      <c r="CT49" s="72"/>
+      <c r="CU49" s="72"/>
+      <c r="CV49" s="73"/>
+      <c r="CW49" s="71"/>
+      <c r="CX49" s="71"/>
+      <c r="CY49" s="71"/>
+      <c r="CZ49" s="71"/>
+      <c r="DA49" s="72"/>
+      <c r="DB49" s="72"/>
+      <c r="DC49" s="73"/>
+      <c r="DD49" s="71"/>
+      <c r="DE49" s="71"/>
+      <c r="DF49" s="71"/>
+      <c r="DG49" s="71"/>
+      <c r="DH49" s="72"/>
+      <c r="DI49" s="72"/>
+      <c r="DJ49" s="73"/>
+      <c r="DK49" s="71"/>
+      <c r="DL49" s="71"/>
+      <c r="DM49" s="71"/>
+      <c r="DN49" s="71"/>
+      <c r="DO49" s="72"/>
+      <c r="DP49" s="72"/>
+      <c r="DQ49" s="95"/>
+      <c r="DR49" s="70"/>
+      <c r="DS49" s="71"/>
+      <c r="DT49" s="71"/>
+      <c r="DU49" s="71"/>
+      <c r="DV49" s="72"/>
+      <c r="DW49" s="72"/>
+      <c r="DX49" s="72"/>
+      <c r="DY49" s="71"/>
+      <c r="DZ49" s="71"/>
+      <c r="EA49" s="71"/>
+      <c r="EB49" s="71"/>
+      <c r="EC49" s="72"/>
+      <c r="ED49" s="72"/>
+      <c r="EE49" s="73"/>
+      <c r="EF49" s="71"/>
+      <c r="EG49" s="71"/>
+      <c r="EH49" s="71"/>
+      <c r="EI49" s="71"/>
+      <c r="EJ49" s="72"/>
+      <c r="EK49" s="72"/>
+      <c r="EL49" s="73"/>
+      <c r="EM49" s="72"/>
+      <c r="EN49" s="71"/>
+      <c r="EO49" s="71"/>
+      <c r="EP49" s="71"/>
+      <c r="EQ49" s="72"/>
+      <c r="ER49" s="72"/>
+      <c r="ES49" s="73"/>
+      <c r="ET49" s="73"/>
+      <c r="EU49" s="73"/>
+      <c r="EV49" s="98"/>
     </row>
     <row r="50" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/0_DOC/Femto Project schedule V1.0.xlsx
+++ b/0_DOC/Femto Project schedule V1.0.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20180207" sheetId="18" r:id="rId1"/>
+    <sheet name="20180328" sheetId="19" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'20180207'!$A$1:$EH$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'20180328'!$A$1:$EH$49</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="67">
   <si>
     <t>◇PCB설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +214,78 @@
   </si>
   <si>
     <t>◇PCB제작(4ea)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶홍대 Meeting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer 시험 - 파워 약함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oxford pipette 입수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇기구 형상 검토 및 PCB설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇PCB발주(9일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇부품발주(12일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇부품 입고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇회로설계(Oxford)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶계룡 사무실 Open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇회로Tuning&amp;debugging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇일부 부품발주(12일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇회로설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇기구 형상 검토 및 PCB설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇PCB설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇PCB설계(2일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇PCB설계(3일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇F/W설계(20일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇PCB제작(3ea)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -980,6 +1054,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1013,7 +1088,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2196,6 +2270,1522 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>186358</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>97786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>97786</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="직선 화살표 연결선 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13816633" y="3650611"/>
+          <a:ext cx="994742" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>27333</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>94059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>94059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="직선 화살표 연결선 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9057033" y="3818334"/>
+          <a:ext cx="2144367" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>105190</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>80806</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>80806</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="직선 화살표 연결선 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9134890" y="3976531"/>
+          <a:ext cx="685385" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>10769</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>103585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>103585</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="직선 화살표 연결선 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16441394" y="2961085"/>
+          <a:ext cx="1427506" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>109383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>120</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>109383</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="직선 화살표 연결선 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10248900" y="3309783"/>
+          <a:ext cx="2971800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57979</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="왼쪽/오른쪽 화살표 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8662780" y="2647122"/>
+          <a:ext cx="4691270" cy="439807"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>디자인 변경에 따른 대기</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>44725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>77857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3314</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="왼쪽/오른쪽 화살표 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6074050" y="5345182"/>
+          <a:ext cx="2355575" cy="439807"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>요청자료 수신 대기</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>94059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>94059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="직선 화살표 연결선 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="6904434"/>
+          <a:ext cx="8153400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>115129</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>103584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>103584</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="직선 화살표 연결선 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10545004" y="7771209"/>
+          <a:ext cx="3085271" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>77029</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>94059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>94059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="직선 화살표 연결선 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10506904" y="5189934"/>
+          <a:ext cx="3123371" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>86554</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>84534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>84534</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="직선 화살표 연결선 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14316904" y="5180409"/>
+          <a:ext cx="684971" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>157370</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>94060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>94060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="직선 화살표 연결선 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11387345" y="2608660"/>
+          <a:ext cx="1595230" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>96494</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>84535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>84535</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="직선 화살표 연결선 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11926544" y="2770585"/>
+          <a:ext cx="1094131" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>69990</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>173935</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88262</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="직선 화살표 연결선 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15011816" y="2622740"/>
+          <a:ext cx="700293" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>48456</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>99858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>157369</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>99858</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="직선 화살표 연결선 34"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14990282" y="2808271"/>
+          <a:ext cx="705261" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>115544</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>94060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>94060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="직선 화살표 연결선 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10545419" y="5532835"/>
+          <a:ext cx="1084606" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>77444</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>84535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>124</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>84535</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="직선 화살표 연결선 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8107019" y="6037660"/>
+          <a:ext cx="5866156" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>86969</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>94060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>124</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>94060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="직선 화살표 연결선 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8116544" y="7761685"/>
+          <a:ext cx="5904256" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>86969</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>94060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>94060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="직선 화살표 연결선 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11917019" y="3646885"/>
+          <a:ext cx="1075081" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>139562</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>94888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>94888</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="직선 화살표 연결선 47"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11369537" y="3476263"/>
+          <a:ext cx="1622563" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>125069</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>103585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>103585</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="직선 화살표 연결선 54"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10554944" y="7256860"/>
+          <a:ext cx="1084606" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>161</xdr:col>
+      <xdr:colOff>75787</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>94888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>168</xdr:col>
+      <xdr:colOff>22363</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>94888</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="직선 화살표 연결선 58"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21307012" y="6905263"/>
+          <a:ext cx="1346751" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>162</xdr:col>
+      <xdr:colOff>28162</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>75838</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>168</xdr:col>
+      <xdr:colOff>174763</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>75838</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="직선 화살표 연결선 59"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21459412" y="7057663"/>
+          <a:ext cx="1346751" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>162</xdr:col>
+      <xdr:colOff>180562</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>56788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>169</xdr:col>
+      <xdr:colOff>127138</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>56788</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="직선 화살표 연결선 60"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21611812" y="7210063"/>
+          <a:ext cx="1346751" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>115544</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>94060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>109</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>94060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="직선 화살표 연결선 65"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10145369" y="5704285"/>
+          <a:ext cx="856006" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>106019</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>94060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>114</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>94060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="직선 화살표 연결선 67"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11135969" y="7418785"/>
+          <a:ext cx="856006" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>115544</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>94060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>94060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="직선 화살표 연결선 68"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8345144" y="3123010"/>
+          <a:ext cx="856006" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>20294</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>94060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>94060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="직선 화살표 연결선 71"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10250144" y="7247335"/>
+          <a:ext cx="1360831" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>10769</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>103585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>103585</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="직선 화살표 연결선 73"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10240619" y="5542360"/>
+          <a:ext cx="1360831" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -2485,9 +4075,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EV66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CC27" sqref="CC27"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CW19" sqref="CW19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2523,167 +4113,167 @@
     </row>
     <row r="6" spans="1:152" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="128">
+      <c r="B6" s="129">
         <v>1</v>
       </c>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125"/>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
-      <c r="X6" s="125"/>
-      <c r="Y6" s="125"/>
-      <c r="Z6" s="125"/>
-      <c r="AA6" s="125"/>
-      <c r="AB6" s="125"/>
-      <c r="AC6" s="125"/>
-      <c r="AD6" s="125"/>
-      <c r="AE6" s="125"/>
-      <c r="AF6" s="125"/>
-      <c r="AG6" s="128">
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="126"/>
+      <c r="AB6" s="126"/>
+      <c r="AC6" s="126"/>
+      <c r="AD6" s="126"/>
+      <c r="AE6" s="126"/>
+      <c r="AF6" s="126"/>
+      <c r="AG6" s="129">
         <v>2</v>
       </c>
-      <c r="AH6" s="125"/>
-      <c r="AI6" s="125"/>
-      <c r="AJ6" s="125"/>
-      <c r="AK6" s="125"/>
-      <c r="AL6" s="125"/>
-      <c r="AM6" s="125"/>
-      <c r="AN6" s="125"/>
-      <c r="AO6" s="125"/>
-      <c r="AP6" s="125"/>
-      <c r="AQ6" s="125"/>
-      <c r="AR6" s="125"/>
-      <c r="AS6" s="125"/>
-      <c r="AT6" s="125"/>
-      <c r="AU6" s="125"/>
-      <c r="AV6" s="125"/>
-      <c r="AW6" s="125"/>
-      <c r="AX6" s="125"/>
-      <c r="AY6" s="125"/>
-      <c r="AZ6" s="125"/>
-      <c r="BA6" s="125"/>
-      <c r="BB6" s="125"/>
-      <c r="BC6" s="125"/>
-      <c r="BD6" s="125"/>
-      <c r="BE6" s="125"/>
-      <c r="BF6" s="125"/>
-      <c r="BG6" s="125"/>
-      <c r="BH6" s="126"/>
-      <c r="BI6" s="125">
+      <c r="AH6" s="126"/>
+      <c r="AI6" s="126"/>
+      <c r="AJ6" s="126"/>
+      <c r="AK6" s="126"/>
+      <c r="AL6" s="126"/>
+      <c r="AM6" s="126"/>
+      <c r="AN6" s="126"/>
+      <c r="AO6" s="126"/>
+      <c r="AP6" s="126"/>
+      <c r="AQ6" s="126"/>
+      <c r="AR6" s="126"/>
+      <c r="AS6" s="126"/>
+      <c r="AT6" s="126"/>
+      <c r="AU6" s="126"/>
+      <c r="AV6" s="126"/>
+      <c r="AW6" s="126"/>
+      <c r="AX6" s="126"/>
+      <c r="AY6" s="126"/>
+      <c r="AZ6" s="126"/>
+      <c r="BA6" s="126"/>
+      <c r="BB6" s="126"/>
+      <c r="BC6" s="126"/>
+      <c r="BD6" s="126"/>
+      <c r="BE6" s="126"/>
+      <c r="BF6" s="126"/>
+      <c r="BG6" s="126"/>
+      <c r="BH6" s="127"/>
+      <c r="BI6" s="126">
         <v>3</v>
       </c>
-      <c r="BJ6" s="125"/>
-      <c r="BK6" s="125"/>
-      <c r="BL6" s="125"/>
-      <c r="BM6" s="125"/>
-      <c r="BN6" s="125"/>
-      <c r="BO6" s="125"/>
-      <c r="BP6" s="125"/>
-      <c r="BQ6" s="125"/>
-      <c r="BR6" s="125"/>
-      <c r="BS6" s="125"/>
-      <c r="BT6" s="125"/>
-      <c r="BU6" s="125"/>
-      <c r="BV6" s="125"/>
-      <c r="BW6" s="125"/>
-      <c r="BX6" s="125"/>
-      <c r="BY6" s="125"/>
-      <c r="BZ6" s="125"/>
-      <c r="CA6" s="125"/>
-      <c r="CB6" s="125"/>
-      <c r="CC6" s="125"/>
-      <c r="CD6" s="125"/>
-      <c r="CE6" s="125"/>
-      <c r="CF6" s="125"/>
-      <c r="CG6" s="125"/>
-      <c r="CH6" s="125"/>
-      <c r="CI6" s="125"/>
-      <c r="CJ6" s="125"/>
-      <c r="CK6" s="125"/>
-      <c r="CL6" s="125"/>
-      <c r="CM6" s="125"/>
-      <c r="CN6" s="129">
+      <c r="BJ6" s="126"/>
+      <c r="BK6" s="126"/>
+      <c r="BL6" s="126"/>
+      <c r="BM6" s="126"/>
+      <c r="BN6" s="126"/>
+      <c r="BO6" s="126"/>
+      <c r="BP6" s="126"/>
+      <c r="BQ6" s="126"/>
+      <c r="BR6" s="126"/>
+      <c r="BS6" s="126"/>
+      <c r="BT6" s="126"/>
+      <c r="BU6" s="126"/>
+      <c r="BV6" s="126"/>
+      <c r="BW6" s="126"/>
+      <c r="BX6" s="126"/>
+      <c r="BY6" s="126"/>
+      <c r="BZ6" s="126"/>
+      <c r="CA6" s="126"/>
+      <c r="CB6" s="126"/>
+      <c r="CC6" s="126"/>
+      <c r="CD6" s="126"/>
+      <c r="CE6" s="126"/>
+      <c r="CF6" s="126"/>
+      <c r="CG6" s="126"/>
+      <c r="CH6" s="126"/>
+      <c r="CI6" s="126"/>
+      <c r="CJ6" s="126"/>
+      <c r="CK6" s="126"/>
+      <c r="CL6" s="126"/>
+      <c r="CM6" s="126"/>
+      <c r="CN6" s="130">
         <v>4</v>
       </c>
-      <c r="CO6" s="130"/>
-      <c r="CP6" s="130"/>
-      <c r="CQ6" s="130"/>
-      <c r="CR6" s="130"/>
-      <c r="CS6" s="130"/>
-      <c r="CT6" s="130"/>
-      <c r="CU6" s="130"/>
-      <c r="CV6" s="130"/>
-      <c r="CW6" s="130"/>
-      <c r="CX6" s="130"/>
-      <c r="CY6" s="130"/>
-      <c r="CZ6" s="130"/>
-      <c r="DA6" s="130"/>
-      <c r="DB6" s="130"/>
-      <c r="DC6" s="130"/>
-      <c r="DD6" s="130"/>
-      <c r="DE6" s="130"/>
-      <c r="DF6" s="130"/>
-      <c r="DG6" s="130"/>
-      <c r="DH6" s="130"/>
-      <c r="DI6" s="130"/>
-      <c r="DJ6" s="130"/>
-      <c r="DK6" s="130"/>
-      <c r="DL6" s="130"/>
-      <c r="DM6" s="130"/>
-      <c r="DN6" s="130"/>
-      <c r="DO6" s="130"/>
-      <c r="DP6" s="130"/>
-      <c r="DQ6" s="131"/>
-      <c r="DR6" s="125">
+      <c r="CO6" s="131"/>
+      <c r="CP6" s="131"/>
+      <c r="CQ6" s="131"/>
+      <c r="CR6" s="131"/>
+      <c r="CS6" s="131"/>
+      <c r="CT6" s="131"/>
+      <c r="CU6" s="131"/>
+      <c r="CV6" s="131"/>
+      <c r="CW6" s="131"/>
+      <c r="CX6" s="131"/>
+      <c r="CY6" s="131"/>
+      <c r="CZ6" s="131"/>
+      <c r="DA6" s="131"/>
+      <c r="DB6" s="131"/>
+      <c r="DC6" s="131"/>
+      <c r="DD6" s="131"/>
+      <c r="DE6" s="131"/>
+      <c r="DF6" s="131"/>
+      <c r="DG6" s="131"/>
+      <c r="DH6" s="131"/>
+      <c r="DI6" s="131"/>
+      <c r="DJ6" s="131"/>
+      <c r="DK6" s="131"/>
+      <c r="DL6" s="131"/>
+      <c r="DM6" s="131"/>
+      <c r="DN6" s="131"/>
+      <c r="DO6" s="131"/>
+      <c r="DP6" s="131"/>
+      <c r="DQ6" s="132"/>
+      <c r="DR6" s="126">
         <v>5</v>
       </c>
-      <c r="DS6" s="125"/>
-      <c r="DT6" s="125"/>
-      <c r="DU6" s="125"/>
-      <c r="DV6" s="125"/>
-      <c r="DW6" s="125"/>
-      <c r="DX6" s="125"/>
-      <c r="DY6" s="125"/>
-      <c r="DZ6" s="125"/>
-      <c r="EA6" s="125"/>
-      <c r="EB6" s="125"/>
-      <c r="EC6" s="125"/>
-      <c r="ED6" s="125"/>
-      <c r="EE6" s="125"/>
-      <c r="EF6" s="125"/>
-      <c r="EG6" s="125"/>
-      <c r="EH6" s="125"/>
-      <c r="EI6" s="125"/>
-      <c r="EJ6" s="125"/>
-      <c r="EK6" s="125"/>
-      <c r="EL6" s="125"/>
-      <c r="EM6" s="125"/>
-      <c r="EN6" s="125"/>
-      <c r="EO6" s="125"/>
-      <c r="EP6" s="125"/>
-      <c r="EQ6" s="125"/>
-      <c r="ER6" s="125"/>
-      <c r="ES6" s="125"/>
-      <c r="ET6" s="125"/>
-      <c r="EU6" s="125"/>
-      <c r="EV6" s="126"/>
+      <c r="DS6" s="126"/>
+      <c r="DT6" s="126"/>
+      <c r="DU6" s="126"/>
+      <c r="DV6" s="126"/>
+      <c r="DW6" s="126"/>
+      <c r="DX6" s="126"/>
+      <c r="DY6" s="126"/>
+      <c r="DZ6" s="126"/>
+      <c r="EA6" s="126"/>
+      <c r="EB6" s="126"/>
+      <c r="EC6" s="126"/>
+      <c r="ED6" s="126"/>
+      <c r="EE6" s="126"/>
+      <c r="EF6" s="126"/>
+      <c r="EG6" s="126"/>
+      <c r="EH6" s="126"/>
+      <c r="EI6" s="126"/>
+      <c r="EJ6" s="126"/>
+      <c r="EK6" s="126"/>
+      <c r="EL6" s="126"/>
+      <c r="EM6" s="126"/>
+      <c r="EN6" s="126"/>
+      <c r="EO6" s="126"/>
+      <c r="EP6" s="126"/>
+      <c r="EQ6" s="126"/>
+      <c r="ER6" s="126"/>
+      <c r="ES6" s="126"/>
+      <c r="ET6" s="126"/>
+      <c r="EU6" s="126"/>
+      <c r="EV6" s="127"/>
     </row>
     <row r="7" spans="1:152" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
@@ -3142,7 +4732,7 @@
       </c>
     </row>
     <row r="8" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="123" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="34"/>
@@ -3306,7 +4896,7 @@
       <c r="EV8" s="99"/>
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A9" s="122"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="29"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
@@ -3466,7 +5056,7 @@
       <c r="EV9" s="33"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A10" s="122"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="29"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -3626,7 +5216,7 @@
       <c r="EV10" s="33"/>
     </row>
     <row r="11" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A11" s="122"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="29"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
@@ -3784,7 +5374,7 @@
       <c r="EV11" s="33"/>
     </row>
     <row r="12" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A12" s="122"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="29"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -3942,7 +5532,7 @@
       <c r="EV12" s="33"/>
     </row>
     <row r="13" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A13" s="122"/>
+      <c r="A13" s="123"/>
       <c r="B13" s="29"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -4098,7 +5688,7 @@
       <c r="EV13" s="33"/>
     </row>
     <row r="14" spans="1:152" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="127"/>
+      <c r="A14" s="128"/>
       <c r="B14" s="50"/>
       <c r="C14" s="51"/>
       <c r="D14" s="51"/>
@@ -4252,7 +5842,7 @@
       <c r="EV14" s="100"/>
     </row>
     <row r="15" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A15" s="124" t="s">
+      <c r="A15" s="125" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="42"/>
@@ -4414,7 +6004,7 @@
       <c r="EV15" s="102"/>
     </row>
     <row r="16" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A16" s="122"/>
+      <c r="A16" s="123"/>
       <c r="B16" s="24"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -4572,7 +6162,7 @@
       <c r="EV16" s="17"/>
     </row>
     <row r="17" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A17" s="122"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="24"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -4732,7 +6322,7 @@
       <c r="EV17" s="17"/>
     </row>
     <row r="18" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A18" s="122"/>
+      <c r="A18" s="123"/>
       <c r="B18" s="24"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -4888,7 +6478,7 @@
       <c r="EV18" s="17"/>
     </row>
     <row r="19" spans="1:152" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="122"/>
+      <c r="A19" s="123"/>
       <c r="B19" s="26"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -5044,7 +6634,7 @@
       <c r="EV19" s="98"/>
     </row>
     <row r="20" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="124" t="s">
+      <c r="A20" s="125" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="75"/>
@@ -5102,7 +6692,7 @@
       <c r="AZ20" s="76"/>
       <c r="BA20" s="86"/>
       <c r="BB20" s="76"/>
-      <c r="BC20" s="132" t="s">
+      <c r="BC20" s="121" t="s">
         <v>48</v>
       </c>
       <c r="BD20" s="77"/>
@@ -5206,7 +6796,7 @@
       <c r="EV20" s="102"/>
     </row>
     <row r="21" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="122"/>
+      <c r="A21" s="123"/>
       <c r="B21" s="24"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -5364,7 +6954,7 @@
       <c r="EV21" s="17"/>
     </row>
     <row r="22" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="122"/>
+      <c r="A22" s="123"/>
       <c r="B22" s="24"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -5522,7 +7112,7 @@
       <c r="EV22" s="17"/>
     </row>
     <row r="23" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="122"/>
+      <c r="A23" s="123"/>
       <c r="B23" s="24"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -5680,7 +7270,7 @@
       <c r="EV23" s="17"/>
     </row>
     <row r="24" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="123"/>
+      <c r="A24" s="124"/>
       <c r="B24" s="91"/>
       <c r="C24" s="92"/>
       <c r="D24" s="92"/>
@@ -5834,7 +7424,7 @@
       <c r="EV24" s="98"/>
     </row>
     <row r="25" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="124" t="s">
+      <c r="A25" s="125" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="75"/>
@@ -5990,7 +7580,7 @@
       <c r="EV25" s="102"/>
     </row>
     <row r="26" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="122"/>
+      <c r="A26" s="123"/>
       <c r="B26" s="24"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -6144,7 +7734,7 @@
       <c r="EV26" s="17"/>
     </row>
     <row r="27" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="122"/>
+      <c r="A27" s="123"/>
       <c r="B27" s="24"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -6298,7 +7888,7 @@
       <c r="EV27" s="17"/>
     </row>
     <row r="28" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="122"/>
+      <c r="A28" s="123"/>
       <c r="B28" s="24"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -6452,7 +8042,7 @@
       <c r="EV28" s="17"/>
     </row>
     <row r="29" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="122"/>
+      <c r="A29" s="123"/>
       <c r="B29" s="85"/>
       <c r="C29" s="71"/>
       <c r="D29" s="71"/>
@@ -6606,7 +8196,7 @@
       <c r="EV29" s="98"/>
     </row>
     <row r="30" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="121" t="s">
+      <c r="A30" s="122" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="75"/>
@@ -6772,7 +8362,7 @@
       <c r="EV30" s="102"/>
     </row>
     <row r="31" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="122"/>
+      <c r="A31" s="123"/>
       <c r="B31" s="24"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -6930,7 +8520,7 @@
       <c r="EV31" s="17"/>
     </row>
     <row r="32" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="122"/>
+      <c r="A32" s="123"/>
       <c r="B32" s="24"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -7088,7 +8678,7 @@
       <c r="EV32" s="17"/>
     </row>
     <row r="33" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="122"/>
+      <c r="A33" s="123"/>
       <c r="B33" s="24"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -7244,7 +8834,7 @@
       <c r="EV33" s="17"/>
     </row>
     <row r="34" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="123"/>
+      <c r="A34" s="124"/>
       <c r="B34" s="85"/>
       <c r="C34" s="71"/>
       <c r="D34" s="71"/>
@@ -7400,7 +8990,7 @@
       <c r="EV34" s="98"/>
     </row>
     <row r="35" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="122" t="s">
+      <c r="A35" s="123" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="75"/>
@@ -7558,7 +9148,7 @@
       <c r="EV35" s="102"/>
     </row>
     <row r="36" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="122"/>
+      <c r="A36" s="123"/>
       <c r="B36" s="24"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -7714,7 +9304,7 @@
       <c r="EV36" s="17"/>
     </row>
     <row r="37" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="122"/>
+      <c r="A37" s="123"/>
       <c r="B37" s="24"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -7868,7 +9458,7 @@
       <c r="EV37" s="17"/>
     </row>
     <row r="38" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="122"/>
+      <c r="A38" s="123"/>
       <c r="B38" s="24"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -8022,7 +9612,7 @@
       <c r="EV38" s="17"/>
     </row>
     <row r="39" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="122"/>
+      <c r="A39" s="123"/>
       <c r="B39" s="85"/>
       <c r="C39" s="71"/>
       <c r="D39" s="71"/>
@@ -8176,7 +9766,7 @@
       <c r="EV39" s="98"/>
     </row>
     <row r="40" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="121" t="s">
+      <c r="A40" s="122" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="75"/>
@@ -8338,7 +9928,7 @@
       <c r="EV40" s="102"/>
     </row>
     <row r="41" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="122"/>
+      <c r="A41" s="123"/>
       <c r="B41" s="24"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -8494,7 +10084,7 @@
       <c r="EV41" s="17"/>
     </row>
     <row r="42" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="122"/>
+      <c r="A42" s="123"/>
       <c r="B42" s="24"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
@@ -8652,7 +10242,7 @@
       <c r="EV42" s="17"/>
     </row>
     <row r="43" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="122"/>
+      <c r="A43" s="123"/>
       <c r="B43" s="24"/>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -8808,7 +10398,7 @@
       <c r="EV43" s="17"/>
     </row>
     <row r="44" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="123"/>
+      <c r="A44" s="124"/>
       <c r="B44" s="85"/>
       <c r="C44" s="71"/>
       <c r="D44" s="71"/>
@@ -8964,7 +10554,7 @@
       <c r="EV44" s="98"/>
     </row>
     <row r="45" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="122" t="s">
+      <c r="A45" s="123" t="s">
         <v>24</v>
       </c>
       <c r="B45" s="75"/>
@@ -9126,7 +10716,7 @@
       <c r="EV45" s="102"/>
     </row>
     <row r="46" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="122"/>
+      <c r="A46" s="123"/>
       <c r="B46" s="24"/>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
@@ -9282,7 +10872,7 @@
       <c r="EV46" s="17"/>
     </row>
     <row r="47" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="122"/>
+      <c r="A47" s="123"/>
       <c r="B47" s="24"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
@@ -9440,7 +11030,7 @@
       <c r="EV47" s="17"/>
     </row>
     <row r="48" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="122"/>
+      <c r="A48" s="123"/>
       <c r="B48" s="24"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
@@ -9596,7 +11186,7 @@
       <c r="EV48" s="17"/>
     </row>
     <row r="49" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="123"/>
+      <c r="A49" s="124"/>
       <c r="B49" s="85"/>
       <c r="C49" s="71"/>
       <c r="D49" s="71"/>
@@ -9787,4 +11377,7329 @@
   <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:EV66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DK41" sqref="DK41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="60" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="61" max="16384" width="2.625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:152" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="104" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:152" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="103" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:152" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="129">
+        <v>1</v>
+      </c>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="126"/>
+      <c r="AB6" s="126"/>
+      <c r="AC6" s="126"/>
+      <c r="AD6" s="126"/>
+      <c r="AE6" s="126"/>
+      <c r="AF6" s="126"/>
+      <c r="AG6" s="129">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="126"/>
+      <c r="AI6" s="126"/>
+      <c r="AJ6" s="126"/>
+      <c r="AK6" s="126"/>
+      <c r="AL6" s="126"/>
+      <c r="AM6" s="126"/>
+      <c r="AN6" s="126"/>
+      <c r="AO6" s="126"/>
+      <c r="AP6" s="126"/>
+      <c r="AQ6" s="126"/>
+      <c r="AR6" s="126"/>
+      <c r="AS6" s="126"/>
+      <c r="AT6" s="126"/>
+      <c r="AU6" s="126"/>
+      <c r="AV6" s="126"/>
+      <c r="AW6" s="126"/>
+      <c r="AX6" s="126"/>
+      <c r="AY6" s="126"/>
+      <c r="AZ6" s="126"/>
+      <c r="BA6" s="126"/>
+      <c r="BB6" s="126"/>
+      <c r="BC6" s="126"/>
+      <c r="BD6" s="126"/>
+      <c r="BE6" s="126"/>
+      <c r="BF6" s="126"/>
+      <c r="BG6" s="126"/>
+      <c r="BH6" s="127"/>
+      <c r="BI6" s="126">
+        <v>3</v>
+      </c>
+      <c r="BJ6" s="126"/>
+      <c r="BK6" s="126"/>
+      <c r="BL6" s="126"/>
+      <c r="BM6" s="126"/>
+      <c r="BN6" s="126"/>
+      <c r="BO6" s="126"/>
+      <c r="BP6" s="126"/>
+      <c r="BQ6" s="126"/>
+      <c r="BR6" s="126"/>
+      <c r="BS6" s="126"/>
+      <c r="BT6" s="126"/>
+      <c r="BU6" s="126"/>
+      <c r="BV6" s="126"/>
+      <c r="BW6" s="126"/>
+      <c r="BX6" s="126"/>
+      <c r="BY6" s="126"/>
+      <c r="BZ6" s="126"/>
+      <c r="CA6" s="126"/>
+      <c r="CB6" s="126"/>
+      <c r="CC6" s="126"/>
+      <c r="CD6" s="126"/>
+      <c r="CE6" s="126"/>
+      <c r="CF6" s="126"/>
+      <c r="CG6" s="126"/>
+      <c r="CH6" s="126"/>
+      <c r="CI6" s="126"/>
+      <c r="CJ6" s="126"/>
+      <c r="CK6" s="126"/>
+      <c r="CL6" s="126"/>
+      <c r="CM6" s="126"/>
+      <c r="CN6" s="130">
+        <v>4</v>
+      </c>
+      <c r="CO6" s="131"/>
+      <c r="CP6" s="131"/>
+      <c r="CQ6" s="131"/>
+      <c r="CR6" s="131"/>
+      <c r="CS6" s="131"/>
+      <c r="CT6" s="131"/>
+      <c r="CU6" s="131"/>
+      <c r="CV6" s="131"/>
+      <c r="CW6" s="131"/>
+      <c r="CX6" s="131"/>
+      <c r="CY6" s="131"/>
+      <c r="CZ6" s="131"/>
+      <c r="DA6" s="131"/>
+      <c r="DB6" s="131"/>
+      <c r="DC6" s="131"/>
+      <c r="DD6" s="131"/>
+      <c r="DE6" s="131"/>
+      <c r="DF6" s="131"/>
+      <c r="DG6" s="131"/>
+      <c r="DH6" s="131"/>
+      <c r="DI6" s="131"/>
+      <c r="DJ6" s="131"/>
+      <c r="DK6" s="131"/>
+      <c r="DL6" s="131"/>
+      <c r="DM6" s="131"/>
+      <c r="DN6" s="131"/>
+      <c r="DO6" s="131"/>
+      <c r="DP6" s="131"/>
+      <c r="DQ6" s="132"/>
+      <c r="DR6" s="126">
+        <v>5</v>
+      </c>
+      <c r="DS6" s="126"/>
+      <c r="DT6" s="126"/>
+      <c r="DU6" s="126"/>
+      <c r="DV6" s="126"/>
+      <c r="DW6" s="126"/>
+      <c r="DX6" s="126"/>
+      <c r="DY6" s="126"/>
+      <c r="DZ6" s="126"/>
+      <c r="EA6" s="126"/>
+      <c r="EB6" s="126"/>
+      <c r="EC6" s="126"/>
+      <c r="ED6" s="126"/>
+      <c r="EE6" s="126"/>
+      <c r="EF6" s="126"/>
+      <c r="EG6" s="126"/>
+      <c r="EH6" s="126"/>
+      <c r="EI6" s="126"/>
+      <c r="EJ6" s="126"/>
+      <c r="EK6" s="126"/>
+      <c r="EL6" s="126"/>
+      <c r="EM6" s="126"/>
+      <c r="EN6" s="126"/>
+      <c r="EO6" s="126"/>
+      <c r="EP6" s="126"/>
+      <c r="EQ6" s="126"/>
+      <c r="ER6" s="126"/>
+      <c r="ES6" s="126"/>
+      <c r="ET6" s="126"/>
+      <c r="EU6" s="126"/>
+      <c r="EV6" s="127"/>
+    </row>
+    <row r="7" spans="1:152" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8">
+        <v>4</v>
+      </c>
+      <c r="F7" s="8">
+        <v>5</v>
+      </c>
+      <c r="G7" s="10">
+        <v>6</v>
+      </c>
+      <c r="H7" s="10">
+        <v>7</v>
+      </c>
+      <c r="I7" s="8">
+        <v>8</v>
+      </c>
+      <c r="J7" s="8">
+        <v>9</v>
+      </c>
+      <c r="K7" s="8">
+        <v>10</v>
+      </c>
+      <c r="L7" s="8">
+        <v>11</v>
+      </c>
+      <c r="M7" s="8">
+        <v>12</v>
+      </c>
+      <c r="N7" s="10">
+        <v>13</v>
+      </c>
+      <c r="O7" s="10">
+        <v>14</v>
+      </c>
+      <c r="P7" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>16</v>
+      </c>
+      <c r="R7" s="8">
+        <v>17</v>
+      </c>
+      <c r="S7" s="8">
+        <v>18</v>
+      </c>
+      <c r="T7" s="8">
+        <v>19</v>
+      </c>
+      <c r="U7" s="10">
+        <v>20</v>
+      </c>
+      <c r="V7" s="10">
+        <v>21</v>
+      </c>
+      <c r="W7" s="8">
+        <v>22</v>
+      </c>
+      <c r="X7" s="8">
+        <v>23</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>24</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>25</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>26</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>27</v>
+      </c>
+      <c r="AC7" s="10">
+        <v>28</v>
+      </c>
+      <c r="AD7" s="8">
+        <v>29</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>30</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>31</v>
+      </c>
+      <c r="AG7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AI7" s="10">
+        <v>3</v>
+      </c>
+      <c r="AJ7" s="10">
+        <v>4</v>
+      </c>
+      <c r="AK7" s="8">
+        <v>5</v>
+      </c>
+      <c r="AL7" s="8">
+        <v>6</v>
+      </c>
+      <c r="AM7" s="8">
+        <v>7</v>
+      </c>
+      <c r="AN7" s="8">
+        <v>8</v>
+      </c>
+      <c r="AO7" s="8">
+        <v>9</v>
+      </c>
+      <c r="AP7" s="10">
+        <v>10</v>
+      </c>
+      <c r="AQ7" s="10">
+        <v>11</v>
+      </c>
+      <c r="AR7" s="8">
+        <v>12</v>
+      </c>
+      <c r="AS7" s="8">
+        <v>13</v>
+      </c>
+      <c r="AT7" s="8">
+        <v>14</v>
+      </c>
+      <c r="AU7" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV7" s="10">
+        <v>16</v>
+      </c>
+      <c r="AW7" s="10">
+        <v>17</v>
+      </c>
+      <c r="AX7" s="10">
+        <v>18</v>
+      </c>
+      <c r="AY7" s="8">
+        <v>19</v>
+      </c>
+      <c r="AZ7" s="8">
+        <v>20</v>
+      </c>
+      <c r="BA7" s="8">
+        <v>21</v>
+      </c>
+      <c r="BB7" s="8">
+        <v>22</v>
+      </c>
+      <c r="BC7" s="8">
+        <v>23</v>
+      </c>
+      <c r="BD7" s="8">
+        <v>24</v>
+      </c>
+      <c r="BE7" s="8">
+        <v>25</v>
+      </c>
+      <c r="BF7" s="8">
+        <v>26</v>
+      </c>
+      <c r="BG7" s="8">
+        <v>27</v>
+      </c>
+      <c r="BH7" s="9">
+        <v>28</v>
+      </c>
+      <c r="BI7" s="10">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="8">
+        <v>2</v>
+      </c>
+      <c r="BK7" s="10">
+        <v>3</v>
+      </c>
+      <c r="BL7" s="105">
+        <v>4</v>
+      </c>
+      <c r="BM7" s="106">
+        <v>5</v>
+      </c>
+      <c r="BN7" s="106">
+        <v>6</v>
+      </c>
+      <c r="BO7" s="106">
+        <v>7</v>
+      </c>
+      <c r="BP7" s="106">
+        <v>8</v>
+      </c>
+      <c r="BQ7" s="8">
+        <v>9</v>
+      </c>
+      <c r="BR7" s="10">
+        <v>10</v>
+      </c>
+      <c r="BS7" s="10">
+        <v>11</v>
+      </c>
+      <c r="BT7" s="8">
+        <v>12</v>
+      </c>
+      <c r="BU7" s="8">
+        <v>13</v>
+      </c>
+      <c r="BV7" s="8">
+        <v>14</v>
+      </c>
+      <c r="BW7" s="8">
+        <v>15</v>
+      </c>
+      <c r="BX7" s="8">
+        <v>16</v>
+      </c>
+      <c r="BY7" s="10">
+        <v>17</v>
+      </c>
+      <c r="BZ7" s="10">
+        <v>18</v>
+      </c>
+      <c r="CA7" s="8">
+        <v>19</v>
+      </c>
+      <c r="CB7" s="8">
+        <v>20</v>
+      </c>
+      <c r="CC7" s="8">
+        <v>21</v>
+      </c>
+      <c r="CD7" s="8">
+        <v>22</v>
+      </c>
+      <c r="CE7" s="8">
+        <v>23</v>
+      </c>
+      <c r="CF7" s="10">
+        <v>24</v>
+      </c>
+      <c r="CG7" s="10">
+        <v>25</v>
+      </c>
+      <c r="CH7" s="8">
+        <v>26</v>
+      </c>
+      <c r="CI7" s="8">
+        <v>27</v>
+      </c>
+      <c r="CJ7" s="8">
+        <v>28</v>
+      </c>
+      <c r="CK7" s="8">
+        <v>29</v>
+      </c>
+      <c r="CL7" s="8">
+        <v>30</v>
+      </c>
+      <c r="CM7" s="10">
+        <v>31</v>
+      </c>
+      <c r="CN7" s="96">
+        <v>1</v>
+      </c>
+      <c r="CO7" s="6">
+        <v>2</v>
+      </c>
+      <c r="CP7" s="6">
+        <v>3</v>
+      </c>
+      <c r="CQ7" s="6">
+        <v>4</v>
+      </c>
+      <c r="CR7" s="6">
+        <v>5</v>
+      </c>
+      <c r="CS7" s="6">
+        <v>6</v>
+      </c>
+      <c r="CT7" s="1">
+        <v>7</v>
+      </c>
+      <c r="CU7" s="1">
+        <v>8</v>
+      </c>
+      <c r="CV7" s="6">
+        <v>9</v>
+      </c>
+      <c r="CW7" s="6">
+        <v>10</v>
+      </c>
+      <c r="CX7" s="6">
+        <v>11</v>
+      </c>
+      <c r="CY7" s="6">
+        <v>12</v>
+      </c>
+      <c r="CZ7" s="6">
+        <v>13</v>
+      </c>
+      <c r="DA7" s="1">
+        <v>14</v>
+      </c>
+      <c r="DB7" s="1">
+        <v>15</v>
+      </c>
+      <c r="DC7" s="6">
+        <v>16</v>
+      </c>
+      <c r="DD7" s="6">
+        <v>17</v>
+      </c>
+      <c r="DE7" s="6">
+        <v>18</v>
+      </c>
+      <c r="DF7" s="6">
+        <v>19</v>
+      </c>
+      <c r="DG7" s="6">
+        <v>20</v>
+      </c>
+      <c r="DH7" s="1">
+        <v>21</v>
+      </c>
+      <c r="DI7" s="1">
+        <v>22</v>
+      </c>
+      <c r="DJ7" s="6">
+        <v>23</v>
+      </c>
+      <c r="DK7" s="6">
+        <v>24</v>
+      </c>
+      <c r="DL7" s="6">
+        <v>25</v>
+      </c>
+      <c r="DM7" s="6">
+        <v>26</v>
+      </c>
+      <c r="DN7" s="6">
+        <v>27</v>
+      </c>
+      <c r="DO7" s="1">
+        <v>28</v>
+      </c>
+      <c r="DP7" s="1">
+        <v>29</v>
+      </c>
+      <c r="DQ7" s="97">
+        <v>30</v>
+      </c>
+      <c r="DR7" s="8">
+        <v>1</v>
+      </c>
+      <c r="DS7" s="8">
+        <v>2</v>
+      </c>
+      <c r="DT7" s="8">
+        <v>3</v>
+      </c>
+      <c r="DU7" s="8">
+        <v>4</v>
+      </c>
+      <c r="DV7" s="10">
+        <v>5</v>
+      </c>
+      <c r="DW7" s="10">
+        <v>6</v>
+      </c>
+      <c r="DX7" s="10">
+        <v>7</v>
+      </c>
+      <c r="DY7" s="8">
+        <v>8</v>
+      </c>
+      <c r="DZ7" s="8">
+        <v>9</v>
+      </c>
+      <c r="EA7" s="8">
+        <v>10</v>
+      </c>
+      <c r="EB7" s="8">
+        <v>11</v>
+      </c>
+      <c r="EC7" s="10">
+        <v>12</v>
+      </c>
+      <c r="ED7" s="10">
+        <v>13</v>
+      </c>
+      <c r="EE7" s="8">
+        <v>14</v>
+      </c>
+      <c r="EF7" s="8">
+        <v>15</v>
+      </c>
+      <c r="EG7" s="8">
+        <v>16</v>
+      </c>
+      <c r="EH7" s="8">
+        <v>17</v>
+      </c>
+      <c r="EI7" s="8">
+        <v>18</v>
+      </c>
+      <c r="EJ7" s="10">
+        <v>19</v>
+      </c>
+      <c r="EK7" s="10">
+        <v>20</v>
+      </c>
+      <c r="EL7" s="8">
+        <v>21</v>
+      </c>
+      <c r="EM7" s="10">
+        <v>22</v>
+      </c>
+      <c r="EN7" s="8">
+        <v>23</v>
+      </c>
+      <c r="EO7" s="8">
+        <v>24</v>
+      </c>
+      <c r="EP7" s="8">
+        <v>25</v>
+      </c>
+      <c r="EQ7" s="10">
+        <v>26</v>
+      </c>
+      <c r="ER7" s="10">
+        <v>27</v>
+      </c>
+      <c r="ES7" s="8">
+        <v>28</v>
+      </c>
+      <c r="ET7" s="8">
+        <v>29</v>
+      </c>
+      <c r="EU7" s="8">
+        <v>30</v>
+      </c>
+      <c r="EV7" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:152" x14ac:dyDescent="0.25">
+      <c r="A8" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="38"/>
+      <c r="AJ8" s="38"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM8" s="57"/>
+      <c r="AN8" s="35"/>
+      <c r="AO8" s="35"/>
+      <c r="AP8" s="38"/>
+      <c r="AQ8" s="38"/>
+      <c r="AR8" s="49"/>
+      <c r="AS8" s="35"/>
+      <c r="AT8" s="36"/>
+      <c r="AU8" s="38"/>
+      <c r="AV8" s="38"/>
+      <c r="AW8" s="38"/>
+      <c r="AX8" s="38"/>
+      <c r="AY8" s="49"/>
+      <c r="AZ8" s="35"/>
+      <c r="BA8" s="36"/>
+      <c r="BB8" s="35"/>
+      <c r="BC8" s="35"/>
+      <c r="BD8" s="38"/>
+      <c r="BE8" s="38"/>
+      <c r="BF8" s="49"/>
+      <c r="BG8" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="BH8" s="62"/>
+      <c r="BI8" s="38"/>
+      <c r="BJ8" s="35"/>
+      <c r="BK8" s="38"/>
+      <c r="BL8" s="107"/>
+      <c r="BM8" s="108"/>
+      <c r="BN8" s="107"/>
+      <c r="BO8" s="109"/>
+      <c r="BP8" s="107"/>
+      <c r="BQ8" s="35"/>
+      <c r="BR8" s="38"/>
+      <c r="BS8" s="38"/>
+      <c r="BT8" s="49"/>
+      <c r="BU8" s="35"/>
+      <c r="BV8" s="36"/>
+      <c r="BW8" s="35"/>
+      <c r="BX8" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="BY8" s="38"/>
+      <c r="BZ8" s="38"/>
+      <c r="CA8" s="49"/>
+      <c r="CB8" s="35"/>
+      <c r="CC8" s="36"/>
+      <c r="CD8" s="35"/>
+      <c r="CE8" s="35"/>
+      <c r="CF8" s="38"/>
+      <c r="CG8" s="38"/>
+      <c r="CH8" s="49"/>
+      <c r="CI8" s="35"/>
+      <c r="CJ8" s="36"/>
+      <c r="CK8" s="35"/>
+      <c r="CL8" s="35"/>
+      <c r="CM8" s="38"/>
+      <c r="CN8" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="CO8" s="49"/>
+      <c r="CP8" s="35"/>
+      <c r="CQ8" s="36"/>
+      <c r="CR8" s="35"/>
+      <c r="CS8" s="35"/>
+      <c r="CT8" s="38"/>
+      <c r="CU8" s="38"/>
+      <c r="CV8" s="49"/>
+      <c r="CW8" s="35"/>
+      <c r="CX8" s="36"/>
+      <c r="CY8" s="35"/>
+      <c r="CZ8" s="35"/>
+      <c r="DA8" s="38"/>
+      <c r="DB8" s="38"/>
+      <c r="DC8" s="49"/>
+      <c r="DD8" s="35"/>
+      <c r="DE8" s="36"/>
+      <c r="DF8" s="35"/>
+      <c r="DG8" s="35"/>
+      <c r="DH8" s="38"/>
+      <c r="DI8" s="38"/>
+      <c r="DJ8" s="49"/>
+      <c r="DK8" s="35"/>
+      <c r="DL8" s="36"/>
+      <c r="DM8" s="35"/>
+      <c r="DN8" s="35"/>
+      <c r="DO8" s="38"/>
+      <c r="DP8" s="38"/>
+      <c r="DQ8" s="99"/>
+      <c r="DR8" s="69"/>
+      <c r="DS8" s="36"/>
+      <c r="DT8" s="35"/>
+      <c r="DU8" s="35"/>
+      <c r="DV8" s="38"/>
+      <c r="DW8" s="38"/>
+      <c r="DX8" s="38"/>
+      <c r="DY8" s="35"/>
+      <c r="DZ8" s="36"/>
+      <c r="EA8" s="35"/>
+      <c r="EB8" s="35"/>
+      <c r="EC8" s="38"/>
+      <c r="ED8" s="38"/>
+      <c r="EE8" s="49"/>
+      <c r="EF8" s="35"/>
+      <c r="EG8" s="36"/>
+      <c r="EH8" s="35"/>
+      <c r="EI8" s="35"/>
+      <c r="EJ8" s="38"/>
+      <c r="EK8" s="38"/>
+      <c r="EL8" s="49"/>
+      <c r="EM8" s="38"/>
+      <c r="EN8" s="36"/>
+      <c r="EO8" s="35"/>
+      <c r="EP8" s="35"/>
+      <c r="EQ8" s="38"/>
+      <c r="ER8" s="38"/>
+      <c r="ES8" s="49"/>
+      <c r="ET8" s="49"/>
+      <c r="EU8" s="49"/>
+      <c r="EV8" s="99"/>
+    </row>
+    <row r="9" spans="1:152" x14ac:dyDescent="0.25">
+      <c r="A9" s="123"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="31"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="31"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="63"/>
+      <c r="AH9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="28"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="31"/>
+      <c r="AQ9" s="31"/>
+      <c r="AR9" s="28"/>
+      <c r="AS9" s="30"/>
+      <c r="AT9" s="30"/>
+      <c r="AU9" s="31"/>
+      <c r="AV9" s="31"/>
+      <c r="AW9" s="31"/>
+      <c r="AX9" s="31"/>
+      <c r="AY9" s="28"/>
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="30"/>
+      <c r="BB9" s="30"/>
+      <c r="BC9" s="30"/>
+      <c r="BD9" s="31"/>
+      <c r="BE9" s="31"/>
+      <c r="BF9" s="28"/>
+      <c r="BG9" s="30"/>
+      <c r="BH9" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI9" s="31"/>
+      <c r="BJ9" s="30"/>
+      <c r="BK9" s="31"/>
+      <c r="BL9" s="110"/>
+      <c r="BM9" s="110"/>
+      <c r="BN9" s="110"/>
+      <c r="BO9" s="110"/>
+      <c r="BP9" s="110"/>
+      <c r="BQ9" s="30"/>
+      <c r="BR9" s="31"/>
+      <c r="BS9" s="31"/>
+      <c r="BT9" s="28"/>
+      <c r="BU9" s="30"/>
+      <c r="BV9" s="30"/>
+      <c r="BW9" s="30"/>
+      <c r="BX9" s="30"/>
+      <c r="BY9" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="BZ9" s="31"/>
+      <c r="CA9" s="28"/>
+      <c r="CB9" s="30"/>
+      <c r="CC9" s="30"/>
+      <c r="CD9" s="30"/>
+      <c r="CE9" s="30"/>
+      <c r="CF9" s="31"/>
+      <c r="CG9" s="31"/>
+      <c r="CH9" s="28"/>
+      <c r="CI9" s="30"/>
+      <c r="CJ9" s="30"/>
+      <c r="CK9" s="30"/>
+      <c r="CL9" s="30"/>
+      <c r="CM9" s="31"/>
+      <c r="CN9" s="29"/>
+      <c r="CO9" s="28"/>
+      <c r="CP9" s="30"/>
+      <c r="CQ9" s="30"/>
+      <c r="CR9" s="30"/>
+      <c r="CS9" s="30"/>
+      <c r="CT9" s="31"/>
+      <c r="CU9" s="31"/>
+      <c r="CV9" s="28"/>
+      <c r="CW9" s="30"/>
+      <c r="CX9" s="30"/>
+      <c r="CY9" s="30"/>
+      <c r="CZ9" s="30"/>
+      <c r="DA9" s="31"/>
+      <c r="DB9" s="31"/>
+      <c r="DC9" s="28"/>
+      <c r="DD9" s="30"/>
+      <c r="DE9" s="30"/>
+      <c r="DF9" s="30"/>
+      <c r="DG9" s="30"/>
+      <c r="DH9" s="31"/>
+      <c r="DI9" s="31"/>
+      <c r="DJ9" s="28"/>
+      <c r="DK9" s="30"/>
+      <c r="DL9" s="30"/>
+      <c r="DM9" s="30"/>
+      <c r="DN9" s="30"/>
+      <c r="DO9" s="31"/>
+      <c r="DP9" s="31"/>
+      <c r="DQ9" s="33"/>
+      <c r="DR9" s="63"/>
+      <c r="DS9" s="30"/>
+      <c r="DT9" s="30"/>
+      <c r="DU9" s="30"/>
+      <c r="DV9" s="31"/>
+      <c r="DW9" s="31"/>
+      <c r="DX9" s="31"/>
+      <c r="DY9" s="30"/>
+      <c r="DZ9" s="30"/>
+      <c r="EA9" s="30"/>
+      <c r="EB9" s="30"/>
+      <c r="EC9" s="31"/>
+      <c r="ED9" s="31"/>
+      <c r="EE9" s="28"/>
+      <c r="EF9" s="30"/>
+      <c r="EG9" s="30"/>
+      <c r="EH9" s="30"/>
+      <c r="EI9" s="30"/>
+      <c r="EJ9" s="31"/>
+      <c r="EK9" s="31"/>
+      <c r="EL9" s="28"/>
+      <c r="EM9" s="31"/>
+      <c r="EN9" s="30"/>
+      <c r="EO9" s="30"/>
+      <c r="EP9" s="30"/>
+      <c r="EQ9" s="31"/>
+      <c r="ER9" s="31"/>
+      <c r="ES9" s="28"/>
+      <c r="ET9" s="28"/>
+      <c r="EU9" s="28"/>
+      <c r="EV9" s="33"/>
+    </row>
+    <row r="10" spans="1:152" x14ac:dyDescent="0.25">
+      <c r="A10" s="123"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="31"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="63"/>
+      <c r="AH10" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI10" s="31"/>
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="28"/>
+      <c r="AL10" s="30"/>
+      <c r="AM10" s="30"/>
+      <c r="AN10" s="30"/>
+      <c r="AO10" s="30"/>
+      <c r="AP10" s="31"/>
+      <c r="AQ10" s="31"/>
+      <c r="AR10" s="28"/>
+      <c r="AS10" s="30"/>
+      <c r="AT10" s="30"/>
+      <c r="AU10" s="31"/>
+      <c r="AV10" s="31"/>
+      <c r="AW10" s="31"/>
+      <c r="AX10" s="31"/>
+      <c r="AY10" s="28"/>
+      <c r="AZ10" s="30"/>
+      <c r="BA10" s="30"/>
+      <c r="BB10" s="30"/>
+      <c r="BC10" s="30"/>
+      <c r="BD10" s="31"/>
+      <c r="BE10" s="31"/>
+      <c r="BF10" s="28"/>
+      <c r="BG10" s="30"/>
+      <c r="BH10" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="BI10" s="31"/>
+      <c r="BJ10" s="30"/>
+      <c r="BK10" s="31"/>
+      <c r="BL10" s="110"/>
+      <c r="BM10" s="110"/>
+      <c r="BN10" s="110"/>
+      <c r="BO10" s="110"/>
+      <c r="BP10" s="110"/>
+      <c r="BQ10" s="30"/>
+      <c r="BR10" s="31"/>
+      <c r="BS10" s="31"/>
+      <c r="BT10" s="28"/>
+      <c r="BU10" s="30"/>
+      <c r="BV10" s="30"/>
+      <c r="BW10" s="30"/>
+      <c r="BX10" s="30"/>
+      <c r="BY10" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="BZ10" s="31"/>
+      <c r="CA10" s="28"/>
+      <c r="CB10" s="30"/>
+      <c r="CC10" s="30"/>
+      <c r="CD10" s="30"/>
+      <c r="CE10" s="30"/>
+      <c r="CF10" s="31"/>
+      <c r="CG10" s="31"/>
+      <c r="CH10" s="28"/>
+      <c r="CI10" s="30"/>
+      <c r="CJ10" s="30"/>
+      <c r="CK10" s="30"/>
+      <c r="CL10" s="30"/>
+      <c r="CM10" s="31"/>
+      <c r="CN10" s="29"/>
+      <c r="CO10" s="28"/>
+      <c r="CP10" s="30"/>
+      <c r="CQ10" s="30"/>
+      <c r="CR10" s="30"/>
+      <c r="CS10" s="30"/>
+      <c r="CT10" s="31"/>
+      <c r="CU10" s="31"/>
+      <c r="CV10" s="28"/>
+      <c r="CW10" s="30"/>
+      <c r="CX10" s="30"/>
+      <c r="CY10" s="30"/>
+      <c r="CZ10" s="30"/>
+      <c r="DA10" s="31"/>
+      <c r="DB10" s="31"/>
+      <c r="DC10" s="28"/>
+      <c r="DD10" s="30"/>
+      <c r="DE10" s="30"/>
+      <c r="DF10" s="30"/>
+      <c r="DG10" s="30"/>
+      <c r="DH10" s="31"/>
+      <c r="DI10" s="31"/>
+      <c r="DJ10" s="28"/>
+      <c r="DK10" s="30"/>
+      <c r="DL10" s="30"/>
+      <c r="DM10" s="30"/>
+      <c r="DN10" s="30"/>
+      <c r="DO10" s="31"/>
+      <c r="DP10" s="31"/>
+      <c r="DQ10" s="33"/>
+      <c r="DR10" s="63"/>
+      <c r="DS10" s="30"/>
+      <c r="DT10" s="30"/>
+      <c r="DU10" s="30"/>
+      <c r="DV10" s="31"/>
+      <c r="DW10" s="31"/>
+      <c r="DX10" s="31"/>
+      <c r="DY10" s="30"/>
+      <c r="DZ10" s="30"/>
+      <c r="EA10" s="30"/>
+      <c r="EB10" s="30"/>
+      <c r="EC10" s="31"/>
+      <c r="ED10" s="31"/>
+      <c r="EE10" s="28"/>
+      <c r="EF10" s="30"/>
+      <c r="EG10" s="30"/>
+      <c r="EH10" s="30"/>
+      <c r="EI10" s="30"/>
+      <c r="EJ10" s="31"/>
+      <c r="EK10" s="31"/>
+      <c r="EL10" s="28"/>
+      <c r="EM10" s="31"/>
+      <c r="EN10" s="30"/>
+      <c r="EO10" s="30"/>
+      <c r="EP10" s="30"/>
+      <c r="EQ10" s="31"/>
+      <c r="ER10" s="31"/>
+      <c r="ES10" s="28"/>
+      <c r="ET10" s="28"/>
+      <c r="EU10" s="28"/>
+      <c r="EV10" s="33"/>
+    </row>
+    <row r="11" spans="1:152" x14ac:dyDescent="0.25">
+      <c r="A11" s="123"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="31"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="63"/>
+      <c r="AH11" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="28"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="30"/>
+      <c r="AO11" s="30"/>
+      <c r="AP11" s="31"/>
+      <c r="AQ11" s="31"/>
+      <c r="AR11" s="28"/>
+      <c r="AS11" s="30"/>
+      <c r="AT11" s="30"/>
+      <c r="AU11" s="31"/>
+      <c r="AV11" s="31"/>
+      <c r="AW11" s="31"/>
+      <c r="AX11" s="31"/>
+      <c r="AY11" s="28"/>
+      <c r="AZ11" s="30"/>
+      <c r="BA11" s="30"/>
+      <c r="BB11" s="30"/>
+      <c r="BC11" s="30"/>
+      <c r="BD11" s="31"/>
+      <c r="BE11" s="31"/>
+      <c r="BF11" s="28"/>
+      <c r="BG11" s="30"/>
+      <c r="BH11" s="32"/>
+      <c r="BI11" s="31"/>
+      <c r="BJ11" s="30"/>
+      <c r="BK11" s="31"/>
+      <c r="BL11" s="110"/>
+      <c r="BM11" s="110"/>
+      <c r="BN11" s="110"/>
+      <c r="BO11" s="110"/>
+      <c r="BP11" s="110"/>
+      <c r="BQ11" s="30"/>
+      <c r="BR11" s="31"/>
+      <c r="BS11" s="31"/>
+      <c r="BT11" s="28"/>
+      <c r="BU11" s="30"/>
+      <c r="BV11" s="30"/>
+      <c r="BW11" s="30"/>
+      <c r="BX11" s="30"/>
+      <c r="BY11" s="31"/>
+      <c r="BZ11" s="31"/>
+      <c r="CA11" s="28"/>
+      <c r="CB11" s="30"/>
+      <c r="CC11" s="30"/>
+      <c r="CD11" s="30"/>
+      <c r="CE11" s="30"/>
+      <c r="CF11" s="31"/>
+      <c r="CG11" s="31"/>
+      <c r="CH11" s="28"/>
+      <c r="CI11" s="30"/>
+      <c r="CJ11" s="30"/>
+      <c r="CK11" s="30"/>
+      <c r="CL11" s="30"/>
+      <c r="CM11" s="31"/>
+      <c r="CN11" s="29"/>
+      <c r="CO11" s="28"/>
+      <c r="CP11" s="30"/>
+      <c r="CQ11" s="30"/>
+      <c r="CR11" s="30"/>
+      <c r="CS11" s="30"/>
+      <c r="CT11" s="31"/>
+      <c r="CU11" s="31"/>
+      <c r="CV11" s="28"/>
+      <c r="CW11" s="30"/>
+      <c r="CX11" s="30"/>
+      <c r="CY11" s="30"/>
+      <c r="CZ11" s="30"/>
+      <c r="DA11" s="31"/>
+      <c r="DB11" s="31"/>
+      <c r="DC11" s="28"/>
+      <c r="DD11" s="30"/>
+      <c r="DE11" s="30"/>
+      <c r="DF11" s="30"/>
+      <c r="DG11" s="30"/>
+      <c r="DH11" s="31"/>
+      <c r="DI11" s="31"/>
+      <c r="DJ11" s="28"/>
+      <c r="DK11" s="30"/>
+      <c r="DL11" s="30"/>
+      <c r="DM11" s="30"/>
+      <c r="DN11" s="30"/>
+      <c r="DO11" s="31"/>
+      <c r="DP11" s="31"/>
+      <c r="DQ11" s="33"/>
+      <c r="DR11" s="63"/>
+      <c r="DS11" s="30"/>
+      <c r="DT11" s="30"/>
+      <c r="DU11" s="30"/>
+      <c r="DV11" s="31"/>
+      <c r="DW11" s="31"/>
+      <c r="DX11" s="31"/>
+      <c r="DY11" s="30"/>
+      <c r="DZ11" s="30"/>
+      <c r="EA11" s="30"/>
+      <c r="EB11" s="30"/>
+      <c r="EC11" s="31"/>
+      <c r="ED11" s="31"/>
+      <c r="EE11" s="28"/>
+      <c r="EF11" s="30"/>
+      <c r="EG11" s="30"/>
+      <c r="EH11" s="30"/>
+      <c r="EI11" s="30"/>
+      <c r="EJ11" s="31"/>
+      <c r="EK11" s="31"/>
+      <c r="EL11" s="28"/>
+      <c r="EM11" s="31"/>
+      <c r="EN11" s="30"/>
+      <c r="EO11" s="30"/>
+      <c r="EP11" s="30"/>
+      <c r="EQ11" s="31"/>
+      <c r="ER11" s="31"/>
+      <c r="ES11" s="28"/>
+      <c r="ET11" s="28"/>
+      <c r="EU11" s="28"/>
+      <c r="EV11" s="33"/>
+    </row>
+    <row r="12" spans="1:152" x14ac:dyDescent="0.25">
+      <c r="A12" s="123"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="31"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="63"/>
+      <c r="AH12" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI12" s="31"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="28"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="30"/>
+      <c r="AN12" s="30"/>
+      <c r="AO12" s="30"/>
+      <c r="AP12" s="31"/>
+      <c r="AQ12" s="31"/>
+      <c r="AR12" s="28"/>
+      <c r="AS12" s="30"/>
+      <c r="AT12" s="30"/>
+      <c r="AU12" s="31"/>
+      <c r="AV12" s="31"/>
+      <c r="AW12" s="31"/>
+      <c r="AX12" s="31"/>
+      <c r="AY12" s="28"/>
+      <c r="AZ12" s="30"/>
+      <c r="BA12" s="30"/>
+      <c r="BB12" s="30"/>
+      <c r="BC12" s="30"/>
+      <c r="BD12" s="31"/>
+      <c r="BE12" s="31"/>
+      <c r="BF12" s="28"/>
+      <c r="BG12" s="30"/>
+      <c r="BH12" s="32"/>
+      <c r="BI12" s="31"/>
+      <c r="BJ12" s="30"/>
+      <c r="BK12" s="31"/>
+      <c r="BL12" s="110"/>
+      <c r="BM12" s="110"/>
+      <c r="BN12" s="110"/>
+      <c r="BO12" s="110"/>
+      <c r="BP12" s="110"/>
+      <c r="BQ12" s="30"/>
+      <c r="BR12" s="31"/>
+      <c r="BS12" s="31"/>
+      <c r="BT12" s="28"/>
+      <c r="BU12" s="30"/>
+      <c r="BV12" s="30"/>
+      <c r="BW12" s="30"/>
+      <c r="BX12" s="30"/>
+      <c r="BY12" s="31"/>
+      <c r="BZ12" s="31"/>
+      <c r="CA12" s="28"/>
+      <c r="CB12" s="30"/>
+      <c r="CC12" s="30"/>
+      <c r="CD12" s="30"/>
+      <c r="CE12" s="30"/>
+      <c r="CF12" s="31"/>
+      <c r="CG12" s="31"/>
+      <c r="CH12" s="28"/>
+      <c r="CI12" s="30"/>
+      <c r="CJ12" s="30"/>
+      <c r="CK12" s="30"/>
+      <c r="CL12" s="30"/>
+      <c r="CM12" s="31"/>
+      <c r="CN12" s="29"/>
+      <c r="CO12" s="28"/>
+      <c r="CP12" s="30"/>
+      <c r="CQ12" s="30"/>
+      <c r="CR12" s="30"/>
+      <c r="CS12" s="30"/>
+      <c r="CT12" s="31"/>
+      <c r="CU12" s="31"/>
+      <c r="CV12" s="28"/>
+      <c r="CW12" s="30"/>
+      <c r="CX12" s="30"/>
+      <c r="CY12" s="30"/>
+      <c r="CZ12" s="30"/>
+      <c r="DA12" s="31"/>
+      <c r="DB12" s="31"/>
+      <c r="DC12" s="28"/>
+      <c r="DD12" s="30"/>
+      <c r="DE12" s="30"/>
+      <c r="DF12" s="30"/>
+      <c r="DG12" s="30"/>
+      <c r="DH12" s="31"/>
+      <c r="DI12" s="31"/>
+      <c r="DJ12" s="28"/>
+      <c r="DK12" s="30"/>
+      <c r="DL12" s="30"/>
+      <c r="DM12" s="30"/>
+      <c r="DN12" s="30"/>
+      <c r="DO12" s="31"/>
+      <c r="DP12" s="31"/>
+      <c r="DQ12" s="33"/>
+      <c r="DR12" s="63"/>
+      <c r="DS12" s="30"/>
+      <c r="DT12" s="30"/>
+      <c r="DU12" s="30"/>
+      <c r="DV12" s="31"/>
+      <c r="DW12" s="31"/>
+      <c r="DX12" s="31"/>
+      <c r="DY12" s="30"/>
+      <c r="DZ12" s="30"/>
+      <c r="EA12" s="30"/>
+      <c r="EB12" s="30"/>
+      <c r="EC12" s="31"/>
+      <c r="ED12" s="31"/>
+      <c r="EE12" s="28"/>
+      <c r="EF12" s="30"/>
+      <c r="EG12" s="30"/>
+      <c r="EH12" s="30"/>
+      <c r="EI12" s="30"/>
+      <c r="EJ12" s="31"/>
+      <c r="EK12" s="31"/>
+      <c r="EL12" s="28"/>
+      <c r="EM12" s="31"/>
+      <c r="EN12" s="30"/>
+      <c r="EO12" s="30"/>
+      <c r="EP12" s="30"/>
+      <c r="EQ12" s="31"/>
+      <c r="ER12" s="31"/>
+      <c r="ES12" s="28"/>
+      <c r="ET12" s="28"/>
+      <c r="EU12" s="28"/>
+      <c r="EV12" s="33"/>
+    </row>
+    <row r="13" spans="1:152" x14ac:dyDescent="0.25">
+      <c r="A13" s="123"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="63"/>
+      <c r="AH13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="31"/>
+      <c r="AK13" s="28"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="30"/>
+      <c r="AN13" s="30"/>
+      <c r="AO13" s="30"/>
+      <c r="AP13" s="31"/>
+      <c r="AQ13" s="31"/>
+      <c r="AR13" s="28"/>
+      <c r="AS13" s="30"/>
+      <c r="AT13" s="30"/>
+      <c r="AU13" s="31"/>
+      <c r="AV13" s="31"/>
+      <c r="AW13" s="31"/>
+      <c r="AX13" s="31"/>
+      <c r="AY13" s="28"/>
+      <c r="AZ13" s="30"/>
+      <c r="BA13" s="30"/>
+      <c r="BB13" s="30"/>
+      <c r="BC13" s="30"/>
+      <c r="BD13" s="31"/>
+      <c r="BE13" s="31"/>
+      <c r="BF13" s="28"/>
+      <c r="BG13" s="30"/>
+      <c r="BH13" s="32"/>
+      <c r="BI13" s="31"/>
+      <c r="BJ13" s="30"/>
+      <c r="BK13" s="31"/>
+      <c r="BL13" s="110"/>
+      <c r="BM13" s="110"/>
+      <c r="BN13" s="110"/>
+      <c r="BO13" s="110"/>
+      <c r="BP13" s="110"/>
+      <c r="BQ13" s="30"/>
+      <c r="BR13" s="31"/>
+      <c r="BS13" s="31"/>
+      <c r="BT13" s="28"/>
+      <c r="BU13" s="30"/>
+      <c r="BV13" s="30"/>
+      <c r="BW13" s="30"/>
+      <c r="BX13" s="30"/>
+      <c r="BY13" s="31"/>
+      <c r="BZ13" s="31"/>
+      <c r="CA13" s="28"/>
+      <c r="CB13" s="30"/>
+      <c r="CC13" s="30"/>
+      <c r="CD13" s="30"/>
+      <c r="CE13" s="30"/>
+      <c r="CF13" s="31"/>
+      <c r="CG13" s="31"/>
+      <c r="CH13" s="28"/>
+      <c r="CI13" s="30"/>
+      <c r="CJ13" s="30"/>
+      <c r="CK13" s="30"/>
+      <c r="CL13" s="30"/>
+      <c r="CM13" s="31"/>
+      <c r="CN13" s="29"/>
+      <c r="CO13" s="28"/>
+      <c r="CP13" s="30"/>
+      <c r="CQ13" s="30"/>
+      <c r="CR13" s="30"/>
+      <c r="CS13" s="30"/>
+      <c r="CT13" s="31"/>
+      <c r="CU13" s="31"/>
+      <c r="CV13" s="28"/>
+      <c r="CW13" s="30"/>
+      <c r="CX13" s="30"/>
+      <c r="CY13" s="30"/>
+      <c r="CZ13" s="30"/>
+      <c r="DA13" s="31"/>
+      <c r="DB13" s="31"/>
+      <c r="DC13" s="28"/>
+      <c r="DD13" s="30"/>
+      <c r="DE13" s="30"/>
+      <c r="DF13" s="30"/>
+      <c r="DG13" s="30"/>
+      <c r="DH13" s="31"/>
+      <c r="DI13" s="31"/>
+      <c r="DJ13" s="28"/>
+      <c r="DK13" s="30"/>
+      <c r="DL13" s="30"/>
+      <c r="DM13" s="30"/>
+      <c r="DN13" s="30"/>
+      <c r="DO13" s="31"/>
+      <c r="DP13" s="31"/>
+      <c r="DQ13" s="33"/>
+      <c r="DR13" s="63"/>
+      <c r="DS13" s="30"/>
+      <c r="DT13" s="30"/>
+      <c r="DU13" s="30"/>
+      <c r="DV13" s="31"/>
+      <c r="DW13" s="31"/>
+      <c r="DX13" s="31"/>
+      <c r="DY13" s="30"/>
+      <c r="DZ13" s="30"/>
+      <c r="EA13" s="30"/>
+      <c r="EB13" s="30"/>
+      <c r="EC13" s="31"/>
+      <c r="ED13" s="31"/>
+      <c r="EE13" s="28"/>
+      <c r="EF13" s="30"/>
+      <c r="EG13" s="30"/>
+      <c r="EH13" s="30"/>
+      <c r="EI13" s="30"/>
+      <c r="EJ13" s="31"/>
+      <c r="EK13" s="31"/>
+      <c r="EL13" s="28"/>
+      <c r="EM13" s="31"/>
+      <c r="EN13" s="30"/>
+      <c r="EO13" s="30"/>
+      <c r="EP13" s="30"/>
+      <c r="EQ13" s="31"/>
+      <c r="ER13" s="31"/>
+      <c r="ES13" s="28"/>
+      <c r="ET13" s="28"/>
+      <c r="EU13" s="28"/>
+      <c r="EV13" s="33"/>
+    </row>
+    <row r="14" spans="1:152" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="128"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="52"/>
+      <c r="AD14" s="53"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="64"/>
+      <c r="AH14" s="51"/>
+      <c r="AI14" s="52"/>
+      <c r="AJ14" s="52"/>
+      <c r="AK14" s="53"/>
+      <c r="AL14" s="51"/>
+      <c r="AM14" s="51"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="52"/>
+      <c r="AQ14" s="52"/>
+      <c r="AR14" s="53"/>
+      <c r="AS14" s="51"/>
+      <c r="AT14" s="51"/>
+      <c r="AU14" s="52"/>
+      <c r="AV14" s="52"/>
+      <c r="AW14" s="52"/>
+      <c r="AX14" s="52"/>
+      <c r="AY14" s="53"/>
+      <c r="AZ14" s="51"/>
+      <c r="BA14" s="51"/>
+      <c r="BB14" s="51"/>
+      <c r="BC14" s="51"/>
+      <c r="BD14" s="52"/>
+      <c r="BE14" s="52"/>
+      <c r="BF14" s="53"/>
+      <c r="BG14" s="51"/>
+      <c r="BH14" s="65"/>
+      <c r="BI14" s="52"/>
+      <c r="BJ14" s="51"/>
+      <c r="BK14" s="52"/>
+      <c r="BL14" s="111"/>
+      <c r="BM14" s="111"/>
+      <c r="BN14" s="111"/>
+      <c r="BO14" s="111"/>
+      <c r="BP14" s="111"/>
+      <c r="BQ14" s="51"/>
+      <c r="BR14" s="52"/>
+      <c r="BS14" s="52"/>
+      <c r="BT14" s="53"/>
+      <c r="BU14" s="51"/>
+      <c r="BV14" s="51"/>
+      <c r="BW14" s="51"/>
+      <c r="BX14" s="51"/>
+      <c r="BY14" s="52"/>
+      <c r="BZ14" s="52"/>
+      <c r="CA14" s="53"/>
+      <c r="CB14" s="51"/>
+      <c r="CC14" s="51"/>
+      <c r="CD14" s="51"/>
+      <c r="CE14" s="51"/>
+      <c r="CF14" s="52"/>
+      <c r="CG14" s="52"/>
+      <c r="CH14" s="53"/>
+      <c r="CI14" s="51"/>
+      <c r="CJ14" s="51"/>
+      <c r="CK14" s="51"/>
+      <c r="CL14" s="51"/>
+      <c r="CM14" s="52"/>
+      <c r="CN14" s="50"/>
+      <c r="CO14" s="53"/>
+      <c r="CP14" s="51"/>
+      <c r="CQ14" s="51"/>
+      <c r="CR14" s="51"/>
+      <c r="CS14" s="51"/>
+      <c r="CT14" s="52"/>
+      <c r="CU14" s="52"/>
+      <c r="CV14" s="53"/>
+      <c r="CW14" s="51"/>
+      <c r="CX14" s="51"/>
+      <c r="CY14" s="51"/>
+      <c r="CZ14" s="51"/>
+      <c r="DA14" s="52"/>
+      <c r="DB14" s="52"/>
+      <c r="DC14" s="53"/>
+      <c r="DD14" s="51"/>
+      <c r="DE14" s="51"/>
+      <c r="DF14" s="51"/>
+      <c r="DG14" s="51"/>
+      <c r="DH14" s="52"/>
+      <c r="DI14" s="52"/>
+      <c r="DJ14" s="53"/>
+      <c r="DK14" s="51"/>
+      <c r="DL14" s="51"/>
+      <c r="DM14" s="51"/>
+      <c r="DN14" s="51"/>
+      <c r="DO14" s="52"/>
+      <c r="DP14" s="52"/>
+      <c r="DQ14" s="100"/>
+      <c r="DR14" s="64"/>
+      <c r="DS14" s="51"/>
+      <c r="DT14" s="51"/>
+      <c r="DU14" s="51"/>
+      <c r="DV14" s="52"/>
+      <c r="DW14" s="52"/>
+      <c r="DX14" s="52"/>
+      <c r="DY14" s="51"/>
+      <c r="DZ14" s="51"/>
+      <c r="EA14" s="51"/>
+      <c r="EB14" s="51"/>
+      <c r="EC14" s="52"/>
+      <c r="ED14" s="52"/>
+      <c r="EE14" s="53"/>
+      <c r="EF14" s="51"/>
+      <c r="EG14" s="51"/>
+      <c r="EH14" s="51"/>
+      <c r="EI14" s="51"/>
+      <c r="EJ14" s="52"/>
+      <c r="EK14" s="52"/>
+      <c r="EL14" s="53"/>
+      <c r="EM14" s="52"/>
+      <c r="EN14" s="51"/>
+      <c r="EO14" s="51"/>
+      <c r="EP14" s="51"/>
+      <c r="EQ14" s="52"/>
+      <c r="ER14" s="52"/>
+      <c r="ES14" s="53"/>
+      <c r="ET14" s="53"/>
+      <c r="EU14" s="53"/>
+      <c r="EV14" s="100"/>
+    </row>
+    <row r="15" spans="1:152" x14ac:dyDescent="0.25">
+      <c r="A15" s="125" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="45"/>
+      <c r="AE15" s="43"/>
+      <c r="AF15" s="43"/>
+      <c r="AG15" s="66"/>
+      <c r="AH15" s="43"/>
+      <c r="AI15" s="44"/>
+      <c r="AJ15" s="44"/>
+      <c r="AK15" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL15" s="54"/>
+      <c r="AM15" s="54"/>
+      <c r="AN15" s="58"/>
+      <c r="AO15" s="43"/>
+      <c r="AP15" s="44"/>
+      <c r="AQ15" s="44"/>
+      <c r="AR15" s="46"/>
+      <c r="AS15" s="43"/>
+      <c r="AT15" s="43"/>
+      <c r="AU15" s="44"/>
+      <c r="AV15" s="44"/>
+      <c r="AW15" s="44"/>
+      <c r="AX15" s="44"/>
+      <c r="AY15" s="46"/>
+      <c r="AZ15" s="43"/>
+      <c r="BA15" s="46"/>
+      <c r="BB15" s="43"/>
+      <c r="BC15" s="46"/>
+      <c r="BD15" s="44"/>
+      <c r="BE15" s="44"/>
+      <c r="BF15" s="46"/>
+      <c r="BG15" s="43"/>
+      <c r="BH15" s="47"/>
+      <c r="BI15" s="44"/>
+      <c r="BJ15" s="46"/>
+      <c r="BK15" s="44"/>
+      <c r="BL15" s="112"/>
+      <c r="BM15" s="112"/>
+      <c r="BN15" s="112"/>
+      <c r="BO15" s="112"/>
+      <c r="BP15" s="112"/>
+      <c r="BQ15" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR15" s="44"/>
+      <c r="BS15" s="44"/>
+      <c r="BT15" s="45"/>
+      <c r="BU15" s="43"/>
+      <c r="BV15" s="43"/>
+      <c r="BW15" s="43"/>
+      <c r="BX15" s="43"/>
+      <c r="BY15" s="44"/>
+      <c r="BZ15" s="44"/>
+      <c r="CA15" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="CB15" s="43"/>
+      <c r="CC15" s="43"/>
+      <c r="CD15" s="43"/>
+      <c r="CE15" s="43"/>
+      <c r="CF15" s="44"/>
+      <c r="CG15" s="44"/>
+      <c r="CH15" s="45"/>
+      <c r="CI15" s="43"/>
+      <c r="CJ15" s="43"/>
+      <c r="CK15" s="43"/>
+      <c r="CL15" s="43"/>
+      <c r="CM15" s="44"/>
+      <c r="CN15" s="42"/>
+      <c r="CO15" s="45"/>
+      <c r="CP15" s="43"/>
+      <c r="CQ15" s="43"/>
+      <c r="CR15" s="43"/>
+      <c r="CS15" s="43"/>
+      <c r="CT15" s="44"/>
+      <c r="CU15" s="44"/>
+      <c r="CV15" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="CW15" s="43"/>
+      <c r="CX15" s="43"/>
+      <c r="CY15" s="43"/>
+      <c r="CZ15" s="43"/>
+      <c r="DA15" s="44"/>
+      <c r="DB15" s="44"/>
+      <c r="DC15" s="45"/>
+      <c r="DD15" s="43"/>
+      <c r="DE15" s="43"/>
+      <c r="DF15" s="43"/>
+      <c r="DG15" s="43"/>
+      <c r="DH15" s="44"/>
+      <c r="DI15" s="44"/>
+      <c r="DJ15" s="45"/>
+      <c r="DK15" s="43"/>
+      <c r="DL15" s="43"/>
+      <c r="DM15" s="43"/>
+      <c r="DN15" s="43"/>
+      <c r="DO15" s="44"/>
+      <c r="DP15" s="44"/>
+      <c r="DQ15" s="48"/>
+      <c r="DR15" s="82"/>
+      <c r="DS15" s="76"/>
+      <c r="DT15" s="76"/>
+      <c r="DU15" s="76"/>
+      <c r="DV15" s="77"/>
+      <c r="DW15" s="77"/>
+      <c r="DX15" s="77"/>
+      <c r="DY15" s="76"/>
+      <c r="DZ15" s="76"/>
+      <c r="EA15" s="76"/>
+      <c r="EB15" s="76"/>
+      <c r="EC15" s="77"/>
+      <c r="ED15" s="77"/>
+      <c r="EE15" s="78"/>
+      <c r="EF15" s="76"/>
+      <c r="EG15" s="76"/>
+      <c r="EH15" s="76"/>
+      <c r="EI15" s="76"/>
+      <c r="EJ15" s="77"/>
+      <c r="EK15" s="77"/>
+      <c r="EL15" s="78"/>
+      <c r="EM15" s="77"/>
+      <c r="EN15" s="76"/>
+      <c r="EO15" s="76"/>
+      <c r="EP15" s="76"/>
+      <c r="EQ15" s="77"/>
+      <c r="ER15" s="77"/>
+      <c r="ES15" s="78"/>
+      <c r="ET15" s="78"/>
+      <c r="EU15" s="78"/>
+      <c r="EV15" s="102"/>
+    </row>
+    <row r="16" spans="1:152" x14ac:dyDescent="0.25">
+      <c r="A16" s="123"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="67"/>
+      <c r="AH16" s="16"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="56"/>
+      <c r="AM16" s="56"/>
+      <c r="AN16" s="16"/>
+      <c r="AO16" s="16"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="16"/>
+      <c r="AS16" s="16"/>
+      <c r="AT16" s="16"/>
+      <c r="AU16" s="14"/>
+      <c r="AV16" s="14"/>
+      <c r="AW16" s="14"/>
+      <c r="AX16" s="14"/>
+      <c r="AY16" s="13"/>
+      <c r="AZ16" s="16"/>
+      <c r="BA16" s="16"/>
+      <c r="BB16" s="16"/>
+      <c r="BC16" s="16"/>
+      <c r="BD16" s="14"/>
+      <c r="BE16" s="14"/>
+      <c r="BF16" s="13"/>
+      <c r="BG16" s="16"/>
+      <c r="BH16" s="25"/>
+      <c r="BI16" s="14"/>
+      <c r="BJ16" s="16"/>
+      <c r="BK16" s="14"/>
+      <c r="BL16" s="113"/>
+      <c r="BM16" s="113"/>
+      <c r="BN16" s="113"/>
+      <c r="BO16" s="113"/>
+      <c r="BP16" s="113"/>
+      <c r="BQ16" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="BR16" s="14"/>
+      <c r="BS16" s="14"/>
+      <c r="BT16" s="13"/>
+      <c r="BU16" s="16"/>
+      <c r="BV16" s="16"/>
+      <c r="BW16" s="16"/>
+      <c r="BX16" s="16"/>
+      <c r="BY16" s="14"/>
+      <c r="BZ16" s="14"/>
+      <c r="CA16" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="CB16" s="16"/>
+      <c r="CC16" s="16"/>
+      <c r="CD16" s="16"/>
+      <c r="CE16" s="16"/>
+      <c r="CF16" s="14"/>
+      <c r="CG16" s="14"/>
+      <c r="CH16" s="13"/>
+      <c r="CI16" s="16"/>
+      <c r="CJ16" s="16"/>
+      <c r="CK16" s="16"/>
+      <c r="CL16" s="16"/>
+      <c r="CM16" s="14"/>
+      <c r="CN16" s="24"/>
+      <c r="CO16" s="23"/>
+      <c r="CP16" s="16"/>
+      <c r="CQ16" s="16"/>
+      <c r="CR16" s="16"/>
+      <c r="CS16" s="16"/>
+      <c r="CT16" s="14"/>
+      <c r="CU16" s="14"/>
+      <c r="CV16" s="13"/>
+      <c r="CW16" s="16"/>
+      <c r="CX16" s="16"/>
+      <c r="CY16" s="16"/>
+      <c r="CZ16" s="16"/>
+      <c r="DA16" s="14"/>
+      <c r="DB16" s="14"/>
+      <c r="DC16" s="13"/>
+      <c r="DD16" s="16"/>
+      <c r="DE16" s="16"/>
+      <c r="DF16" s="16"/>
+      <c r="DG16" s="16"/>
+      <c r="DH16" s="14"/>
+      <c r="DI16" s="14"/>
+      <c r="DJ16" s="13"/>
+      <c r="DK16" s="16"/>
+      <c r="DL16" s="16"/>
+      <c r="DM16" s="16"/>
+      <c r="DN16" s="16"/>
+      <c r="DO16" s="14"/>
+      <c r="DP16" s="14"/>
+      <c r="DQ16" s="17"/>
+      <c r="DR16" s="67"/>
+      <c r="DS16" s="16"/>
+      <c r="DT16" s="16"/>
+      <c r="DU16" s="16"/>
+      <c r="DV16" s="14"/>
+      <c r="DW16" s="14"/>
+      <c r="DX16" s="14"/>
+      <c r="DY16" s="16"/>
+      <c r="DZ16" s="16"/>
+      <c r="EA16" s="16"/>
+      <c r="EB16" s="16"/>
+      <c r="EC16" s="14"/>
+      <c r="ED16" s="14"/>
+      <c r="EE16" s="13"/>
+      <c r="EF16" s="16"/>
+      <c r="EG16" s="16"/>
+      <c r="EH16" s="16"/>
+      <c r="EI16" s="16"/>
+      <c r="EJ16" s="14"/>
+      <c r="EK16" s="14"/>
+      <c r="EL16" s="13"/>
+      <c r="EM16" s="14"/>
+      <c r="EN16" s="16"/>
+      <c r="EO16" s="16"/>
+      <c r="EP16" s="16"/>
+      <c r="EQ16" s="14"/>
+      <c r="ER16" s="14"/>
+      <c r="ES16" s="13"/>
+      <c r="ET16" s="13"/>
+      <c r="EU16" s="13"/>
+      <c r="EV16" s="17"/>
+    </row>
+    <row r="17" spans="1:152" x14ac:dyDescent="0.25">
+      <c r="A17" s="123"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="67"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="16"/>
+      <c r="AM17" s="16"/>
+      <c r="AN17" s="58"/>
+      <c r="AO17" s="16"/>
+      <c r="AP17" s="14"/>
+      <c r="AQ17" s="14"/>
+      <c r="AR17" s="16"/>
+      <c r="AS17" s="16"/>
+      <c r="AT17" s="16"/>
+      <c r="AU17" s="14"/>
+      <c r="AV17" s="14"/>
+      <c r="AW17" s="14"/>
+      <c r="AX17" s="14"/>
+      <c r="AY17" s="13"/>
+      <c r="AZ17" s="16"/>
+      <c r="BA17" s="16"/>
+      <c r="BB17" s="16"/>
+      <c r="BC17" s="16"/>
+      <c r="BD17" s="14"/>
+      <c r="BE17" s="14"/>
+      <c r="BF17" s="13"/>
+      <c r="BG17" s="16"/>
+      <c r="BH17" s="25"/>
+      <c r="BI17" s="14"/>
+      <c r="BJ17" s="16"/>
+      <c r="BK17" s="14"/>
+      <c r="BL17" s="113"/>
+      <c r="BM17" s="113"/>
+      <c r="BN17" s="113"/>
+      <c r="BO17" s="113"/>
+      <c r="BP17" s="113"/>
+      <c r="BQ17" s="16"/>
+      <c r="BR17" s="14"/>
+      <c r="BS17" s="14"/>
+      <c r="BT17" s="16"/>
+      <c r="BU17" s="16"/>
+      <c r="BV17" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="BW17" s="16"/>
+      <c r="BX17" s="16"/>
+      <c r="BY17" s="14"/>
+      <c r="BZ17" s="14"/>
+      <c r="CA17" s="13"/>
+      <c r="CB17" s="16"/>
+      <c r="CC17" s="16"/>
+      <c r="CD17" s="16"/>
+      <c r="CE17" s="16"/>
+      <c r="CF17" s="14"/>
+      <c r="CG17" s="14"/>
+      <c r="CH17" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="CI17" s="16"/>
+      <c r="CJ17" s="16"/>
+      <c r="CK17" s="16"/>
+      <c r="CL17" s="16"/>
+      <c r="CM17" s="14"/>
+      <c r="CN17" s="24"/>
+      <c r="CO17" s="13"/>
+      <c r="CP17" s="16"/>
+      <c r="CQ17" s="16"/>
+      <c r="CR17" s="16"/>
+      <c r="CS17" s="16"/>
+      <c r="CT17" s="14"/>
+      <c r="CU17" s="14"/>
+      <c r="CV17" s="13"/>
+      <c r="CW17" s="16"/>
+      <c r="CX17" s="16"/>
+      <c r="CY17" s="16"/>
+      <c r="CZ17" s="16"/>
+      <c r="DA17" s="14"/>
+      <c r="DB17" s="14"/>
+      <c r="DC17" s="13"/>
+      <c r="DD17" s="16"/>
+      <c r="DE17" s="16"/>
+      <c r="DF17" s="16"/>
+      <c r="DG17" s="16"/>
+      <c r="DH17" s="14"/>
+      <c r="DI17" s="14"/>
+      <c r="DJ17" s="13"/>
+      <c r="DK17" s="16"/>
+      <c r="DL17" s="16"/>
+      <c r="DM17" s="16"/>
+      <c r="DN17" s="16"/>
+      <c r="DO17" s="14"/>
+      <c r="DP17" s="14"/>
+      <c r="DQ17" s="17"/>
+      <c r="DR17" s="67"/>
+      <c r="DS17" s="16"/>
+      <c r="DT17" s="16"/>
+      <c r="DU17" s="16"/>
+      <c r="DV17" s="14"/>
+      <c r="DW17" s="14"/>
+      <c r="DX17" s="14"/>
+      <c r="DY17" s="16"/>
+      <c r="DZ17" s="16"/>
+      <c r="EA17" s="16"/>
+      <c r="EB17" s="16"/>
+      <c r="EC17" s="14"/>
+      <c r="ED17" s="14"/>
+      <c r="EE17" s="13"/>
+      <c r="EF17" s="16"/>
+      <c r="EG17" s="16"/>
+      <c r="EH17" s="16"/>
+      <c r="EI17" s="16"/>
+      <c r="EJ17" s="14"/>
+      <c r="EK17" s="14"/>
+      <c r="EL17" s="13"/>
+      <c r="EM17" s="14"/>
+      <c r="EN17" s="16"/>
+      <c r="EO17" s="16"/>
+      <c r="EP17" s="16"/>
+      <c r="EQ17" s="14"/>
+      <c r="ER17" s="14"/>
+      <c r="ES17" s="13"/>
+      <c r="ET17" s="13"/>
+      <c r="EU17" s="13"/>
+      <c r="EV17" s="17"/>
+    </row>
+    <row r="18" spans="1:152" x14ac:dyDescent="0.25">
+      <c r="A18" s="123"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="67"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="16"/>
+      <c r="AM18" s="16"/>
+      <c r="AN18" s="16"/>
+      <c r="AO18" s="16"/>
+      <c r="AP18" s="14"/>
+      <c r="AQ18" s="14"/>
+      <c r="AR18" s="13"/>
+      <c r="AS18" s="16"/>
+      <c r="AT18" s="16"/>
+      <c r="AU18" s="14"/>
+      <c r="AV18" s="14"/>
+      <c r="AW18" s="14"/>
+      <c r="AX18" s="14"/>
+      <c r="AY18" s="13"/>
+      <c r="AZ18" s="16"/>
+      <c r="BA18" s="16"/>
+      <c r="BB18" s="16"/>
+      <c r="BC18" s="16"/>
+      <c r="BD18" s="14"/>
+      <c r="BE18" s="14"/>
+      <c r="BF18" s="13"/>
+      <c r="BG18" s="16"/>
+      <c r="BH18" s="25"/>
+      <c r="BI18" s="14"/>
+      <c r="BJ18" s="16"/>
+      <c r="BK18" s="14"/>
+      <c r="BL18" s="113"/>
+      <c r="BM18" s="114"/>
+      <c r="BN18" s="113"/>
+      <c r="BO18" s="113"/>
+      <c r="BP18" s="113"/>
+      <c r="BQ18" s="16"/>
+      <c r="BR18" s="14"/>
+      <c r="BS18" s="14"/>
+      <c r="BT18" s="23"/>
+      <c r="BU18" s="16"/>
+      <c r="BV18" s="16"/>
+      <c r="BW18" s="16"/>
+      <c r="BX18" s="16"/>
+      <c r="BY18" s="14"/>
+      <c r="BZ18" s="14"/>
+      <c r="CA18" s="13"/>
+      <c r="CB18" s="16"/>
+      <c r="CC18" s="16"/>
+      <c r="CD18" s="16"/>
+      <c r="CE18" s="16"/>
+      <c r="CF18" s="14"/>
+      <c r="CG18" s="14"/>
+      <c r="CH18" s="13"/>
+      <c r="CI18" s="16"/>
+      <c r="CJ18" s="16"/>
+      <c r="CK18" s="23"/>
+      <c r="CL18" s="16"/>
+      <c r="CM18" s="14"/>
+      <c r="CN18" s="24"/>
+      <c r="CO18" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="CP18" s="16"/>
+      <c r="CQ18" s="16"/>
+      <c r="CR18" s="16"/>
+      <c r="CS18" s="16"/>
+      <c r="CT18" s="14"/>
+      <c r="CU18" s="14"/>
+      <c r="CV18" s="13"/>
+      <c r="CW18" s="16"/>
+      <c r="CX18" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="CY18" s="16"/>
+      <c r="CZ18" s="16"/>
+      <c r="DA18" s="14"/>
+      <c r="DB18" s="14"/>
+      <c r="DC18" s="13"/>
+      <c r="DD18" s="16"/>
+      <c r="DE18" s="16"/>
+      <c r="DF18" s="16"/>
+      <c r="DG18" s="16"/>
+      <c r="DH18" s="14"/>
+      <c r="DI18" s="14"/>
+      <c r="DJ18" s="13"/>
+      <c r="DK18" s="16"/>
+      <c r="DL18" s="16"/>
+      <c r="DM18" s="16"/>
+      <c r="DN18" s="16"/>
+      <c r="DO18" s="14"/>
+      <c r="DP18" s="14"/>
+      <c r="DQ18" s="17"/>
+      <c r="DR18" s="67"/>
+      <c r="DS18" s="16"/>
+      <c r="DT18" s="16"/>
+      <c r="DU18" s="16"/>
+      <c r="DV18" s="14"/>
+      <c r="DW18" s="14"/>
+      <c r="DX18" s="14"/>
+      <c r="DY18" s="16"/>
+      <c r="DZ18" s="16"/>
+      <c r="EA18" s="16"/>
+      <c r="EB18" s="16"/>
+      <c r="EC18" s="14"/>
+      <c r="ED18" s="14"/>
+      <c r="EE18" s="13"/>
+      <c r="EF18" s="16"/>
+      <c r="EG18" s="16"/>
+      <c r="EH18" s="16"/>
+      <c r="EI18" s="16"/>
+      <c r="EJ18" s="14"/>
+      <c r="EK18" s="14"/>
+      <c r="EL18" s="13"/>
+      <c r="EM18" s="14"/>
+      <c r="EN18" s="16"/>
+      <c r="EO18" s="16"/>
+      <c r="EP18" s="16"/>
+      <c r="EQ18" s="14"/>
+      <c r="ER18" s="14"/>
+      <c r="ES18" s="13"/>
+      <c r="ET18" s="13"/>
+      <c r="EU18" s="13"/>
+      <c r="EV18" s="17"/>
+    </row>
+    <row r="19" spans="1:152" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="123"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="68"/>
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="21"/>
+      <c r="AM19" s="21"/>
+      <c r="AN19" s="21"/>
+      <c r="AO19" s="21"/>
+      <c r="AP19" s="20"/>
+      <c r="AQ19" s="20"/>
+      <c r="AR19" s="19"/>
+      <c r="AS19" s="21"/>
+      <c r="AT19" s="21"/>
+      <c r="AU19" s="20"/>
+      <c r="AV19" s="20"/>
+      <c r="AW19" s="20"/>
+      <c r="AX19" s="20"/>
+      <c r="AY19" s="19"/>
+      <c r="AZ19" s="21"/>
+      <c r="BA19" s="21"/>
+      <c r="BB19" s="21"/>
+      <c r="BC19" s="21"/>
+      <c r="BD19" s="20"/>
+      <c r="BE19" s="20"/>
+      <c r="BF19" s="19"/>
+      <c r="BG19" s="21"/>
+      <c r="BH19" s="27"/>
+      <c r="BI19" s="20"/>
+      <c r="BJ19" s="21"/>
+      <c r="BK19" s="20"/>
+      <c r="BL19" s="115"/>
+      <c r="BM19" s="113"/>
+      <c r="BN19" s="115"/>
+      <c r="BO19" s="115"/>
+      <c r="BP19" s="115"/>
+      <c r="BQ19" s="21"/>
+      <c r="BR19" s="20"/>
+      <c r="BS19" s="20"/>
+      <c r="BT19" s="16"/>
+      <c r="BU19" s="21"/>
+      <c r="BV19" s="21"/>
+      <c r="BW19" s="21"/>
+      <c r="BX19" s="21"/>
+      <c r="BY19" s="20"/>
+      <c r="BZ19" s="20"/>
+      <c r="CA19" s="19"/>
+      <c r="CB19" s="21"/>
+      <c r="CC19" s="21"/>
+      <c r="CD19" s="21"/>
+      <c r="CE19" s="21"/>
+      <c r="CF19" s="20"/>
+      <c r="CG19" s="20"/>
+      <c r="CH19" s="19"/>
+      <c r="CI19" s="21"/>
+      <c r="CJ19" s="21"/>
+      <c r="CK19" s="21"/>
+      <c r="CL19" s="21"/>
+      <c r="CM19" s="20"/>
+      <c r="CN19" s="26"/>
+      <c r="CO19" s="19"/>
+      <c r="CP19" s="21"/>
+      <c r="CQ19" s="21"/>
+      <c r="CR19" s="21"/>
+      <c r="CS19" s="21"/>
+      <c r="CT19" s="20"/>
+      <c r="CU19" s="20"/>
+      <c r="CV19" s="16"/>
+      <c r="CW19" s="21"/>
+      <c r="CX19" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="CY19" s="21"/>
+      <c r="CZ19" s="21"/>
+      <c r="DA19" s="20"/>
+      <c r="DB19" s="20"/>
+      <c r="DC19" s="19"/>
+      <c r="DD19" s="21"/>
+      <c r="DE19" s="21"/>
+      <c r="DF19" s="21"/>
+      <c r="DG19" s="21"/>
+      <c r="DH19" s="20"/>
+      <c r="DI19" s="20"/>
+      <c r="DJ19" s="19"/>
+      <c r="DK19" s="21"/>
+      <c r="DL19" s="21"/>
+      <c r="DM19" s="21"/>
+      <c r="DN19" s="21"/>
+      <c r="DO19" s="20"/>
+      <c r="DP19" s="20"/>
+      <c r="DQ19" s="22"/>
+      <c r="DR19" s="70"/>
+      <c r="DS19" s="71"/>
+      <c r="DT19" s="71"/>
+      <c r="DU19" s="71"/>
+      <c r="DV19" s="72"/>
+      <c r="DW19" s="72"/>
+      <c r="DX19" s="72"/>
+      <c r="DY19" s="71"/>
+      <c r="DZ19" s="71"/>
+      <c r="EA19" s="71"/>
+      <c r="EB19" s="71"/>
+      <c r="EC19" s="72"/>
+      <c r="ED19" s="72"/>
+      <c r="EE19" s="73"/>
+      <c r="EF19" s="71"/>
+      <c r="EG19" s="71"/>
+      <c r="EH19" s="71"/>
+      <c r="EI19" s="71"/>
+      <c r="EJ19" s="72"/>
+      <c r="EK19" s="72"/>
+      <c r="EL19" s="73"/>
+      <c r="EM19" s="72"/>
+      <c r="EN19" s="71"/>
+      <c r="EO19" s="71"/>
+      <c r="EP19" s="71"/>
+      <c r="EQ19" s="72"/>
+      <c r="ER19" s="72"/>
+      <c r="ES19" s="73"/>
+      <c r="ET19" s="73"/>
+      <c r="EU19" s="73"/>
+      <c r="EV19" s="98"/>
+    </row>
+    <row r="20" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="125" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="75"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="76"/>
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="76"/>
+      <c r="AA20" s="76"/>
+      <c r="AB20" s="77"/>
+      <c r="AC20" s="77"/>
+      <c r="AD20" s="76"/>
+      <c r="AE20" s="76"/>
+      <c r="AF20" s="86"/>
+      <c r="AG20" s="82"/>
+      <c r="AH20" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI20" s="80"/>
+      <c r="AJ20" s="80"/>
+      <c r="AK20" s="76"/>
+      <c r="AL20" s="76"/>
+      <c r="AM20" s="86"/>
+      <c r="AN20" s="76"/>
+      <c r="AO20" s="76"/>
+      <c r="AP20" s="77"/>
+      <c r="AQ20" s="77"/>
+      <c r="AR20" s="76"/>
+      <c r="AS20" s="76"/>
+      <c r="AT20" s="86"/>
+      <c r="AU20" s="77"/>
+      <c r="AV20" s="77"/>
+      <c r="AW20" s="77"/>
+      <c r="AX20" s="77"/>
+      <c r="AY20" s="76"/>
+      <c r="AZ20" s="76"/>
+      <c r="BA20" s="86"/>
+      <c r="BB20" s="76"/>
+      <c r="BC20" s="121" t="s">
+        <v>48</v>
+      </c>
+      <c r="BD20" s="77"/>
+      <c r="BE20" s="77"/>
+      <c r="BF20" s="76"/>
+      <c r="BG20" s="76"/>
+      <c r="BH20" s="89"/>
+      <c r="BI20" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="BJ20" s="76"/>
+      <c r="BK20" s="77"/>
+      <c r="BL20" s="116"/>
+      <c r="BM20" s="116"/>
+      <c r="BN20" s="116"/>
+      <c r="BO20" s="117"/>
+      <c r="BP20" s="116"/>
+      <c r="BQ20" s="76"/>
+      <c r="BR20" s="77"/>
+      <c r="BS20" s="77"/>
+      <c r="BT20" s="76"/>
+      <c r="BU20" s="76"/>
+      <c r="BV20" s="86"/>
+      <c r="BW20" s="76"/>
+      <c r="BX20" s="76"/>
+      <c r="BY20" s="77"/>
+      <c r="BZ20" s="77"/>
+      <c r="CA20" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="CB20" s="76"/>
+      <c r="CC20" s="86"/>
+      <c r="CD20" s="76"/>
+      <c r="CE20" s="76"/>
+      <c r="CF20" s="77"/>
+      <c r="CG20" s="77"/>
+      <c r="CH20" s="76"/>
+      <c r="CI20" s="76"/>
+      <c r="CJ20" s="86"/>
+      <c r="CK20" s="76"/>
+      <c r="CL20" s="76"/>
+      <c r="CM20" s="77"/>
+      <c r="CN20" s="75"/>
+      <c r="CO20" s="76"/>
+      <c r="CP20" s="76"/>
+      <c r="CQ20" s="86"/>
+      <c r="CR20" s="76"/>
+      <c r="CS20" s="76"/>
+      <c r="CT20" s="77"/>
+      <c r="CU20" s="77"/>
+      <c r="CV20" s="76"/>
+      <c r="CW20" s="76"/>
+      <c r="CX20" s="86"/>
+      <c r="CY20" s="76"/>
+      <c r="CZ20" s="76"/>
+      <c r="DA20" s="77"/>
+      <c r="DB20" s="77"/>
+      <c r="DC20" s="76"/>
+      <c r="DD20" s="76"/>
+      <c r="DE20" s="86"/>
+      <c r="DF20" s="76"/>
+      <c r="DG20" s="76"/>
+      <c r="DH20" s="77"/>
+      <c r="DI20" s="77"/>
+      <c r="DJ20" s="76"/>
+      <c r="DK20" s="76"/>
+      <c r="DL20" s="86"/>
+      <c r="DM20" s="76"/>
+      <c r="DN20" s="76"/>
+      <c r="DO20" s="77"/>
+      <c r="DP20" s="77"/>
+      <c r="DQ20" s="84"/>
+      <c r="DR20" s="82"/>
+      <c r="DS20" s="76"/>
+      <c r="DT20" s="76"/>
+      <c r="DU20" s="76"/>
+      <c r="DV20" s="77"/>
+      <c r="DW20" s="77"/>
+      <c r="DX20" s="77"/>
+      <c r="DY20" s="76"/>
+      <c r="DZ20" s="76"/>
+      <c r="EA20" s="76"/>
+      <c r="EB20" s="76"/>
+      <c r="EC20" s="77"/>
+      <c r="ED20" s="77"/>
+      <c r="EE20" s="78"/>
+      <c r="EF20" s="76"/>
+      <c r="EG20" s="76"/>
+      <c r="EH20" s="76"/>
+      <c r="EI20" s="76"/>
+      <c r="EJ20" s="77"/>
+      <c r="EK20" s="77"/>
+      <c r="EL20" s="78"/>
+      <c r="EM20" s="77"/>
+      <c r="EN20" s="76"/>
+      <c r="EO20" s="76"/>
+      <c r="EP20" s="76"/>
+      <c r="EQ20" s="77"/>
+      <c r="ER20" s="77"/>
+      <c r="ES20" s="78"/>
+      <c r="ET20" s="78"/>
+      <c r="EU20" s="78"/>
+      <c r="EV20" s="102"/>
+    </row>
+    <row r="21" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="123"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="16"/>
+      <c r="AG21" s="67"/>
+      <c r="AH21" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="56"/>
+      <c r="AJ21" s="56"/>
+      <c r="AK21" s="16"/>
+      <c r="AL21" s="16"/>
+      <c r="AM21" s="16"/>
+      <c r="AN21" s="16"/>
+      <c r="AO21" s="16"/>
+      <c r="AP21" s="14"/>
+      <c r="AQ21" s="14"/>
+      <c r="AR21" s="16"/>
+      <c r="AS21" s="16"/>
+      <c r="AT21" s="16"/>
+      <c r="AU21" s="14"/>
+      <c r="AV21" s="14"/>
+      <c r="AW21" s="14"/>
+      <c r="AX21" s="14"/>
+      <c r="AY21" s="23"/>
+      <c r="AZ21" s="16"/>
+      <c r="BA21" s="16"/>
+      <c r="BB21" s="16"/>
+      <c r="BC21" s="16"/>
+      <c r="BD21" s="14"/>
+      <c r="BE21" s="14"/>
+      <c r="BF21" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG21" s="16"/>
+      <c r="BH21" s="25"/>
+      <c r="BI21" s="14"/>
+      <c r="BJ21" s="16"/>
+      <c r="BK21" s="14"/>
+      <c r="BL21" s="113"/>
+      <c r="BM21" s="113"/>
+      <c r="BN21" s="113"/>
+      <c r="BO21" s="113"/>
+      <c r="BP21" s="113"/>
+      <c r="BQ21" s="16"/>
+      <c r="BR21" s="14"/>
+      <c r="BS21" s="14"/>
+      <c r="BT21" s="16"/>
+      <c r="BU21" s="16"/>
+      <c r="BV21" s="16"/>
+      <c r="BW21" s="16"/>
+      <c r="BX21" s="16"/>
+      <c r="BY21" s="14"/>
+      <c r="BZ21" s="14"/>
+      <c r="CA21" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="CB21" s="16"/>
+      <c r="CC21" s="16"/>
+      <c r="CD21" s="16"/>
+      <c r="CE21" s="16"/>
+      <c r="CF21" s="14"/>
+      <c r="CG21" s="14"/>
+      <c r="CH21" s="16"/>
+      <c r="CI21" s="16"/>
+      <c r="CJ21" s="16"/>
+      <c r="CK21" s="16"/>
+      <c r="CL21" s="16"/>
+      <c r="CM21" s="14"/>
+      <c r="CN21" s="24"/>
+      <c r="CO21" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="CP21" s="16"/>
+      <c r="CQ21" s="16"/>
+      <c r="CR21" s="16"/>
+      <c r="CS21" s="16"/>
+      <c r="CT21" s="14"/>
+      <c r="CU21" s="14"/>
+      <c r="CV21" s="16"/>
+      <c r="CW21" s="16"/>
+      <c r="CX21" s="16"/>
+      <c r="CY21" s="16"/>
+      <c r="CZ21" s="16"/>
+      <c r="DA21" s="14"/>
+      <c r="DB21" s="14"/>
+      <c r="DC21" s="16"/>
+      <c r="DD21" s="16"/>
+      <c r="DE21" s="16"/>
+      <c r="DF21" s="16"/>
+      <c r="DG21" s="16"/>
+      <c r="DH21" s="14"/>
+      <c r="DI21" s="14"/>
+      <c r="DJ21" s="16"/>
+      <c r="DK21" s="16"/>
+      <c r="DL21" s="16"/>
+      <c r="DM21" s="16"/>
+      <c r="DN21" s="16"/>
+      <c r="DO21" s="14"/>
+      <c r="DP21" s="14"/>
+      <c r="DQ21" s="25"/>
+      <c r="DR21" s="67"/>
+      <c r="DS21" s="16"/>
+      <c r="DT21" s="16"/>
+      <c r="DU21" s="16"/>
+      <c r="DV21" s="14"/>
+      <c r="DW21" s="14"/>
+      <c r="DX21" s="14"/>
+      <c r="DY21" s="16"/>
+      <c r="DZ21" s="16"/>
+      <c r="EA21" s="16"/>
+      <c r="EB21" s="16"/>
+      <c r="EC21" s="14"/>
+      <c r="ED21" s="14"/>
+      <c r="EE21" s="13"/>
+      <c r="EF21" s="16"/>
+      <c r="EG21" s="16"/>
+      <c r="EH21" s="16"/>
+      <c r="EI21" s="16"/>
+      <c r="EJ21" s="14"/>
+      <c r="EK21" s="14"/>
+      <c r="EL21" s="13"/>
+      <c r="EM21" s="14"/>
+      <c r="EN21" s="16"/>
+      <c r="EO21" s="16"/>
+      <c r="EP21" s="16"/>
+      <c r="EQ21" s="14"/>
+      <c r="ER21" s="14"/>
+      <c r="ES21" s="13"/>
+      <c r="ET21" s="13"/>
+      <c r="EU21" s="13"/>
+      <c r="EV21" s="17"/>
+    </row>
+    <row r="22" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="123"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="16"/>
+      <c r="AG22" s="67"/>
+      <c r="AH22" s="16"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="14"/>
+      <c r="AK22" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL22" s="16"/>
+      <c r="AM22" s="16"/>
+      <c r="AN22" s="16"/>
+      <c r="AO22" s="16"/>
+      <c r="AP22" s="14"/>
+      <c r="AQ22" s="14"/>
+      <c r="AR22" s="16"/>
+      <c r="AS22" s="16"/>
+      <c r="AT22" s="16"/>
+      <c r="AU22" s="14"/>
+      <c r="AV22" s="14"/>
+      <c r="AW22" s="14"/>
+      <c r="AX22" s="14"/>
+      <c r="AY22" s="16"/>
+      <c r="AZ22" s="16"/>
+      <c r="BA22" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB22" s="90"/>
+      <c r="BC22" s="16"/>
+      <c r="BD22" s="14"/>
+      <c r="BE22" s="14"/>
+      <c r="BF22" s="16"/>
+      <c r="BG22" s="16"/>
+      <c r="BH22" s="25"/>
+      <c r="BI22" s="14"/>
+      <c r="BJ22" s="16"/>
+      <c r="BK22" s="14"/>
+      <c r="BL22" s="113"/>
+      <c r="BM22" s="113"/>
+      <c r="BN22" s="113"/>
+      <c r="BO22" s="113"/>
+      <c r="BP22" s="113"/>
+      <c r="BQ22" s="16"/>
+      <c r="BR22" s="14"/>
+      <c r="BS22" s="14"/>
+      <c r="BT22" s="16"/>
+      <c r="BU22" s="16"/>
+      <c r="BV22" s="16"/>
+      <c r="BW22" s="16"/>
+      <c r="BX22" s="16"/>
+      <c r="BY22" s="14"/>
+      <c r="BZ22" s="14"/>
+      <c r="CA22" s="16"/>
+      <c r="CB22" s="16"/>
+      <c r="CC22" s="16"/>
+      <c r="CD22" s="16"/>
+      <c r="CE22" s="16"/>
+      <c r="CF22" s="14"/>
+      <c r="CG22" s="14"/>
+      <c r="CH22" s="16"/>
+      <c r="CI22" s="16"/>
+      <c r="CJ22" s="16"/>
+      <c r="CK22" s="16"/>
+      <c r="CL22" s="16"/>
+      <c r="CM22" s="14"/>
+      <c r="CN22" s="24"/>
+      <c r="CO22" s="16"/>
+      <c r="CP22" s="16"/>
+      <c r="CQ22" s="16"/>
+      <c r="CR22" s="16"/>
+      <c r="CS22" s="16"/>
+      <c r="CT22" s="14"/>
+      <c r="CU22" s="14"/>
+      <c r="CV22" s="16"/>
+      <c r="CW22" s="16"/>
+      <c r="CX22" s="16"/>
+      <c r="CY22" s="16"/>
+      <c r="CZ22" s="16"/>
+      <c r="DA22" s="14"/>
+      <c r="DB22" s="14"/>
+      <c r="DC22" s="16"/>
+      <c r="DD22" s="16"/>
+      <c r="DE22" s="16"/>
+      <c r="DF22" s="16"/>
+      <c r="DG22" s="16"/>
+      <c r="DH22" s="14"/>
+      <c r="DI22" s="14"/>
+      <c r="DJ22" s="16"/>
+      <c r="DK22" s="16"/>
+      <c r="DL22" s="16"/>
+      <c r="DM22" s="16"/>
+      <c r="DN22" s="16"/>
+      <c r="DO22" s="14"/>
+      <c r="DP22" s="14"/>
+      <c r="DQ22" s="25"/>
+      <c r="DR22" s="67"/>
+      <c r="DS22" s="16"/>
+      <c r="DT22" s="16"/>
+      <c r="DU22" s="16"/>
+      <c r="DV22" s="14"/>
+      <c r="DW22" s="14"/>
+      <c r="DX22" s="14"/>
+      <c r="DY22" s="16"/>
+      <c r="DZ22" s="16"/>
+      <c r="EA22" s="16"/>
+      <c r="EB22" s="16"/>
+      <c r="EC22" s="14"/>
+      <c r="ED22" s="14"/>
+      <c r="EE22" s="13"/>
+      <c r="EF22" s="16"/>
+      <c r="EG22" s="16"/>
+      <c r="EH22" s="16"/>
+      <c r="EI22" s="16"/>
+      <c r="EJ22" s="14"/>
+      <c r="EK22" s="14"/>
+      <c r="EL22" s="13"/>
+      <c r="EM22" s="14"/>
+      <c r="EN22" s="16"/>
+      <c r="EO22" s="16"/>
+      <c r="EP22" s="16"/>
+      <c r="EQ22" s="14"/>
+      <c r="ER22" s="14"/>
+      <c r="ES22" s="13"/>
+      <c r="ET22" s="13"/>
+      <c r="EU22" s="13"/>
+      <c r="EV22" s="17"/>
+    </row>
+    <row r="23" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="123"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM23" s="13"/>
+      <c r="AN23" s="13"/>
+      <c r="AO23" s="13"/>
+      <c r="AP23" s="14"/>
+      <c r="AQ23" s="14"/>
+      <c r="AR23" s="13"/>
+      <c r="AS23" s="13"/>
+      <c r="AT23" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU23" s="14"/>
+      <c r="AV23" s="14"/>
+      <c r="AW23" s="14"/>
+      <c r="AX23" s="14"/>
+      <c r="AY23" s="13"/>
+      <c r="AZ23" s="13"/>
+      <c r="BA23" s="13"/>
+      <c r="BB23" s="13"/>
+      <c r="BC23" s="13"/>
+      <c r="BD23" s="14"/>
+      <c r="BE23" s="14"/>
+      <c r="BF23" s="13"/>
+      <c r="BG23" s="13"/>
+      <c r="BH23" s="17"/>
+      <c r="BI23" s="14"/>
+      <c r="BJ23" s="13"/>
+      <c r="BK23" s="14"/>
+      <c r="BL23" s="113"/>
+      <c r="BM23" s="113"/>
+      <c r="BN23" s="113"/>
+      <c r="BO23" s="113"/>
+      <c r="BP23" s="113"/>
+      <c r="BQ23" s="13"/>
+      <c r="BR23" s="14"/>
+      <c r="BS23" s="14"/>
+      <c r="BT23" s="13"/>
+      <c r="BU23" s="13"/>
+      <c r="BV23" s="13"/>
+      <c r="BW23" s="13"/>
+      <c r="BX23" s="13"/>
+      <c r="BY23" s="14"/>
+      <c r="BZ23" s="14"/>
+      <c r="CA23" s="13"/>
+      <c r="CB23" s="13"/>
+      <c r="CC23" s="13"/>
+      <c r="CD23" s="13"/>
+      <c r="CE23" s="13"/>
+      <c r="CF23" s="14"/>
+      <c r="CG23" s="14"/>
+      <c r="CH23" s="13"/>
+      <c r="CI23" s="13"/>
+      <c r="CJ23" s="13"/>
+      <c r="CK23" s="13"/>
+      <c r="CL23" s="13"/>
+      <c r="CM23" s="14"/>
+      <c r="CN23" s="24"/>
+      <c r="CO23" s="13"/>
+      <c r="CP23" s="13"/>
+      <c r="CQ23" s="13"/>
+      <c r="CR23" s="13"/>
+      <c r="CS23" s="13"/>
+      <c r="CT23" s="14"/>
+      <c r="CU23" s="14"/>
+      <c r="CV23" s="13"/>
+      <c r="CW23" s="13"/>
+      <c r="CX23" s="13"/>
+      <c r="CY23" s="13"/>
+      <c r="CZ23" s="13"/>
+      <c r="DA23" s="14"/>
+      <c r="DB23" s="14"/>
+      <c r="DC23" s="13"/>
+      <c r="DD23" s="13"/>
+      <c r="DE23" s="13"/>
+      <c r="DF23" s="13"/>
+      <c r="DG23" s="13"/>
+      <c r="DH23" s="14"/>
+      <c r="DI23" s="14"/>
+      <c r="DJ23" s="13"/>
+      <c r="DK23" s="13"/>
+      <c r="DL23" s="13"/>
+      <c r="DM23" s="13"/>
+      <c r="DN23" s="13"/>
+      <c r="DO23" s="14"/>
+      <c r="DP23" s="14"/>
+      <c r="DQ23" s="17"/>
+      <c r="DR23" s="67"/>
+      <c r="DS23" s="16"/>
+      <c r="DT23" s="16"/>
+      <c r="DU23" s="16"/>
+      <c r="DV23" s="14"/>
+      <c r="DW23" s="14"/>
+      <c r="DX23" s="14"/>
+      <c r="DY23" s="16"/>
+      <c r="DZ23" s="16"/>
+      <c r="EA23" s="16"/>
+      <c r="EB23" s="16"/>
+      <c r="EC23" s="14"/>
+      <c r="ED23" s="14"/>
+      <c r="EE23" s="13"/>
+      <c r="EF23" s="16"/>
+      <c r="EG23" s="16"/>
+      <c r="EH23" s="16"/>
+      <c r="EI23" s="16"/>
+      <c r="EJ23" s="14"/>
+      <c r="EK23" s="14"/>
+      <c r="EL23" s="13"/>
+      <c r="EM23" s="14"/>
+      <c r="EN23" s="16"/>
+      <c r="EO23" s="16"/>
+      <c r="EP23" s="16"/>
+      <c r="EQ23" s="14"/>
+      <c r="ER23" s="14"/>
+      <c r="ES23" s="13"/>
+      <c r="ET23" s="13"/>
+      <c r="EU23" s="13"/>
+      <c r="EV23" s="17"/>
+    </row>
+    <row r="24" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="124"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="92"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="92"/>
+      <c r="T24" s="92"/>
+      <c r="U24" s="93"/>
+      <c r="V24" s="93"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="92"/>
+      <c r="Y24" s="92"/>
+      <c r="Z24" s="92"/>
+      <c r="AA24" s="92"/>
+      <c r="AB24" s="93"/>
+      <c r="AC24" s="93"/>
+      <c r="AD24" s="92"/>
+      <c r="AE24" s="92"/>
+      <c r="AF24" s="92"/>
+      <c r="AG24" s="94"/>
+      <c r="AH24" s="92"/>
+      <c r="AI24" s="93"/>
+      <c r="AJ24" s="93"/>
+      <c r="AK24" s="92"/>
+      <c r="AL24" s="92"/>
+      <c r="AM24" s="92"/>
+      <c r="AN24" s="92"/>
+      <c r="AO24" s="92"/>
+      <c r="AP24" s="93"/>
+      <c r="AQ24" s="93"/>
+      <c r="AR24" s="92"/>
+      <c r="AS24" s="92"/>
+      <c r="AT24" s="92"/>
+      <c r="AU24" s="93"/>
+      <c r="AV24" s="93"/>
+      <c r="AW24" s="93"/>
+      <c r="AX24" s="93"/>
+      <c r="AY24" s="92"/>
+      <c r="AZ24" s="92"/>
+      <c r="BA24" s="92"/>
+      <c r="BB24" s="92"/>
+      <c r="BC24" s="92"/>
+      <c r="BD24" s="93"/>
+      <c r="BE24" s="93"/>
+      <c r="BF24" s="92"/>
+      <c r="BG24" s="92"/>
+      <c r="BH24" s="95"/>
+      <c r="BI24" s="93"/>
+      <c r="BJ24" s="92"/>
+      <c r="BK24" s="93"/>
+      <c r="BL24" s="118"/>
+      <c r="BM24" s="118"/>
+      <c r="BN24" s="118"/>
+      <c r="BO24" s="118"/>
+      <c r="BP24" s="118"/>
+      <c r="BQ24" s="92"/>
+      <c r="BR24" s="93"/>
+      <c r="BS24" s="93"/>
+      <c r="BT24" s="92"/>
+      <c r="BU24" s="92"/>
+      <c r="BV24" s="92"/>
+      <c r="BW24" s="92"/>
+      <c r="BX24" s="92"/>
+      <c r="BY24" s="93"/>
+      <c r="BZ24" s="93"/>
+      <c r="CA24" s="92"/>
+      <c r="CB24" s="92"/>
+      <c r="CC24" s="92"/>
+      <c r="CD24" s="92"/>
+      <c r="CE24" s="92"/>
+      <c r="CF24" s="93"/>
+      <c r="CG24" s="93"/>
+      <c r="CH24" s="92"/>
+      <c r="CI24" s="92"/>
+      <c r="CJ24" s="92"/>
+      <c r="CK24" s="92"/>
+      <c r="CL24" s="92"/>
+      <c r="CM24" s="93"/>
+      <c r="CN24" s="91"/>
+      <c r="CO24" s="92"/>
+      <c r="CP24" s="92"/>
+      <c r="CQ24" s="92"/>
+      <c r="CR24" s="92"/>
+      <c r="CS24" s="92"/>
+      <c r="CT24" s="93"/>
+      <c r="CU24" s="93"/>
+      <c r="CV24" s="92"/>
+      <c r="CW24" s="92"/>
+      <c r="CX24" s="92"/>
+      <c r="CY24" s="92"/>
+      <c r="CZ24" s="92"/>
+      <c r="DA24" s="93"/>
+      <c r="DB24" s="93"/>
+      <c r="DC24" s="92"/>
+      <c r="DD24" s="92"/>
+      <c r="DE24" s="92"/>
+      <c r="DF24" s="92"/>
+      <c r="DG24" s="92"/>
+      <c r="DH24" s="93"/>
+      <c r="DI24" s="93"/>
+      <c r="DJ24" s="92"/>
+      <c r="DK24" s="92"/>
+      <c r="DL24" s="92"/>
+      <c r="DM24" s="92"/>
+      <c r="DN24" s="92"/>
+      <c r="DO24" s="93"/>
+      <c r="DP24" s="93"/>
+      <c r="DQ24" s="95"/>
+      <c r="DR24" s="70"/>
+      <c r="DS24" s="71"/>
+      <c r="DT24" s="71"/>
+      <c r="DU24" s="71"/>
+      <c r="DV24" s="72"/>
+      <c r="DW24" s="72"/>
+      <c r="DX24" s="72"/>
+      <c r="DY24" s="71"/>
+      <c r="DZ24" s="71"/>
+      <c r="EA24" s="71"/>
+      <c r="EB24" s="71"/>
+      <c r="EC24" s="72"/>
+      <c r="ED24" s="72"/>
+      <c r="EE24" s="73"/>
+      <c r="EF24" s="71"/>
+      <c r="EG24" s="71"/>
+      <c r="EH24" s="71"/>
+      <c r="EI24" s="71"/>
+      <c r="EJ24" s="72"/>
+      <c r="EK24" s="72"/>
+      <c r="EL24" s="73"/>
+      <c r="EM24" s="72"/>
+      <c r="EN24" s="71"/>
+      <c r="EO24" s="71"/>
+      <c r="EP24" s="71"/>
+      <c r="EQ24" s="72"/>
+      <c r="ER24" s="72"/>
+      <c r="ES24" s="73"/>
+      <c r="ET24" s="73"/>
+      <c r="EU24" s="73"/>
+      <c r="EV24" s="98"/>
+    </row>
+    <row r="25" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="125" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="75"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="76"/>
+      <c r="S25" s="76"/>
+      <c r="T25" s="76"/>
+      <c r="U25" s="77"/>
+      <c r="V25" s="77"/>
+      <c r="W25" s="83"/>
+      <c r="X25" s="76"/>
+      <c r="Y25" s="76"/>
+      <c r="Z25" s="76"/>
+      <c r="AA25" s="78"/>
+      <c r="AB25" s="77"/>
+      <c r="AC25" s="77"/>
+      <c r="AD25" s="78"/>
+      <c r="AE25" s="76"/>
+      <c r="AF25" s="76"/>
+      <c r="AG25" s="82"/>
+      <c r="AH25" s="83"/>
+      <c r="AI25" s="77"/>
+      <c r="AJ25" s="77"/>
+      <c r="AK25" s="78"/>
+      <c r="AL25" s="76"/>
+      <c r="AM25" s="76"/>
+      <c r="AN25" s="76"/>
+      <c r="AO25" s="83"/>
+      <c r="AP25" s="77"/>
+      <c r="AQ25" s="77"/>
+      <c r="AR25" s="78"/>
+      <c r="AS25" s="76"/>
+      <c r="AT25" s="83"/>
+      <c r="AU25" s="77"/>
+      <c r="AV25" s="77"/>
+      <c r="AW25" s="77"/>
+      <c r="AX25" s="77"/>
+      <c r="AY25" s="78"/>
+      <c r="AZ25" s="76"/>
+      <c r="BA25" s="76"/>
+      <c r="BB25" s="76"/>
+      <c r="BC25" s="76"/>
+      <c r="BD25" s="77"/>
+      <c r="BE25" s="77"/>
+      <c r="BF25" s="78"/>
+      <c r="BG25" s="76"/>
+      <c r="BH25" s="84"/>
+      <c r="BI25" s="77"/>
+      <c r="BJ25" s="76"/>
+      <c r="BK25" s="77"/>
+      <c r="BL25" s="116"/>
+      <c r="BM25" s="116"/>
+      <c r="BN25" s="116"/>
+      <c r="BO25" s="116"/>
+      <c r="BP25" s="116"/>
+      <c r="BQ25" s="76"/>
+      <c r="BR25" s="77"/>
+      <c r="BS25" s="77"/>
+      <c r="BT25" s="78"/>
+      <c r="BU25" s="76"/>
+      <c r="BV25" s="76"/>
+      <c r="BW25" s="76"/>
+      <c r="BX25" s="76"/>
+      <c r="BY25" s="77"/>
+      <c r="BZ25" s="77"/>
+      <c r="CA25" s="78"/>
+      <c r="CB25" s="76"/>
+      <c r="CC25" s="76"/>
+      <c r="CD25" s="76"/>
+      <c r="CE25" s="76"/>
+      <c r="CF25" s="77"/>
+      <c r="CG25" s="77"/>
+      <c r="CH25" s="78"/>
+      <c r="CI25" s="76"/>
+      <c r="CJ25" s="76"/>
+      <c r="CK25" s="76"/>
+      <c r="CL25" s="76"/>
+      <c r="CM25" s="77"/>
+      <c r="CN25" s="75"/>
+      <c r="CO25" s="78"/>
+      <c r="CP25" s="76"/>
+      <c r="CQ25" s="76"/>
+      <c r="CR25" s="76"/>
+      <c r="CS25" s="76"/>
+      <c r="CT25" s="77"/>
+      <c r="CU25" s="77"/>
+      <c r="CV25" s="78"/>
+      <c r="CW25" s="76"/>
+      <c r="CX25" s="76"/>
+      <c r="CY25" s="76"/>
+      <c r="CZ25" s="76"/>
+      <c r="DA25" s="77"/>
+      <c r="DB25" s="77"/>
+      <c r="DC25" s="78"/>
+      <c r="DD25" s="76"/>
+      <c r="DE25" s="76"/>
+      <c r="DF25" s="76"/>
+      <c r="DG25" s="76"/>
+      <c r="DH25" s="77"/>
+      <c r="DI25" s="77"/>
+      <c r="DJ25" s="78"/>
+      <c r="DK25" s="76"/>
+      <c r="DL25" s="76"/>
+      <c r="DM25" s="76"/>
+      <c r="DN25" s="76"/>
+      <c r="DO25" s="77"/>
+      <c r="DP25" s="77"/>
+      <c r="DQ25" s="84"/>
+      <c r="DR25" s="82"/>
+      <c r="DS25" s="76"/>
+      <c r="DT25" s="76"/>
+      <c r="DU25" s="76"/>
+      <c r="DV25" s="77"/>
+      <c r="DW25" s="77"/>
+      <c r="DX25" s="77"/>
+      <c r="DY25" s="76"/>
+      <c r="DZ25" s="76"/>
+      <c r="EA25" s="76"/>
+      <c r="EB25" s="76"/>
+      <c r="EC25" s="77"/>
+      <c r="ED25" s="77"/>
+      <c r="EE25" s="78"/>
+      <c r="EF25" s="76"/>
+      <c r="EG25" s="76"/>
+      <c r="EH25" s="76"/>
+      <c r="EI25" s="76"/>
+      <c r="EJ25" s="77"/>
+      <c r="EK25" s="77"/>
+      <c r="EL25" s="78"/>
+      <c r="EM25" s="77"/>
+      <c r="EN25" s="76"/>
+      <c r="EO25" s="76"/>
+      <c r="EP25" s="76"/>
+      <c r="EQ25" s="77"/>
+      <c r="ER25" s="77"/>
+      <c r="ES25" s="78"/>
+      <c r="ET25" s="78"/>
+      <c r="EU25" s="78"/>
+      <c r="EV25" s="102"/>
+    </row>
+    <row r="26" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="123"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="67"/>
+      <c r="AH26" s="23"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="14"/>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="16"/>
+      <c r="AM26" s="16"/>
+      <c r="AN26" s="16"/>
+      <c r="AO26" s="23"/>
+      <c r="AP26" s="14"/>
+      <c r="AQ26" s="14"/>
+      <c r="AR26" s="13"/>
+      <c r="AS26" s="16"/>
+      <c r="AT26" s="23"/>
+      <c r="AU26" s="14"/>
+      <c r="AV26" s="14"/>
+      <c r="AW26" s="14"/>
+      <c r="AX26" s="14"/>
+      <c r="AY26" s="13"/>
+      <c r="AZ26" s="16"/>
+      <c r="BA26" s="16"/>
+      <c r="BB26" s="16"/>
+      <c r="BC26" s="16"/>
+      <c r="BD26" s="14"/>
+      <c r="BE26" s="14"/>
+      <c r="BF26" s="13"/>
+      <c r="BG26" s="16"/>
+      <c r="BH26" s="25"/>
+      <c r="BI26" s="14"/>
+      <c r="BJ26" s="16"/>
+      <c r="BK26" s="14"/>
+      <c r="BL26" s="113"/>
+      <c r="BM26" s="113"/>
+      <c r="BN26" s="113"/>
+      <c r="BO26" s="113"/>
+      <c r="BP26" s="113"/>
+      <c r="BQ26" s="16"/>
+      <c r="BR26" s="14"/>
+      <c r="BS26" s="14"/>
+      <c r="BT26" s="13"/>
+      <c r="BU26" s="16"/>
+      <c r="BV26" s="16"/>
+      <c r="BW26" s="16"/>
+      <c r="BX26" s="16"/>
+      <c r="BY26" s="14"/>
+      <c r="BZ26" s="14"/>
+      <c r="CA26" s="13"/>
+      <c r="CB26" s="16"/>
+      <c r="CC26" s="16"/>
+      <c r="CD26" s="16"/>
+      <c r="CE26" s="16"/>
+      <c r="CF26" s="14"/>
+      <c r="CG26" s="14"/>
+      <c r="CH26" s="13"/>
+      <c r="CI26" s="16"/>
+      <c r="CJ26" s="16"/>
+      <c r="CK26" s="16"/>
+      <c r="CL26" s="16"/>
+      <c r="CM26" s="14"/>
+      <c r="CN26" s="24"/>
+      <c r="CO26" s="13"/>
+      <c r="CP26" s="16"/>
+      <c r="CQ26" s="16"/>
+      <c r="CR26" s="16"/>
+      <c r="CS26" s="16"/>
+      <c r="CT26" s="14"/>
+      <c r="CU26" s="14"/>
+      <c r="CV26" s="13"/>
+      <c r="CW26" s="16"/>
+      <c r="CX26" s="16"/>
+      <c r="CY26" s="16"/>
+      <c r="CZ26" s="16"/>
+      <c r="DA26" s="14"/>
+      <c r="DB26" s="14"/>
+      <c r="DC26" s="13"/>
+      <c r="DD26" s="16"/>
+      <c r="DE26" s="16"/>
+      <c r="DF26" s="16"/>
+      <c r="DG26" s="16"/>
+      <c r="DH26" s="14"/>
+      <c r="DI26" s="14"/>
+      <c r="DJ26" s="13"/>
+      <c r="DK26" s="16"/>
+      <c r="DL26" s="16"/>
+      <c r="DM26" s="16"/>
+      <c r="DN26" s="16"/>
+      <c r="DO26" s="14"/>
+      <c r="DP26" s="14"/>
+      <c r="DQ26" s="25"/>
+      <c r="DR26" s="67"/>
+      <c r="DS26" s="16"/>
+      <c r="DT26" s="16"/>
+      <c r="DU26" s="16"/>
+      <c r="DV26" s="14"/>
+      <c r="DW26" s="14"/>
+      <c r="DX26" s="14"/>
+      <c r="DY26" s="16"/>
+      <c r="DZ26" s="16"/>
+      <c r="EA26" s="16"/>
+      <c r="EB26" s="16"/>
+      <c r="EC26" s="14"/>
+      <c r="ED26" s="14"/>
+      <c r="EE26" s="13"/>
+      <c r="EF26" s="16"/>
+      <c r="EG26" s="16"/>
+      <c r="EH26" s="16"/>
+      <c r="EI26" s="16"/>
+      <c r="EJ26" s="14"/>
+      <c r="EK26" s="14"/>
+      <c r="EL26" s="13"/>
+      <c r="EM26" s="14"/>
+      <c r="EN26" s="16"/>
+      <c r="EO26" s="16"/>
+      <c r="EP26" s="16"/>
+      <c r="EQ26" s="14"/>
+      <c r="ER26" s="14"/>
+      <c r="ES26" s="13"/>
+      <c r="ET26" s="13"/>
+      <c r="EU26" s="13"/>
+      <c r="EV26" s="17"/>
+    </row>
+    <row r="27" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="123"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="16"/>
+      <c r="AG27" s="67"/>
+      <c r="AH27" s="16"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="14"/>
+      <c r="AK27" s="16"/>
+      <c r="AL27" s="16"/>
+      <c r="AM27" s="16"/>
+      <c r="AN27" s="16"/>
+      <c r="AO27" s="13"/>
+      <c r="AP27" s="14"/>
+      <c r="AQ27" s="14"/>
+      <c r="AR27" s="13"/>
+      <c r="AS27" s="16"/>
+      <c r="AT27" s="16"/>
+      <c r="AU27" s="14"/>
+      <c r="AV27" s="14"/>
+      <c r="AW27" s="14"/>
+      <c r="AX27" s="14"/>
+      <c r="AY27" s="13"/>
+      <c r="AZ27" s="16"/>
+      <c r="BA27" s="16"/>
+      <c r="BB27" s="16"/>
+      <c r="BC27" s="16"/>
+      <c r="BD27" s="14"/>
+      <c r="BE27" s="14"/>
+      <c r="BF27" s="16"/>
+      <c r="BG27" s="16"/>
+      <c r="BH27" s="25"/>
+      <c r="BI27" s="14"/>
+      <c r="BJ27" s="16"/>
+      <c r="BK27" s="14"/>
+      <c r="BL27" s="113"/>
+      <c r="BM27" s="113"/>
+      <c r="BN27" s="113"/>
+      <c r="BO27" s="113"/>
+      <c r="BP27" s="113"/>
+      <c r="BQ27" s="16"/>
+      <c r="BR27" s="14"/>
+      <c r="BS27" s="14"/>
+      <c r="BT27" s="13"/>
+      <c r="BU27" s="16"/>
+      <c r="BV27" s="16"/>
+      <c r="BW27" s="16"/>
+      <c r="BX27" s="16"/>
+      <c r="BY27" s="14"/>
+      <c r="BZ27" s="14"/>
+      <c r="CA27" s="13"/>
+      <c r="CB27" s="16"/>
+      <c r="CC27" s="16"/>
+      <c r="CD27" s="16"/>
+      <c r="CE27" s="16"/>
+      <c r="CF27" s="14"/>
+      <c r="CG27" s="14"/>
+      <c r="CH27" s="13"/>
+      <c r="CI27" s="16"/>
+      <c r="CJ27" s="16"/>
+      <c r="CK27" s="16"/>
+      <c r="CL27" s="16"/>
+      <c r="CM27" s="14"/>
+      <c r="CN27" s="24"/>
+      <c r="CO27" s="13"/>
+      <c r="CP27" s="16"/>
+      <c r="CQ27" s="16"/>
+      <c r="CR27" s="16"/>
+      <c r="CS27" s="16"/>
+      <c r="CT27" s="14"/>
+      <c r="CU27" s="14"/>
+      <c r="CV27" s="13"/>
+      <c r="CW27" s="16"/>
+      <c r="CX27" s="16"/>
+      <c r="CY27" s="16"/>
+      <c r="CZ27" s="16"/>
+      <c r="DA27" s="14"/>
+      <c r="DB27" s="14"/>
+      <c r="DC27" s="13"/>
+      <c r="DD27" s="16"/>
+      <c r="DE27" s="16"/>
+      <c r="DF27" s="16"/>
+      <c r="DG27" s="16"/>
+      <c r="DH27" s="14"/>
+      <c r="DI27" s="14"/>
+      <c r="DJ27" s="13"/>
+      <c r="DK27" s="16"/>
+      <c r="DL27" s="16"/>
+      <c r="DM27" s="16"/>
+      <c r="DN27" s="16"/>
+      <c r="DO27" s="14"/>
+      <c r="DP27" s="14"/>
+      <c r="DQ27" s="25"/>
+      <c r="DR27" s="67"/>
+      <c r="DS27" s="16"/>
+      <c r="DT27" s="16"/>
+      <c r="DU27" s="16"/>
+      <c r="DV27" s="14"/>
+      <c r="DW27" s="14"/>
+      <c r="DX27" s="14"/>
+      <c r="DY27" s="16"/>
+      <c r="DZ27" s="16"/>
+      <c r="EA27" s="16"/>
+      <c r="EB27" s="16"/>
+      <c r="EC27" s="14"/>
+      <c r="ED27" s="14"/>
+      <c r="EE27" s="13"/>
+      <c r="EF27" s="16"/>
+      <c r="EG27" s="16"/>
+      <c r="EH27" s="16"/>
+      <c r="EI27" s="16"/>
+      <c r="EJ27" s="14"/>
+      <c r="EK27" s="14"/>
+      <c r="EL27" s="13"/>
+      <c r="EM27" s="14"/>
+      <c r="EN27" s="16"/>
+      <c r="EO27" s="16"/>
+      <c r="EP27" s="16"/>
+      <c r="EQ27" s="14"/>
+      <c r="ER27" s="14"/>
+      <c r="ES27" s="13"/>
+      <c r="ET27" s="13"/>
+      <c r="EU27" s="13"/>
+      <c r="EV27" s="17"/>
+    </row>
+    <row r="28" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="123"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="16"/>
+      <c r="AG28" s="67"/>
+      <c r="AH28" s="16"/>
+      <c r="AI28" s="14"/>
+      <c r="AJ28" s="14"/>
+      <c r="AK28" s="13"/>
+      <c r="AL28" s="16"/>
+      <c r="AM28" s="16"/>
+      <c r="AN28" s="16"/>
+      <c r="AO28" s="16"/>
+      <c r="AP28" s="14"/>
+      <c r="AQ28" s="14"/>
+      <c r="AR28" s="13"/>
+      <c r="AS28" s="16"/>
+      <c r="AT28" s="16"/>
+      <c r="AU28" s="14"/>
+      <c r="AV28" s="14"/>
+      <c r="AW28" s="14"/>
+      <c r="AX28" s="14"/>
+      <c r="AY28" s="13"/>
+      <c r="AZ28" s="16"/>
+      <c r="BA28" s="16"/>
+      <c r="BB28" s="16"/>
+      <c r="BC28" s="16"/>
+      <c r="BD28" s="14"/>
+      <c r="BE28" s="14"/>
+      <c r="BF28" s="13"/>
+      <c r="BG28" s="16"/>
+      <c r="BH28" s="25"/>
+      <c r="BI28" s="14"/>
+      <c r="BJ28" s="16"/>
+      <c r="BK28" s="14"/>
+      <c r="BL28" s="113"/>
+      <c r="BM28" s="113"/>
+      <c r="BN28" s="113"/>
+      <c r="BO28" s="113"/>
+      <c r="BP28" s="113"/>
+      <c r="BQ28" s="16"/>
+      <c r="BR28" s="14"/>
+      <c r="BS28" s="14"/>
+      <c r="BT28" s="13"/>
+      <c r="BU28" s="16"/>
+      <c r="BV28" s="16"/>
+      <c r="BW28" s="16"/>
+      <c r="BX28" s="16"/>
+      <c r="BY28" s="14"/>
+      <c r="BZ28" s="14"/>
+      <c r="CA28" s="13"/>
+      <c r="CB28" s="16"/>
+      <c r="CC28" s="16"/>
+      <c r="CD28" s="16"/>
+      <c r="CE28" s="16"/>
+      <c r="CF28" s="14"/>
+      <c r="CG28" s="14"/>
+      <c r="CH28" s="13"/>
+      <c r="CI28" s="16"/>
+      <c r="CJ28" s="16"/>
+      <c r="CK28" s="16"/>
+      <c r="CL28" s="16"/>
+      <c r="CM28" s="14"/>
+      <c r="CN28" s="24"/>
+      <c r="CO28" s="13"/>
+      <c r="CP28" s="16"/>
+      <c r="CQ28" s="16"/>
+      <c r="CR28" s="16"/>
+      <c r="CS28" s="16"/>
+      <c r="CT28" s="14"/>
+      <c r="CU28" s="14"/>
+      <c r="CV28" s="13"/>
+      <c r="CW28" s="16"/>
+      <c r="CX28" s="16"/>
+      <c r="CY28" s="16"/>
+      <c r="CZ28" s="16"/>
+      <c r="DA28" s="14"/>
+      <c r="DB28" s="14"/>
+      <c r="DC28" s="13"/>
+      <c r="DD28" s="16"/>
+      <c r="DE28" s="16"/>
+      <c r="DF28" s="16"/>
+      <c r="DG28" s="16"/>
+      <c r="DH28" s="14"/>
+      <c r="DI28" s="14"/>
+      <c r="DJ28" s="13"/>
+      <c r="DK28" s="16"/>
+      <c r="DL28" s="16"/>
+      <c r="DM28" s="16"/>
+      <c r="DN28" s="16"/>
+      <c r="DO28" s="14"/>
+      <c r="DP28" s="14"/>
+      <c r="DQ28" s="17"/>
+      <c r="DR28" s="67"/>
+      <c r="DS28" s="16"/>
+      <c r="DT28" s="16"/>
+      <c r="DU28" s="16"/>
+      <c r="DV28" s="14"/>
+      <c r="DW28" s="14"/>
+      <c r="DX28" s="14"/>
+      <c r="DY28" s="16"/>
+      <c r="DZ28" s="16"/>
+      <c r="EA28" s="16"/>
+      <c r="EB28" s="16"/>
+      <c r="EC28" s="14"/>
+      <c r="ED28" s="14"/>
+      <c r="EE28" s="13"/>
+      <c r="EF28" s="16"/>
+      <c r="EG28" s="16"/>
+      <c r="EH28" s="16"/>
+      <c r="EI28" s="16"/>
+      <c r="EJ28" s="14"/>
+      <c r="EK28" s="14"/>
+      <c r="EL28" s="13"/>
+      <c r="EM28" s="14"/>
+      <c r="EN28" s="16"/>
+      <c r="EO28" s="16"/>
+      <c r="EP28" s="16"/>
+      <c r="EQ28" s="14"/>
+      <c r="ER28" s="14"/>
+      <c r="ES28" s="13"/>
+      <c r="ET28" s="13"/>
+      <c r="EU28" s="13"/>
+      <c r="EV28" s="17"/>
+    </row>
+    <row r="29" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="123"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="73"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="71"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="71"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="73"/>
+      <c r="AE29" s="71"/>
+      <c r="AF29" s="71"/>
+      <c r="AG29" s="70"/>
+      <c r="AH29" s="71"/>
+      <c r="AI29" s="72"/>
+      <c r="AJ29" s="72"/>
+      <c r="AK29" s="73"/>
+      <c r="AL29" s="71"/>
+      <c r="AM29" s="71"/>
+      <c r="AN29" s="71"/>
+      <c r="AO29" s="71"/>
+      <c r="AP29" s="72"/>
+      <c r="AQ29" s="72"/>
+      <c r="AR29" s="73"/>
+      <c r="AS29" s="71"/>
+      <c r="AT29" s="71"/>
+      <c r="AU29" s="72"/>
+      <c r="AV29" s="72"/>
+      <c r="AW29" s="72"/>
+      <c r="AX29" s="72"/>
+      <c r="AY29" s="73"/>
+      <c r="AZ29" s="71"/>
+      <c r="BA29" s="71"/>
+      <c r="BB29" s="71"/>
+      <c r="BC29" s="71"/>
+      <c r="BD29" s="72"/>
+      <c r="BE29" s="72"/>
+      <c r="BF29" s="73"/>
+      <c r="BG29" s="71"/>
+      <c r="BH29" s="74"/>
+      <c r="BI29" s="72"/>
+      <c r="BJ29" s="71"/>
+      <c r="BK29" s="72"/>
+      <c r="BL29" s="119"/>
+      <c r="BM29" s="119"/>
+      <c r="BN29" s="119"/>
+      <c r="BO29" s="119"/>
+      <c r="BP29" s="119"/>
+      <c r="BQ29" s="71"/>
+      <c r="BR29" s="72"/>
+      <c r="BS29" s="72"/>
+      <c r="BT29" s="73"/>
+      <c r="BU29" s="71"/>
+      <c r="BV29" s="71"/>
+      <c r="BW29" s="71"/>
+      <c r="BX29" s="71"/>
+      <c r="BY29" s="72"/>
+      <c r="BZ29" s="72"/>
+      <c r="CA29" s="73"/>
+      <c r="CB29" s="71"/>
+      <c r="CC29" s="71"/>
+      <c r="CD29" s="71"/>
+      <c r="CE29" s="71"/>
+      <c r="CF29" s="72"/>
+      <c r="CG29" s="72"/>
+      <c r="CH29" s="73"/>
+      <c r="CI29" s="71"/>
+      <c r="CJ29" s="71"/>
+      <c r="CK29" s="71"/>
+      <c r="CL29" s="71"/>
+      <c r="CM29" s="72"/>
+      <c r="CN29" s="85"/>
+      <c r="CO29" s="73"/>
+      <c r="CP29" s="71"/>
+      <c r="CQ29" s="71"/>
+      <c r="CR29" s="71"/>
+      <c r="CS29" s="71"/>
+      <c r="CT29" s="72"/>
+      <c r="CU29" s="72"/>
+      <c r="CV29" s="73"/>
+      <c r="CW29" s="71"/>
+      <c r="CX29" s="71"/>
+      <c r="CY29" s="71"/>
+      <c r="CZ29" s="71"/>
+      <c r="DA29" s="72"/>
+      <c r="DB29" s="72"/>
+      <c r="DC29" s="73"/>
+      <c r="DD29" s="71"/>
+      <c r="DE29" s="71"/>
+      <c r="DF29" s="71"/>
+      <c r="DG29" s="71"/>
+      <c r="DH29" s="72"/>
+      <c r="DI29" s="72"/>
+      <c r="DJ29" s="73"/>
+      <c r="DK29" s="71"/>
+      <c r="DL29" s="71"/>
+      <c r="DM29" s="71"/>
+      <c r="DN29" s="71"/>
+      <c r="DO29" s="72"/>
+      <c r="DP29" s="72"/>
+      <c r="DQ29" s="95"/>
+      <c r="DR29" s="70"/>
+      <c r="DS29" s="71"/>
+      <c r="DT29" s="71"/>
+      <c r="DU29" s="71"/>
+      <c r="DV29" s="72"/>
+      <c r="DW29" s="72"/>
+      <c r="DX29" s="72"/>
+      <c r="DY29" s="71"/>
+      <c r="DZ29" s="71"/>
+      <c r="EA29" s="71"/>
+      <c r="EB29" s="71"/>
+      <c r="EC29" s="72"/>
+      <c r="ED29" s="72"/>
+      <c r="EE29" s="73"/>
+      <c r="EF29" s="71"/>
+      <c r="EG29" s="71"/>
+      <c r="EH29" s="71"/>
+      <c r="EI29" s="71"/>
+      <c r="EJ29" s="72"/>
+      <c r="EK29" s="72"/>
+      <c r="EL29" s="73"/>
+      <c r="EM29" s="72"/>
+      <c r="EN29" s="71"/>
+      <c r="EO29" s="71"/>
+      <c r="EP29" s="71"/>
+      <c r="EQ29" s="72"/>
+      <c r="ER29" s="72"/>
+      <c r="ES29" s="73"/>
+      <c r="ET29" s="73"/>
+      <c r="EU29" s="73"/>
+      <c r="EV29" s="98"/>
+    </row>
+    <row r="30" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="75"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q30" s="80"/>
+      <c r="R30" s="80"/>
+      <c r="S30" s="80"/>
+      <c r="T30" s="80"/>
+      <c r="U30" s="80"/>
+      <c r="V30" s="80"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="80"/>
+      <c r="Y30" s="80"/>
+      <c r="Z30" s="80"/>
+      <c r="AA30" s="81"/>
+      <c r="AB30" s="77"/>
+      <c r="AC30" s="77"/>
+      <c r="AD30" s="78"/>
+      <c r="AE30" s="76"/>
+      <c r="AF30" s="76"/>
+      <c r="AG30" s="82"/>
+      <c r="AH30" s="83"/>
+      <c r="AI30" s="77"/>
+      <c r="AJ30" s="77"/>
+      <c r="AK30" s="78"/>
+      <c r="AL30" s="76"/>
+      <c r="AM30" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN30" s="76"/>
+      <c r="AO30" s="83"/>
+      <c r="AP30" s="77"/>
+      <c r="AQ30" s="77"/>
+      <c r="AR30" s="78"/>
+      <c r="AS30" s="76"/>
+      <c r="AT30" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU30" s="77"/>
+      <c r="AV30" s="77"/>
+      <c r="AW30" s="77"/>
+      <c r="AX30" s="77"/>
+      <c r="AY30" s="78"/>
+      <c r="AZ30" s="76"/>
+      <c r="BA30" s="76"/>
+      <c r="BB30" s="76"/>
+      <c r="BC30" s="76"/>
+      <c r="BD30" s="77"/>
+      <c r="BE30" s="77"/>
+      <c r="BF30" s="78"/>
+      <c r="BG30" s="76"/>
+      <c r="BH30" s="84"/>
+      <c r="BI30" s="77"/>
+      <c r="BJ30" s="76"/>
+      <c r="BK30" s="77"/>
+      <c r="BL30" s="116"/>
+      <c r="BM30" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN30" s="116"/>
+      <c r="BO30" s="116"/>
+      <c r="BP30" s="116"/>
+      <c r="BQ30" s="76"/>
+      <c r="BR30" s="77"/>
+      <c r="BS30" s="77"/>
+      <c r="BT30" s="78"/>
+      <c r="BU30" s="76"/>
+      <c r="BV30" s="76"/>
+      <c r="BW30" s="76"/>
+      <c r="BX30" s="76"/>
+      <c r="BY30" s="77"/>
+      <c r="BZ30" s="77"/>
+      <c r="CA30" s="78"/>
+      <c r="CB30" s="76"/>
+      <c r="CC30" s="76"/>
+      <c r="CD30" s="76"/>
+      <c r="CE30" s="76"/>
+      <c r="CF30" s="77"/>
+      <c r="CG30" s="77"/>
+      <c r="CH30" s="78"/>
+      <c r="CI30" s="76"/>
+      <c r="CJ30" s="76"/>
+      <c r="CK30" s="76"/>
+      <c r="CL30" s="76"/>
+      <c r="CM30" s="77"/>
+      <c r="CN30" s="75"/>
+      <c r="CO30" s="76"/>
+      <c r="CP30" s="76"/>
+      <c r="CQ30" s="76"/>
+      <c r="CR30" s="76"/>
+      <c r="CS30" s="76"/>
+      <c r="CT30" s="77"/>
+      <c r="CU30" s="77"/>
+      <c r="CV30" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="CW30" s="76"/>
+      <c r="CX30" s="76"/>
+      <c r="CY30" s="76"/>
+      <c r="CZ30" s="76"/>
+      <c r="DA30" s="77"/>
+      <c r="DB30" s="77"/>
+      <c r="DC30" s="78"/>
+      <c r="DD30" s="76"/>
+      <c r="DE30" s="76"/>
+      <c r="DF30" s="76"/>
+      <c r="DG30" s="76"/>
+      <c r="DH30" s="77"/>
+      <c r="DI30" s="77"/>
+      <c r="DJ30" s="78"/>
+      <c r="DK30" s="76"/>
+      <c r="DL30" s="76"/>
+      <c r="DM30" s="76"/>
+      <c r="DN30" s="76"/>
+      <c r="DO30" s="77"/>
+      <c r="DP30" s="77"/>
+      <c r="DQ30" s="84"/>
+      <c r="DR30" s="82"/>
+      <c r="DS30" s="76"/>
+      <c r="DT30" s="76"/>
+      <c r="DU30" s="76"/>
+      <c r="DV30" s="77"/>
+      <c r="DW30" s="77"/>
+      <c r="DX30" s="77"/>
+      <c r="DY30" s="76"/>
+      <c r="DZ30" s="76"/>
+      <c r="EA30" s="76"/>
+      <c r="EB30" s="76"/>
+      <c r="EC30" s="77"/>
+      <c r="ED30" s="77"/>
+      <c r="EE30" s="78"/>
+      <c r="EF30" s="76"/>
+      <c r="EG30" s="76"/>
+      <c r="EH30" s="76"/>
+      <c r="EI30" s="76"/>
+      <c r="EJ30" s="77"/>
+      <c r="EK30" s="77"/>
+      <c r="EL30" s="78"/>
+      <c r="EM30" s="77"/>
+      <c r="EN30" s="76"/>
+      <c r="EO30" s="76"/>
+      <c r="EP30" s="76"/>
+      <c r="EQ30" s="77"/>
+      <c r="ER30" s="77"/>
+      <c r="ES30" s="78"/>
+      <c r="ET30" s="78"/>
+      <c r="EU30" s="78"/>
+      <c r="EV30" s="102"/>
+    </row>
+    <row r="31" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="123"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="56"/>
+      <c r="Z31" s="56"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="16"/>
+      <c r="AG31" s="67"/>
+      <c r="AH31" s="23"/>
+      <c r="AI31" s="14"/>
+      <c r="AJ31" s="14"/>
+      <c r="AK31" s="13"/>
+      <c r="AL31" s="16"/>
+      <c r="AM31" s="16"/>
+      <c r="AN31" s="16"/>
+      <c r="AO31" s="23"/>
+      <c r="AP31" s="14"/>
+      <c r="AQ31" s="14"/>
+      <c r="AR31" s="13"/>
+      <c r="AS31" s="16"/>
+      <c r="AT31" s="23"/>
+      <c r="AU31" s="14"/>
+      <c r="AV31" s="14"/>
+      <c r="AW31" s="14"/>
+      <c r="AX31" s="14"/>
+      <c r="AY31" s="13"/>
+      <c r="AZ31" s="16"/>
+      <c r="BA31" s="16"/>
+      <c r="BB31" s="16"/>
+      <c r="BC31" s="16"/>
+      <c r="BD31" s="14"/>
+      <c r="BE31" s="14"/>
+      <c r="BF31" s="13"/>
+      <c r="BG31" s="16"/>
+      <c r="BH31" s="25"/>
+      <c r="BI31" s="14"/>
+      <c r="BJ31" s="16"/>
+      <c r="BK31" s="14"/>
+      <c r="BL31" s="113"/>
+      <c r="BM31" s="113"/>
+      <c r="BN31" s="113"/>
+      <c r="BO31" s="113"/>
+      <c r="BP31" s="113"/>
+      <c r="BQ31" s="16"/>
+      <c r="BR31" s="14"/>
+      <c r="BS31" s="14"/>
+      <c r="BT31" s="13"/>
+      <c r="BU31" s="16"/>
+      <c r="BV31" s="16"/>
+      <c r="BW31" s="16"/>
+      <c r="BX31" s="16"/>
+      <c r="BY31" s="14"/>
+      <c r="BZ31" s="14"/>
+      <c r="CA31" s="13"/>
+      <c r="CB31" s="16"/>
+      <c r="CC31" s="16"/>
+      <c r="CD31" s="16"/>
+      <c r="CE31" s="16"/>
+      <c r="CF31" s="14"/>
+      <c r="CG31" s="14"/>
+      <c r="CH31" s="13"/>
+      <c r="CI31" s="16"/>
+      <c r="CJ31" s="16"/>
+      <c r="CK31" s="16"/>
+      <c r="CL31" s="16"/>
+      <c r="CM31" s="14"/>
+      <c r="CN31" s="24"/>
+      <c r="CO31" s="16"/>
+      <c r="CP31" s="16"/>
+      <c r="CQ31" s="16"/>
+      <c r="CR31" s="16"/>
+      <c r="CS31" s="16"/>
+      <c r="CT31" s="14"/>
+      <c r="CU31" s="14"/>
+      <c r="CV31" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="CW31" s="16"/>
+      <c r="CX31" s="16"/>
+      <c r="CY31" s="16"/>
+      <c r="CZ31" s="16"/>
+      <c r="DA31" s="14"/>
+      <c r="DB31" s="14"/>
+      <c r="DC31" s="23"/>
+      <c r="DD31" s="16"/>
+      <c r="DE31" s="16"/>
+      <c r="DF31" s="16"/>
+      <c r="DG31" s="16"/>
+      <c r="DH31" s="14"/>
+      <c r="DI31" s="14"/>
+      <c r="DJ31" s="13"/>
+      <c r="DK31" s="16"/>
+      <c r="DL31" s="16"/>
+      <c r="DM31" s="16"/>
+      <c r="DN31" s="16"/>
+      <c r="DO31" s="14"/>
+      <c r="DP31" s="14"/>
+      <c r="DQ31" s="25"/>
+      <c r="DR31" s="67"/>
+      <c r="DS31" s="16"/>
+      <c r="DT31" s="16"/>
+      <c r="DU31" s="16"/>
+      <c r="DV31" s="14"/>
+      <c r="DW31" s="14"/>
+      <c r="DX31" s="14"/>
+      <c r="DY31" s="16"/>
+      <c r="DZ31" s="16"/>
+      <c r="EA31" s="16"/>
+      <c r="EB31" s="16"/>
+      <c r="EC31" s="14"/>
+      <c r="ED31" s="14"/>
+      <c r="EE31" s="13"/>
+      <c r="EF31" s="16"/>
+      <c r="EG31" s="16"/>
+      <c r="EH31" s="16"/>
+      <c r="EI31" s="16"/>
+      <c r="EJ31" s="14"/>
+      <c r="EK31" s="14"/>
+      <c r="EL31" s="13"/>
+      <c r="EM31" s="14"/>
+      <c r="EN31" s="16"/>
+      <c r="EO31" s="16"/>
+      <c r="EP31" s="16"/>
+      <c r="EQ31" s="14"/>
+      <c r="ER31" s="14"/>
+      <c r="ES31" s="13"/>
+      <c r="ET31" s="13"/>
+      <c r="EU31" s="13"/>
+      <c r="EV31" s="17"/>
+    </row>
+    <row r="32" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="123"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="16"/>
+      <c r="AG32" s="67"/>
+      <c r="AH32" s="16"/>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="14"/>
+      <c r="AK32" s="16"/>
+      <c r="AL32" s="16"/>
+      <c r="AM32" s="16"/>
+      <c r="AN32" s="16"/>
+      <c r="AO32" s="13"/>
+      <c r="AP32" s="14"/>
+      <c r="AQ32" s="14"/>
+      <c r="AR32" s="13"/>
+      <c r="AS32" s="16"/>
+      <c r="AT32" s="16"/>
+      <c r="AU32" s="14"/>
+      <c r="AV32" s="14"/>
+      <c r="AW32" s="14"/>
+      <c r="AX32" s="14"/>
+      <c r="AY32" s="13"/>
+      <c r="AZ32" s="16"/>
+      <c r="BA32" s="16"/>
+      <c r="BB32" s="16"/>
+      <c r="BC32" s="16"/>
+      <c r="BD32" s="14"/>
+      <c r="BE32" s="14"/>
+      <c r="BF32" s="16"/>
+      <c r="BG32" s="16"/>
+      <c r="BH32" s="25"/>
+      <c r="BI32" s="14"/>
+      <c r="BJ32" s="16"/>
+      <c r="BK32" s="14"/>
+      <c r="BL32" s="113"/>
+      <c r="BM32" s="113"/>
+      <c r="BN32" s="113"/>
+      <c r="BO32" s="113"/>
+      <c r="BP32" s="113"/>
+      <c r="BQ32" s="16"/>
+      <c r="BR32" s="14"/>
+      <c r="BS32" s="14"/>
+      <c r="BT32" s="16"/>
+      <c r="BU32" s="16"/>
+      <c r="BV32" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="BW32" s="16"/>
+      <c r="BX32" s="16"/>
+      <c r="BY32" s="14"/>
+      <c r="BZ32" s="14"/>
+      <c r="CA32" s="16"/>
+      <c r="CB32" s="16"/>
+      <c r="CC32" s="16"/>
+      <c r="CD32" s="16"/>
+      <c r="CE32" s="16"/>
+      <c r="CF32" s="14"/>
+      <c r="CG32" s="14"/>
+      <c r="CH32" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="CI32" s="16"/>
+      <c r="CJ32" s="16"/>
+      <c r="CK32" s="16"/>
+      <c r="CL32" s="16"/>
+      <c r="CM32" s="14"/>
+      <c r="CN32" s="24"/>
+      <c r="CO32" s="13"/>
+      <c r="CP32" s="16"/>
+      <c r="CQ32" s="16"/>
+      <c r="CR32" s="16"/>
+      <c r="CS32" s="16"/>
+      <c r="CT32" s="14"/>
+      <c r="CU32" s="14"/>
+      <c r="CV32" s="16"/>
+      <c r="CW32" s="16"/>
+      <c r="CX32" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="CY32" s="16"/>
+      <c r="CZ32" s="16"/>
+      <c r="DA32" s="14"/>
+      <c r="DB32" s="14"/>
+      <c r="DC32" s="13"/>
+      <c r="DD32" s="16"/>
+      <c r="DE32" s="16"/>
+      <c r="DF32" s="16"/>
+      <c r="DG32" s="16"/>
+      <c r="DH32" s="14"/>
+      <c r="DI32" s="14"/>
+      <c r="DJ32" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="DK32" s="16"/>
+      <c r="DL32" s="16"/>
+      <c r="DM32" s="16"/>
+      <c r="DN32" s="16"/>
+      <c r="DO32" s="14"/>
+      <c r="DP32" s="14"/>
+      <c r="DQ32" s="25"/>
+      <c r="DR32" s="67"/>
+      <c r="DS32" s="16"/>
+      <c r="DT32" s="16"/>
+      <c r="DU32" s="16"/>
+      <c r="DV32" s="14"/>
+      <c r="DW32" s="14"/>
+      <c r="DX32" s="14"/>
+      <c r="DY32" s="16"/>
+      <c r="DZ32" s="16"/>
+      <c r="EA32" s="16"/>
+      <c r="EB32" s="16"/>
+      <c r="EC32" s="14"/>
+      <c r="ED32" s="14"/>
+      <c r="EE32" s="13"/>
+      <c r="EF32" s="16"/>
+      <c r="EG32" s="16"/>
+      <c r="EH32" s="16"/>
+      <c r="EI32" s="16"/>
+      <c r="EJ32" s="14"/>
+      <c r="EK32" s="14"/>
+      <c r="EL32" s="13"/>
+      <c r="EM32" s="14"/>
+      <c r="EN32" s="16"/>
+      <c r="EO32" s="16"/>
+      <c r="EP32" s="16"/>
+      <c r="EQ32" s="14"/>
+      <c r="ER32" s="14"/>
+      <c r="ES32" s="13"/>
+      <c r="ET32" s="13"/>
+      <c r="EU32" s="13"/>
+      <c r="EV32" s="17"/>
+    </row>
+    <row r="33" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="123"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="16"/>
+      <c r="AG33" s="67"/>
+      <c r="AH33" s="16"/>
+      <c r="AI33" s="14"/>
+      <c r="AJ33" s="14"/>
+      <c r="AK33" s="13"/>
+      <c r="AL33" s="16"/>
+      <c r="AM33" s="16"/>
+      <c r="AN33" s="16"/>
+      <c r="AO33" s="16"/>
+      <c r="AP33" s="14"/>
+      <c r="AQ33" s="14"/>
+      <c r="AR33" s="13"/>
+      <c r="AS33" s="16"/>
+      <c r="AT33" s="16"/>
+      <c r="AU33" s="14"/>
+      <c r="AV33" s="14"/>
+      <c r="AW33" s="14"/>
+      <c r="AX33" s="14"/>
+      <c r="AY33" s="13"/>
+      <c r="AZ33" s="16"/>
+      <c r="BA33" s="16"/>
+      <c r="BB33" s="16"/>
+      <c r="BC33" s="16"/>
+      <c r="BD33" s="14"/>
+      <c r="BE33" s="14"/>
+      <c r="BF33" s="13"/>
+      <c r="BG33" s="16"/>
+      <c r="BH33" s="25"/>
+      <c r="BI33" s="14"/>
+      <c r="BJ33" s="16"/>
+      <c r="BK33" s="14"/>
+      <c r="BL33" s="113"/>
+      <c r="BM33" s="113"/>
+      <c r="BN33" s="113"/>
+      <c r="BO33" s="113"/>
+      <c r="BP33" s="113"/>
+      <c r="BQ33" s="16"/>
+      <c r="BR33" s="14"/>
+      <c r="BS33" s="14"/>
+      <c r="BT33" s="23"/>
+      <c r="BU33" s="16"/>
+      <c r="BV33" s="16"/>
+      <c r="BW33" s="16"/>
+      <c r="BX33" s="16"/>
+      <c r="BY33" s="14"/>
+      <c r="BZ33" s="14"/>
+      <c r="CA33" s="23"/>
+      <c r="CB33" s="16"/>
+      <c r="CC33" s="16"/>
+      <c r="CD33" s="16"/>
+      <c r="CE33" s="16"/>
+      <c r="CF33" s="14"/>
+      <c r="CG33" s="14"/>
+      <c r="CH33" s="13"/>
+      <c r="CI33" s="16"/>
+      <c r="CJ33" s="16"/>
+      <c r="CK33" s="16"/>
+      <c r="CL33" s="16"/>
+      <c r="CM33" s="14"/>
+      <c r="CN33" s="24"/>
+      <c r="CO33" s="13"/>
+      <c r="CP33" s="16"/>
+      <c r="CQ33" s="23"/>
+      <c r="CR33" s="16"/>
+      <c r="CS33" s="16"/>
+      <c r="CT33" s="14"/>
+      <c r="CU33" s="14"/>
+      <c r="CV33" s="23"/>
+      <c r="CW33" s="16"/>
+      <c r="CX33" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="CY33" s="16"/>
+      <c r="CZ33" s="16"/>
+      <c r="DA33" s="14"/>
+      <c r="DB33" s="14"/>
+      <c r="DC33" s="13"/>
+      <c r="DD33" s="16"/>
+      <c r="DE33" s="16"/>
+      <c r="DF33" s="16"/>
+      <c r="DG33" s="16"/>
+      <c r="DH33" s="14"/>
+      <c r="DI33" s="14"/>
+      <c r="DJ33" s="13"/>
+      <c r="DK33" s="16"/>
+      <c r="DL33" s="16"/>
+      <c r="DM33" s="16"/>
+      <c r="DN33" s="16"/>
+      <c r="DO33" s="14"/>
+      <c r="DP33" s="14"/>
+      <c r="DQ33" s="17"/>
+      <c r="DR33" s="67"/>
+      <c r="DS33" s="16"/>
+      <c r="DT33" s="16"/>
+      <c r="DU33" s="16"/>
+      <c r="DV33" s="14"/>
+      <c r="DW33" s="14"/>
+      <c r="DX33" s="14"/>
+      <c r="DY33" s="16"/>
+      <c r="DZ33" s="16"/>
+      <c r="EA33" s="16"/>
+      <c r="EB33" s="16"/>
+      <c r="EC33" s="14"/>
+      <c r="ED33" s="14"/>
+      <c r="EE33" s="13"/>
+      <c r="EF33" s="16"/>
+      <c r="EG33" s="16"/>
+      <c r="EH33" s="16"/>
+      <c r="EI33" s="16"/>
+      <c r="EJ33" s="14"/>
+      <c r="EK33" s="14"/>
+      <c r="EL33" s="13"/>
+      <c r="EM33" s="14"/>
+      <c r="EN33" s="16"/>
+      <c r="EO33" s="16"/>
+      <c r="EP33" s="16"/>
+      <c r="EQ33" s="14"/>
+      <c r="ER33" s="14"/>
+      <c r="ES33" s="13"/>
+      <c r="ET33" s="13"/>
+      <c r="EU33" s="13"/>
+      <c r="EV33" s="17"/>
+    </row>
+    <row r="34" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="124"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="72"/>
+      <c r="V34" s="72"/>
+      <c r="W34" s="73"/>
+      <c r="X34" s="71"/>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="71"/>
+      <c r="AA34" s="71"/>
+      <c r="AB34" s="72"/>
+      <c r="AC34" s="72"/>
+      <c r="AD34" s="73"/>
+      <c r="AE34" s="71"/>
+      <c r="AF34" s="71"/>
+      <c r="AG34" s="70"/>
+      <c r="AH34" s="71"/>
+      <c r="AI34" s="72"/>
+      <c r="AJ34" s="72"/>
+      <c r="AK34" s="73"/>
+      <c r="AL34" s="71"/>
+      <c r="AM34" s="71"/>
+      <c r="AN34" s="71"/>
+      <c r="AO34" s="71"/>
+      <c r="AP34" s="72"/>
+      <c r="AQ34" s="72"/>
+      <c r="AR34" s="73"/>
+      <c r="AS34" s="71"/>
+      <c r="AT34" s="71"/>
+      <c r="AU34" s="72"/>
+      <c r="AV34" s="72"/>
+      <c r="AW34" s="72"/>
+      <c r="AX34" s="72"/>
+      <c r="AY34" s="73"/>
+      <c r="AZ34" s="71"/>
+      <c r="BA34" s="71"/>
+      <c r="BB34" s="71"/>
+      <c r="BC34" s="71"/>
+      <c r="BD34" s="72"/>
+      <c r="BE34" s="72"/>
+      <c r="BF34" s="73"/>
+      <c r="BG34" s="71"/>
+      <c r="BH34" s="74"/>
+      <c r="BI34" s="72"/>
+      <c r="BJ34" s="71"/>
+      <c r="BK34" s="72"/>
+      <c r="BL34" s="119"/>
+      <c r="BM34" s="119"/>
+      <c r="BN34" s="119"/>
+      <c r="BO34" s="119"/>
+      <c r="BP34" s="119"/>
+      <c r="BQ34" s="71"/>
+      <c r="BR34" s="72"/>
+      <c r="BS34" s="72"/>
+      <c r="BT34" s="73"/>
+      <c r="BU34" s="71"/>
+      <c r="BV34" s="71"/>
+      <c r="BW34" s="71"/>
+      <c r="BX34" s="71"/>
+      <c r="BY34" s="72"/>
+      <c r="BZ34" s="72"/>
+      <c r="CA34" s="16"/>
+      <c r="CB34" s="71"/>
+      <c r="CC34" s="71"/>
+      <c r="CD34" s="71"/>
+      <c r="CE34" s="71"/>
+      <c r="CF34" s="72"/>
+      <c r="CG34" s="72"/>
+      <c r="CH34" s="16"/>
+      <c r="CI34" s="71"/>
+      <c r="CJ34" s="71"/>
+      <c r="CK34" s="71"/>
+      <c r="CL34" s="71"/>
+      <c r="CM34" s="72"/>
+      <c r="CN34" s="85"/>
+      <c r="CO34" s="73"/>
+      <c r="CP34" s="71"/>
+      <c r="CQ34" s="71"/>
+      <c r="CR34" s="71"/>
+      <c r="CS34" s="71"/>
+      <c r="CT34" s="72"/>
+      <c r="CU34" s="72"/>
+      <c r="CV34" s="73"/>
+      <c r="CW34" s="71"/>
+      <c r="CX34" s="71"/>
+      <c r="CY34" s="71"/>
+      <c r="CZ34" s="71"/>
+      <c r="DA34" s="72"/>
+      <c r="DB34" s="72"/>
+      <c r="DC34" s="73"/>
+      <c r="DD34" s="71"/>
+      <c r="DE34" s="71"/>
+      <c r="DF34" s="71"/>
+      <c r="DG34" s="71"/>
+      <c r="DH34" s="72"/>
+      <c r="DI34" s="72"/>
+      <c r="DJ34" s="73"/>
+      <c r="DK34" s="71"/>
+      <c r="DL34" s="71"/>
+      <c r="DM34" s="71"/>
+      <c r="DN34" s="71"/>
+      <c r="DO34" s="72"/>
+      <c r="DP34" s="72"/>
+      <c r="DQ34" s="95"/>
+      <c r="DR34" s="70"/>
+      <c r="DS34" s="71"/>
+      <c r="DT34" s="71"/>
+      <c r="DU34" s="71"/>
+      <c r="DV34" s="72"/>
+      <c r="DW34" s="72"/>
+      <c r="DX34" s="72"/>
+      <c r="DY34" s="71"/>
+      <c r="DZ34" s="71"/>
+      <c r="EA34" s="71"/>
+      <c r="EB34" s="71"/>
+      <c r="EC34" s="72"/>
+      <c r="ED34" s="72"/>
+      <c r="EE34" s="73"/>
+      <c r="EF34" s="71"/>
+      <c r="EG34" s="71"/>
+      <c r="EH34" s="71"/>
+      <c r="EI34" s="71"/>
+      <c r="EJ34" s="72"/>
+      <c r="EK34" s="72"/>
+      <c r="EL34" s="73"/>
+      <c r="EM34" s="72"/>
+      <c r="EN34" s="71"/>
+      <c r="EO34" s="71"/>
+      <c r="EP34" s="71"/>
+      <c r="EQ34" s="72"/>
+      <c r="ER34" s="72"/>
+      <c r="ES34" s="73"/>
+      <c r="ET34" s="73"/>
+      <c r="EU34" s="73"/>
+      <c r="EV34" s="98"/>
+    </row>
+    <row r="35" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="123" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="75"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="83"/>
+      <c r="Q35" s="76"/>
+      <c r="R35" s="76"/>
+      <c r="S35" s="76"/>
+      <c r="T35" s="76"/>
+      <c r="U35" s="77"/>
+      <c r="V35" s="77"/>
+      <c r="W35" s="83"/>
+      <c r="X35" s="76"/>
+      <c r="Y35" s="76"/>
+      <c r="Z35" s="76"/>
+      <c r="AA35" s="76"/>
+      <c r="AB35" s="77"/>
+      <c r="AC35" s="77"/>
+      <c r="AD35" s="78"/>
+      <c r="AE35" s="76"/>
+      <c r="AF35" s="76"/>
+      <c r="AG35" s="82"/>
+      <c r="AH35" s="83"/>
+      <c r="AI35" s="77"/>
+      <c r="AJ35" s="77"/>
+      <c r="AK35" s="78"/>
+      <c r="AL35" s="76"/>
+      <c r="AM35" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN35" s="76"/>
+      <c r="AO35" s="83"/>
+      <c r="AP35" s="77"/>
+      <c r="AQ35" s="77"/>
+      <c r="AR35" s="83"/>
+      <c r="AS35" s="76"/>
+      <c r="AT35" s="76"/>
+      <c r="AU35" s="77"/>
+      <c r="AV35" s="77"/>
+      <c r="AW35" s="77"/>
+      <c r="AX35" s="77"/>
+      <c r="AY35" s="83"/>
+      <c r="AZ35" s="76"/>
+      <c r="BA35" s="83"/>
+      <c r="BB35" s="76"/>
+      <c r="BC35" s="83"/>
+      <c r="BD35" s="77"/>
+      <c r="BE35" s="77"/>
+      <c r="BF35" s="83"/>
+      <c r="BG35" s="76"/>
+      <c r="BH35" s="84"/>
+      <c r="BI35" s="77"/>
+      <c r="BJ35" s="76"/>
+      <c r="BK35" s="77"/>
+      <c r="BL35" s="116"/>
+      <c r="BM35" s="116"/>
+      <c r="BN35" s="116"/>
+      <c r="BO35" s="116"/>
+      <c r="BP35" s="116"/>
+      <c r="BQ35" s="76"/>
+      <c r="BR35" s="77"/>
+      <c r="BS35" s="77"/>
+      <c r="BT35" s="78"/>
+      <c r="BU35" s="76"/>
+      <c r="BV35" s="76"/>
+      <c r="BW35" s="76"/>
+      <c r="BX35" s="76"/>
+      <c r="BY35" s="77"/>
+      <c r="BZ35" s="77"/>
+      <c r="CA35" s="78"/>
+      <c r="CB35" s="76"/>
+      <c r="CC35" s="76"/>
+      <c r="CD35" s="76"/>
+      <c r="CE35" s="76"/>
+      <c r="CF35" s="77"/>
+      <c r="CG35" s="77"/>
+      <c r="CH35" s="78"/>
+      <c r="CI35" s="76"/>
+      <c r="CJ35" s="76"/>
+      <c r="CK35" s="76"/>
+      <c r="CL35" s="76"/>
+      <c r="CM35" s="77"/>
+      <c r="CN35" s="75"/>
+      <c r="CO35" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP35" s="76"/>
+      <c r="CQ35" s="76"/>
+      <c r="CR35" s="76"/>
+      <c r="CS35" s="76"/>
+      <c r="CT35" s="77"/>
+      <c r="CU35" s="77"/>
+      <c r="CV35" s="78"/>
+      <c r="CW35" s="76"/>
+      <c r="CX35" s="76"/>
+      <c r="CY35" s="76"/>
+      <c r="CZ35" s="76"/>
+      <c r="DA35" s="77"/>
+      <c r="DB35" s="77"/>
+      <c r="DC35" s="78"/>
+      <c r="DD35" s="76"/>
+      <c r="DE35" s="76"/>
+      <c r="DF35" s="76"/>
+      <c r="DG35" s="76"/>
+      <c r="DH35" s="77"/>
+      <c r="DI35" s="77"/>
+      <c r="DJ35" s="78"/>
+      <c r="DK35" s="76"/>
+      <c r="DL35" s="76"/>
+      <c r="DM35" s="76"/>
+      <c r="DN35" s="76"/>
+      <c r="DO35" s="77"/>
+      <c r="DP35" s="77"/>
+      <c r="DQ35" s="84"/>
+      <c r="DR35" s="82"/>
+      <c r="DS35" s="76"/>
+      <c r="DT35" s="76"/>
+      <c r="DU35" s="76"/>
+      <c r="DV35" s="77"/>
+      <c r="DW35" s="77"/>
+      <c r="DX35" s="77"/>
+      <c r="DY35" s="76"/>
+      <c r="DZ35" s="76"/>
+      <c r="EA35" s="76"/>
+      <c r="EB35" s="76"/>
+      <c r="EC35" s="77"/>
+      <c r="ED35" s="77"/>
+      <c r="EE35" s="78"/>
+      <c r="EF35" s="76"/>
+      <c r="EG35" s="76"/>
+      <c r="EH35" s="76"/>
+      <c r="EI35" s="76"/>
+      <c r="EJ35" s="77"/>
+      <c r="EK35" s="77"/>
+      <c r="EL35" s="78"/>
+      <c r="EM35" s="77"/>
+      <c r="EN35" s="76"/>
+      <c r="EO35" s="76"/>
+      <c r="EP35" s="76"/>
+      <c r="EQ35" s="77"/>
+      <c r="ER35" s="77"/>
+      <c r="ES35" s="78"/>
+      <c r="ET35" s="78"/>
+      <c r="EU35" s="78"/>
+      <c r="EV35" s="102"/>
+    </row>
+    <row r="36" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="123"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="16"/>
+      <c r="AF36" s="16"/>
+      <c r="AG36" s="67"/>
+      <c r="AH36" s="23"/>
+      <c r="AI36" s="14"/>
+      <c r="AJ36" s="14"/>
+      <c r="AK36" s="13"/>
+      <c r="AL36" s="16"/>
+      <c r="AM36" s="16"/>
+      <c r="AN36" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO36" s="23"/>
+      <c r="AP36" s="14"/>
+      <c r="AQ36" s="14"/>
+      <c r="AR36" s="16"/>
+      <c r="AS36" s="16"/>
+      <c r="AT36" s="16"/>
+      <c r="AU36" s="14"/>
+      <c r="AV36" s="14"/>
+      <c r="AW36" s="14"/>
+      <c r="AX36" s="14"/>
+      <c r="AY36" s="13"/>
+      <c r="AZ36" s="16"/>
+      <c r="BA36" s="16"/>
+      <c r="BB36" s="16"/>
+      <c r="BC36" s="16"/>
+      <c r="BD36" s="14"/>
+      <c r="BE36" s="14"/>
+      <c r="BF36" s="13"/>
+      <c r="BG36" s="16"/>
+      <c r="BH36" s="25"/>
+      <c r="BI36" s="14"/>
+      <c r="BJ36" s="16"/>
+      <c r="BK36" s="14"/>
+      <c r="BL36" s="113"/>
+      <c r="BM36" s="113"/>
+      <c r="BN36" s="113"/>
+      <c r="BO36" s="113"/>
+      <c r="BP36" s="113"/>
+      <c r="BQ36" s="16"/>
+      <c r="BR36" s="14"/>
+      <c r="BS36" s="14"/>
+      <c r="BT36" s="13"/>
+      <c r="BU36" s="16"/>
+      <c r="BV36" s="16"/>
+      <c r="BW36" s="16"/>
+      <c r="BX36" s="16"/>
+      <c r="BY36" s="14"/>
+      <c r="BZ36" s="14"/>
+      <c r="CA36" s="13"/>
+      <c r="CB36" s="16"/>
+      <c r="CC36" s="16"/>
+      <c r="CD36" s="16"/>
+      <c r="CE36" s="16"/>
+      <c r="CF36" s="14"/>
+      <c r="CG36" s="14"/>
+      <c r="CH36" s="13"/>
+      <c r="CI36" s="16"/>
+      <c r="CJ36" s="16"/>
+      <c r="CK36" s="16"/>
+      <c r="CL36" s="16"/>
+      <c r="CM36" s="14"/>
+      <c r="CN36" s="24"/>
+      <c r="CO36" s="13"/>
+      <c r="CP36" s="16"/>
+      <c r="CQ36" s="16"/>
+      <c r="CR36" s="16"/>
+      <c r="CS36" s="16"/>
+      <c r="CT36" s="14"/>
+      <c r="CU36" s="14"/>
+      <c r="CV36" s="13"/>
+      <c r="CW36" s="16"/>
+      <c r="CX36" s="16"/>
+      <c r="CY36" s="16"/>
+      <c r="CZ36" s="16"/>
+      <c r="DA36" s="14"/>
+      <c r="DB36" s="14"/>
+      <c r="DC36" s="13"/>
+      <c r="DD36" s="16"/>
+      <c r="DE36" s="16"/>
+      <c r="DF36" s="16"/>
+      <c r="DG36" s="16"/>
+      <c r="DH36" s="14"/>
+      <c r="DI36" s="14"/>
+      <c r="DJ36" s="13"/>
+      <c r="DK36" s="16"/>
+      <c r="DL36" s="16"/>
+      <c r="DM36" s="16"/>
+      <c r="DN36" s="16"/>
+      <c r="DO36" s="14"/>
+      <c r="DP36" s="14"/>
+      <c r="DQ36" s="25"/>
+      <c r="DR36" s="67"/>
+      <c r="DS36" s="16"/>
+      <c r="DT36" s="16"/>
+      <c r="DU36" s="16"/>
+      <c r="DV36" s="14"/>
+      <c r="DW36" s="14"/>
+      <c r="DX36" s="14"/>
+      <c r="DY36" s="16"/>
+      <c r="DZ36" s="16"/>
+      <c r="EA36" s="16"/>
+      <c r="EB36" s="16"/>
+      <c r="EC36" s="14"/>
+      <c r="ED36" s="14"/>
+      <c r="EE36" s="13"/>
+      <c r="EF36" s="16"/>
+      <c r="EG36" s="16"/>
+      <c r="EH36" s="16"/>
+      <c r="EI36" s="16"/>
+      <c r="EJ36" s="14"/>
+      <c r="EK36" s="14"/>
+      <c r="EL36" s="13"/>
+      <c r="EM36" s="14"/>
+      <c r="EN36" s="16"/>
+      <c r="EO36" s="16"/>
+      <c r="EP36" s="16"/>
+      <c r="EQ36" s="14"/>
+      <c r="ER36" s="14"/>
+      <c r="ES36" s="13"/>
+      <c r="ET36" s="13"/>
+      <c r="EU36" s="13"/>
+      <c r="EV36" s="17"/>
+    </row>
+    <row r="37" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="123"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="14"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="13"/>
+      <c r="AE37" s="16"/>
+      <c r="AF37" s="16"/>
+      <c r="AG37" s="67"/>
+      <c r="AH37" s="16"/>
+      <c r="AI37" s="14"/>
+      <c r="AJ37" s="14"/>
+      <c r="AK37" s="16"/>
+      <c r="AL37" s="16"/>
+      <c r="AM37" s="16"/>
+      <c r="AN37" s="16"/>
+      <c r="AO37" s="13"/>
+      <c r="AP37" s="14"/>
+      <c r="AQ37" s="14"/>
+      <c r="AR37" s="16"/>
+      <c r="AS37" s="16"/>
+      <c r="AT37" s="16"/>
+      <c r="AU37" s="14"/>
+      <c r="AV37" s="14"/>
+      <c r="AW37" s="14"/>
+      <c r="AX37" s="14"/>
+      <c r="AY37" s="13"/>
+      <c r="AZ37" s="16"/>
+      <c r="BA37" s="16"/>
+      <c r="BB37" s="16"/>
+      <c r="BC37" s="16"/>
+      <c r="BD37" s="14"/>
+      <c r="BE37" s="14"/>
+      <c r="BF37" s="13"/>
+      <c r="BG37" s="16"/>
+      <c r="BH37" s="25"/>
+      <c r="BI37" s="14"/>
+      <c r="BJ37" s="16"/>
+      <c r="BK37" s="14"/>
+      <c r="BL37" s="113"/>
+      <c r="BM37" s="113"/>
+      <c r="BN37" s="113"/>
+      <c r="BO37" s="113"/>
+      <c r="BP37" s="113"/>
+      <c r="BQ37" s="16"/>
+      <c r="BR37" s="14"/>
+      <c r="BS37" s="14"/>
+      <c r="BT37" s="13"/>
+      <c r="BU37" s="16"/>
+      <c r="BV37" s="16"/>
+      <c r="BW37" s="16"/>
+      <c r="BX37" s="16"/>
+      <c r="BY37" s="14"/>
+      <c r="BZ37" s="14"/>
+      <c r="CA37" s="13"/>
+      <c r="CB37" s="16"/>
+      <c r="CC37" s="16"/>
+      <c r="CD37" s="16"/>
+      <c r="CE37" s="16"/>
+      <c r="CF37" s="14"/>
+      <c r="CG37" s="14"/>
+      <c r="CH37" s="13"/>
+      <c r="CI37" s="16"/>
+      <c r="CJ37" s="16"/>
+      <c r="CK37" s="16"/>
+      <c r="CL37" s="16"/>
+      <c r="CM37" s="14"/>
+      <c r="CN37" s="24"/>
+      <c r="CO37" s="13"/>
+      <c r="CP37" s="16"/>
+      <c r="CQ37" s="16"/>
+      <c r="CR37" s="16"/>
+      <c r="CS37" s="16"/>
+      <c r="CT37" s="14"/>
+      <c r="CU37" s="14"/>
+      <c r="CV37" s="13"/>
+      <c r="CW37" s="16"/>
+      <c r="CX37" s="16"/>
+      <c r="CY37" s="16"/>
+      <c r="CZ37" s="16"/>
+      <c r="DA37" s="14"/>
+      <c r="DB37" s="14"/>
+      <c r="DC37" s="13"/>
+      <c r="DD37" s="16"/>
+      <c r="DE37" s="16"/>
+      <c r="DF37" s="16"/>
+      <c r="DG37" s="16"/>
+      <c r="DH37" s="14"/>
+      <c r="DI37" s="14"/>
+      <c r="DJ37" s="13"/>
+      <c r="DK37" s="16"/>
+      <c r="DL37" s="16"/>
+      <c r="DM37" s="16"/>
+      <c r="DN37" s="16"/>
+      <c r="DO37" s="14"/>
+      <c r="DP37" s="14"/>
+      <c r="DQ37" s="25"/>
+      <c r="DR37" s="67"/>
+      <c r="DS37" s="16"/>
+      <c r="DT37" s="16"/>
+      <c r="DU37" s="16"/>
+      <c r="DV37" s="14"/>
+      <c r="DW37" s="14"/>
+      <c r="DX37" s="14"/>
+      <c r="DY37" s="16"/>
+      <c r="DZ37" s="16"/>
+      <c r="EA37" s="16"/>
+      <c r="EB37" s="16"/>
+      <c r="EC37" s="14"/>
+      <c r="ED37" s="14"/>
+      <c r="EE37" s="13"/>
+      <c r="EF37" s="16"/>
+      <c r="EG37" s="16"/>
+      <c r="EH37" s="16"/>
+      <c r="EI37" s="16"/>
+      <c r="EJ37" s="14"/>
+      <c r="EK37" s="14"/>
+      <c r="EL37" s="13"/>
+      <c r="EM37" s="14"/>
+      <c r="EN37" s="16"/>
+      <c r="EO37" s="16"/>
+      <c r="EP37" s="16"/>
+      <c r="EQ37" s="14"/>
+      <c r="ER37" s="14"/>
+      <c r="ES37" s="13"/>
+      <c r="ET37" s="13"/>
+      <c r="EU37" s="13"/>
+      <c r="EV37" s="17"/>
+    </row>
+    <row r="38" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="123"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="13"/>
+      <c r="AE38" s="16"/>
+      <c r="AF38" s="16"/>
+      <c r="AG38" s="67"/>
+      <c r="AH38" s="16"/>
+      <c r="AI38" s="14"/>
+      <c r="AJ38" s="14"/>
+      <c r="AK38" s="13"/>
+      <c r="AL38" s="16"/>
+      <c r="AM38" s="16"/>
+      <c r="AN38" s="16"/>
+      <c r="AO38" s="16"/>
+      <c r="AP38" s="14"/>
+      <c r="AQ38" s="14"/>
+      <c r="AR38" s="13"/>
+      <c r="AS38" s="16"/>
+      <c r="AT38" s="16"/>
+      <c r="AU38" s="14"/>
+      <c r="AV38" s="14"/>
+      <c r="AW38" s="14"/>
+      <c r="AX38" s="14"/>
+      <c r="AY38" s="13"/>
+      <c r="AZ38" s="16"/>
+      <c r="BA38" s="16"/>
+      <c r="BB38" s="16"/>
+      <c r="BC38" s="16"/>
+      <c r="BD38" s="14"/>
+      <c r="BE38" s="14"/>
+      <c r="BF38" s="13"/>
+      <c r="BG38" s="16"/>
+      <c r="BH38" s="25"/>
+      <c r="BI38" s="14"/>
+      <c r="BJ38" s="16"/>
+      <c r="BK38" s="14"/>
+      <c r="BL38" s="113"/>
+      <c r="BM38" s="113"/>
+      <c r="BN38" s="113"/>
+      <c r="BO38" s="113"/>
+      <c r="BP38" s="113"/>
+      <c r="BQ38" s="16"/>
+      <c r="BR38" s="14"/>
+      <c r="BS38" s="14"/>
+      <c r="BT38" s="13"/>
+      <c r="BU38" s="16"/>
+      <c r="BV38" s="16"/>
+      <c r="BW38" s="16"/>
+      <c r="BX38" s="16"/>
+      <c r="BY38" s="14"/>
+      <c r="BZ38" s="14"/>
+      <c r="CA38" s="13"/>
+      <c r="CB38" s="16"/>
+      <c r="CC38" s="16"/>
+      <c r="CD38" s="16"/>
+      <c r="CE38" s="16"/>
+      <c r="CF38" s="14"/>
+      <c r="CG38" s="14"/>
+      <c r="CH38" s="13"/>
+      <c r="CI38" s="16"/>
+      <c r="CJ38" s="16"/>
+      <c r="CK38" s="16"/>
+      <c r="CL38" s="16"/>
+      <c r="CM38" s="14"/>
+      <c r="CN38" s="24"/>
+      <c r="CO38" s="13"/>
+      <c r="CP38" s="16"/>
+      <c r="CQ38" s="16"/>
+      <c r="CR38" s="16"/>
+      <c r="CS38" s="16"/>
+      <c r="CT38" s="14"/>
+      <c r="CU38" s="14"/>
+      <c r="CV38" s="13"/>
+      <c r="CW38" s="16"/>
+      <c r="CX38" s="16"/>
+      <c r="CY38" s="16"/>
+      <c r="CZ38" s="16"/>
+      <c r="DA38" s="14"/>
+      <c r="DB38" s="14"/>
+      <c r="DC38" s="13"/>
+      <c r="DD38" s="16"/>
+      <c r="DE38" s="16"/>
+      <c r="DF38" s="16"/>
+      <c r="DG38" s="16"/>
+      <c r="DH38" s="14"/>
+      <c r="DI38" s="14"/>
+      <c r="DJ38" s="13"/>
+      <c r="DK38" s="16"/>
+      <c r="DL38" s="16"/>
+      <c r="DM38" s="16"/>
+      <c r="DN38" s="16"/>
+      <c r="DO38" s="14"/>
+      <c r="DP38" s="14"/>
+      <c r="DQ38" s="17"/>
+      <c r="DR38" s="67"/>
+      <c r="DS38" s="16"/>
+      <c r="DT38" s="16"/>
+      <c r="DU38" s="16"/>
+      <c r="DV38" s="14"/>
+      <c r="DW38" s="14"/>
+      <c r="DX38" s="14"/>
+      <c r="DY38" s="16"/>
+      <c r="DZ38" s="16"/>
+      <c r="EA38" s="16"/>
+      <c r="EB38" s="16"/>
+      <c r="EC38" s="14"/>
+      <c r="ED38" s="14"/>
+      <c r="EE38" s="13"/>
+      <c r="EF38" s="16"/>
+      <c r="EG38" s="16"/>
+      <c r="EH38" s="16"/>
+      <c r="EI38" s="16"/>
+      <c r="EJ38" s="14"/>
+      <c r="EK38" s="14"/>
+      <c r="EL38" s="13"/>
+      <c r="EM38" s="14"/>
+      <c r="EN38" s="16"/>
+      <c r="EO38" s="16"/>
+      <c r="EP38" s="16"/>
+      <c r="EQ38" s="14"/>
+      <c r="ER38" s="14"/>
+      <c r="ES38" s="13"/>
+      <c r="ET38" s="13"/>
+      <c r="EU38" s="13"/>
+      <c r="EV38" s="17"/>
+    </row>
+    <row r="39" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="123"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="71"/>
+      <c r="R39" s="71"/>
+      <c r="S39" s="71"/>
+      <c r="T39" s="71"/>
+      <c r="U39" s="72"/>
+      <c r="V39" s="72"/>
+      <c r="W39" s="73"/>
+      <c r="X39" s="71"/>
+      <c r="Y39" s="71"/>
+      <c r="Z39" s="71"/>
+      <c r="AA39" s="71"/>
+      <c r="AB39" s="72"/>
+      <c r="AC39" s="72"/>
+      <c r="AD39" s="73"/>
+      <c r="AE39" s="71"/>
+      <c r="AF39" s="71"/>
+      <c r="AG39" s="70"/>
+      <c r="AH39" s="71"/>
+      <c r="AI39" s="72"/>
+      <c r="AJ39" s="72"/>
+      <c r="AK39" s="73"/>
+      <c r="AL39" s="71"/>
+      <c r="AM39" s="71"/>
+      <c r="AN39" s="71"/>
+      <c r="AO39" s="71"/>
+      <c r="AP39" s="72"/>
+      <c r="AQ39" s="72"/>
+      <c r="AR39" s="73"/>
+      <c r="AS39" s="71"/>
+      <c r="AT39" s="71"/>
+      <c r="AU39" s="72"/>
+      <c r="AV39" s="72"/>
+      <c r="AW39" s="72"/>
+      <c r="AX39" s="72"/>
+      <c r="AY39" s="73"/>
+      <c r="AZ39" s="71"/>
+      <c r="BA39" s="71"/>
+      <c r="BB39" s="71"/>
+      <c r="BC39" s="71"/>
+      <c r="BD39" s="72"/>
+      <c r="BE39" s="72"/>
+      <c r="BF39" s="73"/>
+      <c r="BG39" s="71"/>
+      <c r="BH39" s="74"/>
+      <c r="BI39" s="72"/>
+      <c r="BJ39" s="71"/>
+      <c r="BK39" s="72"/>
+      <c r="BL39" s="119"/>
+      <c r="BM39" s="119"/>
+      <c r="BN39" s="119"/>
+      <c r="BO39" s="119"/>
+      <c r="BP39" s="119"/>
+      <c r="BQ39" s="71"/>
+      <c r="BR39" s="72"/>
+      <c r="BS39" s="72"/>
+      <c r="BT39" s="73"/>
+      <c r="BU39" s="71"/>
+      <c r="BV39" s="71"/>
+      <c r="BW39" s="71"/>
+      <c r="BX39" s="71"/>
+      <c r="BY39" s="72"/>
+      <c r="BZ39" s="72"/>
+      <c r="CA39" s="73"/>
+      <c r="CB39" s="71"/>
+      <c r="CC39" s="71"/>
+      <c r="CD39" s="71"/>
+      <c r="CE39" s="71"/>
+      <c r="CF39" s="72"/>
+      <c r="CG39" s="72"/>
+      <c r="CH39" s="73"/>
+      <c r="CI39" s="71"/>
+      <c r="CJ39" s="71"/>
+      <c r="CK39" s="71"/>
+      <c r="CL39" s="71"/>
+      <c r="CM39" s="72"/>
+      <c r="CN39" s="85"/>
+      <c r="CO39" s="73"/>
+      <c r="CP39" s="71"/>
+      <c r="CQ39" s="71"/>
+      <c r="CR39" s="71"/>
+      <c r="CS39" s="71"/>
+      <c r="CT39" s="72"/>
+      <c r="CU39" s="72"/>
+      <c r="CV39" s="73"/>
+      <c r="CW39" s="71"/>
+      <c r="CX39" s="71"/>
+      <c r="CY39" s="71"/>
+      <c r="CZ39" s="71"/>
+      <c r="DA39" s="72"/>
+      <c r="DB39" s="72"/>
+      <c r="DC39" s="73"/>
+      <c r="DD39" s="71"/>
+      <c r="DE39" s="71"/>
+      <c r="DF39" s="71"/>
+      <c r="DG39" s="71"/>
+      <c r="DH39" s="72"/>
+      <c r="DI39" s="72"/>
+      <c r="DJ39" s="73"/>
+      <c r="DK39" s="71"/>
+      <c r="DL39" s="71"/>
+      <c r="DM39" s="71"/>
+      <c r="DN39" s="71"/>
+      <c r="DO39" s="72"/>
+      <c r="DP39" s="72"/>
+      <c r="DQ39" s="95"/>
+      <c r="DR39" s="70"/>
+      <c r="DS39" s="71"/>
+      <c r="DT39" s="71"/>
+      <c r="DU39" s="71"/>
+      <c r="DV39" s="72"/>
+      <c r="DW39" s="72"/>
+      <c r="DX39" s="72"/>
+      <c r="DY39" s="71"/>
+      <c r="DZ39" s="71"/>
+      <c r="EA39" s="71"/>
+      <c r="EB39" s="71"/>
+      <c r="EC39" s="72"/>
+      <c r="ED39" s="72"/>
+      <c r="EE39" s="73"/>
+      <c r="EF39" s="71"/>
+      <c r="EG39" s="71"/>
+      <c r="EH39" s="71"/>
+      <c r="EI39" s="71"/>
+      <c r="EJ39" s="72"/>
+      <c r="EK39" s="72"/>
+      <c r="EL39" s="73"/>
+      <c r="EM39" s="72"/>
+      <c r="EN39" s="71"/>
+      <c r="EO39" s="71"/>
+      <c r="EP39" s="71"/>
+      <c r="EQ39" s="72"/>
+      <c r="ER39" s="72"/>
+      <c r="ES39" s="73"/>
+      <c r="ET39" s="73"/>
+      <c r="EU39" s="73"/>
+      <c r="EV39" s="98"/>
+    </row>
+    <row r="40" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="122" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="75"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="76"/>
+      <c r="N40" s="77"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="83"/>
+      <c r="Q40" s="76"/>
+      <c r="R40" s="76"/>
+      <c r="S40" s="76"/>
+      <c r="T40" s="76"/>
+      <c r="U40" s="77"/>
+      <c r="V40" s="77"/>
+      <c r="W40" s="83"/>
+      <c r="X40" s="76"/>
+      <c r="Y40" s="76"/>
+      <c r="Z40" s="76"/>
+      <c r="AA40" s="76"/>
+      <c r="AB40" s="77"/>
+      <c r="AC40" s="77"/>
+      <c r="AD40" s="78"/>
+      <c r="AE40" s="76"/>
+      <c r="AF40" s="76"/>
+      <c r="AG40" s="82"/>
+      <c r="AH40" s="83"/>
+      <c r="AI40" s="77"/>
+      <c r="AJ40" s="77"/>
+      <c r="AK40" s="78"/>
+      <c r="AL40" s="76"/>
+      <c r="AM40" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN40" s="76"/>
+      <c r="AO40" s="83"/>
+      <c r="AP40" s="77"/>
+      <c r="AQ40" s="77"/>
+      <c r="AR40" s="78"/>
+      <c r="AS40" s="76"/>
+      <c r="AT40" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU40" s="77"/>
+      <c r="AV40" s="77"/>
+      <c r="AW40" s="77"/>
+      <c r="AX40" s="77"/>
+      <c r="AY40" s="78"/>
+      <c r="AZ40" s="76"/>
+      <c r="BA40" s="76"/>
+      <c r="BB40" s="76"/>
+      <c r="BC40" s="76"/>
+      <c r="BD40" s="77"/>
+      <c r="BE40" s="77"/>
+      <c r="BF40" s="78"/>
+      <c r="BG40" s="76"/>
+      <c r="BH40" s="84"/>
+      <c r="BI40" s="77"/>
+      <c r="BJ40" s="76"/>
+      <c r="BK40" s="77"/>
+      <c r="BL40" s="116"/>
+      <c r="BM40" s="120"/>
+      <c r="BN40" s="116"/>
+      <c r="BO40" s="116"/>
+      <c r="BP40" s="116"/>
+      <c r="BQ40" s="76"/>
+      <c r="BR40" s="77"/>
+      <c r="BS40" s="77"/>
+      <c r="BT40" s="46"/>
+      <c r="BU40" s="76"/>
+      <c r="BV40" s="76"/>
+      <c r="BW40" s="76"/>
+      <c r="BX40" s="76"/>
+      <c r="BY40" s="77"/>
+      <c r="BZ40" s="77"/>
+      <c r="CA40" s="78"/>
+      <c r="CB40" s="76"/>
+      <c r="CC40" s="76"/>
+      <c r="CD40" s="76"/>
+      <c r="CE40" s="76"/>
+      <c r="CF40" s="77"/>
+      <c r="CG40" s="77"/>
+      <c r="CH40" s="78"/>
+      <c r="CI40" s="76"/>
+      <c r="CJ40" s="76"/>
+      <c r="CK40" s="76"/>
+      <c r="CL40" s="76"/>
+      <c r="CM40" s="77"/>
+      <c r="CN40" s="75"/>
+      <c r="CO40" s="78"/>
+      <c r="CP40" s="76"/>
+      <c r="CQ40" s="76"/>
+      <c r="CR40" s="76"/>
+      <c r="CS40" s="76"/>
+      <c r="CT40" s="77"/>
+      <c r="CU40" s="77"/>
+      <c r="CV40" s="46"/>
+      <c r="CW40" s="76"/>
+      <c r="CX40" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="CY40" s="76"/>
+      <c r="CZ40" s="76"/>
+      <c r="DA40" s="77"/>
+      <c r="DB40" s="77"/>
+      <c r="DC40" s="78"/>
+      <c r="DD40" s="76"/>
+      <c r="DE40" s="76"/>
+      <c r="DF40" s="76"/>
+      <c r="DG40" s="76"/>
+      <c r="DH40" s="77"/>
+      <c r="DI40" s="77"/>
+      <c r="DJ40" s="78"/>
+      <c r="DK40" s="76"/>
+      <c r="DL40" s="76"/>
+      <c r="DM40" s="76"/>
+      <c r="DN40" s="76"/>
+      <c r="DO40" s="77"/>
+      <c r="DP40" s="77"/>
+      <c r="DQ40" s="84"/>
+      <c r="DR40" s="82"/>
+      <c r="DS40" s="76"/>
+      <c r="DT40" s="76"/>
+      <c r="DU40" s="76"/>
+      <c r="DV40" s="77"/>
+      <c r="DW40" s="77"/>
+      <c r="DX40" s="77"/>
+      <c r="DY40" s="76"/>
+      <c r="DZ40" s="76"/>
+      <c r="EA40" s="76"/>
+      <c r="EB40" s="76"/>
+      <c r="EC40" s="77"/>
+      <c r="ED40" s="77"/>
+      <c r="EE40" s="78"/>
+      <c r="EF40" s="76"/>
+      <c r="EG40" s="76"/>
+      <c r="EH40" s="76"/>
+      <c r="EI40" s="76"/>
+      <c r="EJ40" s="77"/>
+      <c r="EK40" s="77"/>
+      <c r="EL40" s="78"/>
+      <c r="EM40" s="77"/>
+      <c r="EN40" s="76"/>
+      <c r="EO40" s="76"/>
+      <c r="EP40" s="76"/>
+      <c r="EQ40" s="77"/>
+      <c r="ER40" s="77"/>
+      <c r="ES40" s="78"/>
+      <c r="ET40" s="78"/>
+      <c r="EU40" s="78"/>
+      <c r="EV40" s="102"/>
+    </row>
+    <row r="41" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="123"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="14"/>
+      <c r="AC41" s="14"/>
+      <c r="AD41" s="13"/>
+      <c r="AE41" s="16"/>
+      <c r="AF41" s="16"/>
+      <c r="AG41" s="67"/>
+      <c r="AH41" s="23"/>
+      <c r="AI41" s="14"/>
+      <c r="AJ41" s="14"/>
+      <c r="AK41" s="13"/>
+      <c r="AL41" s="16"/>
+      <c r="AM41" s="16"/>
+      <c r="AN41" s="16"/>
+      <c r="AO41" s="23"/>
+      <c r="AP41" s="14"/>
+      <c r="AQ41" s="14"/>
+      <c r="AR41" s="13"/>
+      <c r="AS41" s="16"/>
+      <c r="AT41" s="23"/>
+      <c r="AU41" s="14"/>
+      <c r="AV41" s="14"/>
+      <c r="AW41" s="14"/>
+      <c r="AX41" s="14"/>
+      <c r="AY41" s="13"/>
+      <c r="AZ41" s="16"/>
+      <c r="BA41" s="16"/>
+      <c r="BB41" s="16"/>
+      <c r="BC41" s="16"/>
+      <c r="BD41" s="14"/>
+      <c r="BE41" s="14"/>
+      <c r="BF41" s="13"/>
+      <c r="BG41" s="16"/>
+      <c r="BH41" s="25"/>
+      <c r="BI41" s="14"/>
+      <c r="BJ41" s="16"/>
+      <c r="BK41" s="14"/>
+      <c r="BL41" s="113"/>
+      <c r="BM41" s="113"/>
+      <c r="BN41" s="113"/>
+      <c r="BO41" s="113"/>
+      <c r="BP41" s="113"/>
+      <c r="BQ41" s="16"/>
+      <c r="BR41" s="14"/>
+      <c r="BS41" s="14"/>
+      <c r="BT41" s="13"/>
+      <c r="BU41" s="16"/>
+      <c r="BV41" s="16"/>
+      <c r="BW41" s="16"/>
+      <c r="BX41" s="16"/>
+      <c r="BY41" s="14"/>
+      <c r="BZ41" s="14"/>
+      <c r="CA41" s="13"/>
+      <c r="CB41" s="16"/>
+      <c r="CC41" s="16"/>
+      <c r="CD41" s="16"/>
+      <c r="CE41" s="16"/>
+      <c r="CF41" s="14"/>
+      <c r="CG41" s="14"/>
+      <c r="CH41" s="13"/>
+      <c r="CI41" s="16"/>
+      <c r="CJ41" s="16"/>
+      <c r="CK41" s="16"/>
+      <c r="CL41" s="16"/>
+      <c r="CM41" s="14"/>
+      <c r="CN41" s="24"/>
+      <c r="CO41" s="13"/>
+      <c r="CP41" s="16"/>
+      <c r="CQ41" s="16"/>
+      <c r="CR41" s="16"/>
+      <c r="CS41" s="16"/>
+      <c r="CT41" s="14"/>
+      <c r="CU41" s="14"/>
+      <c r="CV41" s="13"/>
+      <c r="CW41" s="16"/>
+      <c r="CX41" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="CY41" s="16"/>
+      <c r="CZ41" s="16"/>
+      <c r="DA41" s="14"/>
+      <c r="DB41" s="14"/>
+      <c r="DC41" s="23"/>
+      <c r="DD41" s="16"/>
+      <c r="DE41" s="16"/>
+      <c r="DF41" s="16"/>
+      <c r="DG41" s="16"/>
+      <c r="DH41" s="14"/>
+      <c r="DI41" s="14"/>
+      <c r="DJ41" s="13"/>
+      <c r="DK41" s="16"/>
+      <c r="DL41" s="16"/>
+      <c r="DM41" s="16"/>
+      <c r="DN41" s="16"/>
+      <c r="DO41" s="14"/>
+      <c r="DP41" s="14"/>
+      <c r="DQ41" s="25"/>
+      <c r="DR41" s="67"/>
+      <c r="DS41" s="16"/>
+      <c r="DT41" s="16"/>
+      <c r="DU41" s="16"/>
+      <c r="DV41" s="14"/>
+      <c r="DW41" s="14"/>
+      <c r="DX41" s="14"/>
+      <c r="DY41" s="16"/>
+      <c r="DZ41" s="16"/>
+      <c r="EA41" s="16"/>
+      <c r="EB41" s="16"/>
+      <c r="EC41" s="14"/>
+      <c r="ED41" s="14"/>
+      <c r="EE41" s="13"/>
+      <c r="EF41" s="16"/>
+      <c r="EG41" s="16"/>
+      <c r="EH41" s="16"/>
+      <c r="EI41" s="16"/>
+      <c r="EJ41" s="14"/>
+      <c r="EK41" s="14"/>
+      <c r="EL41" s="13"/>
+      <c r="EM41" s="14"/>
+      <c r="EN41" s="16"/>
+      <c r="EO41" s="16"/>
+      <c r="EP41" s="16"/>
+      <c r="EQ41" s="14"/>
+      <c r="ER41" s="14"/>
+      <c r="ES41" s="13"/>
+      <c r="ET41" s="13"/>
+      <c r="EU41" s="13"/>
+      <c r="EV41" s="17"/>
+    </row>
+    <row r="42" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="123"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="14"/>
+      <c r="AD42" s="13"/>
+      <c r="AE42" s="16"/>
+      <c r="AF42" s="16"/>
+      <c r="AG42" s="67"/>
+      <c r="AH42" s="16"/>
+      <c r="AI42" s="14"/>
+      <c r="AJ42" s="14"/>
+      <c r="AK42" s="16"/>
+      <c r="AL42" s="16"/>
+      <c r="AM42" s="16"/>
+      <c r="AN42" s="16"/>
+      <c r="AO42" s="13"/>
+      <c r="AP42" s="14"/>
+      <c r="AQ42" s="14"/>
+      <c r="AR42" s="13"/>
+      <c r="AS42" s="16"/>
+      <c r="AT42" s="16"/>
+      <c r="AU42" s="14"/>
+      <c r="AV42" s="14"/>
+      <c r="AW42" s="14"/>
+      <c r="AX42" s="14"/>
+      <c r="AY42" s="13"/>
+      <c r="AZ42" s="16"/>
+      <c r="BA42" s="16"/>
+      <c r="BB42" s="16"/>
+      <c r="BC42" s="16"/>
+      <c r="BD42" s="14"/>
+      <c r="BE42" s="14"/>
+      <c r="BF42" s="16"/>
+      <c r="BG42" s="16"/>
+      <c r="BH42" s="25"/>
+      <c r="BI42" s="14"/>
+      <c r="BJ42" s="16"/>
+      <c r="BK42" s="14"/>
+      <c r="BL42" s="113"/>
+      <c r="BM42" s="113"/>
+      <c r="BN42" s="113"/>
+      <c r="BO42" s="113"/>
+      <c r="BP42" s="113"/>
+      <c r="BQ42" s="16"/>
+      <c r="BR42" s="14"/>
+      <c r="BS42" s="14"/>
+      <c r="BT42" s="13"/>
+      <c r="BU42" s="16"/>
+      <c r="BV42" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="BW42" s="16"/>
+      <c r="BX42" s="16"/>
+      <c r="BY42" s="14"/>
+      <c r="BZ42" s="14"/>
+      <c r="CA42" s="16"/>
+      <c r="CB42" s="16"/>
+      <c r="CC42" s="16"/>
+      <c r="CD42" s="16"/>
+      <c r="CE42" s="16"/>
+      <c r="CF42" s="14"/>
+      <c r="CG42" s="14"/>
+      <c r="CH42" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="CI42" s="16"/>
+      <c r="CJ42" s="16"/>
+      <c r="CK42" s="16"/>
+      <c r="CL42" s="16"/>
+      <c r="CM42" s="14"/>
+      <c r="CN42" s="24"/>
+      <c r="CO42" s="13"/>
+      <c r="CP42" s="16"/>
+      <c r="CQ42" s="16"/>
+      <c r="CR42" s="16"/>
+      <c r="CS42" s="16"/>
+      <c r="CT42" s="14"/>
+      <c r="CU42" s="14"/>
+      <c r="CV42" s="13"/>
+      <c r="CW42" s="16"/>
+      <c r="CX42" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="CY42" s="16"/>
+      <c r="CZ42" s="16"/>
+      <c r="DA42" s="14"/>
+      <c r="DB42" s="14"/>
+      <c r="DC42" s="16"/>
+      <c r="DD42" s="16"/>
+      <c r="DE42" s="16"/>
+      <c r="DF42" s="16"/>
+      <c r="DG42" s="16"/>
+      <c r="DH42" s="14"/>
+      <c r="DI42" s="14"/>
+      <c r="DJ42" s="16"/>
+      <c r="DK42" s="16"/>
+      <c r="DL42" s="16"/>
+      <c r="DM42" s="16"/>
+      <c r="DN42" s="16"/>
+      <c r="DO42" s="14"/>
+      <c r="DP42" s="14"/>
+      <c r="DQ42" s="25"/>
+      <c r="DR42" s="67"/>
+      <c r="DS42" s="16"/>
+      <c r="DT42" s="16"/>
+      <c r="DU42" s="16"/>
+      <c r="DV42" s="14"/>
+      <c r="DW42" s="14"/>
+      <c r="DX42" s="14"/>
+      <c r="DY42" s="16"/>
+      <c r="DZ42" s="16"/>
+      <c r="EA42" s="16"/>
+      <c r="EB42" s="16"/>
+      <c r="EC42" s="14"/>
+      <c r="ED42" s="14"/>
+      <c r="EE42" s="13"/>
+      <c r="EF42" s="16"/>
+      <c r="EG42" s="16"/>
+      <c r="EH42" s="16"/>
+      <c r="EI42" s="16"/>
+      <c r="EJ42" s="14"/>
+      <c r="EK42" s="14"/>
+      <c r="EL42" s="13"/>
+      <c r="EM42" s="14"/>
+      <c r="EN42" s="16"/>
+      <c r="EO42" s="16"/>
+      <c r="EP42" s="16"/>
+      <c r="EQ42" s="14"/>
+      <c r="ER42" s="14"/>
+      <c r="ES42" s="13"/>
+      <c r="ET42" s="13"/>
+      <c r="EU42" s="13"/>
+      <c r="EV42" s="17"/>
+    </row>
+    <row r="43" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="123"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="14"/>
+      <c r="AC43" s="14"/>
+      <c r="AD43" s="13"/>
+      <c r="AE43" s="16"/>
+      <c r="AF43" s="16"/>
+      <c r="AG43" s="67"/>
+      <c r="AH43" s="16"/>
+      <c r="AI43" s="14"/>
+      <c r="AJ43" s="14"/>
+      <c r="AK43" s="13"/>
+      <c r="AL43" s="16"/>
+      <c r="AM43" s="16"/>
+      <c r="AN43" s="16"/>
+      <c r="AO43" s="16"/>
+      <c r="AP43" s="14"/>
+      <c r="AQ43" s="14"/>
+      <c r="AR43" s="13"/>
+      <c r="AS43" s="16"/>
+      <c r="AT43" s="16"/>
+      <c r="AU43" s="14"/>
+      <c r="AV43" s="14"/>
+      <c r="AW43" s="14"/>
+      <c r="AX43" s="14"/>
+      <c r="AY43" s="13"/>
+      <c r="AZ43" s="16"/>
+      <c r="BA43" s="16"/>
+      <c r="BB43" s="16"/>
+      <c r="BC43" s="16"/>
+      <c r="BD43" s="14"/>
+      <c r="BE43" s="14"/>
+      <c r="BF43" s="13"/>
+      <c r="BG43" s="16"/>
+      <c r="BH43" s="25"/>
+      <c r="BI43" s="14"/>
+      <c r="BJ43" s="16"/>
+      <c r="BK43" s="14"/>
+      <c r="BL43" s="113"/>
+      <c r="BM43" s="113"/>
+      <c r="BN43" s="113"/>
+      <c r="BO43" s="113"/>
+      <c r="BP43" s="113"/>
+      <c r="BQ43" s="16"/>
+      <c r="BR43" s="14"/>
+      <c r="BS43" s="14"/>
+      <c r="BT43" s="13"/>
+      <c r="BU43" s="16"/>
+      <c r="BV43" s="16"/>
+      <c r="BW43" s="16"/>
+      <c r="BX43" s="16"/>
+      <c r="BY43" s="14"/>
+      <c r="BZ43" s="14"/>
+      <c r="CA43" s="23"/>
+      <c r="CB43" s="16"/>
+      <c r="CC43" s="16"/>
+      <c r="CD43" s="16"/>
+      <c r="CE43" s="16"/>
+      <c r="CF43" s="14"/>
+      <c r="CG43" s="14"/>
+      <c r="CH43" s="13"/>
+      <c r="CI43" s="16"/>
+      <c r="CJ43" s="16"/>
+      <c r="CK43" s="16"/>
+      <c r="CL43" s="16"/>
+      <c r="CM43" s="14"/>
+      <c r="CN43" s="24"/>
+      <c r="CO43" s="13"/>
+      <c r="CP43" s="16"/>
+      <c r="CQ43" s="16"/>
+      <c r="CR43" s="16"/>
+      <c r="CS43" s="16"/>
+      <c r="CT43" s="14"/>
+      <c r="CU43" s="14"/>
+      <c r="CV43" s="13"/>
+      <c r="CW43" s="16"/>
+      <c r="CX43" s="16"/>
+      <c r="CY43" s="16"/>
+      <c r="CZ43" s="16"/>
+      <c r="DA43" s="14"/>
+      <c r="DB43" s="14"/>
+      <c r="DC43" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="DD43" s="16"/>
+      <c r="DE43" s="16"/>
+      <c r="DF43" s="16"/>
+      <c r="DG43" s="16"/>
+      <c r="DH43" s="14"/>
+      <c r="DI43" s="14"/>
+      <c r="DJ43" s="23"/>
+      <c r="DK43" s="16"/>
+      <c r="DL43" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="DM43" s="16"/>
+      <c r="DN43" s="16"/>
+      <c r="DO43" s="14"/>
+      <c r="DP43" s="14"/>
+      <c r="DQ43" s="17"/>
+      <c r="DR43" s="67"/>
+      <c r="DS43" s="16"/>
+      <c r="DT43" s="16"/>
+      <c r="DU43" s="16"/>
+      <c r="DV43" s="14"/>
+      <c r="DW43" s="14"/>
+      <c r="DX43" s="14"/>
+      <c r="DY43" s="16"/>
+      <c r="DZ43" s="16"/>
+      <c r="EA43" s="16"/>
+      <c r="EB43" s="16"/>
+      <c r="EC43" s="14"/>
+      <c r="ED43" s="14"/>
+      <c r="EE43" s="13"/>
+      <c r="EF43" s="16"/>
+      <c r="EG43" s="16"/>
+      <c r="EH43" s="16"/>
+      <c r="EI43" s="16"/>
+      <c r="EJ43" s="14"/>
+      <c r="EK43" s="14"/>
+      <c r="EL43" s="13"/>
+      <c r="EM43" s="14"/>
+      <c r="EN43" s="16"/>
+      <c r="EO43" s="16"/>
+      <c r="EP43" s="16"/>
+      <c r="EQ43" s="14"/>
+      <c r="ER43" s="14"/>
+      <c r="ES43" s="13"/>
+      <c r="ET43" s="13"/>
+      <c r="EU43" s="13"/>
+      <c r="EV43" s="17"/>
+    </row>
+    <row r="44" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="124"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="71"/>
+      <c r="R44" s="71"/>
+      <c r="S44" s="71"/>
+      <c r="T44" s="71"/>
+      <c r="U44" s="72"/>
+      <c r="V44" s="72"/>
+      <c r="W44" s="73"/>
+      <c r="X44" s="71"/>
+      <c r="Y44" s="71"/>
+      <c r="Z44" s="71"/>
+      <c r="AA44" s="71"/>
+      <c r="AB44" s="72"/>
+      <c r="AC44" s="72"/>
+      <c r="AD44" s="73"/>
+      <c r="AE44" s="71"/>
+      <c r="AF44" s="71"/>
+      <c r="AG44" s="70"/>
+      <c r="AH44" s="71"/>
+      <c r="AI44" s="72"/>
+      <c r="AJ44" s="72"/>
+      <c r="AK44" s="73"/>
+      <c r="AL44" s="71"/>
+      <c r="AM44" s="71"/>
+      <c r="AN44" s="71"/>
+      <c r="AO44" s="71"/>
+      <c r="AP44" s="72"/>
+      <c r="AQ44" s="72"/>
+      <c r="AR44" s="73"/>
+      <c r="AS44" s="71"/>
+      <c r="AT44" s="71"/>
+      <c r="AU44" s="72"/>
+      <c r="AV44" s="72"/>
+      <c r="AW44" s="72"/>
+      <c r="AX44" s="72"/>
+      <c r="AY44" s="73"/>
+      <c r="AZ44" s="71"/>
+      <c r="BA44" s="71"/>
+      <c r="BB44" s="71"/>
+      <c r="BC44" s="71"/>
+      <c r="BD44" s="72"/>
+      <c r="BE44" s="72"/>
+      <c r="BF44" s="73"/>
+      <c r="BG44" s="71"/>
+      <c r="BH44" s="74"/>
+      <c r="BI44" s="72"/>
+      <c r="BJ44" s="71"/>
+      <c r="BK44" s="72"/>
+      <c r="BL44" s="119"/>
+      <c r="BM44" s="119"/>
+      <c r="BN44" s="119"/>
+      <c r="BO44" s="119"/>
+      <c r="BP44" s="119"/>
+      <c r="BQ44" s="71"/>
+      <c r="BR44" s="72"/>
+      <c r="BS44" s="72"/>
+      <c r="BT44" s="73"/>
+      <c r="BU44" s="71"/>
+      <c r="BV44" s="71"/>
+      <c r="BW44" s="71"/>
+      <c r="BX44" s="71"/>
+      <c r="BY44" s="72"/>
+      <c r="BZ44" s="72"/>
+      <c r="CA44" s="73"/>
+      <c r="CB44" s="71"/>
+      <c r="CC44" s="71"/>
+      <c r="CD44" s="71"/>
+      <c r="CE44" s="71"/>
+      <c r="CF44" s="72"/>
+      <c r="CG44" s="72"/>
+      <c r="CH44" s="73"/>
+      <c r="CI44" s="71"/>
+      <c r="CJ44" s="71"/>
+      <c r="CK44" s="71"/>
+      <c r="CL44" s="71"/>
+      <c r="CM44" s="72"/>
+      <c r="CN44" s="85"/>
+      <c r="CO44" s="73"/>
+      <c r="CP44" s="71"/>
+      <c r="CQ44" s="71"/>
+      <c r="CR44" s="71"/>
+      <c r="CS44" s="71"/>
+      <c r="CT44" s="72"/>
+      <c r="CU44" s="72"/>
+      <c r="CV44" s="16"/>
+      <c r="CW44" s="71"/>
+      <c r="CX44" s="71"/>
+      <c r="CY44" s="71"/>
+      <c r="CZ44" s="71"/>
+      <c r="DA44" s="72"/>
+      <c r="DB44" s="72"/>
+      <c r="DC44" s="71"/>
+      <c r="DD44" s="71"/>
+      <c r="DE44" s="71"/>
+      <c r="DF44" s="71"/>
+      <c r="DG44" s="71"/>
+      <c r="DH44" s="72"/>
+      <c r="DI44" s="72"/>
+      <c r="DJ44" s="71"/>
+      <c r="DK44" s="71"/>
+      <c r="DL44" s="71"/>
+      <c r="DM44" s="71"/>
+      <c r="DN44" s="71"/>
+      <c r="DO44" s="72"/>
+      <c r="DP44" s="72"/>
+      <c r="DQ44" s="95"/>
+      <c r="DR44" s="70"/>
+      <c r="DS44" s="71"/>
+      <c r="DT44" s="71"/>
+      <c r="DU44" s="71"/>
+      <c r="DV44" s="72"/>
+      <c r="DW44" s="72"/>
+      <c r="DX44" s="72"/>
+      <c r="DY44" s="71"/>
+      <c r="DZ44" s="71"/>
+      <c r="EA44" s="71"/>
+      <c r="EB44" s="71"/>
+      <c r="EC44" s="72"/>
+      <c r="ED44" s="72"/>
+      <c r="EE44" s="73"/>
+      <c r="EF44" s="71"/>
+      <c r="EG44" s="71"/>
+      <c r="EH44" s="71"/>
+      <c r="EI44" s="71"/>
+      <c r="EJ44" s="72"/>
+      <c r="EK44" s="72"/>
+      <c r="EL44" s="73"/>
+      <c r="EM44" s="72"/>
+      <c r="EN44" s="71"/>
+      <c r="EO44" s="71"/>
+      <c r="EP44" s="71"/>
+      <c r="EQ44" s="72"/>
+      <c r="ER44" s="72"/>
+      <c r="ES44" s="73"/>
+      <c r="ET44" s="73"/>
+      <c r="EU44" s="73"/>
+      <c r="EV44" s="98"/>
+    </row>
+    <row r="45" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="123" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="75"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="78"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="76"/>
+      <c r="N45" s="77"/>
+      <c r="O45" s="77"/>
+      <c r="P45" s="83"/>
+      <c r="Q45" s="76"/>
+      <c r="R45" s="76"/>
+      <c r="S45" s="76"/>
+      <c r="T45" s="76"/>
+      <c r="U45" s="77"/>
+      <c r="V45" s="77"/>
+      <c r="W45" s="83"/>
+      <c r="X45" s="76"/>
+      <c r="Y45" s="76"/>
+      <c r="Z45" s="76"/>
+      <c r="AA45" s="76"/>
+      <c r="AB45" s="77"/>
+      <c r="AC45" s="77"/>
+      <c r="AD45" s="78"/>
+      <c r="AE45" s="76"/>
+      <c r="AF45" s="76"/>
+      <c r="AG45" s="82"/>
+      <c r="AH45" s="83"/>
+      <c r="AI45" s="77"/>
+      <c r="AJ45" s="77"/>
+      <c r="AK45" s="78"/>
+      <c r="AL45" s="76"/>
+      <c r="AM45" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN45" s="76"/>
+      <c r="AO45" s="83"/>
+      <c r="AP45" s="77"/>
+      <c r="AQ45" s="77"/>
+      <c r="AR45" s="78"/>
+      <c r="AS45" s="76"/>
+      <c r="AT45" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU45" s="77"/>
+      <c r="AV45" s="77"/>
+      <c r="AW45" s="77"/>
+      <c r="AX45" s="77"/>
+      <c r="AY45" s="78"/>
+      <c r="AZ45" s="76"/>
+      <c r="BA45" s="76"/>
+      <c r="BB45" s="76"/>
+      <c r="BC45" s="76"/>
+      <c r="BD45" s="77"/>
+      <c r="BE45" s="77"/>
+      <c r="BF45" s="78"/>
+      <c r="BG45" s="76"/>
+      <c r="BH45" s="84"/>
+      <c r="BI45" s="77"/>
+      <c r="BJ45" s="76"/>
+      <c r="BK45" s="77"/>
+      <c r="BL45" s="116"/>
+      <c r="BM45" s="116"/>
+      <c r="BN45" s="116"/>
+      <c r="BO45" s="116"/>
+      <c r="BP45" s="116"/>
+      <c r="BQ45" s="76"/>
+      <c r="BR45" s="77"/>
+      <c r="BS45" s="77"/>
+      <c r="BT45" s="78"/>
+      <c r="BU45" s="76"/>
+      <c r="BV45" s="76"/>
+      <c r="BW45" s="76"/>
+      <c r="BX45" s="76"/>
+      <c r="BY45" s="77"/>
+      <c r="BZ45" s="77"/>
+      <c r="CA45" s="78"/>
+      <c r="CB45" s="76"/>
+      <c r="CC45" s="76"/>
+      <c r="CD45" s="76"/>
+      <c r="CE45" s="76"/>
+      <c r="CF45" s="77"/>
+      <c r="CG45" s="77"/>
+      <c r="CH45" s="78"/>
+      <c r="CI45" s="76"/>
+      <c r="CJ45" s="76"/>
+      <c r="CK45" s="76"/>
+      <c r="CL45" s="76"/>
+      <c r="CM45" s="77"/>
+      <c r="CN45" s="75"/>
+      <c r="CO45" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP45" s="76"/>
+      <c r="CQ45" s="76"/>
+      <c r="CR45" s="76"/>
+      <c r="CS45" s="76"/>
+      <c r="CT45" s="77"/>
+      <c r="CU45" s="77"/>
+      <c r="CV45" s="78"/>
+      <c r="CW45" s="76"/>
+      <c r="CX45" s="76"/>
+      <c r="CY45" s="76"/>
+      <c r="CZ45" s="76"/>
+      <c r="DA45" s="77"/>
+      <c r="DB45" s="77"/>
+      <c r="DC45" s="83"/>
+      <c r="DD45" s="76"/>
+      <c r="DE45" s="76"/>
+      <c r="DF45" s="76"/>
+      <c r="DG45" s="76"/>
+      <c r="DH45" s="77"/>
+      <c r="DI45" s="77"/>
+      <c r="DJ45" s="78"/>
+      <c r="DK45" s="76"/>
+      <c r="DL45" s="76"/>
+      <c r="DM45" s="76"/>
+      <c r="DN45" s="76"/>
+      <c r="DO45" s="77"/>
+      <c r="DP45" s="77"/>
+      <c r="DQ45" s="84"/>
+      <c r="DR45" s="82"/>
+      <c r="DS45" s="76"/>
+      <c r="DT45" s="76"/>
+      <c r="DU45" s="76"/>
+      <c r="DV45" s="77"/>
+      <c r="DW45" s="77"/>
+      <c r="DX45" s="77"/>
+      <c r="DY45" s="76"/>
+      <c r="DZ45" s="76"/>
+      <c r="EA45" s="76"/>
+      <c r="EB45" s="76"/>
+      <c r="EC45" s="77"/>
+      <c r="ED45" s="77"/>
+      <c r="EE45" s="78"/>
+      <c r="EF45" s="76"/>
+      <c r="EG45" s="76"/>
+      <c r="EH45" s="76"/>
+      <c r="EI45" s="76"/>
+      <c r="EJ45" s="77"/>
+      <c r="EK45" s="77"/>
+      <c r="EL45" s="78"/>
+      <c r="EM45" s="77"/>
+      <c r="EN45" s="76"/>
+      <c r="EO45" s="76"/>
+      <c r="EP45" s="76"/>
+      <c r="EQ45" s="77"/>
+      <c r="ER45" s="77"/>
+      <c r="ES45" s="78"/>
+      <c r="ET45" s="78"/>
+      <c r="EU45" s="78"/>
+      <c r="EV45" s="102"/>
+    </row>
+    <row r="46" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="123"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="16"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="14"/>
+      <c r="AC46" s="14"/>
+      <c r="AD46" s="13"/>
+      <c r="AE46" s="16"/>
+      <c r="AF46" s="16"/>
+      <c r="AG46" s="67"/>
+      <c r="AH46" s="23"/>
+      <c r="AI46" s="14"/>
+      <c r="AJ46" s="14"/>
+      <c r="AK46" s="13"/>
+      <c r="AL46" s="16"/>
+      <c r="AM46" s="16"/>
+      <c r="AN46" s="16"/>
+      <c r="AO46" s="23"/>
+      <c r="AP46" s="14"/>
+      <c r="AQ46" s="14"/>
+      <c r="AR46" s="13"/>
+      <c r="AS46" s="16"/>
+      <c r="AT46" s="23"/>
+      <c r="AU46" s="14"/>
+      <c r="AV46" s="14"/>
+      <c r="AW46" s="14"/>
+      <c r="AX46" s="14"/>
+      <c r="AY46" s="13"/>
+      <c r="AZ46" s="16"/>
+      <c r="BA46" s="16"/>
+      <c r="BB46" s="16"/>
+      <c r="BC46" s="16"/>
+      <c r="BD46" s="14"/>
+      <c r="BE46" s="14"/>
+      <c r="BF46" s="13"/>
+      <c r="BG46" s="16"/>
+      <c r="BH46" s="25"/>
+      <c r="BI46" s="14"/>
+      <c r="BJ46" s="16"/>
+      <c r="BK46" s="14"/>
+      <c r="BL46" s="113"/>
+      <c r="BM46" s="113"/>
+      <c r="BN46" s="113"/>
+      <c r="BO46" s="113"/>
+      <c r="BP46" s="113"/>
+      <c r="BQ46" s="16"/>
+      <c r="BR46" s="14"/>
+      <c r="BS46" s="14"/>
+      <c r="BT46" s="13"/>
+      <c r="BU46" s="16"/>
+      <c r="BV46" s="16"/>
+      <c r="BW46" s="16"/>
+      <c r="BX46" s="16"/>
+      <c r="BY46" s="14"/>
+      <c r="BZ46" s="14"/>
+      <c r="CA46" s="13"/>
+      <c r="CB46" s="16"/>
+      <c r="CC46" s="16"/>
+      <c r="CD46" s="16"/>
+      <c r="CE46" s="16"/>
+      <c r="CF46" s="14"/>
+      <c r="CG46" s="14"/>
+      <c r="CH46" s="13"/>
+      <c r="CI46" s="16"/>
+      <c r="CJ46" s="16"/>
+      <c r="CK46" s="16"/>
+      <c r="CL46" s="16"/>
+      <c r="CM46" s="14"/>
+      <c r="CN46" s="24"/>
+      <c r="CO46" s="13"/>
+      <c r="CP46" s="16"/>
+      <c r="CQ46" s="16"/>
+      <c r="CR46" s="16"/>
+      <c r="CS46" s="16"/>
+      <c r="CT46" s="14"/>
+      <c r="CU46" s="14"/>
+      <c r="CV46" s="13"/>
+      <c r="CW46" s="16"/>
+      <c r="CX46" s="16"/>
+      <c r="CY46" s="16"/>
+      <c r="CZ46" s="16"/>
+      <c r="DA46" s="14"/>
+      <c r="DB46" s="14"/>
+      <c r="DC46" s="13"/>
+      <c r="DD46" s="16"/>
+      <c r="DE46" s="16"/>
+      <c r="DF46" s="16"/>
+      <c r="DG46" s="16"/>
+      <c r="DH46" s="14"/>
+      <c r="DI46" s="14"/>
+      <c r="DJ46" s="13"/>
+      <c r="DK46" s="16"/>
+      <c r="DL46" s="16"/>
+      <c r="DM46" s="16"/>
+      <c r="DN46" s="16"/>
+      <c r="DO46" s="14"/>
+      <c r="DP46" s="14"/>
+      <c r="DQ46" s="25"/>
+      <c r="DR46" s="67"/>
+      <c r="DS46" s="16"/>
+      <c r="DT46" s="16"/>
+      <c r="DU46" s="16"/>
+      <c r="DV46" s="14"/>
+      <c r="DW46" s="14"/>
+      <c r="DX46" s="14"/>
+      <c r="DY46" s="16"/>
+      <c r="DZ46" s="16"/>
+      <c r="EA46" s="16"/>
+      <c r="EB46" s="16"/>
+      <c r="EC46" s="14"/>
+      <c r="ED46" s="14"/>
+      <c r="EE46" s="13"/>
+      <c r="EF46" s="16"/>
+      <c r="EG46" s="16"/>
+      <c r="EH46" s="16"/>
+      <c r="EI46" s="16"/>
+      <c r="EJ46" s="14"/>
+      <c r="EK46" s="14"/>
+      <c r="EL46" s="13"/>
+      <c r="EM46" s="14"/>
+      <c r="EN46" s="16"/>
+      <c r="EO46" s="16"/>
+      <c r="EP46" s="16"/>
+      <c r="EQ46" s="14"/>
+      <c r="ER46" s="14"/>
+      <c r="ES46" s="13"/>
+      <c r="ET46" s="13"/>
+      <c r="EU46" s="13"/>
+      <c r="EV46" s="17"/>
+    </row>
+    <row r="47" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="123"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="16"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="14"/>
+      <c r="AC47" s="14"/>
+      <c r="AD47" s="13"/>
+      <c r="AE47" s="16"/>
+      <c r="AF47" s="16"/>
+      <c r="AG47" s="67"/>
+      <c r="AH47" s="16"/>
+      <c r="AI47" s="14"/>
+      <c r="AJ47" s="14"/>
+      <c r="AK47" s="16"/>
+      <c r="AL47" s="16"/>
+      <c r="AM47" s="16"/>
+      <c r="AN47" s="16"/>
+      <c r="AO47" s="13"/>
+      <c r="AP47" s="14"/>
+      <c r="AQ47" s="14"/>
+      <c r="AR47" s="13"/>
+      <c r="AS47" s="16"/>
+      <c r="AT47" s="16"/>
+      <c r="AU47" s="14"/>
+      <c r="AV47" s="14"/>
+      <c r="AW47" s="14"/>
+      <c r="AX47" s="14"/>
+      <c r="AY47" s="13"/>
+      <c r="AZ47" s="16"/>
+      <c r="BA47" s="16"/>
+      <c r="BB47" s="16"/>
+      <c r="BC47" s="16"/>
+      <c r="BD47" s="14"/>
+      <c r="BE47" s="14"/>
+      <c r="BF47" s="16"/>
+      <c r="BG47" s="16"/>
+      <c r="BH47" s="25"/>
+      <c r="BI47" s="14"/>
+      <c r="BJ47" s="16"/>
+      <c r="BK47" s="14"/>
+      <c r="BL47" s="113"/>
+      <c r="BM47" s="113"/>
+      <c r="BN47" s="113"/>
+      <c r="BO47" s="113"/>
+      <c r="BP47" s="113"/>
+      <c r="BQ47" s="16"/>
+      <c r="BR47" s="14"/>
+      <c r="BS47" s="14"/>
+      <c r="BT47" s="13"/>
+      <c r="BU47" s="16"/>
+      <c r="BV47" s="16"/>
+      <c r="BW47" s="16"/>
+      <c r="BX47" s="16"/>
+      <c r="BY47" s="14"/>
+      <c r="BZ47" s="14"/>
+      <c r="CA47" s="13"/>
+      <c r="CB47" s="16"/>
+      <c r="CC47" s="16"/>
+      <c r="CD47" s="16"/>
+      <c r="CE47" s="16"/>
+      <c r="CF47" s="14"/>
+      <c r="CG47" s="14"/>
+      <c r="CH47" s="13"/>
+      <c r="CI47" s="16"/>
+      <c r="CJ47" s="16"/>
+      <c r="CK47" s="16"/>
+      <c r="CL47" s="16"/>
+      <c r="CM47" s="14"/>
+      <c r="CN47" s="24"/>
+      <c r="CO47" s="13"/>
+      <c r="CP47" s="16"/>
+      <c r="CQ47" s="16"/>
+      <c r="CR47" s="16"/>
+      <c r="CS47" s="16"/>
+      <c r="CT47" s="14"/>
+      <c r="CU47" s="14"/>
+      <c r="CV47" s="13"/>
+      <c r="CW47" s="16"/>
+      <c r="CX47" s="16"/>
+      <c r="CY47" s="16"/>
+      <c r="CZ47" s="16"/>
+      <c r="DA47" s="14"/>
+      <c r="DB47" s="14"/>
+      <c r="DC47" s="13"/>
+      <c r="DD47" s="16"/>
+      <c r="DE47" s="16"/>
+      <c r="DF47" s="16"/>
+      <c r="DG47" s="16"/>
+      <c r="DH47" s="14"/>
+      <c r="DI47" s="14"/>
+      <c r="DJ47" s="13"/>
+      <c r="DK47" s="16"/>
+      <c r="DL47" s="16"/>
+      <c r="DM47" s="16"/>
+      <c r="DN47" s="16"/>
+      <c r="DO47" s="14"/>
+      <c r="DP47" s="14"/>
+      <c r="DQ47" s="16"/>
+      <c r="DR47" s="67"/>
+      <c r="DS47" s="16"/>
+      <c r="DT47" s="16"/>
+      <c r="DU47" s="16"/>
+      <c r="DV47" s="14"/>
+      <c r="DW47" s="14"/>
+      <c r="DX47" s="14"/>
+      <c r="DY47" s="16"/>
+      <c r="DZ47" s="16"/>
+      <c r="EA47" s="16"/>
+      <c r="EB47" s="16"/>
+      <c r="EC47" s="14"/>
+      <c r="ED47" s="14"/>
+      <c r="EE47" s="14"/>
+      <c r="EF47" s="16"/>
+      <c r="EG47" s="16"/>
+      <c r="EH47" s="16"/>
+      <c r="EI47" s="16"/>
+      <c r="EJ47" s="14"/>
+      <c r="EK47" s="14"/>
+      <c r="EL47" s="13"/>
+      <c r="EM47" s="14"/>
+      <c r="EN47" s="16"/>
+      <c r="EO47" s="16"/>
+      <c r="EP47" s="16"/>
+      <c r="EQ47" s="14"/>
+      <c r="ER47" s="14"/>
+      <c r="ES47" s="13"/>
+      <c r="ET47" s="13"/>
+      <c r="EU47" s="13"/>
+      <c r="EV47" s="17"/>
+    </row>
+    <row r="48" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="123"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="16"/>
+      <c r="Z48" s="16"/>
+      <c r="AA48" s="16"/>
+      <c r="AB48" s="14"/>
+      <c r="AC48" s="14"/>
+      <c r="AD48" s="13"/>
+      <c r="AE48" s="16"/>
+      <c r="AF48" s="16"/>
+      <c r="AG48" s="67"/>
+      <c r="AH48" s="16"/>
+      <c r="AI48" s="14"/>
+      <c r="AJ48" s="14"/>
+      <c r="AK48" s="13"/>
+      <c r="AL48" s="16"/>
+      <c r="AM48" s="16"/>
+      <c r="AN48" s="16"/>
+      <c r="AO48" s="16"/>
+      <c r="AP48" s="14"/>
+      <c r="AQ48" s="14"/>
+      <c r="AR48" s="13"/>
+      <c r="AS48" s="16"/>
+      <c r="AT48" s="16"/>
+      <c r="AU48" s="14"/>
+      <c r="AV48" s="14"/>
+      <c r="AW48" s="14"/>
+      <c r="AX48" s="14"/>
+      <c r="AY48" s="13"/>
+      <c r="AZ48" s="16"/>
+      <c r="BA48" s="16"/>
+      <c r="BB48" s="16"/>
+      <c r="BC48" s="16"/>
+      <c r="BD48" s="14"/>
+      <c r="BE48" s="14"/>
+      <c r="BF48" s="13"/>
+      <c r="BG48" s="16"/>
+      <c r="BH48" s="25"/>
+      <c r="BI48" s="14"/>
+      <c r="BJ48" s="16"/>
+      <c r="BK48" s="14"/>
+      <c r="BL48" s="113"/>
+      <c r="BM48" s="113"/>
+      <c r="BN48" s="113"/>
+      <c r="BO48" s="113"/>
+      <c r="BP48" s="113"/>
+      <c r="BQ48" s="16"/>
+      <c r="BR48" s="14"/>
+      <c r="BS48" s="14"/>
+      <c r="BT48" s="13"/>
+      <c r="BU48" s="16"/>
+      <c r="BV48" s="16"/>
+      <c r="BW48" s="16"/>
+      <c r="BX48" s="16"/>
+      <c r="BY48" s="14"/>
+      <c r="BZ48" s="14"/>
+      <c r="CA48" s="13"/>
+      <c r="CB48" s="16"/>
+      <c r="CC48" s="16"/>
+      <c r="CD48" s="16"/>
+      <c r="CE48" s="16"/>
+      <c r="CF48" s="14"/>
+      <c r="CG48" s="14"/>
+      <c r="CH48" s="13"/>
+      <c r="CI48" s="16"/>
+      <c r="CJ48" s="16"/>
+      <c r="CK48" s="16"/>
+      <c r="CL48" s="16"/>
+      <c r="CM48" s="14"/>
+      <c r="CN48" s="24"/>
+      <c r="CO48" s="13"/>
+      <c r="CP48" s="16"/>
+      <c r="CQ48" s="16"/>
+      <c r="CR48" s="16"/>
+      <c r="CS48" s="16"/>
+      <c r="CT48" s="14"/>
+      <c r="CU48" s="14"/>
+      <c r="CV48" s="13"/>
+      <c r="CW48" s="16"/>
+      <c r="CX48" s="16"/>
+      <c r="CY48" s="16"/>
+      <c r="CZ48" s="16"/>
+      <c r="DA48" s="14"/>
+      <c r="DB48" s="14"/>
+      <c r="DC48" s="13"/>
+      <c r="DD48" s="16"/>
+      <c r="DE48" s="16"/>
+      <c r="DF48" s="16"/>
+      <c r="DG48" s="16"/>
+      <c r="DH48" s="14"/>
+      <c r="DI48" s="14"/>
+      <c r="DJ48" s="13"/>
+      <c r="DK48" s="16"/>
+      <c r="DL48" s="16"/>
+      <c r="DM48" s="23"/>
+      <c r="DN48" s="16"/>
+      <c r="DO48" s="14"/>
+      <c r="DP48" s="14"/>
+      <c r="DQ48" s="23"/>
+      <c r="DR48" s="67"/>
+      <c r="DS48" s="16"/>
+      <c r="DT48" s="16"/>
+      <c r="DU48" s="16"/>
+      <c r="DV48" s="14"/>
+      <c r="DW48" s="14"/>
+      <c r="DX48" s="14"/>
+      <c r="DY48" s="16"/>
+      <c r="DZ48" s="16"/>
+      <c r="EA48" s="16"/>
+      <c r="EB48" s="16"/>
+      <c r="EC48" s="14"/>
+      <c r="ED48" s="14"/>
+      <c r="EE48" s="13"/>
+      <c r="EF48" s="16"/>
+      <c r="EG48" s="16"/>
+      <c r="EH48" s="16"/>
+      <c r="EI48" s="16"/>
+      <c r="EJ48" s="14"/>
+      <c r="EK48" s="14"/>
+      <c r="EL48" s="13"/>
+      <c r="EM48" s="14"/>
+      <c r="EN48" s="16"/>
+      <c r="EO48" s="16"/>
+      <c r="EP48" s="16"/>
+      <c r="EQ48" s="14"/>
+      <c r="ER48" s="14"/>
+      <c r="ES48" s="13"/>
+      <c r="ET48" s="13"/>
+      <c r="EU48" s="13"/>
+      <c r="EV48" s="17"/>
+    </row>
+    <row r="49" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="124"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="71"/>
+      <c r="N49" s="72"/>
+      <c r="O49" s="72"/>
+      <c r="P49" s="73"/>
+      <c r="Q49" s="71"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="71"/>
+      <c r="T49" s="71"/>
+      <c r="U49" s="72"/>
+      <c r="V49" s="72"/>
+      <c r="W49" s="73"/>
+      <c r="X49" s="71"/>
+      <c r="Y49" s="71"/>
+      <c r="Z49" s="71"/>
+      <c r="AA49" s="71"/>
+      <c r="AB49" s="72"/>
+      <c r="AC49" s="72"/>
+      <c r="AD49" s="73"/>
+      <c r="AE49" s="71"/>
+      <c r="AF49" s="71"/>
+      <c r="AG49" s="70"/>
+      <c r="AH49" s="71"/>
+      <c r="AI49" s="72"/>
+      <c r="AJ49" s="72"/>
+      <c r="AK49" s="73"/>
+      <c r="AL49" s="71"/>
+      <c r="AM49" s="71"/>
+      <c r="AN49" s="71"/>
+      <c r="AO49" s="71"/>
+      <c r="AP49" s="72"/>
+      <c r="AQ49" s="72"/>
+      <c r="AR49" s="73"/>
+      <c r="AS49" s="71"/>
+      <c r="AT49" s="71"/>
+      <c r="AU49" s="72"/>
+      <c r="AV49" s="72"/>
+      <c r="AW49" s="72"/>
+      <c r="AX49" s="72"/>
+      <c r="AY49" s="73"/>
+      <c r="AZ49" s="71"/>
+      <c r="BA49" s="71"/>
+      <c r="BB49" s="71"/>
+      <c r="BC49" s="71"/>
+      <c r="BD49" s="72"/>
+      <c r="BE49" s="72"/>
+      <c r="BF49" s="73"/>
+      <c r="BG49" s="71"/>
+      <c r="BH49" s="74"/>
+      <c r="BI49" s="72"/>
+      <c r="BJ49" s="71"/>
+      <c r="BK49" s="72"/>
+      <c r="BL49" s="119"/>
+      <c r="BM49" s="119"/>
+      <c r="BN49" s="119"/>
+      <c r="BO49" s="119"/>
+      <c r="BP49" s="119"/>
+      <c r="BQ49" s="71"/>
+      <c r="BR49" s="72"/>
+      <c r="BS49" s="72"/>
+      <c r="BT49" s="73"/>
+      <c r="BU49" s="71"/>
+      <c r="BV49" s="71"/>
+      <c r="BW49" s="71"/>
+      <c r="BX49" s="71"/>
+      <c r="BY49" s="72"/>
+      <c r="BZ49" s="72"/>
+      <c r="CA49" s="73"/>
+      <c r="CB49" s="71"/>
+      <c r="CC49" s="71"/>
+      <c r="CD49" s="71"/>
+      <c r="CE49" s="71"/>
+      <c r="CF49" s="72"/>
+      <c r="CG49" s="72"/>
+      <c r="CH49" s="73"/>
+      <c r="CI49" s="71"/>
+      <c r="CJ49" s="71"/>
+      <c r="CK49" s="71"/>
+      <c r="CL49" s="71"/>
+      <c r="CM49" s="72"/>
+      <c r="CN49" s="85"/>
+      <c r="CO49" s="73"/>
+      <c r="CP49" s="71"/>
+      <c r="CQ49" s="71"/>
+      <c r="CR49" s="71"/>
+      <c r="CS49" s="71"/>
+      <c r="CT49" s="72"/>
+      <c r="CU49" s="72"/>
+      <c r="CV49" s="73"/>
+      <c r="CW49" s="71"/>
+      <c r="CX49" s="71"/>
+      <c r="CY49" s="71"/>
+      <c r="CZ49" s="71"/>
+      <c r="DA49" s="72"/>
+      <c r="DB49" s="72"/>
+      <c r="DC49" s="73"/>
+      <c r="DD49" s="71"/>
+      <c r="DE49" s="71"/>
+      <c r="DF49" s="71"/>
+      <c r="DG49" s="71"/>
+      <c r="DH49" s="72"/>
+      <c r="DI49" s="72"/>
+      <c r="DJ49" s="73"/>
+      <c r="DK49" s="71"/>
+      <c r="DL49" s="71"/>
+      <c r="DM49" s="71"/>
+      <c r="DN49" s="71"/>
+      <c r="DO49" s="72"/>
+      <c r="DP49" s="72"/>
+      <c r="DQ49" s="95"/>
+      <c r="DR49" s="70"/>
+      <c r="DS49" s="71"/>
+      <c r="DT49" s="71"/>
+      <c r="DU49" s="71"/>
+      <c r="DV49" s="72"/>
+      <c r="DW49" s="72"/>
+      <c r="DX49" s="72"/>
+      <c r="DY49" s="71"/>
+      <c r="DZ49" s="71"/>
+      <c r="EA49" s="71"/>
+      <c r="EB49" s="71"/>
+      <c r="EC49" s="72"/>
+      <c r="ED49" s="72"/>
+      <c r="EE49" s="73"/>
+      <c r="EF49" s="71"/>
+      <c r="EG49" s="71"/>
+      <c r="EH49" s="71"/>
+      <c r="EI49" s="71"/>
+      <c r="EJ49" s="72"/>
+      <c r="EK49" s="72"/>
+      <c r="EL49" s="73"/>
+      <c r="EM49" s="72"/>
+      <c r="EN49" s="71"/>
+      <c r="EO49" s="71"/>
+      <c r="EP49" s="71"/>
+      <c r="EQ49" s="72"/>
+      <c r="ER49" s="72"/>
+      <c r="ES49" s="73"/>
+      <c r="ET49" s="73"/>
+      <c r="EU49" s="73"/>
+      <c r="EV49" s="98"/>
+    </row>
+    <row r="50" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B6:AF6"/>
+    <mergeCell ref="AG6:BH6"/>
+    <mergeCell ref="BI6:CM6"/>
+    <mergeCell ref="CN6:DQ6"/>
+    <mergeCell ref="DR6:EV6"/>
+    <mergeCell ref="A8:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/0_DOC/Femto Project schedule V1.0.xlsx
+++ b/0_DOC/Femto Project schedule V1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
@@ -12,14 +12,69 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'20180207'!$A$1:$EH$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'20180328'!$A$1:$EH$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'20180328'!$A$1:$FZ$49</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>만든 이</author>
+  </authors>
+  <commentList>
+    <comment ref="EM7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>석가탄신일</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="FB7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>현충일</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="FI7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지방선거</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="68">
   <si>
     <t>◇PCB설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,10 +308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>◇회로Tuning&amp;debugging</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>◇일부 부품발주(12일)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,12 +339,20 @@
     <t>◇PCB제작(3ea)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>◇PCB제작(10ea)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇회로Tuning&amp;debugging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +432,14 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="6">
@@ -910,7 +977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1088,6 +1155,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2669,8 +2760,8 @@
       <xdr:rowOff>94059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>100</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>94059</xdr:rowOff>
     </xdr:to>
@@ -2681,8 +2772,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1028700" y="6904434"/>
-          <a:ext cx="8153400" cy="0"/>
+          <a:off x="1028700" y="6218634"/>
+          <a:ext cx="12592050" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3148,7 +3239,7 @@
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="0070C0"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
           <a:prstDash val="sysDash"/>
           <a:tailEnd type="triangle"/>
@@ -3199,7 +3290,7 @@
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="0070C0"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
           <a:prstDash val="sysDash"/>
           <a:tailEnd type="triangle"/>
@@ -3377,159 +3468,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>161</xdr:col>
-      <xdr:colOff>75787</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>94888</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>168</xdr:col>
-      <xdr:colOff>22363</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>94888</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="직선 화살표 연결선 58"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21307012" y="6905263"/>
-          <a:ext cx="1346751" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>162</xdr:col>
-      <xdr:colOff>28162</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>75838</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>168</xdr:col>
-      <xdr:colOff>174763</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>75838</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="직선 화살표 연결선 59"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21459412" y="7057663"/>
-          <a:ext cx="1346751" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>162</xdr:col>
-      <xdr:colOff>180562</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>56788</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>169</xdr:col>
-      <xdr:colOff>127138</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>56788</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="직선 화살표 연결선 60"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21611812" y="7210063"/>
-          <a:ext cx="1346751" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>105</xdr:col>
       <xdr:colOff>115544</xdr:colOff>
       <xdr:row>32</xdr:row>
@@ -3549,57 +3487,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10145369" y="5704285"/>
-          <a:ext cx="856006" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>110</xdr:col>
-      <xdr:colOff>106019</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>94060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>114</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>94060</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="직선 화살표 연결선 67"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11135969" y="7418785"/>
           <a:ext cx="856006" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3684,24 +3571,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>106</xdr:col>
-      <xdr:colOff>20294</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>94060</xdr:rowOff>
+      <xdr:colOff>10769</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>103585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>112</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>94060</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>103585</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="직선 화살표 연결선 71"/>
+        <xdr:cNvPr id="74" name="직선 화살표 연결선 73"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10250144" y="7247335"/>
+          <a:off x="10240619" y="5542360"/>
           <a:ext cx="1360831" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3734,26 +3621,179 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>106</xdr:col>
-      <xdr:colOff>10769</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>106019</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>103585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>112</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>103585</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="직선 화살표 연결선 73"/>
+        <xdr:cNvPr id="31" name="직선 화살표 연결선 30"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10240619" y="5542360"/>
+          <a:off x="8335619" y="3313510"/>
+          <a:ext cx="856006" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>132</xdr:col>
+      <xdr:colOff>125069</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>84535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>136</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>84535</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="직선 화살표 연결선 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15555569" y="6723460"/>
+          <a:ext cx="856006" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>133</xdr:col>
+      <xdr:colOff>20294</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>94060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>139</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>94060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="직선 화살표 연결선 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15650819" y="6561535"/>
           <a:ext cx="1360831" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>117</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>99858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>132</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>99858</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="직선 화살표 연결선 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12601575" y="5195733"/>
+          <a:ext cx="2971800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3829,7 +3869,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3864,7 +3904,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11380,47 +11420,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EV66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:FZ66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DK41" sqref="DK41"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DK28" sqref="DK28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="60" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="60" width="2.625" style="2" hidden="1" customWidth="1"/>
     <col min="61" max="16384" width="2.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:152" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:182" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:182" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:182" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:182" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="104" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:152" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:182" s="4" customFormat="1" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="103" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:152" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:182" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="129">
         <v>1</v>
@@ -11583,8 +11623,40 @@
       <c r="ET6" s="126"/>
       <c r="EU6" s="126"/>
       <c r="EV6" s="127"/>
+      <c r="EW6" s="130">
+        <v>6</v>
+      </c>
+      <c r="EX6" s="131"/>
+      <c r="EY6" s="131"/>
+      <c r="EZ6" s="131"/>
+      <c r="FA6" s="131"/>
+      <c r="FB6" s="131"/>
+      <c r="FC6" s="131"/>
+      <c r="FD6" s="131"/>
+      <c r="FE6" s="131"/>
+      <c r="FF6" s="131"/>
+      <c r="FG6" s="131"/>
+      <c r="FH6" s="131"/>
+      <c r="FI6" s="131"/>
+      <c r="FJ6" s="131"/>
+      <c r="FK6" s="131"/>
+      <c r="FL6" s="131"/>
+      <c r="FM6" s="131"/>
+      <c r="FN6" s="131"/>
+      <c r="FO6" s="131"/>
+      <c r="FP6" s="131"/>
+      <c r="FQ6" s="131"/>
+      <c r="FR6" s="131"/>
+      <c r="FS6" s="131"/>
+      <c r="FT6" s="131"/>
+      <c r="FU6" s="131"/>
+      <c r="FV6" s="131"/>
+      <c r="FW6" s="131"/>
+      <c r="FX6" s="131"/>
+      <c r="FY6" s="131"/>
+      <c r="FZ6" s="132"/>
     </row>
-    <row r="7" spans="1:152" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:182" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="11">
         <v>1</v>
@@ -12039,8 +12111,98 @@
       <c r="EV7" s="9">
         <v>31</v>
       </c>
+      <c r="EW7" s="137">
+        <v>1</v>
+      </c>
+      <c r="EX7" s="1">
+        <v>2</v>
+      </c>
+      <c r="EY7" s="1">
+        <v>3</v>
+      </c>
+      <c r="EZ7" s="6">
+        <v>4</v>
+      </c>
+      <c r="FA7" s="6">
+        <v>5</v>
+      </c>
+      <c r="FB7" s="1">
+        <v>6</v>
+      </c>
+      <c r="FC7" s="6">
+        <v>7</v>
+      </c>
+      <c r="FD7" s="6">
+        <v>8</v>
+      </c>
+      <c r="FE7" s="1">
+        <v>9</v>
+      </c>
+      <c r="FF7" s="1">
+        <v>10</v>
+      </c>
+      <c r="FG7" s="6">
+        <v>11</v>
+      </c>
+      <c r="FH7" s="6">
+        <v>12</v>
+      </c>
+      <c r="FI7" s="1">
+        <v>13</v>
+      </c>
+      <c r="FJ7" s="6">
+        <v>14</v>
+      </c>
+      <c r="FK7" s="6">
+        <v>15</v>
+      </c>
+      <c r="FL7" s="1">
+        <v>16</v>
+      </c>
+      <c r="FM7" s="1">
+        <v>17</v>
+      </c>
+      <c r="FN7" s="6">
+        <v>18</v>
+      </c>
+      <c r="FO7" s="6">
+        <v>19</v>
+      </c>
+      <c r="FP7" s="6">
+        <v>20</v>
+      </c>
+      <c r="FQ7" s="6">
+        <v>21</v>
+      </c>
+      <c r="FR7" s="6">
+        <v>22</v>
+      </c>
+      <c r="FS7" s="1">
+        <v>23</v>
+      </c>
+      <c r="FT7" s="1">
+        <v>24</v>
+      </c>
+      <c r="FU7" s="6">
+        <v>25</v>
+      </c>
+      <c r="FV7" s="6">
+        <v>26</v>
+      </c>
+      <c r="FW7" s="6">
+        <v>27</v>
+      </c>
+      <c r="FX7" s="6">
+        <v>28</v>
+      </c>
+      <c r="FY7" s="6">
+        <v>29</v>
+      </c>
+      <c r="FZ7" s="144">
+        <v>30</v>
+      </c>
     </row>
-    <row r="8" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A8" s="123" t="s">
         <v>8</v>
       </c>
@@ -12207,8 +12369,38 @@
       <c r="ET8" s="49"/>
       <c r="EU8" s="49"/>
       <c r="EV8" s="99"/>
+      <c r="EW8" s="35"/>
+      <c r="EX8" s="38"/>
+      <c r="EY8" s="38"/>
+      <c r="EZ8" s="49"/>
+      <c r="FA8" s="35"/>
+      <c r="FB8" s="38"/>
+      <c r="FC8" s="35"/>
+      <c r="FD8" s="35"/>
+      <c r="FE8" s="38"/>
+      <c r="FF8" s="38"/>
+      <c r="FG8" s="49"/>
+      <c r="FH8" s="35"/>
+      <c r="FI8" s="38"/>
+      <c r="FJ8" s="35"/>
+      <c r="FK8" s="35"/>
+      <c r="FL8" s="38"/>
+      <c r="FM8" s="38"/>
+      <c r="FN8" s="49"/>
+      <c r="FO8" s="35"/>
+      <c r="FP8" s="36"/>
+      <c r="FQ8" s="35"/>
+      <c r="FR8" s="35"/>
+      <c r="FS8" s="38"/>
+      <c r="FT8" s="38"/>
+      <c r="FU8" s="49"/>
+      <c r="FV8" s="35"/>
+      <c r="FW8" s="36"/>
+      <c r="FX8" s="35"/>
+      <c r="FY8" s="35"/>
+      <c r="FZ8" s="145"/>
     </row>
-    <row r="9" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A9" s="123"/>
       <c r="B9" s="29"/>
       <c r="C9" s="30"/>
@@ -12369,8 +12561,38 @@
       <c r="ET9" s="28"/>
       <c r="EU9" s="28"/>
       <c r="EV9" s="33"/>
+      <c r="EW9" s="63"/>
+      <c r="EX9" s="31"/>
+      <c r="EY9" s="31"/>
+      <c r="EZ9" s="30"/>
+      <c r="FA9" s="30"/>
+      <c r="FB9" s="31"/>
+      <c r="FC9" s="30"/>
+      <c r="FD9" s="30"/>
+      <c r="FE9" s="31"/>
+      <c r="FF9" s="31"/>
+      <c r="FG9" s="30"/>
+      <c r="FH9" s="30"/>
+      <c r="FI9" s="31"/>
+      <c r="FJ9" s="30"/>
+      <c r="FK9" s="30"/>
+      <c r="FL9" s="31"/>
+      <c r="FM9" s="31"/>
+      <c r="FN9" s="30"/>
+      <c r="FO9" s="30"/>
+      <c r="FP9" s="30"/>
+      <c r="FQ9" s="30"/>
+      <c r="FR9" s="30"/>
+      <c r="FS9" s="31"/>
+      <c r="FT9" s="31"/>
+      <c r="FU9" s="30"/>
+      <c r="FV9" s="30"/>
+      <c r="FW9" s="30"/>
+      <c r="FX9" s="30"/>
+      <c r="FY9" s="30"/>
+      <c r="FZ9" s="146"/>
     </row>
-    <row r="10" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A10" s="123"/>
       <c r="B10" s="29"/>
       <c r="C10" s="30"/>
@@ -12531,8 +12753,38 @@
       <c r="ET10" s="28"/>
       <c r="EU10" s="28"/>
       <c r="EV10" s="33"/>
+      <c r="EW10" s="63"/>
+      <c r="EX10" s="31"/>
+      <c r="EY10" s="31"/>
+      <c r="EZ10" s="30"/>
+      <c r="FA10" s="30"/>
+      <c r="FB10" s="31"/>
+      <c r="FC10" s="30"/>
+      <c r="FD10" s="30"/>
+      <c r="FE10" s="31"/>
+      <c r="FF10" s="31"/>
+      <c r="FG10" s="30"/>
+      <c r="FH10" s="30"/>
+      <c r="FI10" s="31"/>
+      <c r="FJ10" s="30"/>
+      <c r="FK10" s="30"/>
+      <c r="FL10" s="31"/>
+      <c r="FM10" s="31"/>
+      <c r="FN10" s="30"/>
+      <c r="FO10" s="30"/>
+      <c r="FP10" s="30"/>
+      <c r="FQ10" s="30"/>
+      <c r="FR10" s="30"/>
+      <c r="FS10" s="31"/>
+      <c r="FT10" s="31"/>
+      <c r="FU10" s="30"/>
+      <c r="FV10" s="30"/>
+      <c r="FW10" s="30"/>
+      <c r="FX10" s="30"/>
+      <c r="FY10" s="30"/>
+      <c r="FZ10" s="146"/>
     </row>
-    <row r="11" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A11" s="123"/>
       <c r="B11" s="29"/>
       <c r="C11" s="30"/>
@@ -12689,8 +12941,38 @@
       <c r="ET11" s="28"/>
       <c r="EU11" s="28"/>
       <c r="EV11" s="33"/>
+      <c r="EW11" s="63"/>
+      <c r="EX11" s="31"/>
+      <c r="EY11" s="31"/>
+      <c r="EZ11" s="30"/>
+      <c r="FA11" s="30"/>
+      <c r="FB11" s="31"/>
+      <c r="FC11" s="30"/>
+      <c r="FD11" s="30"/>
+      <c r="FE11" s="31"/>
+      <c r="FF11" s="31"/>
+      <c r="FG11" s="30"/>
+      <c r="FH11" s="30"/>
+      <c r="FI11" s="31"/>
+      <c r="FJ11" s="30"/>
+      <c r="FK11" s="30"/>
+      <c r="FL11" s="31"/>
+      <c r="FM11" s="31"/>
+      <c r="FN11" s="30"/>
+      <c r="FO11" s="30"/>
+      <c r="FP11" s="30"/>
+      <c r="FQ11" s="30"/>
+      <c r="FR11" s="30"/>
+      <c r="FS11" s="31"/>
+      <c r="FT11" s="31"/>
+      <c r="FU11" s="30"/>
+      <c r="FV11" s="30"/>
+      <c r="FW11" s="30"/>
+      <c r="FX11" s="30"/>
+      <c r="FY11" s="30"/>
+      <c r="FZ11" s="146"/>
     </row>
-    <row r="12" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A12" s="123"/>
       <c r="B12" s="29"/>
       <c r="C12" s="30"/>
@@ -12847,8 +13129,38 @@
       <c r="ET12" s="28"/>
       <c r="EU12" s="28"/>
       <c r="EV12" s="33"/>
+      <c r="EW12" s="63"/>
+      <c r="EX12" s="31"/>
+      <c r="EY12" s="31"/>
+      <c r="EZ12" s="30"/>
+      <c r="FA12" s="30"/>
+      <c r="FB12" s="31"/>
+      <c r="FC12" s="30"/>
+      <c r="FD12" s="30"/>
+      <c r="FE12" s="31"/>
+      <c r="FF12" s="31"/>
+      <c r="FG12" s="30"/>
+      <c r="FH12" s="30"/>
+      <c r="FI12" s="31"/>
+      <c r="FJ12" s="30"/>
+      <c r="FK12" s="30"/>
+      <c r="FL12" s="31"/>
+      <c r="FM12" s="31"/>
+      <c r="FN12" s="30"/>
+      <c r="FO12" s="30"/>
+      <c r="FP12" s="30"/>
+      <c r="FQ12" s="30"/>
+      <c r="FR12" s="30"/>
+      <c r="FS12" s="31"/>
+      <c r="FT12" s="31"/>
+      <c r="FU12" s="30"/>
+      <c r="FV12" s="30"/>
+      <c r="FW12" s="30"/>
+      <c r="FX12" s="30"/>
+      <c r="FY12" s="30"/>
+      <c r="FZ12" s="146"/>
     </row>
-    <row r="13" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A13" s="123"/>
       <c r="B13" s="29"/>
       <c r="C13" s="30"/>
@@ -13003,8 +13315,38 @@
       <c r="ET13" s="28"/>
       <c r="EU13" s="28"/>
       <c r="EV13" s="33"/>
+      <c r="EW13" s="63"/>
+      <c r="EX13" s="31"/>
+      <c r="EY13" s="31"/>
+      <c r="EZ13" s="30"/>
+      <c r="FA13" s="30"/>
+      <c r="FB13" s="31"/>
+      <c r="FC13" s="30"/>
+      <c r="FD13" s="30"/>
+      <c r="FE13" s="31"/>
+      <c r="FF13" s="31"/>
+      <c r="FG13" s="30"/>
+      <c r="FH13" s="30"/>
+      <c r="FI13" s="31"/>
+      <c r="FJ13" s="30"/>
+      <c r="FK13" s="30"/>
+      <c r="FL13" s="31"/>
+      <c r="FM13" s="31"/>
+      <c r="FN13" s="30"/>
+      <c r="FO13" s="30"/>
+      <c r="FP13" s="30"/>
+      <c r="FQ13" s="30"/>
+      <c r="FR13" s="30"/>
+      <c r="FS13" s="31"/>
+      <c r="FT13" s="31"/>
+      <c r="FU13" s="30"/>
+      <c r="FV13" s="30"/>
+      <c r="FW13" s="30"/>
+      <c r="FX13" s="30"/>
+      <c r="FY13" s="30"/>
+      <c r="FZ13" s="146"/>
     </row>
-    <row r="14" spans="1:152" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:182" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="128"/>
       <c r="B14" s="50"/>
       <c r="C14" s="51"/>
@@ -13157,8 +13499,38 @@
       <c r="ET14" s="53"/>
       <c r="EU14" s="53"/>
       <c r="EV14" s="100"/>
+      <c r="EW14" s="64"/>
+      <c r="EX14" s="52"/>
+      <c r="EY14" s="52"/>
+      <c r="EZ14" s="51"/>
+      <c r="FA14" s="51"/>
+      <c r="FB14" s="52"/>
+      <c r="FC14" s="51"/>
+      <c r="FD14" s="51"/>
+      <c r="FE14" s="52"/>
+      <c r="FF14" s="52"/>
+      <c r="FG14" s="51"/>
+      <c r="FH14" s="51"/>
+      <c r="FI14" s="52"/>
+      <c r="FJ14" s="51"/>
+      <c r="FK14" s="51"/>
+      <c r="FL14" s="52"/>
+      <c r="FM14" s="52"/>
+      <c r="FN14" s="51"/>
+      <c r="FO14" s="51"/>
+      <c r="FP14" s="51"/>
+      <c r="FQ14" s="51"/>
+      <c r="FR14" s="51"/>
+      <c r="FS14" s="52"/>
+      <c r="FT14" s="52"/>
+      <c r="FU14" s="51"/>
+      <c r="FV14" s="51"/>
+      <c r="FW14" s="51"/>
+      <c r="FX14" s="51"/>
+      <c r="FY14" s="51"/>
+      <c r="FZ14" s="147"/>
     </row>
-    <row r="15" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A15" s="125" t="s">
         <v>11</v>
       </c>
@@ -13266,22 +13638,22 @@
       <c r="CS15" s="43"/>
       <c r="CT15" s="44"/>
       <c r="CU15" s="44"/>
-      <c r="CV15" s="45" t="s">
-        <v>58</v>
-      </c>
+      <c r="CV15" s="45"/>
       <c r="CW15" s="43"/>
       <c r="CX15" s="43"/>
       <c r="CY15" s="43"/>
       <c r="CZ15" s="43"/>
       <c r="DA15" s="44"/>
       <c r="DB15" s="44"/>
-      <c r="DC15" s="45"/>
-      <c r="DD15" s="43"/>
-      <c r="DE15" s="43"/>
-      <c r="DF15" s="43"/>
-      <c r="DG15" s="43"/>
-      <c r="DH15" s="44"/>
-      <c r="DI15" s="44"/>
+      <c r="DC15" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="DD15" s="60"/>
+      <c r="DE15" s="60"/>
+      <c r="DF15" s="60"/>
+      <c r="DG15" s="60"/>
+      <c r="DH15" s="60"/>
+      <c r="DI15" s="60"/>
       <c r="DJ15" s="45"/>
       <c r="DK15" s="43"/>
       <c r="DL15" s="43"/>
@@ -13321,8 +13693,38 @@
       <c r="ET15" s="78"/>
       <c r="EU15" s="78"/>
       <c r="EV15" s="102"/>
+      <c r="EW15" s="66"/>
+      <c r="EX15" s="44"/>
+      <c r="EY15" s="44"/>
+      <c r="EZ15" s="43"/>
+      <c r="FA15" s="43"/>
+      <c r="FB15" s="44"/>
+      <c r="FC15" s="43"/>
+      <c r="FD15" s="43"/>
+      <c r="FE15" s="44"/>
+      <c r="FF15" s="44"/>
+      <c r="FG15" s="43"/>
+      <c r="FH15" s="43"/>
+      <c r="FI15" s="44"/>
+      <c r="FJ15" s="43"/>
+      <c r="FK15" s="43"/>
+      <c r="FL15" s="44"/>
+      <c r="FM15" s="44"/>
+      <c r="FN15" s="43"/>
+      <c r="FO15" s="43"/>
+      <c r="FP15" s="43"/>
+      <c r="FQ15" s="43"/>
+      <c r="FR15" s="43"/>
+      <c r="FS15" s="44"/>
+      <c r="FT15" s="44"/>
+      <c r="FU15" s="43"/>
+      <c r="FV15" s="43"/>
+      <c r="FW15" s="43"/>
+      <c r="FX15" s="43"/>
+      <c r="FY15" s="43"/>
+      <c r="FZ15" s="148"/>
     </row>
-    <row r="16" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A16" s="123"/>
       <c r="B16" s="24"/>
       <c r="C16" s="16"/>
@@ -13394,7 +13796,7 @@
       <c r="BO16" s="113"/>
       <c r="BP16" s="113"/>
       <c r="BQ16" s="56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BR16" s="14"/>
       <c r="BS16" s="14"/>
@@ -13481,8 +13883,38 @@
       <c r="ET16" s="13"/>
       <c r="EU16" s="13"/>
       <c r="EV16" s="17"/>
+      <c r="EW16" s="67"/>
+      <c r="EX16" s="140"/>
+      <c r="EY16" s="14"/>
+      <c r="EZ16" s="16"/>
+      <c r="FA16" s="16"/>
+      <c r="FB16" s="14"/>
+      <c r="FC16" s="16"/>
+      <c r="FD16" s="16"/>
+      <c r="FE16" s="14"/>
+      <c r="FF16" s="14"/>
+      <c r="FG16" s="16"/>
+      <c r="FH16" s="16"/>
+      <c r="FI16" s="14"/>
+      <c r="FJ16" s="16"/>
+      <c r="FK16" s="16"/>
+      <c r="FL16" s="14"/>
+      <c r="FM16" s="14"/>
+      <c r="FN16" s="16"/>
+      <c r="FO16" s="16"/>
+      <c r="FP16" s="16"/>
+      <c r="FQ16" s="16"/>
+      <c r="FR16" s="16"/>
+      <c r="FS16" s="14"/>
+      <c r="FT16" s="14"/>
+      <c r="FU16" s="16"/>
+      <c r="FV16" s="16"/>
+      <c r="FW16" s="16"/>
+      <c r="FX16" s="16"/>
+      <c r="FY16" s="16"/>
+      <c r="FZ16" s="149"/>
     </row>
-    <row r="17" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A17" s="123"/>
       <c r="B17" s="24"/>
       <c r="C17" s="16"/>
@@ -13639,8 +14071,38 @@
       <c r="ET17" s="13"/>
       <c r="EU17" s="13"/>
       <c r="EV17" s="17"/>
+      <c r="EW17" s="67"/>
+      <c r="EX17" s="14"/>
+      <c r="EY17" s="14"/>
+      <c r="EZ17" s="16"/>
+      <c r="FA17" s="16"/>
+      <c r="FB17" s="14"/>
+      <c r="FC17" s="16"/>
+      <c r="FD17" s="16"/>
+      <c r="FE17" s="14"/>
+      <c r="FF17" s="14"/>
+      <c r="FG17" s="16"/>
+      <c r="FH17" s="16"/>
+      <c r="FI17" s="14"/>
+      <c r="FJ17" s="16"/>
+      <c r="FK17" s="16"/>
+      <c r="FL17" s="14"/>
+      <c r="FM17" s="14"/>
+      <c r="FN17" s="16"/>
+      <c r="FO17" s="16"/>
+      <c r="FP17" s="16"/>
+      <c r="FQ17" s="16"/>
+      <c r="FR17" s="16"/>
+      <c r="FS17" s="14"/>
+      <c r="FT17" s="14"/>
+      <c r="FU17" s="16"/>
+      <c r="FV17" s="16"/>
+      <c r="FW17" s="16"/>
+      <c r="FX17" s="16"/>
+      <c r="FY17" s="16"/>
+      <c r="FZ17" s="149"/>
     </row>
-    <row r="18" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A18" s="123"/>
       <c r="B18" s="24"/>
       <c r="C18" s="16"/>
@@ -13744,13 +14206,13 @@
       <c r="CU18" s="14"/>
       <c r="CV18" s="13"/>
       <c r="CW18" s="16"/>
-      <c r="CX18" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="CY18" s="16"/>
-      <c r="CZ18" s="16"/>
-      <c r="DA18" s="14"/>
-      <c r="DB18" s="14"/>
+      <c r="CX18" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="CY18" s="59"/>
+      <c r="CZ18" s="59"/>
+      <c r="DA18" s="59"/>
+      <c r="DB18" s="59"/>
       <c r="DC18" s="13"/>
       <c r="DD18" s="16"/>
       <c r="DE18" s="16"/>
@@ -13797,8 +14259,38 @@
       <c r="ET18" s="13"/>
       <c r="EU18" s="13"/>
       <c r="EV18" s="17"/>
+      <c r="EW18" s="67"/>
+      <c r="EX18" s="140"/>
+      <c r="EY18" s="14"/>
+      <c r="EZ18" s="16"/>
+      <c r="FA18" s="16"/>
+      <c r="FB18" s="14"/>
+      <c r="FC18" s="16"/>
+      <c r="FD18" s="16"/>
+      <c r="FE18" s="14"/>
+      <c r="FF18" s="14"/>
+      <c r="FG18" s="16"/>
+      <c r="FH18" s="16"/>
+      <c r="FI18" s="14"/>
+      <c r="FJ18" s="16"/>
+      <c r="FK18" s="16"/>
+      <c r="FL18" s="14"/>
+      <c r="FM18" s="14"/>
+      <c r="FN18" s="16"/>
+      <c r="FO18" s="16"/>
+      <c r="FP18" s="16"/>
+      <c r="FQ18" s="16"/>
+      <c r="FR18" s="16"/>
+      <c r="FS18" s="14"/>
+      <c r="FT18" s="14"/>
+      <c r="FU18" s="16"/>
+      <c r="FV18" s="16"/>
+      <c r="FW18" s="16"/>
+      <c r="FX18" s="16"/>
+      <c r="FY18" s="16"/>
+      <c r="FZ18" s="149"/>
     </row>
-    <row r="19" spans="1:152" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:182" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="123"/>
       <c r="B19" s="26"/>
       <c r="C19" s="21"/>
@@ -13901,7 +14393,7 @@
       <c r="CV19" s="16"/>
       <c r="CW19" s="21"/>
       <c r="CX19" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="CY19" s="21"/>
       <c r="CZ19" s="21"/>
@@ -13953,8 +14445,38 @@
       <c r="ET19" s="73"/>
       <c r="EU19" s="73"/>
       <c r="EV19" s="98"/>
+      <c r="EW19" s="68"/>
+      <c r="EX19" s="20"/>
+      <c r="EY19" s="20"/>
+      <c r="EZ19" s="21"/>
+      <c r="FA19" s="21"/>
+      <c r="FB19" s="20"/>
+      <c r="FC19" s="21"/>
+      <c r="FD19" s="21"/>
+      <c r="FE19" s="14"/>
+      <c r="FF19" s="20"/>
+      <c r="FG19" s="16"/>
+      <c r="FH19" s="21"/>
+      <c r="FI19" s="20"/>
+      <c r="FJ19" s="21"/>
+      <c r="FK19" s="21"/>
+      <c r="FL19" s="20"/>
+      <c r="FM19" s="20"/>
+      <c r="FN19" s="21"/>
+      <c r="FO19" s="21"/>
+      <c r="FP19" s="21"/>
+      <c r="FQ19" s="21"/>
+      <c r="FR19" s="21"/>
+      <c r="FS19" s="20"/>
+      <c r="FT19" s="20"/>
+      <c r="FU19" s="21"/>
+      <c r="FV19" s="21"/>
+      <c r="FW19" s="21"/>
+      <c r="FX19" s="21"/>
+      <c r="FY19" s="21"/>
+      <c r="FZ19" s="150"/>
     </row>
-    <row r="20" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:182" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="125" t="s">
         <v>17</v>
       </c>
@@ -14117,8 +14639,38 @@
       <c r="ET20" s="78"/>
       <c r="EU20" s="78"/>
       <c r="EV20" s="102"/>
+      <c r="EW20" s="82"/>
+      <c r="EX20" s="77"/>
+      <c r="EY20" s="77"/>
+      <c r="EZ20" s="86"/>
+      <c r="FA20" s="76"/>
+      <c r="FB20" s="77"/>
+      <c r="FC20" s="76"/>
+      <c r="FD20" s="76"/>
+      <c r="FE20" s="77"/>
+      <c r="FF20" s="77"/>
+      <c r="FG20" s="86"/>
+      <c r="FH20" s="76"/>
+      <c r="FI20" s="77"/>
+      <c r="FJ20" s="76"/>
+      <c r="FK20" s="76"/>
+      <c r="FL20" s="77"/>
+      <c r="FM20" s="77"/>
+      <c r="FN20" s="86"/>
+      <c r="FO20" s="76"/>
+      <c r="FP20" s="76"/>
+      <c r="FQ20" s="76"/>
+      <c r="FR20" s="76"/>
+      <c r="FS20" s="77"/>
+      <c r="FT20" s="77"/>
+      <c r="FU20" s="86"/>
+      <c r="FV20" s="76"/>
+      <c r="FW20" s="76"/>
+      <c r="FX20" s="76"/>
+      <c r="FY20" s="76"/>
+      <c r="FZ20" s="151"/>
     </row>
-    <row r="21" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:182" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="123"/>
       <c r="B21" s="24"/>
       <c r="C21" s="16"/>
@@ -14202,7 +14754,7 @@
       <c r="BY21" s="14"/>
       <c r="BZ21" s="14"/>
       <c r="CA21" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="CB21" s="16"/>
       <c r="CC21" s="16"/>
@@ -14217,9 +14769,7 @@
       <c r="CL21" s="16"/>
       <c r="CM21" s="14"/>
       <c r="CN21" s="24"/>
-      <c r="CO21" s="23" t="s">
-        <v>53</v>
-      </c>
+      <c r="CO21" s="23"/>
       <c r="CP21" s="16"/>
       <c r="CQ21" s="16"/>
       <c r="CR21" s="16"/>
@@ -14279,8 +14829,38 @@
       <c r="ET21" s="13"/>
       <c r="EU21" s="13"/>
       <c r="EV21" s="17"/>
+      <c r="EW21" s="67"/>
+      <c r="EX21" s="140"/>
+      <c r="EY21" s="14"/>
+      <c r="EZ21" s="16"/>
+      <c r="FA21" s="16"/>
+      <c r="FB21" s="14"/>
+      <c r="FC21" s="16"/>
+      <c r="FD21" s="16"/>
+      <c r="FE21" s="14"/>
+      <c r="FF21" s="14"/>
+      <c r="FG21" s="16"/>
+      <c r="FH21" s="16"/>
+      <c r="FI21" s="14"/>
+      <c r="FJ21" s="16"/>
+      <c r="FK21" s="16"/>
+      <c r="FL21" s="14"/>
+      <c r="FM21" s="14"/>
+      <c r="FN21" s="16"/>
+      <c r="FO21" s="16"/>
+      <c r="FP21" s="16"/>
+      <c r="FQ21" s="16"/>
+      <c r="FR21" s="16"/>
+      <c r="FS21" s="14"/>
+      <c r="FT21" s="14"/>
+      <c r="FU21" s="16"/>
+      <c r="FV21" s="16"/>
+      <c r="FW21" s="16"/>
+      <c r="FX21" s="16"/>
+      <c r="FY21" s="16"/>
+      <c r="FZ21" s="149"/>
     </row>
-    <row r="22" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:182" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="123"/>
       <c r="B22" s="24"/>
       <c r="C22" s="16"/>
@@ -14437,8 +15017,38 @@
       <c r="ET22" s="13"/>
       <c r="EU22" s="13"/>
       <c r="EV22" s="17"/>
+      <c r="EW22" s="67"/>
+      <c r="EX22" s="14"/>
+      <c r="EY22" s="14"/>
+      <c r="EZ22" s="16"/>
+      <c r="FA22" s="16"/>
+      <c r="FB22" s="14"/>
+      <c r="FC22" s="16"/>
+      <c r="FD22" s="16"/>
+      <c r="FE22" s="14"/>
+      <c r="FF22" s="14"/>
+      <c r="FG22" s="16"/>
+      <c r="FH22" s="16"/>
+      <c r="FI22" s="14"/>
+      <c r="FJ22" s="16"/>
+      <c r="FK22" s="16"/>
+      <c r="FL22" s="14"/>
+      <c r="FM22" s="14"/>
+      <c r="FN22" s="16"/>
+      <c r="FO22" s="16"/>
+      <c r="FP22" s="16"/>
+      <c r="FQ22" s="16"/>
+      <c r="FR22" s="16"/>
+      <c r="FS22" s="14"/>
+      <c r="FT22" s="14"/>
+      <c r="FU22" s="16"/>
+      <c r="FV22" s="16"/>
+      <c r="FW22" s="16"/>
+      <c r="FX22" s="16"/>
+      <c r="FY22" s="16"/>
+      <c r="FZ22" s="149"/>
     </row>
-    <row r="23" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:182" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="123"/>
       <c r="B23" s="24"/>
       <c r="C23" s="13"/>
@@ -14535,7 +15145,9 @@
       <c r="CL23" s="13"/>
       <c r="CM23" s="14"/>
       <c r="CN23" s="24"/>
-      <c r="CO23" s="13"/>
+      <c r="CO23" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="CP23" s="13"/>
       <c r="CQ23" s="13"/>
       <c r="CR23" s="13"/>
@@ -14544,11 +15156,13 @@
       <c r="CU23" s="14"/>
       <c r="CV23" s="13"/>
       <c r="CW23" s="13"/>
-      <c r="CX23" s="13"/>
-      <c r="CY23" s="13"/>
-      <c r="CZ23" s="13"/>
-      <c r="DA23" s="14"/>
-      <c r="DB23" s="14"/>
+      <c r="CX23" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="CY23" s="59"/>
+      <c r="CZ23" s="59"/>
+      <c r="DA23" s="59"/>
+      <c r="DB23" s="59"/>
       <c r="DC23" s="13"/>
       <c r="DD23" s="13"/>
       <c r="DE23" s="13"/>
@@ -14595,8 +15209,38 @@
       <c r="ET23" s="13"/>
       <c r="EU23" s="13"/>
       <c r="EV23" s="17"/>
+      <c r="EW23" s="67"/>
+      <c r="EX23" s="140"/>
+      <c r="EY23" s="14"/>
+      <c r="EZ23" s="16"/>
+      <c r="FA23" s="16"/>
+      <c r="FB23" s="14"/>
+      <c r="FC23" s="16"/>
+      <c r="FD23" s="16"/>
+      <c r="FE23" s="14"/>
+      <c r="FF23" s="14"/>
+      <c r="FG23" s="16"/>
+      <c r="FH23" s="16"/>
+      <c r="FI23" s="14"/>
+      <c r="FJ23" s="16"/>
+      <c r="FK23" s="16"/>
+      <c r="FL23" s="14"/>
+      <c r="FM23" s="14"/>
+      <c r="FN23" s="16"/>
+      <c r="FO23" s="16"/>
+      <c r="FP23" s="16"/>
+      <c r="FQ23" s="16"/>
+      <c r="FR23" s="16"/>
+      <c r="FS23" s="14"/>
+      <c r="FT23" s="14"/>
+      <c r="FU23" s="16"/>
+      <c r="FV23" s="16"/>
+      <c r="FW23" s="16"/>
+      <c r="FX23" s="16"/>
+      <c r="FY23" s="16"/>
+      <c r="FZ23" s="149"/>
     </row>
-    <row r="24" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:182" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="124"/>
       <c r="B24" s="91"/>
       <c r="C24" s="92"/>
@@ -14749,8 +15393,38 @@
       <c r="ET24" s="73"/>
       <c r="EU24" s="73"/>
       <c r="EV24" s="98"/>
+      <c r="EW24" s="138"/>
+      <c r="EX24" s="93"/>
+      <c r="EY24" s="93"/>
+      <c r="EZ24" s="139"/>
+      <c r="FA24" s="139"/>
+      <c r="FB24" s="93"/>
+      <c r="FC24" s="139"/>
+      <c r="FD24" s="139"/>
+      <c r="FE24" s="93"/>
+      <c r="FF24" s="93"/>
+      <c r="FG24" s="139"/>
+      <c r="FH24" s="139"/>
+      <c r="FI24" s="93"/>
+      <c r="FJ24" s="139"/>
+      <c r="FK24" s="139"/>
+      <c r="FL24" s="93"/>
+      <c r="FM24" s="93"/>
+      <c r="FN24" s="139"/>
+      <c r="FO24" s="139"/>
+      <c r="FP24" s="139"/>
+      <c r="FQ24" s="139"/>
+      <c r="FR24" s="139"/>
+      <c r="FS24" s="93"/>
+      <c r="FT24" s="93"/>
+      <c r="FU24" s="139"/>
+      <c r="FV24" s="139"/>
+      <c r="FW24" s="139"/>
+      <c r="FX24" s="139"/>
+      <c r="FY24" s="139"/>
+      <c r="FZ24" s="152"/>
     </row>
-    <row r="25" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:182" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="125" t="s">
         <v>25</v>
       </c>
@@ -14905,8 +15579,38 @@
       <c r="ET25" s="78"/>
       <c r="EU25" s="78"/>
       <c r="EV25" s="102"/>
+      <c r="EW25" s="82"/>
+      <c r="EX25" s="77"/>
+      <c r="EY25" s="77"/>
+      <c r="EZ25" s="76"/>
+      <c r="FA25" s="76"/>
+      <c r="FB25" s="77"/>
+      <c r="FC25" s="76"/>
+      <c r="FD25" s="76"/>
+      <c r="FE25" s="77"/>
+      <c r="FF25" s="77"/>
+      <c r="FG25" s="76"/>
+      <c r="FH25" s="76"/>
+      <c r="FI25" s="77"/>
+      <c r="FJ25" s="76"/>
+      <c r="FK25" s="76"/>
+      <c r="FL25" s="77"/>
+      <c r="FM25" s="77"/>
+      <c r="FN25" s="76"/>
+      <c r="FO25" s="76"/>
+      <c r="FP25" s="76"/>
+      <c r="FQ25" s="76"/>
+      <c r="FR25" s="76"/>
+      <c r="FS25" s="77"/>
+      <c r="FT25" s="77"/>
+      <c r="FU25" s="76"/>
+      <c r="FV25" s="76"/>
+      <c r="FW25" s="76"/>
+      <c r="FX25" s="76"/>
+      <c r="FY25" s="76"/>
+      <c r="FZ25" s="151"/>
     </row>
-    <row r="26" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:182" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="123"/>
       <c r="B26" s="24"/>
       <c r="C26" s="16"/>
@@ -15059,8 +15763,38 @@
       <c r="ET26" s="13"/>
       <c r="EU26" s="13"/>
       <c r="EV26" s="17"/>
+      <c r="EW26" s="67"/>
+      <c r="EX26" s="14"/>
+      <c r="EY26" s="14"/>
+      <c r="EZ26" s="16"/>
+      <c r="FA26" s="16"/>
+      <c r="FB26" s="14"/>
+      <c r="FC26" s="16"/>
+      <c r="FD26" s="16"/>
+      <c r="FE26" s="14"/>
+      <c r="FF26" s="14"/>
+      <c r="FG26" s="16"/>
+      <c r="FH26" s="16"/>
+      <c r="FI26" s="14"/>
+      <c r="FJ26" s="16"/>
+      <c r="FK26" s="16"/>
+      <c r="FL26" s="14"/>
+      <c r="FM26" s="14"/>
+      <c r="FN26" s="16"/>
+      <c r="FO26" s="16"/>
+      <c r="FP26" s="16"/>
+      <c r="FQ26" s="16"/>
+      <c r="FR26" s="16"/>
+      <c r="FS26" s="14"/>
+      <c r="FT26" s="14"/>
+      <c r="FU26" s="16"/>
+      <c r="FV26" s="16"/>
+      <c r="FW26" s="16"/>
+      <c r="FX26" s="16"/>
+      <c r="FY26" s="16"/>
+      <c r="FZ26" s="149"/>
     </row>
-    <row r="27" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:182" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="123"/>
       <c r="B27" s="24"/>
       <c r="C27" s="16"/>
@@ -15213,8 +15947,38 @@
       <c r="ET27" s="13"/>
       <c r="EU27" s="13"/>
       <c r="EV27" s="17"/>
+      <c r="EW27" s="67"/>
+      <c r="EX27" s="14"/>
+      <c r="EY27" s="14"/>
+      <c r="EZ27" s="16"/>
+      <c r="FA27" s="16"/>
+      <c r="FB27" s="14"/>
+      <c r="FC27" s="16"/>
+      <c r="FD27" s="16"/>
+      <c r="FE27" s="14"/>
+      <c r="FF27" s="14"/>
+      <c r="FG27" s="16"/>
+      <c r="FH27" s="16"/>
+      <c r="FI27" s="14"/>
+      <c r="FJ27" s="16"/>
+      <c r="FK27" s="16"/>
+      <c r="FL27" s="14"/>
+      <c r="FM27" s="14"/>
+      <c r="FN27" s="16"/>
+      <c r="FO27" s="16"/>
+      <c r="FP27" s="16"/>
+      <c r="FQ27" s="16"/>
+      <c r="FR27" s="16"/>
+      <c r="FS27" s="14"/>
+      <c r="FT27" s="14"/>
+      <c r="FU27" s="16"/>
+      <c r="FV27" s="16"/>
+      <c r="FW27" s="16"/>
+      <c r="FX27" s="16"/>
+      <c r="FY27" s="16"/>
+      <c r="FZ27" s="149"/>
     </row>
-    <row r="28" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:182" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="123"/>
       <c r="B28" s="24"/>
       <c r="C28" s="16"/>
@@ -15367,8 +16131,38 @@
       <c r="ET28" s="13"/>
       <c r="EU28" s="13"/>
       <c r="EV28" s="17"/>
+      <c r="EW28" s="67"/>
+      <c r="EX28" s="14"/>
+      <c r="EY28" s="14"/>
+      <c r="EZ28" s="16"/>
+      <c r="FA28" s="16"/>
+      <c r="FB28" s="14"/>
+      <c r="FC28" s="16"/>
+      <c r="FD28" s="16"/>
+      <c r="FE28" s="14"/>
+      <c r="FF28" s="14"/>
+      <c r="FG28" s="16"/>
+      <c r="FH28" s="16"/>
+      <c r="FI28" s="14"/>
+      <c r="FJ28" s="16"/>
+      <c r="FK28" s="16"/>
+      <c r="FL28" s="14"/>
+      <c r="FM28" s="14"/>
+      <c r="FN28" s="16"/>
+      <c r="FO28" s="16"/>
+      <c r="FP28" s="16"/>
+      <c r="FQ28" s="16"/>
+      <c r="FR28" s="16"/>
+      <c r="FS28" s="14"/>
+      <c r="FT28" s="14"/>
+      <c r="FU28" s="16"/>
+      <c r="FV28" s="16"/>
+      <c r="FW28" s="16"/>
+      <c r="FX28" s="16"/>
+      <c r="FY28" s="16"/>
+      <c r="FZ28" s="149"/>
     </row>
-    <row r="29" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:182" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="123"/>
       <c r="B29" s="85"/>
       <c r="C29" s="71"/>
@@ -15521,8 +16315,38 @@
       <c r="ET29" s="73"/>
       <c r="EU29" s="73"/>
       <c r="EV29" s="98"/>
+      <c r="EW29" s="70"/>
+      <c r="EX29" s="72"/>
+      <c r="EY29" s="72"/>
+      <c r="EZ29" s="71"/>
+      <c r="FA29" s="71"/>
+      <c r="FB29" s="72"/>
+      <c r="FC29" s="71"/>
+      <c r="FD29" s="71"/>
+      <c r="FE29" s="72"/>
+      <c r="FF29" s="72"/>
+      <c r="FG29" s="71"/>
+      <c r="FH29" s="71"/>
+      <c r="FI29" s="72"/>
+      <c r="FJ29" s="71"/>
+      <c r="FK29" s="71"/>
+      <c r="FL29" s="72"/>
+      <c r="FM29" s="72"/>
+      <c r="FN29" s="71"/>
+      <c r="FO29" s="71"/>
+      <c r="FP29" s="71"/>
+      <c r="FQ29" s="71"/>
+      <c r="FR29" s="71"/>
+      <c r="FS29" s="72"/>
+      <c r="FT29" s="72"/>
+      <c r="FU29" s="71"/>
+      <c r="FV29" s="71"/>
+      <c r="FW29" s="71"/>
+      <c r="FX29" s="71"/>
+      <c r="FY29" s="71"/>
+      <c r="FZ29" s="152"/>
     </row>
-    <row r="30" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:182" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="122" t="s">
         <v>20</v>
       </c>
@@ -15632,10 +16456,10 @@
       <c r="CS30" s="76"/>
       <c r="CT30" s="77"/>
       <c r="CU30" s="77"/>
-      <c r="CV30" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="CW30" s="76"/>
+      <c r="CV30" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="CW30" s="88"/>
       <c r="CX30" s="76"/>
       <c r="CY30" s="76"/>
       <c r="CZ30" s="76"/>
@@ -15651,13 +16475,15 @@
       <c r="DJ30" s="78"/>
       <c r="DK30" s="76"/>
       <c r="DL30" s="76"/>
-      <c r="DM30" s="76"/>
-      <c r="DN30" s="76"/>
-      <c r="DO30" s="77"/>
-      <c r="DP30" s="77"/>
-      <c r="DQ30" s="84"/>
-      <c r="DR30" s="82"/>
-      <c r="DS30" s="76"/>
+      <c r="DM30" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="DN30" s="88"/>
+      <c r="DO30" s="88"/>
+      <c r="DP30" s="88"/>
+      <c r="DQ30" s="135"/>
+      <c r="DR30" s="136"/>
+      <c r="DS30" s="88"/>
       <c r="DT30" s="76"/>
       <c r="DU30" s="76"/>
       <c r="DV30" s="77"/>
@@ -15687,8 +16513,38 @@
       <c r="ET30" s="78"/>
       <c r="EU30" s="78"/>
       <c r="EV30" s="102"/>
+      <c r="EW30" s="82"/>
+      <c r="EX30" s="77"/>
+      <c r="EY30" s="77"/>
+      <c r="EZ30" s="76"/>
+      <c r="FA30" s="76"/>
+      <c r="FB30" s="77"/>
+      <c r="FC30" s="76"/>
+      <c r="FD30" s="76"/>
+      <c r="FE30" s="77"/>
+      <c r="FF30" s="77"/>
+      <c r="FG30" s="76"/>
+      <c r="FH30" s="76"/>
+      <c r="FI30" s="77"/>
+      <c r="FJ30" s="76"/>
+      <c r="FK30" s="76"/>
+      <c r="FL30" s="77"/>
+      <c r="FM30" s="77"/>
+      <c r="FN30" s="76"/>
+      <c r="FO30" s="76"/>
+      <c r="FP30" s="76"/>
+      <c r="FQ30" s="76"/>
+      <c r="FR30" s="76"/>
+      <c r="FS30" s="77"/>
+      <c r="FT30" s="77"/>
+      <c r="FU30" s="76"/>
+      <c r="FV30" s="76"/>
+      <c r="FW30" s="76"/>
+      <c r="FX30" s="76"/>
+      <c r="FY30" s="76"/>
+      <c r="FZ30" s="151"/>
     </row>
-    <row r="31" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:182" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="123"/>
       <c r="B31" s="24"/>
       <c r="C31" s="16"/>
@@ -15790,10 +16646,10 @@
       <c r="CS31" s="16"/>
       <c r="CT31" s="14"/>
       <c r="CU31" s="14"/>
-      <c r="CV31" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="CW31" s="16"/>
+      <c r="CV31" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="CW31" s="59"/>
       <c r="CX31" s="16"/>
       <c r="CY31" s="16"/>
       <c r="CZ31" s="16"/>
@@ -15845,8 +16701,38 @@
       <c r="ET31" s="13"/>
       <c r="EU31" s="13"/>
       <c r="EV31" s="17"/>
+      <c r="EW31" s="67"/>
+      <c r="EX31" s="14"/>
+      <c r="EY31" s="14"/>
+      <c r="EZ31" s="16"/>
+      <c r="FA31" s="16"/>
+      <c r="FB31" s="14"/>
+      <c r="FC31" s="16"/>
+      <c r="FD31" s="16"/>
+      <c r="FE31" s="14"/>
+      <c r="FF31" s="14"/>
+      <c r="FG31" s="16"/>
+      <c r="FH31" s="16"/>
+      <c r="FI31" s="14"/>
+      <c r="FJ31" s="16"/>
+      <c r="FK31" s="16"/>
+      <c r="FL31" s="140"/>
+      <c r="FM31" s="14"/>
+      <c r="FN31" s="16"/>
+      <c r="FO31" s="16"/>
+      <c r="FP31" s="16"/>
+      <c r="FQ31" s="16"/>
+      <c r="FR31" s="16"/>
+      <c r="FS31" s="14"/>
+      <c r="FT31" s="14"/>
+      <c r="FU31" s="16"/>
+      <c r="FV31" s="16"/>
+      <c r="FW31" s="16"/>
+      <c r="FX31" s="16"/>
+      <c r="FY31" s="16"/>
+      <c r="FZ31" s="149"/>
     </row>
-    <row r="32" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:182" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="123"/>
       <c r="B32" s="24"/>
       <c r="C32" s="16"/>
@@ -15921,7 +16807,7 @@
       <c r="BT32" s="16"/>
       <c r="BU32" s="16"/>
       <c r="BV32" s="56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BW32" s="16"/>
       <c r="BX32" s="16"/>
@@ -15952,7 +16838,7 @@
       <c r="CU32" s="14"/>
       <c r="CV32" s="16"/>
       <c r="CW32" s="16"/>
-      <c r="CX32" s="16" t="s">
+      <c r="CX32" s="59" t="s">
         <v>54</v>
       </c>
       <c r="CY32" s="16"/>
@@ -15966,11 +16852,11 @@
       <c r="DG32" s="16"/>
       <c r="DH32" s="14"/>
       <c r="DI32" s="14"/>
-      <c r="DJ32" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="DK32" s="16"/>
-      <c r="DL32" s="16"/>
+      <c r="DJ32" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="DK32" s="59"/>
+      <c r="DL32" s="59"/>
       <c r="DM32" s="16"/>
       <c r="DN32" s="16"/>
       <c r="DO32" s="14"/>
@@ -16007,8 +16893,38 @@
       <c r="ET32" s="13"/>
       <c r="EU32" s="13"/>
       <c r="EV32" s="17"/>
+      <c r="EW32" s="67"/>
+      <c r="EX32" s="14"/>
+      <c r="EY32" s="14"/>
+      <c r="EZ32" s="16"/>
+      <c r="FA32" s="16"/>
+      <c r="FB32" s="14"/>
+      <c r="FC32" s="16"/>
+      <c r="FD32" s="16"/>
+      <c r="FE32" s="14"/>
+      <c r="FF32" s="14"/>
+      <c r="FG32" s="16"/>
+      <c r="FH32" s="16"/>
+      <c r="FI32" s="14"/>
+      <c r="FJ32" s="16"/>
+      <c r="FK32" s="16"/>
+      <c r="FL32" s="14"/>
+      <c r="FM32" s="14"/>
+      <c r="FN32" s="16"/>
+      <c r="FO32" s="16"/>
+      <c r="FP32" s="16"/>
+      <c r="FQ32" s="16"/>
+      <c r="FR32" s="16"/>
+      <c r="FS32" s="14"/>
+      <c r="FT32" s="14"/>
+      <c r="FU32" s="16"/>
+      <c r="FV32" s="16"/>
+      <c r="FW32" s="16"/>
+      <c r="FX32" s="16"/>
+      <c r="FY32" s="16"/>
+      <c r="FZ32" s="149"/>
     </row>
-    <row r="33" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:182" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="123"/>
       <c r="B33" s="24"/>
       <c r="C33" s="16"/>
@@ -16110,7 +17026,7 @@
       <c r="CU33" s="14"/>
       <c r="CV33" s="23"/>
       <c r="CW33" s="16"/>
-      <c r="CX33" s="23" t="s">
+      <c r="CX33" s="133" t="s">
         <v>53</v>
       </c>
       <c r="CY33" s="16"/>
@@ -16163,8 +17079,38 @@
       <c r="ET33" s="13"/>
       <c r="EU33" s="13"/>
       <c r="EV33" s="17"/>
+      <c r="EW33" s="67"/>
+      <c r="EX33" s="14"/>
+      <c r="EY33" s="14"/>
+      <c r="EZ33" s="23"/>
+      <c r="FA33" s="16"/>
+      <c r="FB33" s="14"/>
+      <c r="FC33" s="16"/>
+      <c r="FD33" s="16"/>
+      <c r="FE33" s="140"/>
+      <c r="FF33" s="14"/>
+      <c r="FG33" s="23"/>
+      <c r="FH33" s="16"/>
+      <c r="FI33" s="14"/>
+      <c r="FJ33" s="16"/>
+      <c r="FK33" s="16"/>
+      <c r="FL33" s="14"/>
+      <c r="FM33" s="14"/>
+      <c r="FN33" s="16"/>
+      <c r="FO33" s="16"/>
+      <c r="FP33" s="16"/>
+      <c r="FQ33" s="16"/>
+      <c r="FR33" s="16"/>
+      <c r="FS33" s="14"/>
+      <c r="FT33" s="14"/>
+      <c r="FU33" s="16"/>
+      <c r="FV33" s="16"/>
+      <c r="FW33" s="16"/>
+      <c r="FX33" s="16"/>
+      <c r="FY33" s="16"/>
+      <c r="FZ33" s="149"/>
     </row>
-    <row r="34" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:182" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="124"/>
       <c r="B34" s="85"/>
       <c r="C34" s="71"/>
@@ -16278,7 +17224,9 @@
       <c r="DG34" s="71"/>
       <c r="DH34" s="72"/>
       <c r="DI34" s="72"/>
-      <c r="DJ34" s="73"/>
+      <c r="DJ34" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="DK34" s="71"/>
       <c r="DL34" s="71"/>
       <c r="DM34" s="71"/>
@@ -16317,8 +17265,38 @@
       <c r="ET34" s="73"/>
       <c r="EU34" s="73"/>
       <c r="EV34" s="98"/>
+      <c r="EW34" s="70"/>
+      <c r="EX34" s="72"/>
+      <c r="EY34" s="72"/>
+      <c r="EZ34" s="71"/>
+      <c r="FA34" s="71"/>
+      <c r="FB34" s="72"/>
+      <c r="FC34" s="71"/>
+      <c r="FD34" s="71"/>
+      <c r="FE34" s="72"/>
+      <c r="FF34" s="72"/>
+      <c r="FG34" s="71"/>
+      <c r="FH34" s="71"/>
+      <c r="FI34" s="72"/>
+      <c r="FJ34" s="71"/>
+      <c r="FK34" s="71"/>
+      <c r="FL34" s="72"/>
+      <c r="FM34" s="72"/>
+      <c r="FN34" s="71"/>
+      <c r="FO34" s="71"/>
+      <c r="FP34" s="71"/>
+      <c r="FQ34" s="71"/>
+      <c r="FR34" s="71"/>
+      <c r="FS34" s="14"/>
+      <c r="FT34" s="72"/>
+      <c r="FU34" s="71"/>
+      <c r="FV34" s="71"/>
+      <c r="FW34" s="71"/>
+      <c r="FX34" s="71"/>
+      <c r="FY34" s="71"/>
+      <c r="FZ34" s="152"/>
     </row>
-    <row r="35" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:182" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="123" t="s">
         <v>23</v>
       </c>
@@ -16477,8 +17455,38 @@
       <c r="ET35" s="78"/>
       <c r="EU35" s="78"/>
       <c r="EV35" s="102"/>
+      <c r="EW35" s="82"/>
+      <c r="EX35" s="141"/>
+      <c r="EY35" s="77"/>
+      <c r="EZ35" s="76"/>
+      <c r="FA35" s="76"/>
+      <c r="FB35" s="77"/>
+      <c r="FC35" s="76"/>
+      <c r="FD35" s="76"/>
+      <c r="FE35" s="77"/>
+      <c r="FF35" s="77"/>
+      <c r="FG35" s="76"/>
+      <c r="FH35" s="76"/>
+      <c r="FI35" s="77"/>
+      <c r="FJ35" s="76"/>
+      <c r="FK35" s="76"/>
+      <c r="FL35" s="77"/>
+      <c r="FM35" s="77"/>
+      <c r="FN35" s="76"/>
+      <c r="FO35" s="76"/>
+      <c r="FP35" s="76"/>
+      <c r="FQ35" s="76"/>
+      <c r="FR35" s="76"/>
+      <c r="FS35" s="77"/>
+      <c r="FT35" s="77"/>
+      <c r="FU35" s="76"/>
+      <c r="FV35" s="76"/>
+      <c r="FW35" s="76"/>
+      <c r="FX35" s="76"/>
+      <c r="FY35" s="76"/>
+      <c r="FZ35" s="151"/>
     </row>
-    <row r="36" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:182" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="123"/>
       <c r="B36" s="24"/>
       <c r="C36" s="16"/>
@@ -16633,8 +17641,38 @@
       <c r="ET36" s="13"/>
       <c r="EU36" s="13"/>
       <c r="EV36" s="17"/>
+      <c r="EW36" s="67"/>
+      <c r="EX36" s="14"/>
+      <c r="EY36" s="14"/>
+      <c r="EZ36" s="16"/>
+      <c r="FA36" s="16"/>
+      <c r="FB36" s="14"/>
+      <c r="FC36" s="16"/>
+      <c r="FD36" s="16"/>
+      <c r="FE36" s="14"/>
+      <c r="FF36" s="14"/>
+      <c r="FG36" s="16"/>
+      <c r="FH36" s="16"/>
+      <c r="FI36" s="14"/>
+      <c r="FJ36" s="16"/>
+      <c r="FK36" s="16"/>
+      <c r="FL36" s="14"/>
+      <c r="FM36" s="14"/>
+      <c r="FN36" s="16"/>
+      <c r="FO36" s="16"/>
+      <c r="FP36" s="16"/>
+      <c r="FQ36" s="16"/>
+      <c r="FR36" s="16"/>
+      <c r="FS36" s="14"/>
+      <c r="FT36" s="14"/>
+      <c r="FU36" s="16"/>
+      <c r="FV36" s="16"/>
+      <c r="FW36" s="16"/>
+      <c r="FX36" s="16"/>
+      <c r="FY36" s="16"/>
+      <c r="FZ36" s="149"/>
     </row>
-    <row r="37" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:182" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="123"/>
       <c r="B37" s="24"/>
       <c r="C37" s="16"/>
@@ -16787,8 +17825,38 @@
       <c r="ET37" s="13"/>
       <c r="EU37" s="13"/>
       <c r="EV37" s="17"/>
+      <c r="EW37" s="67"/>
+      <c r="EX37" s="14"/>
+      <c r="EY37" s="14"/>
+      <c r="EZ37" s="16"/>
+      <c r="FA37" s="16"/>
+      <c r="FB37" s="14"/>
+      <c r="FC37" s="16"/>
+      <c r="FD37" s="16"/>
+      <c r="FE37" s="14"/>
+      <c r="FF37" s="14"/>
+      <c r="FG37" s="16"/>
+      <c r="FH37" s="16"/>
+      <c r="FI37" s="14"/>
+      <c r="FJ37" s="16"/>
+      <c r="FK37" s="16"/>
+      <c r="FL37" s="14"/>
+      <c r="FM37" s="14"/>
+      <c r="FN37" s="16"/>
+      <c r="FO37" s="16"/>
+      <c r="FP37" s="16"/>
+      <c r="FQ37" s="16"/>
+      <c r="FR37" s="16"/>
+      <c r="FS37" s="14"/>
+      <c r="FT37" s="14"/>
+      <c r="FU37" s="16"/>
+      <c r="FV37" s="16"/>
+      <c r="FW37" s="16"/>
+      <c r="FX37" s="16"/>
+      <c r="FY37" s="16"/>
+      <c r="FZ37" s="149"/>
     </row>
-    <row r="38" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:182" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="123"/>
       <c r="B38" s="24"/>
       <c r="C38" s="16"/>
@@ -16941,8 +18009,38 @@
       <c r="ET38" s="13"/>
       <c r="EU38" s="13"/>
       <c r="EV38" s="17"/>
+      <c r="EW38" s="67"/>
+      <c r="EX38" s="14"/>
+      <c r="EY38" s="14"/>
+      <c r="EZ38" s="16"/>
+      <c r="FA38" s="16"/>
+      <c r="FB38" s="14"/>
+      <c r="FC38" s="16"/>
+      <c r="FD38" s="16"/>
+      <c r="FE38" s="14"/>
+      <c r="FF38" s="14"/>
+      <c r="FG38" s="16"/>
+      <c r="FH38" s="16"/>
+      <c r="FI38" s="14"/>
+      <c r="FJ38" s="16"/>
+      <c r="FK38" s="16"/>
+      <c r="FL38" s="14"/>
+      <c r="FM38" s="14"/>
+      <c r="FN38" s="16"/>
+      <c r="FO38" s="16"/>
+      <c r="FP38" s="16"/>
+      <c r="FQ38" s="16"/>
+      <c r="FR38" s="16"/>
+      <c r="FS38" s="14"/>
+      <c r="FT38" s="14"/>
+      <c r="FU38" s="16"/>
+      <c r="FV38" s="16"/>
+      <c r="FW38" s="16"/>
+      <c r="FX38" s="16"/>
+      <c r="FY38" s="16"/>
+      <c r="FZ38" s="149"/>
     </row>
-    <row r="39" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:182" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="123"/>
       <c r="B39" s="85"/>
       <c r="C39" s="71"/>
@@ -17095,8 +18193,38 @@
       <c r="ET39" s="73"/>
       <c r="EU39" s="73"/>
       <c r="EV39" s="98"/>
+      <c r="EW39" s="70"/>
+      <c r="EX39" s="72"/>
+      <c r="EY39" s="72"/>
+      <c r="EZ39" s="71"/>
+      <c r="FA39" s="71"/>
+      <c r="FB39" s="72"/>
+      <c r="FC39" s="71"/>
+      <c r="FD39" s="71"/>
+      <c r="FE39" s="72"/>
+      <c r="FF39" s="72"/>
+      <c r="FG39" s="71"/>
+      <c r="FH39" s="71"/>
+      <c r="FI39" s="72"/>
+      <c r="FJ39" s="71"/>
+      <c r="FK39" s="71"/>
+      <c r="FL39" s="72"/>
+      <c r="FM39" s="72"/>
+      <c r="FN39" s="71"/>
+      <c r="FO39" s="71"/>
+      <c r="FP39" s="71"/>
+      <c r="FQ39" s="71"/>
+      <c r="FR39" s="71"/>
+      <c r="FS39" s="72"/>
+      <c r="FT39" s="72"/>
+      <c r="FU39" s="71"/>
+      <c r="FV39" s="71"/>
+      <c r="FW39" s="71"/>
+      <c r="FX39" s="71"/>
+      <c r="FY39" s="71"/>
+      <c r="FZ39" s="152"/>
     </row>
-    <row r="40" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:182" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="122" t="s">
         <v>22</v>
       </c>
@@ -17204,9 +18332,7 @@
       <c r="CU40" s="77"/>
       <c r="CV40" s="46"/>
       <c r="CW40" s="76"/>
-      <c r="CX40" s="46" t="s">
-        <v>9</v>
-      </c>
+      <c r="CX40" s="46"/>
       <c r="CY40" s="76"/>
       <c r="CZ40" s="76"/>
       <c r="DA40" s="77"/>
@@ -17228,11 +18354,13 @@
       <c r="DQ40" s="84"/>
       <c r="DR40" s="82"/>
       <c r="DS40" s="76"/>
-      <c r="DT40" s="76"/>
-      <c r="DU40" s="76"/>
-      <c r="DV40" s="77"/>
-      <c r="DW40" s="77"/>
-      <c r="DX40" s="77"/>
+      <c r="DT40" s="134" t="s">
+        <v>9</v>
+      </c>
+      <c r="DU40" s="88"/>
+      <c r="DV40" s="88"/>
+      <c r="DW40" s="88"/>
+      <c r="DX40" s="88"/>
       <c r="DY40" s="76"/>
       <c r="DZ40" s="76"/>
       <c r="EA40" s="76"/>
@@ -17248,17 +18376,49 @@
       <c r="EK40" s="77"/>
       <c r="EL40" s="78"/>
       <c r="EM40" s="77"/>
-      <c r="EN40" s="76"/>
-      <c r="EO40" s="76"/>
-      <c r="EP40" s="76"/>
-      <c r="EQ40" s="77"/>
-      <c r="ER40" s="77"/>
-      <c r="ES40" s="78"/>
-      <c r="ET40" s="78"/>
+      <c r="EN40" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="EO40" s="88"/>
+      <c r="EP40" s="88"/>
+      <c r="EQ40" s="88"/>
+      <c r="ER40" s="135"/>
+      <c r="ES40" s="136"/>
+      <c r="ET40" s="88"/>
       <c r="EU40" s="78"/>
       <c r="EV40" s="102"/>
+      <c r="EW40" s="82"/>
+      <c r="EX40" s="77"/>
+      <c r="EY40" s="77"/>
+      <c r="EZ40" s="76"/>
+      <c r="FA40" s="76"/>
+      <c r="FB40" s="77"/>
+      <c r="FC40" s="76"/>
+      <c r="FD40" s="76"/>
+      <c r="FE40" s="142"/>
+      <c r="FF40" s="77"/>
+      <c r="FG40" s="46"/>
+      <c r="FH40" s="76"/>
+      <c r="FI40" s="77"/>
+      <c r="FJ40" s="76"/>
+      <c r="FK40" s="76"/>
+      <c r="FL40" s="77"/>
+      <c r="FM40" s="77"/>
+      <c r="FN40" s="76"/>
+      <c r="FO40" s="76"/>
+      <c r="FP40" s="76"/>
+      <c r="FQ40" s="76"/>
+      <c r="FR40" s="76"/>
+      <c r="FS40" s="77"/>
+      <c r="FT40" s="77"/>
+      <c r="FU40" s="76"/>
+      <c r="FV40" s="76"/>
+      <c r="FW40" s="76"/>
+      <c r="FX40" s="76"/>
+      <c r="FY40" s="76"/>
+      <c r="FZ40" s="151"/>
     </row>
-    <row r="41" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:182" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="123"/>
       <c r="B41" s="24"/>
       <c r="C41" s="16"/>
@@ -17360,9 +18520,7 @@
       <c r="CU41" s="14"/>
       <c r="CV41" s="13"/>
       <c r="CW41" s="16"/>
-      <c r="CX41" s="16" t="s">
-        <v>64</v>
-      </c>
+      <c r="CX41" s="16"/>
       <c r="CY41" s="16"/>
       <c r="CZ41" s="16"/>
       <c r="DA41" s="14"/>
@@ -17384,11 +18542,13 @@
       <c r="DQ41" s="25"/>
       <c r="DR41" s="67"/>
       <c r="DS41" s="16"/>
-      <c r="DT41" s="16"/>
-      <c r="DU41" s="16"/>
-      <c r="DV41" s="14"/>
-      <c r="DW41" s="14"/>
-      <c r="DX41" s="14"/>
+      <c r="DT41" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="DU41" s="59"/>
+      <c r="DV41" s="59"/>
+      <c r="DW41" s="59"/>
+      <c r="DX41" s="59"/>
       <c r="DY41" s="16"/>
       <c r="DZ41" s="16"/>
       <c r="EA41" s="16"/>
@@ -17413,8 +18573,38 @@
       <c r="ET41" s="13"/>
       <c r="EU41" s="13"/>
       <c r="EV41" s="17"/>
+      <c r="EW41" s="67"/>
+      <c r="EX41" s="14"/>
+      <c r="EY41" s="14"/>
+      <c r="EZ41" s="16"/>
+      <c r="FA41" s="16"/>
+      <c r="FB41" s="14"/>
+      <c r="FC41" s="16"/>
+      <c r="FD41" s="16"/>
+      <c r="FE41" s="14"/>
+      <c r="FF41" s="14"/>
+      <c r="FG41" s="16"/>
+      <c r="FH41" s="16"/>
+      <c r="FI41" s="14"/>
+      <c r="FJ41" s="16"/>
+      <c r="FK41" s="16"/>
+      <c r="FL41" s="140"/>
+      <c r="FM41" s="14"/>
+      <c r="FN41" s="16"/>
+      <c r="FO41" s="16"/>
+      <c r="FP41" s="16"/>
+      <c r="FQ41" s="16"/>
+      <c r="FR41" s="16"/>
+      <c r="FS41" s="14"/>
+      <c r="FT41" s="14"/>
+      <c r="FU41" s="16"/>
+      <c r="FV41" s="16"/>
+      <c r="FW41" s="16"/>
+      <c r="FX41" s="16"/>
+      <c r="FY41" s="16"/>
+      <c r="FZ41" s="149"/>
     </row>
-    <row r="42" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:182" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="123"/>
       <c r="B42" s="24"/>
       <c r="C42" s="16"/>
@@ -17489,7 +18679,7 @@
       <c r="BT42" s="13"/>
       <c r="BU42" s="16"/>
       <c r="BV42" s="56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BW42" s="16"/>
       <c r="BX42" s="16"/>
@@ -17520,9 +18710,7 @@
       <c r="CU42" s="14"/>
       <c r="CV42" s="13"/>
       <c r="CW42" s="16"/>
-      <c r="CX42" s="16" t="s">
-        <v>54</v>
-      </c>
+      <c r="CX42" s="16"/>
       <c r="CY42" s="16"/>
       <c r="CZ42" s="16"/>
       <c r="DA42" s="14"/>
@@ -17549,7 +18737,9 @@
       <c r="DV42" s="14"/>
       <c r="DW42" s="14"/>
       <c r="DX42" s="14"/>
-      <c r="DY42" s="16"/>
+      <c r="DY42" s="59" t="s">
+        <v>54</v>
+      </c>
       <c r="DZ42" s="16"/>
       <c r="EA42" s="16"/>
       <c r="EB42" s="16"/>
@@ -17561,9 +18751,11 @@
       <c r="EH42" s="16"/>
       <c r="EI42" s="16"/>
       <c r="EJ42" s="14"/>
-      <c r="EK42" s="14"/>
-      <c r="EL42" s="13"/>
-      <c r="EM42" s="14"/>
+      <c r="EK42" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="EL42" s="59"/>
+      <c r="EM42" s="59"/>
       <c r="EN42" s="16"/>
       <c r="EO42" s="16"/>
       <c r="EP42" s="16"/>
@@ -17573,8 +18765,38 @@
       <c r="ET42" s="13"/>
       <c r="EU42" s="13"/>
       <c r="EV42" s="17"/>
+      <c r="EW42" s="67"/>
+      <c r="EX42" s="14"/>
+      <c r="EY42" s="14"/>
+      <c r="EZ42" s="16"/>
+      <c r="FA42" s="16"/>
+      <c r="FB42" s="14"/>
+      <c r="FC42" s="16"/>
+      <c r="FD42" s="16"/>
+      <c r="FE42" s="14"/>
+      <c r="FF42" s="14"/>
+      <c r="FG42" s="16"/>
+      <c r="FH42" s="16"/>
+      <c r="FI42" s="14"/>
+      <c r="FJ42" s="16"/>
+      <c r="FK42" s="16"/>
+      <c r="FL42" s="14"/>
+      <c r="FM42" s="14"/>
+      <c r="FN42" s="16"/>
+      <c r="FO42" s="16"/>
+      <c r="FP42" s="16"/>
+      <c r="FQ42" s="16"/>
+      <c r="FR42" s="16"/>
+      <c r="FS42" s="14"/>
+      <c r="FT42" s="14"/>
+      <c r="FU42" s="16"/>
+      <c r="FV42" s="16"/>
+      <c r="FW42" s="16"/>
+      <c r="FX42" s="16"/>
+      <c r="FY42" s="16"/>
+      <c r="FZ42" s="149"/>
     </row>
-    <row r="43" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:182" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="123"/>
       <c r="B43" s="24"/>
       <c r="C43" s="16"/>
@@ -17681,9 +18903,7 @@
       <c r="CZ43" s="16"/>
       <c r="DA43" s="14"/>
       <c r="DB43" s="14"/>
-      <c r="DC43" s="23" t="s">
-        <v>53</v>
-      </c>
+      <c r="DC43" s="23"/>
       <c r="DD43" s="16"/>
       <c r="DE43" s="16"/>
       <c r="DF43" s="16"/>
@@ -17692,9 +18912,7 @@
       <c r="DI43" s="14"/>
       <c r="DJ43" s="23"/>
       <c r="DK43" s="16"/>
-      <c r="DL43" s="16" t="s">
-        <v>66</v>
-      </c>
+      <c r="DL43" s="16"/>
       <c r="DM43" s="16"/>
       <c r="DN43" s="16"/>
       <c r="DO43" s="14"/>
@@ -17707,7 +18925,9 @@
       <c r="DV43" s="14"/>
       <c r="DW43" s="14"/>
       <c r="DX43" s="14"/>
-      <c r="DY43" s="16"/>
+      <c r="DY43" s="133" t="s">
+        <v>53</v>
+      </c>
       <c r="DZ43" s="16"/>
       <c r="EA43" s="16"/>
       <c r="EB43" s="16"/>
@@ -17731,8 +18951,38 @@
       <c r="ET43" s="13"/>
       <c r="EU43" s="13"/>
       <c r="EV43" s="17"/>
+      <c r="EW43" s="67"/>
+      <c r="EX43" s="14"/>
+      <c r="EY43" s="14"/>
+      <c r="EZ43" s="16"/>
+      <c r="FA43" s="16"/>
+      <c r="FB43" s="14"/>
+      <c r="FC43" s="16"/>
+      <c r="FD43" s="16"/>
+      <c r="FE43" s="14"/>
+      <c r="FF43" s="14"/>
+      <c r="FG43" s="16"/>
+      <c r="FH43" s="16"/>
+      <c r="FI43" s="14"/>
+      <c r="FJ43" s="16"/>
+      <c r="FK43" s="16"/>
+      <c r="FL43" s="140"/>
+      <c r="FM43" s="14"/>
+      <c r="FN43" s="16"/>
+      <c r="FO43" s="16"/>
+      <c r="FP43" s="16"/>
+      <c r="FQ43" s="16"/>
+      <c r="FR43" s="16"/>
+      <c r="FS43" s="140"/>
+      <c r="FT43" s="14"/>
+      <c r="FU43" s="16"/>
+      <c r="FV43" s="16"/>
+      <c r="FW43" s="16"/>
+      <c r="FX43" s="16"/>
+      <c r="FY43" s="16"/>
+      <c r="FZ43" s="149"/>
     </row>
-    <row r="44" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:182" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="124"/>
       <c r="B44" s="85"/>
       <c r="C44" s="71"/>
@@ -17885,8 +19135,38 @@
       <c r="ET44" s="73"/>
       <c r="EU44" s="73"/>
       <c r="EV44" s="98"/>
+      <c r="EW44" s="70"/>
+      <c r="EX44" s="72"/>
+      <c r="EY44" s="72"/>
+      <c r="EZ44" s="71"/>
+      <c r="FA44" s="71"/>
+      <c r="FB44" s="72"/>
+      <c r="FC44" s="71"/>
+      <c r="FD44" s="71"/>
+      <c r="FE44" s="14"/>
+      <c r="FF44" s="72"/>
+      <c r="FG44" s="71"/>
+      <c r="FH44" s="71"/>
+      <c r="FI44" s="72"/>
+      <c r="FJ44" s="71"/>
+      <c r="FK44" s="71"/>
+      <c r="FL44" s="72"/>
+      <c r="FM44" s="72"/>
+      <c r="FN44" s="71"/>
+      <c r="FO44" s="71"/>
+      <c r="FP44" s="71"/>
+      <c r="FQ44" s="71"/>
+      <c r="FR44" s="71"/>
+      <c r="FS44" s="72"/>
+      <c r="FT44" s="72"/>
+      <c r="FU44" s="71"/>
+      <c r="FV44" s="71"/>
+      <c r="FW44" s="71"/>
+      <c r="FX44" s="71"/>
+      <c r="FY44" s="71"/>
+      <c r="FZ44" s="152"/>
     </row>
-    <row r="45" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:182" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="123" t="s">
         <v>24</v>
       </c>
@@ -18047,8 +19327,38 @@
       <c r="ET45" s="78"/>
       <c r="EU45" s="78"/>
       <c r="EV45" s="102"/>
+      <c r="EW45" s="82"/>
+      <c r="EX45" s="141"/>
+      <c r="EY45" s="77"/>
+      <c r="EZ45" s="76"/>
+      <c r="FA45" s="76"/>
+      <c r="FB45" s="77"/>
+      <c r="FC45" s="76"/>
+      <c r="FD45" s="76"/>
+      <c r="FE45" s="77"/>
+      <c r="FF45" s="77"/>
+      <c r="FG45" s="76"/>
+      <c r="FH45" s="76"/>
+      <c r="FI45" s="77"/>
+      <c r="FJ45" s="76"/>
+      <c r="FK45" s="76"/>
+      <c r="FL45" s="143"/>
+      <c r="FM45" s="77"/>
+      <c r="FN45" s="76"/>
+      <c r="FO45" s="76"/>
+      <c r="FP45" s="76"/>
+      <c r="FQ45" s="76"/>
+      <c r="FR45" s="76"/>
+      <c r="FS45" s="77"/>
+      <c r="FT45" s="77"/>
+      <c r="FU45" s="76"/>
+      <c r="FV45" s="76"/>
+      <c r="FW45" s="76"/>
+      <c r="FX45" s="76"/>
+      <c r="FY45" s="76"/>
+      <c r="FZ45" s="151"/>
     </row>
-    <row r="46" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:182" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="123"/>
       <c r="B46" s="24"/>
       <c r="C46" s="16"/>
@@ -18201,8 +19511,38 @@
       <c r="ET46" s="13"/>
       <c r="EU46" s="13"/>
       <c r="EV46" s="17"/>
+      <c r="EW46" s="67"/>
+      <c r="EX46" s="14"/>
+      <c r="EY46" s="14"/>
+      <c r="EZ46" s="16"/>
+      <c r="FA46" s="16"/>
+      <c r="FB46" s="14"/>
+      <c r="FC46" s="16"/>
+      <c r="FD46" s="16"/>
+      <c r="FE46" s="14"/>
+      <c r="FF46" s="14"/>
+      <c r="FG46" s="16"/>
+      <c r="FH46" s="16"/>
+      <c r="FI46" s="14"/>
+      <c r="FJ46" s="16"/>
+      <c r="FK46" s="16"/>
+      <c r="FL46" s="14"/>
+      <c r="FM46" s="14"/>
+      <c r="FN46" s="16"/>
+      <c r="FO46" s="16"/>
+      <c r="FP46" s="16"/>
+      <c r="FQ46" s="16"/>
+      <c r="FR46" s="16"/>
+      <c r="FS46" s="14"/>
+      <c r="FT46" s="14"/>
+      <c r="FU46" s="16"/>
+      <c r="FV46" s="16"/>
+      <c r="FW46" s="16"/>
+      <c r="FX46" s="16"/>
+      <c r="FY46" s="16"/>
+      <c r="FZ46" s="149"/>
     </row>
-    <row r="47" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:182" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="123"/>
       <c r="B47" s="24"/>
       <c r="C47" s="16"/>
@@ -18337,7 +19677,7 @@
       <c r="EB47" s="16"/>
       <c r="EC47" s="14"/>
       <c r="ED47" s="14"/>
-      <c r="EE47" s="14"/>
+      <c r="EE47" s="13"/>
       <c r="EF47" s="16"/>
       <c r="EG47" s="16"/>
       <c r="EH47" s="16"/>
@@ -18355,8 +19695,38 @@
       <c r="ET47" s="13"/>
       <c r="EU47" s="13"/>
       <c r="EV47" s="17"/>
+      <c r="EW47" s="67"/>
+      <c r="EX47" s="14"/>
+      <c r="EY47" s="14"/>
+      <c r="EZ47" s="16"/>
+      <c r="FA47" s="16"/>
+      <c r="FB47" s="14"/>
+      <c r="FC47" s="16"/>
+      <c r="FD47" s="16"/>
+      <c r="FE47" s="14"/>
+      <c r="FF47" s="14"/>
+      <c r="FG47" s="16"/>
+      <c r="FH47" s="16"/>
+      <c r="FI47" s="14"/>
+      <c r="FJ47" s="16"/>
+      <c r="FK47" s="16"/>
+      <c r="FL47" s="14"/>
+      <c r="FM47" s="14"/>
+      <c r="FN47" s="16"/>
+      <c r="FO47" s="16"/>
+      <c r="FP47" s="16"/>
+      <c r="FQ47" s="16"/>
+      <c r="FR47" s="16"/>
+      <c r="FS47" s="14"/>
+      <c r="FT47" s="14"/>
+      <c r="FU47" s="16"/>
+      <c r="FV47" s="16"/>
+      <c r="FW47" s="16"/>
+      <c r="FX47" s="16"/>
+      <c r="FY47" s="16"/>
+      <c r="FZ47" s="14"/>
     </row>
-    <row r="48" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:182" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="123"/>
       <c r="B48" s="24"/>
       <c r="C48" s="16"/>
@@ -18509,8 +19879,38 @@
       <c r="ET48" s="13"/>
       <c r="EU48" s="13"/>
       <c r="EV48" s="17"/>
+      <c r="EW48" s="67"/>
+      <c r="EX48" s="14"/>
+      <c r="EY48" s="14"/>
+      <c r="EZ48" s="16"/>
+      <c r="FA48" s="16"/>
+      <c r="FB48" s="14"/>
+      <c r="FC48" s="16"/>
+      <c r="FD48" s="16"/>
+      <c r="FE48" s="14"/>
+      <c r="FF48" s="14"/>
+      <c r="FG48" s="16"/>
+      <c r="FH48" s="16"/>
+      <c r="FI48" s="14"/>
+      <c r="FJ48" s="16"/>
+      <c r="FK48" s="16"/>
+      <c r="FL48" s="14"/>
+      <c r="FM48" s="14"/>
+      <c r="FN48" s="16"/>
+      <c r="FO48" s="16"/>
+      <c r="FP48" s="16"/>
+      <c r="FQ48" s="16"/>
+      <c r="FR48" s="16"/>
+      <c r="FS48" s="14"/>
+      <c r="FT48" s="14"/>
+      <c r="FU48" s="16"/>
+      <c r="FV48" s="23"/>
+      <c r="FW48" s="16"/>
+      <c r="FX48" s="16"/>
+      <c r="FY48" s="16"/>
+      <c r="FZ48" s="140"/>
     </row>
-    <row r="49" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:182" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="124"/>
       <c r="B49" s="85"/>
       <c r="C49" s="71"/>
@@ -18663,26 +20063,63 @@
       <c r="ET49" s="73"/>
       <c r="EU49" s="73"/>
       <c r="EV49" s="98"/>
+      <c r="EW49" s="70"/>
+      <c r="EX49" s="72"/>
+      <c r="EY49" s="72"/>
+      <c r="EZ49" s="71"/>
+      <c r="FA49" s="71"/>
+      <c r="FB49" s="72"/>
+      <c r="FC49" s="71"/>
+      <c r="FD49" s="71"/>
+      <c r="FE49" s="72"/>
+      <c r="FF49" s="72"/>
+      <c r="FG49" s="71"/>
+      <c r="FH49" s="71"/>
+      <c r="FI49" s="72"/>
+      <c r="FJ49" s="71"/>
+      <c r="FK49" s="71"/>
+      <c r="FL49" s="72"/>
+      <c r="FM49" s="72"/>
+      <c r="FN49" s="71"/>
+      <c r="FO49" s="71"/>
+      <c r="FP49" s="71"/>
+      <c r="FQ49" s="71"/>
+      <c r="FR49" s="71"/>
+      <c r="FS49" s="72"/>
+      <c r="FT49" s="72"/>
+      <c r="FU49" s="71"/>
+      <c r="FV49" s="71"/>
+      <c r="FW49" s="71"/>
+      <c r="FX49" s="71"/>
+      <c r="FY49" s="71"/>
+      <c r="FZ49" s="152"/>
     </row>
-    <row r="50" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:152" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:182" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="66" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="EW6:FZ6"/>
+    <mergeCell ref="B6:AF6"/>
+    <mergeCell ref="AG6:BH6"/>
+    <mergeCell ref="BI6:CM6"/>
+    <mergeCell ref="CN6:DQ6"/>
+    <mergeCell ref="DR6:EV6"/>
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A24"/>
@@ -18690,16 +20127,11 @@
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="A35:A39"/>
     <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B6:AF6"/>
-    <mergeCell ref="AG6:BH6"/>
-    <mergeCell ref="BI6:CM6"/>
-    <mergeCell ref="CN6:DQ6"/>
-    <mergeCell ref="DR6:EV6"/>
-    <mergeCell ref="A8:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/0_DOC/Femto Project schedule V1.0.xlsx
+++ b/0_DOC/Femto Project schedule V1.0.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="111">
   <si>
     <t>◇PCB설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -523,10 +523,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S/V 연결부품 검토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>니들 type 검토</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -571,11 +567,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>▶WIFI 기능 추가 검토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/V 및 Fitting 검토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>▶계룡 사무실 Open</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>▶WIFI 기능 추가 검토</t>
+    <t>▶기구 부품 입고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/V 및 부자재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fitting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니들</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5369,6 +5385,161 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>77444</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>89577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>89577</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="직선 화살표 연결선 53"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20472150" y="885195"/>
+          <a:ext cx="1726703" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>128991</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>96301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>96301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="직선 화살표 연결선 57"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20321991" y="1071213"/>
+          <a:ext cx="1865656" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>116919</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>39970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>129619</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>118408</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="꺾인 연결선 62"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="20971815" y="2190751"/>
+          <a:ext cx="2723026" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12971,7 +13142,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DG21" sqref="DG21"/>
+      <selection pane="topRight" activeCell="DT10" sqref="DT10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -14601,7 +14772,7 @@
       <c r="CL8" s="35"/>
       <c r="CM8" s="133"/>
       <c r="CN8" s="61" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="CO8" s="49"/>
       <c r="CP8" s="35"/>
@@ -14617,7 +14788,9 @@
       <c r="CZ8" s="35"/>
       <c r="DA8" s="38"/>
       <c r="DB8" s="38"/>
-      <c r="DC8" s="49"/>
+      <c r="DC8" s="49" t="s">
+        <v>107</v>
+      </c>
       <c r="DD8" s="35"/>
       <c r="DE8" s="36"/>
       <c r="DF8" s="35"/>
@@ -14746,7 +14919,7 @@
       <c r="HW8" s="38"/>
       <c r="HX8" s="38"/>
       <c r="HY8" s="49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="HZ8" s="35"/>
       <c r="IA8" s="36"/>
@@ -14984,7 +15157,7 @@
       <c r="CM9" s="31"/>
       <c r="CN9" s="29"/>
       <c r="CO9" s="28" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="CP9" s="30"/>
       <c r="CQ9" s="30"/>
@@ -15000,7 +15173,9 @@
       <c r="DA9" s="31"/>
       <c r="DB9" s="31"/>
       <c r="DC9" s="28"/>
-      <c r="DD9" s="30"/>
+      <c r="DD9" s="30" t="s">
+        <v>108</v>
+      </c>
       <c r="DE9" s="30"/>
       <c r="DF9" s="30"/>
       <c r="DG9" s="30"/>
@@ -15362,7 +15537,7 @@
       <c r="CM10" s="31"/>
       <c r="CN10" s="29"/>
       <c r="CO10" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="CP10" s="30"/>
       <c r="CQ10" s="30"/>
@@ -15378,7 +15553,9 @@
       <c r="DA10" s="31"/>
       <c r="DB10" s="31"/>
       <c r="DC10" s="28"/>
-      <c r="DD10" s="30"/>
+      <c r="DD10" s="30" t="s">
+        <v>109</v>
+      </c>
       <c r="DE10" s="30"/>
       <c r="DF10" s="30"/>
       <c r="DG10" s="30"/>
@@ -15736,7 +15913,7 @@
       <c r="CM11" s="31"/>
       <c r="CN11" s="29"/>
       <c r="CO11" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="CP11" s="30"/>
       <c r="CQ11" s="30"/>
@@ -15752,7 +15929,9 @@
       <c r="DA11" s="31"/>
       <c r="DB11" s="31"/>
       <c r="DC11" s="28"/>
-      <c r="DD11" s="30"/>
+      <c r="DD11" s="30" t="s">
+        <v>110</v>
+      </c>
       <c r="DE11" s="30"/>
       <c r="DF11" s="30"/>
       <c r="DG11" s="30"/>
@@ -16110,7 +16289,7 @@
       <c r="CM12" s="31"/>
       <c r="CN12" s="29"/>
       <c r="CO12" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="CP12" s="30"/>
       <c r="CQ12" s="30"/>
@@ -17228,7 +17407,7 @@
       <c r="CM15" s="44"/>
       <c r="CN15" s="42"/>
       <c r="CO15" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="CP15" s="43"/>
       <c r="CQ15" s="43"/>
@@ -23207,7 +23386,7 @@
       <c r="CT31" s="14"/>
       <c r="CU31" s="14"/>
       <c r="CV31" s="154" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CW31" s="16"/>
       <c r="CX31" s="16"/>
@@ -23349,7 +23528,7 @@
       <c r="ID31" s="14"/>
       <c r="IE31" s="14"/>
       <c r="IF31" s="154" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="IG31" s="16"/>
       <c r="IH31" s="16"/>
@@ -23414,7 +23593,7 @@
       <c r="KO31" s="14"/>
       <c r="KP31" s="14"/>
       <c r="KQ31" s="154" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="KR31" s="16"/>
       <c r="KS31" s="25"/>
@@ -23582,7 +23761,7 @@
       <c r="CU32" s="14"/>
       <c r="CV32" s="13"/>
       <c r="CW32" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="CX32" s="16"/>
       <c r="CY32" s="16"/>
@@ -23724,7 +23903,7 @@
       <c r="IE32" s="14"/>
       <c r="IF32" s="154"/>
       <c r="IG32" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="IH32" s="16"/>
       <c r="II32" s="16"/>
@@ -23789,7 +23968,7 @@
       <c r="KP32" s="14"/>
       <c r="KQ32" s="16"/>
       <c r="KR32" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="KS32" s="25"/>
       <c r="KT32" s="67"/>
@@ -24159,7 +24338,7 @@
       <c r="KP33" s="14"/>
       <c r="KQ33" s="16"/>
       <c r="KR33" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="KS33" s="25"/>
       <c r="KT33" s="67"/>
@@ -32085,6 +32264,11 @@
     <row r="71" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="GA6:HE6"/>
+    <mergeCell ref="HF6:IJ6"/>
+    <mergeCell ref="IK6:JN6"/>
+    <mergeCell ref="JO6:KS6"/>
+    <mergeCell ref="KT6:LW6"/>
     <mergeCell ref="LX6:NB6"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="A15:A19"/>
@@ -32101,11 +32285,6 @@
     <mergeCell ref="BI6:CM6"/>
     <mergeCell ref="CN6:DQ6"/>
     <mergeCell ref="DR6:EV6"/>
-    <mergeCell ref="GA6:HE6"/>
-    <mergeCell ref="HF6:IJ6"/>
-    <mergeCell ref="IK6:JN6"/>
-    <mergeCell ref="JO6:KS6"/>
-    <mergeCell ref="KT6:LW6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0_DOC/Femto Project schedule V1.0.xlsx
+++ b/0_DOC/Femto Project schedule V1.0.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="112">
   <si>
     <t>◇PCB설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -592,6 +592,10 @@
   </si>
   <si>
     <t>니들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇Batt CON sample 발주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13142,7 +13146,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DT10" sqref="DT10"/>
+      <selection pane="topRight" activeCell="DF13" sqref="DF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -17406,7 +17410,7 @@
       <c r="CL15" s="43"/>
       <c r="CM15" s="44"/>
       <c r="CN15" s="42"/>
-      <c r="CO15" s="45" t="s">
+      <c r="CO15" s="54" t="s">
         <v>96</v>
       </c>
       <c r="CP15" s="43"/>
@@ -17789,7 +17793,9 @@
       <c r="CM16" s="14"/>
       <c r="CN16" s="24"/>
       <c r="CO16" s="23"/>
-      <c r="CP16" s="16"/>
+      <c r="CP16" s="56" t="s">
+        <v>111</v>
+      </c>
       <c r="CQ16" s="16"/>
       <c r="CR16" s="16"/>
       <c r="CS16" s="16"/>
@@ -21539,7 +21545,9 @@
       <c r="DA26" s="14"/>
       <c r="DB26" s="14"/>
       <c r="DC26" s="13"/>
-      <c r="DD26" s="16"/>
+      <c r="DD26" s="30" t="s">
+        <v>108</v>
+      </c>
       <c r="DE26" s="16"/>
       <c r="DF26" s="16"/>
       <c r="DG26" s="16"/>
@@ -21909,7 +21917,9 @@
       <c r="DA27" s="14"/>
       <c r="DB27" s="14"/>
       <c r="DC27" s="13"/>
-      <c r="DD27" s="16"/>
+      <c r="DD27" s="30" t="s">
+        <v>109</v>
+      </c>
       <c r="DE27" s="16"/>
       <c r="DF27" s="16"/>
       <c r="DG27" s="16"/>
@@ -22281,7 +22291,9 @@
       <c r="DA28" s="14"/>
       <c r="DB28" s="14"/>
       <c r="DC28" s="13"/>
-      <c r="DD28" s="16"/>
+      <c r="DD28" s="30" t="s">
+        <v>110</v>
+      </c>
       <c r="DE28" s="16"/>
       <c r="DF28" s="16"/>
       <c r="DG28" s="16"/>

--- a/0_DOC/Femto Project schedule V1.0.xlsx
+++ b/0_DOC/Femto Project schedule V1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
@@ -14,7 +14,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'20180207'!$A$1:$EH$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'20180328'!$A$1:$ND$54</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -24,7 +24,7 @@
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="EM7" authorId="0" shapeId="0">
+    <comment ref="EM7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FB7" authorId="0" shapeId="0">
+    <comment ref="FB7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FI7" authorId="0" shapeId="0">
+    <comment ref="FI7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="HT7" authorId="0" shapeId="0">
+    <comment ref="HT7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="JH7" authorId="0" shapeId="0">
+    <comment ref="JH7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="JQ7" authorId="0" shapeId="0">
+    <comment ref="JQ7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="JW7" authorId="0" shapeId="0">
+    <comment ref="JW7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="MV7" authorId="0" shapeId="0">
+    <comment ref="MV7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -420,10 +420,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>◇회로설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>◇장비 기능 검토</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -596,6 +592,10 @@
   </si>
   <si>
     <t>◇Batt CON sample 발주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇장비검토</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1243,7 +1243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1475,6 +1475,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3510,15 +3511,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>100</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>84535</xdr:rowOff>
+      <xdr:colOff>117661</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>73330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>110</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>84535</xdr:rowOff>
+      <xdr:col>111</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>73330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3527,7 +3528,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21095074" y="6214153"/>
+          <a:off x="21117485" y="6371036"/>
           <a:ext cx="2112308" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4196,16 +4197,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>119</xdr:col>
-      <xdr:colOff>115544</xdr:colOff>
+      <xdr:col>104</xdr:col>
+      <xdr:colOff>126749</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>94060</xdr:rowOff>
+      <xdr:rowOff>60442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>123</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>182655</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>94060</xdr:rowOff>
+      <xdr:rowOff>60442</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4214,8 +4215,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22123897" y="5887501"/>
-          <a:ext cx="862729" cy="0"/>
+          <a:off x="21933396" y="5853883"/>
+          <a:ext cx="862730" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4247,16 +4248,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>120</xdr:col>
-      <xdr:colOff>10769</xdr:colOff>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>21974</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>103585</xdr:rowOff>
+      <xdr:rowOff>69967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>126</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>111</xdr:col>
+      <xdr:colOff>182655</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>103585</xdr:rowOff>
+      <xdr:rowOff>69967</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4265,7 +4266,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22220828" y="5728938"/>
+          <a:off x="22030327" y="5695320"/>
           <a:ext cx="1370916" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5590,7 +5591,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5625,7 +5626,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -13144,9 +13145,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:NB71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DF13" sqref="DF13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DJ43" sqref="DJ43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -14776,7 +14777,7 @@
       <c r="CL8" s="35"/>
       <c r="CM8" s="133"/>
       <c r="CN8" s="61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CO8" s="49"/>
       <c r="CP8" s="35"/>
@@ -14793,7 +14794,7 @@
       <c r="DA8" s="38"/>
       <c r="DB8" s="38"/>
       <c r="DC8" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="DD8" s="35"/>
       <c r="DE8" s="36"/>
@@ -14869,7 +14870,7 @@
       <c r="FW8" s="36"/>
       <c r="FX8" s="35"/>
       <c r="FY8" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="FZ8" s="133"/>
       <c r="GA8" s="34"/>
@@ -14923,7 +14924,7 @@
       <c r="HW8" s="38"/>
       <c r="HX8" s="38"/>
       <c r="HY8" s="49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="HZ8" s="35"/>
       <c r="IA8" s="36"/>
@@ -15161,7 +15162,7 @@
       <c r="CM9" s="31"/>
       <c r="CN9" s="29"/>
       <c r="CO9" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="CP9" s="30"/>
       <c r="CQ9" s="30"/>
@@ -15178,7 +15179,7 @@
       <c r="DB9" s="31"/>
       <c r="DC9" s="28"/>
       <c r="DD9" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DE9" s="30"/>
       <c r="DF9" s="30"/>
@@ -15541,7 +15542,7 @@
       <c r="CM10" s="31"/>
       <c r="CN10" s="29"/>
       <c r="CO10" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="CP10" s="30"/>
       <c r="CQ10" s="30"/>
@@ -15558,7 +15559,7 @@
       <c r="DB10" s="31"/>
       <c r="DC10" s="28"/>
       <c r="DD10" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="DE10" s="30"/>
       <c r="DF10" s="30"/>
@@ -15917,7 +15918,7 @@
       <c r="CM11" s="31"/>
       <c r="CN11" s="29"/>
       <c r="CO11" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="CP11" s="30"/>
       <c r="CQ11" s="30"/>
@@ -15934,7 +15935,7 @@
       <c r="DB11" s="31"/>
       <c r="DC11" s="28"/>
       <c r="DD11" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="DE11" s="30"/>
       <c r="DF11" s="30"/>
@@ -16293,7 +16294,7 @@
       <c r="CM12" s="31"/>
       <c r="CN12" s="29"/>
       <c r="CO12" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="CP12" s="30"/>
       <c r="CQ12" s="30"/>
@@ -17036,7 +17037,7 @@
       <c r="CP14" s="51"/>
       <c r="CQ14" s="51"/>
       <c r="CR14" s="51"/>
-      <c r="CS14" s="51" t="s">
+      <c r="CS14" s="175" t="s">
         <v>64</v>
       </c>
       <c r="CT14" s="52"/>
@@ -17395,7 +17396,7 @@
       <c r="BY15" s="44"/>
       <c r="BZ15" s="44"/>
       <c r="CA15" s="55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="CB15" s="43"/>
       <c r="CC15" s="43"/>
@@ -17411,7 +17412,7 @@
       <c r="CM15" s="44"/>
       <c r="CN15" s="42"/>
       <c r="CO15" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="CP15" s="43"/>
       <c r="CQ15" s="43"/>
@@ -17794,7 +17795,7 @@
       <c r="CN16" s="24"/>
       <c r="CO16" s="23"/>
       <c r="CP16" s="56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="CQ16" s="16"/>
       <c r="CR16" s="16"/>
@@ -17841,7 +17842,7 @@
       <c r="EE16" s="13"/>
       <c r="EF16" s="16"/>
       <c r="EG16" s="59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="EH16" s="16"/>
       <c r="EI16" s="16"/>
@@ -18148,7 +18149,7 @@
       <c r="BT17" s="16"/>
       <c r="BU17" s="16"/>
       <c r="BV17" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW17" s="16"/>
       <c r="BX17" s="16"/>
@@ -18223,7 +18224,7 @@
       <c r="EM17" s="14"/>
       <c r="EN17" s="16"/>
       <c r="EO17" s="59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="EP17" s="16"/>
       <c r="EQ17" s="14"/>
@@ -18569,7 +18570,7 @@
       <c r="DO18" s="14"/>
       <c r="DP18" s="14"/>
       <c r="DQ18" s="122" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="DR18" s="67"/>
       <c r="DS18" s="16"/>
@@ -18580,7 +18581,7 @@
       <c r="DX18" s="14"/>
       <c r="DY18" s="16"/>
       <c r="DZ18" s="59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="EA18" s="59"/>
       <c r="EB18" s="16"/>
@@ -18597,7 +18598,7 @@
       <c r="EM18" s="14"/>
       <c r="EN18" s="16"/>
       <c r="EO18" s="59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="EP18" s="16"/>
       <c r="EQ18" s="14"/>
@@ -18611,7 +18612,7 @@
       <c r="EY18" s="14"/>
       <c r="EZ18" s="16"/>
       <c r="FA18" s="59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="FB18" s="59"/>
       <c r="FC18" s="16"/>
@@ -20443,7 +20444,7 @@
       <c r="DO23" s="14"/>
       <c r="DP23" s="14"/>
       <c r="DQ23" s="122" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="DR23" s="13"/>
       <c r="DS23" s="13"/>
@@ -21164,7 +21165,7 @@
       <c r="CT25" s="77"/>
       <c r="CU25" s="77"/>
       <c r="CV25" s="88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="CW25" s="88"/>
       <c r="CX25" s="88"/>
@@ -21203,7 +21204,7 @@
       <c r="EE25" s="78"/>
       <c r="EF25" s="76"/>
       <c r="EG25" s="88" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="EH25" s="88"/>
       <c r="EI25" s="88"/>
@@ -21242,7 +21243,7 @@
       <c r="FP25" s="76"/>
       <c r="FQ25" s="76"/>
       <c r="FR25" s="60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="FS25" s="77"/>
       <c r="FT25" s="77"/>
@@ -21546,7 +21547,7 @@
       <c r="DB26" s="14"/>
       <c r="DC26" s="13"/>
       <c r="DD26" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="DE26" s="16"/>
       <c r="DF26" s="16"/>
@@ -21554,7 +21555,7 @@
       <c r="DH26" s="14"/>
       <c r="DI26" s="14"/>
       <c r="DJ26" s="59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="DK26" s="59"/>
       <c r="DL26" s="59"/>
@@ -21918,7 +21919,7 @@
       <c r="DB27" s="14"/>
       <c r="DC27" s="13"/>
       <c r="DD27" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="DE27" s="16"/>
       <c r="DF27" s="16"/>
@@ -21933,7 +21934,7 @@
       <c r="DO27" s="14"/>
       <c r="DP27" s="14"/>
       <c r="DQ27" s="161" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="DR27" s="67"/>
       <c r="DS27" s="16"/>
@@ -21959,7 +21960,7 @@
       <c r="EM27" s="14"/>
       <c r="EN27" s="16"/>
       <c r="EO27" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="EP27" s="16"/>
       <c r="EQ27" s="14"/>
@@ -22292,7 +22293,7 @@
       <c r="DB28" s="14"/>
       <c r="DC28" s="13"/>
       <c r="DD28" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="DE28" s="16"/>
       <c r="DF28" s="16"/>
@@ -22307,7 +22308,7 @@
       <c r="DO28" s="14"/>
       <c r="DP28" s="14"/>
       <c r="DQ28" s="161" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="DR28" s="67"/>
       <c r="DS28" s="16"/>
@@ -22688,7 +22689,7 @@
       <c r="DZ29" s="71"/>
       <c r="EA29" s="71"/>
       <c r="EB29" s="157" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="EC29" s="157"/>
       <c r="ED29" s="157"/>
@@ -23026,7 +23027,7 @@
       <c r="CR30" s="76"/>
       <c r="CS30" s="76"/>
       <c r="CT30" s="152" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="CU30" s="77"/>
       <c r="CV30" s="78"/>
@@ -23398,7 +23399,7 @@
       <c r="CT31" s="14"/>
       <c r="CU31" s="14"/>
       <c r="CV31" s="154" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="CW31" s="16"/>
       <c r="CX31" s="16"/>
@@ -23540,7 +23541,7 @@
       <c r="ID31" s="14"/>
       <c r="IE31" s="14"/>
       <c r="IF31" s="154" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="IG31" s="16"/>
       <c r="IH31" s="16"/>
@@ -23605,7 +23606,7 @@
       <c r="KO31" s="14"/>
       <c r="KP31" s="14"/>
       <c r="KQ31" s="154" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="KR31" s="16"/>
       <c r="KS31" s="25"/>
@@ -23773,7 +23774,7 @@
       <c r="CU32" s="14"/>
       <c r="CV32" s="13"/>
       <c r="CW32" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CX32" s="16"/>
       <c r="CY32" s="16"/>
@@ -23915,7 +23916,7 @@
       <c r="IE32" s="14"/>
       <c r="IF32" s="154"/>
       <c r="IG32" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="IH32" s="16"/>
       <c r="II32" s="16"/>
@@ -23980,7 +23981,7 @@
       <c r="KP32" s="14"/>
       <c r="KQ32" s="16"/>
       <c r="KR32" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="KS32" s="25"/>
       <c r="KT32" s="67"/>
@@ -24350,7 +24351,7 @@
       <c r="KP33" s="14"/>
       <c r="KQ33" s="16"/>
       <c r="KR33" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="KS33" s="25"/>
       <c r="KT33" s="67"/>
@@ -24892,8 +24893,10 @@
       <c r="CR35" s="43"/>
       <c r="CS35" s="43"/>
       <c r="CT35" s="44"/>
-      <c r="CU35" s="44"/>
-      <c r="CV35" s="43"/>
+      <c r="CU35" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="CV35" s="54"/>
       <c r="CW35" s="43"/>
       <c r="CX35" s="43"/>
       <c r="CY35" s="43"/>
@@ -24907,10 +24910,8 @@
       <c r="DG35" s="43"/>
       <c r="DH35" s="44"/>
       <c r="DI35" s="44"/>
-      <c r="DJ35" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="DK35" s="60"/>
+      <c r="DJ35" s="78"/>
+      <c r="DK35" s="76"/>
       <c r="DL35" s="43"/>
       <c r="DM35" s="43"/>
       <c r="DN35" s="43"/>
@@ -25266,8 +25267,10 @@
       <c r="CR36" s="16"/>
       <c r="CS36" s="16"/>
       <c r="CT36" s="14"/>
-      <c r="CU36" s="14"/>
-      <c r="CV36" s="16"/>
+      <c r="CU36" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="CV36" s="56"/>
       <c r="CW36" s="16"/>
       <c r="CX36" s="16"/>
       <c r="CY36" s="16"/>
@@ -25281,10 +25284,8 @@
       <c r="DG36" s="16"/>
       <c r="DH36" s="14"/>
       <c r="DI36" s="14"/>
-      <c r="DJ36" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="DK36" s="59"/>
+      <c r="DJ36" s="13"/>
+      <c r="DK36" s="16"/>
       <c r="DL36" s="16"/>
       <c r="DM36" s="16"/>
       <c r="DN36" s="16"/>
@@ -25642,7 +25643,9 @@
       <c r="CT37" s="14"/>
       <c r="CU37" s="14"/>
       <c r="CV37" s="16"/>
-      <c r="CW37" s="16"/>
+      <c r="CW37" s="59" t="s">
+        <v>54</v>
+      </c>
       <c r="CX37" s="16"/>
       <c r="CY37" s="16"/>
       <c r="CZ37" s="16"/>
@@ -25657,9 +25660,7 @@
       <c r="DI37" s="14"/>
       <c r="DJ37" s="16"/>
       <c r="DK37" s="16"/>
-      <c r="DL37" s="59" t="s">
-        <v>54</v>
-      </c>
+      <c r="DL37" s="16"/>
       <c r="DM37" s="16"/>
       <c r="DN37" s="16"/>
       <c r="DO37" s="14"/>
@@ -25767,7 +25768,7 @@
       <c r="HK37" s="16"/>
       <c r="HL37" s="16"/>
       <c r="HM37" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="HN37" s="16"/>
       <c r="HO37" s="16"/>
@@ -26016,7 +26017,9 @@
       <c r="CT38" s="14"/>
       <c r="CU38" s="14"/>
       <c r="CV38" s="23"/>
-      <c r="CW38" s="16"/>
+      <c r="CW38" s="90" t="s">
+        <v>53</v>
+      </c>
       <c r="CX38" s="23"/>
       <c r="CY38" s="16"/>
       <c r="CZ38" s="16"/>
@@ -26031,9 +26034,7 @@
       <c r="DI38" s="14"/>
       <c r="DJ38" s="23"/>
       <c r="DK38" s="16"/>
-      <c r="DL38" s="122" t="s">
-        <v>53</v>
-      </c>
+      <c r="DL38" s="16"/>
       <c r="DM38" s="16"/>
       <c r="DN38" s="16"/>
       <c r="DO38" s="14"/>
@@ -26450,7 +26451,7 @@
       <c r="FD39" s="71"/>
       <c r="FE39" s="72"/>
       <c r="FF39" s="158" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="FG39" s="71"/>
       <c r="FH39" s="71"/>
@@ -26759,10 +26760,10 @@
       <c r="CQ40" s="76"/>
       <c r="CR40" s="76"/>
       <c r="CS40" s="76"/>
-      <c r="CT40" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="CU40" s="77"/>
+      <c r="CT40" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="CU40" s="80"/>
       <c r="CV40" s="78"/>
       <c r="CW40" s="76"/>
       <c r="CX40" s="76"/>
@@ -27176,7 +27177,7 @@
       <c r="EF41" s="16"/>
       <c r="EG41" s="16"/>
       <c r="EH41" s="59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="EI41" s="59"/>
       <c r="EJ41" s="59"/>
@@ -27569,7 +27570,7 @@
       <c r="FA42" s="16"/>
       <c r="FB42" s="14"/>
       <c r="FC42" s="59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="FD42" s="59"/>
       <c r="FE42" s="59"/>
@@ -28622,7 +28623,7 @@
       <c r="CR45" s="76"/>
       <c r="CS45" s="76"/>
       <c r="CT45" s="77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="CU45" s="77"/>
       <c r="CV45" s="46"/>
@@ -30212,7 +30213,7 @@
       <c r="GN49" s="72"/>
       <c r="GO49" s="72"/>
       <c r="GP49" s="144" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="GQ49" s="71"/>
       <c r="GR49" s="144"/>
@@ -30307,7 +30308,7 @@
       <c r="KA49" s="72"/>
       <c r="KB49" s="72"/>
       <c r="KC49" s="144" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="KD49" s="71"/>
       <c r="KE49" s="71"/>
@@ -30492,7 +30493,7 @@
       <c r="CR50" s="76"/>
       <c r="CS50" s="76"/>
       <c r="CT50" s="77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="CU50" s="77"/>
       <c r="CV50" s="78"/>
@@ -30656,7 +30657,7 @@
       <c r="IT50" s="76"/>
       <c r="IU50" s="76"/>
       <c r="IV50" s="88" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="IW50" s="88"/>
       <c r="IX50" s="88"/>
@@ -30960,7 +30961,7 @@
       <c r="GF51" s="16"/>
       <c r="GG51" s="14"/>
       <c r="GH51" s="59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="GI51" s="59"/>
       <c r="GJ51" s="59"/>
@@ -31005,7 +31006,7 @@
       <c r="HW51" s="14"/>
       <c r="HX51" s="14"/>
       <c r="HY51" s="59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="HZ51" s="59"/>
       <c r="IA51" s="59"/>
@@ -31037,7 +31038,7 @@
       <c r="JA51" s="16"/>
       <c r="JB51" s="16"/>
       <c r="JC51" s="59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="JD51" s="59"/>
       <c r="JE51" s="59"/>
@@ -31058,7 +31059,7 @@
       <c r="JT51" s="59"/>
       <c r="JU51" s="59"/>
       <c r="JV51" s="59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="JW51" s="59"/>
       <c r="JX51" s="59"/>
@@ -31067,7 +31068,7 @@
       <c r="KA51" s="59"/>
       <c r="KB51" s="59"/>
       <c r="KC51" s="59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="KD51" s="59"/>
       <c r="KE51" s="59"/>
@@ -31403,7 +31404,7 @@
       <c r="IQ52" s="16"/>
       <c r="IR52" s="14"/>
       <c r="IS52" s="59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="IT52" s="59"/>
       <c r="IU52" s="59"/>
@@ -32276,11 +32277,6 @@
     <row r="71" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="GA6:HE6"/>
-    <mergeCell ref="HF6:IJ6"/>
-    <mergeCell ref="IK6:JN6"/>
-    <mergeCell ref="JO6:KS6"/>
-    <mergeCell ref="KT6:LW6"/>
     <mergeCell ref="LX6:NB6"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="A15:A19"/>
@@ -32297,6 +32293,11 @@
     <mergeCell ref="BI6:CM6"/>
     <mergeCell ref="CN6:DQ6"/>
     <mergeCell ref="DR6:EV6"/>
+    <mergeCell ref="GA6:HE6"/>
+    <mergeCell ref="HF6:IJ6"/>
+    <mergeCell ref="IK6:JN6"/>
+    <mergeCell ref="JO6:KS6"/>
+    <mergeCell ref="KT6:LW6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0_DOC/Femto Project schedule V1.0.xlsx
+++ b/0_DOC/Femto Project schedule V1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
@@ -24,7 +24,7 @@
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="EM7" authorId="0">
+    <comment ref="EM7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FB7" authorId="0">
+    <comment ref="FB7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FI7" authorId="0">
+    <comment ref="FI7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="HT7" authorId="0">
+    <comment ref="HT7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="JH7" authorId="0">
+    <comment ref="JH7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="JQ7" authorId="0">
+    <comment ref="JQ7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="JW7" authorId="0">
+    <comment ref="JW7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="MV7" authorId="0">
+    <comment ref="MV7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="114">
   <si>
     <t>◇PCB설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -598,6 +598,14 @@
     <t>◇장비검토</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>◇회로검토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇회로검토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -693,7 +701,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -721,6 +729,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,7 +1257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1436,6 +1450,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1475,7 +1490,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2815,13 +2830,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>78</xdr:col>
+      <xdr:col>98</xdr:col>
       <xdr:colOff>10769</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>103585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>85</xdr:col>
+      <xdr:col>105</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>103585</xdr:rowOff>
@@ -2833,8 +2848,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16441394" y="2961085"/>
-          <a:ext cx="1427506" cy="0"/>
+          <a:off x="20607181" y="2333556"/>
+          <a:ext cx="1439272" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3510,16 +3525,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>100</xdr:col>
-      <xdr:colOff>117661</xdr:colOff>
+      <xdr:col>102</xdr:col>
+      <xdr:colOff>72839</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>73330</xdr:rowOff>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>111</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>73330</xdr:rowOff>
+      <xdr:rowOff>84535</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3527,9 +3542,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21117485" y="6371036"/>
-          <a:ext cx="2112308" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="21476074" y="6376147"/>
+          <a:ext cx="1249456" cy="6094"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5119,8 +5134,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>99</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>85165</xdr:rowOff>
     </xdr:from>
@@ -5137,8 +5152,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20854147" y="1956547"/>
-          <a:ext cx="3126441" cy="761999"/>
+          <a:off x="22221265" y="1956547"/>
+          <a:ext cx="1759323" cy="761999"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightArrow">
           <a:avLst/>
@@ -5591,7 +5606,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5626,7 +5641,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5875,167 +5890,167 @@
     </row>
     <row r="6" spans="1:152" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="169">
+      <c r="B6" s="170">
         <v>1</v>
       </c>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="166"/>
-      <c r="L6" s="166"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="166"/>
-      <c r="O6" s="166"/>
-      <c r="P6" s="166"/>
-      <c r="Q6" s="166"/>
-      <c r="R6" s="166"/>
-      <c r="S6" s="166"/>
-      <c r="T6" s="166"/>
-      <c r="U6" s="166"/>
-      <c r="V6" s="166"/>
-      <c r="W6" s="166"/>
-      <c r="X6" s="166"/>
-      <c r="Y6" s="166"/>
-      <c r="Z6" s="166"/>
-      <c r="AA6" s="166"/>
-      <c r="AB6" s="166"/>
-      <c r="AC6" s="166"/>
-      <c r="AD6" s="166"/>
-      <c r="AE6" s="166"/>
-      <c r="AF6" s="166"/>
-      <c r="AG6" s="169">
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="167"/>
+      <c r="P6" s="167"/>
+      <c r="Q6" s="167"/>
+      <c r="R6" s="167"/>
+      <c r="S6" s="167"/>
+      <c r="T6" s="167"/>
+      <c r="U6" s="167"/>
+      <c r="V6" s="167"/>
+      <c r="W6" s="167"/>
+      <c r="X6" s="167"/>
+      <c r="Y6" s="167"/>
+      <c r="Z6" s="167"/>
+      <c r="AA6" s="167"/>
+      <c r="AB6" s="167"/>
+      <c r="AC6" s="167"/>
+      <c r="AD6" s="167"/>
+      <c r="AE6" s="167"/>
+      <c r="AF6" s="167"/>
+      <c r="AG6" s="170">
         <v>2</v>
       </c>
-      <c r="AH6" s="166"/>
-      <c r="AI6" s="166"/>
-      <c r="AJ6" s="166"/>
-      <c r="AK6" s="166"/>
-      <c r="AL6" s="166"/>
-      <c r="AM6" s="166"/>
-      <c r="AN6" s="166"/>
-      <c r="AO6" s="166"/>
-      <c r="AP6" s="166"/>
-      <c r="AQ6" s="166"/>
-      <c r="AR6" s="166"/>
-      <c r="AS6" s="166"/>
-      <c r="AT6" s="166"/>
-      <c r="AU6" s="166"/>
-      <c r="AV6" s="166"/>
-      <c r="AW6" s="166"/>
-      <c r="AX6" s="166"/>
-      <c r="AY6" s="166"/>
-      <c r="AZ6" s="166"/>
-      <c r="BA6" s="166"/>
-      <c r="BB6" s="166"/>
-      <c r="BC6" s="166"/>
-      <c r="BD6" s="166"/>
-      <c r="BE6" s="166"/>
-      <c r="BF6" s="166"/>
-      <c r="BG6" s="166"/>
-      <c r="BH6" s="167"/>
-      <c r="BI6" s="166">
+      <c r="AH6" s="167"/>
+      <c r="AI6" s="167"/>
+      <c r="AJ6" s="167"/>
+      <c r="AK6" s="167"/>
+      <c r="AL6" s="167"/>
+      <c r="AM6" s="167"/>
+      <c r="AN6" s="167"/>
+      <c r="AO6" s="167"/>
+      <c r="AP6" s="167"/>
+      <c r="AQ6" s="167"/>
+      <c r="AR6" s="167"/>
+      <c r="AS6" s="167"/>
+      <c r="AT6" s="167"/>
+      <c r="AU6" s="167"/>
+      <c r="AV6" s="167"/>
+      <c r="AW6" s="167"/>
+      <c r="AX6" s="167"/>
+      <c r="AY6" s="167"/>
+      <c r="AZ6" s="167"/>
+      <c r="BA6" s="167"/>
+      <c r="BB6" s="167"/>
+      <c r="BC6" s="167"/>
+      <c r="BD6" s="167"/>
+      <c r="BE6" s="167"/>
+      <c r="BF6" s="167"/>
+      <c r="BG6" s="167"/>
+      <c r="BH6" s="168"/>
+      <c r="BI6" s="167">
         <v>3</v>
       </c>
-      <c r="BJ6" s="166"/>
-      <c r="BK6" s="166"/>
-      <c r="BL6" s="166"/>
-      <c r="BM6" s="166"/>
-      <c r="BN6" s="166"/>
-      <c r="BO6" s="166"/>
-      <c r="BP6" s="166"/>
-      <c r="BQ6" s="166"/>
-      <c r="BR6" s="166"/>
-      <c r="BS6" s="166"/>
-      <c r="BT6" s="166"/>
-      <c r="BU6" s="166"/>
-      <c r="BV6" s="166"/>
-      <c r="BW6" s="166"/>
-      <c r="BX6" s="166"/>
-      <c r="BY6" s="166"/>
-      <c r="BZ6" s="166"/>
-      <c r="CA6" s="166"/>
-      <c r="CB6" s="166"/>
-      <c r="CC6" s="166"/>
-      <c r="CD6" s="166"/>
-      <c r="CE6" s="166"/>
-      <c r="CF6" s="166"/>
-      <c r="CG6" s="166"/>
-      <c r="CH6" s="166"/>
-      <c r="CI6" s="166"/>
-      <c r="CJ6" s="166"/>
-      <c r="CK6" s="166"/>
-      <c r="CL6" s="166"/>
-      <c r="CM6" s="166"/>
-      <c r="CN6" s="170">
+      <c r="BJ6" s="167"/>
+      <c r="BK6" s="167"/>
+      <c r="BL6" s="167"/>
+      <c r="BM6" s="167"/>
+      <c r="BN6" s="167"/>
+      <c r="BO6" s="167"/>
+      <c r="BP6" s="167"/>
+      <c r="BQ6" s="167"/>
+      <c r="BR6" s="167"/>
+      <c r="BS6" s="167"/>
+      <c r="BT6" s="167"/>
+      <c r="BU6" s="167"/>
+      <c r="BV6" s="167"/>
+      <c r="BW6" s="167"/>
+      <c r="BX6" s="167"/>
+      <c r="BY6" s="167"/>
+      <c r="BZ6" s="167"/>
+      <c r="CA6" s="167"/>
+      <c r="CB6" s="167"/>
+      <c r="CC6" s="167"/>
+      <c r="CD6" s="167"/>
+      <c r="CE6" s="167"/>
+      <c r="CF6" s="167"/>
+      <c r="CG6" s="167"/>
+      <c r="CH6" s="167"/>
+      <c r="CI6" s="167"/>
+      <c r="CJ6" s="167"/>
+      <c r="CK6" s="167"/>
+      <c r="CL6" s="167"/>
+      <c r="CM6" s="167"/>
+      <c r="CN6" s="171">
         <v>4</v>
       </c>
-      <c r="CO6" s="171"/>
-      <c r="CP6" s="171"/>
-      <c r="CQ6" s="171"/>
-      <c r="CR6" s="171"/>
-      <c r="CS6" s="171"/>
-      <c r="CT6" s="171"/>
-      <c r="CU6" s="171"/>
-      <c r="CV6" s="171"/>
-      <c r="CW6" s="171"/>
-      <c r="CX6" s="171"/>
-      <c r="CY6" s="171"/>
-      <c r="CZ6" s="171"/>
-      <c r="DA6" s="171"/>
-      <c r="DB6" s="171"/>
-      <c r="DC6" s="171"/>
-      <c r="DD6" s="171"/>
-      <c r="DE6" s="171"/>
-      <c r="DF6" s="171"/>
-      <c r="DG6" s="171"/>
-      <c r="DH6" s="171"/>
-      <c r="DI6" s="171"/>
-      <c r="DJ6" s="171"/>
-      <c r="DK6" s="171"/>
-      <c r="DL6" s="171"/>
-      <c r="DM6" s="171"/>
-      <c r="DN6" s="171"/>
-      <c r="DO6" s="171"/>
-      <c r="DP6" s="171"/>
-      <c r="DQ6" s="172"/>
-      <c r="DR6" s="166">
+      <c r="CO6" s="172"/>
+      <c r="CP6" s="172"/>
+      <c r="CQ6" s="172"/>
+      <c r="CR6" s="172"/>
+      <c r="CS6" s="172"/>
+      <c r="CT6" s="172"/>
+      <c r="CU6" s="172"/>
+      <c r="CV6" s="172"/>
+      <c r="CW6" s="172"/>
+      <c r="CX6" s="172"/>
+      <c r="CY6" s="172"/>
+      <c r="CZ6" s="172"/>
+      <c r="DA6" s="172"/>
+      <c r="DB6" s="172"/>
+      <c r="DC6" s="172"/>
+      <c r="DD6" s="172"/>
+      <c r="DE6" s="172"/>
+      <c r="DF6" s="172"/>
+      <c r="DG6" s="172"/>
+      <c r="DH6" s="172"/>
+      <c r="DI6" s="172"/>
+      <c r="DJ6" s="172"/>
+      <c r="DK6" s="172"/>
+      <c r="DL6" s="172"/>
+      <c r="DM6" s="172"/>
+      <c r="DN6" s="172"/>
+      <c r="DO6" s="172"/>
+      <c r="DP6" s="172"/>
+      <c r="DQ6" s="173"/>
+      <c r="DR6" s="167">
         <v>5</v>
       </c>
-      <c r="DS6" s="166"/>
-      <c r="DT6" s="166"/>
-      <c r="DU6" s="166"/>
-      <c r="DV6" s="166"/>
-      <c r="DW6" s="166"/>
-      <c r="DX6" s="166"/>
-      <c r="DY6" s="166"/>
-      <c r="DZ6" s="166"/>
-      <c r="EA6" s="166"/>
-      <c r="EB6" s="166"/>
-      <c r="EC6" s="166"/>
-      <c r="ED6" s="166"/>
-      <c r="EE6" s="166"/>
-      <c r="EF6" s="166"/>
-      <c r="EG6" s="166"/>
-      <c r="EH6" s="166"/>
-      <c r="EI6" s="166"/>
-      <c r="EJ6" s="166"/>
-      <c r="EK6" s="166"/>
-      <c r="EL6" s="166"/>
-      <c r="EM6" s="166"/>
-      <c r="EN6" s="166"/>
-      <c r="EO6" s="166"/>
-      <c r="EP6" s="166"/>
-      <c r="EQ6" s="166"/>
-      <c r="ER6" s="166"/>
-      <c r="ES6" s="166"/>
-      <c r="ET6" s="166"/>
-      <c r="EU6" s="166"/>
-      <c r="EV6" s="167"/>
+      <c r="DS6" s="167"/>
+      <c r="DT6" s="167"/>
+      <c r="DU6" s="167"/>
+      <c r="DV6" s="167"/>
+      <c r="DW6" s="167"/>
+      <c r="DX6" s="167"/>
+      <c r="DY6" s="167"/>
+      <c r="DZ6" s="167"/>
+      <c r="EA6" s="167"/>
+      <c r="EB6" s="167"/>
+      <c r="EC6" s="167"/>
+      <c r="ED6" s="167"/>
+      <c r="EE6" s="167"/>
+      <c r="EF6" s="167"/>
+      <c r="EG6" s="167"/>
+      <c r="EH6" s="167"/>
+      <c r="EI6" s="167"/>
+      <c r="EJ6" s="167"/>
+      <c r="EK6" s="167"/>
+      <c r="EL6" s="167"/>
+      <c r="EM6" s="167"/>
+      <c r="EN6" s="167"/>
+      <c r="EO6" s="167"/>
+      <c r="EP6" s="167"/>
+      <c r="EQ6" s="167"/>
+      <c r="ER6" s="167"/>
+      <c r="ES6" s="167"/>
+      <c r="ET6" s="167"/>
+      <c r="EU6" s="167"/>
+      <c r="EV6" s="168"/>
     </row>
     <row r="7" spans="1:152" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
@@ -6494,7 +6509,7 @@
       </c>
     </row>
     <row r="8" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A8" s="163" t="s">
+      <c r="A8" s="164" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="34"/>
@@ -6658,7 +6673,7 @@
       <c r="EV8" s="99"/>
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A9" s="163"/>
+      <c r="A9" s="164"/>
       <c r="B9" s="29"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
@@ -6818,7 +6833,7 @@
       <c r="EV9" s="33"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A10" s="163"/>
+      <c r="A10" s="164"/>
       <c r="B10" s="29"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -6978,7 +6993,7 @@
       <c r="EV10" s="33"/>
     </row>
     <row r="11" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A11" s="163"/>
+      <c r="A11" s="164"/>
       <c r="B11" s="29"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
@@ -7136,7 +7151,7 @@
       <c r="EV11" s="33"/>
     </row>
     <row r="12" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A12" s="163"/>
+      <c r="A12" s="164"/>
       <c r="B12" s="29"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -7294,7 +7309,7 @@
       <c r="EV12" s="33"/>
     </row>
     <row r="13" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A13" s="163"/>
+      <c r="A13" s="164"/>
       <c r="B13" s="29"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -7450,7 +7465,7 @@
       <c r="EV13" s="33"/>
     </row>
     <row r="14" spans="1:152" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="168"/>
+      <c r="A14" s="169"/>
       <c r="B14" s="50"/>
       <c r="C14" s="51"/>
       <c r="D14" s="51"/>
@@ -7604,7 +7619,7 @@
       <c r="EV14" s="100"/>
     </row>
     <row r="15" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A15" s="165" t="s">
+      <c r="A15" s="166" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="42"/>
@@ -7766,7 +7781,7 @@
       <c r="EV15" s="102"/>
     </row>
     <row r="16" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A16" s="163"/>
+      <c r="A16" s="164"/>
       <c r="B16" s="24"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -7924,7 +7939,7 @@
       <c r="EV16" s="17"/>
     </row>
     <row r="17" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A17" s="163"/>
+      <c r="A17" s="164"/>
       <c r="B17" s="24"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -8084,7 +8099,7 @@
       <c r="EV17" s="17"/>
     </row>
     <row r="18" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A18" s="163"/>
+      <c r="A18" s="164"/>
       <c r="B18" s="24"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -8240,7 +8255,7 @@
       <c r="EV18" s="17"/>
     </row>
     <row r="19" spans="1:152" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="163"/>
+      <c r="A19" s="164"/>
       <c r="B19" s="26"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -8396,7 +8411,7 @@
       <c r="EV19" s="98"/>
     </row>
     <row r="20" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="165" t="s">
+      <c r="A20" s="166" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="75"/>
@@ -8558,7 +8573,7 @@
       <c r="EV20" s="102"/>
     </row>
     <row r="21" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="163"/>
+      <c r="A21" s="164"/>
       <c r="B21" s="24"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -8716,7 +8731,7 @@
       <c r="EV21" s="17"/>
     </row>
     <row r="22" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="163"/>
+      <c r="A22" s="164"/>
       <c r="B22" s="24"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -8874,7 +8889,7 @@
       <c r="EV22" s="17"/>
     </row>
     <row r="23" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="163"/>
+      <c r="A23" s="164"/>
       <c r="B23" s="24"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -9032,7 +9047,7 @@
       <c r="EV23" s="17"/>
     </row>
     <row r="24" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="164"/>
+      <c r="A24" s="165"/>
       <c r="B24" s="91"/>
       <c r="C24" s="92"/>
       <c r="D24" s="92"/>
@@ -9186,7 +9201,7 @@
       <c r="EV24" s="98"/>
     </row>
     <row r="25" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="165" t="s">
+      <c r="A25" s="166" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="75"/>
@@ -9342,7 +9357,7 @@
       <c r="EV25" s="102"/>
     </row>
     <row r="26" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="163"/>
+      <c r="A26" s="164"/>
       <c r="B26" s="24"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -9496,7 +9511,7 @@
       <c r="EV26" s="17"/>
     </row>
     <row r="27" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="163"/>
+      <c r="A27" s="164"/>
       <c r="B27" s="24"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -9650,7 +9665,7 @@
       <c r="EV27" s="17"/>
     </row>
     <row r="28" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="163"/>
+      <c r="A28" s="164"/>
       <c r="B28" s="24"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -9804,7 +9819,7 @@
       <c r="EV28" s="17"/>
     </row>
     <row r="29" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="163"/>
+      <c r="A29" s="164"/>
       <c r="B29" s="85"/>
       <c r="C29" s="71"/>
       <c r="D29" s="71"/>
@@ -9958,7 +9973,7 @@
       <c r="EV29" s="98"/>
     </row>
     <row r="30" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="162" t="s">
+      <c r="A30" s="163" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="75"/>
@@ -10124,7 +10139,7 @@
       <c r="EV30" s="102"/>
     </row>
     <row r="31" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="163"/>
+      <c r="A31" s="164"/>
       <c r="B31" s="24"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -10282,7 +10297,7 @@
       <c r="EV31" s="17"/>
     </row>
     <row r="32" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="163"/>
+      <c r="A32" s="164"/>
       <c r="B32" s="24"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -10440,7 +10455,7 @@
       <c r="EV32" s="17"/>
     </row>
     <row r="33" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="163"/>
+      <c r="A33" s="164"/>
       <c r="B33" s="24"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -10596,7 +10611,7 @@
       <c r="EV33" s="17"/>
     </row>
     <row r="34" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="164"/>
+      <c r="A34" s="165"/>
       <c r="B34" s="85"/>
       <c r="C34" s="71"/>
       <c r="D34" s="71"/>
@@ -10752,7 +10767,7 @@
       <c r="EV34" s="98"/>
     </row>
     <row r="35" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="163" t="s">
+      <c r="A35" s="164" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="75"/>
@@ -10910,7 +10925,7 @@
       <c r="EV35" s="102"/>
     </row>
     <row r="36" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="163"/>
+      <c r="A36" s="164"/>
       <c r="B36" s="24"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -11066,7 +11081,7 @@
       <c r="EV36" s="17"/>
     </row>
     <row r="37" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="163"/>
+      <c r="A37" s="164"/>
       <c r="B37" s="24"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -11220,7 +11235,7 @@
       <c r="EV37" s="17"/>
     </row>
     <row r="38" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="163"/>
+      <c r="A38" s="164"/>
       <c r="B38" s="24"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -11374,7 +11389,7 @@
       <c r="EV38" s="17"/>
     </row>
     <row r="39" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="163"/>
+      <c r="A39" s="164"/>
       <c r="B39" s="85"/>
       <c r="C39" s="71"/>
       <c r="D39" s="71"/>
@@ -11528,7 +11543,7 @@
       <c r="EV39" s="98"/>
     </row>
     <row r="40" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="162" t="s">
+      <c r="A40" s="163" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="75"/>
@@ -11690,7 +11705,7 @@
       <c r="EV40" s="102"/>
     </row>
     <row r="41" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="163"/>
+      <c r="A41" s="164"/>
       <c r="B41" s="24"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -11846,7 +11861,7 @@
       <c r="EV41" s="17"/>
     </row>
     <row r="42" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="163"/>
+      <c r="A42" s="164"/>
       <c r="B42" s="24"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
@@ -12004,7 +12019,7 @@
       <c r="EV42" s="17"/>
     </row>
     <row r="43" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="163"/>
+      <c r="A43" s="164"/>
       <c r="B43" s="24"/>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -12160,7 +12175,7 @@
       <c r="EV43" s="17"/>
     </row>
     <row r="44" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="164"/>
+      <c r="A44" s="165"/>
       <c r="B44" s="85"/>
       <c r="C44" s="71"/>
       <c r="D44" s="71"/>
@@ -12316,7 +12331,7 @@
       <c r="EV44" s="98"/>
     </row>
     <row r="45" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="163" t="s">
+      <c r="A45" s="164" t="s">
         <v>24</v>
       </c>
       <c r="B45" s="75"/>
@@ -12478,7 +12493,7 @@
       <c r="EV45" s="102"/>
     </row>
     <row r="46" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="163"/>
+      <c r="A46" s="164"/>
       <c r="B46" s="24"/>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
@@ -12634,7 +12649,7 @@
       <c r="EV46" s="17"/>
     </row>
     <row r="47" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="163"/>
+      <c r="A47" s="164"/>
       <c r="B47" s="24"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
@@ -12792,7 +12807,7 @@
       <c r="EV47" s="17"/>
     </row>
     <row r="48" spans="1:152" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="163"/>
+      <c r="A48" s="164"/>
       <c r="B48" s="24"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
@@ -12948,7 +12963,7 @@
       <c r="EV48" s="17"/>
     </row>
     <row r="49" spans="1:152" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="164"/>
+      <c r="A49" s="165"/>
       <c r="B49" s="85"/>
       <c r="C49" s="71"/>
       <c r="D49" s="71"/>
@@ -13145,9 +13160,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:NB71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DJ43" sqref="DJ43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BS1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DM43" sqref="DM43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -13184,395 +13199,395 @@
     </row>
     <row r="6" spans="1:366" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="169">
+      <c r="B6" s="170">
         <v>1</v>
       </c>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="166"/>
-      <c r="L6" s="166"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="166"/>
-      <c r="O6" s="166"/>
-      <c r="P6" s="166"/>
-      <c r="Q6" s="166"/>
-      <c r="R6" s="166"/>
-      <c r="S6" s="166"/>
-      <c r="T6" s="166"/>
-      <c r="U6" s="166"/>
-      <c r="V6" s="166"/>
-      <c r="W6" s="166"/>
-      <c r="X6" s="166"/>
-      <c r="Y6" s="166"/>
-      <c r="Z6" s="166"/>
-      <c r="AA6" s="166"/>
-      <c r="AB6" s="166"/>
-      <c r="AC6" s="166"/>
-      <c r="AD6" s="166"/>
-      <c r="AE6" s="166"/>
-      <c r="AF6" s="166"/>
-      <c r="AG6" s="169">
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="167"/>
+      <c r="P6" s="167"/>
+      <c r="Q6" s="167"/>
+      <c r="R6" s="167"/>
+      <c r="S6" s="167"/>
+      <c r="T6" s="167"/>
+      <c r="U6" s="167"/>
+      <c r="V6" s="167"/>
+      <c r="W6" s="167"/>
+      <c r="X6" s="167"/>
+      <c r="Y6" s="167"/>
+      <c r="Z6" s="167"/>
+      <c r="AA6" s="167"/>
+      <c r="AB6" s="167"/>
+      <c r="AC6" s="167"/>
+      <c r="AD6" s="167"/>
+      <c r="AE6" s="167"/>
+      <c r="AF6" s="167"/>
+      <c r="AG6" s="170">
         <v>2</v>
       </c>
-      <c r="AH6" s="166"/>
-      <c r="AI6" s="166"/>
-      <c r="AJ6" s="166"/>
-      <c r="AK6" s="166"/>
-      <c r="AL6" s="166"/>
-      <c r="AM6" s="166"/>
-      <c r="AN6" s="166"/>
-      <c r="AO6" s="166"/>
-      <c r="AP6" s="166"/>
-      <c r="AQ6" s="166"/>
-      <c r="AR6" s="166"/>
-      <c r="AS6" s="166"/>
-      <c r="AT6" s="166"/>
-      <c r="AU6" s="166"/>
-      <c r="AV6" s="166"/>
-      <c r="AW6" s="166"/>
-      <c r="AX6" s="166"/>
-      <c r="AY6" s="166"/>
-      <c r="AZ6" s="166"/>
-      <c r="BA6" s="166"/>
-      <c r="BB6" s="166"/>
-      <c r="BC6" s="166"/>
-      <c r="BD6" s="166"/>
-      <c r="BE6" s="166"/>
-      <c r="BF6" s="166"/>
-      <c r="BG6" s="166"/>
-      <c r="BH6" s="167"/>
-      <c r="BI6" s="166">
+      <c r="AH6" s="167"/>
+      <c r="AI6" s="167"/>
+      <c r="AJ6" s="167"/>
+      <c r="AK6" s="167"/>
+      <c r="AL6" s="167"/>
+      <c r="AM6" s="167"/>
+      <c r="AN6" s="167"/>
+      <c r="AO6" s="167"/>
+      <c r="AP6" s="167"/>
+      <c r="AQ6" s="167"/>
+      <c r="AR6" s="167"/>
+      <c r="AS6" s="167"/>
+      <c r="AT6" s="167"/>
+      <c r="AU6" s="167"/>
+      <c r="AV6" s="167"/>
+      <c r="AW6" s="167"/>
+      <c r="AX6" s="167"/>
+      <c r="AY6" s="167"/>
+      <c r="AZ6" s="167"/>
+      <c r="BA6" s="167"/>
+      <c r="BB6" s="167"/>
+      <c r="BC6" s="167"/>
+      <c r="BD6" s="167"/>
+      <c r="BE6" s="167"/>
+      <c r="BF6" s="167"/>
+      <c r="BG6" s="167"/>
+      <c r="BH6" s="168"/>
+      <c r="BI6" s="167">
         <v>3</v>
       </c>
-      <c r="BJ6" s="166"/>
-      <c r="BK6" s="166"/>
-      <c r="BL6" s="166"/>
-      <c r="BM6" s="166"/>
-      <c r="BN6" s="166"/>
-      <c r="BO6" s="166"/>
-      <c r="BP6" s="166"/>
-      <c r="BQ6" s="166"/>
-      <c r="BR6" s="166"/>
-      <c r="BS6" s="166"/>
-      <c r="BT6" s="166"/>
-      <c r="BU6" s="166"/>
-      <c r="BV6" s="166"/>
-      <c r="BW6" s="166"/>
-      <c r="BX6" s="166"/>
-      <c r="BY6" s="166"/>
-      <c r="BZ6" s="166"/>
-      <c r="CA6" s="166"/>
-      <c r="CB6" s="166"/>
-      <c r="CC6" s="166"/>
-      <c r="CD6" s="166"/>
-      <c r="CE6" s="166"/>
-      <c r="CF6" s="166"/>
-      <c r="CG6" s="166"/>
-      <c r="CH6" s="166"/>
-      <c r="CI6" s="166"/>
-      <c r="CJ6" s="166"/>
-      <c r="CK6" s="166"/>
-      <c r="CL6" s="166"/>
-      <c r="CM6" s="166"/>
-      <c r="CN6" s="170">
+      <c r="BJ6" s="167"/>
+      <c r="BK6" s="167"/>
+      <c r="BL6" s="167"/>
+      <c r="BM6" s="167"/>
+      <c r="BN6" s="167"/>
+      <c r="BO6" s="167"/>
+      <c r="BP6" s="167"/>
+      <c r="BQ6" s="167"/>
+      <c r="BR6" s="167"/>
+      <c r="BS6" s="167"/>
+      <c r="BT6" s="167"/>
+      <c r="BU6" s="167"/>
+      <c r="BV6" s="167"/>
+      <c r="BW6" s="167"/>
+      <c r="BX6" s="167"/>
+      <c r="BY6" s="167"/>
+      <c r="BZ6" s="167"/>
+      <c r="CA6" s="167"/>
+      <c r="CB6" s="167"/>
+      <c r="CC6" s="167"/>
+      <c r="CD6" s="167"/>
+      <c r="CE6" s="167"/>
+      <c r="CF6" s="167"/>
+      <c r="CG6" s="167"/>
+      <c r="CH6" s="167"/>
+      <c r="CI6" s="167"/>
+      <c r="CJ6" s="167"/>
+      <c r="CK6" s="167"/>
+      <c r="CL6" s="167"/>
+      <c r="CM6" s="167"/>
+      <c r="CN6" s="171">
         <v>4</v>
       </c>
-      <c r="CO6" s="171"/>
-      <c r="CP6" s="171"/>
-      <c r="CQ6" s="171"/>
-      <c r="CR6" s="171"/>
-      <c r="CS6" s="171"/>
-      <c r="CT6" s="171"/>
-      <c r="CU6" s="171"/>
-      <c r="CV6" s="171"/>
-      <c r="CW6" s="171"/>
-      <c r="CX6" s="171"/>
-      <c r="CY6" s="171"/>
-      <c r="CZ6" s="171"/>
-      <c r="DA6" s="171"/>
-      <c r="DB6" s="171"/>
-      <c r="DC6" s="171"/>
-      <c r="DD6" s="171"/>
-      <c r="DE6" s="171"/>
-      <c r="DF6" s="171"/>
-      <c r="DG6" s="171"/>
-      <c r="DH6" s="171"/>
-      <c r="DI6" s="171"/>
-      <c r="DJ6" s="171"/>
-      <c r="DK6" s="171"/>
-      <c r="DL6" s="171"/>
-      <c r="DM6" s="171"/>
-      <c r="DN6" s="171"/>
-      <c r="DO6" s="171"/>
-      <c r="DP6" s="171"/>
-      <c r="DQ6" s="172"/>
-      <c r="DR6" s="166">
+      <c r="CO6" s="172"/>
+      <c r="CP6" s="172"/>
+      <c r="CQ6" s="172"/>
+      <c r="CR6" s="172"/>
+      <c r="CS6" s="172"/>
+      <c r="CT6" s="172"/>
+      <c r="CU6" s="172"/>
+      <c r="CV6" s="172"/>
+      <c r="CW6" s="172"/>
+      <c r="CX6" s="172"/>
+      <c r="CY6" s="172"/>
+      <c r="CZ6" s="172"/>
+      <c r="DA6" s="172"/>
+      <c r="DB6" s="172"/>
+      <c r="DC6" s="172"/>
+      <c r="DD6" s="172"/>
+      <c r="DE6" s="172"/>
+      <c r="DF6" s="172"/>
+      <c r="DG6" s="172"/>
+      <c r="DH6" s="172"/>
+      <c r="DI6" s="172"/>
+      <c r="DJ6" s="172"/>
+      <c r="DK6" s="172"/>
+      <c r="DL6" s="172"/>
+      <c r="DM6" s="172"/>
+      <c r="DN6" s="172"/>
+      <c r="DO6" s="172"/>
+      <c r="DP6" s="172"/>
+      <c r="DQ6" s="173"/>
+      <c r="DR6" s="167">
         <v>5</v>
       </c>
-      <c r="DS6" s="166"/>
-      <c r="DT6" s="166"/>
-      <c r="DU6" s="166"/>
-      <c r="DV6" s="166"/>
-      <c r="DW6" s="166"/>
-      <c r="DX6" s="166"/>
-      <c r="DY6" s="166"/>
-      <c r="DZ6" s="166"/>
-      <c r="EA6" s="166"/>
-      <c r="EB6" s="166"/>
-      <c r="EC6" s="166"/>
-      <c r="ED6" s="166"/>
-      <c r="EE6" s="166"/>
-      <c r="EF6" s="166"/>
-      <c r="EG6" s="166"/>
-      <c r="EH6" s="166"/>
-      <c r="EI6" s="166"/>
-      <c r="EJ6" s="166"/>
-      <c r="EK6" s="166"/>
-      <c r="EL6" s="166"/>
-      <c r="EM6" s="166"/>
-      <c r="EN6" s="166"/>
-      <c r="EO6" s="166"/>
-      <c r="EP6" s="166"/>
-      <c r="EQ6" s="166"/>
-      <c r="ER6" s="166"/>
-      <c r="ES6" s="166"/>
-      <c r="ET6" s="166"/>
-      <c r="EU6" s="166"/>
-      <c r="EV6" s="167"/>
-      <c r="EW6" s="170">
+      <c r="DS6" s="167"/>
+      <c r="DT6" s="167"/>
+      <c r="DU6" s="167"/>
+      <c r="DV6" s="167"/>
+      <c r="DW6" s="167"/>
+      <c r="DX6" s="167"/>
+      <c r="DY6" s="167"/>
+      <c r="DZ6" s="167"/>
+      <c r="EA6" s="167"/>
+      <c r="EB6" s="167"/>
+      <c r="EC6" s="167"/>
+      <c r="ED6" s="167"/>
+      <c r="EE6" s="167"/>
+      <c r="EF6" s="167"/>
+      <c r="EG6" s="167"/>
+      <c r="EH6" s="167"/>
+      <c r="EI6" s="167"/>
+      <c r="EJ6" s="167"/>
+      <c r="EK6" s="167"/>
+      <c r="EL6" s="167"/>
+      <c r="EM6" s="167"/>
+      <c r="EN6" s="167"/>
+      <c r="EO6" s="167"/>
+      <c r="EP6" s="167"/>
+      <c r="EQ6" s="167"/>
+      <c r="ER6" s="167"/>
+      <c r="ES6" s="167"/>
+      <c r="ET6" s="167"/>
+      <c r="EU6" s="167"/>
+      <c r="EV6" s="168"/>
+      <c r="EW6" s="171">
         <v>6</v>
       </c>
-      <c r="EX6" s="171"/>
-      <c r="EY6" s="171"/>
-      <c r="EZ6" s="171"/>
-      <c r="FA6" s="171"/>
-      <c r="FB6" s="171"/>
-      <c r="FC6" s="171"/>
-      <c r="FD6" s="171"/>
-      <c r="FE6" s="171"/>
-      <c r="FF6" s="171"/>
-      <c r="FG6" s="171"/>
-      <c r="FH6" s="171"/>
-      <c r="FI6" s="171"/>
-      <c r="FJ6" s="171"/>
-      <c r="FK6" s="171"/>
-      <c r="FL6" s="171"/>
-      <c r="FM6" s="171"/>
-      <c r="FN6" s="171"/>
-      <c r="FO6" s="171"/>
-      <c r="FP6" s="171"/>
-      <c r="FQ6" s="171"/>
-      <c r="FR6" s="171"/>
-      <c r="FS6" s="171"/>
-      <c r="FT6" s="171"/>
-      <c r="FU6" s="171"/>
-      <c r="FV6" s="171"/>
-      <c r="FW6" s="171"/>
-      <c r="FX6" s="171"/>
-      <c r="FY6" s="171"/>
-      <c r="FZ6" s="172"/>
-      <c r="GA6" s="166">
+      <c r="EX6" s="172"/>
+      <c r="EY6" s="172"/>
+      <c r="EZ6" s="172"/>
+      <c r="FA6" s="172"/>
+      <c r="FB6" s="172"/>
+      <c r="FC6" s="172"/>
+      <c r="FD6" s="172"/>
+      <c r="FE6" s="172"/>
+      <c r="FF6" s="172"/>
+      <c r="FG6" s="172"/>
+      <c r="FH6" s="172"/>
+      <c r="FI6" s="172"/>
+      <c r="FJ6" s="172"/>
+      <c r="FK6" s="172"/>
+      <c r="FL6" s="172"/>
+      <c r="FM6" s="172"/>
+      <c r="FN6" s="172"/>
+      <c r="FO6" s="172"/>
+      <c r="FP6" s="172"/>
+      <c r="FQ6" s="172"/>
+      <c r="FR6" s="172"/>
+      <c r="FS6" s="172"/>
+      <c r="FT6" s="172"/>
+      <c r="FU6" s="172"/>
+      <c r="FV6" s="172"/>
+      <c r="FW6" s="172"/>
+      <c r="FX6" s="172"/>
+      <c r="FY6" s="172"/>
+      <c r="FZ6" s="173"/>
+      <c r="GA6" s="167">
         <v>7</v>
       </c>
-      <c r="GB6" s="166"/>
-      <c r="GC6" s="166"/>
-      <c r="GD6" s="166"/>
-      <c r="GE6" s="166"/>
-      <c r="GF6" s="166"/>
-      <c r="GG6" s="166"/>
-      <c r="GH6" s="166"/>
-      <c r="GI6" s="166"/>
-      <c r="GJ6" s="166"/>
-      <c r="GK6" s="166"/>
-      <c r="GL6" s="166"/>
-      <c r="GM6" s="166"/>
-      <c r="GN6" s="166"/>
-      <c r="GO6" s="166"/>
-      <c r="GP6" s="166"/>
-      <c r="GQ6" s="166"/>
-      <c r="GR6" s="166"/>
-      <c r="GS6" s="166"/>
-      <c r="GT6" s="166"/>
-      <c r="GU6" s="166"/>
-      <c r="GV6" s="166"/>
-      <c r="GW6" s="166"/>
-      <c r="GX6" s="166"/>
-      <c r="GY6" s="166"/>
-      <c r="GZ6" s="166"/>
-      <c r="HA6" s="166"/>
-      <c r="HB6" s="166"/>
-      <c r="HC6" s="166"/>
-      <c r="HD6" s="166"/>
-      <c r="HE6" s="167"/>
-      <c r="HF6" s="166">
+      <c r="GB6" s="167"/>
+      <c r="GC6" s="167"/>
+      <c r="GD6" s="167"/>
+      <c r="GE6" s="167"/>
+      <c r="GF6" s="167"/>
+      <c r="GG6" s="167"/>
+      <c r="GH6" s="167"/>
+      <c r="GI6" s="167"/>
+      <c r="GJ6" s="167"/>
+      <c r="GK6" s="167"/>
+      <c r="GL6" s="167"/>
+      <c r="GM6" s="167"/>
+      <c r="GN6" s="167"/>
+      <c r="GO6" s="167"/>
+      <c r="GP6" s="167"/>
+      <c r="GQ6" s="167"/>
+      <c r="GR6" s="167"/>
+      <c r="GS6" s="167"/>
+      <c r="GT6" s="167"/>
+      <c r="GU6" s="167"/>
+      <c r="GV6" s="167"/>
+      <c r="GW6" s="167"/>
+      <c r="GX6" s="167"/>
+      <c r="GY6" s="167"/>
+      <c r="GZ6" s="167"/>
+      <c r="HA6" s="167"/>
+      <c r="HB6" s="167"/>
+      <c r="HC6" s="167"/>
+      <c r="HD6" s="167"/>
+      <c r="HE6" s="168"/>
+      <c r="HF6" s="167">
         <v>8</v>
       </c>
-      <c r="HG6" s="166"/>
-      <c r="HH6" s="166"/>
-      <c r="HI6" s="166"/>
-      <c r="HJ6" s="166"/>
-      <c r="HK6" s="166"/>
-      <c r="HL6" s="166"/>
-      <c r="HM6" s="166"/>
-      <c r="HN6" s="166"/>
-      <c r="HO6" s="166"/>
-      <c r="HP6" s="166"/>
-      <c r="HQ6" s="166"/>
-      <c r="HR6" s="166"/>
-      <c r="HS6" s="166"/>
-      <c r="HT6" s="166"/>
-      <c r="HU6" s="166"/>
-      <c r="HV6" s="166"/>
-      <c r="HW6" s="166"/>
-      <c r="HX6" s="166"/>
-      <c r="HY6" s="166"/>
-      <c r="HZ6" s="166"/>
-      <c r="IA6" s="166"/>
-      <c r="IB6" s="166"/>
-      <c r="IC6" s="166"/>
-      <c r="ID6" s="166"/>
-      <c r="IE6" s="166"/>
-      <c r="IF6" s="166"/>
-      <c r="IG6" s="166"/>
-      <c r="IH6" s="166"/>
-      <c r="II6" s="166"/>
-      <c r="IJ6" s="167"/>
-      <c r="IK6" s="170">
+      <c r="HG6" s="167"/>
+      <c r="HH6" s="167"/>
+      <c r="HI6" s="167"/>
+      <c r="HJ6" s="167"/>
+      <c r="HK6" s="167"/>
+      <c r="HL6" s="167"/>
+      <c r="HM6" s="167"/>
+      <c r="HN6" s="167"/>
+      <c r="HO6" s="167"/>
+      <c r="HP6" s="167"/>
+      <c r="HQ6" s="167"/>
+      <c r="HR6" s="167"/>
+      <c r="HS6" s="167"/>
+      <c r="HT6" s="167"/>
+      <c r="HU6" s="167"/>
+      <c r="HV6" s="167"/>
+      <c r="HW6" s="167"/>
+      <c r="HX6" s="167"/>
+      <c r="HY6" s="167"/>
+      <c r="HZ6" s="167"/>
+      <c r="IA6" s="167"/>
+      <c r="IB6" s="167"/>
+      <c r="IC6" s="167"/>
+      <c r="ID6" s="167"/>
+      <c r="IE6" s="167"/>
+      <c r="IF6" s="167"/>
+      <c r="IG6" s="167"/>
+      <c r="IH6" s="167"/>
+      <c r="II6" s="167"/>
+      <c r="IJ6" s="168"/>
+      <c r="IK6" s="171">
         <v>9</v>
       </c>
-      <c r="IL6" s="171"/>
-      <c r="IM6" s="171"/>
-      <c r="IN6" s="171"/>
-      <c r="IO6" s="171"/>
-      <c r="IP6" s="171"/>
-      <c r="IQ6" s="171"/>
-      <c r="IR6" s="171"/>
-      <c r="IS6" s="171"/>
-      <c r="IT6" s="171"/>
-      <c r="IU6" s="171"/>
-      <c r="IV6" s="171"/>
-      <c r="IW6" s="171"/>
-      <c r="IX6" s="171"/>
-      <c r="IY6" s="171"/>
-      <c r="IZ6" s="171"/>
-      <c r="JA6" s="171"/>
-      <c r="JB6" s="171"/>
-      <c r="JC6" s="171"/>
-      <c r="JD6" s="171"/>
-      <c r="JE6" s="171"/>
-      <c r="JF6" s="171"/>
-      <c r="JG6" s="171"/>
-      <c r="JH6" s="171"/>
-      <c r="JI6" s="171"/>
-      <c r="JJ6" s="171"/>
-      <c r="JK6" s="171"/>
-      <c r="JL6" s="171"/>
-      <c r="JM6" s="171"/>
-      <c r="JN6" s="172"/>
-      <c r="JO6" s="166">
+      <c r="IL6" s="172"/>
+      <c r="IM6" s="172"/>
+      <c r="IN6" s="172"/>
+      <c r="IO6" s="172"/>
+      <c r="IP6" s="172"/>
+      <c r="IQ6" s="172"/>
+      <c r="IR6" s="172"/>
+      <c r="IS6" s="172"/>
+      <c r="IT6" s="172"/>
+      <c r="IU6" s="172"/>
+      <c r="IV6" s="172"/>
+      <c r="IW6" s="172"/>
+      <c r="IX6" s="172"/>
+      <c r="IY6" s="172"/>
+      <c r="IZ6" s="172"/>
+      <c r="JA6" s="172"/>
+      <c r="JB6" s="172"/>
+      <c r="JC6" s="172"/>
+      <c r="JD6" s="172"/>
+      <c r="JE6" s="172"/>
+      <c r="JF6" s="172"/>
+      <c r="JG6" s="172"/>
+      <c r="JH6" s="172"/>
+      <c r="JI6" s="172"/>
+      <c r="JJ6" s="172"/>
+      <c r="JK6" s="172"/>
+      <c r="JL6" s="172"/>
+      <c r="JM6" s="172"/>
+      <c r="JN6" s="173"/>
+      <c r="JO6" s="167">
         <v>10</v>
       </c>
-      <c r="JP6" s="166"/>
-      <c r="JQ6" s="166"/>
-      <c r="JR6" s="166"/>
-      <c r="JS6" s="166"/>
-      <c r="JT6" s="166"/>
-      <c r="JU6" s="166"/>
-      <c r="JV6" s="166"/>
-      <c r="JW6" s="166"/>
-      <c r="JX6" s="166"/>
-      <c r="JY6" s="166"/>
-      <c r="JZ6" s="166"/>
-      <c r="KA6" s="166"/>
-      <c r="KB6" s="166"/>
-      <c r="KC6" s="166"/>
-      <c r="KD6" s="166"/>
-      <c r="KE6" s="166"/>
-      <c r="KF6" s="166"/>
-      <c r="KG6" s="166"/>
-      <c r="KH6" s="166"/>
-      <c r="KI6" s="166"/>
-      <c r="KJ6" s="166"/>
-      <c r="KK6" s="166"/>
-      <c r="KL6" s="166"/>
-      <c r="KM6" s="166"/>
-      <c r="KN6" s="166"/>
-      <c r="KO6" s="166"/>
-      <c r="KP6" s="166"/>
-      <c r="KQ6" s="166"/>
-      <c r="KR6" s="166"/>
-      <c r="KS6" s="167"/>
-      <c r="KT6" s="170">
+      <c r="JP6" s="167"/>
+      <c r="JQ6" s="167"/>
+      <c r="JR6" s="167"/>
+      <c r="JS6" s="167"/>
+      <c r="JT6" s="167"/>
+      <c r="JU6" s="167"/>
+      <c r="JV6" s="167"/>
+      <c r="JW6" s="167"/>
+      <c r="JX6" s="167"/>
+      <c r="JY6" s="167"/>
+      <c r="JZ6" s="167"/>
+      <c r="KA6" s="167"/>
+      <c r="KB6" s="167"/>
+      <c r="KC6" s="167"/>
+      <c r="KD6" s="167"/>
+      <c r="KE6" s="167"/>
+      <c r="KF6" s="167"/>
+      <c r="KG6" s="167"/>
+      <c r="KH6" s="167"/>
+      <c r="KI6" s="167"/>
+      <c r="KJ6" s="167"/>
+      <c r="KK6" s="167"/>
+      <c r="KL6" s="167"/>
+      <c r="KM6" s="167"/>
+      <c r="KN6" s="167"/>
+      <c r="KO6" s="167"/>
+      <c r="KP6" s="167"/>
+      <c r="KQ6" s="167"/>
+      <c r="KR6" s="167"/>
+      <c r="KS6" s="168"/>
+      <c r="KT6" s="171">
         <v>11</v>
       </c>
-      <c r="KU6" s="171"/>
-      <c r="KV6" s="171"/>
-      <c r="KW6" s="171"/>
-      <c r="KX6" s="171"/>
-      <c r="KY6" s="171"/>
-      <c r="KZ6" s="171"/>
-      <c r="LA6" s="171"/>
-      <c r="LB6" s="171"/>
-      <c r="LC6" s="171"/>
-      <c r="LD6" s="171"/>
-      <c r="LE6" s="171"/>
-      <c r="LF6" s="171"/>
-      <c r="LG6" s="171"/>
-      <c r="LH6" s="171"/>
-      <c r="LI6" s="171"/>
-      <c r="LJ6" s="171"/>
-      <c r="LK6" s="171"/>
-      <c r="LL6" s="171"/>
-      <c r="LM6" s="171"/>
-      <c r="LN6" s="171"/>
-      <c r="LO6" s="171"/>
-      <c r="LP6" s="171"/>
-      <c r="LQ6" s="171"/>
-      <c r="LR6" s="171"/>
-      <c r="LS6" s="171"/>
-      <c r="LT6" s="171"/>
-      <c r="LU6" s="171"/>
-      <c r="LV6" s="171"/>
-      <c r="LW6" s="172"/>
-      <c r="LX6" s="166">
+      <c r="KU6" s="172"/>
+      <c r="KV6" s="172"/>
+      <c r="KW6" s="172"/>
+      <c r="KX6" s="172"/>
+      <c r="KY6" s="172"/>
+      <c r="KZ6" s="172"/>
+      <c r="LA6" s="172"/>
+      <c r="LB6" s="172"/>
+      <c r="LC6" s="172"/>
+      <c r="LD6" s="172"/>
+      <c r="LE6" s="172"/>
+      <c r="LF6" s="172"/>
+      <c r="LG6" s="172"/>
+      <c r="LH6" s="172"/>
+      <c r="LI6" s="172"/>
+      <c r="LJ6" s="172"/>
+      <c r="LK6" s="172"/>
+      <c r="LL6" s="172"/>
+      <c r="LM6" s="172"/>
+      <c r="LN6" s="172"/>
+      <c r="LO6" s="172"/>
+      <c r="LP6" s="172"/>
+      <c r="LQ6" s="172"/>
+      <c r="LR6" s="172"/>
+      <c r="LS6" s="172"/>
+      <c r="LT6" s="172"/>
+      <c r="LU6" s="172"/>
+      <c r="LV6" s="172"/>
+      <c r="LW6" s="173"/>
+      <c r="LX6" s="167">
         <v>12</v>
       </c>
-      <c r="LY6" s="166"/>
-      <c r="LZ6" s="166"/>
-      <c r="MA6" s="166"/>
-      <c r="MB6" s="166"/>
-      <c r="MC6" s="166"/>
-      <c r="MD6" s="166"/>
-      <c r="ME6" s="166"/>
-      <c r="MF6" s="166"/>
-      <c r="MG6" s="166"/>
-      <c r="MH6" s="166"/>
-      <c r="MI6" s="166"/>
-      <c r="MJ6" s="166"/>
-      <c r="MK6" s="166"/>
-      <c r="ML6" s="166"/>
-      <c r="MM6" s="166"/>
-      <c r="MN6" s="166"/>
-      <c r="MO6" s="166"/>
-      <c r="MP6" s="166"/>
-      <c r="MQ6" s="166"/>
-      <c r="MR6" s="166"/>
-      <c r="MS6" s="166"/>
-      <c r="MT6" s="166"/>
-      <c r="MU6" s="166"/>
-      <c r="MV6" s="166"/>
-      <c r="MW6" s="166"/>
-      <c r="MX6" s="166"/>
-      <c r="MY6" s="166"/>
-      <c r="MZ6" s="166"/>
-      <c r="NA6" s="166"/>
-      <c r="NB6" s="167"/>
+      <c r="LY6" s="167"/>
+      <c r="LZ6" s="167"/>
+      <c r="MA6" s="167"/>
+      <c r="MB6" s="167"/>
+      <c r="MC6" s="167"/>
+      <c r="MD6" s="167"/>
+      <c r="ME6" s="167"/>
+      <c r="MF6" s="167"/>
+      <c r="MG6" s="167"/>
+      <c r="MH6" s="167"/>
+      <c r="MI6" s="167"/>
+      <c r="MJ6" s="167"/>
+      <c r="MK6" s="167"/>
+      <c r="ML6" s="167"/>
+      <c r="MM6" s="167"/>
+      <c r="MN6" s="167"/>
+      <c r="MO6" s="167"/>
+      <c r="MP6" s="167"/>
+      <c r="MQ6" s="167"/>
+      <c r="MR6" s="167"/>
+      <c r="MS6" s="167"/>
+      <c r="MT6" s="167"/>
+      <c r="MU6" s="167"/>
+      <c r="MV6" s="167"/>
+      <c r="MW6" s="167"/>
+      <c r="MX6" s="167"/>
+      <c r="MY6" s="167"/>
+      <c r="MZ6" s="167"/>
+      <c r="NA6" s="167"/>
+      <c r="NB6" s="168"/>
     </row>
     <row r="7" spans="1:366" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
@@ -14673,7 +14688,7 @@
       </c>
     </row>
     <row r="8" spans="1:366" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="173" t="s">
+      <c r="A8" s="174" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="34"/>
@@ -15061,7 +15076,7 @@
       <c r="NB8" s="141"/>
     </row>
     <row r="9" spans="1:366" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="173"/>
+      <c r="A9" s="174"/>
       <c r="B9" s="29"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
@@ -15441,7 +15456,7 @@
       <c r="NB9" s="32"/>
     </row>
     <row r="10" spans="1:366" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="173"/>
+      <c r="A10" s="174"/>
       <c r="B10" s="29"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -15821,7 +15836,7 @@
       <c r="NB10" s="32"/>
     </row>
     <row r="11" spans="1:366" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="173"/>
+      <c r="A11" s="174"/>
       <c r="B11" s="29"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
@@ -16197,7 +16212,7 @@
       <c r="NB11" s="32"/>
     </row>
     <row r="12" spans="1:366" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="173"/>
+      <c r="A12" s="174"/>
       <c r="B12" s="29"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -16571,7 +16586,7 @@
       <c r="NB12" s="32"/>
     </row>
     <row r="13" spans="1:366" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="173"/>
+      <c r="A13" s="174"/>
       <c r="B13" s="29"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -16941,7 +16956,7 @@
       <c r="NB13" s="32"/>
     </row>
     <row r="14" spans="1:366" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="173"/>
+      <c r="A14" s="174"/>
       <c r="B14" s="50"/>
       <c r="C14" s="51"/>
       <c r="D14" s="51"/>
@@ -17037,7 +17052,7 @@
       <c r="CP14" s="51"/>
       <c r="CQ14" s="51"/>
       <c r="CR14" s="51"/>
-      <c r="CS14" s="175" t="s">
+      <c r="CS14" s="162" t="s">
         <v>64</v>
       </c>
       <c r="CT14" s="52"/>
@@ -17311,7 +17326,7 @@
       <c r="NB14" s="65"/>
     </row>
     <row r="15" spans="1:366" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="173" t="s">
+      <c r="A15" s="174" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="42"/>
@@ -17695,7 +17710,7 @@
       <c r="NB15" s="84"/>
     </row>
     <row r="16" spans="1:366" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="173"/>
+      <c r="A16" s="174"/>
       <c r="B16" s="24"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -18075,7 +18090,7 @@
       <c r="NB16" s="25"/>
     </row>
     <row r="17" spans="1:366" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="173"/>
+      <c r="A17" s="174"/>
       <c r="B17" s="24"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -18172,7 +18187,9 @@
       <c r="CM17" s="14"/>
       <c r="CN17" s="24"/>
       <c r="CO17" s="13"/>
-      <c r="CP17" s="16"/>
+      <c r="CP17" s="176" t="s">
+        <v>90</v>
+      </c>
       <c r="CQ17" s="16"/>
       <c r="CR17" s="16"/>
       <c r="CS17" s="16"/>
@@ -18449,7 +18466,7 @@
       <c r="NB17" s="25"/>
     </row>
     <row r="18" spans="1:366" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="173"/>
+      <c r="A18" s="174"/>
       <c r="B18" s="24"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -18825,7 +18842,7 @@
       <c r="NB18" s="25"/>
     </row>
     <row r="19" spans="1:366" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="173"/>
+      <c r="A19" s="174"/>
       <c r="B19" s="26"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -19195,7 +19212,7 @@
       <c r="NB19" s="74"/>
     </row>
     <row r="20" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="173" t="s">
+      <c r="A20" s="174" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="75"/>
@@ -19573,7 +19590,7 @@
       <c r="NB20" s="84"/>
     </row>
     <row r="21" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="173"/>
+      <c r="A21" s="174"/>
       <c r="B21" s="24"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -19947,7 +19964,7 @@
       <c r="NB21" s="25"/>
     </row>
     <row r="22" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="173"/>
+      <c r="A22" s="174"/>
       <c r="B22" s="24"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -20319,7 +20336,7 @@
       <c r="NB22" s="25"/>
     </row>
     <row r="23" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="173"/>
+      <c r="A23" s="174"/>
       <c r="B23" s="24"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -20695,7 +20712,7 @@
       <c r="NB23" s="25"/>
     </row>
     <row r="24" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="173"/>
+      <c r="A24" s="174"/>
       <c r="B24" s="91"/>
       <c r="C24" s="92"/>
       <c r="D24" s="92"/>
@@ -21063,7 +21080,7 @@
       <c r="NB24" s="74"/>
     </row>
     <row r="25" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="174" t="s">
+      <c r="A25" s="175" t="s">
         <v>62</v>
       </c>
       <c r="B25" s="75"/>
@@ -21439,7 +21456,7 @@
       <c r="NB25" s="84"/>
     </row>
     <row r="26" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="173"/>
+      <c r="A26" s="174"/>
       <c r="B26" s="24"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -21811,7 +21828,7 @@
       <c r="NB26" s="25"/>
     </row>
     <row r="27" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="173"/>
+      <c r="A27" s="174"/>
       <c r="B27" s="24"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -22185,7 +22202,7 @@
       <c r="NB27" s="25"/>
     </row>
     <row r="28" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="173"/>
+      <c r="A28" s="174"/>
       <c r="B28" s="24"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -22557,7 +22574,7 @@
       <c r="NB28" s="25"/>
     </row>
     <row r="29" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="173"/>
+      <c r="A29" s="174"/>
       <c r="B29" s="85"/>
       <c r="C29" s="71"/>
       <c r="D29" s="71"/>
@@ -22927,7 +22944,7 @@
       <c r="NB29" s="74"/>
     </row>
     <row r="30" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="174" t="s">
+      <c r="A30" s="175" t="s">
         <v>63</v>
       </c>
       <c r="B30" s="75"/>
@@ -23299,7 +23316,7 @@
       <c r="NB30" s="84"/>
     </row>
     <row r="31" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="173"/>
+      <c r="A31" s="174"/>
       <c r="B31" s="24"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -23673,7 +23690,7 @@
       <c r="NB31" s="25"/>
     </row>
     <row r="32" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="173"/>
+      <c r="A32" s="174"/>
       <c r="B32" s="24"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -24047,7 +24064,7 @@
       <c r="NB32" s="25"/>
     </row>
     <row r="33" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="173"/>
+      <c r="A33" s="174"/>
       <c r="B33" s="24"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -24417,7 +24434,7 @@
       <c r="NB33" s="25"/>
     </row>
     <row r="34" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="173"/>
+      <c r="A34" s="174"/>
       <c r="B34" s="85"/>
       <c r="C34" s="71"/>
       <c r="D34" s="71"/>
@@ -24785,7 +24802,7 @@
       <c r="NB34" s="74"/>
     </row>
     <row r="35" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="173" t="s">
+      <c r="A35" s="174" t="s">
         <v>20</v>
       </c>
       <c r="B35" s="42"/>
@@ -25167,7 +25184,7 @@
       <c r="NB35" s="47"/>
     </row>
     <row r="36" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="173"/>
+      <c r="A36" s="174"/>
       <c r="B36" s="24"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -25539,7 +25556,7 @@
       <c r="NB36" s="25"/>
     </row>
     <row r="37" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="173"/>
+      <c r="A37" s="174"/>
       <c r="B37" s="24"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -25643,7 +25660,7 @@
       <c r="CT37" s="14"/>
       <c r="CU37" s="14"/>
       <c r="CV37" s="16"/>
-      <c r="CW37" s="59" t="s">
+      <c r="CW37" s="56" t="s">
         <v>54</v>
       </c>
       <c r="CX37" s="16"/>
@@ -25917,7 +25934,7 @@
       <c r="NB37" s="25"/>
     </row>
     <row r="38" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="173"/>
+      <c r="A38" s="174"/>
       <c r="B38" s="24"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -26287,7 +26304,7 @@
       <c r="NB38" s="25"/>
     </row>
     <row r="39" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="173"/>
+      <c r="A39" s="174"/>
       <c r="B39" s="85"/>
       <c r="C39" s="71"/>
       <c r="D39" s="71"/>
@@ -26659,7 +26676,7 @@
       <c r="NB39" s="74"/>
     </row>
     <row r="40" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="173" t="s">
+      <c r="A40" s="174" t="s">
         <v>23</v>
       </c>
       <c r="B40" s="75"/>
@@ -27037,7 +27054,7 @@
       <c r="NB40" s="84"/>
     </row>
     <row r="41" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="173"/>
+      <c r="A41" s="174"/>
       <c r="B41" s="24"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -27138,7 +27155,9 @@
       <c r="CS41" s="16"/>
       <c r="CT41" s="14"/>
       <c r="CU41" s="14"/>
-      <c r="CV41" s="13"/>
+      <c r="CV41" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="CW41" s="16"/>
       <c r="CX41" s="16"/>
       <c r="CY41" s="16"/>
@@ -27409,7 +27428,7 @@
       <c r="NB41" s="25"/>
     </row>
     <row r="42" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="173"/>
+      <c r="A42" s="174"/>
       <c r="B42" s="24"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
@@ -27781,7 +27800,7 @@
       <c r="NB42" s="25"/>
     </row>
     <row r="43" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="173"/>
+      <c r="A43" s="174"/>
       <c r="B43" s="24"/>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -28151,7 +28170,7 @@
       <c r="NB43" s="25"/>
     </row>
     <row r="44" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="173"/>
+      <c r="A44" s="174"/>
       <c r="B44" s="85"/>
       <c r="C44" s="71"/>
       <c r="D44" s="71"/>
@@ -28519,7 +28538,7 @@
       <c r="NB44" s="74"/>
     </row>
     <row r="45" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="173" t="s">
+      <c r="A45" s="174" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="75"/>
@@ -28623,7 +28642,7 @@
       <c r="CR45" s="76"/>
       <c r="CS45" s="76"/>
       <c r="CT45" s="77" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="CU45" s="77"/>
       <c r="CV45" s="46"/>
@@ -28899,7 +28918,7 @@
       <c r="NB45" s="84"/>
     </row>
     <row r="46" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="173"/>
+      <c r="A46" s="174"/>
       <c r="B46" s="24"/>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
@@ -29269,7 +29288,7 @@
       <c r="NB46" s="25"/>
     </row>
     <row r="47" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="173"/>
+      <c r="A47" s="174"/>
       <c r="B47" s="24"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
@@ -29645,7 +29664,7 @@
       <c r="NB47" s="25"/>
     </row>
     <row r="48" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="173"/>
+      <c r="A48" s="174"/>
       <c r="B48" s="24"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
@@ -30015,7 +30034,7 @@
       <c r="NB48" s="25"/>
     </row>
     <row r="49" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="173"/>
+      <c r="A49" s="174"/>
       <c r="B49" s="85"/>
       <c r="C49" s="71"/>
       <c r="D49" s="71"/>
@@ -30389,7 +30408,7 @@
       <c r="NB49" s="74"/>
     </row>
     <row r="50" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="173" t="s">
+      <c r="A50" s="174" t="s">
         <v>24</v>
       </c>
       <c r="B50" s="75"/>
@@ -30771,7 +30790,7 @@
       <c r="NB50" s="84"/>
     </row>
     <row r="51" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="173"/>
+      <c r="A51" s="174"/>
       <c r="B51" s="24"/>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
@@ -31149,7 +31168,7 @@
       <c r="NB51" s="25"/>
     </row>
     <row r="52" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="173"/>
+      <c r="A52" s="174"/>
       <c r="B52" s="24"/>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
@@ -31521,7 +31540,7 @@
       <c r="NB52" s="25"/>
     </row>
     <row r="53" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="173"/>
+      <c r="A53" s="174"/>
       <c r="B53" s="24"/>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
@@ -31891,7 +31910,7 @@
       <c r="NB53" s="25"/>
     </row>
     <row r="54" spans="1:366" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="173"/>
+      <c r="A54" s="174"/>
       <c r="B54" s="85"/>
       <c r="C54" s="71"/>
       <c r="D54" s="71"/>
@@ -32277,6 +32296,11 @@
     <row r="71" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="GA6:HE6"/>
+    <mergeCell ref="HF6:IJ6"/>
+    <mergeCell ref="IK6:JN6"/>
+    <mergeCell ref="JO6:KS6"/>
+    <mergeCell ref="KT6:LW6"/>
     <mergeCell ref="LX6:NB6"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="A15:A19"/>
@@ -32293,11 +32317,6 @@
     <mergeCell ref="BI6:CM6"/>
     <mergeCell ref="CN6:DQ6"/>
     <mergeCell ref="DR6:EV6"/>
-    <mergeCell ref="GA6:HE6"/>
-    <mergeCell ref="HF6:IJ6"/>
-    <mergeCell ref="IK6:JN6"/>
-    <mergeCell ref="JO6:KS6"/>
-    <mergeCell ref="KT6:LW6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0_DOC/Femto Project schedule V1.0.xlsx
+++ b/0_DOC/Femto Project schedule V1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
@@ -16,7 +16,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'20180328'!$A$1:$ND$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'20180423'!$A$1:$ND$54</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="121">
   <si>
     <t>◇PCB설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -756,6 +756,14 @@
   </si>
   <si>
     <t>▶기구업체 meeting(Femto 단독)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇부품입고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◇PCB설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1409,7 +1417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1643,6 +1651,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5879,7 +5888,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>110</xdr:col>
-      <xdr:colOff>168089</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>103585</xdr:rowOff>
     </xdr:to>
@@ -5890,8 +5899,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20607181" y="3173997"/>
-          <a:ext cx="2577790" cy="0"/>
+          <a:off x="2453651" y="3173997"/>
+          <a:ext cx="2409702" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6567,57 +6576,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>102</xdr:col>
-      <xdr:colOff>72839</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>108</xdr:col>
-      <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>84535</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="직선 화살표 연결선 17"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="21304064" y="6469716"/>
-          <a:ext cx="1239370" cy="6094"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>100</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>49</xdr:row>
@@ -6873,16 +6831,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>124</xdr:col>
+      <xdr:col>134</xdr:col>
       <xdr:colOff>93132</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>116471</xdr:rowOff>
+      <xdr:rowOff>105265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>128</xdr:col>
+      <xdr:col>138</xdr:col>
       <xdr:colOff>149039</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>116471</xdr:rowOff>
+      <xdr:rowOff>105265</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6891,8 +6849,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25724907" y="2545346"/>
-          <a:ext cx="856007" cy="0"/>
+          <a:off x="9797426" y="3354971"/>
+          <a:ext cx="862731" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7190,13 +7148,13 @@
       <xdr:col>104</xdr:col>
       <xdr:colOff>126749</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>60442</xdr:rowOff>
+      <xdr:rowOff>94060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>110</xdr:col>
-      <xdr:colOff>168089</xdr:colOff>
+      <xdr:col>111</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>60442</xdr:rowOff>
+      <xdr:rowOff>94060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7205,8 +7163,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21933396" y="5853883"/>
-          <a:ext cx="1251575" cy="0"/>
+          <a:off x="3779867" y="5887501"/>
+          <a:ext cx="1442074" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7241,13 +7199,13 @@
       <xdr:col>105</xdr:col>
       <xdr:colOff>21974</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>69967</xdr:rowOff>
+      <xdr:rowOff>92379</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>111</xdr:col>
-      <xdr:colOff>182655</xdr:colOff>
+      <xdr:col>109</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>69967</xdr:rowOff>
+      <xdr:rowOff>92379</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7256,8 +7214,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21853274" y="5775442"/>
-          <a:ext cx="1360831" cy="0"/>
+          <a:off x="3876798" y="5717732"/>
+          <a:ext cx="952937" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7340,16 +7298,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>149</xdr:col>
-      <xdr:colOff>134594</xdr:colOff>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>112182</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>65485</xdr:rowOff>
+      <xdr:rowOff>87897</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>153</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>131</xdr:col>
+      <xdr:colOff>168089</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>65485</xdr:rowOff>
+      <xdr:rowOff>87897</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7358,8 +7316,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30766994" y="6799660"/>
-          <a:ext cx="856006" cy="0"/>
+          <a:off x="8404535" y="6721779"/>
+          <a:ext cx="862730" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7391,16 +7349,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>150</xdr:col>
-      <xdr:colOff>29819</xdr:colOff>
+      <xdr:col>119</xdr:col>
+      <xdr:colOff>197907</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>75010</xdr:rowOff>
+      <xdr:rowOff>86216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>156</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>126</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>75010</xdr:rowOff>
+      <xdr:rowOff>86216</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7409,8 +7367,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30862244" y="6637735"/>
-          <a:ext cx="1360831" cy="0"/>
+          <a:off x="6876613" y="6552010"/>
+          <a:ext cx="1370917" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7777,59 +7735,6 @@
         <a:ln w="28575">
           <a:solidFill>
             <a:srgbClr val="0000FF"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>162</xdr:col>
-      <xdr:colOff>196851</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>129612</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>163</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>156885</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="꺾인 연결선 42"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="33439098" y="2432424"/>
-          <a:ext cx="531537" cy="4855"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
           </a:solidFill>
           <a:prstDash val="sysDash"/>
           <a:tailEnd type="triangle"/>
@@ -35116,6 +35021,11 @@
     <row r="71" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="GA6:HE6"/>
+    <mergeCell ref="HF6:IJ6"/>
+    <mergeCell ref="IK6:JN6"/>
+    <mergeCell ref="JO6:KS6"/>
+    <mergeCell ref="KT6:LW6"/>
     <mergeCell ref="LX6:NB6"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="A15:A19"/>
@@ -35132,11 +35042,6 @@
     <mergeCell ref="BI6:CM6"/>
     <mergeCell ref="CN6:DQ6"/>
     <mergeCell ref="DR6:EV6"/>
-    <mergeCell ref="GA6:HE6"/>
-    <mergeCell ref="HF6:IJ6"/>
-    <mergeCell ref="IK6:JN6"/>
-    <mergeCell ref="JO6:KS6"/>
-    <mergeCell ref="KT6:LW6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35150,16 +35055,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:NB71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="EL36" sqref="EL36:EL37"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FA42" sqref="FA42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="60" width="2.625" style="2" customWidth="1"/>
-    <col min="61" max="16384" width="2.625" style="2"/>
+    <col min="2" max="60" width="2.625" style="2" hidden="1" customWidth="1"/>
+    <col min="61" max="91" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="92" max="16384" width="2.625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:366" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -35965,7 +35871,7 @@
       <c r="DY7" s="8">
         <v>8</v>
       </c>
-      <c r="DZ7" s="8">
+      <c r="DZ7" s="160">
         <v>9</v>
       </c>
       <c r="EA7" s="8">
@@ -41295,41 +41201,41 @@
       <c r="DI20" s="77"/>
       <c r="DJ20" s="76"/>
       <c r="DK20" s="43"/>
-      <c r="DL20" s="123" t="s">
-        <v>9</v>
-      </c>
-      <c r="DM20" s="60"/>
-      <c r="DN20" s="60"/>
-      <c r="DO20" s="60"/>
-      <c r="DP20" s="60"/>
+      <c r="DL20" s="76"/>
+      <c r="DM20" s="76"/>
+      <c r="DN20" s="76"/>
+      <c r="DO20" s="77"/>
+      <c r="DP20" s="77"/>
       <c r="DQ20" s="48"/>
       <c r="DR20" s="82"/>
       <c r="DS20" s="76"/>
       <c r="DT20" s="76"/>
       <c r="DU20" s="76"/>
-      <c r="DV20" s="77"/>
-      <c r="DW20" s="77"/>
-      <c r="DX20" s="77"/>
-      <c r="DY20" s="76"/>
-      <c r="DZ20" s="76"/>
+      <c r="DV20" s="123" t="s">
+        <v>9</v>
+      </c>
+      <c r="DW20" s="60"/>
+      <c r="DX20" s="60"/>
+      <c r="DY20" s="60"/>
+      <c r="DZ20" s="60"/>
       <c r="EA20" s="76"/>
-      <c r="EB20" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="EC20" s="60"/>
-      <c r="ED20" s="60"/>
-      <c r="EE20" s="60"/>
-      <c r="EF20" s="88"/>
+      <c r="EB20" s="76"/>
+      <c r="EC20" s="77"/>
+      <c r="ED20" s="77"/>
+      <c r="EE20" s="78"/>
+      <c r="EF20" s="76"/>
       <c r="EG20" s="76"/>
       <c r="EH20" s="76"/>
       <c r="EI20" s="43"/>
       <c r="EJ20" s="77"/>
       <c r="EK20" s="77"/>
-      <c r="EL20" s="78"/>
-      <c r="EM20" s="77"/>
-      <c r="EN20" s="76"/>
-      <c r="EO20" s="76"/>
-      <c r="EP20" s="76"/>
+      <c r="EL20" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="EM20" s="60"/>
+      <c r="EN20" s="60"/>
+      <c r="EO20" s="60"/>
+      <c r="EP20" s="88"/>
       <c r="EQ20" s="77"/>
       <c r="ER20" s="77"/>
       <c r="ES20" s="78"/>
@@ -41677,23 +41583,23 @@
       <c r="DI21" s="14"/>
       <c r="DJ21" s="13"/>
       <c r="DK21" s="16"/>
-      <c r="DL21" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="DM21" s="59"/>
-      <c r="DN21" s="59"/>
-      <c r="DO21" s="59"/>
-      <c r="DP21" s="59"/>
+      <c r="DL21" s="16"/>
+      <c r="DM21" s="16"/>
+      <c r="DN21" s="16"/>
+      <c r="DO21" s="14"/>
+      <c r="DP21" s="14"/>
       <c r="DQ21" s="17"/>
       <c r="DR21" s="67"/>
       <c r="DS21" s="16"/>
       <c r="DT21" s="16"/>
       <c r="DU21" s="16"/>
-      <c r="DV21" s="14"/>
-      <c r="DW21" s="14"/>
-      <c r="DX21" s="14"/>
-      <c r="DY21" s="16"/>
-      <c r="DZ21" s="16"/>
+      <c r="DV21" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="DW21" s="59"/>
+      <c r="DX21" s="59"/>
+      <c r="DY21" s="59"/>
+      <c r="DZ21" s="59"/>
       <c r="EA21" s="16"/>
       <c r="EB21" s="16"/>
       <c r="EC21" s="14"/>
@@ -42047,7 +41953,9 @@
       <c r="DD22" s="16"/>
       <c r="DE22" s="16"/>
       <c r="DF22" s="16"/>
-      <c r="DG22" s="16"/>
+      <c r="DG22" s="56" t="s">
+        <v>119</v>
+      </c>
       <c r="DH22" s="14"/>
       <c r="DI22" s="14"/>
       <c r="DJ22" s="13"/>
@@ -42426,9 +42334,7 @@
       <c r="DN23" s="16"/>
       <c r="DO23" s="14"/>
       <c r="DP23" s="14"/>
-      <c r="DQ23" s="122" t="s">
-        <v>53</v>
-      </c>
+      <c r="DQ23" s="17"/>
       <c r="DR23" s="67"/>
       <c r="DS23" s="16"/>
       <c r="DT23" s="16"/>
@@ -42437,10 +42343,10 @@
       <c r="DW23" s="14"/>
       <c r="DX23" s="14"/>
       <c r="DY23" s="16"/>
-      <c r="DZ23" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="EA23" s="59"/>
+      <c r="DZ23" s="16"/>
+      <c r="EA23" s="122" t="s">
+        <v>53</v>
+      </c>
       <c r="EB23" s="16"/>
       <c r="EC23" s="14"/>
       <c r="ED23" s="14"/>
@@ -42449,8 +42355,10 @@
       <c r="EG23" s="16"/>
       <c r="EH23" s="16"/>
       <c r="EI23" s="16"/>
-      <c r="EJ23" s="14"/>
-      <c r="EK23" s="14"/>
+      <c r="EJ23" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="EK23" s="59"/>
       <c r="EL23" s="13"/>
       <c r="EM23" s="14"/>
       <c r="EN23" s="16"/>
@@ -45018,7 +44926,7 @@
       <c r="CQ30" s="76"/>
       <c r="CR30" s="76"/>
       <c r="CS30" s="76"/>
-      <c r="CT30" s="152" t="s">
+      <c r="CT30" s="177" t="s">
         <v>67</v>
       </c>
       <c r="CU30" s="77"/>
@@ -46904,25 +46812,25 @@
       <c r="DI35" s="44"/>
       <c r="DJ35" s="78"/>
       <c r="DK35" s="76"/>
-      <c r="DL35" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="DM35" s="60"/>
-      <c r="DN35" s="60"/>
-      <c r="DO35" s="60"/>
-      <c r="DP35" s="150"/>
-      <c r="DQ35" s="151"/>
-      <c r="DR35" s="60"/>
+      <c r="DL35" s="76"/>
+      <c r="DM35" s="76"/>
+      <c r="DN35" s="76"/>
+      <c r="DO35" s="77"/>
+      <c r="DP35" s="77"/>
+      <c r="DQ35" s="84"/>
+      <c r="DR35" s="82"/>
       <c r="DS35" s="43"/>
       <c r="DT35" s="43"/>
       <c r="DU35" s="43"/>
-      <c r="DV35" s="44"/>
-      <c r="DW35" s="44"/>
-      <c r="DX35" s="44"/>
-      <c r="DY35" s="43"/>
-      <c r="DZ35" s="43"/>
-      <c r="EA35" s="76"/>
-      <c r="EB35" s="76"/>
+      <c r="DV35" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="DW35" s="60"/>
+      <c r="DX35" s="60"/>
+      <c r="DY35" s="60"/>
+      <c r="DZ35" s="150"/>
+      <c r="EA35" s="151"/>
+      <c r="EB35" s="60"/>
       <c r="EC35" s="77"/>
       <c r="ED35" s="77"/>
       <c r="EE35" s="78"/>
@@ -47647,13 +47555,11 @@
       <c r="DD37" s="16"/>
       <c r="DE37" s="16"/>
       <c r="DF37" s="16"/>
-      <c r="DG37" s="16"/>
+      <c r="DG37" s="56" t="s">
+        <v>119</v>
+      </c>
       <c r="DH37" s="14"/>
-      <c r="DI37" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="DJ37" s="59"/>
-      <c r="DK37" s="59"/>
+      <c r="DI37" s="14"/>
       <c r="DL37" s="16"/>
       <c r="DM37" s="16"/>
       <c r="DN37" s="16"/>
@@ -48023,9 +47929,11 @@
       <c r="DF38" s="16"/>
       <c r="DG38" s="16"/>
       <c r="DH38" s="14"/>
-      <c r="DI38" s="14"/>
-      <c r="DJ38" s="23"/>
-      <c r="DK38" s="16"/>
+      <c r="DI38" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="DJ38" s="56"/>
+      <c r="DK38" s="56"/>
       <c r="DL38" s="16"/>
       <c r="DM38" s="16"/>
       <c r="DN38" s="16"/>
@@ -48763,17 +48671,19 @@
       <c r="CZ40" s="76"/>
       <c r="DA40" s="77"/>
       <c r="DB40" s="77"/>
-      <c r="DC40" s="78"/>
-      <c r="DD40" s="76"/>
-      <c r="DE40" s="76"/>
-      <c r="DF40" s="76"/>
-      <c r="DG40" s="76"/>
-      <c r="DH40" s="77"/>
-      <c r="DI40" s="77"/>
-      <c r="DJ40" s="78"/>
-      <c r="DK40" s="76"/>
-      <c r="DL40" s="76"/>
-      <c r="DM40" s="76"/>
+      <c r="DC40" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="DD40" s="80"/>
+      <c r="DE40" s="80"/>
+      <c r="DF40" s="80"/>
+      <c r="DG40" s="80"/>
+      <c r="DH40" s="80"/>
+      <c r="DI40" s="88"/>
+      <c r="DJ40" s="88"/>
+      <c r="DK40" s="88"/>
+      <c r="DL40" s="88"/>
+      <c r="DM40" s="88"/>
       <c r="DN40" s="76"/>
       <c r="DO40" s="77"/>
       <c r="DP40" s="77"/>
@@ -48794,25 +48704,25 @@
       <c r="EE40" s="78"/>
       <c r="EF40" s="76"/>
       <c r="EG40" s="76"/>
-      <c r="EH40" s="123" t="s">
-        <v>9</v>
-      </c>
-      <c r="EI40" s="88"/>
-      <c r="EJ40" s="88"/>
-      <c r="EK40" s="88"/>
-      <c r="EL40" s="88"/>
-      <c r="EM40" s="88"/>
-      <c r="EN40" s="88"/>
-      <c r="EO40" s="88"/>
+      <c r="EH40" s="43"/>
+      <c r="EI40" s="43"/>
+      <c r="EJ40" s="44"/>
+      <c r="EK40" s="44"/>
+      <c r="EL40" s="78"/>
+      <c r="EM40" s="77"/>
+      <c r="EN40" s="43"/>
+      <c r="EO40" s="43"/>
       <c r="EP40" s="76"/>
       <c r="EQ40" s="44"/>
       <c r="ER40" s="44"/>
-      <c r="ES40" s="45"/>
-      <c r="ET40" s="45"/>
-      <c r="EU40" s="45"/>
-      <c r="EV40" s="48"/>
-      <c r="EW40" s="66"/>
-      <c r="EX40" s="44"/>
+      <c r="ES40" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="ET40" s="88"/>
+      <c r="EU40" s="88"/>
+      <c r="EV40" s="88"/>
+      <c r="EW40" s="88"/>
+      <c r="EX40" s="124"/>
       <c r="EY40" s="44"/>
       <c r="EZ40" s="43"/>
       <c r="FA40" s="43"/>
@@ -48820,14 +48730,12 @@
       <c r="FC40" s="78"/>
       <c r="FD40" s="78"/>
       <c r="FE40" s="77"/>
-      <c r="FF40" s="88" t="s">
-        <v>2</v>
-      </c>
-      <c r="FG40" s="88"/>
-      <c r="FH40" s="88"/>
-      <c r="FI40" s="88"/>
-      <c r="FJ40" s="88"/>
-      <c r="FK40" s="124"/>
+      <c r="FF40" s="77"/>
+      <c r="FG40" s="46"/>
+      <c r="FH40" s="76"/>
+      <c r="FI40" s="77"/>
+      <c r="FJ40" s="76"/>
+      <c r="FK40" s="76"/>
       <c r="FL40" s="77"/>
       <c r="FM40" s="77"/>
       <c r="FN40" s="76"/>
@@ -49130,32 +49038,34 @@
       <c r="CS41" s="16"/>
       <c r="CT41" s="14"/>
       <c r="CU41" s="14"/>
-      <c r="CV41" s="13" t="s">
+      <c r="CV41" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="CW41" s="16"/>
-      <c r="CX41" s="16"/>
-      <c r="CY41" s="16"/>
-      <c r="CZ41" s="16"/>
-      <c r="DA41" s="14"/>
-      <c r="DB41" s="14"/>
-      <c r="DC41" s="13"/>
-      <c r="DD41" s="16"/>
-      <c r="DE41" s="16"/>
-      <c r="DF41" s="16"/>
-      <c r="DG41" s="16"/>
-      <c r="DH41" s="14"/>
+      <c r="CW41" s="56"/>
+      <c r="CX41" s="56"/>
+      <c r="CY41" s="56"/>
+      <c r="CZ41" s="56"/>
+      <c r="DA41" s="56"/>
+      <c r="DB41" s="56"/>
+      <c r="DC41" s="56"/>
+      <c r="DD41" s="56"/>
+      <c r="DE41" s="56"/>
+      <c r="DF41" s="56"/>
+      <c r="DG41" s="56"/>
+      <c r="DH41" s="56"/>
       <c r="DI41" s="14"/>
       <c r="DJ41" s="13"/>
       <c r="DK41" s="16"/>
-      <c r="DL41" s="16"/>
-      <c r="DM41" s="16"/>
-      <c r="DN41" s="16"/>
-      <c r="DO41" s="14"/>
-      <c r="DP41" s="14"/>
-      <c r="DQ41" s="25"/>
-      <c r="DR41" s="67"/>
-      <c r="DS41" s="16"/>
+      <c r="DL41" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="DM41" s="59"/>
+      <c r="DN41" s="59"/>
+      <c r="DO41" s="59"/>
+      <c r="DP41" s="59"/>
+      <c r="DQ41" s="161"/>
+      <c r="DR41" s="101"/>
+      <c r="DS41" s="59"/>
       <c r="DT41" s="16"/>
       <c r="DU41" s="16"/>
       <c r="DV41" s="14"/>
@@ -49170,16 +49080,14 @@
       <c r="EE41" s="13"/>
       <c r="EF41" s="16"/>
       <c r="EG41" s="16"/>
-      <c r="EH41" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="EI41" s="59"/>
-      <c r="EJ41" s="59"/>
-      <c r="EK41" s="59"/>
-      <c r="EL41" s="59"/>
-      <c r="EM41" s="59"/>
-      <c r="EN41" s="59"/>
-      <c r="EO41" s="59"/>
+      <c r="EH41" s="16"/>
+      <c r="EI41" s="16"/>
+      <c r="EJ41" s="14"/>
+      <c r="EK41" s="14"/>
+      <c r="EL41" s="13"/>
+      <c r="EM41" s="14"/>
+      <c r="EN41" s="16"/>
+      <c r="EO41" s="16"/>
       <c r="EP41" s="16"/>
       <c r="EQ41" s="14"/>
       <c r="ER41" s="14"/>
@@ -49518,7 +49426,9 @@
       <c r="DI42" s="14"/>
       <c r="DJ42" s="13"/>
       <c r="DK42" s="16"/>
-      <c r="DL42" s="16"/>
+      <c r="DL42" s="59" t="s">
+        <v>54</v>
+      </c>
       <c r="DM42" s="16"/>
       <c r="DN42" s="16"/>
       <c r="DO42" s="14"/>
@@ -49548,9 +49458,7 @@
       <c r="EM42" s="14"/>
       <c r="EN42" s="16"/>
       <c r="EO42" s="16"/>
-      <c r="EP42" s="59" t="s">
-        <v>54</v>
-      </c>
+      <c r="EP42" s="16"/>
       <c r="EQ42" s="14"/>
       <c r="ER42" s="14"/>
       <c r="ES42" s="13"/>
@@ -49563,11 +49471,9 @@
       <c r="EZ42" s="16"/>
       <c r="FA42" s="16"/>
       <c r="FB42" s="14"/>
-      <c r="FC42" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="FD42" s="59"/>
-      <c r="FE42" s="59"/>
+      <c r="FC42" s="13"/>
+      <c r="FD42" s="13"/>
+      <c r="FE42" s="14"/>
       <c r="FF42" s="14"/>
       <c r="FG42" s="16"/>
       <c r="FH42" s="16"/>
@@ -49898,7 +49804,9 @@
       <c r="DQ43" s="17"/>
       <c r="DR43" s="67"/>
       <c r="DS43" s="16"/>
-      <c r="DT43" s="16"/>
+      <c r="DT43" s="122" t="s">
+        <v>53</v>
+      </c>
       <c r="DU43" s="16"/>
       <c r="DV43" s="14"/>
       <c r="DW43" s="14"/>
@@ -49909,9 +49817,11 @@
       <c r="EB43" s="16"/>
       <c r="EC43" s="14"/>
       <c r="ED43" s="14"/>
-      <c r="EE43" s="13"/>
-      <c r="EF43" s="16"/>
-      <c r="EG43" s="16"/>
+      <c r="EE43" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="EF43" s="59"/>
+      <c r="EG43" s="59"/>
       <c r="EH43" s="16"/>
       <c r="EI43" s="16"/>
       <c r="EJ43" s="14"/>
@@ -49920,9 +49830,7 @@
       <c r="EM43" s="14"/>
       <c r="EN43" s="16"/>
       <c r="EO43" s="16"/>
-      <c r="EP43" s="122" t="s">
-        <v>53</v>
-      </c>
+      <c r="EP43" s="16"/>
       <c r="EQ43" s="14"/>
       <c r="ER43" s="14"/>
       <c r="ES43" s="13"/>
@@ -54271,6 +54179,18 @@
     <row r="71" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="LX6:NB6"/>
+    <mergeCell ref="B6:AF6"/>
+    <mergeCell ref="AG6:BH6"/>
+    <mergeCell ref="BI6:CM6"/>
+    <mergeCell ref="CN6:DQ6"/>
+    <mergeCell ref="DR6:EV6"/>
+    <mergeCell ref="EW6:FZ6"/>
+    <mergeCell ref="GA6:HE6"/>
+    <mergeCell ref="HF6:IJ6"/>
+    <mergeCell ref="IK6:JN6"/>
+    <mergeCell ref="JO6:KS6"/>
+    <mergeCell ref="KT6:LW6"/>
     <mergeCell ref="A40:A44"/>
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="A50:A54"/>
@@ -54280,18 +54200,6 @@
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="A35:A39"/>
-    <mergeCell ref="GA6:HE6"/>
-    <mergeCell ref="HF6:IJ6"/>
-    <mergeCell ref="IK6:JN6"/>
-    <mergeCell ref="JO6:KS6"/>
-    <mergeCell ref="KT6:LW6"/>
-    <mergeCell ref="LX6:NB6"/>
-    <mergeCell ref="B6:AF6"/>
-    <mergeCell ref="AG6:BH6"/>
-    <mergeCell ref="BI6:CM6"/>
-    <mergeCell ref="CN6:DQ6"/>
-    <mergeCell ref="DR6:EV6"/>
-    <mergeCell ref="EW6:FZ6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0_DOC/Femto Project schedule V1.0.xlsx
+++ b/0_DOC/Femto Project schedule V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="20180207" sheetId="18" r:id="rId1"/>
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="124">
   <si>
     <t>◇PCB설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -756,10 +756,6 @@
   </si>
   <si>
     <t>◇부품입고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>◇PCB설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6847,16 +6843,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>127</xdr:col>
+      <xdr:col>125</xdr:col>
       <xdr:colOff>115544</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>94059</xdr:rowOff>
+      <xdr:rowOff>82853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>131</xdr:col>
-      <xdr:colOff>171452</xdr:colOff>
+      <xdr:colOff>156883</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>94059</xdr:rowOff>
+      <xdr:rowOff>82853</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6865,8 +6861,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8407897" y="3343765"/>
-          <a:ext cx="862731" cy="0"/>
+          <a:off x="8004485" y="3332559"/>
+          <a:ext cx="1251574" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7314,13 +7310,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>127</xdr:col>
+      <xdr:col>138</xdr:col>
       <xdr:colOff>112182</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>87897</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>131</xdr:col>
+      <xdr:col>142</xdr:col>
       <xdr:colOff>168089</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>87897</xdr:rowOff>
@@ -7365,14 +7361,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>119</xdr:col>
-      <xdr:colOff>197907</xdr:colOff>
+      <xdr:col>126</xdr:col>
+      <xdr:colOff>186701</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>86216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>126</xdr:col>
-      <xdr:colOff>156883</xdr:colOff>
+      <xdr:col>133</xdr:col>
+      <xdr:colOff>145677</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>86216</xdr:rowOff>
     </xdr:to>
@@ -7383,7 +7379,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6876613" y="6552010"/>
+          <a:off x="8277348" y="6552010"/>
           <a:ext cx="1370917" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -7877,14 +7873,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>124</xdr:col>
-      <xdr:colOff>106019</xdr:colOff>
+      <xdr:col>125</xdr:col>
+      <xdr:colOff>94813</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>103585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>128</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>129</xdr:col>
+      <xdr:colOff>150719</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>103585</xdr:rowOff>
     </xdr:to>
@@ -7895,8 +7891,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25737794" y="3408760"/>
-          <a:ext cx="856006" cy="0"/>
+          <a:off x="7983754" y="4216144"/>
+          <a:ext cx="862730" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -35037,6 +35033,11 @@
     <row r="71" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="GA6:HE6"/>
+    <mergeCell ref="HF6:IJ6"/>
+    <mergeCell ref="IK6:JN6"/>
+    <mergeCell ref="JO6:KS6"/>
+    <mergeCell ref="KT6:LW6"/>
     <mergeCell ref="LX6:NB6"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="A15:A19"/>
@@ -35053,11 +35054,6 @@
     <mergeCell ref="BI6:CM6"/>
     <mergeCell ref="CN6:DQ6"/>
     <mergeCell ref="DR6:EV6"/>
-    <mergeCell ref="GA6:HE6"/>
-    <mergeCell ref="HF6:IJ6"/>
-    <mergeCell ref="IK6:JN6"/>
-    <mergeCell ref="JO6:KS6"/>
-    <mergeCell ref="KT6:LW6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35071,9 +35067,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:NB71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FJ32" sqref="FJ32"/>
+      <selection pane="topRight" activeCell="DX46" sqref="DX46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -36730,7 +36726,7 @@
       <c r="DH8" s="38"/>
       <c r="DI8" s="38"/>
       <c r="DJ8" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="DK8" s="35"/>
       <c r="DL8" s="36"/>
@@ -37502,7 +37498,7 @@
       <c r="DL10" s="30"/>
       <c r="DM10" s="30"/>
       <c r="DN10" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DO10" s="31"/>
       <c r="DP10" s="31"/>
@@ -39768,7 +39764,7 @@
       <c r="EN16" s="16"/>
       <c r="EO16" s="16"/>
       <c r="EP16" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="EQ16" s="14"/>
       <c r="ER16" s="14"/>
@@ -40113,7 +40109,7 @@
       <c r="DO17" s="14"/>
       <c r="DP17" s="14"/>
       <c r="DQ17" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="DR17" s="67"/>
       <c r="DS17" s="16"/>
@@ -41224,15 +41220,15 @@
       <c r="DJ20" s="76"/>
       <c r="DK20" s="43"/>
       <c r="DL20" s="76"/>
-      <c r="DM20" s="76"/>
-      <c r="DN20" s="76"/>
-      <c r="DO20" s="123" t="s">
+      <c r="DM20" s="123" t="s">
         <v>9</v>
       </c>
+      <c r="DN20" s="60"/>
+      <c r="DO20" s="60"/>
       <c r="DP20" s="60"/>
       <c r="DQ20" s="60"/>
-      <c r="DR20" s="60"/>
-      <c r="DS20" s="60"/>
+      <c r="DR20" s="82"/>
+      <c r="DS20" s="76"/>
       <c r="DT20" s="76"/>
       <c r="DU20" s="76"/>
       <c r="DV20" s="77"/>
@@ -41245,7 +41241,7 @@
       <c r="EC20" s="77"/>
       <c r="ED20" s="77"/>
       <c r="EE20" s="60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="EF20" s="60"/>
       <c r="EG20" s="60"/>
@@ -41606,15 +41602,15 @@
       <c r="DJ21" s="13"/>
       <c r="DK21" s="16"/>
       <c r="DL21" s="16"/>
-      <c r="DM21" s="16"/>
-      <c r="DN21" s="16"/>
-      <c r="DO21" s="59" t="s">
+      <c r="DM21" s="59" t="s">
         <v>0</v>
       </c>
+      <c r="DN21" s="59"/>
+      <c r="DO21" s="59"/>
       <c r="DP21" s="59"/>
       <c r="DQ21" s="59"/>
-      <c r="DR21" s="59"/>
-      <c r="DS21" s="59"/>
+      <c r="DR21" s="67"/>
+      <c r="DS21" s="16"/>
       <c r="DT21" s="16"/>
       <c r="DU21" s="16"/>
       <c r="DV21" s="14"/>
@@ -42358,11 +42354,11 @@
       <c r="DO23" s="14"/>
       <c r="DP23" s="14"/>
       <c r="DQ23" s="17"/>
-      <c r="DR23" s="67"/>
+      <c r="DR23" s="122" t="s">
+        <v>53</v>
+      </c>
       <c r="DS23" s="16"/>
-      <c r="DT23" s="122" t="s">
-        <v>53</v>
-      </c>
+      <c r="DT23" s="16"/>
       <c r="DU23" s="16"/>
       <c r="DV23" s="14"/>
       <c r="DW23" s="14"/>
@@ -42734,9 +42730,9 @@
       <c r="DO24" s="20"/>
       <c r="DP24" s="20"/>
       <c r="DQ24" s="22"/>
-      <c r="DR24" s="70"/>
-      <c r="DS24" s="71"/>
-      <c r="DT24" s="71"/>
+      <c r="DR24" s="68"/>
+      <c r="DS24" s="21"/>
+      <c r="DT24" s="21"/>
       <c r="DU24" s="71"/>
       <c r="DV24" s="72"/>
       <c r="DW24" s="72"/>
@@ -43112,8 +43108,10 @@
       <c r="DM25" s="76"/>
       <c r="DN25" s="76"/>
       <c r="DO25" s="77"/>
-      <c r="DP25" s="77"/>
-      <c r="DQ25" s="84"/>
+      <c r="DP25" s="145" t="s">
+        <v>9</v>
+      </c>
+      <c r="DQ25" s="88"/>
       <c r="DR25" s="82"/>
       <c r="DS25" s="76"/>
       <c r="DT25" s="76"/>
@@ -43486,8 +43484,10 @@
       <c r="DM26" s="16"/>
       <c r="DN26" s="16"/>
       <c r="DO26" s="14"/>
-      <c r="DP26" s="14"/>
-      <c r="DQ26" s="25"/>
+      <c r="DP26" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="DQ26" s="59"/>
       <c r="DR26" s="67"/>
       <c r="DS26" s="16"/>
       <c r="DT26" s="16"/>
@@ -44231,10 +44231,10 @@
       <c r="DN28" s="13"/>
       <c r="DO28" s="14"/>
       <c r="DP28" s="14"/>
-      <c r="DQ28" s="122" t="s">
+      <c r="DQ28" s="155"/>
+      <c r="DR28" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="DR28" s="13"/>
       <c r="DS28" s="13"/>
       <c r="DT28" s="13"/>
       <c r="DU28" s="13"/>
@@ -44242,14 +44242,14 @@
       <c r="DW28" s="14"/>
       <c r="DX28" s="14"/>
       <c r="DY28" s="13"/>
-      <c r="DZ28" s="59" t="s">
+      <c r="DZ28" s="16"/>
+      <c r="EA28" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="EA28" s="59"/>
       <c r="EB28" s="59"/>
       <c r="EC28" s="59"/>
       <c r="ED28" s="59"/>
-      <c r="EE28" s="13"/>
+      <c r="EE28" s="59"/>
       <c r="EF28" s="16"/>
       <c r="EG28" s="16"/>
       <c r="EH28" s="16"/>
@@ -47980,7 +47980,9 @@
       <c r="EE38" s="13"/>
       <c r="EF38" s="16"/>
       <c r="EG38" s="16"/>
-      <c r="EH38" s="16"/>
+      <c r="EH38" s="16" t="s">
+        <v>73</v>
+      </c>
       <c r="EI38" s="16"/>
       <c r="EJ38" s="14"/>
       <c r="EK38" s="14"/>
@@ -48703,11 +48705,11 @@
       <c r="DF40" s="80"/>
       <c r="DG40" s="80"/>
       <c r="DH40" s="80"/>
-      <c r="DI40" s="88"/>
-      <c r="DJ40" s="88"/>
-      <c r="DK40" s="88"/>
-      <c r="DL40" s="88"/>
-      <c r="DM40" s="88"/>
+      <c r="DI40" s="80"/>
+      <c r="DJ40" s="80"/>
+      <c r="DK40" s="80"/>
+      <c r="DL40" s="80"/>
+      <c r="DM40" s="76"/>
       <c r="DN40" s="76"/>
       <c r="DO40" s="77"/>
       <c r="DP40" s="77"/>
@@ -49080,23 +49082,23 @@
       <c r="DI41" s="14"/>
       <c r="DJ41" s="13"/>
       <c r="DK41" s="16"/>
-      <c r="DL41" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="DM41" s="59"/>
-      <c r="DN41" s="59"/>
-      <c r="DO41" s="59"/>
-      <c r="DP41" s="59"/>
-      <c r="DQ41" s="161"/>
-      <c r="DR41" s="101"/>
-      <c r="DS41" s="59"/>
-      <c r="DT41" s="16"/>
-      <c r="DU41" s="16"/>
-      <c r="DV41" s="14"/>
-      <c r="DW41" s="14"/>
-      <c r="DX41" s="14"/>
-      <c r="DY41" s="16"/>
-      <c r="DZ41" s="16"/>
+      <c r="DL41" s="16"/>
+      <c r="DM41" s="16"/>
+      <c r="DN41" s="16"/>
+      <c r="DO41" s="14"/>
+      <c r="DP41" s="14"/>
+      <c r="DQ41" s="25"/>
+      <c r="DR41" s="67"/>
+      <c r="DS41" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="DT41" s="59"/>
+      <c r="DU41" s="59"/>
+      <c r="DV41" s="59"/>
+      <c r="DW41" s="59"/>
+      <c r="DX41" s="59"/>
+      <c r="DY41" s="59"/>
+      <c r="DZ41" s="59"/>
       <c r="EA41" s="16"/>
       <c r="EB41" s="16"/>
       <c r="EC41" s="14"/>
@@ -49450,16 +49452,16 @@
       <c r="DI42" s="14"/>
       <c r="DJ42" s="13"/>
       <c r="DK42" s="16"/>
-      <c r="DL42" s="59" t="s">
-        <v>54</v>
-      </c>
+      <c r="DL42" s="16"/>
       <c r="DM42" s="16"/>
       <c r="DN42" s="16"/>
       <c r="DO42" s="14"/>
       <c r="DP42" s="14"/>
       <c r="DQ42" s="25"/>
       <c r="DR42" s="67"/>
-      <c r="DS42" s="16"/>
+      <c r="DS42" s="59" t="s">
+        <v>54</v>
+      </c>
       <c r="DT42" s="16"/>
       <c r="DU42" s="16"/>
       <c r="DV42" s="14"/>
@@ -49828,10 +49830,6 @@
       <c r="DQ43" s="17"/>
       <c r="DR43" s="67"/>
       <c r="DS43" s="16"/>
-      <c r="DT43" s="122" t="s">
-        <v>53</v>
-      </c>
-      <c r="DU43" s="16"/>
       <c r="DV43" s="14"/>
       <c r="DW43" s="14"/>
       <c r="DX43" s="14"/>
@@ -49841,11 +49839,11 @@
       <c r="EB43" s="16"/>
       <c r="EC43" s="14"/>
       <c r="ED43" s="14"/>
-      <c r="EE43" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="EF43" s="59"/>
-      <c r="EG43" s="59"/>
+      <c r="EE43" s="122" t="s">
+        <v>53</v>
+      </c>
+      <c r="EF43" s="16"/>
+      <c r="EG43" s="16"/>
       <c r="EH43" s="16"/>
       <c r="EI43" s="16"/>
       <c r="EJ43" s="14"/>
@@ -49854,9 +49852,11 @@
       <c r="EM43" s="14"/>
       <c r="EN43" s="16"/>
       <c r="EO43" s="16"/>
-      <c r="EP43" s="16"/>
-      <c r="EQ43" s="14"/>
-      <c r="ER43" s="14"/>
+      <c r="EP43" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="EQ43" s="59"/>
+      <c r="ER43" s="59"/>
       <c r="ES43" s="13"/>
       <c r="ET43" s="13"/>
       <c r="EU43" s="13"/>
@@ -54203,15 +54203,6 @@
     <row r="71" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A35:A39"/>
     <mergeCell ref="LX6:NB6"/>
     <mergeCell ref="B6:AF6"/>
     <mergeCell ref="AG6:BH6"/>
@@ -54224,6 +54215,15 @@
     <mergeCell ref="IK6:JN6"/>
     <mergeCell ref="JO6:KS6"/>
     <mergeCell ref="KT6:LW6"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
